--- a/scouting.xlsx
+++ b/scouting.xlsx
@@ -428,11 +428,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1068"/>
+  <dimension ref="A1:O1070"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -528,32 +528,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sonus Caous;617;Match;Sonus Caous;617;Pit;Low;Traversal;5;3;3;</t>
+          <t>test2;34;Choose;test2;34;Pit;;No Climb;0;0;2;</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sonus Caous</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Choose</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sonus Caous</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -561,29 +561,25 @@
           <t>Pit</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Low</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Traversal</t>
+          <t>No Climb</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
@@ -591,301 +587,71 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Micheal You;718;Match;;;;;4;&gt;5;&gt;5;65;High;Traversal;</t>
+          <t>test1;wi2i;Choose;test1;wi2i;Match;;0;0;h;;No Attempt;No Climb;</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Micheal You</t>
+          <t>test1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>wi2i</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>Choose</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>wi2i</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Match</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>&gt;5</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>&gt;5</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Traversal</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>paj;jen;Match;2;3;4;18;;High;High;</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>paj</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>jen</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Paras;3181;Match;1;1;2;6;;Mid;High;</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Paras</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3181</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Mid</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>High</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>nn;n;Choose;nn;n;Choose;nn;n;Choose;nn;n;Choose;nn;n;Choose;nn;9;Choose;nn;ugg;Match;45;0;0;h;;No Attempt;No Climb;</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Choose</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Choose</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Choose</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Choose</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Choose</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>Choose</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>nn</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>ugg</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Match</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>h</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
         <is>
           <t>No Attempt</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>No Climb</t>
         </is>
       </c>
-    </row>
+      <c r="O3" t="inlineStr"/>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
@@ -901,6284 +667,6286 @@
     <row r="19"/>
     <row r="20"/>
     <row r="21"/>
-    <row r="22">
-      <c r="B22">
-        <f t="array" aca="1" ref="B22" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23">
-        <f t="array" aca="1" ref="B23" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
-        <v/>
-      </c>
-    </row>
+    <row r="22"/>
+    <row r="23"/>
     <row r="24">
       <c r="B24">
-        <f t="array" aca="1" ref="B24" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
+        <f t="array" aca="1" ref="B24" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="B25">
-        <f t="array" aca="1" ref="B25" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
+        <f t="array" aca="1" ref="B25" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="B26">
-        <f t="array" aca="1" ref="B26" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
+        <f t="array" aca="1" ref="B26" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="B27">
-        <f t="array" aca="1" ref="B27" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
+        <f t="array" aca="1" ref="B27" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="B28">
-        <f t="array" aca="1" ref="B28" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
+        <f t="array" aca="1" ref="B28" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="B29">
-        <f t="array" aca="1" ref="B29" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A20,";",REPT(" ",LEN(A20)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A20)-LEN(SUBSTITUTE(A20,";",""))+1))*LEN(A20)+1,LEN(A20)+1)))</f>
+        <f t="array" aca="1" ref="B29" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="B30">
-        <f t="array" aca="1" ref="B30" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A21,";",REPT(" ",LEN(A21)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A21)-LEN(SUBSTITUTE(A21,";",""))+1))*LEN(A21)+1,LEN(A21)+1)))</f>
+        <f t="array" aca="1" ref="B30" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="B31">
-        <f t="array" aca="1" ref="B31" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A22,";",REPT(" ",LEN(A22)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A22)-LEN(SUBSTITUTE(A22,";",""))+1))*LEN(A22)+1,LEN(A22)+1)))</f>
+        <f t="array" aca="1" ref="B31" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A20,";",REPT(" ",LEN(A20)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A20)-LEN(SUBSTITUTE(A20,";",""))+1))*LEN(A20)+1,LEN(A20)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="B32">
-        <f t="array" aca="1" ref="B32" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A23,";",REPT(" ",LEN(A23)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A23)-LEN(SUBSTITUTE(A23,";",""))+1))*LEN(A23)+1,LEN(A23)+1)))</f>
+        <f t="array" aca="1" ref="B32" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A21,";",REPT(" ",LEN(A21)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A21)-LEN(SUBSTITUTE(A21,";",""))+1))*LEN(A21)+1,LEN(A21)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="B33">
-        <f t="array" aca="1" ref="B33" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A24,";",REPT(" ",LEN(A24)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A24)-LEN(SUBSTITUTE(A24,";",""))+1))*LEN(A24)+1,LEN(A24)+1)))</f>
+        <f t="array" aca="1" ref="B33" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A22,";",REPT(" ",LEN(A22)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A22)-LEN(SUBSTITUTE(A22,";",""))+1))*LEN(A22)+1,LEN(A22)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="B34">
-        <f t="array" aca="1" ref="B34" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A25,";",REPT(" ",LEN(A25)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A25)-LEN(SUBSTITUTE(A25,";",""))+1))*LEN(A25)+1,LEN(A25)+1)))</f>
+        <f t="array" aca="1" ref="B34" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A23,";",REPT(" ",LEN(A23)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A23)-LEN(SUBSTITUTE(A23,";",""))+1))*LEN(A23)+1,LEN(A23)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="B35">
-        <f t="array" aca="1" ref="B35" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A26,";",REPT(" ",LEN(A26)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A26)-LEN(SUBSTITUTE(A26,";",""))+1))*LEN(A26)+1,LEN(A26)+1)))</f>
+        <f t="array" aca="1" ref="B35" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A24,";",REPT(" ",LEN(A24)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A24)-LEN(SUBSTITUTE(A24,";",""))+1))*LEN(A24)+1,LEN(A24)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="B36">
-        <f t="array" aca="1" ref="B36" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A27,";",REPT(" ",LEN(A27)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A27)-LEN(SUBSTITUTE(A27,";",""))+1))*LEN(A27)+1,LEN(A27)+1)))</f>
+        <f t="array" aca="1" ref="B36" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A25,";",REPT(" ",LEN(A25)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A25)-LEN(SUBSTITUTE(A25,";",""))+1))*LEN(A25)+1,LEN(A25)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="B37">
-        <f t="array" aca="1" ref="B37" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A28,";",REPT(" ",LEN(A28)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A28)-LEN(SUBSTITUTE(A28,";",""))+1))*LEN(A28)+1,LEN(A28)+1)))</f>
+        <f t="array" aca="1" ref="B37" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A26,";",REPT(" ",LEN(A26)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A26)-LEN(SUBSTITUTE(A26,";",""))+1))*LEN(A26)+1,LEN(A26)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="B38">
-        <f t="array" aca="1" ref="B38" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A29,";",REPT(" ",LEN(A29)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A29)-LEN(SUBSTITUTE(A29,";",""))+1))*LEN(A29)+1,LEN(A29)+1)))</f>
+        <f t="array" aca="1" ref="B38" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A27,";",REPT(" ",LEN(A27)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A27)-LEN(SUBSTITUTE(A27,";",""))+1))*LEN(A27)+1,LEN(A27)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="B39">
-        <f t="array" aca="1" ref="B39" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A30,";",REPT(" ",LEN(A30)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A30)-LEN(SUBSTITUTE(A30,";",""))+1))*LEN(A30)+1,LEN(A30)+1)))</f>
+        <f t="array" aca="1" ref="B39" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A28,";",REPT(" ",LEN(A28)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A28)-LEN(SUBSTITUTE(A28,";",""))+1))*LEN(A28)+1,LEN(A28)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="B40">
-        <f t="array" aca="1" ref="B40" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A31,";",REPT(" ",LEN(A31)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A31)-LEN(SUBSTITUTE(A31,";",""))+1))*LEN(A31)+1,LEN(A31)+1)))</f>
+        <f t="array" aca="1" ref="B40" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A29,";",REPT(" ",LEN(A29)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A29)-LEN(SUBSTITUTE(A29,";",""))+1))*LEN(A29)+1,LEN(A29)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="B41">
-        <f t="array" aca="1" ref="B41" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A32,";",REPT(" ",LEN(A32)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A32)-LEN(SUBSTITUTE(A32,";",""))+1))*LEN(A32)+1,LEN(A32)+1)))</f>
+        <f t="array" aca="1" ref="B41" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A30,";",REPT(" ",LEN(A30)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A30)-LEN(SUBSTITUTE(A30,";",""))+1))*LEN(A30)+1,LEN(A30)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="B42">
-        <f t="array" aca="1" ref="B42" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A33,";",REPT(" ",LEN(A33)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A33)-LEN(SUBSTITUTE(A33,";",""))+1))*LEN(A33)+1,LEN(A33)+1)))</f>
+        <f t="array" aca="1" ref="B42" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A31,";",REPT(" ",LEN(A31)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A31)-LEN(SUBSTITUTE(A31,";",""))+1))*LEN(A31)+1,LEN(A31)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="B43">
-        <f t="array" aca="1" ref="B43" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A34,";",REPT(" ",LEN(A34)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A34)-LEN(SUBSTITUTE(A34,";",""))+1))*LEN(A34)+1,LEN(A34)+1)))</f>
+        <f t="array" aca="1" ref="B43" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A32,";",REPT(" ",LEN(A32)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A32)-LEN(SUBSTITUTE(A32,";",""))+1))*LEN(A32)+1,LEN(A32)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="B44">
-        <f t="array" aca="1" ref="B44" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A35,";",REPT(" ",LEN(A35)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A35)-LEN(SUBSTITUTE(A35,";",""))+1))*LEN(A35)+1,LEN(A35)+1)))</f>
+        <f t="array" aca="1" ref="B44" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A33,";",REPT(" ",LEN(A33)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A33)-LEN(SUBSTITUTE(A33,";",""))+1))*LEN(A33)+1,LEN(A33)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="B45">
-        <f t="array" aca="1" ref="B45" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A36,";",REPT(" ",LEN(A36)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A36)-LEN(SUBSTITUTE(A36,";",""))+1))*LEN(A36)+1,LEN(A36)+1)))</f>
+        <f t="array" aca="1" ref="B45" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A34,";",REPT(" ",LEN(A34)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A34)-LEN(SUBSTITUTE(A34,";",""))+1))*LEN(A34)+1,LEN(A34)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="B46">
-        <f t="array" aca="1" ref="B46" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A37,";",REPT(" ",LEN(A37)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A37)-LEN(SUBSTITUTE(A37,";",""))+1))*LEN(A37)+1,LEN(A37)+1)))</f>
+        <f t="array" aca="1" ref="B46" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A35,";",REPT(" ",LEN(A35)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A35)-LEN(SUBSTITUTE(A35,";",""))+1))*LEN(A35)+1,LEN(A35)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="B47">
-        <f t="array" aca="1" ref="B47" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A38,";",REPT(" ",LEN(A38)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A38)-LEN(SUBSTITUTE(A38,";",""))+1))*LEN(A38)+1,LEN(A38)+1)))</f>
+        <f t="array" aca="1" ref="B47" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A36,";",REPT(" ",LEN(A36)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A36)-LEN(SUBSTITUTE(A36,";",""))+1))*LEN(A36)+1,LEN(A36)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="B48">
-        <f t="array" aca="1" ref="B48" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A39,";",REPT(" ",LEN(A39)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A39)-LEN(SUBSTITUTE(A39,";",""))+1))*LEN(A39)+1,LEN(A39)+1)))</f>
+        <f t="array" aca="1" ref="B48" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A37,";",REPT(" ",LEN(A37)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A37)-LEN(SUBSTITUTE(A37,";",""))+1))*LEN(A37)+1,LEN(A37)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="B49">
-        <f t="array" aca="1" ref="B49" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A40,";",REPT(" ",LEN(A40)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A40)-LEN(SUBSTITUTE(A40,";",""))+1))*LEN(A40)+1,LEN(A40)+1)))</f>
+        <f t="array" aca="1" ref="B49" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A38,";",REPT(" ",LEN(A38)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A38)-LEN(SUBSTITUTE(A38,";",""))+1))*LEN(A38)+1,LEN(A38)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="B50">
-        <f t="array" aca="1" ref="B50" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A41,";",REPT(" ",LEN(A41)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A41)-LEN(SUBSTITUTE(A41,";",""))+1))*LEN(A41)+1,LEN(A41)+1)))</f>
+        <f t="array" aca="1" ref="B50" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A39,";",REPT(" ",LEN(A39)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A39)-LEN(SUBSTITUTE(A39,";",""))+1))*LEN(A39)+1,LEN(A39)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="B51">
-        <f t="array" aca="1" ref="B51" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A42,";",REPT(" ",LEN(A42)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A42)-LEN(SUBSTITUTE(A42,";",""))+1))*LEN(A42)+1,LEN(A42)+1)))</f>
+        <f t="array" aca="1" ref="B51" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A40,";",REPT(" ",LEN(A40)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A40)-LEN(SUBSTITUTE(A40,";",""))+1))*LEN(A40)+1,LEN(A40)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="B52">
-        <f t="array" aca="1" ref="B52" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A43,";",REPT(" ",LEN(A43)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A43)-LEN(SUBSTITUTE(A43,";",""))+1))*LEN(A43)+1,LEN(A43)+1)))</f>
+        <f t="array" aca="1" ref="B52" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A41,";",REPT(" ",LEN(A41)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A41)-LEN(SUBSTITUTE(A41,";",""))+1))*LEN(A41)+1,LEN(A41)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="53">
       <c r="B53">
-        <f t="array" aca="1" ref="B53" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A44,";",REPT(" ",LEN(A44)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A44)-LEN(SUBSTITUTE(A44,";",""))+1))*LEN(A44)+1,LEN(A44)+1)))</f>
+        <f t="array" aca="1" ref="B53" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A42,";",REPT(" ",LEN(A42)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A42)-LEN(SUBSTITUTE(A42,";",""))+1))*LEN(A42)+1,LEN(A42)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="B54">
-        <f t="array" aca="1" ref="B54" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A45,";",REPT(" ",LEN(A45)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A45)-LEN(SUBSTITUTE(A45,";",""))+1))*LEN(A45)+1,LEN(A45)+1)))</f>
+        <f t="array" aca="1" ref="B54" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A43,";",REPT(" ",LEN(A43)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A43)-LEN(SUBSTITUTE(A43,";",""))+1))*LEN(A43)+1,LEN(A43)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="B55">
-        <f t="array" aca="1" ref="B55" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A46,";",REPT(" ",LEN(A46)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A46)-LEN(SUBSTITUTE(A46,";",""))+1))*LEN(A46)+1,LEN(A46)+1)))</f>
+        <f t="array" aca="1" ref="B55" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A44,";",REPT(" ",LEN(A44)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A44)-LEN(SUBSTITUTE(A44,";",""))+1))*LEN(A44)+1,LEN(A44)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="B56">
-        <f t="array" aca="1" ref="B56" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A47,";",REPT(" ",LEN(A47)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A47)-LEN(SUBSTITUTE(A47,";",""))+1))*LEN(A47)+1,LEN(A47)+1)))</f>
+        <f t="array" aca="1" ref="B56" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A45,";",REPT(" ",LEN(A45)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A45)-LEN(SUBSTITUTE(A45,";",""))+1))*LEN(A45)+1,LEN(A45)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="B57">
-        <f t="array" aca="1" ref="B57" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A48,";",REPT(" ",LEN(A48)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A48)-LEN(SUBSTITUTE(A48,";",""))+1))*LEN(A48)+1,LEN(A48)+1)))</f>
+        <f t="array" aca="1" ref="B57" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A46,";",REPT(" ",LEN(A46)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A46)-LEN(SUBSTITUTE(A46,";",""))+1))*LEN(A46)+1,LEN(A46)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="B58">
-        <f t="array" aca="1" ref="B58" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A49,";",REPT(" ",LEN(A49)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A49)-LEN(SUBSTITUTE(A49,";",""))+1))*LEN(A49)+1,LEN(A49)+1)))</f>
+        <f t="array" aca="1" ref="B58" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A47,";",REPT(" ",LEN(A47)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A47)-LEN(SUBSTITUTE(A47,";",""))+1))*LEN(A47)+1,LEN(A47)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="B59">
-        <f t="array" aca="1" ref="B59" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A50,";",REPT(" ",LEN(A50)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A50)-LEN(SUBSTITUTE(A50,";",""))+1))*LEN(A50)+1,LEN(A50)+1)))</f>
+        <f t="array" aca="1" ref="B59" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A48,";",REPT(" ",LEN(A48)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A48)-LEN(SUBSTITUTE(A48,";",""))+1))*LEN(A48)+1,LEN(A48)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="B60">
-        <f t="array" aca="1" ref="B60" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A51,";",REPT(" ",LEN(A51)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A51)-LEN(SUBSTITUTE(A51,";",""))+1))*LEN(A51)+1,LEN(A51)+1)))</f>
+        <f t="array" aca="1" ref="B60" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A49,";",REPT(" ",LEN(A49)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A49)-LEN(SUBSTITUTE(A49,";",""))+1))*LEN(A49)+1,LEN(A49)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="B61">
-        <f t="array" aca="1" ref="B61" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A52,";",REPT(" ",LEN(A52)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A52)-LEN(SUBSTITUTE(A52,";",""))+1))*LEN(A52)+1,LEN(A52)+1)))</f>
+        <f t="array" aca="1" ref="B61" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A50,";",REPT(" ",LEN(A50)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A50)-LEN(SUBSTITUTE(A50,";",""))+1))*LEN(A50)+1,LEN(A50)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="B62">
-        <f t="array" aca="1" ref="B62" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A53,";",REPT(" ",LEN(A53)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A53)-LEN(SUBSTITUTE(A53,";",""))+1))*LEN(A53)+1,LEN(A53)+1)))</f>
+        <f t="array" aca="1" ref="B62" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A51,";",REPT(" ",LEN(A51)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A51)-LEN(SUBSTITUTE(A51,";",""))+1))*LEN(A51)+1,LEN(A51)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="B63">
-        <f t="array" aca="1" ref="B63" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A54,";",REPT(" ",LEN(A54)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A54)-LEN(SUBSTITUTE(A54,";",""))+1))*LEN(A54)+1,LEN(A54)+1)))</f>
+        <f t="array" aca="1" ref="B63" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A52,";",REPT(" ",LEN(A52)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A52)-LEN(SUBSTITUTE(A52,";",""))+1))*LEN(A52)+1,LEN(A52)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="B64">
-        <f t="array" aca="1" ref="B64" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A55,";",REPT(" ",LEN(A55)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A55)-LEN(SUBSTITUTE(A55,";",""))+1))*LEN(A55)+1,LEN(A55)+1)))</f>
+        <f t="array" aca="1" ref="B64" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A53,";",REPT(" ",LEN(A53)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A53)-LEN(SUBSTITUTE(A53,";",""))+1))*LEN(A53)+1,LEN(A53)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="B65">
-        <f t="array" aca="1" ref="B65" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A56,";",REPT(" ",LEN(A56)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A56)-LEN(SUBSTITUTE(A56,";",""))+1))*LEN(A56)+1,LEN(A56)+1)))</f>
+        <f t="array" aca="1" ref="B65" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A54,";",REPT(" ",LEN(A54)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A54)-LEN(SUBSTITUTE(A54,";",""))+1))*LEN(A54)+1,LEN(A54)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="B66">
-        <f t="array" aca="1" ref="B66" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A57,";",REPT(" ",LEN(A57)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A57)-LEN(SUBSTITUTE(A57,";",""))+1))*LEN(A57)+1,LEN(A57)+1)))</f>
+        <f t="array" aca="1" ref="B66" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A55,";",REPT(" ",LEN(A55)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A55)-LEN(SUBSTITUTE(A55,";",""))+1))*LEN(A55)+1,LEN(A55)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="B67">
-        <f t="array" aca="1" ref="B67" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A58,";",REPT(" ",LEN(A58)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A58)-LEN(SUBSTITUTE(A58,";",""))+1))*LEN(A58)+1,LEN(A58)+1)))</f>
+        <f t="array" aca="1" ref="B67" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A56,";",REPT(" ",LEN(A56)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A56)-LEN(SUBSTITUTE(A56,";",""))+1))*LEN(A56)+1,LEN(A56)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="B68">
-        <f t="array" aca="1" ref="B68" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A59,";",REPT(" ",LEN(A59)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A59)-LEN(SUBSTITUTE(A59,";",""))+1))*LEN(A59)+1,LEN(A59)+1)))</f>
+        <f t="array" aca="1" ref="B68" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A57,";",REPT(" ",LEN(A57)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A57)-LEN(SUBSTITUTE(A57,";",""))+1))*LEN(A57)+1,LEN(A57)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="B69">
-        <f t="array" aca="1" ref="B69" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A60,";",REPT(" ",LEN(A60)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A60)-LEN(SUBSTITUTE(A60,";",""))+1))*LEN(A60)+1,LEN(A60)+1)))</f>
+        <f t="array" aca="1" ref="B69" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A58,";",REPT(" ",LEN(A58)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A58)-LEN(SUBSTITUTE(A58,";",""))+1))*LEN(A58)+1,LEN(A58)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="B70">
-        <f t="array" aca="1" ref="B70" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A61,";",REPT(" ",LEN(A61)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A61)-LEN(SUBSTITUTE(A61,";",""))+1))*LEN(A61)+1,LEN(A61)+1)))</f>
+        <f t="array" aca="1" ref="B70" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A59,";",REPT(" ",LEN(A59)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A59)-LEN(SUBSTITUTE(A59,";",""))+1))*LEN(A59)+1,LEN(A59)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="B71">
-        <f t="array" aca="1" ref="B71" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A62,";",REPT(" ",LEN(A62)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A62)-LEN(SUBSTITUTE(A62,";",""))+1))*LEN(A62)+1,LEN(A62)+1)))</f>
+        <f t="array" aca="1" ref="B71" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A60,";",REPT(" ",LEN(A60)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A60)-LEN(SUBSTITUTE(A60,";",""))+1))*LEN(A60)+1,LEN(A60)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="B72">
-        <f t="array" aca="1" ref="B72" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A63,";",REPT(" ",LEN(A63)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A63)-LEN(SUBSTITUTE(A63,";",""))+1))*LEN(A63)+1,LEN(A63)+1)))</f>
+        <f t="array" aca="1" ref="B72" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A61,";",REPT(" ",LEN(A61)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A61)-LEN(SUBSTITUTE(A61,";",""))+1))*LEN(A61)+1,LEN(A61)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="73">
       <c r="B73">
-        <f t="array" aca="1" ref="B73" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A64,";",REPT(" ",LEN(A64)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A64)-LEN(SUBSTITUTE(A64,";",""))+1))*LEN(A64)+1,LEN(A64)+1)))</f>
+        <f t="array" aca="1" ref="B73" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A62,";",REPT(" ",LEN(A62)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A62)-LEN(SUBSTITUTE(A62,";",""))+1))*LEN(A62)+1,LEN(A62)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="B74">
-        <f t="array" aca="1" ref="B74" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A65,";",REPT(" ",LEN(A65)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A65)-LEN(SUBSTITUTE(A65,";",""))+1))*LEN(A65)+1,LEN(A65)+1)))</f>
+        <f t="array" aca="1" ref="B74" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A63,";",REPT(" ",LEN(A63)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A63)-LEN(SUBSTITUTE(A63,";",""))+1))*LEN(A63)+1,LEN(A63)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="75">
       <c r="B75">
-        <f t="array" aca="1" ref="B75" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A66,";",REPT(" ",LEN(A66)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A66)-LEN(SUBSTITUTE(A66,";",""))+1))*LEN(A66)+1,LEN(A66)+1)))</f>
+        <f t="array" aca="1" ref="B75" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A64,";",REPT(" ",LEN(A64)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A64)-LEN(SUBSTITUTE(A64,";",""))+1))*LEN(A64)+1,LEN(A64)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="B76">
-        <f t="array" aca="1" ref="B76" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A67,";",REPT(" ",LEN(A67)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A67)-LEN(SUBSTITUTE(A67,";",""))+1))*LEN(A67)+1,LEN(A67)+1)))</f>
+        <f t="array" aca="1" ref="B76" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A65,";",REPT(" ",LEN(A65)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A65)-LEN(SUBSTITUTE(A65,";",""))+1))*LEN(A65)+1,LEN(A65)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="B77">
-        <f t="array" aca="1" ref="B77" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A68,";",REPT(" ",LEN(A68)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A68)-LEN(SUBSTITUTE(A68,";",""))+1))*LEN(A68)+1,LEN(A68)+1)))</f>
+        <f t="array" aca="1" ref="B77" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A66,";",REPT(" ",LEN(A66)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A66)-LEN(SUBSTITUTE(A66,";",""))+1))*LEN(A66)+1,LEN(A66)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="B78">
-        <f t="array" aca="1" ref="B78" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A69,";",REPT(" ",LEN(A69)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A69)-LEN(SUBSTITUTE(A69,";",""))+1))*LEN(A69)+1,LEN(A69)+1)))</f>
+        <f t="array" aca="1" ref="B78" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A67,";",REPT(" ",LEN(A67)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A67)-LEN(SUBSTITUTE(A67,";",""))+1))*LEN(A67)+1,LEN(A67)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="B79">
-        <f t="array" aca="1" ref="B79" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A70,";",REPT(" ",LEN(A70)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A70)-LEN(SUBSTITUTE(A70,";",""))+1))*LEN(A70)+1,LEN(A70)+1)))</f>
+        <f t="array" aca="1" ref="B79" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A68,";",REPT(" ",LEN(A68)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A68)-LEN(SUBSTITUTE(A68,";",""))+1))*LEN(A68)+1,LEN(A68)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="80">
       <c r="B80">
-        <f t="array" aca="1" ref="B80" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A71,";",REPT(" ",LEN(A71)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A71)-LEN(SUBSTITUTE(A71,";",""))+1))*LEN(A71)+1,LEN(A71)+1)))</f>
+        <f t="array" aca="1" ref="B80" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A69,";",REPT(" ",LEN(A69)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A69)-LEN(SUBSTITUTE(A69,";",""))+1))*LEN(A69)+1,LEN(A69)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="81">
       <c r="B81">
-        <f t="array" aca="1" ref="B81" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A72,";",REPT(" ",LEN(A72)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A72)-LEN(SUBSTITUTE(A72,";",""))+1))*LEN(A72)+1,LEN(A72)+1)))</f>
+        <f t="array" aca="1" ref="B81" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A70,";",REPT(" ",LEN(A70)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A70)-LEN(SUBSTITUTE(A70,";",""))+1))*LEN(A70)+1,LEN(A70)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="B82">
-        <f t="array" aca="1" ref="B82" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A73,";",REPT(" ",LEN(A73)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A73)-LEN(SUBSTITUTE(A73,";",""))+1))*LEN(A73)+1,LEN(A73)+1)))</f>
+        <f t="array" aca="1" ref="B82" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A71,";",REPT(" ",LEN(A71)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A71)-LEN(SUBSTITUTE(A71,";",""))+1))*LEN(A71)+1,LEN(A71)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="B83">
-        <f t="array" aca="1" ref="B83" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A74,";",REPT(" ",LEN(A74)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A74)-LEN(SUBSTITUTE(A74,";",""))+1))*LEN(A74)+1,LEN(A74)+1)))</f>
+        <f t="array" aca="1" ref="B83" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A72,";",REPT(" ",LEN(A72)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A72)-LEN(SUBSTITUTE(A72,";",""))+1))*LEN(A72)+1,LEN(A72)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="B84">
-        <f t="array" aca="1" ref="B84" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A75,";",REPT(" ",LEN(A75)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A75)-LEN(SUBSTITUTE(A75,";",""))+1))*LEN(A75)+1,LEN(A75)+1)))</f>
+        <f t="array" aca="1" ref="B84" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A73,";",REPT(" ",LEN(A73)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A73)-LEN(SUBSTITUTE(A73,";",""))+1))*LEN(A73)+1,LEN(A73)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="B85">
-        <f t="array" aca="1" ref="B85" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A76,";",REPT(" ",LEN(A76)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A76)-LEN(SUBSTITUTE(A76,";",""))+1))*LEN(A76)+1,LEN(A76)+1)))</f>
+        <f t="array" aca="1" ref="B85" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A74,";",REPT(" ",LEN(A74)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A74)-LEN(SUBSTITUTE(A74,";",""))+1))*LEN(A74)+1,LEN(A74)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="86">
       <c r="B86">
-        <f t="array" aca="1" ref="B86" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A77,";",REPT(" ",LEN(A77)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A77)-LEN(SUBSTITUTE(A77,";",""))+1))*LEN(A77)+1,LEN(A77)+1)))</f>
+        <f t="array" aca="1" ref="B86" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A75,";",REPT(" ",LEN(A75)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A75)-LEN(SUBSTITUTE(A75,";",""))+1))*LEN(A75)+1,LEN(A75)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="87">
       <c r="B87">
-        <f t="array" aca="1" ref="B87" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A78,";",REPT(" ",LEN(A78)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A78)-LEN(SUBSTITUTE(A78,";",""))+1))*LEN(A78)+1,LEN(A78)+1)))</f>
+        <f t="array" aca="1" ref="B87" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A76,";",REPT(" ",LEN(A76)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A76)-LEN(SUBSTITUTE(A76,";",""))+1))*LEN(A76)+1,LEN(A76)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="88">
       <c r="B88">
-        <f t="array" aca="1" ref="B88" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A79,";",REPT(" ",LEN(A79)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A79)-LEN(SUBSTITUTE(A79,";",""))+1))*LEN(A79)+1,LEN(A79)+1)))</f>
+        <f t="array" aca="1" ref="B88" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A77,";",REPT(" ",LEN(A77)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A77)-LEN(SUBSTITUTE(A77,";",""))+1))*LEN(A77)+1,LEN(A77)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="89">
       <c r="B89">
-        <f t="array" aca="1" ref="B89" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A80,";",REPT(" ",LEN(A80)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A80)-LEN(SUBSTITUTE(A80,";",""))+1))*LEN(A80)+1,LEN(A80)+1)))</f>
+        <f t="array" aca="1" ref="B89" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A78,";",REPT(" ",LEN(A78)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A78)-LEN(SUBSTITUTE(A78,";",""))+1))*LEN(A78)+1,LEN(A78)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="90">
       <c r="B90">
-        <f t="array" aca="1" ref="B90" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A81,";",REPT(" ",LEN(A81)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A81)-LEN(SUBSTITUTE(A81,";",""))+1))*LEN(A81)+1,LEN(A81)+1)))</f>
+        <f t="array" aca="1" ref="B90" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A79,";",REPT(" ",LEN(A79)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A79)-LEN(SUBSTITUTE(A79,";",""))+1))*LEN(A79)+1,LEN(A79)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="91">
       <c r="B91">
-        <f t="array" aca="1" ref="B91" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A82,";",REPT(" ",LEN(A82)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A82)-LEN(SUBSTITUTE(A82,";",""))+1))*LEN(A82)+1,LEN(A82)+1)))</f>
+        <f t="array" aca="1" ref="B91" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A80,";",REPT(" ",LEN(A80)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A80)-LEN(SUBSTITUTE(A80,";",""))+1))*LEN(A80)+1,LEN(A80)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="92">
       <c r="B92">
-        <f t="array" aca="1" ref="B92" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A83,";",REPT(" ",LEN(A83)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A83)-LEN(SUBSTITUTE(A83,";",""))+1))*LEN(A83)+1,LEN(A83)+1)))</f>
+        <f t="array" aca="1" ref="B92" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A81,";",REPT(" ",LEN(A81)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A81)-LEN(SUBSTITUTE(A81,";",""))+1))*LEN(A81)+1,LEN(A81)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="93">
       <c r="B93">
-        <f t="array" aca="1" ref="B93" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A84,";",REPT(" ",LEN(A84)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A84)-LEN(SUBSTITUTE(A84,";",""))+1))*LEN(A84)+1,LEN(A84)+1)))</f>
+        <f t="array" aca="1" ref="B93" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A82,";",REPT(" ",LEN(A82)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A82)-LEN(SUBSTITUTE(A82,";",""))+1))*LEN(A82)+1,LEN(A82)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="B94">
-        <f t="array" aca="1" ref="B94" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A85,";",REPT(" ",LEN(A85)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A85)-LEN(SUBSTITUTE(A85,";",""))+1))*LEN(A85)+1,LEN(A85)+1)))</f>
+        <f t="array" aca="1" ref="B94" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A83,";",REPT(" ",LEN(A83)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A83)-LEN(SUBSTITUTE(A83,";",""))+1))*LEN(A83)+1,LEN(A83)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="B95">
-        <f t="array" aca="1" ref="B95" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A86,";",REPT(" ",LEN(A86)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A86)-LEN(SUBSTITUTE(A86,";",""))+1))*LEN(A86)+1,LEN(A86)+1)))</f>
+        <f t="array" aca="1" ref="B95" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A84,";",REPT(" ",LEN(A84)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A84)-LEN(SUBSTITUTE(A84,";",""))+1))*LEN(A84)+1,LEN(A84)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="B96">
-        <f t="array" aca="1" ref="B96" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A87,";",REPT(" ",LEN(A87)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A87)-LEN(SUBSTITUTE(A87,";",""))+1))*LEN(A87)+1,LEN(A87)+1)))</f>
+        <f t="array" aca="1" ref="B96" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A85,";",REPT(" ",LEN(A85)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A85)-LEN(SUBSTITUTE(A85,";",""))+1))*LEN(A85)+1,LEN(A85)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="B97">
-        <f t="array" aca="1" ref="B97" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A88,";",REPT(" ",LEN(A88)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A88)-LEN(SUBSTITUTE(A88,";",""))+1))*LEN(A88)+1,LEN(A88)+1)))</f>
+        <f t="array" aca="1" ref="B97" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A86,";",REPT(" ",LEN(A86)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A86)-LEN(SUBSTITUTE(A86,";",""))+1))*LEN(A86)+1,LEN(A86)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="B98">
-        <f t="array" aca="1" ref="B98" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A89,";",REPT(" ",LEN(A89)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A89)-LEN(SUBSTITUTE(A89,";",""))+1))*LEN(A89)+1,LEN(A89)+1)))</f>
+        <f t="array" aca="1" ref="B98" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A87,";",REPT(" ",LEN(A87)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A87)-LEN(SUBSTITUTE(A87,";",""))+1))*LEN(A87)+1,LEN(A87)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="99">
       <c r="B99">
-        <f t="array" aca="1" ref="B99" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A90,";",REPT(" ",LEN(A90)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A90)-LEN(SUBSTITUTE(A90,";",""))+1))*LEN(A90)+1,LEN(A90)+1)))</f>
+        <f t="array" aca="1" ref="B99" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A88,";",REPT(" ",LEN(A88)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A88)-LEN(SUBSTITUTE(A88,";",""))+1))*LEN(A88)+1,LEN(A88)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="B100">
-        <f t="array" aca="1" ref="B100" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A91,";",REPT(" ",LEN(A91)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A91)-LEN(SUBSTITUTE(A91,";",""))+1))*LEN(A91)+1,LEN(A91)+1)))</f>
+        <f t="array" aca="1" ref="B100" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A89,";",REPT(" ",LEN(A89)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A89)-LEN(SUBSTITUTE(A89,";",""))+1))*LEN(A89)+1,LEN(A89)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="B101">
-        <f t="array" aca="1" ref="B101" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A92,";",REPT(" ",LEN(A92)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A92)-LEN(SUBSTITUTE(A92,";",""))+1))*LEN(A92)+1,LEN(A92)+1)))</f>
+        <f t="array" aca="1" ref="B101" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A90,";",REPT(" ",LEN(A90)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A90)-LEN(SUBSTITUTE(A90,";",""))+1))*LEN(A90)+1,LEN(A90)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="102">
       <c r="B102">
-        <f t="array" aca="1" ref="B102" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A93,";",REPT(" ",LEN(A93)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A93)-LEN(SUBSTITUTE(A93,";",""))+1))*LEN(A93)+1,LEN(A93)+1)))</f>
+        <f t="array" aca="1" ref="B102" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A91,";",REPT(" ",LEN(A91)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A91)-LEN(SUBSTITUTE(A91,";",""))+1))*LEN(A91)+1,LEN(A91)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="103">
       <c r="B103">
-        <f t="array" aca="1" ref="B103" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A94,";",REPT(" ",LEN(A94)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A94)-LEN(SUBSTITUTE(A94,";",""))+1))*LEN(A94)+1,LEN(A94)+1)))</f>
+        <f t="array" aca="1" ref="B103" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A92,";",REPT(" ",LEN(A92)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A92)-LEN(SUBSTITUTE(A92,";",""))+1))*LEN(A92)+1,LEN(A92)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="104">
       <c r="B104">
-        <f t="array" aca="1" ref="B104" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A95,";",REPT(" ",LEN(A95)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A95)-LEN(SUBSTITUTE(A95,";",""))+1))*LEN(A95)+1,LEN(A95)+1)))</f>
+        <f t="array" aca="1" ref="B104" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A93,";",REPT(" ",LEN(A93)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A93)-LEN(SUBSTITUTE(A93,";",""))+1))*LEN(A93)+1,LEN(A93)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="B105">
-        <f t="array" aca="1" ref="B105" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A96,";",REPT(" ",LEN(A96)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A96)-LEN(SUBSTITUTE(A96,";",""))+1))*LEN(A96)+1,LEN(A96)+1)))</f>
+        <f t="array" aca="1" ref="B105" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A94,";",REPT(" ",LEN(A94)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A94)-LEN(SUBSTITUTE(A94,";",""))+1))*LEN(A94)+1,LEN(A94)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="B106">
-        <f t="array" aca="1" ref="B106" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A97,";",REPT(" ",LEN(A97)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A97)-LEN(SUBSTITUTE(A97,";",""))+1))*LEN(A97)+1,LEN(A97)+1)))</f>
+        <f t="array" aca="1" ref="B106" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A95,";",REPT(" ",LEN(A95)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A95)-LEN(SUBSTITUTE(A95,";",""))+1))*LEN(A95)+1,LEN(A95)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="B107">
-        <f t="array" aca="1" ref="B107" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A98,";",REPT(" ",LEN(A98)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A98)-LEN(SUBSTITUTE(A98,";",""))+1))*LEN(A98)+1,LEN(A98)+1)))</f>
+        <f t="array" aca="1" ref="B107" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A96,";",REPT(" ",LEN(A96)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A96)-LEN(SUBSTITUTE(A96,";",""))+1))*LEN(A96)+1,LEN(A96)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="B108">
-        <f t="array" aca="1" ref="B108" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A99,";",REPT(" ",LEN(A99)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A99)-LEN(SUBSTITUTE(A99,";",""))+1))*LEN(A99)+1,LEN(A99)+1)))</f>
+        <f t="array" aca="1" ref="B108" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A97,";",REPT(" ",LEN(A97)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A97)-LEN(SUBSTITUTE(A97,";",""))+1))*LEN(A97)+1,LEN(A97)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="109">
       <c r="B109">
-        <f t="array" aca="1" ref="B109" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A100,";",REPT(" ",LEN(A100)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A100)-LEN(SUBSTITUTE(A100,";",""))+1))*LEN(A100)+1,LEN(A100)+1)))</f>
+        <f t="array" aca="1" ref="B109" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A98,";",REPT(" ",LEN(A98)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A98)-LEN(SUBSTITUTE(A98,";",""))+1))*LEN(A98)+1,LEN(A98)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="B110">
-        <f t="array" aca="1" ref="B110" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A101,";",REPT(" ",LEN(A101)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A101)-LEN(SUBSTITUTE(A101,";",""))+1))*LEN(A101)+1,LEN(A101)+1)))</f>
+        <f t="array" aca="1" ref="B110" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A99,";",REPT(" ",LEN(A99)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A99)-LEN(SUBSTITUTE(A99,";",""))+1))*LEN(A99)+1,LEN(A99)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="B111">
-        <f t="array" aca="1" ref="B111" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A102,";",REPT(" ",LEN(A102)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A102)-LEN(SUBSTITUTE(A102,";",""))+1))*LEN(A102)+1,LEN(A102)+1)))</f>
+        <f t="array" aca="1" ref="B111" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A100,";",REPT(" ",LEN(A100)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A100)-LEN(SUBSTITUTE(A100,";",""))+1))*LEN(A100)+1,LEN(A100)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="B112">
-        <f t="array" aca="1" ref="B112" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A103,";",REPT(" ",LEN(A103)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A103)-LEN(SUBSTITUTE(A103,";",""))+1))*LEN(A103)+1,LEN(A103)+1)))</f>
+        <f t="array" aca="1" ref="B112" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A101,";",REPT(" ",LEN(A101)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A101)-LEN(SUBSTITUTE(A101,";",""))+1))*LEN(A101)+1,LEN(A101)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="B113">
-        <f t="array" aca="1" ref="B113" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A104,";",REPT(" ",LEN(A104)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A104)-LEN(SUBSTITUTE(A104,";",""))+1))*LEN(A104)+1,LEN(A104)+1)))</f>
+        <f t="array" aca="1" ref="B113" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A102,";",REPT(" ",LEN(A102)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A102)-LEN(SUBSTITUTE(A102,";",""))+1))*LEN(A102)+1,LEN(A102)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="B114">
-        <f t="array" aca="1" ref="B114" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A105,";",REPT(" ",LEN(A105)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A105)-LEN(SUBSTITUTE(A105,";",""))+1))*LEN(A105)+1,LEN(A105)+1)))</f>
+        <f t="array" aca="1" ref="B114" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A103,";",REPT(" ",LEN(A103)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A103)-LEN(SUBSTITUTE(A103,";",""))+1))*LEN(A103)+1,LEN(A103)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="115">
       <c r="B115">
-        <f t="array" aca="1" ref="B115" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A106,";",REPT(" ",LEN(A106)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A106)-LEN(SUBSTITUTE(A106,";",""))+1))*LEN(A106)+1,LEN(A106)+1)))</f>
+        <f t="array" aca="1" ref="B115" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A104,";",REPT(" ",LEN(A104)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A104)-LEN(SUBSTITUTE(A104,";",""))+1))*LEN(A104)+1,LEN(A104)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="116">
       <c r="B116">
-        <f t="array" aca="1" ref="B116" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A107,";",REPT(" ",LEN(A107)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A107)-LEN(SUBSTITUTE(A107,";",""))+1))*LEN(A107)+1,LEN(A107)+1)))</f>
+        <f t="array" aca="1" ref="B116" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A105,";",REPT(" ",LEN(A105)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A105)-LEN(SUBSTITUTE(A105,";",""))+1))*LEN(A105)+1,LEN(A105)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="117">
       <c r="B117">
-        <f t="array" aca="1" ref="B117" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A108,";",REPT(" ",LEN(A108)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A108)-LEN(SUBSTITUTE(A108,";",""))+1))*LEN(A108)+1,LEN(A108)+1)))</f>
+        <f t="array" aca="1" ref="B117" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A106,";",REPT(" ",LEN(A106)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A106)-LEN(SUBSTITUTE(A106,";",""))+1))*LEN(A106)+1,LEN(A106)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="118">
       <c r="B118">
-        <f t="array" aca="1" ref="B118" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A109,";",REPT(" ",LEN(A109)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A109)-LEN(SUBSTITUTE(A109,";",""))+1))*LEN(A109)+1,LEN(A109)+1)))</f>
+        <f t="array" aca="1" ref="B118" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A107,";",REPT(" ",LEN(A107)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A107)-LEN(SUBSTITUTE(A107,";",""))+1))*LEN(A107)+1,LEN(A107)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="119">
       <c r="B119">
-        <f t="array" aca="1" ref="B119" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A110,";",REPT(" ",LEN(A110)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A110)-LEN(SUBSTITUTE(A110,";",""))+1))*LEN(A110)+1,LEN(A110)+1)))</f>
+        <f t="array" aca="1" ref="B119" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A108,";",REPT(" ",LEN(A108)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A108)-LEN(SUBSTITUTE(A108,";",""))+1))*LEN(A108)+1,LEN(A108)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="120">
       <c r="B120">
-        <f t="array" aca="1" ref="B120" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A111,";",REPT(" ",LEN(A111)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A111)-LEN(SUBSTITUTE(A111,";",""))+1))*LEN(A111)+1,LEN(A111)+1)))</f>
+        <f t="array" aca="1" ref="B120" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A109,";",REPT(" ",LEN(A109)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A109)-LEN(SUBSTITUTE(A109,";",""))+1))*LEN(A109)+1,LEN(A109)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="121">
       <c r="B121">
-        <f t="array" aca="1" ref="B121" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A112,";",REPT(" ",LEN(A112)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A112)-LEN(SUBSTITUTE(A112,";",""))+1))*LEN(A112)+1,LEN(A112)+1)))</f>
+        <f t="array" aca="1" ref="B121" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A110,";",REPT(" ",LEN(A110)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A110)-LEN(SUBSTITUTE(A110,";",""))+1))*LEN(A110)+1,LEN(A110)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="122">
       <c r="B122">
-        <f t="array" aca="1" ref="B122" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A113,";",REPT(" ",LEN(A113)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A113)-LEN(SUBSTITUTE(A113,";",""))+1))*LEN(A113)+1,LEN(A113)+1)))</f>
+        <f t="array" aca="1" ref="B122" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A111,";",REPT(" ",LEN(A111)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A111)-LEN(SUBSTITUTE(A111,";",""))+1))*LEN(A111)+1,LEN(A111)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="123">
       <c r="B123">
-        <f t="array" aca="1" ref="B123" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A114,";",REPT(" ",LEN(A114)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A114)-LEN(SUBSTITUTE(A114,";",""))+1))*LEN(A114)+1,LEN(A114)+1)))</f>
+        <f t="array" aca="1" ref="B123" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A112,";",REPT(" ",LEN(A112)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A112)-LEN(SUBSTITUTE(A112,";",""))+1))*LEN(A112)+1,LEN(A112)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="124">
       <c r="B124">
-        <f t="array" aca="1" ref="B124" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A115,";",REPT(" ",LEN(A115)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A115)-LEN(SUBSTITUTE(A115,";",""))+1))*LEN(A115)+1,LEN(A115)+1)))</f>
+        <f t="array" aca="1" ref="B124" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A113,";",REPT(" ",LEN(A113)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A113)-LEN(SUBSTITUTE(A113,";",""))+1))*LEN(A113)+1,LEN(A113)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="125">
       <c r="B125">
-        <f t="array" aca="1" ref="B125" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A116,";",REPT(" ",LEN(A116)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A116)-LEN(SUBSTITUTE(A116,";",""))+1))*LEN(A116)+1,LEN(A116)+1)))</f>
+        <f t="array" aca="1" ref="B125" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A114,";",REPT(" ",LEN(A114)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A114)-LEN(SUBSTITUTE(A114,";",""))+1))*LEN(A114)+1,LEN(A114)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="126">
       <c r="B126">
-        <f t="array" aca="1" ref="B126" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A117,";",REPT(" ",LEN(A117)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A117)-LEN(SUBSTITUTE(A117,";",""))+1))*LEN(A117)+1,LEN(A117)+1)))</f>
+        <f t="array" aca="1" ref="B126" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A115,";",REPT(" ",LEN(A115)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A115)-LEN(SUBSTITUTE(A115,";",""))+1))*LEN(A115)+1,LEN(A115)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="127">
       <c r="B127">
-        <f t="array" aca="1" ref="B127" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A118,";",REPT(" ",LEN(A118)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A118)-LEN(SUBSTITUTE(A118,";",""))+1))*LEN(A118)+1,LEN(A118)+1)))</f>
+        <f t="array" aca="1" ref="B127" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A116,";",REPT(" ",LEN(A116)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A116)-LEN(SUBSTITUTE(A116,";",""))+1))*LEN(A116)+1,LEN(A116)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="128">
       <c r="B128">
-        <f t="array" aca="1" ref="B128" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A119,";",REPT(" ",LEN(A119)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A119)-LEN(SUBSTITUTE(A119,";",""))+1))*LEN(A119)+1,LEN(A119)+1)))</f>
+        <f t="array" aca="1" ref="B128" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A117,";",REPT(" ",LEN(A117)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A117)-LEN(SUBSTITUTE(A117,";",""))+1))*LEN(A117)+1,LEN(A117)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="129">
       <c r="B129">
-        <f t="array" aca="1" ref="B129" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A120,";",REPT(" ",LEN(A120)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A120)-LEN(SUBSTITUTE(A120,";",""))+1))*LEN(A120)+1,LEN(A120)+1)))</f>
+        <f t="array" aca="1" ref="B129" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A118,";",REPT(" ",LEN(A118)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A118)-LEN(SUBSTITUTE(A118,";",""))+1))*LEN(A118)+1,LEN(A118)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="130">
       <c r="B130">
-        <f t="array" aca="1" ref="B130" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A121,";",REPT(" ",LEN(A121)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A121)-LEN(SUBSTITUTE(A121,";",""))+1))*LEN(A121)+1,LEN(A121)+1)))</f>
+        <f t="array" aca="1" ref="B130" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A119,";",REPT(" ",LEN(A119)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A119)-LEN(SUBSTITUTE(A119,";",""))+1))*LEN(A119)+1,LEN(A119)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="131">
       <c r="B131">
-        <f t="array" aca="1" ref="B131" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A122,";",REPT(" ",LEN(A122)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A122)-LEN(SUBSTITUTE(A122,";",""))+1))*LEN(A122)+1,LEN(A122)+1)))</f>
+        <f t="array" aca="1" ref="B131" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A120,";",REPT(" ",LEN(A120)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A120)-LEN(SUBSTITUTE(A120,";",""))+1))*LEN(A120)+1,LEN(A120)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="132">
       <c r="B132">
-        <f t="array" aca="1" ref="B132" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A123,";",REPT(" ",LEN(A123)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A123)-LEN(SUBSTITUTE(A123,";",""))+1))*LEN(A123)+1,LEN(A123)+1)))</f>
+        <f t="array" aca="1" ref="B132" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A121,";",REPT(" ",LEN(A121)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A121)-LEN(SUBSTITUTE(A121,";",""))+1))*LEN(A121)+1,LEN(A121)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="133">
       <c r="B133">
-        <f t="array" aca="1" ref="B133" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A124,";",REPT(" ",LEN(A124)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A124)-LEN(SUBSTITUTE(A124,";",""))+1))*LEN(A124)+1,LEN(A124)+1)))</f>
+        <f t="array" aca="1" ref="B133" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A122,";",REPT(" ",LEN(A122)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A122)-LEN(SUBSTITUTE(A122,";",""))+1))*LEN(A122)+1,LEN(A122)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="134">
       <c r="B134">
-        <f t="array" aca="1" ref="B134" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A125,";",REPT(" ",LEN(A125)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A125)-LEN(SUBSTITUTE(A125,";",""))+1))*LEN(A125)+1,LEN(A125)+1)))</f>
+        <f t="array" aca="1" ref="B134" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A123,";",REPT(" ",LEN(A123)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A123)-LEN(SUBSTITUTE(A123,";",""))+1))*LEN(A123)+1,LEN(A123)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="135">
       <c r="B135">
-        <f t="array" aca="1" ref="B135" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A126,";",REPT(" ",LEN(A126)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A126)-LEN(SUBSTITUTE(A126,";",""))+1))*LEN(A126)+1,LEN(A126)+1)))</f>
+        <f t="array" aca="1" ref="B135" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A124,";",REPT(" ",LEN(A124)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A124)-LEN(SUBSTITUTE(A124,";",""))+1))*LEN(A124)+1,LEN(A124)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="136">
       <c r="B136">
-        <f t="array" aca="1" ref="B136" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A127,";",REPT(" ",LEN(A127)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A127)-LEN(SUBSTITUTE(A127,";",""))+1))*LEN(A127)+1,LEN(A127)+1)))</f>
+        <f t="array" aca="1" ref="B136" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A125,";",REPT(" ",LEN(A125)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A125)-LEN(SUBSTITUTE(A125,";",""))+1))*LEN(A125)+1,LEN(A125)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="137">
       <c r="B137">
-        <f t="array" aca="1" ref="B137" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A128,";",REPT(" ",LEN(A128)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A128)-LEN(SUBSTITUTE(A128,";",""))+1))*LEN(A128)+1,LEN(A128)+1)))</f>
+        <f t="array" aca="1" ref="B137" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A126,";",REPT(" ",LEN(A126)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A126)-LEN(SUBSTITUTE(A126,";",""))+1))*LEN(A126)+1,LEN(A126)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="138">
       <c r="B138">
-        <f t="array" aca="1" ref="B138" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A129,";",REPT(" ",LEN(A129)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A129)-LEN(SUBSTITUTE(A129,";",""))+1))*LEN(A129)+1,LEN(A129)+1)))</f>
+        <f t="array" aca="1" ref="B138" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A127,";",REPT(" ",LEN(A127)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A127)-LEN(SUBSTITUTE(A127,";",""))+1))*LEN(A127)+1,LEN(A127)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="139">
       <c r="B139">
-        <f t="array" aca="1" ref="B139" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A130,";",REPT(" ",LEN(A130)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A130)-LEN(SUBSTITUTE(A130,";",""))+1))*LEN(A130)+1,LEN(A130)+1)))</f>
+        <f t="array" aca="1" ref="B139" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A128,";",REPT(" ",LEN(A128)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A128)-LEN(SUBSTITUTE(A128,";",""))+1))*LEN(A128)+1,LEN(A128)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="140">
       <c r="B140">
-        <f t="array" aca="1" ref="B140" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A131,";",REPT(" ",LEN(A131)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A131)-LEN(SUBSTITUTE(A131,";",""))+1))*LEN(A131)+1,LEN(A131)+1)))</f>
+        <f t="array" aca="1" ref="B140" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A129,";",REPT(" ",LEN(A129)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A129)-LEN(SUBSTITUTE(A129,";",""))+1))*LEN(A129)+1,LEN(A129)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="141">
       <c r="B141">
-        <f t="array" aca="1" ref="B141" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A132,";",REPT(" ",LEN(A132)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A132)-LEN(SUBSTITUTE(A132,";",""))+1))*LEN(A132)+1,LEN(A132)+1)))</f>
+        <f t="array" aca="1" ref="B141" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A130,";",REPT(" ",LEN(A130)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A130)-LEN(SUBSTITUTE(A130,";",""))+1))*LEN(A130)+1,LEN(A130)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="142">
       <c r="B142">
-        <f t="array" aca="1" ref="B142" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A133,";",REPT(" ",LEN(A133)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A133)-LEN(SUBSTITUTE(A133,";",""))+1))*LEN(A133)+1,LEN(A133)+1)))</f>
+        <f t="array" aca="1" ref="B142" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A131,";",REPT(" ",LEN(A131)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A131)-LEN(SUBSTITUTE(A131,";",""))+1))*LEN(A131)+1,LEN(A131)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="143">
       <c r="B143">
-        <f t="array" aca="1" ref="B143" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A134,";",REPT(" ",LEN(A134)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A134)-LEN(SUBSTITUTE(A134,";",""))+1))*LEN(A134)+1,LEN(A134)+1)))</f>
+        <f t="array" aca="1" ref="B143" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A132,";",REPT(" ",LEN(A132)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A132)-LEN(SUBSTITUTE(A132,";",""))+1))*LEN(A132)+1,LEN(A132)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="144">
       <c r="B144">
-        <f t="array" aca="1" ref="B144" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A135,";",REPT(" ",LEN(A135)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A135)-LEN(SUBSTITUTE(A135,";",""))+1))*LEN(A135)+1,LEN(A135)+1)))</f>
+        <f t="array" aca="1" ref="B144" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A133,";",REPT(" ",LEN(A133)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A133)-LEN(SUBSTITUTE(A133,";",""))+1))*LEN(A133)+1,LEN(A133)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="145">
       <c r="B145">
-        <f t="array" aca="1" ref="B145" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A136,";",REPT(" ",LEN(A136)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A136)-LEN(SUBSTITUTE(A136,";",""))+1))*LEN(A136)+1,LEN(A136)+1)))</f>
+        <f t="array" aca="1" ref="B145" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A134,";",REPT(" ",LEN(A134)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A134)-LEN(SUBSTITUTE(A134,";",""))+1))*LEN(A134)+1,LEN(A134)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="146">
       <c r="B146">
-        <f t="array" aca="1" ref="B146" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A137,";",REPT(" ",LEN(A137)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A137)-LEN(SUBSTITUTE(A137,";",""))+1))*LEN(A137)+1,LEN(A137)+1)))</f>
+        <f t="array" aca="1" ref="B146" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A135,";",REPT(" ",LEN(A135)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A135)-LEN(SUBSTITUTE(A135,";",""))+1))*LEN(A135)+1,LEN(A135)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="147">
       <c r="B147">
-        <f t="array" aca="1" ref="B147" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A138,";",REPT(" ",LEN(A138)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A138)-LEN(SUBSTITUTE(A138,";",""))+1))*LEN(A138)+1,LEN(A138)+1)))</f>
+        <f t="array" aca="1" ref="B147" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A136,";",REPT(" ",LEN(A136)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A136)-LEN(SUBSTITUTE(A136,";",""))+1))*LEN(A136)+1,LEN(A136)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="148">
       <c r="B148">
-        <f t="array" aca="1" ref="B148" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A139,";",REPT(" ",LEN(A139)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A139)-LEN(SUBSTITUTE(A139,";",""))+1))*LEN(A139)+1,LEN(A139)+1)))</f>
+        <f t="array" aca="1" ref="B148" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A137,";",REPT(" ",LEN(A137)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A137)-LEN(SUBSTITUTE(A137,";",""))+1))*LEN(A137)+1,LEN(A137)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="149">
       <c r="B149">
-        <f t="array" aca="1" ref="B149" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A140,";",REPT(" ",LEN(A140)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A140)-LEN(SUBSTITUTE(A140,";",""))+1))*LEN(A140)+1,LEN(A140)+1)))</f>
+        <f t="array" aca="1" ref="B149" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A138,";",REPT(" ",LEN(A138)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A138)-LEN(SUBSTITUTE(A138,";",""))+1))*LEN(A138)+1,LEN(A138)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="150">
       <c r="B150">
-        <f t="array" aca="1" ref="B150" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A141,";",REPT(" ",LEN(A141)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A141)-LEN(SUBSTITUTE(A141,";",""))+1))*LEN(A141)+1,LEN(A141)+1)))</f>
+        <f t="array" aca="1" ref="B150" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A139,";",REPT(" ",LEN(A139)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A139)-LEN(SUBSTITUTE(A139,";",""))+1))*LEN(A139)+1,LEN(A139)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="151">
       <c r="B151">
-        <f t="array" aca="1" ref="B151" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A142,";",REPT(" ",LEN(A142)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A142)-LEN(SUBSTITUTE(A142,";",""))+1))*LEN(A142)+1,LEN(A142)+1)))</f>
+        <f t="array" aca="1" ref="B151" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A140,";",REPT(" ",LEN(A140)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A140)-LEN(SUBSTITUTE(A140,";",""))+1))*LEN(A140)+1,LEN(A140)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="152">
       <c r="B152">
-        <f t="array" aca="1" ref="B152" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A143,";",REPT(" ",LEN(A143)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A143)-LEN(SUBSTITUTE(A143,";",""))+1))*LEN(A143)+1,LEN(A143)+1)))</f>
+        <f t="array" aca="1" ref="B152" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A141,";",REPT(" ",LEN(A141)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A141)-LEN(SUBSTITUTE(A141,";",""))+1))*LEN(A141)+1,LEN(A141)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="153">
       <c r="B153">
-        <f t="array" aca="1" ref="B153" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A144,";",REPT(" ",LEN(A144)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A144)-LEN(SUBSTITUTE(A144,";",""))+1))*LEN(A144)+1,LEN(A144)+1)))</f>
+        <f t="array" aca="1" ref="B153" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A142,";",REPT(" ",LEN(A142)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A142)-LEN(SUBSTITUTE(A142,";",""))+1))*LEN(A142)+1,LEN(A142)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="154">
       <c r="B154">
-        <f t="array" aca="1" ref="B154" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A145,";",REPT(" ",LEN(A145)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A145)-LEN(SUBSTITUTE(A145,";",""))+1))*LEN(A145)+1,LEN(A145)+1)))</f>
+        <f t="array" aca="1" ref="B154" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A143,";",REPT(" ",LEN(A143)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A143)-LEN(SUBSTITUTE(A143,";",""))+1))*LEN(A143)+1,LEN(A143)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="155">
       <c r="B155">
-        <f t="array" aca="1" ref="B155" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A146,";",REPT(" ",LEN(A146)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A146)-LEN(SUBSTITUTE(A146,";",""))+1))*LEN(A146)+1,LEN(A146)+1)))</f>
+        <f t="array" aca="1" ref="B155" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A144,";",REPT(" ",LEN(A144)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A144)-LEN(SUBSTITUTE(A144,";",""))+1))*LEN(A144)+1,LEN(A144)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="156">
       <c r="B156">
-        <f t="array" aca="1" ref="B156" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A147,";",REPT(" ",LEN(A147)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A147)-LEN(SUBSTITUTE(A147,";",""))+1))*LEN(A147)+1,LEN(A147)+1)))</f>
+        <f t="array" aca="1" ref="B156" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A145,";",REPT(" ",LEN(A145)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A145)-LEN(SUBSTITUTE(A145,";",""))+1))*LEN(A145)+1,LEN(A145)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="157">
       <c r="B157">
-        <f t="array" aca="1" ref="B157" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A148,";",REPT(" ",LEN(A148)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A148)-LEN(SUBSTITUTE(A148,";",""))+1))*LEN(A148)+1,LEN(A148)+1)))</f>
+        <f t="array" aca="1" ref="B157" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A146,";",REPT(" ",LEN(A146)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A146)-LEN(SUBSTITUTE(A146,";",""))+1))*LEN(A146)+1,LEN(A146)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="158">
       <c r="B158">
-        <f t="array" aca="1" ref="B158" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A149,";",REPT(" ",LEN(A149)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A149)-LEN(SUBSTITUTE(A149,";",""))+1))*LEN(A149)+1,LEN(A149)+1)))</f>
+        <f t="array" aca="1" ref="B158" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A147,";",REPT(" ",LEN(A147)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A147)-LEN(SUBSTITUTE(A147,";",""))+1))*LEN(A147)+1,LEN(A147)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="159">
       <c r="B159">
-        <f t="array" aca="1" ref="B159" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A150,";",REPT(" ",LEN(A150)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A150)-LEN(SUBSTITUTE(A150,";",""))+1))*LEN(A150)+1,LEN(A150)+1)))</f>
+        <f t="array" aca="1" ref="B159" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A148,";",REPT(" ",LEN(A148)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A148)-LEN(SUBSTITUTE(A148,";",""))+1))*LEN(A148)+1,LEN(A148)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="160">
       <c r="B160">
-        <f t="array" aca="1" ref="B160" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A151,";",REPT(" ",LEN(A151)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A151)-LEN(SUBSTITUTE(A151,";",""))+1))*LEN(A151)+1,LEN(A151)+1)))</f>
+        <f t="array" aca="1" ref="B160" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A149,";",REPT(" ",LEN(A149)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A149)-LEN(SUBSTITUTE(A149,";",""))+1))*LEN(A149)+1,LEN(A149)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="161">
       <c r="B161">
-        <f t="array" aca="1" ref="B161" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A152,";",REPT(" ",LEN(A152)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A152)-LEN(SUBSTITUTE(A152,";",""))+1))*LEN(A152)+1,LEN(A152)+1)))</f>
+        <f t="array" aca="1" ref="B161" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A150,";",REPT(" ",LEN(A150)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A150)-LEN(SUBSTITUTE(A150,";",""))+1))*LEN(A150)+1,LEN(A150)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="162">
       <c r="B162">
-        <f t="array" aca="1" ref="B162" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A153,";",REPT(" ",LEN(A153)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A153)-LEN(SUBSTITUTE(A153,";",""))+1))*LEN(A153)+1,LEN(A153)+1)))</f>
+        <f t="array" aca="1" ref="B162" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A151,";",REPT(" ",LEN(A151)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A151)-LEN(SUBSTITUTE(A151,";",""))+1))*LEN(A151)+1,LEN(A151)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="163">
       <c r="B163">
-        <f t="array" aca="1" ref="B163" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A154,";",REPT(" ",LEN(A154)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A154)-LEN(SUBSTITUTE(A154,";",""))+1))*LEN(A154)+1,LEN(A154)+1)))</f>
+        <f t="array" aca="1" ref="B163" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A152,";",REPT(" ",LEN(A152)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A152)-LEN(SUBSTITUTE(A152,";",""))+1))*LEN(A152)+1,LEN(A152)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="164">
       <c r="B164">
-        <f t="array" aca="1" ref="B164" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A155,";",REPT(" ",LEN(A155)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A155)-LEN(SUBSTITUTE(A155,";",""))+1))*LEN(A155)+1,LEN(A155)+1)))</f>
+        <f t="array" aca="1" ref="B164" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A153,";",REPT(" ",LEN(A153)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A153)-LEN(SUBSTITUTE(A153,";",""))+1))*LEN(A153)+1,LEN(A153)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="165">
       <c r="B165">
-        <f t="array" aca="1" ref="B165" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A156,";",REPT(" ",LEN(A156)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A156)-LEN(SUBSTITUTE(A156,";",""))+1))*LEN(A156)+1,LEN(A156)+1)))</f>
+        <f t="array" aca="1" ref="B165" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A154,";",REPT(" ",LEN(A154)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A154)-LEN(SUBSTITUTE(A154,";",""))+1))*LEN(A154)+1,LEN(A154)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="166">
       <c r="B166">
-        <f t="array" aca="1" ref="B166" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A157,";",REPT(" ",LEN(A157)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A157)-LEN(SUBSTITUTE(A157,";",""))+1))*LEN(A157)+1,LEN(A157)+1)))</f>
+        <f t="array" aca="1" ref="B166" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A155,";",REPT(" ",LEN(A155)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A155)-LEN(SUBSTITUTE(A155,";",""))+1))*LEN(A155)+1,LEN(A155)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="167">
       <c r="B167">
-        <f t="array" aca="1" ref="B167" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A158,";",REPT(" ",LEN(A158)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A158)-LEN(SUBSTITUTE(A158,";",""))+1))*LEN(A158)+1,LEN(A158)+1)))</f>
+        <f t="array" aca="1" ref="B167" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A156,";",REPT(" ",LEN(A156)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A156)-LEN(SUBSTITUTE(A156,";",""))+1))*LEN(A156)+1,LEN(A156)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="168">
       <c r="B168">
-        <f t="array" aca="1" ref="B168" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A159,";",REPT(" ",LEN(A159)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A159)-LEN(SUBSTITUTE(A159,";",""))+1))*LEN(A159)+1,LEN(A159)+1)))</f>
+        <f t="array" aca="1" ref="B168" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A157,";",REPT(" ",LEN(A157)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A157)-LEN(SUBSTITUTE(A157,";",""))+1))*LEN(A157)+1,LEN(A157)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="169">
       <c r="B169">
-        <f t="array" aca="1" ref="B169" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A160,";",REPT(" ",LEN(A160)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A160)-LEN(SUBSTITUTE(A160,";",""))+1))*LEN(A160)+1,LEN(A160)+1)))</f>
+        <f t="array" aca="1" ref="B169" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A158,";",REPT(" ",LEN(A158)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A158)-LEN(SUBSTITUTE(A158,";",""))+1))*LEN(A158)+1,LEN(A158)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="170">
       <c r="B170">
-        <f t="array" aca="1" ref="B170" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A161,";",REPT(" ",LEN(A161)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A161)-LEN(SUBSTITUTE(A161,";",""))+1))*LEN(A161)+1,LEN(A161)+1)))</f>
+        <f t="array" aca="1" ref="B170" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A159,";",REPT(" ",LEN(A159)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A159)-LEN(SUBSTITUTE(A159,";",""))+1))*LEN(A159)+1,LEN(A159)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="171">
       <c r="B171">
-        <f t="array" aca="1" ref="B171" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A162,";",REPT(" ",LEN(A162)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A162)-LEN(SUBSTITUTE(A162,";",""))+1))*LEN(A162)+1,LEN(A162)+1)))</f>
+        <f t="array" aca="1" ref="B171" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A160,";",REPT(" ",LEN(A160)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A160)-LEN(SUBSTITUTE(A160,";",""))+1))*LEN(A160)+1,LEN(A160)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="172">
       <c r="B172">
-        <f t="array" aca="1" ref="B172" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A163,";",REPT(" ",LEN(A163)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A163)-LEN(SUBSTITUTE(A163,";",""))+1))*LEN(A163)+1,LEN(A163)+1)))</f>
+        <f t="array" aca="1" ref="B172" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A161,";",REPT(" ",LEN(A161)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A161)-LEN(SUBSTITUTE(A161,";",""))+1))*LEN(A161)+1,LEN(A161)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="173">
       <c r="B173">
-        <f t="array" aca="1" ref="B173" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A164,";",REPT(" ",LEN(A164)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A164)-LEN(SUBSTITUTE(A164,";",""))+1))*LEN(A164)+1,LEN(A164)+1)))</f>
+        <f t="array" aca="1" ref="B173" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A162,";",REPT(" ",LEN(A162)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A162)-LEN(SUBSTITUTE(A162,";",""))+1))*LEN(A162)+1,LEN(A162)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="174">
       <c r="B174">
-        <f t="array" aca="1" ref="B174" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A165,";",REPT(" ",LEN(A165)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A165)-LEN(SUBSTITUTE(A165,";",""))+1))*LEN(A165)+1,LEN(A165)+1)))</f>
+        <f t="array" aca="1" ref="B174" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A163,";",REPT(" ",LEN(A163)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A163)-LEN(SUBSTITUTE(A163,";",""))+1))*LEN(A163)+1,LEN(A163)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="175">
       <c r="B175">
-        <f t="array" aca="1" ref="B175" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A166,";",REPT(" ",LEN(A166)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A166)-LEN(SUBSTITUTE(A166,";",""))+1))*LEN(A166)+1,LEN(A166)+1)))</f>
+        <f t="array" aca="1" ref="B175" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A164,";",REPT(" ",LEN(A164)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A164)-LEN(SUBSTITUTE(A164,";",""))+1))*LEN(A164)+1,LEN(A164)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="176">
       <c r="B176">
-        <f t="array" aca="1" ref="B176" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A167,";",REPT(" ",LEN(A167)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A167)-LEN(SUBSTITUTE(A167,";",""))+1))*LEN(A167)+1,LEN(A167)+1)))</f>
+        <f t="array" aca="1" ref="B176" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A165,";",REPT(" ",LEN(A165)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A165)-LEN(SUBSTITUTE(A165,";",""))+1))*LEN(A165)+1,LEN(A165)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="177">
       <c r="B177">
-        <f t="array" aca="1" ref="B177" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A168,";",REPT(" ",LEN(A168)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A168)-LEN(SUBSTITUTE(A168,";",""))+1))*LEN(A168)+1,LEN(A168)+1)))</f>
+        <f t="array" aca="1" ref="B177" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A166,";",REPT(" ",LEN(A166)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A166)-LEN(SUBSTITUTE(A166,";",""))+1))*LEN(A166)+1,LEN(A166)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="178">
       <c r="B178">
-        <f t="array" aca="1" ref="B178" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A169,";",REPT(" ",LEN(A169)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A169)-LEN(SUBSTITUTE(A169,";",""))+1))*LEN(A169)+1,LEN(A169)+1)))</f>
+        <f t="array" aca="1" ref="B178" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A167,";",REPT(" ",LEN(A167)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A167)-LEN(SUBSTITUTE(A167,";",""))+1))*LEN(A167)+1,LEN(A167)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="179">
       <c r="B179">
-        <f t="array" aca="1" ref="B179" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A170,";",REPT(" ",LEN(A170)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A170)-LEN(SUBSTITUTE(A170,";",""))+1))*LEN(A170)+1,LEN(A170)+1)))</f>
+        <f t="array" aca="1" ref="B179" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A168,";",REPT(" ",LEN(A168)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A168)-LEN(SUBSTITUTE(A168,";",""))+1))*LEN(A168)+1,LEN(A168)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="180">
       <c r="B180">
-        <f t="array" aca="1" ref="B180" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A171,";",REPT(" ",LEN(A171)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A171)-LEN(SUBSTITUTE(A171,";",""))+1))*LEN(A171)+1,LEN(A171)+1)))</f>
+        <f t="array" aca="1" ref="B180" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A169,";",REPT(" ",LEN(A169)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A169)-LEN(SUBSTITUTE(A169,";",""))+1))*LEN(A169)+1,LEN(A169)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="181">
       <c r="B181">
-        <f t="array" aca="1" ref="B181" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A172,";",REPT(" ",LEN(A172)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A172)-LEN(SUBSTITUTE(A172,";",""))+1))*LEN(A172)+1,LEN(A172)+1)))</f>
+        <f t="array" aca="1" ref="B181" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A170,";",REPT(" ",LEN(A170)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A170)-LEN(SUBSTITUTE(A170,";",""))+1))*LEN(A170)+1,LEN(A170)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="182">
       <c r="B182">
-        <f t="array" aca="1" ref="B182" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A173,";",REPT(" ",LEN(A173)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A173)-LEN(SUBSTITUTE(A173,";",""))+1))*LEN(A173)+1,LEN(A173)+1)))</f>
+        <f t="array" aca="1" ref="B182" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A171,";",REPT(" ",LEN(A171)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A171)-LEN(SUBSTITUTE(A171,";",""))+1))*LEN(A171)+1,LEN(A171)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="183">
       <c r="B183">
-        <f t="array" aca="1" ref="B183" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A174,";",REPT(" ",LEN(A174)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A174)-LEN(SUBSTITUTE(A174,";",""))+1))*LEN(A174)+1,LEN(A174)+1)))</f>
+        <f t="array" aca="1" ref="B183" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A172,";",REPT(" ",LEN(A172)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A172)-LEN(SUBSTITUTE(A172,";",""))+1))*LEN(A172)+1,LEN(A172)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="184">
       <c r="B184">
-        <f t="array" aca="1" ref="B184" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A175,";",REPT(" ",LEN(A175)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A175)-LEN(SUBSTITUTE(A175,";",""))+1))*LEN(A175)+1,LEN(A175)+1)))</f>
+        <f t="array" aca="1" ref="B184" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A173,";",REPT(" ",LEN(A173)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A173)-LEN(SUBSTITUTE(A173,";",""))+1))*LEN(A173)+1,LEN(A173)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="185">
       <c r="B185">
-        <f t="array" aca="1" ref="B185" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A176,";",REPT(" ",LEN(A176)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A176)-LEN(SUBSTITUTE(A176,";",""))+1))*LEN(A176)+1,LEN(A176)+1)))</f>
+        <f t="array" aca="1" ref="B185" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A174,";",REPT(" ",LEN(A174)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A174)-LEN(SUBSTITUTE(A174,";",""))+1))*LEN(A174)+1,LEN(A174)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="186">
       <c r="B186">
-        <f t="array" aca="1" ref="B186" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A177,";",REPT(" ",LEN(A177)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A177)-LEN(SUBSTITUTE(A177,";",""))+1))*LEN(A177)+1,LEN(A177)+1)))</f>
+        <f t="array" aca="1" ref="B186" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A175,";",REPT(" ",LEN(A175)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A175)-LEN(SUBSTITUTE(A175,";",""))+1))*LEN(A175)+1,LEN(A175)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="187">
       <c r="B187">
-        <f t="array" aca="1" ref="B187" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A178,";",REPT(" ",LEN(A178)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A178)-LEN(SUBSTITUTE(A178,";",""))+1))*LEN(A178)+1,LEN(A178)+1)))</f>
+        <f t="array" aca="1" ref="B187" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A176,";",REPT(" ",LEN(A176)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A176)-LEN(SUBSTITUTE(A176,";",""))+1))*LEN(A176)+1,LEN(A176)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="188">
       <c r="B188">
-        <f t="array" aca="1" ref="B188" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A179,";",REPT(" ",LEN(A179)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A179)-LEN(SUBSTITUTE(A179,";",""))+1))*LEN(A179)+1,LEN(A179)+1)))</f>
+        <f t="array" aca="1" ref="B188" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A177,";",REPT(" ",LEN(A177)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A177)-LEN(SUBSTITUTE(A177,";",""))+1))*LEN(A177)+1,LEN(A177)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="189">
       <c r="B189">
-        <f t="array" aca="1" ref="B189" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A180,";",REPT(" ",LEN(A180)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A180)-LEN(SUBSTITUTE(A180,";",""))+1))*LEN(A180)+1,LEN(A180)+1)))</f>
+        <f t="array" aca="1" ref="B189" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A178,";",REPT(" ",LEN(A178)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A178)-LEN(SUBSTITUTE(A178,";",""))+1))*LEN(A178)+1,LEN(A178)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="190">
       <c r="B190">
-        <f t="array" aca="1" ref="B190" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A181,";",REPT(" ",LEN(A181)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A181)-LEN(SUBSTITUTE(A181,";",""))+1))*LEN(A181)+1,LEN(A181)+1)))</f>
+        <f t="array" aca="1" ref="B190" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A179,";",REPT(" ",LEN(A179)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A179)-LEN(SUBSTITUTE(A179,";",""))+1))*LEN(A179)+1,LEN(A179)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="191">
       <c r="B191">
-        <f t="array" aca="1" ref="B191" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A182,";",REPT(" ",LEN(A182)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A182)-LEN(SUBSTITUTE(A182,";",""))+1))*LEN(A182)+1,LEN(A182)+1)))</f>
+        <f t="array" aca="1" ref="B191" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A180,";",REPT(" ",LEN(A180)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A180)-LEN(SUBSTITUTE(A180,";",""))+1))*LEN(A180)+1,LEN(A180)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="192">
       <c r="B192">
-        <f t="array" aca="1" ref="B192" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A183,";",REPT(" ",LEN(A183)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A183)-LEN(SUBSTITUTE(A183,";",""))+1))*LEN(A183)+1,LEN(A183)+1)))</f>
+        <f t="array" aca="1" ref="B192" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A181,";",REPT(" ",LEN(A181)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A181)-LEN(SUBSTITUTE(A181,";",""))+1))*LEN(A181)+1,LEN(A181)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="193">
       <c r="B193">
-        <f t="array" aca="1" ref="B193" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A184,";",REPT(" ",LEN(A184)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A184)-LEN(SUBSTITUTE(A184,";",""))+1))*LEN(A184)+1,LEN(A184)+1)))</f>
+        <f t="array" aca="1" ref="B193" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A182,";",REPT(" ",LEN(A182)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A182)-LEN(SUBSTITUTE(A182,";",""))+1))*LEN(A182)+1,LEN(A182)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="194">
       <c r="B194">
-        <f t="array" aca="1" ref="B194" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A185,";",REPT(" ",LEN(A185)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A185)-LEN(SUBSTITUTE(A185,";",""))+1))*LEN(A185)+1,LEN(A185)+1)))</f>
+        <f t="array" aca="1" ref="B194" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A183,";",REPT(" ",LEN(A183)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A183)-LEN(SUBSTITUTE(A183,";",""))+1))*LEN(A183)+1,LEN(A183)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="195">
       <c r="B195">
-        <f t="array" aca="1" ref="B195" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A186,";",REPT(" ",LEN(A186)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A186)-LEN(SUBSTITUTE(A186,";",""))+1))*LEN(A186)+1,LEN(A186)+1)))</f>
+        <f t="array" aca="1" ref="B195" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A184,";",REPT(" ",LEN(A184)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A184)-LEN(SUBSTITUTE(A184,";",""))+1))*LEN(A184)+1,LEN(A184)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="196">
       <c r="B196">
-        <f t="array" aca="1" ref="B196" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A187,";",REPT(" ",LEN(A187)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A187)-LEN(SUBSTITUTE(A187,";",""))+1))*LEN(A187)+1,LEN(A187)+1)))</f>
+        <f t="array" aca="1" ref="B196" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A185,";",REPT(" ",LEN(A185)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A185)-LEN(SUBSTITUTE(A185,";",""))+1))*LEN(A185)+1,LEN(A185)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="197">
       <c r="B197">
-        <f t="array" aca="1" ref="B197" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A188,";",REPT(" ",LEN(A188)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A188)-LEN(SUBSTITUTE(A188,";",""))+1))*LEN(A188)+1,LEN(A188)+1)))</f>
+        <f t="array" aca="1" ref="B197" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A186,";",REPT(" ",LEN(A186)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A186)-LEN(SUBSTITUTE(A186,";",""))+1))*LEN(A186)+1,LEN(A186)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="198">
       <c r="B198">
-        <f t="array" aca="1" ref="B198" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A189,";",REPT(" ",LEN(A189)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A189)-LEN(SUBSTITUTE(A189,";",""))+1))*LEN(A189)+1,LEN(A189)+1)))</f>
+        <f t="array" aca="1" ref="B198" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A187,";",REPT(" ",LEN(A187)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A187)-LEN(SUBSTITUTE(A187,";",""))+1))*LEN(A187)+1,LEN(A187)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="199">
       <c r="B199">
-        <f t="array" aca="1" ref="B199" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A190,";",REPT(" ",LEN(A190)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A190)-LEN(SUBSTITUTE(A190,";",""))+1))*LEN(A190)+1,LEN(A190)+1)))</f>
+        <f t="array" aca="1" ref="B199" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A188,";",REPT(" ",LEN(A188)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A188)-LEN(SUBSTITUTE(A188,";",""))+1))*LEN(A188)+1,LEN(A188)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="200">
       <c r="B200">
-        <f t="array" aca="1" ref="B200" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A191,";",REPT(" ",LEN(A191)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A191)-LEN(SUBSTITUTE(A191,";",""))+1))*LEN(A191)+1,LEN(A191)+1)))</f>
+        <f t="array" aca="1" ref="B200" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A189,";",REPT(" ",LEN(A189)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A189)-LEN(SUBSTITUTE(A189,";",""))+1))*LEN(A189)+1,LEN(A189)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="201">
       <c r="B201">
-        <f t="array" aca="1" ref="B201" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A192,";",REPT(" ",LEN(A192)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A192)-LEN(SUBSTITUTE(A192,";",""))+1))*LEN(A192)+1,LEN(A192)+1)))</f>
+        <f t="array" aca="1" ref="B201" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A190,";",REPT(" ",LEN(A190)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A190)-LEN(SUBSTITUTE(A190,";",""))+1))*LEN(A190)+1,LEN(A190)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="202">
       <c r="B202">
-        <f t="array" aca="1" ref="B202" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A193,";",REPT(" ",LEN(A193)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A193)-LEN(SUBSTITUTE(A193,";",""))+1))*LEN(A193)+1,LEN(A193)+1)))</f>
+        <f t="array" aca="1" ref="B202" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A191,";",REPT(" ",LEN(A191)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A191)-LEN(SUBSTITUTE(A191,";",""))+1))*LEN(A191)+1,LEN(A191)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="203">
       <c r="B203">
-        <f t="array" aca="1" ref="B203" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A194,";",REPT(" ",LEN(A194)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A194)-LEN(SUBSTITUTE(A194,";",""))+1))*LEN(A194)+1,LEN(A194)+1)))</f>
+        <f t="array" aca="1" ref="B203" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A192,";",REPT(" ",LEN(A192)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A192)-LEN(SUBSTITUTE(A192,";",""))+1))*LEN(A192)+1,LEN(A192)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="204">
       <c r="B204">
-        <f t="array" aca="1" ref="B204" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A195,";",REPT(" ",LEN(A195)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A195)-LEN(SUBSTITUTE(A195,";",""))+1))*LEN(A195)+1,LEN(A195)+1)))</f>
+        <f t="array" aca="1" ref="B204" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A193,";",REPT(" ",LEN(A193)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A193)-LEN(SUBSTITUTE(A193,";",""))+1))*LEN(A193)+1,LEN(A193)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="205">
       <c r="B205">
-        <f t="array" aca="1" ref="B205" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A196,";",REPT(" ",LEN(A196)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A196)-LEN(SUBSTITUTE(A196,";",""))+1))*LEN(A196)+1,LEN(A196)+1)))</f>
+        <f t="array" aca="1" ref="B205" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A194,";",REPT(" ",LEN(A194)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A194)-LEN(SUBSTITUTE(A194,";",""))+1))*LEN(A194)+1,LEN(A194)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="206">
       <c r="B206">
-        <f t="array" aca="1" ref="B206" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A197,";",REPT(" ",LEN(A197)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A197)-LEN(SUBSTITUTE(A197,";",""))+1))*LEN(A197)+1,LEN(A197)+1)))</f>
+        <f t="array" aca="1" ref="B206" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A195,";",REPT(" ",LEN(A195)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A195)-LEN(SUBSTITUTE(A195,";",""))+1))*LEN(A195)+1,LEN(A195)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="207">
       <c r="B207">
-        <f t="array" aca="1" ref="B207" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A198,";",REPT(" ",LEN(A198)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A198)-LEN(SUBSTITUTE(A198,";",""))+1))*LEN(A198)+1,LEN(A198)+1)))</f>
+        <f t="array" aca="1" ref="B207" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A196,";",REPT(" ",LEN(A196)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A196)-LEN(SUBSTITUTE(A196,";",""))+1))*LEN(A196)+1,LEN(A196)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="208">
       <c r="B208">
-        <f t="array" aca="1" ref="B208" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A199,";",REPT(" ",LEN(A199)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A199)-LEN(SUBSTITUTE(A199,";",""))+1))*LEN(A199)+1,LEN(A199)+1)))</f>
+        <f t="array" aca="1" ref="B208" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A197,";",REPT(" ",LEN(A197)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A197)-LEN(SUBSTITUTE(A197,";",""))+1))*LEN(A197)+1,LEN(A197)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="209">
       <c r="B209">
-        <f t="array" aca="1" ref="B209" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A200,";",REPT(" ",LEN(A200)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A200)-LEN(SUBSTITUTE(A200,";",""))+1))*LEN(A200)+1,LEN(A200)+1)))</f>
+        <f t="array" aca="1" ref="B209" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A198,";",REPT(" ",LEN(A198)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A198)-LEN(SUBSTITUTE(A198,";",""))+1))*LEN(A198)+1,LEN(A198)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="210">
       <c r="B210">
-        <f t="array" aca="1" ref="B210" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A201,";",REPT(" ",LEN(A201)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A201)-LEN(SUBSTITUTE(A201,";",""))+1))*LEN(A201)+1,LEN(A201)+1)))</f>
+        <f t="array" aca="1" ref="B210" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A199,";",REPT(" ",LEN(A199)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A199)-LEN(SUBSTITUTE(A199,";",""))+1))*LEN(A199)+1,LEN(A199)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="211">
       <c r="B211">
-        <f t="array" aca="1" ref="B211" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A202,";",REPT(" ",LEN(A202)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A202)-LEN(SUBSTITUTE(A202,";",""))+1))*LEN(A202)+1,LEN(A202)+1)))</f>
+        <f t="array" aca="1" ref="B211" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A200,";",REPT(" ",LEN(A200)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A200)-LEN(SUBSTITUTE(A200,";",""))+1))*LEN(A200)+1,LEN(A200)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="212">
       <c r="B212">
-        <f t="array" aca="1" ref="B212" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A203,";",REPT(" ",LEN(A203)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A203)-LEN(SUBSTITUTE(A203,";",""))+1))*LEN(A203)+1,LEN(A203)+1)))</f>
+        <f t="array" aca="1" ref="B212" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A201,";",REPT(" ",LEN(A201)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A201)-LEN(SUBSTITUTE(A201,";",""))+1))*LEN(A201)+1,LEN(A201)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="213">
       <c r="B213">
-        <f t="array" aca="1" ref="B213" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A204,";",REPT(" ",LEN(A204)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A204)-LEN(SUBSTITUTE(A204,";",""))+1))*LEN(A204)+1,LEN(A204)+1)))</f>
+        <f t="array" aca="1" ref="B213" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A202,";",REPT(" ",LEN(A202)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A202)-LEN(SUBSTITUTE(A202,";",""))+1))*LEN(A202)+1,LEN(A202)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="214">
       <c r="B214">
-        <f t="array" aca="1" ref="B214" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A205,";",REPT(" ",LEN(A205)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A205)-LEN(SUBSTITUTE(A205,";",""))+1))*LEN(A205)+1,LEN(A205)+1)))</f>
+        <f t="array" aca="1" ref="B214" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A203,";",REPT(" ",LEN(A203)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A203)-LEN(SUBSTITUTE(A203,";",""))+1))*LEN(A203)+1,LEN(A203)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="215">
       <c r="B215">
-        <f t="array" aca="1" ref="B215" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A206,";",REPT(" ",LEN(A206)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A206)-LEN(SUBSTITUTE(A206,";",""))+1))*LEN(A206)+1,LEN(A206)+1)))</f>
+        <f t="array" aca="1" ref="B215" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A204,";",REPT(" ",LEN(A204)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A204)-LEN(SUBSTITUTE(A204,";",""))+1))*LEN(A204)+1,LEN(A204)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="216">
       <c r="B216">
-        <f t="array" aca="1" ref="B216" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A207,";",REPT(" ",LEN(A207)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A207)-LEN(SUBSTITUTE(A207,";",""))+1))*LEN(A207)+1,LEN(A207)+1)))</f>
+        <f t="array" aca="1" ref="B216" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A205,";",REPT(" ",LEN(A205)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A205)-LEN(SUBSTITUTE(A205,";",""))+1))*LEN(A205)+1,LEN(A205)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="217">
       <c r="B217">
-        <f t="array" aca="1" ref="B217" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A208,";",REPT(" ",LEN(A208)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A208)-LEN(SUBSTITUTE(A208,";",""))+1))*LEN(A208)+1,LEN(A208)+1)))</f>
+        <f t="array" aca="1" ref="B217" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A206,";",REPT(" ",LEN(A206)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A206)-LEN(SUBSTITUTE(A206,";",""))+1))*LEN(A206)+1,LEN(A206)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="218">
       <c r="B218">
-        <f t="array" aca="1" ref="B218" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A209,";",REPT(" ",LEN(A209)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A209)-LEN(SUBSTITUTE(A209,";",""))+1))*LEN(A209)+1,LEN(A209)+1)))</f>
+        <f t="array" aca="1" ref="B218" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A207,";",REPT(" ",LEN(A207)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A207)-LEN(SUBSTITUTE(A207,";",""))+1))*LEN(A207)+1,LEN(A207)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="219">
       <c r="B219">
-        <f t="array" aca="1" ref="B219" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A210,";",REPT(" ",LEN(A210)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A210)-LEN(SUBSTITUTE(A210,";",""))+1))*LEN(A210)+1,LEN(A210)+1)))</f>
+        <f t="array" aca="1" ref="B219" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A208,";",REPT(" ",LEN(A208)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A208)-LEN(SUBSTITUTE(A208,";",""))+1))*LEN(A208)+1,LEN(A208)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="220">
       <c r="B220">
-        <f t="array" aca="1" ref="B220" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A211,";",REPT(" ",LEN(A211)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A211)-LEN(SUBSTITUTE(A211,";",""))+1))*LEN(A211)+1,LEN(A211)+1)))</f>
+        <f t="array" aca="1" ref="B220" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A209,";",REPT(" ",LEN(A209)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A209)-LEN(SUBSTITUTE(A209,";",""))+1))*LEN(A209)+1,LEN(A209)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="221">
       <c r="B221">
-        <f t="array" aca="1" ref="B221" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A212,";",REPT(" ",LEN(A212)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A212)-LEN(SUBSTITUTE(A212,";",""))+1))*LEN(A212)+1,LEN(A212)+1)))</f>
+        <f t="array" aca="1" ref="B221" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A210,";",REPT(" ",LEN(A210)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A210)-LEN(SUBSTITUTE(A210,";",""))+1))*LEN(A210)+1,LEN(A210)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="222">
       <c r="B222">
-        <f t="array" aca="1" ref="B222" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A213,";",REPT(" ",LEN(A213)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A213)-LEN(SUBSTITUTE(A213,";",""))+1))*LEN(A213)+1,LEN(A213)+1)))</f>
+        <f t="array" aca="1" ref="B222" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A211,";",REPT(" ",LEN(A211)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A211)-LEN(SUBSTITUTE(A211,";",""))+1))*LEN(A211)+1,LEN(A211)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="223">
       <c r="B223">
-        <f t="array" aca="1" ref="B223" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A214,";",REPT(" ",LEN(A214)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A214)-LEN(SUBSTITUTE(A214,";",""))+1))*LEN(A214)+1,LEN(A214)+1)))</f>
+        <f t="array" aca="1" ref="B223" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A212,";",REPT(" ",LEN(A212)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A212)-LEN(SUBSTITUTE(A212,";",""))+1))*LEN(A212)+1,LEN(A212)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="224">
       <c r="B224">
-        <f t="array" aca="1" ref="B224" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A215,";",REPT(" ",LEN(A215)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A215)-LEN(SUBSTITUTE(A215,";",""))+1))*LEN(A215)+1,LEN(A215)+1)))</f>
+        <f t="array" aca="1" ref="B224" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A213,";",REPT(" ",LEN(A213)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A213)-LEN(SUBSTITUTE(A213,";",""))+1))*LEN(A213)+1,LEN(A213)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="225">
       <c r="B225">
-        <f t="array" aca="1" ref="B225" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A216,";",REPT(" ",LEN(A216)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A216)-LEN(SUBSTITUTE(A216,";",""))+1))*LEN(A216)+1,LEN(A216)+1)))</f>
+        <f t="array" aca="1" ref="B225" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A214,";",REPT(" ",LEN(A214)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A214)-LEN(SUBSTITUTE(A214,";",""))+1))*LEN(A214)+1,LEN(A214)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="226">
       <c r="B226">
-        <f t="array" aca="1" ref="B226" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A217,";",REPT(" ",LEN(A217)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A217)-LEN(SUBSTITUTE(A217,";",""))+1))*LEN(A217)+1,LEN(A217)+1)))</f>
+        <f t="array" aca="1" ref="B226" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A215,";",REPT(" ",LEN(A215)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A215)-LEN(SUBSTITUTE(A215,";",""))+1))*LEN(A215)+1,LEN(A215)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="227">
       <c r="B227">
-        <f t="array" aca="1" ref="B227" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A218,";",REPT(" ",LEN(A218)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A218)-LEN(SUBSTITUTE(A218,";",""))+1))*LEN(A218)+1,LEN(A218)+1)))</f>
+        <f t="array" aca="1" ref="B227" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A216,";",REPT(" ",LEN(A216)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A216)-LEN(SUBSTITUTE(A216,";",""))+1))*LEN(A216)+1,LEN(A216)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="228">
       <c r="B228">
-        <f t="array" aca="1" ref="B228" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A219,";",REPT(" ",LEN(A219)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A219)-LEN(SUBSTITUTE(A219,";",""))+1))*LEN(A219)+1,LEN(A219)+1)))</f>
+        <f t="array" aca="1" ref="B228" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A217,";",REPT(" ",LEN(A217)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A217)-LEN(SUBSTITUTE(A217,";",""))+1))*LEN(A217)+1,LEN(A217)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="229">
       <c r="B229">
-        <f t="array" aca="1" ref="B229" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A220,";",REPT(" ",LEN(A220)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A220)-LEN(SUBSTITUTE(A220,";",""))+1))*LEN(A220)+1,LEN(A220)+1)))</f>
+        <f t="array" aca="1" ref="B229" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A218,";",REPT(" ",LEN(A218)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A218)-LEN(SUBSTITUTE(A218,";",""))+1))*LEN(A218)+1,LEN(A218)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="230">
       <c r="B230">
-        <f t="array" aca="1" ref="B230" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A221,";",REPT(" ",LEN(A221)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A221)-LEN(SUBSTITUTE(A221,";",""))+1))*LEN(A221)+1,LEN(A221)+1)))</f>
+        <f t="array" aca="1" ref="B230" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A219,";",REPT(" ",LEN(A219)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A219)-LEN(SUBSTITUTE(A219,";",""))+1))*LEN(A219)+1,LEN(A219)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="231">
       <c r="B231">
-        <f t="array" aca="1" ref="B231" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A222,";",REPT(" ",LEN(A222)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A222)-LEN(SUBSTITUTE(A222,";",""))+1))*LEN(A222)+1,LEN(A222)+1)))</f>
+        <f t="array" aca="1" ref="B231" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A220,";",REPT(" ",LEN(A220)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A220)-LEN(SUBSTITUTE(A220,";",""))+1))*LEN(A220)+1,LEN(A220)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="232">
       <c r="B232">
-        <f t="array" aca="1" ref="B232" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A223,";",REPT(" ",LEN(A223)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A223)-LEN(SUBSTITUTE(A223,";",""))+1))*LEN(A223)+1,LEN(A223)+1)))</f>
+        <f t="array" aca="1" ref="B232" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A221,";",REPT(" ",LEN(A221)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A221)-LEN(SUBSTITUTE(A221,";",""))+1))*LEN(A221)+1,LEN(A221)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="233">
       <c r="B233">
-        <f t="array" aca="1" ref="B233" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A224,";",REPT(" ",LEN(A224)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A224)-LEN(SUBSTITUTE(A224,";",""))+1))*LEN(A224)+1,LEN(A224)+1)))</f>
+        <f t="array" aca="1" ref="B233" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A222,";",REPT(" ",LEN(A222)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A222)-LEN(SUBSTITUTE(A222,";",""))+1))*LEN(A222)+1,LEN(A222)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="234">
       <c r="B234">
-        <f t="array" aca="1" ref="B234" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A225,";",REPT(" ",LEN(A225)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A225)-LEN(SUBSTITUTE(A225,";",""))+1))*LEN(A225)+1,LEN(A225)+1)))</f>
+        <f t="array" aca="1" ref="B234" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A223,";",REPT(" ",LEN(A223)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A223)-LEN(SUBSTITUTE(A223,";",""))+1))*LEN(A223)+1,LEN(A223)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="235">
       <c r="B235">
-        <f t="array" aca="1" ref="B235" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A226,";",REPT(" ",LEN(A226)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A226)-LEN(SUBSTITUTE(A226,";",""))+1))*LEN(A226)+1,LEN(A226)+1)))</f>
+        <f t="array" aca="1" ref="B235" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A224,";",REPT(" ",LEN(A224)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A224)-LEN(SUBSTITUTE(A224,";",""))+1))*LEN(A224)+1,LEN(A224)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="236">
       <c r="B236">
-        <f t="array" aca="1" ref="B236" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A227,";",REPT(" ",LEN(A227)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A227)-LEN(SUBSTITUTE(A227,";",""))+1))*LEN(A227)+1,LEN(A227)+1)))</f>
+        <f t="array" aca="1" ref="B236" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A225,";",REPT(" ",LEN(A225)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A225)-LEN(SUBSTITUTE(A225,";",""))+1))*LEN(A225)+1,LEN(A225)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="237">
       <c r="B237">
-        <f t="array" aca="1" ref="B237" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A228,";",REPT(" ",LEN(A228)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A228)-LEN(SUBSTITUTE(A228,";",""))+1))*LEN(A228)+1,LEN(A228)+1)))</f>
+        <f t="array" aca="1" ref="B237" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A226,";",REPT(" ",LEN(A226)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A226)-LEN(SUBSTITUTE(A226,";",""))+1))*LEN(A226)+1,LEN(A226)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="238">
       <c r="B238">
-        <f t="array" aca="1" ref="B238" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A229,";",REPT(" ",LEN(A229)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A229)-LEN(SUBSTITUTE(A229,";",""))+1))*LEN(A229)+1,LEN(A229)+1)))</f>
+        <f t="array" aca="1" ref="B238" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A227,";",REPT(" ",LEN(A227)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A227)-LEN(SUBSTITUTE(A227,";",""))+1))*LEN(A227)+1,LEN(A227)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="239">
       <c r="B239">
-        <f t="array" aca="1" ref="B239" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A230,";",REPT(" ",LEN(A230)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A230)-LEN(SUBSTITUTE(A230,";",""))+1))*LEN(A230)+1,LEN(A230)+1)))</f>
+        <f t="array" aca="1" ref="B239" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A228,";",REPT(" ",LEN(A228)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A228)-LEN(SUBSTITUTE(A228,";",""))+1))*LEN(A228)+1,LEN(A228)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="240">
       <c r="B240">
-        <f t="array" aca="1" ref="B240" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A231,";",REPT(" ",LEN(A231)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A231)-LEN(SUBSTITUTE(A231,";",""))+1))*LEN(A231)+1,LEN(A231)+1)))</f>
+        <f t="array" aca="1" ref="B240" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A229,";",REPT(" ",LEN(A229)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A229)-LEN(SUBSTITUTE(A229,";",""))+1))*LEN(A229)+1,LEN(A229)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="241">
       <c r="B241">
-        <f t="array" aca="1" ref="B241" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A232,";",REPT(" ",LEN(A232)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A232)-LEN(SUBSTITUTE(A232,";",""))+1))*LEN(A232)+1,LEN(A232)+1)))</f>
+        <f t="array" aca="1" ref="B241" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A230,";",REPT(" ",LEN(A230)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A230)-LEN(SUBSTITUTE(A230,";",""))+1))*LEN(A230)+1,LEN(A230)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="242">
       <c r="B242">
-        <f t="array" aca="1" ref="B242" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A233,";",REPT(" ",LEN(A233)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A233)-LEN(SUBSTITUTE(A233,";",""))+1))*LEN(A233)+1,LEN(A233)+1)))</f>
+        <f t="array" aca="1" ref="B242" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A231,";",REPT(" ",LEN(A231)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A231)-LEN(SUBSTITUTE(A231,";",""))+1))*LEN(A231)+1,LEN(A231)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="243">
       <c r="B243">
-        <f t="array" aca="1" ref="B243" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A234,";",REPT(" ",LEN(A234)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A234)-LEN(SUBSTITUTE(A234,";",""))+1))*LEN(A234)+1,LEN(A234)+1)))</f>
+        <f t="array" aca="1" ref="B243" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A232,";",REPT(" ",LEN(A232)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A232)-LEN(SUBSTITUTE(A232,";",""))+1))*LEN(A232)+1,LEN(A232)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="244">
       <c r="B244">
-        <f t="array" aca="1" ref="B244" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A235,";",REPT(" ",LEN(A235)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A235)-LEN(SUBSTITUTE(A235,";",""))+1))*LEN(A235)+1,LEN(A235)+1)))</f>
+        <f t="array" aca="1" ref="B244" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A233,";",REPT(" ",LEN(A233)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A233)-LEN(SUBSTITUTE(A233,";",""))+1))*LEN(A233)+1,LEN(A233)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="245">
       <c r="B245">
-        <f t="array" aca="1" ref="B245" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A236,";",REPT(" ",LEN(A236)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A236)-LEN(SUBSTITUTE(A236,";",""))+1))*LEN(A236)+1,LEN(A236)+1)))</f>
+        <f t="array" aca="1" ref="B245" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A234,";",REPT(" ",LEN(A234)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A234)-LEN(SUBSTITUTE(A234,";",""))+1))*LEN(A234)+1,LEN(A234)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="246">
       <c r="B246">
-        <f t="array" aca="1" ref="B246" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A237,";",REPT(" ",LEN(A237)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A237)-LEN(SUBSTITUTE(A237,";",""))+1))*LEN(A237)+1,LEN(A237)+1)))</f>
+        <f t="array" aca="1" ref="B246" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A235,";",REPT(" ",LEN(A235)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A235)-LEN(SUBSTITUTE(A235,";",""))+1))*LEN(A235)+1,LEN(A235)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="247">
       <c r="B247">
-        <f t="array" aca="1" ref="B247" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A238,";",REPT(" ",LEN(A238)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A238)-LEN(SUBSTITUTE(A238,";",""))+1))*LEN(A238)+1,LEN(A238)+1)))</f>
+        <f t="array" aca="1" ref="B247" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A236,";",REPT(" ",LEN(A236)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A236)-LEN(SUBSTITUTE(A236,";",""))+1))*LEN(A236)+1,LEN(A236)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="248">
       <c r="B248">
-        <f t="array" aca="1" ref="B248" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A239,";",REPT(" ",LEN(A239)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A239)-LEN(SUBSTITUTE(A239,";",""))+1))*LEN(A239)+1,LEN(A239)+1)))</f>
+        <f t="array" aca="1" ref="B248" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A237,";",REPT(" ",LEN(A237)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A237)-LEN(SUBSTITUTE(A237,";",""))+1))*LEN(A237)+1,LEN(A237)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="249">
       <c r="B249">
-        <f t="array" aca="1" ref="B249" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A240,";",REPT(" ",LEN(A240)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A240)-LEN(SUBSTITUTE(A240,";",""))+1))*LEN(A240)+1,LEN(A240)+1)))</f>
+        <f t="array" aca="1" ref="B249" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A238,";",REPT(" ",LEN(A238)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A238)-LEN(SUBSTITUTE(A238,";",""))+1))*LEN(A238)+1,LEN(A238)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="250">
       <c r="B250">
-        <f t="array" aca="1" ref="B250" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A241,";",REPT(" ",LEN(A241)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A241)-LEN(SUBSTITUTE(A241,";",""))+1))*LEN(A241)+1,LEN(A241)+1)))</f>
+        <f t="array" aca="1" ref="B250" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A239,";",REPT(" ",LEN(A239)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A239)-LEN(SUBSTITUTE(A239,";",""))+1))*LEN(A239)+1,LEN(A239)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="251">
       <c r="B251">
-        <f t="array" aca="1" ref="B251" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A242,";",REPT(" ",LEN(A242)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A242)-LEN(SUBSTITUTE(A242,";",""))+1))*LEN(A242)+1,LEN(A242)+1)))</f>
+        <f t="array" aca="1" ref="B251" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A240,";",REPT(" ",LEN(A240)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A240)-LEN(SUBSTITUTE(A240,";",""))+1))*LEN(A240)+1,LEN(A240)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="252">
       <c r="B252">
-        <f t="array" aca="1" ref="B252" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A243,";",REPT(" ",LEN(A243)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A243)-LEN(SUBSTITUTE(A243,";",""))+1))*LEN(A243)+1,LEN(A243)+1)))</f>
+        <f t="array" aca="1" ref="B252" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A241,";",REPT(" ",LEN(A241)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A241)-LEN(SUBSTITUTE(A241,";",""))+1))*LEN(A241)+1,LEN(A241)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="253">
       <c r="B253">
-        <f t="array" aca="1" ref="B253" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A244,";",REPT(" ",LEN(A244)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A244)-LEN(SUBSTITUTE(A244,";",""))+1))*LEN(A244)+1,LEN(A244)+1)))</f>
+        <f t="array" aca="1" ref="B253" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A242,";",REPT(" ",LEN(A242)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A242)-LEN(SUBSTITUTE(A242,";",""))+1))*LEN(A242)+1,LEN(A242)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="254">
       <c r="B254">
-        <f t="array" aca="1" ref="B254" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A245,";",REPT(" ",LEN(A245)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A245)-LEN(SUBSTITUTE(A245,";",""))+1))*LEN(A245)+1,LEN(A245)+1)))</f>
+        <f t="array" aca="1" ref="B254" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A243,";",REPT(" ",LEN(A243)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A243)-LEN(SUBSTITUTE(A243,";",""))+1))*LEN(A243)+1,LEN(A243)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="255">
       <c r="B255">
-        <f t="array" aca="1" ref="B255" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A246,";",REPT(" ",LEN(A246)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A246)-LEN(SUBSTITUTE(A246,";",""))+1))*LEN(A246)+1,LEN(A246)+1)))</f>
+        <f t="array" aca="1" ref="B255" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A244,";",REPT(" ",LEN(A244)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A244)-LEN(SUBSTITUTE(A244,";",""))+1))*LEN(A244)+1,LEN(A244)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="256">
       <c r="B256">
-        <f t="array" aca="1" ref="B256" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A247,";",REPT(" ",LEN(A247)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A247)-LEN(SUBSTITUTE(A247,";",""))+1))*LEN(A247)+1,LEN(A247)+1)))</f>
+        <f t="array" aca="1" ref="B256" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A245,";",REPT(" ",LEN(A245)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A245)-LEN(SUBSTITUTE(A245,";",""))+1))*LEN(A245)+1,LEN(A245)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="257">
       <c r="B257">
-        <f t="array" aca="1" ref="B257" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A248,";",REPT(" ",LEN(A248)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A248)-LEN(SUBSTITUTE(A248,";",""))+1))*LEN(A248)+1,LEN(A248)+1)))</f>
+        <f t="array" aca="1" ref="B257" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A246,";",REPT(" ",LEN(A246)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A246)-LEN(SUBSTITUTE(A246,";",""))+1))*LEN(A246)+1,LEN(A246)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="258">
       <c r="B258">
-        <f t="array" aca="1" ref="B258" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A249,";",REPT(" ",LEN(A249)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A249)-LEN(SUBSTITUTE(A249,";",""))+1))*LEN(A249)+1,LEN(A249)+1)))</f>
+        <f t="array" aca="1" ref="B258" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A247,";",REPT(" ",LEN(A247)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A247)-LEN(SUBSTITUTE(A247,";",""))+1))*LEN(A247)+1,LEN(A247)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="259">
       <c r="B259">
-        <f t="array" aca="1" ref="B259" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A250,";",REPT(" ",LEN(A250)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A250)-LEN(SUBSTITUTE(A250,";",""))+1))*LEN(A250)+1,LEN(A250)+1)))</f>
+        <f t="array" aca="1" ref="B259" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A248,";",REPT(" ",LEN(A248)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A248)-LEN(SUBSTITUTE(A248,";",""))+1))*LEN(A248)+1,LEN(A248)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="260">
       <c r="B260">
-        <f t="array" aca="1" ref="B260" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A251,";",REPT(" ",LEN(A251)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A251)-LEN(SUBSTITUTE(A251,";",""))+1))*LEN(A251)+1,LEN(A251)+1)))</f>
+        <f t="array" aca="1" ref="B260" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A249,";",REPT(" ",LEN(A249)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A249)-LEN(SUBSTITUTE(A249,";",""))+1))*LEN(A249)+1,LEN(A249)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="261">
       <c r="B261">
-        <f t="array" aca="1" ref="B261" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A252,";",REPT(" ",LEN(A252)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A252)-LEN(SUBSTITUTE(A252,";",""))+1))*LEN(A252)+1,LEN(A252)+1)))</f>
+        <f t="array" aca="1" ref="B261" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A250,";",REPT(" ",LEN(A250)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A250)-LEN(SUBSTITUTE(A250,";",""))+1))*LEN(A250)+1,LEN(A250)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="262">
       <c r="B262">
-        <f t="array" aca="1" ref="B262" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A253,";",REPT(" ",LEN(A253)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A253)-LEN(SUBSTITUTE(A253,";",""))+1))*LEN(A253)+1,LEN(A253)+1)))</f>
+        <f t="array" aca="1" ref="B262" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A251,";",REPT(" ",LEN(A251)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A251)-LEN(SUBSTITUTE(A251,";",""))+1))*LEN(A251)+1,LEN(A251)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="263">
       <c r="B263">
-        <f t="array" aca="1" ref="B263" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A254,";",REPT(" ",LEN(A254)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A254)-LEN(SUBSTITUTE(A254,";",""))+1))*LEN(A254)+1,LEN(A254)+1)))</f>
+        <f t="array" aca="1" ref="B263" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A252,";",REPT(" ",LEN(A252)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A252)-LEN(SUBSTITUTE(A252,";",""))+1))*LEN(A252)+1,LEN(A252)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="264">
       <c r="B264">
-        <f t="array" aca="1" ref="B264" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A255,";",REPT(" ",LEN(A255)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A255)-LEN(SUBSTITUTE(A255,";",""))+1))*LEN(A255)+1,LEN(A255)+1)))</f>
+        <f t="array" aca="1" ref="B264" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A253,";",REPT(" ",LEN(A253)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A253)-LEN(SUBSTITUTE(A253,";",""))+1))*LEN(A253)+1,LEN(A253)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="265">
       <c r="B265">
-        <f t="array" aca="1" ref="B265" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A256,";",REPT(" ",LEN(A256)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A256)-LEN(SUBSTITUTE(A256,";",""))+1))*LEN(A256)+1,LEN(A256)+1)))</f>
+        <f t="array" aca="1" ref="B265" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A254,";",REPT(" ",LEN(A254)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A254)-LEN(SUBSTITUTE(A254,";",""))+1))*LEN(A254)+1,LEN(A254)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="266">
       <c r="B266">
-        <f t="array" aca="1" ref="B266" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A257,";",REPT(" ",LEN(A257)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A257)-LEN(SUBSTITUTE(A257,";",""))+1))*LEN(A257)+1,LEN(A257)+1)))</f>
+        <f t="array" aca="1" ref="B266" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A255,";",REPT(" ",LEN(A255)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A255)-LEN(SUBSTITUTE(A255,";",""))+1))*LEN(A255)+1,LEN(A255)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="267">
       <c r="B267">
-        <f t="array" aca="1" ref="B267" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A258,";",REPT(" ",LEN(A258)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A258)-LEN(SUBSTITUTE(A258,";",""))+1))*LEN(A258)+1,LEN(A258)+1)))</f>
+        <f t="array" aca="1" ref="B267" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A256,";",REPT(" ",LEN(A256)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A256)-LEN(SUBSTITUTE(A256,";",""))+1))*LEN(A256)+1,LEN(A256)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="268">
       <c r="B268">
-        <f t="array" aca="1" ref="B268" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A259,";",REPT(" ",LEN(A259)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A259)-LEN(SUBSTITUTE(A259,";",""))+1))*LEN(A259)+1,LEN(A259)+1)))</f>
+        <f t="array" aca="1" ref="B268" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A257,";",REPT(" ",LEN(A257)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A257)-LEN(SUBSTITUTE(A257,";",""))+1))*LEN(A257)+1,LEN(A257)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="269">
       <c r="B269">
-        <f t="array" aca="1" ref="B269" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A260,";",REPT(" ",LEN(A260)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A260)-LEN(SUBSTITUTE(A260,";",""))+1))*LEN(A260)+1,LEN(A260)+1)))</f>
+        <f t="array" aca="1" ref="B269" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A258,";",REPT(" ",LEN(A258)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A258)-LEN(SUBSTITUTE(A258,";",""))+1))*LEN(A258)+1,LEN(A258)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="270">
       <c r="B270">
-        <f t="array" aca="1" ref="B270" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A261,";",REPT(" ",LEN(A261)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A261)-LEN(SUBSTITUTE(A261,";",""))+1))*LEN(A261)+1,LEN(A261)+1)))</f>
+        <f t="array" aca="1" ref="B270" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A259,";",REPT(" ",LEN(A259)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A259)-LEN(SUBSTITUTE(A259,";",""))+1))*LEN(A259)+1,LEN(A259)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="271">
       <c r="B271">
-        <f t="array" aca="1" ref="B271" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A262,";",REPT(" ",LEN(A262)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A262)-LEN(SUBSTITUTE(A262,";",""))+1))*LEN(A262)+1,LEN(A262)+1)))</f>
+        <f t="array" aca="1" ref="B271" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A260,";",REPT(" ",LEN(A260)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A260)-LEN(SUBSTITUTE(A260,";",""))+1))*LEN(A260)+1,LEN(A260)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="272">
       <c r="B272">
-        <f t="array" aca="1" ref="B272" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A263,";",REPT(" ",LEN(A263)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A263)-LEN(SUBSTITUTE(A263,";",""))+1))*LEN(A263)+1,LEN(A263)+1)))</f>
+        <f t="array" aca="1" ref="B272" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A261,";",REPT(" ",LEN(A261)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A261)-LEN(SUBSTITUTE(A261,";",""))+1))*LEN(A261)+1,LEN(A261)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="273">
       <c r="B273">
-        <f t="array" aca="1" ref="B273" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A264,";",REPT(" ",LEN(A264)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A264)-LEN(SUBSTITUTE(A264,";",""))+1))*LEN(A264)+1,LEN(A264)+1)))</f>
+        <f t="array" aca="1" ref="B273" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A262,";",REPT(" ",LEN(A262)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A262)-LEN(SUBSTITUTE(A262,";",""))+1))*LEN(A262)+1,LEN(A262)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="274">
       <c r="B274">
-        <f t="array" aca="1" ref="B274" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A265,";",REPT(" ",LEN(A265)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A265)-LEN(SUBSTITUTE(A265,";",""))+1))*LEN(A265)+1,LEN(A265)+1)))</f>
+        <f t="array" aca="1" ref="B274" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A263,";",REPT(" ",LEN(A263)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A263)-LEN(SUBSTITUTE(A263,";",""))+1))*LEN(A263)+1,LEN(A263)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="275">
       <c r="B275">
-        <f t="array" aca="1" ref="B275" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A266,";",REPT(" ",LEN(A266)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A266)-LEN(SUBSTITUTE(A266,";",""))+1))*LEN(A266)+1,LEN(A266)+1)))</f>
+        <f t="array" aca="1" ref="B275" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A264,";",REPT(" ",LEN(A264)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A264)-LEN(SUBSTITUTE(A264,";",""))+1))*LEN(A264)+1,LEN(A264)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="276">
       <c r="B276">
-        <f t="array" aca="1" ref="B276" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A267,";",REPT(" ",LEN(A267)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A267)-LEN(SUBSTITUTE(A267,";",""))+1))*LEN(A267)+1,LEN(A267)+1)))</f>
+        <f t="array" aca="1" ref="B276" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A265,";",REPT(" ",LEN(A265)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A265)-LEN(SUBSTITUTE(A265,";",""))+1))*LEN(A265)+1,LEN(A265)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="277">
       <c r="B277">
-        <f t="array" aca="1" ref="B277" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A268,";",REPT(" ",LEN(A268)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A268)-LEN(SUBSTITUTE(A268,";",""))+1))*LEN(A268)+1,LEN(A268)+1)))</f>
+        <f t="array" aca="1" ref="B277" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A266,";",REPT(" ",LEN(A266)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A266)-LEN(SUBSTITUTE(A266,";",""))+1))*LEN(A266)+1,LEN(A266)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="278">
       <c r="B278">
-        <f t="array" aca="1" ref="B278" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A269,";",REPT(" ",LEN(A269)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A269)-LEN(SUBSTITUTE(A269,";",""))+1))*LEN(A269)+1,LEN(A269)+1)))</f>
+        <f t="array" aca="1" ref="B278" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A267,";",REPT(" ",LEN(A267)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A267)-LEN(SUBSTITUTE(A267,";",""))+1))*LEN(A267)+1,LEN(A267)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="279">
       <c r="B279">
-        <f t="array" aca="1" ref="B279" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A270,";",REPT(" ",LEN(A270)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A270)-LEN(SUBSTITUTE(A270,";",""))+1))*LEN(A270)+1,LEN(A270)+1)))</f>
+        <f t="array" aca="1" ref="B279" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A268,";",REPT(" ",LEN(A268)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A268)-LEN(SUBSTITUTE(A268,";",""))+1))*LEN(A268)+1,LEN(A268)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="280">
       <c r="B280">
-        <f t="array" aca="1" ref="B280" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A271,";",REPT(" ",LEN(A271)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A271)-LEN(SUBSTITUTE(A271,";",""))+1))*LEN(A271)+1,LEN(A271)+1)))</f>
+        <f t="array" aca="1" ref="B280" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A269,";",REPT(" ",LEN(A269)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A269)-LEN(SUBSTITUTE(A269,";",""))+1))*LEN(A269)+1,LEN(A269)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="281">
       <c r="B281">
-        <f t="array" aca="1" ref="B281" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A272,";",REPT(" ",LEN(A272)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A272)-LEN(SUBSTITUTE(A272,";",""))+1))*LEN(A272)+1,LEN(A272)+1)))</f>
+        <f t="array" aca="1" ref="B281" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A270,";",REPT(" ",LEN(A270)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A270)-LEN(SUBSTITUTE(A270,";",""))+1))*LEN(A270)+1,LEN(A270)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="282">
       <c r="B282">
-        <f t="array" aca="1" ref="B282" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A273,";",REPT(" ",LEN(A273)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A273)-LEN(SUBSTITUTE(A273,";",""))+1))*LEN(A273)+1,LEN(A273)+1)))</f>
+        <f t="array" aca="1" ref="B282" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A271,";",REPT(" ",LEN(A271)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A271)-LEN(SUBSTITUTE(A271,";",""))+1))*LEN(A271)+1,LEN(A271)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="283">
       <c r="B283">
-        <f t="array" aca="1" ref="B283" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A274,";",REPT(" ",LEN(A274)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A274)-LEN(SUBSTITUTE(A274,";",""))+1))*LEN(A274)+1,LEN(A274)+1)))</f>
+        <f t="array" aca="1" ref="B283" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A272,";",REPT(" ",LEN(A272)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A272)-LEN(SUBSTITUTE(A272,";",""))+1))*LEN(A272)+1,LEN(A272)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="284">
       <c r="B284">
-        <f t="array" aca="1" ref="B284" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A275,";",REPT(" ",LEN(A275)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A275)-LEN(SUBSTITUTE(A275,";",""))+1))*LEN(A275)+1,LEN(A275)+1)))</f>
+        <f t="array" aca="1" ref="B284" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A273,";",REPT(" ",LEN(A273)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A273)-LEN(SUBSTITUTE(A273,";",""))+1))*LEN(A273)+1,LEN(A273)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="285">
       <c r="B285">
-        <f t="array" aca="1" ref="B285" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A276,";",REPT(" ",LEN(A276)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A276)-LEN(SUBSTITUTE(A276,";",""))+1))*LEN(A276)+1,LEN(A276)+1)))</f>
+        <f t="array" aca="1" ref="B285" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A274,";",REPT(" ",LEN(A274)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A274)-LEN(SUBSTITUTE(A274,";",""))+1))*LEN(A274)+1,LEN(A274)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="286">
       <c r="B286">
-        <f t="array" aca="1" ref="B286" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A277,";",REPT(" ",LEN(A277)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A277)-LEN(SUBSTITUTE(A277,";",""))+1))*LEN(A277)+1,LEN(A277)+1)))</f>
+        <f t="array" aca="1" ref="B286" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A275,";",REPT(" ",LEN(A275)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A275)-LEN(SUBSTITUTE(A275,";",""))+1))*LEN(A275)+1,LEN(A275)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="287">
       <c r="B287">
-        <f t="array" aca="1" ref="B287" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A278,";",REPT(" ",LEN(A278)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A278)-LEN(SUBSTITUTE(A278,";",""))+1))*LEN(A278)+1,LEN(A278)+1)))</f>
+        <f t="array" aca="1" ref="B287" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A276,";",REPT(" ",LEN(A276)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A276)-LEN(SUBSTITUTE(A276,";",""))+1))*LEN(A276)+1,LEN(A276)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="288">
       <c r="B288">
-        <f t="array" aca="1" ref="B288" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A279,";",REPT(" ",LEN(A279)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A279)-LEN(SUBSTITUTE(A279,";",""))+1))*LEN(A279)+1,LEN(A279)+1)))</f>
+        <f t="array" aca="1" ref="B288" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A277,";",REPT(" ",LEN(A277)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A277)-LEN(SUBSTITUTE(A277,";",""))+1))*LEN(A277)+1,LEN(A277)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="289">
       <c r="B289">
-        <f t="array" aca="1" ref="B289" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A280,";",REPT(" ",LEN(A280)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A280)-LEN(SUBSTITUTE(A280,";",""))+1))*LEN(A280)+1,LEN(A280)+1)))</f>
+        <f t="array" aca="1" ref="B289" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A278,";",REPT(" ",LEN(A278)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A278)-LEN(SUBSTITUTE(A278,";",""))+1))*LEN(A278)+1,LEN(A278)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="290">
       <c r="B290">
-        <f t="array" aca="1" ref="B290" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A281,";",REPT(" ",LEN(A281)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A281)-LEN(SUBSTITUTE(A281,";",""))+1))*LEN(A281)+1,LEN(A281)+1)))</f>
+        <f t="array" aca="1" ref="B290" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A279,";",REPT(" ",LEN(A279)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A279)-LEN(SUBSTITUTE(A279,";",""))+1))*LEN(A279)+1,LEN(A279)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="291">
       <c r="B291">
-        <f t="array" aca="1" ref="B291" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A282,";",REPT(" ",LEN(A282)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A282)-LEN(SUBSTITUTE(A282,";",""))+1))*LEN(A282)+1,LEN(A282)+1)))</f>
+        <f t="array" aca="1" ref="B291" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A280,";",REPT(" ",LEN(A280)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A280)-LEN(SUBSTITUTE(A280,";",""))+1))*LEN(A280)+1,LEN(A280)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="292">
       <c r="B292">
-        <f t="array" aca="1" ref="B292" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A283,";",REPT(" ",LEN(A283)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A283)-LEN(SUBSTITUTE(A283,";",""))+1))*LEN(A283)+1,LEN(A283)+1)))</f>
+        <f t="array" aca="1" ref="B292" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A281,";",REPT(" ",LEN(A281)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A281)-LEN(SUBSTITUTE(A281,";",""))+1))*LEN(A281)+1,LEN(A281)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="293">
       <c r="B293">
-        <f t="array" aca="1" ref="B293" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A284,";",REPT(" ",LEN(A284)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A284)-LEN(SUBSTITUTE(A284,";",""))+1))*LEN(A284)+1,LEN(A284)+1)))</f>
+        <f t="array" aca="1" ref="B293" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A282,";",REPT(" ",LEN(A282)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A282)-LEN(SUBSTITUTE(A282,";",""))+1))*LEN(A282)+1,LEN(A282)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="294">
       <c r="B294">
-        <f t="array" aca="1" ref="B294" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A285,";",REPT(" ",LEN(A285)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A285)-LEN(SUBSTITUTE(A285,";",""))+1))*LEN(A285)+1,LEN(A285)+1)))</f>
+        <f t="array" aca="1" ref="B294" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A283,";",REPT(" ",LEN(A283)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A283)-LEN(SUBSTITUTE(A283,";",""))+1))*LEN(A283)+1,LEN(A283)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="295">
       <c r="B295">
-        <f t="array" aca="1" ref="B295" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A286,";",REPT(" ",LEN(A286)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A286)-LEN(SUBSTITUTE(A286,";",""))+1))*LEN(A286)+1,LEN(A286)+1)))</f>
+        <f t="array" aca="1" ref="B295" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A284,";",REPT(" ",LEN(A284)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A284)-LEN(SUBSTITUTE(A284,";",""))+1))*LEN(A284)+1,LEN(A284)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="296">
       <c r="B296">
-        <f t="array" aca="1" ref="B296" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A287,";",REPT(" ",LEN(A287)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A287)-LEN(SUBSTITUTE(A287,";",""))+1))*LEN(A287)+1,LEN(A287)+1)))</f>
+        <f t="array" aca="1" ref="B296" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A285,";",REPT(" ",LEN(A285)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A285)-LEN(SUBSTITUTE(A285,";",""))+1))*LEN(A285)+1,LEN(A285)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="297">
       <c r="B297">
-        <f t="array" aca="1" ref="B297" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A288,";",REPT(" ",LEN(A288)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A288)-LEN(SUBSTITUTE(A288,";",""))+1))*LEN(A288)+1,LEN(A288)+1)))</f>
+        <f t="array" aca="1" ref="B297" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A286,";",REPT(" ",LEN(A286)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A286)-LEN(SUBSTITUTE(A286,";",""))+1))*LEN(A286)+1,LEN(A286)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="298">
       <c r="B298">
-        <f t="array" aca="1" ref="B298" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A289,";",REPT(" ",LEN(A289)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A289)-LEN(SUBSTITUTE(A289,";",""))+1))*LEN(A289)+1,LEN(A289)+1)))</f>
+        <f t="array" aca="1" ref="B298" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A287,";",REPT(" ",LEN(A287)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A287)-LEN(SUBSTITUTE(A287,";",""))+1))*LEN(A287)+1,LEN(A287)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="299">
       <c r="B299">
-        <f t="array" aca="1" ref="B299" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A290,";",REPT(" ",LEN(A290)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A290)-LEN(SUBSTITUTE(A290,";",""))+1))*LEN(A290)+1,LEN(A290)+1)))</f>
+        <f t="array" aca="1" ref="B299" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A288,";",REPT(" ",LEN(A288)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A288)-LEN(SUBSTITUTE(A288,";",""))+1))*LEN(A288)+1,LEN(A288)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="300">
       <c r="B300">
-        <f t="array" aca="1" ref="B300" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A291,";",REPT(" ",LEN(A291)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A291)-LEN(SUBSTITUTE(A291,";",""))+1))*LEN(A291)+1,LEN(A291)+1)))</f>
+        <f t="array" aca="1" ref="B300" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A289,";",REPT(" ",LEN(A289)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A289)-LEN(SUBSTITUTE(A289,";",""))+1))*LEN(A289)+1,LEN(A289)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="301">
       <c r="B301">
-        <f t="array" aca="1" ref="B301" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A292,";",REPT(" ",LEN(A292)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A292)-LEN(SUBSTITUTE(A292,";",""))+1))*LEN(A292)+1,LEN(A292)+1)))</f>
+        <f t="array" aca="1" ref="B301" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A290,";",REPT(" ",LEN(A290)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A290)-LEN(SUBSTITUTE(A290,";",""))+1))*LEN(A290)+1,LEN(A290)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="302">
       <c r="B302">
-        <f t="array" aca="1" ref="B302" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A293,";",REPT(" ",LEN(A293)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A293)-LEN(SUBSTITUTE(A293,";",""))+1))*LEN(A293)+1,LEN(A293)+1)))</f>
+        <f t="array" aca="1" ref="B302" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A291,";",REPT(" ",LEN(A291)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A291)-LEN(SUBSTITUTE(A291,";",""))+1))*LEN(A291)+1,LEN(A291)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="303">
       <c r="B303">
-        <f t="array" aca="1" ref="B303" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A294,";",REPT(" ",LEN(A294)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A294)-LEN(SUBSTITUTE(A294,";",""))+1))*LEN(A294)+1,LEN(A294)+1)))</f>
+        <f t="array" aca="1" ref="B303" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A292,";",REPT(" ",LEN(A292)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A292)-LEN(SUBSTITUTE(A292,";",""))+1))*LEN(A292)+1,LEN(A292)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="304">
       <c r="B304">
-        <f t="array" aca="1" ref="B304" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A295,";",REPT(" ",LEN(A295)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A295)-LEN(SUBSTITUTE(A295,";",""))+1))*LEN(A295)+1,LEN(A295)+1)))</f>
+        <f t="array" aca="1" ref="B304" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A293,";",REPT(" ",LEN(A293)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A293)-LEN(SUBSTITUTE(A293,";",""))+1))*LEN(A293)+1,LEN(A293)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="305">
       <c r="B305">
-        <f t="array" aca="1" ref="B305" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A296,";",REPT(" ",LEN(A296)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A296)-LEN(SUBSTITUTE(A296,";",""))+1))*LEN(A296)+1,LEN(A296)+1)))</f>
+        <f t="array" aca="1" ref="B305" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A294,";",REPT(" ",LEN(A294)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A294)-LEN(SUBSTITUTE(A294,";",""))+1))*LEN(A294)+1,LEN(A294)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="306">
       <c r="B306">
-        <f t="array" aca="1" ref="B306" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A297,";",REPT(" ",LEN(A297)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A297)-LEN(SUBSTITUTE(A297,";",""))+1))*LEN(A297)+1,LEN(A297)+1)))</f>
+        <f t="array" aca="1" ref="B306" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A295,";",REPT(" ",LEN(A295)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A295)-LEN(SUBSTITUTE(A295,";",""))+1))*LEN(A295)+1,LEN(A295)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="307">
       <c r="B307">
-        <f t="array" aca="1" ref="B307" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A298,";",REPT(" ",LEN(A298)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A298)-LEN(SUBSTITUTE(A298,";",""))+1))*LEN(A298)+1,LEN(A298)+1)))</f>
+        <f t="array" aca="1" ref="B307" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A296,";",REPT(" ",LEN(A296)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A296)-LEN(SUBSTITUTE(A296,";",""))+1))*LEN(A296)+1,LEN(A296)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="308">
       <c r="B308">
-        <f t="array" aca="1" ref="B308" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A299,";",REPT(" ",LEN(A299)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A299)-LEN(SUBSTITUTE(A299,";",""))+1))*LEN(A299)+1,LEN(A299)+1)))</f>
+        <f t="array" aca="1" ref="B308" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A297,";",REPT(" ",LEN(A297)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A297)-LEN(SUBSTITUTE(A297,";",""))+1))*LEN(A297)+1,LEN(A297)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="309">
       <c r="B309">
-        <f t="array" aca="1" ref="B309" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A300,";",REPT(" ",LEN(A300)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A300)-LEN(SUBSTITUTE(A300,";",""))+1))*LEN(A300)+1,LEN(A300)+1)))</f>
+        <f t="array" aca="1" ref="B309" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A298,";",REPT(" ",LEN(A298)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A298)-LEN(SUBSTITUTE(A298,";",""))+1))*LEN(A298)+1,LEN(A298)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="310">
       <c r="B310">
-        <f t="array" aca="1" ref="B310" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A301,";",REPT(" ",LEN(A301)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A301)-LEN(SUBSTITUTE(A301,";",""))+1))*LEN(A301)+1,LEN(A301)+1)))</f>
+        <f t="array" aca="1" ref="B310" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A299,";",REPT(" ",LEN(A299)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A299)-LEN(SUBSTITUTE(A299,";",""))+1))*LEN(A299)+1,LEN(A299)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="311">
       <c r="B311">
-        <f t="array" aca="1" ref="B311" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A302,";",REPT(" ",LEN(A302)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A302)-LEN(SUBSTITUTE(A302,";",""))+1))*LEN(A302)+1,LEN(A302)+1)))</f>
+        <f t="array" aca="1" ref="B311" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A300,";",REPT(" ",LEN(A300)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A300)-LEN(SUBSTITUTE(A300,";",""))+1))*LEN(A300)+1,LEN(A300)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="312">
       <c r="B312">
-        <f t="array" aca="1" ref="B312" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A303,";",REPT(" ",LEN(A303)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A303)-LEN(SUBSTITUTE(A303,";",""))+1))*LEN(A303)+1,LEN(A303)+1)))</f>
+        <f t="array" aca="1" ref="B312" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A301,";",REPT(" ",LEN(A301)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A301)-LEN(SUBSTITUTE(A301,";",""))+1))*LEN(A301)+1,LEN(A301)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="313">
       <c r="B313">
-        <f t="array" aca="1" ref="B313" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A304,";",REPT(" ",LEN(A304)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A304)-LEN(SUBSTITUTE(A304,";",""))+1))*LEN(A304)+1,LEN(A304)+1)))</f>
+        <f t="array" aca="1" ref="B313" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A302,";",REPT(" ",LEN(A302)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A302)-LEN(SUBSTITUTE(A302,";",""))+1))*LEN(A302)+1,LEN(A302)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="314">
       <c r="B314">
-        <f t="array" aca="1" ref="B314" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A305,";",REPT(" ",LEN(A305)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A305)-LEN(SUBSTITUTE(A305,";",""))+1))*LEN(A305)+1,LEN(A305)+1)))</f>
+        <f t="array" aca="1" ref="B314" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A303,";",REPT(" ",LEN(A303)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A303)-LEN(SUBSTITUTE(A303,";",""))+1))*LEN(A303)+1,LEN(A303)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="315">
       <c r="B315">
-        <f t="array" aca="1" ref="B315" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A306,";",REPT(" ",LEN(A306)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A306)-LEN(SUBSTITUTE(A306,";",""))+1))*LEN(A306)+1,LEN(A306)+1)))</f>
+        <f t="array" aca="1" ref="B315" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A304,";",REPT(" ",LEN(A304)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A304)-LEN(SUBSTITUTE(A304,";",""))+1))*LEN(A304)+1,LEN(A304)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="316">
       <c r="B316">
-        <f t="array" aca="1" ref="B316" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A307,";",REPT(" ",LEN(A307)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A307)-LEN(SUBSTITUTE(A307,";",""))+1))*LEN(A307)+1,LEN(A307)+1)))</f>
+        <f t="array" aca="1" ref="B316" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A305,";",REPT(" ",LEN(A305)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A305)-LEN(SUBSTITUTE(A305,";",""))+1))*LEN(A305)+1,LEN(A305)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="317">
       <c r="B317">
-        <f t="array" aca="1" ref="B317" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A308,";",REPT(" ",LEN(A308)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A308)-LEN(SUBSTITUTE(A308,";",""))+1))*LEN(A308)+1,LEN(A308)+1)))</f>
+        <f t="array" aca="1" ref="B317" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A306,";",REPT(" ",LEN(A306)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A306)-LEN(SUBSTITUTE(A306,";",""))+1))*LEN(A306)+1,LEN(A306)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="318">
       <c r="B318">
-        <f t="array" aca="1" ref="B318" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A309,";",REPT(" ",LEN(A309)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A309)-LEN(SUBSTITUTE(A309,";",""))+1))*LEN(A309)+1,LEN(A309)+1)))</f>
+        <f t="array" aca="1" ref="B318" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A307,";",REPT(" ",LEN(A307)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A307)-LEN(SUBSTITUTE(A307,";",""))+1))*LEN(A307)+1,LEN(A307)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="319">
       <c r="B319">
-        <f t="array" aca="1" ref="B319" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A310,";",REPT(" ",LEN(A310)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A310)-LEN(SUBSTITUTE(A310,";",""))+1))*LEN(A310)+1,LEN(A310)+1)))</f>
+        <f t="array" aca="1" ref="B319" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A308,";",REPT(" ",LEN(A308)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A308)-LEN(SUBSTITUTE(A308,";",""))+1))*LEN(A308)+1,LEN(A308)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="320">
       <c r="B320">
-        <f t="array" aca="1" ref="B320" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A311,";",REPT(" ",LEN(A311)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A311)-LEN(SUBSTITUTE(A311,";",""))+1))*LEN(A311)+1,LEN(A311)+1)))</f>
+        <f t="array" aca="1" ref="B320" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A309,";",REPT(" ",LEN(A309)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A309)-LEN(SUBSTITUTE(A309,";",""))+1))*LEN(A309)+1,LEN(A309)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="321">
       <c r="B321">
-        <f t="array" aca="1" ref="B321" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A312,";",REPT(" ",LEN(A312)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A312)-LEN(SUBSTITUTE(A312,";",""))+1))*LEN(A312)+1,LEN(A312)+1)))</f>
+        <f t="array" aca="1" ref="B321" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A310,";",REPT(" ",LEN(A310)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A310)-LEN(SUBSTITUTE(A310,";",""))+1))*LEN(A310)+1,LEN(A310)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="322">
       <c r="B322">
-        <f t="array" aca="1" ref="B322" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A313,";",REPT(" ",LEN(A313)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A313)-LEN(SUBSTITUTE(A313,";",""))+1))*LEN(A313)+1,LEN(A313)+1)))</f>
+        <f t="array" aca="1" ref="B322" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A311,";",REPT(" ",LEN(A311)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A311)-LEN(SUBSTITUTE(A311,";",""))+1))*LEN(A311)+1,LEN(A311)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="323">
       <c r="B323">
-        <f t="array" aca="1" ref="B323" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A314,";",REPT(" ",LEN(A314)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A314)-LEN(SUBSTITUTE(A314,";",""))+1))*LEN(A314)+1,LEN(A314)+1)))</f>
+        <f t="array" aca="1" ref="B323" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A312,";",REPT(" ",LEN(A312)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A312)-LEN(SUBSTITUTE(A312,";",""))+1))*LEN(A312)+1,LEN(A312)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="324">
       <c r="B324">
-        <f t="array" aca="1" ref="B324" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A315,";",REPT(" ",LEN(A315)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A315)-LEN(SUBSTITUTE(A315,";",""))+1))*LEN(A315)+1,LEN(A315)+1)))</f>
+        <f t="array" aca="1" ref="B324" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A313,";",REPT(" ",LEN(A313)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A313)-LEN(SUBSTITUTE(A313,";",""))+1))*LEN(A313)+1,LEN(A313)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="325">
       <c r="B325">
-        <f t="array" aca="1" ref="B325" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A316,";",REPT(" ",LEN(A316)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A316)-LEN(SUBSTITUTE(A316,";",""))+1))*LEN(A316)+1,LEN(A316)+1)))</f>
+        <f t="array" aca="1" ref="B325" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A314,";",REPT(" ",LEN(A314)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A314)-LEN(SUBSTITUTE(A314,";",""))+1))*LEN(A314)+1,LEN(A314)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="326">
       <c r="B326">
-        <f t="array" aca="1" ref="B326" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A317,";",REPT(" ",LEN(A317)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A317)-LEN(SUBSTITUTE(A317,";",""))+1))*LEN(A317)+1,LEN(A317)+1)))</f>
+        <f t="array" aca="1" ref="B326" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A315,";",REPT(" ",LEN(A315)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A315)-LEN(SUBSTITUTE(A315,";",""))+1))*LEN(A315)+1,LEN(A315)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="327">
       <c r="B327">
-        <f t="array" aca="1" ref="B327" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A318,";",REPT(" ",LEN(A318)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A318)-LEN(SUBSTITUTE(A318,";",""))+1))*LEN(A318)+1,LEN(A318)+1)))</f>
+        <f t="array" aca="1" ref="B327" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A316,";",REPT(" ",LEN(A316)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A316)-LEN(SUBSTITUTE(A316,";",""))+1))*LEN(A316)+1,LEN(A316)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="328">
       <c r="B328">
-        <f t="array" aca="1" ref="B328" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A319,";",REPT(" ",LEN(A319)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A319)-LEN(SUBSTITUTE(A319,";",""))+1))*LEN(A319)+1,LEN(A319)+1)))</f>
+        <f t="array" aca="1" ref="B328" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A317,";",REPT(" ",LEN(A317)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A317)-LEN(SUBSTITUTE(A317,";",""))+1))*LEN(A317)+1,LEN(A317)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="329">
       <c r="B329">
-        <f t="array" aca="1" ref="B329" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A320,";",REPT(" ",LEN(A320)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A320)-LEN(SUBSTITUTE(A320,";",""))+1))*LEN(A320)+1,LEN(A320)+1)))</f>
+        <f t="array" aca="1" ref="B329" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A318,";",REPT(" ",LEN(A318)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A318)-LEN(SUBSTITUTE(A318,";",""))+1))*LEN(A318)+1,LEN(A318)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="330">
       <c r="B330">
-        <f t="array" aca="1" ref="B330" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A321,";",REPT(" ",LEN(A321)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A321)-LEN(SUBSTITUTE(A321,";",""))+1))*LEN(A321)+1,LEN(A321)+1)))</f>
+        <f t="array" aca="1" ref="B330" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A319,";",REPT(" ",LEN(A319)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A319)-LEN(SUBSTITUTE(A319,";",""))+1))*LEN(A319)+1,LEN(A319)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="331">
       <c r="B331">
-        <f t="array" aca="1" ref="B331" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A322,";",REPT(" ",LEN(A322)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A322)-LEN(SUBSTITUTE(A322,";",""))+1))*LEN(A322)+1,LEN(A322)+1)))</f>
+        <f t="array" aca="1" ref="B331" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A320,";",REPT(" ",LEN(A320)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A320)-LEN(SUBSTITUTE(A320,";",""))+1))*LEN(A320)+1,LEN(A320)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="332">
       <c r="B332">
-        <f t="array" aca="1" ref="B332" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A323,";",REPT(" ",LEN(A323)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A323)-LEN(SUBSTITUTE(A323,";",""))+1))*LEN(A323)+1,LEN(A323)+1)))</f>
+        <f t="array" aca="1" ref="B332" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A321,";",REPT(" ",LEN(A321)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A321)-LEN(SUBSTITUTE(A321,";",""))+1))*LEN(A321)+1,LEN(A321)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="333">
       <c r="B333">
-        <f t="array" aca="1" ref="B333" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A324,";",REPT(" ",LEN(A324)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A324)-LEN(SUBSTITUTE(A324,";",""))+1))*LEN(A324)+1,LEN(A324)+1)))</f>
+        <f t="array" aca="1" ref="B333" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A322,";",REPT(" ",LEN(A322)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A322)-LEN(SUBSTITUTE(A322,";",""))+1))*LEN(A322)+1,LEN(A322)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="334">
       <c r="B334">
-        <f t="array" aca="1" ref="B334" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A325,";",REPT(" ",LEN(A325)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A325)-LEN(SUBSTITUTE(A325,";",""))+1))*LEN(A325)+1,LEN(A325)+1)))</f>
+        <f t="array" aca="1" ref="B334" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A323,";",REPT(" ",LEN(A323)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A323)-LEN(SUBSTITUTE(A323,";",""))+1))*LEN(A323)+1,LEN(A323)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="335">
       <c r="B335">
-        <f t="array" aca="1" ref="B335" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A326,";",REPT(" ",LEN(A326)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A326)-LEN(SUBSTITUTE(A326,";",""))+1))*LEN(A326)+1,LEN(A326)+1)))</f>
+        <f t="array" aca="1" ref="B335" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A324,";",REPT(" ",LEN(A324)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A324)-LEN(SUBSTITUTE(A324,";",""))+1))*LEN(A324)+1,LEN(A324)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="336">
       <c r="B336">
-        <f t="array" aca="1" ref="B336" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A327,";",REPT(" ",LEN(A327)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A327)-LEN(SUBSTITUTE(A327,";",""))+1))*LEN(A327)+1,LEN(A327)+1)))</f>
+        <f t="array" aca="1" ref="B336" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A325,";",REPT(" ",LEN(A325)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A325)-LEN(SUBSTITUTE(A325,";",""))+1))*LEN(A325)+1,LEN(A325)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="337">
       <c r="B337">
-        <f t="array" aca="1" ref="B337" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A328,";",REPT(" ",LEN(A328)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A328)-LEN(SUBSTITUTE(A328,";",""))+1))*LEN(A328)+1,LEN(A328)+1)))</f>
+        <f t="array" aca="1" ref="B337" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A326,";",REPT(" ",LEN(A326)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A326)-LEN(SUBSTITUTE(A326,";",""))+1))*LEN(A326)+1,LEN(A326)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="338">
       <c r="B338">
-        <f t="array" aca="1" ref="B338" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A329,";",REPT(" ",LEN(A329)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A329)-LEN(SUBSTITUTE(A329,";",""))+1))*LEN(A329)+1,LEN(A329)+1)))</f>
+        <f t="array" aca="1" ref="B338" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A327,";",REPT(" ",LEN(A327)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A327)-LEN(SUBSTITUTE(A327,";",""))+1))*LEN(A327)+1,LEN(A327)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="339">
       <c r="B339">
-        <f t="array" aca="1" ref="B339" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A330,";",REPT(" ",LEN(A330)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A330)-LEN(SUBSTITUTE(A330,";",""))+1))*LEN(A330)+1,LEN(A330)+1)))</f>
+        <f t="array" aca="1" ref="B339" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A328,";",REPT(" ",LEN(A328)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A328)-LEN(SUBSTITUTE(A328,";",""))+1))*LEN(A328)+1,LEN(A328)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="340">
       <c r="B340">
-        <f t="array" aca="1" ref="B340" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A331,";",REPT(" ",LEN(A331)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A331)-LEN(SUBSTITUTE(A331,";",""))+1))*LEN(A331)+1,LEN(A331)+1)))</f>
+        <f t="array" aca="1" ref="B340" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A329,";",REPT(" ",LEN(A329)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A329)-LEN(SUBSTITUTE(A329,";",""))+1))*LEN(A329)+1,LEN(A329)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="341">
       <c r="B341">
-        <f t="array" aca="1" ref="B341" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A332,";",REPT(" ",LEN(A332)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A332)-LEN(SUBSTITUTE(A332,";",""))+1))*LEN(A332)+1,LEN(A332)+1)))</f>
+        <f t="array" aca="1" ref="B341" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A330,";",REPT(" ",LEN(A330)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A330)-LEN(SUBSTITUTE(A330,";",""))+1))*LEN(A330)+1,LEN(A330)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="342">
       <c r="B342">
-        <f t="array" aca="1" ref="B342" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A333,";",REPT(" ",LEN(A333)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A333)-LEN(SUBSTITUTE(A333,";",""))+1))*LEN(A333)+1,LEN(A333)+1)))</f>
+        <f t="array" aca="1" ref="B342" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A331,";",REPT(" ",LEN(A331)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A331)-LEN(SUBSTITUTE(A331,";",""))+1))*LEN(A331)+1,LEN(A331)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="343">
       <c r="B343">
-        <f t="array" aca="1" ref="B343" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A334,";",REPT(" ",LEN(A334)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A334)-LEN(SUBSTITUTE(A334,";",""))+1))*LEN(A334)+1,LEN(A334)+1)))</f>
+        <f t="array" aca="1" ref="B343" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A332,";",REPT(" ",LEN(A332)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A332)-LEN(SUBSTITUTE(A332,";",""))+1))*LEN(A332)+1,LEN(A332)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="344">
       <c r="B344">
-        <f t="array" aca="1" ref="B344" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A335,";",REPT(" ",LEN(A335)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A335)-LEN(SUBSTITUTE(A335,";",""))+1))*LEN(A335)+1,LEN(A335)+1)))</f>
+        <f t="array" aca="1" ref="B344" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A333,";",REPT(" ",LEN(A333)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A333)-LEN(SUBSTITUTE(A333,";",""))+1))*LEN(A333)+1,LEN(A333)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="345">
       <c r="B345">
-        <f t="array" aca="1" ref="B345" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A336,";",REPT(" ",LEN(A336)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A336)-LEN(SUBSTITUTE(A336,";",""))+1))*LEN(A336)+1,LEN(A336)+1)))</f>
+        <f t="array" aca="1" ref="B345" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A334,";",REPT(" ",LEN(A334)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A334)-LEN(SUBSTITUTE(A334,";",""))+1))*LEN(A334)+1,LEN(A334)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="346">
       <c r="B346">
-        <f t="array" aca="1" ref="B346" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A337,";",REPT(" ",LEN(A337)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A337)-LEN(SUBSTITUTE(A337,";",""))+1))*LEN(A337)+1,LEN(A337)+1)))</f>
+        <f t="array" aca="1" ref="B346" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A335,";",REPT(" ",LEN(A335)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A335)-LEN(SUBSTITUTE(A335,";",""))+1))*LEN(A335)+1,LEN(A335)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="347">
       <c r="B347">
-        <f t="array" aca="1" ref="B347" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A338,";",REPT(" ",LEN(A338)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A338)-LEN(SUBSTITUTE(A338,";",""))+1))*LEN(A338)+1,LEN(A338)+1)))</f>
+        <f t="array" aca="1" ref="B347" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A336,";",REPT(" ",LEN(A336)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A336)-LEN(SUBSTITUTE(A336,";",""))+1))*LEN(A336)+1,LEN(A336)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="348">
       <c r="B348">
-        <f t="array" aca="1" ref="B348" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A339,";",REPT(" ",LEN(A339)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A339)-LEN(SUBSTITUTE(A339,";",""))+1))*LEN(A339)+1,LEN(A339)+1)))</f>
+        <f t="array" aca="1" ref="B348" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A337,";",REPT(" ",LEN(A337)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A337)-LEN(SUBSTITUTE(A337,";",""))+1))*LEN(A337)+1,LEN(A337)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="349">
       <c r="B349">
-        <f t="array" aca="1" ref="B349" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A340,";",REPT(" ",LEN(A340)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A340)-LEN(SUBSTITUTE(A340,";",""))+1))*LEN(A340)+1,LEN(A340)+1)))</f>
+        <f t="array" aca="1" ref="B349" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A338,";",REPT(" ",LEN(A338)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A338)-LEN(SUBSTITUTE(A338,";",""))+1))*LEN(A338)+1,LEN(A338)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="350">
       <c r="B350">
-        <f t="array" aca="1" ref="B350" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A341,";",REPT(" ",LEN(A341)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A341)-LEN(SUBSTITUTE(A341,";",""))+1))*LEN(A341)+1,LEN(A341)+1)))</f>
+        <f t="array" aca="1" ref="B350" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A339,";",REPT(" ",LEN(A339)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A339)-LEN(SUBSTITUTE(A339,";",""))+1))*LEN(A339)+1,LEN(A339)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="351">
       <c r="B351">
-        <f t="array" aca="1" ref="B351" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A342,";",REPT(" ",LEN(A342)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A342)-LEN(SUBSTITUTE(A342,";",""))+1))*LEN(A342)+1,LEN(A342)+1)))</f>
+        <f t="array" aca="1" ref="B351" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A340,";",REPT(" ",LEN(A340)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A340)-LEN(SUBSTITUTE(A340,";",""))+1))*LEN(A340)+1,LEN(A340)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="352">
       <c r="B352">
-        <f t="array" aca="1" ref="B352" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A343,";",REPT(" ",LEN(A343)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A343)-LEN(SUBSTITUTE(A343,";",""))+1))*LEN(A343)+1,LEN(A343)+1)))</f>
+        <f t="array" aca="1" ref="B352" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A341,";",REPT(" ",LEN(A341)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A341)-LEN(SUBSTITUTE(A341,";",""))+1))*LEN(A341)+1,LEN(A341)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="353">
       <c r="B353">
-        <f t="array" aca="1" ref="B353" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A344,";",REPT(" ",LEN(A344)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A344)-LEN(SUBSTITUTE(A344,";",""))+1))*LEN(A344)+1,LEN(A344)+1)))</f>
+        <f t="array" aca="1" ref="B353" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A342,";",REPT(" ",LEN(A342)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A342)-LEN(SUBSTITUTE(A342,";",""))+1))*LEN(A342)+1,LEN(A342)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="354">
       <c r="B354">
-        <f t="array" aca="1" ref="B354" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A345,";",REPT(" ",LEN(A345)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A345)-LEN(SUBSTITUTE(A345,";",""))+1))*LEN(A345)+1,LEN(A345)+1)))</f>
+        <f t="array" aca="1" ref="B354" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A343,";",REPT(" ",LEN(A343)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A343)-LEN(SUBSTITUTE(A343,";",""))+1))*LEN(A343)+1,LEN(A343)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="355">
       <c r="B355">
-        <f t="array" aca="1" ref="B355" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A346,";",REPT(" ",LEN(A346)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A346)-LEN(SUBSTITUTE(A346,";",""))+1))*LEN(A346)+1,LEN(A346)+1)))</f>
+        <f t="array" aca="1" ref="B355" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A344,";",REPT(" ",LEN(A344)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A344)-LEN(SUBSTITUTE(A344,";",""))+1))*LEN(A344)+1,LEN(A344)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="356">
       <c r="B356">
-        <f t="array" aca="1" ref="B356" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A347,";",REPT(" ",LEN(A347)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A347)-LEN(SUBSTITUTE(A347,";",""))+1))*LEN(A347)+1,LEN(A347)+1)))</f>
+        <f t="array" aca="1" ref="B356" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A345,";",REPT(" ",LEN(A345)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A345)-LEN(SUBSTITUTE(A345,";",""))+1))*LEN(A345)+1,LEN(A345)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="357">
       <c r="B357">
-        <f t="array" aca="1" ref="B357" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A348,";",REPT(" ",LEN(A348)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A348)-LEN(SUBSTITUTE(A348,";",""))+1))*LEN(A348)+1,LEN(A348)+1)))</f>
+        <f t="array" aca="1" ref="B357" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A346,";",REPT(" ",LEN(A346)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A346)-LEN(SUBSTITUTE(A346,";",""))+1))*LEN(A346)+1,LEN(A346)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="358">
       <c r="B358">
-        <f t="array" aca="1" ref="B358" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A349,";",REPT(" ",LEN(A349)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A349)-LEN(SUBSTITUTE(A349,";",""))+1))*LEN(A349)+1,LEN(A349)+1)))</f>
+        <f t="array" aca="1" ref="B358" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A347,";",REPT(" ",LEN(A347)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A347)-LEN(SUBSTITUTE(A347,";",""))+1))*LEN(A347)+1,LEN(A347)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="359">
       <c r="B359">
-        <f t="array" aca="1" ref="B359" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A350,";",REPT(" ",LEN(A350)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A350)-LEN(SUBSTITUTE(A350,";",""))+1))*LEN(A350)+1,LEN(A350)+1)))</f>
+        <f t="array" aca="1" ref="B359" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A348,";",REPT(" ",LEN(A348)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A348)-LEN(SUBSTITUTE(A348,";",""))+1))*LEN(A348)+1,LEN(A348)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="360">
       <c r="B360">
-        <f t="array" aca="1" ref="B360" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A351,";",REPT(" ",LEN(A351)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A351)-LEN(SUBSTITUTE(A351,";",""))+1))*LEN(A351)+1,LEN(A351)+1)))</f>
+        <f t="array" aca="1" ref="B360" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A349,";",REPT(" ",LEN(A349)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A349)-LEN(SUBSTITUTE(A349,";",""))+1))*LEN(A349)+1,LEN(A349)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="361">
       <c r="B361">
-        <f t="array" aca="1" ref="B361" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A352,";",REPT(" ",LEN(A352)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A352)-LEN(SUBSTITUTE(A352,";",""))+1))*LEN(A352)+1,LEN(A352)+1)))</f>
+        <f t="array" aca="1" ref="B361" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A350,";",REPT(" ",LEN(A350)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A350)-LEN(SUBSTITUTE(A350,";",""))+1))*LEN(A350)+1,LEN(A350)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="362">
       <c r="B362">
-        <f t="array" aca="1" ref="B362" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A353,";",REPT(" ",LEN(A353)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A353)-LEN(SUBSTITUTE(A353,";",""))+1))*LEN(A353)+1,LEN(A353)+1)))</f>
+        <f t="array" aca="1" ref="B362" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A351,";",REPT(" ",LEN(A351)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A351)-LEN(SUBSTITUTE(A351,";",""))+1))*LEN(A351)+1,LEN(A351)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="363">
       <c r="B363">
-        <f t="array" aca="1" ref="B363" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A354,";",REPT(" ",LEN(A354)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A354)-LEN(SUBSTITUTE(A354,";",""))+1))*LEN(A354)+1,LEN(A354)+1)))</f>
+        <f t="array" aca="1" ref="B363" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A352,";",REPT(" ",LEN(A352)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A352)-LEN(SUBSTITUTE(A352,";",""))+1))*LEN(A352)+1,LEN(A352)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="364">
       <c r="B364">
-        <f t="array" aca="1" ref="B364" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A355,";",REPT(" ",LEN(A355)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A355)-LEN(SUBSTITUTE(A355,";",""))+1))*LEN(A355)+1,LEN(A355)+1)))</f>
+        <f t="array" aca="1" ref="B364" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A353,";",REPT(" ",LEN(A353)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A353)-LEN(SUBSTITUTE(A353,";",""))+1))*LEN(A353)+1,LEN(A353)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="365">
       <c r="B365">
-        <f t="array" aca="1" ref="B365" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A356,";",REPT(" ",LEN(A356)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A356)-LEN(SUBSTITUTE(A356,";",""))+1))*LEN(A356)+1,LEN(A356)+1)))</f>
+        <f t="array" aca="1" ref="B365" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A354,";",REPT(" ",LEN(A354)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A354)-LEN(SUBSTITUTE(A354,";",""))+1))*LEN(A354)+1,LEN(A354)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="366">
       <c r="B366">
-        <f t="array" aca="1" ref="B366" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A357,";",REPT(" ",LEN(A357)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A357)-LEN(SUBSTITUTE(A357,";",""))+1))*LEN(A357)+1,LEN(A357)+1)))</f>
+        <f t="array" aca="1" ref="B366" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A355,";",REPT(" ",LEN(A355)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A355)-LEN(SUBSTITUTE(A355,";",""))+1))*LEN(A355)+1,LEN(A355)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="367">
       <c r="B367">
-        <f t="array" aca="1" ref="B367" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A358,";",REPT(" ",LEN(A358)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A358)-LEN(SUBSTITUTE(A358,";",""))+1))*LEN(A358)+1,LEN(A358)+1)))</f>
+        <f t="array" aca="1" ref="B367" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A356,";",REPT(" ",LEN(A356)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A356)-LEN(SUBSTITUTE(A356,";",""))+1))*LEN(A356)+1,LEN(A356)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="368">
       <c r="B368">
-        <f t="array" aca="1" ref="B368" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A359,";",REPT(" ",LEN(A359)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A359)-LEN(SUBSTITUTE(A359,";",""))+1))*LEN(A359)+1,LEN(A359)+1)))</f>
+        <f t="array" aca="1" ref="B368" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A357,";",REPT(" ",LEN(A357)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A357)-LEN(SUBSTITUTE(A357,";",""))+1))*LEN(A357)+1,LEN(A357)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="369">
       <c r="B369">
-        <f t="array" aca="1" ref="B369" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A360,";",REPT(" ",LEN(A360)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A360)-LEN(SUBSTITUTE(A360,";",""))+1))*LEN(A360)+1,LEN(A360)+1)))</f>
+        <f t="array" aca="1" ref="B369" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A358,";",REPT(" ",LEN(A358)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A358)-LEN(SUBSTITUTE(A358,";",""))+1))*LEN(A358)+1,LEN(A358)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="370">
       <c r="B370">
-        <f t="array" aca="1" ref="B370" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A361,";",REPT(" ",LEN(A361)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A361)-LEN(SUBSTITUTE(A361,";",""))+1))*LEN(A361)+1,LEN(A361)+1)))</f>
+        <f t="array" aca="1" ref="B370" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A359,";",REPT(" ",LEN(A359)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A359)-LEN(SUBSTITUTE(A359,";",""))+1))*LEN(A359)+1,LEN(A359)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="371">
       <c r="B371">
-        <f t="array" aca="1" ref="B371" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A362,";",REPT(" ",LEN(A362)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A362)-LEN(SUBSTITUTE(A362,";",""))+1))*LEN(A362)+1,LEN(A362)+1)))</f>
+        <f t="array" aca="1" ref="B371" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A360,";",REPT(" ",LEN(A360)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A360)-LEN(SUBSTITUTE(A360,";",""))+1))*LEN(A360)+1,LEN(A360)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="372">
       <c r="B372">
-        <f t="array" aca="1" ref="B372" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A363,";",REPT(" ",LEN(A363)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A363)-LEN(SUBSTITUTE(A363,";",""))+1))*LEN(A363)+1,LEN(A363)+1)))</f>
+        <f t="array" aca="1" ref="B372" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A361,";",REPT(" ",LEN(A361)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A361)-LEN(SUBSTITUTE(A361,";",""))+1))*LEN(A361)+1,LEN(A361)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="373">
       <c r="B373">
-        <f t="array" aca="1" ref="B373" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A364,";",REPT(" ",LEN(A364)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A364)-LEN(SUBSTITUTE(A364,";",""))+1))*LEN(A364)+1,LEN(A364)+1)))</f>
+        <f t="array" aca="1" ref="B373" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A362,";",REPT(" ",LEN(A362)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A362)-LEN(SUBSTITUTE(A362,";",""))+1))*LEN(A362)+1,LEN(A362)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="374">
       <c r="B374">
-        <f t="array" aca="1" ref="B374" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A365,";",REPT(" ",LEN(A365)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A365)-LEN(SUBSTITUTE(A365,";",""))+1))*LEN(A365)+1,LEN(A365)+1)))</f>
+        <f t="array" aca="1" ref="B374" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A363,";",REPT(" ",LEN(A363)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A363)-LEN(SUBSTITUTE(A363,";",""))+1))*LEN(A363)+1,LEN(A363)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="375">
       <c r="B375">
-        <f t="array" aca="1" ref="B375" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A366,";",REPT(" ",LEN(A366)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A366)-LEN(SUBSTITUTE(A366,";",""))+1))*LEN(A366)+1,LEN(A366)+1)))</f>
+        <f t="array" aca="1" ref="B375" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A364,";",REPT(" ",LEN(A364)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A364)-LEN(SUBSTITUTE(A364,";",""))+1))*LEN(A364)+1,LEN(A364)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="376">
       <c r="B376">
-        <f t="array" aca="1" ref="B376" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A367,";",REPT(" ",LEN(A367)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A367)-LEN(SUBSTITUTE(A367,";",""))+1))*LEN(A367)+1,LEN(A367)+1)))</f>
+        <f t="array" aca="1" ref="B376" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A365,";",REPT(" ",LEN(A365)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A365)-LEN(SUBSTITUTE(A365,";",""))+1))*LEN(A365)+1,LEN(A365)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="377">
       <c r="B377">
-        <f t="array" aca="1" ref="B377" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A368,";",REPT(" ",LEN(A368)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A368)-LEN(SUBSTITUTE(A368,";",""))+1))*LEN(A368)+1,LEN(A368)+1)))</f>
+        <f t="array" aca="1" ref="B377" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A366,";",REPT(" ",LEN(A366)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A366)-LEN(SUBSTITUTE(A366,";",""))+1))*LEN(A366)+1,LEN(A366)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="378">
       <c r="B378">
-        <f t="array" aca="1" ref="B378" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A369,";",REPT(" ",LEN(A369)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A369)-LEN(SUBSTITUTE(A369,";",""))+1))*LEN(A369)+1,LEN(A369)+1)))</f>
+        <f t="array" aca="1" ref="B378" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A367,";",REPT(" ",LEN(A367)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A367)-LEN(SUBSTITUTE(A367,";",""))+1))*LEN(A367)+1,LEN(A367)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="379">
       <c r="B379">
-        <f t="array" aca="1" ref="B379" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A370,";",REPT(" ",LEN(A370)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A370)-LEN(SUBSTITUTE(A370,";",""))+1))*LEN(A370)+1,LEN(A370)+1)))</f>
+        <f t="array" aca="1" ref="B379" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A368,";",REPT(" ",LEN(A368)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A368)-LEN(SUBSTITUTE(A368,";",""))+1))*LEN(A368)+1,LEN(A368)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="380">
       <c r="B380">
-        <f t="array" aca="1" ref="B380" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A371,";",REPT(" ",LEN(A371)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A371)-LEN(SUBSTITUTE(A371,";",""))+1))*LEN(A371)+1,LEN(A371)+1)))</f>
+        <f t="array" aca="1" ref="B380" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A369,";",REPT(" ",LEN(A369)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A369)-LEN(SUBSTITUTE(A369,";",""))+1))*LEN(A369)+1,LEN(A369)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="381">
       <c r="B381">
-        <f t="array" aca="1" ref="B381" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A372,";",REPT(" ",LEN(A372)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A372)-LEN(SUBSTITUTE(A372,";",""))+1))*LEN(A372)+1,LEN(A372)+1)))</f>
+        <f t="array" aca="1" ref="B381" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A370,";",REPT(" ",LEN(A370)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A370)-LEN(SUBSTITUTE(A370,";",""))+1))*LEN(A370)+1,LEN(A370)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="382">
       <c r="B382">
-        <f t="array" aca="1" ref="B382" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A373,";",REPT(" ",LEN(A373)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A373)-LEN(SUBSTITUTE(A373,";",""))+1))*LEN(A373)+1,LEN(A373)+1)))</f>
+        <f t="array" aca="1" ref="B382" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A371,";",REPT(" ",LEN(A371)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A371)-LEN(SUBSTITUTE(A371,";",""))+1))*LEN(A371)+1,LEN(A371)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="383">
       <c r="B383">
-        <f t="array" aca="1" ref="B383" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A374,";",REPT(" ",LEN(A374)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A374)-LEN(SUBSTITUTE(A374,";",""))+1))*LEN(A374)+1,LEN(A374)+1)))</f>
+        <f t="array" aca="1" ref="B383" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A372,";",REPT(" ",LEN(A372)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A372)-LEN(SUBSTITUTE(A372,";",""))+1))*LEN(A372)+1,LEN(A372)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="384">
       <c r="B384">
-        <f t="array" aca="1" ref="B384" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A375,";",REPT(" ",LEN(A375)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A375)-LEN(SUBSTITUTE(A375,";",""))+1))*LEN(A375)+1,LEN(A375)+1)))</f>
+        <f t="array" aca="1" ref="B384" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A373,";",REPT(" ",LEN(A373)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A373)-LEN(SUBSTITUTE(A373,";",""))+1))*LEN(A373)+1,LEN(A373)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="385">
       <c r="B385">
-        <f t="array" aca="1" ref="B385" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A376,";",REPT(" ",LEN(A376)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A376)-LEN(SUBSTITUTE(A376,";",""))+1))*LEN(A376)+1,LEN(A376)+1)))</f>
+        <f t="array" aca="1" ref="B385" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A374,";",REPT(" ",LEN(A374)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A374)-LEN(SUBSTITUTE(A374,";",""))+1))*LEN(A374)+1,LEN(A374)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="386">
       <c r="B386">
-        <f t="array" aca="1" ref="B386" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A377,";",REPT(" ",LEN(A377)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A377)-LEN(SUBSTITUTE(A377,";",""))+1))*LEN(A377)+1,LEN(A377)+1)))</f>
+        <f t="array" aca="1" ref="B386" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A375,";",REPT(" ",LEN(A375)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A375)-LEN(SUBSTITUTE(A375,";",""))+1))*LEN(A375)+1,LEN(A375)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="387">
       <c r="B387">
-        <f t="array" aca="1" ref="B387" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A378,";",REPT(" ",LEN(A378)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A378)-LEN(SUBSTITUTE(A378,";",""))+1))*LEN(A378)+1,LEN(A378)+1)))</f>
+        <f t="array" aca="1" ref="B387" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A376,";",REPT(" ",LEN(A376)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A376)-LEN(SUBSTITUTE(A376,";",""))+1))*LEN(A376)+1,LEN(A376)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="388">
       <c r="B388">
-        <f t="array" aca="1" ref="B388" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A379,";",REPT(" ",LEN(A379)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A379)-LEN(SUBSTITUTE(A379,";",""))+1))*LEN(A379)+1,LEN(A379)+1)))</f>
+        <f t="array" aca="1" ref="B388" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A377,";",REPT(" ",LEN(A377)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A377)-LEN(SUBSTITUTE(A377,";",""))+1))*LEN(A377)+1,LEN(A377)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="389">
       <c r="B389">
-        <f t="array" aca="1" ref="B389" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A380,";",REPT(" ",LEN(A380)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A380)-LEN(SUBSTITUTE(A380,";",""))+1))*LEN(A380)+1,LEN(A380)+1)))</f>
+        <f t="array" aca="1" ref="B389" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A378,";",REPT(" ",LEN(A378)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A378)-LEN(SUBSTITUTE(A378,";",""))+1))*LEN(A378)+1,LEN(A378)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="390">
       <c r="B390">
-        <f t="array" aca="1" ref="B390" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A381,";",REPT(" ",LEN(A381)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A381)-LEN(SUBSTITUTE(A381,";",""))+1))*LEN(A381)+1,LEN(A381)+1)))</f>
+        <f t="array" aca="1" ref="B390" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A379,";",REPT(" ",LEN(A379)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A379)-LEN(SUBSTITUTE(A379,";",""))+1))*LEN(A379)+1,LEN(A379)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="391">
       <c r="B391">
-        <f t="array" aca="1" ref="B391" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A382,";",REPT(" ",LEN(A382)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A382)-LEN(SUBSTITUTE(A382,";",""))+1))*LEN(A382)+1,LEN(A382)+1)))</f>
+        <f t="array" aca="1" ref="B391" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A380,";",REPT(" ",LEN(A380)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A380)-LEN(SUBSTITUTE(A380,";",""))+1))*LEN(A380)+1,LEN(A380)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="392">
       <c r="B392">
-        <f t="array" aca="1" ref="B392" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A383,";",REPT(" ",LEN(A383)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A383)-LEN(SUBSTITUTE(A383,";",""))+1))*LEN(A383)+1,LEN(A383)+1)))</f>
+        <f t="array" aca="1" ref="B392" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A381,";",REPT(" ",LEN(A381)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A381)-LEN(SUBSTITUTE(A381,";",""))+1))*LEN(A381)+1,LEN(A381)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="393">
       <c r="B393">
-        <f t="array" aca="1" ref="B393" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A384,";",REPT(" ",LEN(A384)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A384)-LEN(SUBSTITUTE(A384,";",""))+1))*LEN(A384)+1,LEN(A384)+1)))</f>
+        <f t="array" aca="1" ref="B393" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A382,";",REPT(" ",LEN(A382)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A382)-LEN(SUBSTITUTE(A382,";",""))+1))*LEN(A382)+1,LEN(A382)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="394">
       <c r="B394">
-        <f t="array" aca="1" ref="B394" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A385,";",REPT(" ",LEN(A385)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A385)-LEN(SUBSTITUTE(A385,";",""))+1))*LEN(A385)+1,LEN(A385)+1)))</f>
+        <f t="array" aca="1" ref="B394" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A383,";",REPT(" ",LEN(A383)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A383)-LEN(SUBSTITUTE(A383,";",""))+1))*LEN(A383)+1,LEN(A383)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="395">
       <c r="B395">
-        <f t="array" aca="1" ref="B395" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A386,";",REPT(" ",LEN(A386)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A386)-LEN(SUBSTITUTE(A386,";",""))+1))*LEN(A386)+1,LEN(A386)+1)))</f>
+        <f t="array" aca="1" ref="B395" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A384,";",REPT(" ",LEN(A384)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A384)-LEN(SUBSTITUTE(A384,";",""))+1))*LEN(A384)+1,LEN(A384)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="396">
       <c r="B396">
-        <f t="array" aca="1" ref="B396" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A387,";",REPT(" ",LEN(A387)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A387)-LEN(SUBSTITUTE(A387,";",""))+1))*LEN(A387)+1,LEN(A387)+1)))</f>
+        <f t="array" aca="1" ref="B396" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A385,";",REPT(" ",LEN(A385)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A385)-LEN(SUBSTITUTE(A385,";",""))+1))*LEN(A385)+1,LEN(A385)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="397">
       <c r="B397">
-        <f t="array" aca="1" ref="B397" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A388,";",REPT(" ",LEN(A388)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A388)-LEN(SUBSTITUTE(A388,";",""))+1))*LEN(A388)+1,LEN(A388)+1)))</f>
+        <f t="array" aca="1" ref="B397" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A386,";",REPT(" ",LEN(A386)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A386)-LEN(SUBSTITUTE(A386,";",""))+1))*LEN(A386)+1,LEN(A386)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="398">
       <c r="B398">
-        <f t="array" aca="1" ref="B398" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A389,";",REPT(" ",LEN(A389)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A389)-LEN(SUBSTITUTE(A389,";",""))+1))*LEN(A389)+1,LEN(A389)+1)))</f>
+        <f t="array" aca="1" ref="B398" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A387,";",REPT(" ",LEN(A387)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A387)-LEN(SUBSTITUTE(A387,";",""))+1))*LEN(A387)+1,LEN(A387)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="399">
       <c r="B399">
-        <f t="array" aca="1" ref="B399" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A390,";",REPT(" ",LEN(A390)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A390)-LEN(SUBSTITUTE(A390,";",""))+1))*LEN(A390)+1,LEN(A390)+1)))</f>
+        <f t="array" aca="1" ref="B399" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A388,";",REPT(" ",LEN(A388)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A388)-LEN(SUBSTITUTE(A388,";",""))+1))*LEN(A388)+1,LEN(A388)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="400">
       <c r="B400">
-        <f t="array" aca="1" ref="B400" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A391,";",REPT(" ",LEN(A391)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A391)-LEN(SUBSTITUTE(A391,";",""))+1))*LEN(A391)+1,LEN(A391)+1)))</f>
+        <f t="array" aca="1" ref="B400" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A389,";",REPT(" ",LEN(A389)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A389)-LEN(SUBSTITUTE(A389,";",""))+1))*LEN(A389)+1,LEN(A389)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="401">
       <c r="B401">
-        <f t="array" aca="1" ref="B401" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A392,";",REPT(" ",LEN(A392)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A392)-LEN(SUBSTITUTE(A392,";",""))+1))*LEN(A392)+1,LEN(A392)+1)))</f>
+        <f t="array" aca="1" ref="B401" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A390,";",REPT(" ",LEN(A390)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A390)-LEN(SUBSTITUTE(A390,";",""))+1))*LEN(A390)+1,LEN(A390)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="402">
       <c r="B402">
-        <f t="array" aca="1" ref="B402" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A393,";",REPT(" ",LEN(A393)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A393)-LEN(SUBSTITUTE(A393,";",""))+1))*LEN(A393)+1,LEN(A393)+1)))</f>
+        <f t="array" aca="1" ref="B402" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A391,";",REPT(" ",LEN(A391)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A391)-LEN(SUBSTITUTE(A391,";",""))+1))*LEN(A391)+1,LEN(A391)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="403">
       <c r="B403">
-        <f t="array" aca="1" ref="B403" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A394,";",REPT(" ",LEN(A394)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A394)-LEN(SUBSTITUTE(A394,";",""))+1))*LEN(A394)+1,LEN(A394)+1)))</f>
+        <f t="array" aca="1" ref="B403" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A392,";",REPT(" ",LEN(A392)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A392)-LEN(SUBSTITUTE(A392,";",""))+1))*LEN(A392)+1,LEN(A392)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="404">
       <c r="B404">
-        <f t="array" aca="1" ref="B404" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A395,";",REPT(" ",LEN(A395)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A395)-LEN(SUBSTITUTE(A395,";",""))+1))*LEN(A395)+1,LEN(A395)+1)))</f>
+        <f t="array" aca="1" ref="B404" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A393,";",REPT(" ",LEN(A393)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A393)-LEN(SUBSTITUTE(A393,";",""))+1))*LEN(A393)+1,LEN(A393)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="405">
       <c r="B405">
-        <f t="array" aca="1" ref="B405" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A396,";",REPT(" ",LEN(A396)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A396)-LEN(SUBSTITUTE(A396,";",""))+1))*LEN(A396)+1,LEN(A396)+1)))</f>
+        <f t="array" aca="1" ref="B405" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A394,";",REPT(" ",LEN(A394)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A394)-LEN(SUBSTITUTE(A394,";",""))+1))*LEN(A394)+1,LEN(A394)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="406">
       <c r="B406">
-        <f t="array" aca="1" ref="B406" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A397,";",REPT(" ",LEN(A397)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A397)-LEN(SUBSTITUTE(A397,";",""))+1))*LEN(A397)+1,LEN(A397)+1)))</f>
+        <f t="array" aca="1" ref="B406" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A395,";",REPT(" ",LEN(A395)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A395)-LEN(SUBSTITUTE(A395,";",""))+1))*LEN(A395)+1,LEN(A395)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="407">
       <c r="B407">
-        <f t="array" aca="1" ref="B407" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A398,";",REPT(" ",LEN(A398)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A398)-LEN(SUBSTITUTE(A398,";",""))+1))*LEN(A398)+1,LEN(A398)+1)))</f>
+        <f t="array" aca="1" ref="B407" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A396,";",REPT(" ",LEN(A396)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A396)-LEN(SUBSTITUTE(A396,";",""))+1))*LEN(A396)+1,LEN(A396)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="408">
       <c r="B408">
-        <f t="array" aca="1" ref="B408" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A399,";",REPT(" ",LEN(A399)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A399)-LEN(SUBSTITUTE(A399,";",""))+1))*LEN(A399)+1,LEN(A399)+1)))</f>
+        <f t="array" aca="1" ref="B408" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A397,";",REPT(" ",LEN(A397)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A397)-LEN(SUBSTITUTE(A397,";",""))+1))*LEN(A397)+1,LEN(A397)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="409">
       <c r="B409">
-        <f t="array" aca="1" ref="B409" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A400,";",REPT(" ",LEN(A400)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A400)-LEN(SUBSTITUTE(A400,";",""))+1))*LEN(A400)+1,LEN(A400)+1)))</f>
+        <f t="array" aca="1" ref="B409" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A398,";",REPT(" ",LEN(A398)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A398)-LEN(SUBSTITUTE(A398,";",""))+1))*LEN(A398)+1,LEN(A398)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="410">
       <c r="B410">
-        <f t="array" aca="1" ref="B410" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A401,";",REPT(" ",LEN(A401)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A401)-LEN(SUBSTITUTE(A401,";",""))+1))*LEN(A401)+1,LEN(A401)+1)))</f>
+        <f t="array" aca="1" ref="B410" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A399,";",REPT(" ",LEN(A399)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A399)-LEN(SUBSTITUTE(A399,";",""))+1))*LEN(A399)+1,LEN(A399)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="411">
       <c r="B411">
-        <f t="array" aca="1" ref="B411" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A402,";",REPT(" ",LEN(A402)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A402)-LEN(SUBSTITUTE(A402,";",""))+1))*LEN(A402)+1,LEN(A402)+1)))</f>
+        <f t="array" aca="1" ref="B411" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A400,";",REPT(" ",LEN(A400)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A400)-LEN(SUBSTITUTE(A400,";",""))+1))*LEN(A400)+1,LEN(A400)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="412">
       <c r="B412">
-        <f t="array" aca="1" ref="B412" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A403,";",REPT(" ",LEN(A403)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A403)-LEN(SUBSTITUTE(A403,";",""))+1))*LEN(A403)+1,LEN(A403)+1)))</f>
+        <f t="array" aca="1" ref="B412" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A401,";",REPT(" ",LEN(A401)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A401)-LEN(SUBSTITUTE(A401,";",""))+1))*LEN(A401)+1,LEN(A401)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="413">
       <c r="B413">
-        <f t="array" aca="1" ref="B413" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A404,";",REPT(" ",LEN(A404)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A404)-LEN(SUBSTITUTE(A404,";",""))+1))*LEN(A404)+1,LEN(A404)+1)))</f>
+        <f t="array" aca="1" ref="B413" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A402,";",REPT(" ",LEN(A402)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A402)-LEN(SUBSTITUTE(A402,";",""))+1))*LEN(A402)+1,LEN(A402)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="414">
       <c r="B414">
-        <f t="array" aca="1" ref="B414" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A405,";",REPT(" ",LEN(A405)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A405)-LEN(SUBSTITUTE(A405,";",""))+1))*LEN(A405)+1,LEN(A405)+1)))</f>
+        <f t="array" aca="1" ref="B414" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A403,";",REPT(" ",LEN(A403)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A403)-LEN(SUBSTITUTE(A403,";",""))+1))*LEN(A403)+1,LEN(A403)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="415">
       <c r="B415">
-        <f t="array" aca="1" ref="B415" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A406,";",REPT(" ",LEN(A406)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A406)-LEN(SUBSTITUTE(A406,";",""))+1))*LEN(A406)+1,LEN(A406)+1)))</f>
+        <f t="array" aca="1" ref="B415" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A404,";",REPT(" ",LEN(A404)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A404)-LEN(SUBSTITUTE(A404,";",""))+1))*LEN(A404)+1,LEN(A404)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="416">
       <c r="B416">
-        <f t="array" aca="1" ref="B416" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A407,";",REPT(" ",LEN(A407)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A407)-LEN(SUBSTITUTE(A407,";",""))+1))*LEN(A407)+1,LEN(A407)+1)))</f>
+        <f t="array" aca="1" ref="B416" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A405,";",REPT(" ",LEN(A405)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A405)-LEN(SUBSTITUTE(A405,";",""))+1))*LEN(A405)+1,LEN(A405)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="417">
       <c r="B417">
-        <f t="array" aca="1" ref="B417" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A408,";",REPT(" ",LEN(A408)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A408)-LEN(SUBSTITUTE(A408,";",""))+1))*LEN(A408)+1,LEN(A408)+1)))</f>
+        <f t="array" aca="1" ref="B417" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A406,";",REPT(" ",LEN(A406)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A406)-LEN(SUBSTITUTE(A406,";",""))+1))*LEN(A406)+1,LEN(A406)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="418">
       <c r="B418">
-        <f t="array" aca="1" ref="B418" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A409,";",REPT(" ",LEN(A409)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A409)-LEN(SUBSTITUTE(A409,";",""))+1))*LEN(A409)+1,LEN(A409)+1)))</f>
+        <f t="array" aca="1" ref="B418" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A407,";",REPT(" ",LEN(A407)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A407)-LEN(SUBSTITUTE(A407,";",""))+1))*LEN(A407)+1,LEN(A407)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="419">
       <c r="B419">
-        <f t="array" aca="1" ref="B419" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A410,";",REPT(" ",LEN(A410)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A410)-LEN(SUBSTITUTE(A410,";",""))+1))*LEN(A410)+1,LEN(A410)+1)))</f>
+        <f t="array" aca="1" ref="B419" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A408,";",REPT(" ",LEN(A408)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A408)-LEN(SUBSTITUTE(A408,";",""))+1))*LEN(A408)+1,LEN(A408)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="420">
       <c r="B420">
-        <f t="array" aca="1" ref="B420" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A411,";",REPT(" ",LEN(A411)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A411)-LEN(SUBSTITUTE(A411,";",""))+1))*LEN(A411)+1,LEN(A411)+1)))</f>
+        <f t="array" aca="1" ref="B420" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A409,";",REPT(" ",LEN(A409)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A409)-LEN(SUBSTITUTE(A409,";",""))+1))*LEN(A409)+1,LEN(A409)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="421">
       <c r="B421">
-        <f t="array" aca="1" ref="B421" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A412,";",REPT(" ",LEN(A412)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A412)-LEN(SUBSTITUTE(A412,";",""))+1))*LEN(A412)+1,LEN(A412)+1)))</f>
+        <f t="array" aca="1" ref="B421" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A410,";",REPT(" ",LEN(A410)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A410)-LEN(SUBSTITUTE(A410,";",""))+1))*LEN(A410)+1,LEN(A410)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="422">
       <c r="B422">
-        <f t="array" aca="1" ref="B422" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A413,";",REPT(" ",LEN(A413)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A413)-LEN(SUBSTITUTE(A413,";",""))+1))*LEN(A413)+1,LEN(A413)+1)))</f>
+        <f t="array" aca="1" ref="B422" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A411,";",REPT(" ",LEN(A411)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A411)-LEN(SUBSTITUTE(A411,";",""))+1))*LEN(A411)+1,LEN(A411)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="423">
       <c r="B423">
-        <f t="array" aca="1" ref="B423" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A414,";",REPT(" ",LEN(A414)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A414)-LEN(SUBSTITUTE(A414,";",""))+1))*LEN(A414)+1,LEN(A414)+1)))</f>
+        <f t="array" aca="1" ref="B423" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A412,";",REPT(" ",LEN(A412)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A412)-LEN(SUBSTITUTE(A412,";",""))+1))*LEN(A412)+1,LEN(A412)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="424">
       <c r="B424">
-        <f t="array" aca="1" ref="B424" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A415,";",REPT(" ",LEN(A415)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A415)-LEN(SUBSTITUTE(A415,";",""))+1))*LEN(A415)+1,LEN(A415)+1)))</f>
+        <f t="array" aca="1" ref="B424" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A413,";",REPT(" ",LEN(A413)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A413)-LEN(SUBSTITUTE(A413,";",""))+1))*LEN(A413)+1,LEN(A413)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="425">
       <c r="B425">
-        <f t="array" aca="1" ref="B425" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A416,";",REPT(" ",LEN(A416)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A416)-LEN(SUBSTITUTE(A416,";",""))+1))*LEN(A416)+1,LEN(A416)+1)))</f>
+        <f t="array" aca="1" ref="B425" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A414,";",REPT(" ",LEN(A414)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A414)-LEN(SUBSTITUTE(A414,";",""))+1))*LEN(A414)+1,LEN(A414)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="426">
       <c r="B426">
-        <f t="array" aca="1" ref="B426" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A417,";",REPT(" ",LEN(A417)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A417)-LEN(SUBSTITUTE(A417,";",""))+1))*LEN(A417)+1,LEN(A417)+1)))</f>
+        <f t="array" aca="1" ref="B426" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A415,";",REPT(" ",LEN(A415)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A415)-LEN(SUBSTITUTE(A415,";",""))+1))*LEN(A415)+1,LEN(A415)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="427">
       <c r="B427">
-        <f t="array" aca="1" ref="B427" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A418,";",REPT(" ",LEN(A418)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A418)-LEN(SUBSTITUTE(A418,";",""))+1))*LEN(A418)+1,LEN(A418)+1)))</f>
+        <f t="array" aca="1" ref="B427" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A416,";",REPT(" ",LEN(A416)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A416)-LEN(SUBSTITUTE(A416,";",""))+1))*LEN(A416)+1,LEN(A416)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="428">
       <c r="B428">
-        <f t="array" aca="1" ref="B428" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A419,";",REPT(" ",LEN(A419)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A419)-LEN(SUBSTITUTE(A419,";",""))+1))*LEN(A419)+1,LEN(A419)+1)))</f>
+        <f t="array" aca="1" ref="B428" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A417,";",REPT(" ",LEN(A417)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A417)-LEN(SUBSTITUTE(A417,";",""))+1))*LEN(A417)+1,LEN(A417)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="429">
       <c r="B429">
-        <f t="array" aca="1" ref="B429" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A420,";",REPT(" ",LEN(A420)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A420)-LEN(SUBSTITUTE(A420,";",""))+1))*LEN(A420)+1,LEN(A420)+1)))</f>
+        <f t="array" aca="1" ref="B429" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A418,";",REPT(" ",LEN(A418)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A418)-LEN(SUBSTITUTE(A418,";",""))+1))*LEN(A418)+1,LEN(A418)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="430">
       <c r="B430">
-        <f t="array" aca="1" ref="B430" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A421,";",REPT(" ",LEN(A421)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A421)-LEN(SUBSTITUTE(A421,";",""))+1))*LEN(A421)+1,LEN(A421)+1)))</f>
+        <f t="array" aca="1" ref="B430" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A419,";",REPT(" ",LEN(A419)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A419)-LEN(SUBSTITUTE(A419,";",""))+1))*LEN(A419)+1,LEN(A419)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="431">
       <c r="B431">
-        <f t="array" aca="1" ref="B431" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A422,";",REPT(" ",LEN(A422)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A422)-LEN(SUBSTITUTE(A422,";",""))+1))*LEN(A422)+1,LEN(A422)+1)))</f>
+        <f t="array" aca="1" ref="B431" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A420,";",REPT(" ",LEN(A420)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A420)-LEN(SUBSTITUTE(A420,";",""))+1))*LEN(A420)+1,LEN(A420)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="432">
       <c r="B432">
-        <f t="array" aca="1" ref="B432" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A423,";",REPT(" ",LEN(A423)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A423)-LEN(SUBSTITUTE(A423,";",""))+1))*LEN(A423)+1,LEN(A423)+1)))</f>
+        <f t="array" aca="1" ref="B432" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A421,";",REPT(" ",LEN(A421)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A421)-LEN(SUBSTITUTE(A421,";",""))+1))*LEN(A421)+1,LEN(A421)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="433">
       <c r="B433">
-        <f t="array" aca="1" ref="B433" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A424,";",REPT(" ",LEN(A424)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A424)-LEN(SUBSTITUTE(A424,";",""))+1))*LEN(A424)+1,LEN(A424)+1)))</f>
+        <f t="array" aca="1" ref="B433" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A422,";",REPT(" ",LEN(A422)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A422)-LEN(SUBSTITUTE(A422,";",""))+1))*LEN(A422)+1,LEN(A422)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="434">
       <c r="B434">
-        <f t="array" aca="1" ref="B434" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A425,";",REPT(" ",LEN(A425)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A425)-LEN(SUBSTITUTE(A425,";",""))+1))*LEN(A425)+1,LEN(A425)+1)))</f>
+        <f t="array" aca="1" ref="B434" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A423,";",REPT(" ",LEN(A423)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A423)-LEN(SUBSTITUTE(A423,";",""))+1))*LEN(A423)+1,LEN(A423)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="435">
       <c r="B435">
-        <f t="array" aca="1" ref="B435" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A426,";",REPT(" ",LEN(A426)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A426)-LEN(SUBSTITUTE(A426,";",""))+1))*LEN(A426)+1,LEN(A426)+1)))</f>
+        <f t="array" aca="1" ref="B435" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A424,";",REPT(" ",LEN(A424)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A424)-LEN(SUBSTITUTE(A424,";",""))+1))*LEN(A424)+1,LEN(A424)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="436">
       <c r="B436">
-        <f t="array" aca="1" ref="B436" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A427,";",REPT(" ",LEN(A427)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A427)-LEN(SUBSTITUTE(A427,";",""))+1))*LEN(A427)+1,LEN(A427)+1)))</f>
+        <f t="array" aca="1" ref="B436" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A425,";",REPT(" ",LEN(A425)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A425)-LEN(SUBSTITUTE(A425,";",""))+1))*LEN(A425)+1,LEN(A425)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="437">
       <c r="B437">
-        <f t="array" aca="1" ref="B437" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A428,";",REPT(" ",LEN(A428)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A428)-LEN(SUBSTITUTE(A428,";",""))+1))*LEN(A428)+1,LEN(A428)+1)))</f>
+        <f t="array" aca="1" ref="B437" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A426,";",REPT(" ",LEN(A426)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A426)-LEN(SUBSTITUTE(A426,";",""))+1))*LEN(A426)+1,LEN(A426)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="438">
       <c r="B438">
-        <f t="array" aca="1" ref="B438" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A429,";",REPT(" ",LEN(A429)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A429)-LEN(SUBSTITUTE(A429,";",""))+1))*LEN(A429)+1,LEN(A429)+1)))</f>
+        <f t="array" aca="1" ref="B438" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A427,";",REPT(" ",LEN(A427)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A427)-LEN(SUBSTITUTE(A427,";",""))+1))*LEN(A427)+1,LEN(A427)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="439">
       <c r="B439">
-        <f t="array" aca="1" ref="B439" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A430,";",REPT(" ",LEN(A430)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A430)-LEN(SUBSTITUTE(A430,";",""))+1))*LEN(A430)+1,LEN(A430)+1)))</f>
+        <f t="array" aca="1" ref="B439" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A428,";",REPT(" ",LEN(A428)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A428)-LEN(SUBSTITUTE(A428,";",""))+1))*LEN(A428)+1,LEN(A428)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="440">
       <c r="B440">
-        <f t="array" aca="1" ref="B440" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A431,";",REPT(" ",LEN(A431)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A431)-LEN(SUBSTITUTE(A431,";",""))+1))*LEN(A431)+1,LEN(A431)+1)))</f>
+        <f t="array" aca="1" ref="B440" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A429,";",REPT(" ",LEN(A429)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A429)-LEN(SUBSTITUTE(A429,";",""))+1))*LEN(A429)+1,LEN(A429)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="441">
       <c r="B441">
-        <f t="array" aca="1" ref="B441" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A432,";",REPT(" ",LEN(A432)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A432)-LEN(SUBSTITUTE(A432,";",""))+1))*LEN(A432)+1,LEN(A432)+1)))</f>
+        <f t="array" aca="1" ref="B441" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A430,";",REPT(" ",LEN(A430)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A430)-LEN(SUBSTITUTE(A430,";",""))+1))*LEN(A430)+1,LEN(A430)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="442">
       <c r="B442">
-        <f t="array" aca="1" ref="B442" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A433,";",REPT(" ",LEN(A433)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A433)-LEN(SUBSTITUTE(A433,";",""))+1))*LEN(A433)+1,LEN(A433)+1)))</f>
+        <f t="array" aca="1" ref="B442" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A431,";",REPT(" ",LEN(A431)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A431)-LEN(SUBSTITUTE(A431,";",""))+1))*LEN(A431)+1,LEN(A431)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="443">
       <c r="B443">
-        <f t="array" aca="1" ref="B443" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A434,";",REPT(" ",LEN(A434)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A434)-LEN(SUBSTITUTE(A434,";",""))+1))*LEN(A434)+1,LEN(A434)+1)))</f>
+        <f t="array" aca="1" ref="B443" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A432,";",REPT(" ",LEN(A432)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A432)-LEN(SUBSTITUTE(A432,";",""))+1))*LEN(A432)+1,LEN(A432)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="444">
       <c r="B444">
-        <f t="array" aca="1" ref="B444" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A435,";",REPT(" ",LEN(A435)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A435)-LEN(SUBSTITUTE(A435,";",""))+1))*LEN(A435)+1,LEN(A435)+1)))</f>
+        <f t="array" aca="1" ref="B444" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A433,";",REPT(" ",LEN(A433)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A433)-LEN(SUBSTITUTE(A433,";",""))+1))*LEN(A433)+1,LEN(A433)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="445">
       <c r="B445">
-        <f t="array" aca="1" ref="B445" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A436,";",REPT(" ",LEN(A436)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A436)-LEN(SUBSTITUTE(A436,";",""))+1))*LEN(A436)+1,LEN(A436)+1)))</f>
+        <f t="array" aca="1" ref="B445" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A434,";",REPT(" ",LEN(A434)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A434)-LEN(SUBSTITUTE(A434,";",""))+1))*LEN(A434)+1,LEN(A434)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="446">
       <c r="B446">
-        <f t="array" aca="1" ref="B446" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A437,";",REPT(" ",LEN(A437)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A437)-LEN(SUBSTITUTE(A437,";",""))+1))*LEN(A437)+1,LEN(A437)+1)))</f>
+        <f t="array" aca="1" ref="B446" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A435,";",REPT(" ",LEN(A435)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A435)-LEN(SUBSTITUTE(A435,";",""))+1))*LEN(A435)+1,LEN(A435)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="447">
       <c r="B447">
-        <f t="array" aca="1" ref="B447" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A438,";",REPT(" ",LEN(A438)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A438)-LEN(SUBSTITUTE(A438,";",""))+1))*LEN(A438)+1,LEN(A438)+1)))</f>
+        <f t="array" aca="1" ref="B447" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A436,";",REPT(" ",LEN(A436)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A436)-LEN(SUBSTITUTE(A436,";",""))+1))*LEN(A436)+1,LEN(A436)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="448">
       <c r="B448">
-        <f t="array" aca="1" ref="B448" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A439,";",REPT(" ",LEN(A439)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A439)-LEN(SUBSTITUTE(A439,";",""))+1))*LEN(A439)+1,LEN(A439)+1)))</f>
+        <f t="array" aca="1" ref="B448" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A437,";",REPT(" ",LEN(A437)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A437)-LEN(SUBSTITUTE(A437,";",""))+1))*LEN(A437)+1,LEN(A437)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="449">
       <c r="B449">
-        <f t="array" aca="1" ref="B449" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A440,";",REPT(" ",LEN(A440)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A440)-LEN(SUBSTITUTE(A440,";",""))+1))*LEN(A440)+1,LEN(A440)+1)))</f>
+        <f t="array" aca="1" ref="B449" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A438,";",REPT(" ",LEN(A438)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A438)-LEN(SUBSTITUTE(A438,";",""))+1))*LEN(A438)+1,LEN(A438)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="450">
       <c r="B450">
-        <f t="array" aca="1" ref="B450" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A441,";",REPT(" ",LEN(A441)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A441)-LEN(SUBSTITUTE(A441,";",""))+1))*LEN(A441)+1,LEN(A441)+1)))</f>
+        <f t="array" aca="1" ref="B450" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A439,";",REPT(" ",LEN(A439)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A439)-LEN(SUBSTITUTE(A439,";",""))+1))*LEN(A439)+1,LEN(A439)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="451">
       <c r="B451">
-        <f t="array" aca="1" ref="B451" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A442,";",REPT(" ",LEN(A442)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A442)-LEN(SUBSTITUTE(A442,";",""))+1))*LEN(A442)+1,LEN(A442)+1)))</f>
+        <f t="array" aca="1" ref="B451" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A440,";",REPT(" ",LEN(A440)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A440)-LEN(SUBSTITUTE(A440,";",""))+1))*LEN(A440)+1,LEN(A440)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="452">
       <c r="B452">
-        <f t="array" aca="1" ref="B452" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A443,";",REPT(" ",LEN(A443)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A443)-LEN(SUBSTITUTE(A443,";",""))+1))*LEN(A443)+1,LEN(A443)+1)))</f>
+        <f t="array" aca="1" ref="B452" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A441,";",REPT(" ",LEN(A441)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A441)-LEN(SUBSTITUTE(A441,";",""))+1))*LEN(A441)+1,LEN(A441)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="453">
       <c r="B453">
-        <f t="array" aca="1" ref="B453" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A444,";",REPT(" ",LEN(A444)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A444)-LEN(SUBSTITUTE(A444,";",""))+1))*LEN(A444)+1,LEN(A444)+1)))</f>
+        <f t="array" aca="1" ref="B453" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A442,";",REPT(" ",LEN(A442)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A442)-LEN(SUBSTITUTE(A442,";",""))+1))*LEN(A442)+1,LEN(A442)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="454">
       <c r="B454">
-        <f t="array" aca="1" ref="B454" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A445,";",REPT(" ",LEN(A445)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A445)-LEN(SUBSTITUTE(A445,";",""))+1))*LEN(A445)+1,LEN(A445)+1)))</f>
+        <f t="array" aca="1" ref="B454" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A443,";",REPT(" ",LEN(A443)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A443)-LEN(SUBSTITUTE(A443,";",""))+1))*LEN(A443)+1,LEN(A443)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="455">
       <c r="B455">
-        <f t="array" aca="1" ref="B455" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A446,";",REPT(" ",LEN(A446)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A446)-LEN(SUBSTITUTE(A446,";",""))+1))*LEN(A446)+1,LEN(A446)+1)))</f>
+        <f t="array" aca="1" ref="B455" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A444,";",REPT(" ",LEN(A444)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A444)-LEN(SUBSTITUTE(A444,";",""))+1))*LEN(A444)+1,LEN(A444)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="456">
       <c r="B456">
-        <f t="array" aca="1" ref="B456" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A447,";",REPT(" ",LEN(A447)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A447)-LEN(SUBSTITUTE(A447,";",""))+1))*LEN(A447)+1,LEN(A447)+1)))</f>
+        <f t="array" aca="1" ref="B456" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A445,";",REPT(" ",LEN(A445)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A445)-LEN(SUBSTITUTE(A445,";",""))+1))*LEN(A445)+1,LEN(A445)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="457">
       <c r="B457">
-        <f t="array" aca="1" ref="B457" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A448,";",REPT(" ",LEN(A448)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A448)-LEN(SUBSTITUTE(A448,";",""))+1))*LEN(A448)+1,LEN(A448)+1)))</f>
+        <f t="array" aca="1" ref="B457" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A446,";",REPT(" ",LEN(A446)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A446)-LEN(SUBSTITUTE(A446,";",""))+1))*LEN(A446)+1,LEN(A446)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="458">
       <c r="B458">
-        <f t="array" aca="1" ref="B458" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A449,";",REPT(" ",LEN(A449)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A449)-LEN(SUBSTITUTE(A449,";",""))+1))*LEN(A449)+1,LEN(A449)+1)))</f>
+        <f t="array" aca="1" ref="B458" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A447,";",REPT(" ",LEN(A447)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A447)-LEN(SUBSTITUTE(A447,";",""))+1))*LEN(A447)+1,LEN(A447)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="459">
       <c r="B459">
-        <f t="array" aca="1" ref="B459" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A450,";",REPT(" ",LEN(A450)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A450)-LEN(SUBSTITUTE(A450,";",""))+1))*LEN(A450)+1,LEN(A450)+1)))</f>
+        <f t="array" aca="1" ref="B459" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A448,";",REPT(" ",LEN(A448)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A448)-LEN(SUBSTITUTE(A448,";",""))+1))*LEN(A448)+1,LEN(A448)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="460">
       <c r="B460">
-        <f t="array" aca="1" ref="B460" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A451,";",REPT(" ",LEN(A451)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A451)-LEN(SUBSTITUTE(A451,";",""))+1))*LEN(A451)+1,LEN(A451)+1)))</f>
+        <f t="array" aca="1" ref="B460" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A449,";",REPT(" ",LEN(A449)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A449)-LEN(SUBSTITUTE(A449,";",""))+1))*LEN(A449)+1,LEN(A449)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="461">
       <c r="B461">
-        <f t="array" aca="1" ref="B461" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A452,";",REPT(" ",LEN(A452)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A452)-LEN(SUBSTITUTE(A452,";",""))+1))*LEN(A452)+1,LEN(A452)+1)))</f>
+        <f t="array" aca="1" ref="B461" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A450,";",REPT(" ",LEN(A450)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A450)-LEN(SUBSTITUTE(A450,";",""))+1))*LEN(A450)+1,LEN(A450)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="462">
       <c r="B462">
-        <f t="array" aca="1" ref="B462" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A453,";",REPT(" ",LEN(A453)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A453)-LEN(SUBSTITUTE(A453,";",""))+1))*LEN(A453)+1,LEN(A453)+1)))</f>
+        <f t="array" aca="1" ref="B462" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A451,";",REPT(" ",LEN(A451)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A451)-LEN(SUBSTITUTE(A451,";",""))+1))*LEN(A451)+1,LEN(A451)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="463">
       <c r="B463">
-        <f t="array" aca="1" ref="B463" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A454,";",REPT(" ",LEN(A454)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A454)-LEN(SUBSTITUTE(A454,";",""))+1))*LEN(A454)+1,LEN(A454)+1)))</f>
+        <f t="array" aca="1" ref="B463" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A452,";",REPT(" ",LEN(A452)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A452)-LEN(SUBSTITUTE(A452,";",""))+1))*LEN(A452)+1,LEN(A452)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="464">
       <c r="B464">
-        <f t="array" aca="1" ref="B464" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A455,";",REPT(" ",LEN(A455)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A455)-LEN(SUBSTITUTE(A455,";",""))+1))*LEN(A455)+1,LEN(A455)+1)))</f>
+        <f t="array" aca="1" ref="B464" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A453,";",REPT(" ",LEN(A453)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A453)-LEN(SUBSTITUTE(A453,";",""))+1))*LEN(A453)+1,LEN(A453)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="465">
       <c r="B465">
-        <f t="array" aca="1" ref="B465" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A456,";",REPT(" ",LEN(A456)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A456)-LEN(SUBSTITUTE(A456,";",""))+1))*LEN(A456)+1,LEN(A456)+1)))</f>
+        <f t="array" aca="1" ref="B465" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A454,";",REPT(" ",LEN(A454)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A454)-LEN(SUBSTITUTE(A454,";",""))+1))*LEN(A454)+1,LEN(A454)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="466">
       <c r="B466">
-        <f t="array" aca="1" ref="B466" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A457,";",REPT(" ",LEN(A457)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A457)-LEN(SUBSTITUTE(A457,";",""))+1))*LEN(A457)+1,LEN(A457)+1)))</f>
+        <f t="array" aca="1" ref="B466" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A455,";",REPT(" ",LEN(A455)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A455)-LEN(SUBSTITUTE(A455,";",""))+1))*LEN(A455)+1,LEN(A455)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="467">
       <c r="B467">
-        <f t="array" aca="1" ref="B467" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A458,";",REPT(" ",LEN(A458)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A458)-LEN(SUBSTITUTE(A458,";",""))+1))*LEN(A458)+1,LEN(A458)+1)))</f>
+        <f t="array" aca="1" ref="B467" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A456,";",REPT(" ",LEN(A456)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A456)-LEN(SUBSTITUTE(A456,";",""))+1))*LEN(A456)+1,LEN(A456)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="468">
       <c r="B468">
-        <f t="array" aca="1" ref="B468" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A459,";",REPT(" ",LEN(A459)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A459)-LEN(SUBSTITUTE(A459,";",""))+1))*LEN(A459)+1,LEN(A459)+1)))</f>
+        <f t="array" aca="1" ref="B468" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A457,";",REPT(" ",LEN(A457)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A457)-LEN(SUBSTITUTE(A457,";",""))+1))*LEN(A457)+1,LEN(A457)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="469">
       <c r="B469">
-        <f t="array" aca="1" ref="B469" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A460,";",REPT(" ",LEN(A460)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A460)-LEN(SUBSTITUTE(A460,";",""))+1))*LEN(A460)+1,LEN(A460)+1)))</f>
+        <f t="array" aca="1" ref="B469" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A458,";",REPT(" ",LEN(A458)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A458)-LEN(SUBSTITUTE(A458,";",""))+1))*LEN(A458)+1,LEN(A458)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="470">
       <c r="B470">
-        <f t="array" aca="1" ref="B470" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A461,";",REPT(" ",LEN(A461)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A461)-LEN(SUBSTITUTE(A461,";",""))+1))*LEN(A461)+1,LEN(A461)+1)))</f>
+        <f t="array" aca="1" ref="B470" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A459,";",REPT(" ",LEN(A459)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A459)-LEN(SUBSTITUTE(A459,";",""))+1))*LEN(A459)+1,LEN(A459)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="471">
       <c r="B471">
-        <f t="array" aca="1" ref="B471" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A462,";",REPT(" ",LEN(A462)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A462)-LEN(SUBSTITUTE(A462,";",""))+1))*LEN(A462)+1,LEN(A462)+1)))</f>
+        <f t="array" aca="1" ref="B471" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A460,";",REPT(" ",LEN(A460)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A460)-LEN(SUBSTITUTE(A460,";",""))+1))*LEN(A460)+1,LEN(A460)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="472">
       <c r="B472">
-        <f t="array" aca="1" ref="B472" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A463,";",REPT(" ",LEN(A463)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A463)-LEN(SUBSTITUTE(A463,";",""))+1))*LEN(A463)+1,LEN(A463)+1)))</f>
+        <f t="array" aca="1" ref="B472" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A461,";",REPT(" ",LEN(A461)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A461)-LEN(SUBSTITUTE(A461,";",""))+1))*LEN(A461)+1,LEN(A461)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="473">
       <c r="B473">
-        <f t="array" aca="1" ref="B473" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A464,";",REPT(" ",LEN(A464)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A464)-LEN(SUBSTITUTE(A464,";",""))+1))*LEN(A464)+1,LEN(A464)+1)))</f>
+        <f t="array" aca="1" ref="B473" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A462,";",REPT(" ",LEN(A462)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A462)-LEN(SUBSTITUTE(A462,";",""))+1))*LEN(A462)+1,LEN(A462)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="474">
       <c r="B474">
-        <f t="array" aca="1" ref="B474" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A465,";",REPT(" ",LEN(A465)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A465)-LEN(SUBSTITUTE(A465,";",""))+1))*LEN(A465)+1,LEN(A465)+1)))</f>
+        <f t="array" aca="1" ref="B474" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A463,";",REPT(" ",LEN(A463)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A463)-LEN(SUBSTITUTE(A463,";",""))+1))*LEN(A463)+1,LEN(A463)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="475">
       <c r="B475">
-        <f t="array" aca="1" ref="B475" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A466,";",REPT(" ",LEN(A466)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A466)-LEN(SUBSTITUTE(A466,";",""))+1))*LEN(A466)+1,LEN(A466)+1)))</f>
+        <f t="array" aca="1" ref="B475" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A464,";",REPT(" ",LEN(A464)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A464)-LEN(SUBSTITUTE(A464,";",""))+1))*LEN(A464)+1,LEN(A464)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="476">
       <c r="B476">
-        <f t="array" aca="1" ref="B476" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A467,";",REPT(" ",LEN(A467)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A467)-LEN(SUBSTITUTE(A467,";",""))+1))*LEN(A467)+1,LEN(A467)+1)))</f>
+        <f t="array" aca="1" ref="B476" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A465,";",REPT(" ",LEN(A465)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A465)-LEN(SUBSTITUTE(A465,";",""))+1))*LEN(A465)+1,LEN(A465)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="477">
       <c r="B477">
-        <f t="array" aca="1" ref="B477" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A468,";",REPT(" ",LEN(A468)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A468)-LEN(SUBSTITUTE(A468,";",""))+1))*LEN(A468)+1,LEN(A468)+1)))</f>
+        <f t="array" aca="1" ref="B477" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A466,";",REPT(" ",LEN(A466)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A466)-LEN(SUBSTITUTE(A466,";",""))+1))*LEN(A466)+1,LEN(A466)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="478">
       <c r="B478">
-        <f t="array" aca="1" ref="B478" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A469,";",REPT(" ",LEN(A469)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A469)-LEN(SUBSTITUTE(A469,";",""))+1))*LEN(A469)+1,LEN(A469)+1)))</f>
+        <f t="array" aca="1" ref="B478" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A467,";",REPT(" ",LEN(A467)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A467)-LEN(SUBSTITUTE(A467,";",""))+1))*LEN(A467)+1,LEN(A467)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="479">
       <c r="B479">
-        <f t="array" aca="1" ref="B479" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A470,";",REPT(" ",LEN(A470)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A470)-LEN(SUBSTITUTE(A470,";",""))+1))*LEN(A470)+1,LEN(A470)+1)))</f>
+        <f t="array" aca="1" ref="B479" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A468,";",REPT(" ",LEN(A468)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A468)-LEN(SUBSTITUTE(A468,";",""))+1))*LEN(A468)+1,LEN(A468)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="480">
       <c r="B480">
-        <f t="array" aca="1" ref="B480" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A471,";",REPT(" ",LEN(A471)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A471)-LEN(SUBSTITUTE(A471,";",""))+1))*LEN(A471)+1,LEN(A471)+1)))</f>
+        <f t="array" aca="1" ref="B480" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A469,";",REPT(" ",LEN(A469)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A469)-LEN(SUBSTITUTE(A469,";",""))+1))*LEN(A469)+1,LEN(A469)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="481">
       <c r="B481">
-        <f t="array" aca="1" ref="B481" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A472,";",REPT(" ",LEN(A472)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A472)-LEN(SUBSTITUTE(A472,";",""))+1))*LEN(A472)+1,LEN(A472)+1)))</f>
+        <f t="array" aca="1" ref="B481" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A470,";",REPT(" ",LEN(A470)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A470)-LEN(SUBSTITUTE(A470,";",""))+1))*LEN(A470)+1,LEN(A470)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="482">
       <c r="B482">
-        <f t="array" aca="1" ref="B482" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A473,";",REPT(" ",LEN(A473)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A473)-LEN(SUBSTITUTE(A473,";",""))+1))*LEN(A473)+1,LEN(A473)+1)))</f>
+        <f t="array" aca="1" ref="B482" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A471,";",REPT(" ",LEN(A471)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A471)-LEN(SUBSTITUTE(A471,";",""))+1))*LEN(A471)+1,LEN(A471)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="483">
       <c r="B483">
-        <f t="array" aca="1" ref="B483" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A474,";",REPT(" ",LEN(A474)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A474)-LEN(SUBSTITUTE(A474,";",""))+1))*LEN(A474)+1,LEN(A474)+1)))</f>
+        <f t="array" aca="1" ref="B483" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A472,";",REPT(" ",LEN(A472)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A472)-LEN(SUBSTITUTE(A472,";",""))+1))*LEN(A472)+1,LEN(A472)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="484">
       <c r="B484">
-        <f t="array" aca="1" ref="B484" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A475,";",REPT(" ",LEN(A475)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A475)-LEN(SUBSTITUTE(A475,";",""))+1))*LEN(A475)+1,LEN(A475)+1)))</f>
+        <f t="array" aca="1" ref="B484" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A473,";",REPT(" ",LEN(A473)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A473)-LEN(SUBSTITUTE(A473,";",""))+1))*LEN(A473)+1,LEN(A473)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="485">
       <c r="B485">
-        <f t="array" aca="1" ref="B485" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A476,";",REPT(" ",LEN(A476)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A476)-LEN(SUBSTITUTE(A476,";",""))+1))*LEN(A476)+1,LEN(A476)+1)))</f>
+        <f t="array" aca="1" ref="B485" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A474,";",REPT(" ",LEN(A474)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A474)-LEN(SUBSTITUTE(A474,";",""))+1))*LEN(A474)+1,LEN(A474)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="486">
       <c r="B486">
-        <f t="array" aca="1" ref="B486" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A477,";",REPT(" ",LEN(A477)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A477)-LEN(SUBSTITUTE(A477,";",""))+1))*LEN(A477)+1,LEN(A477)+1)))</f>
+        <f t="array" aca="1" ref="B486" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A475,";",REPT(" ",LEN(A475)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A475)-LEN(SUBSTITUTE(A475,";",""))+1))*LEN(A475)+1,LEN(A475)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="487">
       <c r="B487">
-        <f t="array" aca="1" ref="B487" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A478,";",REPT(" ",LEN(A478)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A478)-LEN(SUBSTITUTE(A478,";",""))+1))*LEN(A478)+1,LEN(A478)+1)))</f>
+        <f t="array" aca="1" ref="B487" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A476,";",REPT(" ",LEN(A476)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A476)-LEN(SUBSTITUTE(A476,";",""))+1))*LEN(A476)+1,LEN(A476)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="488">
       <c r="B488">
-        <f t="array" aca="1" ref="B488" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A479,";",REPT(" ",LEN(A479)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A479)-LEN(SUBSTITUTE(A479,";",""))+1))*LEN(A479)+1,LEN(A479)+1)))</f>
+        <f t="array" aca="1" ref="B488" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A477,";",REPT(" ",LEN(A477)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A477)-LEN(SUBSTITUTE(A477,";",""))+1))*LEN(A477)+1,LEN(A477)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="489">
       <c r="B489">
-        <f t="array" aca="1" ref="B489" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A480,";",REPT(" ",LEN(A480)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A480)-LEN(SUBSTITUTE(A480,";",""))+1))*LEN(A480)+1,LEN(A480)+1)))</f>
+        <f t="array" aca="1" ref="B489" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A478,";",REPT(" ",LEN(A478)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A478)-LEN(SUBSTITUTE(A478,";",""))+1))*LEN(A478)+1,LEN(A478)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="490">
       <c r="B490">
-        <f t="array" aca="1" ref="B490" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A481,";",REPT(" ",LEN(A481)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A481)-LEN(SUBSTITUTE(A481,";",""))+1))*LEN(A481)+1,LEN(A481)+1)))</f>
+        <f t="array" aca="1" ref="B490" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A479,";",REPT(" ",LEN(A479)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A479)-LEN(SUBSTITUTE(A479,";",""))+1))*LEN(A479)+1,LEN(A479)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="491">
       <c r="B491">
-        <f t="array" aca="1" ref="B491" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A482,";",REPT(" ",LEN(A482)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A482)-LEN(SUBSTITUTE(A482,";",""))+1))*LEN(A482)+1,LEN(A482)+1)))</f>
+        <f t="array" aca="1" ref="B491" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A480,";",REPT(" ",LEN(A480)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A480)-LEN(SUBSTITUTE(A480,";",""))+1))*LEN(A480)+1,LEN(A480)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="492">
       <c r="B492">
-        <f t="array" aca="1" ref="B492" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A483,";",REPT(" ",LEN(A483)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A483)-LEN(SUBSTITUTE(A483,";",""))+1))*LEN(A483)+1,LEN(A483)+1)))</f>
+        <f t="array" aca="1" ref="B492" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A481,";",REPT(" ",LEN(A481)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A481)-LEN(SUBSTITUTE(A481,";",""))+1))*LEN(A481)+1,LEN(A481)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="493">
       <c r="B493">
-        <f t="array" aca="1" ref="B493" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A484,";",REPT(" ",LEN(A484)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A484)-LEN(SUBSTITUTE(A484,";",""))+1))*LEN(A484)+1,LEN(A484)+1)))</f>
+        <f t="array" aca="1" ref="B493" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A482,";",REPT(" ",LEN(A482)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A482)-LEN(SUBSTITUTE(A482,";",""))+1))*LEN(A482)+1,LEN(A482)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="494">
       <c r="B494">
-        <f t="array" aca="1" ref="B494" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A485,";",REPT(" ",LEN(A485)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A485)-LEN(SUBSTITUTE(A485,";",""))+1))*LEN(A485)+1,LEN(A485)+1)))</f>
+        <f t="array" aca="1" ref="B494" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A483,";",REPT(" ",LEN(A483)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A483)-LEN(SUBSTITUTE(A483,";",""))+1))*LEN(A483)+1,LEN(A483)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="495">
       <c r="B495">
-        <f t="array" aca="1" ref="B495" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A486,";",REPT(" ",LEN(A486)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A486)-LEN(SUBSTITUTE(A486,";",""))+1))*LEN(A486)+1,LEN(A486)+1)))</f>
+        <f t="array" aca="1" ref="B495" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A484,";",REPT(" ",LEN(A484)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A484)-LEN(SUBSTITUTE(A484,";",""))+1))*LEN(A484)+1,LEN(A484)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="496">
       <c r="B496">
-        <f t="array" aca="1" ref="B496" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A487,";",REPT(" ",LEN(A487)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A487)-LEN(SUBSTITUTE(A487,";",""))+1))*LEN(A487)+1,LEN(A487)+1)))</f>
+        <f t="array" aca="1" ref="B496" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A485,";",REPT(" ",LEN(A485)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A485)-LEN(SUBSTITUTE(A485,";",""))+1))*LEN(A485)+1,LEN(A485)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="497">
       <c r="B497">
-        <f t="array" aca="1" ref="B497" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A488,";",REPT(" ",LEN(A488)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A488)-LEN(SUBSTITUTE(A488,";",""))+1))*LEN(A488)+1,LEN(A488)+1)))</f>
+        <f t="array" aca="1" ref="B497" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A486,";",REPT(" ",LEN(A486)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A486)-LEN(SUBSTITUTE(A486,";",""))+1))*LEN(A486)+1,LEN(A486)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="498">
       <c r="B498">
-        <f t="array" aca="1" ref="B498" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A489,";",REPT(" ",LEN(A489)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A489)-LEN(SUBSTITUTE(A489,";",""))+1))*LEN(A489)+1,LEN(A489)+1)))</f>
+        <f t="array" aca="1" ref="B498" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A487,";",REPT(" ",LEN(A487)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A487)-LEN(SUBSTITUTE(A487,";",""))+1))*LEN(A487)+1,LEN(A487)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="499">
       <c r="B499">
-        <f t="array" aca="1" ref="B499" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A490,";",REPT(" ",LEN(A490)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A490)-LEN(SUBSTITUTE(A490,";",""))+1))*LEN(A490)+1,LEN(A490)+1)))</f>
+        <f t="array" aca="1" ref="B499" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A488,";",REPT(" ",LEN(A488)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A488)-LEN(SUBSTITUTE(A488,";",""))+1))*LEN(A488)+1,LEN(A488)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="500">
       <c r="B500">
-        <f t="array" aca="1" ref="B500" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A491,";",REPT(" ",LEN(A491)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A491)-LEN(SUBSTITUTE(A491,";",""))+1))*LEN(A491)+1,LEN(A491)+1)))</f>
+        <f t="array" aca="1" ref="B500" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A489,";",REPT(" ",LEN(A489)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A489)-LEN(SUBSTITUTE(A489,";",""))+1))*LEN(A489)+1,LEN(A489)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="501">
       <c r="B501">
-        <f t="array" aca="1" ref="B501" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A492,";",REPT(" ",LEN(A492)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A492)-LEN(SUBSTITUTE(A492,";",""))+1))*LEN(A492)+1,LEN(A492)+1)))</f>
+        <f t="array" aca="1" ref="B501" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A490,";",REPT(" ",LEN(A490)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A490)-LEN(SUBSTITUTE(A490,";",""))+1))*LEN(A490)+1,LEN(A490)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="502">
       <c r="B502">
-        <f t="array" aca="1" ref="B502" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A493,";",REPT(" ",LEN(A493)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A493)-LEN(SUBSTITUTE(A493,";",""))+1))*LEN(A493)+1,LEN(A493)+1)))</f>
+        <f t="array" aca="1" ref="B502" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A491,";",REPT(" ",LEN(A491)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A491)-LEN(SUBSTITUTE(A491,";",""))+1))*LEN(A491)+1,LEN(A491)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="503">
       <c r="B503">
-        <f t="array" aca="1" ref="B503" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A494,";",REPT(" ",LEN(A494)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A494)-LEN(SUBSTITUTE(A494,";",""))+1))*LEN(A494)+1,LEN(A494)+1)))</f>
+        <f t="array" aca="1" ref="B503" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A492,";",REPT(" ",LEN(A492)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A492)-LEN(SUBSTITUTE(A492,";",""))+1))*LEN(A492)+1,LEN(A492)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="504">
       <c r="B504">
-        <f t="array" aca="1" ref="B504" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A495,";",REPT(" ",LEN(A495)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A495)-LEN(SUBSTITUTE(A495,";",""))+1))*LEN(A495)+1,LEN(A495)+1)))</f>
+        <f t="array" aca="1" ref="B504" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A493,";",REPT(" ",LEN(A493)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A493)-LEN(SUBSTITUTE(A493,";",""))+1))*LEN(A493)+1,LEN(A493)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="505">
       <c r="B505">
-        <f t="array" aca="1" ref="B505" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A496,";",REPT(" ",LEN(A496)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A496)-LEN(SUBSTITUTE(A496,";",""))+1))*LEN(A496)+1,LEN(A496)+1)))</f>
+        <f t="array" aca="1" ref="B505" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A494,";",REPT(" ",LEN(A494)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A494)-LEN(SUBSTITUTE(A494,";",""))+1))*LEN(A494)+1,LEN(A494)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="506">
       <c r="B506">
-        <f t="array" aca="1" ref="B506" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A497,";",REPT(" ",LEN(A497)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A497)-LEN(SUBSTITUTE(A497,";",""))+1))*LEN(A497)+1,LEN(A497)+1)))</f>
+        <f t="array" aca="1" ref="B506" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A495,";",REPT(" ",LEN(A495)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A495)-LEN(SUBSTITUTE(A495,";",""))+1))*LEN(A495)+1,LEN(A495)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="507">
       <c r="B507">
-        <f t="array" aca="1" ref="B507" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A498,";",REPT(" ",LEN(A498)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A498)-LEN(SUBSTITUTE(A498,";",""))+1))*LEN(A498)+1,LEN(A498)+1)))</f>
+        <f t="array" aca="1" ref="B507" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A496,";",REPT(" ",LEN(A496)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A496)-LEN(SUBSTITUTE(A496,";",""))+1))*LEN(A496)+1,LEN(A496)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="508">
       <c r="B508">
-        <f t="array" aca="1" ref="B508" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A499,";",REPT(" ",LEN(A499)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A499)-LEN(SUBSTITUTE(A499,";",""))+1))*LEN(A499)+1,LEN(A499)+1)))</f>
+        <f t="array" aca="1" ref="B508" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A497,";",REPT(" ",LEN(A497)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A497)-LEN(SUBSTITUTE(A497,";",""))+1))*LEN(A497)+1,LEN(A497)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="509">
       <c r="B509">
-        <f t="array" aca="1" ref="B509" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A500,";",REPT(" ",LEN(A500)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A500)-LEN(SUBSTITUTE(A500,";",""))+1))*LEN(A500)+1,LEN(A500)+1)))</f>
+        <f t="array" aca="1" ref="B509" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A498,";",REPT(" ",LEN(A498)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A498)-LEN(SUBSTITUTE(A498,";",""))+1))*LEN(A498)+1,LEN(A498)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="510">
       <c r="B510">
-        <f t="array" aca="1" ref="B510" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A501,";",REPT(" ",LEN(A501)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A501)-LEN(SUBSTITUTE(A501,";",""))+1))*LEN(A501)+1,LEN(A501)+1)))</f>
+        <f t="array" aca="1" ref="B510" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A499,";",REPT(" ",LEN(A499)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A499)-LEN(SUBSTITUTE(A499,";",""))+1))*LEN(A499)+1,LEN(A499)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="511">
       <c r="B511">
-        <f t="array" aca="1" ref="B511" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A502,";",REPT(" ",LEN(A502)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A502)-LEN(SUBSTITUTE(A502,";",""))+1))*LEN(A502)+1,LEN(A502)+1)))</f>
+        <f t="array" aca="1" ref="B511" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A500,";",REPT(" ",LEN(A500)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A500)-LEN(SUBSTITUTE(A500,";",""))+1))*LEN(A500)+1,LEN(A500)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="512">
       <c r="B512">
-        <f t="array" aca="1" ref="B512" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A503,";",REPT(" ",LEN(A503)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A503)-LEN(SUBSTITUTE(A503,";",""))+1))*LEN(A503)+1,LEN(A503)+1)))</f>
+        <f t="array" aca="1" ref="B512" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A501,";",REPT(" ",LEN(A501)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A501)-LEN(SUBSTITUTE(A501,";",""))+1))*LEN(A501)+1,LEN(A501)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="513">
       <c r="B513">
-        <f t="array" aca="1" ref="B513" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A504,";",REPT(" ",LEN(A504)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A504)-LEN(SUBSTITUTE(A504,";",""))+1))*LEN(A504)+1,LEN(A504)+1)))</f>
+        <f t="array" aca="1" ref="B513" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A502,";",REPT(" ",LEN(A502)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A502)-LEN(SUBSTITUTE(A502,";",""))+1))*LEN(A502)+1,LEN(A502)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="514">
       <c r="B514">
-        <f t="array" aca="1" ref="B514" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A505,";",REPT(" ",LEN(A505)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A505)-LEN(SUBSTITUTE(A505,";",""))+1))*LEN(A505)+1,LEN(A505)+1)))</f>
+        <f t="array" aca="1" ref="B514" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A503,";",REPT(" ",LEN(A503)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A503)-LEN(SUBSTITUTE(A503,";",""))+1))*LEN(A503)+1,LEN(A503)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="515">
       <c r="B515">
-        <f t="array" aca="1" ref="B515" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A506,";",REPT(" ",LEN(A506)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A506)-LEN(SUBSTITUTE(A506,";",""))+1))*LEN(A506)+1,LEN(A506)+1)))</f>
+        <f t="array" aca="1" ref="B515" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A504,";",REPT(" ",LEN(A504)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A504)-LEN(SUBSTITUTE(A504,";",""))+1))*LEN(A504)+1,LEN(A504)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="516">
       <c r="B516">
-        <f t="array" aca="1" ref="B516" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A507,";",REPT(" ",LEN(A507)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A507)-LEN(SUBSTITUTE(A507,";",""))+1))*LEN(A507)+1,LEN(A507)+1)))</f>
+        <f t="array" aca="1" ref="B516" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A505,";",REPT(" ",LEN(A505)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A505)-LEN(SUBSTITUTE(A505,";",""))+1))*LEN(A505)+1,LEN(A505)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="517">
       <c r="B517">
-        <f t="array" aca="1" ref="B517" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A508,";",REPT(" ",LEN(A508)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A508)-LEN(SUBSTITUTE(A508,";",""))+1))*LEN(A508)+1,LEN(A508)+1)))</f>
+        <f t="array" aca="1" ref="B517" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A506,";",REPT(" ",LEN(A506)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A506)-LEN(SUBSTITUTE(A506,";",""))+1))*LEN(A506)+1,LEN(A506)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="518">
       <c r="B518">
-        <f t="array" aca="1" ref="B518" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A509,";",REPT(" ",LEN(A509)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A509)-LEN(SUBSTITUTE(A509,";",""))+1))*LEN(A509)+1,LEN(A509)+1)))</f>
+        <f t="array" aca="1" ref="B518" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A507,";",REPT(" ",LEN(A507)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A507)-LEN(SUBSTITUTE(A507,";",""))+1))*LEN(A507)+1,LEN(A507)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="519">
       <c r="B519">
-        <f t="array" aca="1" ref="B519" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A510,";",REPT(" ",LEN(A510)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A510)-LEN(SUBSTITUTE(A510,";",""))+1))*LEN(A510)+1,LEN(A510)+1)))</f>
+        <f t="array" aca="1" ref="B519" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A508,";",REPT(" ",LEN(A508)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A508)-LEN(SUBSTITUTE(A508,";",""))+1))*LEN(A508)+1,LEN(A508)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="520">
       <c r="B520">
-        <f t="array" aca="1" ref="B520" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A511,";",REPT(" ",LEN(A511)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A511)-LEN(SUBSTITUTE(A511,";",""))+1))*LEN(A511)+1,LEN(A511)+1)))</f>
+        <f t="array" aca="1" ref="B520" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A509,";",REPT(" ",LEN(A509)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A509)-LEN(SUBSTITUTE(A509,";",""))+1))*LEN(A509)+1,LEN(A509)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="521">
       <c r="B521">
-        <f t="array" aca="1" ref="B521" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A512,";",REPT(" ",LEN(A512)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A512)-LEN(SUBSTITUTE(A512,";",""))+1))*LEN(A512)+1,LEN(A512)+1)))</f>
+        <f t="array" aca="1" ref="B521" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A510,";",REPT(" ",LEN(A510)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A510)-LEN(SUBSTITUTE(A510,";",""))+1))*LEN(A510)+1,LEN(A510)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="522">
       <c r="B522">
-        <f t="array" aca="1" ref="B522" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A513,";",REPT(" ",LEN(A513)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A513)-LEN(SUBSTITUTE(A513,";",""))+1))*LEN(A513)+1,LEN(A513)+1)))</f>
+        <f t="array" aca="1" ref="B522" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A511,";",REPT(" ",LEN(A511)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A511)-LEN(SUBSTITUTE(A511,";",""))+1))*LEN(A511)+1,LEN(A511)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="523">
       <c r="B523">
-        <f t="array" aca="1" ref="B523" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A514,";",REPT(" ",LEN(A514)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A514)-LEN(SUBSTITUTE(A514,";",""))+1))*LEN(A514)+1,LEN(A514)+1)))</f>
+        <f t="array" aca="1" ref="B523" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A512,";",REPT(" ",LEN(A512)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A512)-LEN(SUBSTITUTE(A512,";",""))+1))*LEN(A512)+1,LEN(A512)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="524">
       <c r="B524">
-        <f t="array" aca="1" ref="B524" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A515,";",REPT(" ",LEN(A515)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A515)-LEN(SUBSTITUTE(A515,";",""))+1))*LEN(A515)+1,LEN(A515)+1)))</f>
+        <f t="array" aca="1" ref="B524" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A513,";",REPT(" ",LEN(A513)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A513)-LEN(SUBSTITUTE(A513,";",""))+1))*LEN(A513)+1,LEN(A513)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="525">
       <c r="B525">
-        <f t="array" aca="1" ref="B525" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A516,";",REPT(" ",LEN(A516)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A516)-LEN(SUBSTITUTE(A516,";",""))+1))*LEN(A516)+1,LEN(A516)+1)))</f>
+        <f t="array" aca="1" ref="B525" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A514,";",REPT(" ",LEN(A514)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A514)-LEN(SUBSTITUTE(A514,";",""))+1))*LEN(A514)+1,LEN(A514)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="526">
       <c r="B526">
-        <f t="array" aca="1" ref="B526" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A517,";",REPT(" ",LEN(A517)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A517)-LEN(SUBSTITUTE(A517,";",""))+1))*LEN(A517)+1,LEN(A517)+1)))</f>
+        <f t="array" aca="1" ref="B526" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A515,";",REPT(" ",LEN(A515)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A515)-LEN(SUBSTITUTE(A515,";",""))+1))*LEN(A515)+1,LEN(A515)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="527">
       <c r="B527">
-        <f t="array" aca="1" ref="B527" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A518,";",REPT(" ",LEN(A518)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A518)-LEN(SUBSTITUTE(A518,";",""))+1))*LEN(A518)+1,LEN(A518)+1)))</f>
+        <f t="array" aca="1" ref="B527" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A516,";",REPT(" ",LEN(A516)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A516)-LEN(SUBSTITUTE(A516,";",""))+1))*LEN(A516)+1,LEN(A516)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="528">
       <c r="B528">
-        <f t="array" aca="1" ref="B528" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A519,";",REPT(" ",LEN(A519)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A519)-LEN(SUBSTITUTE(A519,";",""))+1))*LEN(A519)+1,LEN(A519)+1)))</f>
+        <f t="array" aca="1" ref="B528" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A517,";",REPT(" ",LEN(A517)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A517)-LEN(SUBSTITUTE(A517,";",""))+1))*LEN(A517)+1,LEN(A517)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="529">
       <c r="B529">
-        <f t="array" aca="1" ref="B529" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A520,";",REPT(" ",LEN(A520)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A520)-LEN(SUBSTITUTE(A520,";",""))+1))*LEN(A520)+1,LEN(A520)+1)))</f>
+        <f t="array" aca="1" ref="B529" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A518,";",REPT(" ",LEN(A518)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A518)-LEN(SUBSTITUTE(A518,";",""))+1))*LEN(A518)+1,LEN(A518)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="530">
       <c r="B530">
-        <f t="array" aca="1" ref="B530" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A521,";",REPT(" ",LEN(A521)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A521)-LEN(SUBSTITUTE(A521,";",""))+1))*LEN(A521)+1,LEN(A521)+1)))</f>
+        <f t="array" aca="1" ref="B530" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A519,";",REPT(" ",LEN(A519)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A519)-LEN(SUBSTITUTE(A519,";",""))+1))*LEN(A519)+1,LEN(A519)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="531">
       <c r="B531">
-        <f t="array" aca="1" ref="B531" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A522,";",REPT(" ",LEN(A522)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A522)-LEN(SUBSTITUTE(A522,";",""))+1))*LEN(A522)+1,LEN(A522)+1)))</f>
+        <f t="array" aca="1" ref="B531" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A520,";",REPT(" ",LEN(A520)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A520)-LEN(SUBSTITUTE(A520,";",""))+1))*LEN(A520)+1,LEN(A520)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="532">
       <c r="B532">
-        <f t="array" aca="1" ref="B532" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A523,";",REPT(" ",LEN(A523)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A523)-LEN(SUBSTITUTE(A523,";",""))+1))*LEN(A523)+1,LEN(A523)+1)))</f>
+        <f t="array" aca="1" ref="B532" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A521,";",REPT(" ",LEN(A521)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A521)-LEN(SUBSTITUTE(A521,";",""))+1))*LEN(A521)+1,LEN(A521)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="533">
       <c r="B533">
-        <f t="array" aca="1" ref="B533" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A524,";",REPT(" ",LEN(A524)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A524)-LEN(SUBSTITUTE(A524,";",""))+1))*LEN(A524)+1,LEN(A524)+1)))</f>
+        <f t="array" aca="1" ref="B533" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A522,";",REPT(" ",LEN(A522)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A522)-LEN(SUBSTITUTE(A522,";",""))+1))*LEN(A522)+1,LEN(A522)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="534">
       <c r="B534">
-        <f t="array" aca="1" ref="B534" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A525,";",REPT(" ",LEN(A525)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A525)-LEN(SUBSTITUTE(A525,";",""))+1))*LEN(A525)+1,LEN(A525)+1)))</f>
+        <f t="array" aca="1" ref="B534" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A523,";",REPT(" ",LEN(A523)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A523)-LEN(SUBSTITUTE(A523,";",""))+1))*LEN(A523)+1,LEN(A523)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="535">
       <c r="B535">
-        <f t="array" aca="1" ref="B535" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A526,";",REPT(" ",LEN(A526)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A526)-LEN(SUBSTITUTE(A526,";",""))+1))*LEN(A526)+1,LEN(A526)+1)))</f>
+        <f t="array" aca="1" ref="B535" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A524,";",REPT(" ",LEN(A524)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A524)-LEN(SUBSTITUTE(A524,";",""))+1))*LEN(A524)+1,LEN(A524)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="536">
       <c r="B536">
-        <f t="array" aca="1" ref="B536" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A527,";",REPT(" ",LEN(A527)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A527)-LEN(SUBSTITUTE(A527,";",""))+1))*LEN(A527)+1,LEN(A527)+1)))</f>
+        <f t="array" aca="1" ref="B536" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A525,";",REPT(" ",LEN(A525)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A525)-LEN(SUBSTITUTE(A525,";",""))+1))*LEN(A525)+1,LEN(A525)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="537">
       <c r="B537">
-        <f t="array" aca="1" ref="B537" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A528,";",REPT(" ",LEN(A528)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A528)-LEN(SUBSTITUTE(A528,";",""))+1))*LEN(A528)+1,LEN(A528)+1)))</f>
+        <f t="array" aca="1" ref="B537" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A526,";",REPT(" ",LEN(A526)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A526)-LEN(SUBSTITUTE(A526,";",""))+1))*LEN(A526)+1,LEN(A526)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="538">
       <c r="B538">
-        <f t="array" aca="1" ref="B538" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A529,";",REPT(" ",LEN(A529)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A529)-LEN(SUBSTITUTE(A529,";",""))+1))*LEN(A529)+1,LEN(A529)+1)))</f>
+        <f t="array" aca="1" ref="B538" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A527,";",REPT(" ",LEN(A527)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A527)-LEN(SUBSTITUTE(A527,";",""))+1))*LEN(A527)+1,LEN(A527)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="539">
       <c r="B539">
-        <f t="array" aca="1" ref="B539" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A530,";",REPT(" ",LEN(A530)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A530)-LEN(SUBSTITUTE(A530,";",""))+1))*LEN(A530)+1,LEN(A530)+1)))</f>
+        <f t="array" aca="1" ref="B539" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A528,";",REPT(" ",LEN(A528)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A528)-LEN(SUBSTITUTE(A528,";",""))+1))*LEN(A528)+1,LEN(A528)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="540">
       <c r="B540">
-        <f t="array" aca="1" ref="B540" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A531,";",REPT(" ",LEN(A531)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A531)-LEN(SUBSTITUTE(A531,";",""))+1))*LEN(A531)+1,LEN(A531)+1)))</f>
+        <f t="array" aca="1" ref="B540" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A529,";",REPT(" ",LEN(A529)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A529)-LEN(SUBSTITUTE(A529,";",""))+1))*LEN(A529)+1,LEN(A529)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="541">
       <c r="B541">
-        <f t="array" aca="1" ref="B541" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A532,";",REPT(" ",LEN(A532)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A532)-LEN(SUBSTITUTE(A532,";",""))+1))*LEN(A532)+1,LEN(A532)+1)))</f>
+        <f t="array" aca="1" ref="B541" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A530,";",REPT(" ",LEN(A530)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A530)-LEN(SUBSTITUTE(A530,";",""))+1))*LEN(A530)+1,LEN(A530)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="542">
       <c r="B542">
-        <f t="array" aca="1" ref="B542" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A533,";",REPT(" ",LEN(A533)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A533)-LEN(SUBSTITUTE(A533,";",""))+1))*LEN(A533)+1,LEN(A533)+1)))</f>
+        <f t="array" aca="1" ref="B542" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A531,";",REPT(" ",LEN(A531)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A531)-LEN(SUBSTITUTE(A531,";",""))+1))*LEN(A531)+1,LEN(A531)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="543">
       <c r="B543">
-        <f t="array" aca="1" ref="B543" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A534,";",REPT(" ",LEN(A534)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A534)-LEN(SUBSTITUTE(A534,";",""))+1))*LEN(A534)+1,LEN(A534)+1)))</f>
+        <f t="array" aca="1" ref="B543" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A532,";",REPT(" ",LEN(A532)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A532)-LEN(SUBSTITUTE(A532,";",""))+1))*LEN(A532)+1,LEN(A532)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="544">
       <c r="B544">
-        <f t="array" aca="1" ref="B544" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A535,";",REPT(" ",LEN(A535)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A535)-LEN(SUBSTITUTE(A535,";",""))+1))*LEN(A535)+1,LEN(A535)+1)))</f>
+        <f t="array" aca="1" ref="B544" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A533,";",REPT(" ",LEN(A533)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A533)-LEN(SUBSTITUTE(A533,";",""))+1))*LEN(A533)+1,LEN(A533)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="545">
       <c r="B545">
-        <f t="array" aca="1" ref="B545" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A536,";",REPT(" ",LEN(A536)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A536)-LEN(SUBSTITUTE(A536,";",""))+1))*LEN(A536)+1,LEN(A536)+1)))</f>
+        <f t="array" aca="1" ref="B545" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A534,";",REPT(" ",LEN(A534)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A534)-LEN(SUBSTITUTE(A534,";",""))+1))*LEN(A534)+1,LEN(A534)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="546">
       <c r="B546">
-        <f t="array" aca="1" ref="B546" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A537,";",REPT(" ",LEN(A537)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A537)-LEN(SUBSTITUTE(A537,";",""))+1))*LEN(A537)+1,LEN(A537)+1)))</f>
+        <f t="array" aca="1" ref="B546" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A535,";",REPT(" ",LEN(A535)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A535)-LEN(SUBSTITUTE(A535,";",""))+1))*LEN(A535)+1,LEN(A535)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="547">
       <c r="B547">
-        <f t="array" aca="1" ref="B547" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A538,";",REPT(" ",LEN(A538)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A538)-LEN(SUBSTITUTE(A538,";",""))+1))*LEN(A538)+1,LEN(A538)+1)))</f>
+        <f t="array" aca="1" ref="B547" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A536,";",REPT(" ",LEN(A536)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A536)-LEN(SUBSTITUTE(A536,";",""))+1))*LEN(A536)+1,LEN(A536)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="548">
       <c r="B548">
-        <f t="array" aca="1" ref="B548" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A539,";",REPT(" ",LEN(A539)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A539)-LEN(SUBSTITUTE(A539,";",""))+1))*LEN(A539)+1,LEN(A539)+1)))</f>
+        <f t="array" aca="1" ref="B548" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A537,";",REPT(" ",LEN(A537)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A537)-LEN(SUBSTITUTE(A537,";",""))+1))*LEN(A537)+1,LEN(A537)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="549">
       <c r="B549">
-        <f t="array" aca="1" ref="B549" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A540,";",REPT(" ",LEN(A540)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A540)-LEN(SUBSTITUTE(A540,";",""))+1))*LEN(A540)+1,LEN(A540)+1)))</f>
+        <f t="array" aca="1" ref="B549" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A538,";",REPT(" ",LEN(A538)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A538)-LEN(SUBSTITUTE(A538,";",""))+1))*LEN(A538)+1,LEN(A538)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="550">
       <c r="B550">
-        <f t="array" aca="1" ref="B550" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A541,";",REPT(" ",LEN(A541)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A541)-LEN(SUBSTITUTE(A541,";",""))+1))*LEN(A541)+1,LEN(A541)+1)))</f>
+        <f t="array" aca="1" ref="B550" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A539,";",REPT(" ",LEN(A539)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A539)-LEN(SUBSTITUTE(A539,";",""))+1))*LEN(A539)+1,LEN(A539)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="551">
       <c r="B551">
-        <f t="array" aca="1" ref="B551" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A542,";",REPT(" ",LEN(A542)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A542)-LEN(SUBSTITUTE(A542,";",""))+1))*LEN(A542)+1,LEN(A542)+1)))</f>
+        <f t="array" aca="1" ref="B551" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A540,";",REPT(" ",LEN(A540)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A540)-LEN(SUBSTITUTE(A540,";",""))+1))*LEN(A540)+1,LEN(A540)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="552">
       <c r="B552">
-        <f t="array" aca="1" ref="B552" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A543,";",REPT(" ",LEN(A543)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A543)-LEN(SUBSTITUTE(A543,";",""))+1))*LEN(A543)+1,LEN(A543)+1)))</f>
+        <f t="array" aca="1" ref="B552" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A541,";",REPT(" ",LEN(A541)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A541)-LEN(SUBSTITUTE(A541,";",""))+1))*LEN(A541)+1,LEN(A541)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="553">
       <c r="B553">
-        <f t="array" aca="1" ref="B553" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A544,";",REPT(" ",LEN(A544)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A544)-LEN(SUBSTITUTE(A544,";",""))+1))*LEN(A544)+1,LEN(A544)+1)))</f>
+        <f t="array" aca="1" ref="B553" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A542,";",REPT(" ",LEN(A542)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A542)-LEN(SUBSTITUTE(A542,";",""))+1))*LEN(A542)+1,LEN(A542)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="554">
       <c r="B554">
-        <f t="array" aca="1" ref="B554" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A545,";",REPT(" ",LEN(A545)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A545)-LEN(SUBSTITUTE(A545,";",""))+1))*LEN(A545)+1,LEN(A545)+1)))</f>
+        <f t="array" aca="1" ref="B554" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A543,";",REPT(" ",LEN(A543)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A543)-LEN(SUBSTITUTE(A543,";",""))+1))*LEN(A543)+1,LEN(A543)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="555">
       <c r="B555">
-        <f t="array" aca="1" ref="B555" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A546,";",REPT(" ",LEN(A546)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A546)-LEN(SUBSTITUTE(A546,";",""))+1))*LEN(A546)+1,LEN(A546)+1)))</f>
+        <f t="array" aca="1" ref="B555" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A544,";",REPT(" ",LEN(A544)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A544)-LEN(SUBSTITUTE(A544,";",""))+1))*LEN(A544)+1,LEN(A544)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="556">
       <c r="B556">
-        <f t="array" aca="1" ref="B556" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A547,";",REPT(" ",LEN(A547)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A547)-LEN(SUBSTITUTE(A547,";",""))+1))*LEN(A547)+1,LEN(A547)+1)))</f>
+        <f t="array" aca="1" ref="B556" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A545,";",REPT(" ",LEN(A545)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A545)-LEN(SUBSTITUTE(A545,";",""))+1))*LEN(A545)+1,LEN(A545)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="557">
       <c r="B557">
-        <f t="array" aca="1" ref="B557" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A548,";",REPT(" ",LEN(A548)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A548)-LEN(SUBSTITUTE(A548,";",""))+1))*LEN(A548)+1,LEN(A548)+1)))</f>
+        <f t="array" aca="1" ref="B557" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A546,";",REPT(" ",LEN(A546)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A546)-LEN(SUBSTITUTE(A546,";",""))+1))*LEN(A546)+1,LEN(A546)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="558">
       <c r="B558">
-        <f t="array" aca="1" ref="B558" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A549,";",REPT(" ",LEN(A549)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A549)-LEN(SUBSTITUTE(A549,";",""))+1))*LEN(A549)+1,LEN(A549)+1)))</f>
+        <f t="array" aca="1" ref="B558" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A547,";",REPT(" ",LEN(A547)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A547)-LEN(SUBSTITUTE(A547,";",""))+1))*LEN(A547)+1,LEN(A547)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="559">
       <c r="B559">
-        <f t="array" aca="1" ref="B559" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A550,";",REPT(" ",LEN(A550)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A550)-LEN(SUBSTITUTE(A550,";",""))+1))*LEN(A550)+1,LEN(A550)+1)))</f>
+        <f t="array" aca="1" ref="B559" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A548,";",REPT(" ",LEN(A548)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A548)-LEN(SUBSTITUTE(A548,";",""))+1))*LEN(A548)+1,LEN(A548)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="560">
       <c r="B560">
-        <f t="array" aca="1" ref="B560" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A551,";",REPT(" ",LEN(A551)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A551)-LEN(SUBSTITUTE(A551,";",""))+1))*LEN(A551)+1,LEN(A551)+1)))</f>
+        <f t="array" aca="1" ref="B560" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A549,";",REPT(" ",LEN(A549)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A549)-LEN(SUBSTITUTE(A549,";",""))+1))*LEN(A549)+1,LEN(A549)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="561">
       <c r="B561">
-        <f t="array" aca="1" ref="B561" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A552,";",REPT(" ",LEN(A552)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A552)-LEN(SUBSTITUTE(A552,";",""))+1))*LEN(A552)+1,LEN(A552)+1)))</f>
+        <f t="array" aca="1" ref="B561" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A550,";",REPT(" ",LEN(A550)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A550)-LEN(SUBSTITUTE(A550,";",""))+1))*LEN(A550)+1,LEN(A550)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="562">
       <c r="B562">
-        <f t="array" aca="1" ref="B562" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A553,";",REPT(" ",LEN(A553)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A553)-LEN(SUBSTITUTE(A553,";",""))+1))*LEN(A553)+1,LEN(A553)+1)))</f>
+        <f t="array" aca="1" ref="B562" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A551,";",REPT(" ",LEN(A551)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A551)-LEN(SUBSTITUTE(A551,";",""))+1))*LEN(A551)+1,LEN(A551)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="563">
       <c r="B563">
-        <f t="array" aca="1" ref="B563" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A554,";",REPT(" ",LEN(A554)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A554)-LEN(SUBSTITUTE(A554,";",""))+1))*LEN(A554)+1,LEN(A554)+1)))</f>
+        <f t="array" aca="1" ref="B563" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A552,";",REPT(" ",LEN(A552)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A552)-LEN(SUBSTITUTE(A552,";",""))+1))*LEN(A552)+1,LEN(A552)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="564">
       <c r="B564">
-        <f t="array" aca="1" ref="B564" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A555,";",REPT(" ",LEN(A555)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A555)-LEN(SUBSTITUTE(A555,";",""))+1))*LEN(A555)+1,LEN(A555)+1)))</f>
+        <f t="array" aca="1" ref="B564" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A553,";",REPT(" ",LEN(A553)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A553)-LEN(SUBSTITUTE(A553,";",""))+1))*LEN(A553)+1,LEN(A553)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="565">
       <c r="B565">
-        <f t="array" aca="1" ref="B565" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A556,";",REPT(" ",LEN(A556)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A556)-LEN(SUBSTITUTE(A556,";",""))+1))*LEN(A556)+1,LEN(A556)+1)))</f>
+        <f t="array" aca="1" ref="B565" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A554,";",REPT(" ",LEN(A554)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A554)-LEN(SUBSTITUTE(A554,";",""))+1))*LEN(A554)+1,LEN(A554)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="566">
       <c r="B566">
-        <f t="array" aca="1" ref="B566" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A557,";",REPT(" ",LEN(A557)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A557)-LEN(SUBSTITUTE(A557,";",""))+1))*LEN(A557)+1,LEN(A557)+1)))</f>
+        <f t="array" aca="1" ref="B566" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A555,";",REPT(" ",LEN(A555)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A555)-LEN(SUBSTITUTE(A555,";",""))+1))*LEN(A555)+1,LEN(A555)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="567">
       <c r="B567">
-        <f t="array" aca="1" ref="B567" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A558,";",REPT(" ",LEN(A558)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A558)-LEN(SUBSTITUTE(A558,";",""))+1))*LEN(A558)+1,LEN(A558)+1)))</f>
+        <f t="array" aca="1" ref="B567" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A556,";",REPT(" ",LEN(A556)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A556)-LEN(SUBSTITUTE(A556,";",""))+1))*LEN(A556)+1,LEN(A556)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="568">
       <c r="B568">
-        <f t="array" aca="1" ref="B568" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A559,";",REPT(" ",LEN(A559)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A559)-LEN(SUBSTITUTE(A559,";",""))+1))*LEN(A559)+1,LEN(A559)+1)))</f>
+        <f t="array" aca="1" ref="B568" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A557,";",REPT(" ",LEN(A557)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A557)-LEN(SUBSTITUTE(A557,";",""))+1))*LEN(A557)+1,LEN(A557)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="569">
       <c r="B569">
-        <f t="array" aca="1" ref="B569" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A560,";",REPT(" ",LEN(A560)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A560)-LEN(SUBSTITUTE(A560,";",""))+1))*LEN(A560)+1,LEN(A560)+1)))</f>
+        <f t="array" aca="1" ref="B569" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A558,";",REPT(" ",LEN(A558)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A558)-LEN(SUBSTITUTE(A558,";",""))+1))*LEN(A558)+1,LEN(A558)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="570">
       <c r="B570">
-        <f t="array" aca="1" ref="B570" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A561,";",REPT(" ",LEN(A561)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A561)-LEN(SUBSTITUTE(A561,";",""))+1))*LEN(A561)+1,LEN(A561)+1)))</f>
+        <f t="array" aca="1" ref="B570" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A559,";",REPT(" ",LEN(A559)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A559)-LEN(SUBSTITUTE(A559,";",""))+1))*LEN(A559)+1,LEN(A559)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="571">
       <c r="B571">
-        <f t="array" aca="1" ref="B571" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A562,";",REPT(" ",LEN(A562)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A562)-LEN(SUBSTITUTE(A562,";",""))+1))*LEN(A562)+1,LEN(A562)+1)))</f>
+        <f t="array" aca="1" ref="B571" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A560,";",REPT(" ",LEN(A560)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A560)-LEN(SUBSTITUTE(A560,";",""))+1))*LEN(A560)+1,LEN(A560)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="572">
       <c r="B572">
-        <f t="array" aca="1" ref="B572" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A563,";",REPT(" ",LEN(A563)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A563)-LEN(SUBSTITUTE(A563,";",""))+1))*LEN(A563)+1,LEN(A563)+1)))</f>
+        <f t="array" aca="1" ref="B572" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A561,";",REPT(" ",LEN(A561)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A561)-LEN(SUBSTITUTE(A561,";",""))+1))*LEN(A561)+1,LEN(A561)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="573">
       <c r="B573">
-        <f t="array" aca="1" ref="B573" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A564,";",REPT(" ",LEN(A564)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A564)-LEN(SUBSTITUTE(A564,";",""))+1))*LEN(A564)+1,LEN(A564)+1)))</f>
+        <f t="array" aca="1" ref="B573" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A562,";",REPT(" ",LEN(A562)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A562)-LEN(SUBSTITUTE(A562,";",""))+1))*LEN(A562)+1,LEN(A562)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="574">
       <c r="B574">
-        <f t="array" aca="1" ref="B574" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A565,";",REPT(" ",LEN(A565)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A565)-LEN(SUBSTITUTE(A565,";",""))+1))*LEN(A565)+1,LEN(A565)+1)))</f>
+        <f t="array" aca="1" ref="B574" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A563,";",REPT(" ",LEN(A563)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A563)-LEN(SUBSTITUTE(A563,";",""))+1))*LEN(A563)+1,LEN(A563)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="575">
       <c r="B575">
-        <f t="array" aca="1" ref="B575" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A566,";",REPT(" ",LEN(A566)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A566)-LEN(SUBSTITUTE(A566,";",""))+1))*LEN(A566)+1,LEN(A566)+1)))</f>
+        <f t="array" aca="1" ref="B575" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A564,";",REPT(" ",LEN(A564)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A564)-LEN(SUBSTITUTE(A564,";",""))+1))*LEN(A564)+1,LEN(A564)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="576">
       <c r="B576">
-        <f t="array" aca="1" ref="B576" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A567,";",REPT(" ",LEN(A567)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A567)-LEN(SUBSTITUTE(A567,";",""))+1))*LEN(A567)+1,LEN(A567)+1)))</f>
+        <f t="array" aca="1" ref="B576" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A565,";",REPT(" ",LEN(A565)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A565)-LEN(SUBSTITUTE(A565,";",""))+1))*LEN(A565)+1,LEN(A565)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="577">
       <c r="B577">
-        <f t="array" aca="1" ref="B577" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A568,";",REPT(" ",LEN(A568)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A568)-LEN(SUBSTITUTE(A568,";",""))+1))*LEN(A568)+1,LEN(A568)+1)))</f>
+        <f t="array" aca="1" ref="B577" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A566,";",REPT(" ",LEN(A566)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A566)-LEN(SUBSTITUTE(A566,";",""))+1))*LEN(A566)+1,LEN(A566)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="578">
       <c r="B578">
-        <f t="array" aca="1" ref="B578" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A569,";",REPT(" ",LEN(A569)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A569)-LEN(SUBSTITUTE(A569,";",""))+1))*LEN(A569)+1,LEN(A569)+1)))</f>
+        <f t="array" aca="1" ref="B578" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A567,";",REPT(" ",LEN(A567)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A567)-LEN(SUBSTITUTE(A567,";",""))+1))*LEN(A567)+1,LEN(A567)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="579">
       <c r="B579">
-        <f t="array" aca="1" ref="B579" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A570,";",REPT(" ",LEN(A570)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A570)-LEN(SUBSTITUTE(A570,";",""))+1))*LEN(A570)+1,LEN(A570)+1)))</f>
+        <f t="array" aca="1" ref="B579" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A568,";",REPT(" ",LEN(A568)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A568)-LEN(SUBSTITUTE(A568,";",""))+1))*LEN(A568)+1,LEN(A568)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="580">
       <c r="B580">
-        <f t="array" aca="1" ref="B580" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A571,";",REPT(" ",LEN(A571)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A571)-LEN(SUBSTITUTE(A571,";",""))+1))*LEN(A571)+1,LEN(A571)+1)))</f>
+        <f t="array" aca="1" ref="B580" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A569,";",REPT(" ",LEN(A569)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A569)-LEN(SUBSTITUTE(A569,";",""))+1))*LEN(A569)+1,LEN(A569)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="581">
       <c r="B581">
-        <f t="array" aca="1" ref="B581" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A572,";",REPT(" ",LEN(A572)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A572)-LEN(SUBSTITUTE(A572,";",""))+1))*LEN(A572)+1,LEN(A572)+1)))</f>
+        <f t="array" aca="1" ref="B581" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A570,";",REPT(" ",LEN(A570)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A570)-LEN(SUBSTITUTE(A570,";",""))+1))*LEN(A570)+1,LEN(A570)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="582">
       <c r="B582">
-        <f t="array" aca="1" ref="B582" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A573,";",REPT(" ",LEN(A573)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A573)-LEN(SUBSTITUTE(A573,";",""))+1))*LEN(A573)+1,LEN(A573)+1)))</f>
+        <f t="array" aca="1" ref="B582" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A571,";",REPT(" ",LEN(A571)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A571)-LEN(SUBSTITUTE(A571,";",""))+1))*LEN(A571)+1,LEN(A571)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="583">
       <c r="B583">
-        <f t="array" aca="1" ref="B583" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A574,";",REPT(" ",LEN(A574)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A574)-LEN(SUBSTITUTE(A574,";",""))+1))*LEN(A574)+1,LEN(A574)+1)))</f>
+        <f t="array" aca="1" ref="B583" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A572,";",REPT(" ",LEN(A572)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A572)-LEN(SUBSTITUTE(A572,";",""))+1))*LEN(A572)+1,LEN(A572)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="584">
       <c r="B584">
-        <f t="array" aca="1" ref="B584" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A575,";",REPT(" ",LEN(A575)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A575)-LEN(SUBSTITUTE(A575,";",""))+1))*LEN(A575)+1,LEN(A575)+1)))</f>
+        <f t="array" aca="1" ref="B584" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A573,";",REPT(" ",LEN(A573)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A573)-LEN(SUBSTITUTE(A573,";",""))+1))*LEN(A573)+1,LEN(A573)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="585">
       <c r="B585">
-        <f t="array" aca="1" ref="B585" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A576,";",REPT(" ",LEN(A576)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A576)-LEN(SUBSTITUTE(A576,";",""))+1))*LEN(A576)+1,LEN(A576)+1)))</f>
+        <f t="array" aca="1" ref="B585" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A574,";",REPT(" ",LEN(A574)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A574)-LEN(SUBSTITUTE(A574,";",""))+1))*LEN(A574)+1,LEN(A574)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="586">
       <c r="B586">
-        <f t="array" aca="1" ref="B586" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A577,";",REPT(" ",LEN(A577)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A577)-LEN(SUBSTITUTE(A577,";",""))+1))*LEN(A577)+1,LEN(A577)+1)))</f>
+        <f t="array" aca="1" ref="B586" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A575,";",REPT(" ",LEN(A575)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A575)-LEN(SUBSTITUTE(A575,";",""))+1))*LEN(A575)+1,LEN(A575)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="587">
       <c r="B587">
-        <f t="array" aca="1" ref="B587" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A578,";",REPT(" ",LEN(A578)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A578)-LEN(SUBSTITUTE(A578,";",""))+1))*LEN(A578)+1,LEN(A578)+1)))</f>
+        <f t="array" aca="1" ref="B587" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A576,";",REPT(" ",LEN(A576)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A576)-LEN(SUBSTITUTE(A576,";",""))+1))*LEN(A576)+1,LEN(A576)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="588">
       <c r="B588">
-        <f t="array" aca="1" ref="B588" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A579,";",REPT(" ",LEN(A579)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A579)-LEN(SUBSTITUTE(A579,";",""))+1))*LEN(A579)+1,LEN(A579)+1)))</f>
+        <f t="array" aca="1" ref="B588" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A577,";",REPT(" ",LEN(A577)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A577)-LEN(SUBSTITUTE(A577,";",""))+1))*LEN(A577)+1,LEN(A577)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="589">
       <c r="B589">
-        <f t="array" aca="1" ref="B589" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A580,";",REPT(" ",LEN(A580)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A580)-LEN(SUBSTITUTE(A580,";",""))+1))*LEN(A580)+1,LEN(A580)+1)))</f>
+        <f t="array" aca="1" ref="B589" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A578,";",REPT(" ",LEN(A578)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A578)-LEN(SUBSTITUTE(A578,";",""))+1))*LEN(A578)+1,LEN(A578)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="590">
       <c r="B590">
-        <f t="array" aca="1" ref="B590" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A581,";",REPT(" ",LEN(A581)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A581)-LEN(SUBSTITUTE(A581,";",""))+1))*LEN(A581)+1,LEN(A581)+1)))</f>
+        <f t="array" aca="1" ref="B590" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A579,";",REPT(" ",LEN(A579)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A579)-LEN(SUBSTITUTE(A579,";",""))+1))*LEN(A579)+1,LEN(A579)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="591">
       <c r="B591">
-        <f t="array" aca="1" ref="B591" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A582,";",REPT(" ",LEN(A582)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A582)-LEN(SUBSTITUTE(A582,";",""))+1))*LEN(A582)+1,LEN(A582)+1)))</f>
+        <f t="array" aca="1" ref="B591" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A580,";",REPT(" ",LEN(A580)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A580)-LEN(SUBSTITUTE(A580,";",""))+1))*LEN(A580)+1,LEN(A580)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="592">
       <c r="B592">
-        <f t="array" aca="1" ref="B592" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A583,";",REPT(" ",LEN(A583)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A583)-LEN(SUBSTITUTE(A583,";",""))+1))*LEN(A583)+1,LEN(A583)+1)))</f>
+        <f t="array" aca="1" ref="B592" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A581,";",REPT(" ",LEN(A581)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A581)-LEN(SUBSTITUTE(A581,";",""))+1))*LEN(A581)+1,LEN(A581)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="593">
       <c r="B593">
-        <f t="array" aca="1" ref="B593" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A584,";",REPT(" ",LEN(A584)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A584)-LEN(SUBSTITUTE(A584,";",""))+1))*LEN(A584)+1,LEN(A584)+1)))</f>
+        <f t="array" aca="1" ref="B593" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A582,";",REPT(" ",LEN(A582)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A582)-LEN(SUBSTITUTE(A582,";",""))+1))*LEN(A582)+1,LEN(A582)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="594">
       <c r="B594">
-        <f t="array" aca="1" ref="B594" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A585,";",REPT(" ",LEN(A585)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A585)-LEN(SUBSTITUTE(A585,";",""))+1))*LEN(A585)+1,LEN(A585)+1)))</f>
+        <f t="array" aca="1" ref="B594" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A583,";",REPT(" ",LEN(A583)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A583)-LEN(SUBSTITUTE(A583,";",""))+1))*LEN(A583)+1,LEN(A583)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="595">
       <c r="B595">
-        <f t="array" aca="1" ref="B595" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A586,";",REPT(" ",LEN(A586)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A586)-LEN(SUBSTITUTE(A586,";",""))+1))*LEN(A586)+1,LEN(A586)+1)))</f>
+        <f t="array" aca="1" ref="B595" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A584,";",REPT(" ",LEN(A584)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A584)-LEN(SUBSTITUTE(A584,";",""))+1))*LEN(A584)+1,LEN(A584)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="596">
       <c r="B596">
-        <f t="array" aca="1" ref="B596" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A587,";",REPT(" ",LEN(A587)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A587)-LEN(SUBSTITUTE(A587,";",""))+1))*LEN(A587)+1,LEN(A587)+1)))</f>
+        <f t="array" aca="1" ref="B596" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A585,";",REPT(" ",LEN(A585)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A585)-LEN(SUBSTITUTE(A585,";",""))+1))*LEN(A585)+1,LEN(A585)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="597">
       <c r="B597">
-        <f t="array" aca="1" ref="B597" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A588,";",REPT(" ",LEN(A588)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A588)-LEN(SUBSTITUTE(A588,";",""))+1))*LEN(A588)+1,LEN(A588)+1)))</f>
+        <f t="array" aca="1" ref="B597" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A586,";",REPT(" ",LEN(A586)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A586)-LEN(SUBSTITUTE(A586,";",""))+1))*LEN(A586)+1,LEN(A586)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="598">
       <c r="B598">
-        <f t="array" aca="1" ref="B598" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A589,";",REPT(" ",LEN(A589)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A589)-LEN(SUBSTITUTE(A589,";",""))+1))*LEN(A589)+1,LEN(A589)+1)))</f>
+        <f t="array" aca="1" ref="B598" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A587,";",REPT(" ",LEN(A587)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A587)-LEN(SUBSTITUTE(A587,";",""))+1))*LEN(A587)+1,LEN(A587)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="599">
       <c r="B599">
-        <f t="array" aca="1" ref="B599" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A590,";",REPT(" ",LEN(A590)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A590)-LEN(SUBSTITUTE(A590,";",""))+1))*LEN(A590)+1,LEN(A590)+1)))</f>
+        <f t="array" aca="1" ref="B599" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A588,";",REPT(" ",LEN(A588)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A588)-LEN(SUBSTITUTE(A588,";",""))+1))*LEN(A588)+1,LEN(A588)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="600">
       <c r="B600">
-        <f t="array" aca="1" ref="B600" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A591,";",REPT(" ",LEN(A591)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A591)-LEN(SUBSTITUTE(A591,";",""))+1))*LEN(A591)+1,LEN(A591)+1)))</f>
+        <f t="array" aca="1" ref="B600" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A589,";",REPT(" ",LEN(A589)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A589)-LEN(SUBSTITUTE(A589,";",""))+1))*LEN(A589)+1,LEN(A589)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="601">
       <c r="B601">
-        <f t="array" aca="1" ref="B601" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A592,";",REPT(" ",LEN(A592)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A592)-LEN(SUBSTITUTE(A592,";",""))+1))*LEN(A592)+1,LEN(A592)+1)))</f>
+        <f t="array" aca="1" ref="B601" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A590,";",REPT(" ",LEN(A590)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A590)-LEN(SUBSTITUTE(A590,";",""))+1))*LEN(A590)+1,LEN(A590)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="602">
       <c r="B602">
-        <f t="array" aca="1" ref="B602" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A593,";",REPT(" ",LEN(A593)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A593)-LEN(SUBSTITUTE(A593,";",""))+1))*LEN(A593)+1,LEN(A593)+1)))</f>
+        <f t="array" aca="1" ref="B602" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A591,";",REPT(" ",LEN(A591)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A591)-LEN(SUBSTITUTE(A591,";",""))+1))*LEN(A591)+1,LEN(A591)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="603">
       <c r="B603">
-        <f t="array" aca="1" ref="B603" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A594,";",REPT(" ",LEN(A594)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A594)-LEN(SUBSTITUTE(A594,";",""))+1))*LEN(A594)+1,LEN(A594)+1)))</f>
+        <f t="array" aca="1" ref="B603" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A592,";",REPT(" ",LEN(A592)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A592)-LEN(SUBSTITUTE(A592,";",""))+1))*LEN(A592)+1,LEN(A592)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="604">
       <c r="B604">
-        <f t="array" aca="1" ref="B604" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A595,";",REPT(" ",LEN(A595)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A595)-LEN(SUBSTITUTE(A595,";",""))+1))*LEN(A595)+1,LEN(A595)+1)))</f>
+        <f t="array" aca="1" ref="B604" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A593,";",REPT(" ",LEN(A593)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A593)-LEN(SUBSTITUTE(A593,";",""))+1))*LEN(A593)+1,LEN(A593)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="605">
       <c r="B605">
-        <f t="array" aca="1" ref="B605" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A596,";",REPT(" ",LEN(A596)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A596)-LEN(SUBSTITUTE(A596,";",""))+1))*LEN(A596)+1,LEN(A596)+1)))</f>
+        <f t="array" aca="1" ref="B605" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A594,";",REPT(" ",LEN(A594)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A594)-LEN(SUBSTITUTE(A594,";",""))+1))*LEN(A594)+1,LEN(A594)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="606">
       <c r="B606">
-        <f t="array" aca="1" ref="B606" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A597,";",REPT(" ",LEN(A597)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A597)-LEN(SUBSTITUTE(A597,";",""))+1))*LEN(A597)+1,LEN(A597)+1)))</f>
+        <f t="array" aca="1" ref="B606" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A595,";",REPT(" ",LEN(A595)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A595)-LEN(SUBSTITUTE(A595,";",""))+1))*LEN(A595)+1,LEN(A595)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="607">
       <c r="B607">
-        <f t="array" aca="1" ref="B607" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A598,";",REPT(" ",LEN(A598)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A598)-LEN(SUBSTITUTE(A598,";",""))+1))*LEN(A598)+1,LEN(A598)+1)))</f>
+        <f t="array" aca="1" ref="B607" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A596,";",REPT(" ",LEN(A596)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A596)-LEN(SUBSTITUTE(A596,";",""))+1))*LEN(A596)+1,LEN(A596)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="608">
       <c r="B608">
-        <f t="array" aca="1" ref="B608" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A599,";",REPT(" ",LEN(A599)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A599)-LEN(SUBSTITUTE(A599,";",""))+1))*LEN(A599)+1,LEN(A599)+1)))</f>
+        <f t="array" aca="1" ref="B608" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A597,";",REPT(" ",LEN(A597)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A597)-LEN(SUBSTITUTE(A597,";",""))+1))*LEN(A597)+1,LEN(A597)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="609">
       <c r="B609">
-        <f t="array" aca="1" ref="B609" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A600,";",REPT(" ",LEN(A600)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A600)-LEN(SUBSTITUTE(A600,";",""))+1))*LEN(A600)+1,LEN(A600)+1)))</f>
+        <f t="array" aca="1" ref="B609" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A598,";",REPT(" ",LEN(A598)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A598)-LEN(SUBSTITUTE(A598,";",""))+1))*LEN(A598)+1,LEN(A598)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="610">
       <c r="B610">
-        <f t="array" aca="1" ref="B610" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A601,";",REPT(" ",LEN(A601)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A601)-LEN(SUBSTITUTE(A601,";",""))+1))*LEN(A601)+1,LEN(A601)+1)))</f>
+        <f t="array" aca="1" ref="B610" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A599,";",REPT(" ",LEN(A599)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A599)-LEN(SUBSTITUTE(A599,";",""))+1))*LEN(A599)+1,LEN(A599)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="611">
       <c r="B611">
-        <f t="array" aca="1" ref="B611" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A602,";",REPT(" ",LEN(A602)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A602)-LEN(SUBSTITUTE(A602,";",""))+1))*LEN(A602)+1,LEN(A602)+1)))</f>
+        <f t="array" aca="1" ref="B611" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A600,";",REPT(" ",LEN(A600)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A600)-LEN(SUBSTITUTE(A600,";",""))+1))*LEN(A600)+1,LEN(A600)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="612">
       <c r="B612">
-        <f t="array" aca="1" ref="B612" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A603,";",REPT(" ",LEN(A603)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A603)-LEN(SUBSTITUTE(A603,";",""))+1))*LEN(A603)+1,LEN(A603)+1)))</f>
+        <f t="array" aca="1" ref="B612" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A601,";",REPT(" ",LEN(A601)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A601)-LEN(SUBSTITUTE(A601,";",""))+1))*LEN(A601)+1,LEN(A601)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="613">
       <c r="B613">
-        <f t="array" aca="1" ref="B613" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A604,";",REPT(" ",LEN(A604)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A604)-LEN(SUBSTITUTE(A604,";",""))+1))*LEN(A604)+1,LEN(A604)+1)))</f>
+        <f t="array" aca="1" ref="B613" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A602,";",REPT(" ",LEN(A602)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A602)-LEN(SUBSTITUTE(A602,";",""))+1))*LEN(A602)+1,LEN(A602)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="614">
       <c r="B614">
-        <f t="array" aca="1" ref="B614" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A605,";",REPT(" ",LEN(A605)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A605)-LEN(SUBSTITUTE(A605,";",""))+1))*LEN(A605)+1,LEN(A605)+1)))</f>
+        <f t="array" aca="1" ref="B614" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A603,";",REPT(" ",LEN(A603)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A603)-LEN(SUBSTITUTE(A603,";",""))+1))*LEN(A603)+1,LEN(A603)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="615">
       <c r="B615">
-        <f t="array" aca="1" ref="B615" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A606,";",REPT(" ",LEN(A606)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A606)-LEN(SUBSTITUTE(A606,";",""))+1))*LEN(A606)+1,LEN(A606)+1)))</f>
+        <f t="array" aca="1" ref="B615" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A604,";",REPT(" ",LEN(A604)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A604)-LEN(SUBSTITUTE(A604,";",""))+1))*LEN(A604)+1,LEN(A604)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="616">
       <c r="B616">
-        <f t="array" aca="1" ref="B616" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A607,";",REPT(" ",LEN(A607)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A607)-LEN(SUBSTITUTE(A607,";",""))+1))*LEN(A607)+1,LEN(A607)+1)))</f>
+        <f t="array" aca="1" ref="B616" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A605,";",REPT(" ",LEN(A605)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A605)-LEN(SUBSTITUTE(A605,";",""))+1))*LEN(A605)+1,LEN(A605)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="617">
       <c r="B617">
-        <f t="array" aca="1" ref="B617" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A608,";",REPT(" ",LEN(A608)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A608)-LEN(SUBSTITUTE(A608,";",""))+1))*LEN(A608)+1,LEN(A608)+1)))</f>
+        <f t="array" aca="1" ref="B617" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A606,";",REPT(" ",LEN(A606)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A606)-LEN(SUBSTITUTE(A606,";",""))+1))*LEN(A606)+1,LEN(A606)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="618">
       <c r="B618">
-        <f t="array" aca="1" ref="B618" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A609,";",REPT(" ",LEN(A609)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A609)-LEN(SUBSTITUTE(A609,";",""))+1))*LEN(A609)+1,LEN(A609)+1)))</f>
+        <f t="array" aca="1" ref="B618" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A607,";",REPT(" ",LEN(A607)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A607)-LEN(SUBSTITUTE(A607,";",""))+1))*LEN(A607)+1,LEN(A607)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="619">
       <c r="B619">
-        <f t="array" aca="1" ref="B619" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A610,";",REPT(" ",LEN(A610)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A610)-LEN(SUBSTITUTE(A610,";",""))+1))*LEN(A610)+1,LEN(A610)+1)))</f>
+        <f t="array" aca="1" ref="B619" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A608,";",REPT(" ",LEN(A608)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A608)-LEN(SUBSTITUTE(A608,";",""))+1))*LEN(A608)+1,LEN(A608)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="620">
       <c r="B620">
-        <f t="array" aca="1" ref="B620" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A611,";",REPT(" ",LEN(A611)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A611)-LEN(SUBSTITUTE(A611,";",""))+1))*LEN(A611)+1,LEN(A611)+1)))</f>
+        <f t="array" aca="1" ref="B620" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A609,";",REPT(" ",LEN(A609)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A609)-LEN(SUBSTITUTE(A609,";",""))+1))*LEN(A609)+1,LEN(A609)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="621">
       <c r="B621">
-        <f t="array" aca="1" ref="B621" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A612,";",REPT(" ",LEN(A612)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A612)-LEN(SUBSTITUTE(A612,";",""))+1))*LEN(A612)+1,LEN(A612)+1)))</f>
+        <f t="array" aca="1" ref="B621" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A610,";",REPT(" ",LEN(A610)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A610)-LEN(SUBSTITUTE(A610,";",""))+1))*LEN(A610)+1,LEN(A610)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="622">
       <c r="B622">
-        <f t="array" aca="1" ref="B622" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A613,";",REPT(" ",LEN(A613)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A613)-LEN(SUBSTITUTE(A613,";",""))+1))*LEN(A613)+1,LEN(A613)+1)))</f>
+        <f t="array" aca="1" ref="B622" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A611,";",REPT(" ",LEN(A611)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A611)-LEN(SUBSTITUTE(A611,";",""))+1))*LEN(A611)+1,LEN(A611)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="623">
       <c r="B623">
-        <f t="array" aca="1" ref="B623" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A614,";",REPT(" ",LEN(A614)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A614)-LEN(SUBSTITUTE(A614,";",""))+1))*LEN(A614)+1,LEN(A614)+1)))</f>
+        <f t="array" aca="1" ref="B623" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A612,";",REPT(" ",LEN(A612)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A612)-LEN(SUBSTITUTE(A612,";",""))+1))*LEN(A612)+1,LEN(A612)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="624">
       <c r="B624">
-        <f t="array" aca="1" ref="B624" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A615,";",REPT(" ",LEN(A615)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A615)-LEN(SUBSTITUTE(A615,";",""))+1))*LEN(A615)+1,LEN(A615)+1)))</f>
+        <f t="array" aca="1" ref="B624" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A613,";",REPT(" ",LEN(A613)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A613)-LEN(SUBSTITUTE(A613,";",""))+1))*LEN(A613)+1,LEN(A613)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="625">
       <c r="B625">
-        <f t="array" aca="1" ref="B625" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A616,";",REPT(" ",LEN(A616)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A616)-LEN(SUBSTITUTE(A616,";",""))+1))*LEN(A616)+1,LEN(A616)+1)))</f>
+        <f t="array" aca="1" ref="B625" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A614,";",REPT(" ",LEN(A614)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A614)-LEN(SUBSTITUTE(A614,";",""))+1))*LEN(A614)+1,LEN(A614)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="626">
       <c r="B626">
-        <f t="array" aca="1" ref="B626" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A617,";",REPT(" ",LEN(A617)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A617)-LEN(SUBSTITUTE(A617,";",""))+1))*LEN(A617)+1,LEN(A617)+1)))</f>
+        <f t="array" aca="1" ref="B626" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A615,";",REPT(" ",LEN(A615)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A615)-LEN(SUBSTITUTE(A615,";",""))+1))*LEN(A615)+1,LEN(A615)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="627">
       <c r="B627">
-        <f t="array" aca="1" ref="B627" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A618,";",REPT(" ",LEN(A618)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A618)-LEN(SUBSTITUTE(A618,";",""))+1))*LEN(A618)+1,LEN(A618)+1)))</f>
+        <f t="array" aca="1" ref="B627" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A616,";",REPT(" ",LEN(A616)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A616)-LEN(SUBSTITUTE(A616,";",""))+1))*LEN(A616)+1,LEN(A616)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="628">
       <c r="B628">
-        <f t="array" aca="1" ref="B628" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A619,";",REPT(" ",LEN(A619)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A619)-LEN(SUBSTITUTE(A619,";",""))+1))*LEN(A619)+1,LEN(A619)+1)))</f>
+        <f t="array" aca="1" ref="B628" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A617,";",REPT(" ",LEN(A617)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A617)-LEN(SUBSTITUTE(A617,";",""))+1))*LEN(A617)+1,LEN(A617)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="629">
       <c r="B629">
-        <f t="array" aca="1" ref="B629" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A620,";",REPT(" ",LEN(A620)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A620)-LEN(SUBSTITUTE(A620,";",""))+1))*LEN(A620)+1,LEN(A620)+1)))</f>
+        <f t="array" aca="1" ref="B629" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A618,";",REPT(" ",LEN(A618)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A618)-LEN(SUBSTITUTE(A618,";",""))+1))*LEN(A618)+1,LEN(A618)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="630">
       <c r="B630">
-        <f t="array" aca="1" ref="B630" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A621,";",REPT(" ",LEN(A621)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A621)-LEN(SUBSTITUTE(A621,";",""))+1))*LEN(A621)+1,LEN(A621)+1)))</f>
+        <f t="array" aca="1" ref="B630" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A619,";",REPT(" ",LEN(A619)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A619)-LEN(SUBSTITUTE(A619,";",""))+1))*LEN(A619)+1,LEN(A619)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="631">
       <c r="B631">
-        <f t="array" aca="1" ref="B631" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A622,";",REPT(" ",LEN(A622)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A622)-LEN(SUBSTITUTE(A622,";",""))+1))*LEN(A622)+1,LEN(A622)+1)))</f>
+        <f t="array" aca="1" ref="B631" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A620,";",REPT(" ",LEN(A620)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A620)-LEN(SUBSTITUTE(A620,";",""))+1))*LEN(A620)+1,LEN(A620)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="632">
       <c r="B632">
-        <f t="array" aca="1" ref="B632" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A623,";",REPT(" ",LEN(A623)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A623)-LEN(SUBSTITUTE(A623,";",""))+1))*LEN(A623)+1,LEN(A623)+1)))</f>
+        <f t="array" aca="1" ref="B632" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A621,";",REPT(" ",LEN(A621)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A621)-LEN(SUBSTITUTE(A621,";",""))+1))*LEN(A621)+1,LEN(A621)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="633">
       <c r="B633">
-        <f t="array" aca="1" ref="B633" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A624,";",REPT(" ",LEN(A624)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A624)-LEN(SUBSTITUTE(A624,";",""))+1))*LEN(A624)+1,LEN(A624)+1)))</f>
+        <f t="array" aca="1" ref="B633" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A622,";",REPT(" ",LEN(A622)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A622)-LEN(SUBSTITUTE(A622,";",""))+1))*LEN(A622)+1,LEN(A622)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="634">
       <c r="B634">
-        <f t="array" aca="1" ref="B634" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A625,";",REPT(" ",LEN(A625)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A625)-LEN(SUBSTITUTE(A625,";",""))+1))*LEN(A625)+1,LEN(A625)+1)))</f>
+        <f t="array" aca="1" ref="B634" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A623,";",REPT(" ",LEN(A623)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A623)-LEN(SUBSTITUTE(A623,";",""))+1))*LEN(A623)+1,LEN(A623)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="635">
       <c r="B635">
-        <f t="array" aca="1" ref="B635" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A626,";",REPT(" ",LEN(A626)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A626)-LEN(SUBSTITUTE(A626,";",""))+1))*LEN(A626)+1,LEN(A626)+1)))</f>
+        <f t="array" aca="1" ref="B635" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A624,";",REPT(" ",LEN(A624)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A624)-LEN(SUBSTITUTE(A624,";",""))+1))*LEN(A624)+1,LEN(A624)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="636">
       <c r="B636">
-        <f t="array" aca="1" ref="B636" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A627,";",REPT(" ",LEN(A627)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A627)-LEN(SUBSTITUTE(A627,";",""))+1))*LEN(A627)+1,LEN(A627)+1)))</f>
+        <f t="array" aca="1" ref="B636" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A625,";",REPT(" ",LEN(A625)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A625)-LEN(SUBSTITUTE(A625,";",""))+1))*LEN(A625)+1,LEN(A625)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="637">
       <c r="B637">
-        <f t="array" aca="1" ref="B637" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A628,";",REPT(" ",LEN(A628)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A628)-LEN(SUBSTITUTE(A628,";",""))+1))*LEN(A628)+1,LEN(A628)+1)))</f>
+        <f t="array" aca="1" ref="B637" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A626,";",REPT(" ",LEN(A626)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A626)-LEN(SUBSTITUTE(A626,";",""))+1))*LEN(A626)+1,LEN(A626)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="638">
       <c r="B638">
-        <f t="array" aca="1" ref="B638" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A629,";",REPT(" ",LEN(A629)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A629)-LEN(SUBSTITUTE(A629,";",""))+1))*LEN(A629)+1,LEN(A629)+1)))</f>
+        <f t="array" aca="1" ref="B638" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A627,";",REPT(" ",LEN(A627)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A627)-LEN(SUBSTITUTE(A627,";",""))+1))*LEN(A627)+1,LEN(A627)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="639">
       <c r="B639">
-        <f t="array" aca="1" ref="B639" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A630,";",REPT(" ",LEN(A630)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A630)-LEN(SUBSTITUTE(A630,";",""))+1))*LEN(A630)+1,LEN(A630)+1)))</f>
+        <f t="array" aca="1" ref="B639" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A628,";",REPT(" ",LEN(A628)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A628)-LEN(SUBSTITUTE(A628,";",""))+1))*LEN(A628)+1,LEN(A628)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="640">
       <c r="B640">
-        <f t="array" aca="1" ref="B640" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A631,";",REPT(" ",LEN(A631)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A631)-LEN(SUBSTITUTE(A631,";",""))+1))*LEN(A631)+1,LEN(A631)+1)))</f>
+        <f t="array" aca="1" ref="B640" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A629,";",REPT(" ",LEN(A629)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A629)-LEN(SUBSTITUTE(A629,";",""))+1))*LEN(A629)+1,LEN(A629)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="641">
       <c r="B641">
-        <f t="array" aca="1" ref="B641" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A632,";",REPT(" ",LEN(A632)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A632)-LEN(SUBSTITUTE(A632,";",""))+1))*LEN(A632)+1,LEN(A632)+1)))</f>
+        <f t="array" aca="1" ref="B641" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A630,";",REPT(" ",LEN(A630)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A630)-LEN(SUBSTITUTE(A630,";",""))+1))*LEN(A630)+1,LEN(A630)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="642">
       <c r="B642">
-        <f t="array" aca="1" ref="B642" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A633,";",REPT(" ",LEN(A633)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A633)-LEN(SUBSTITUTE(A633,";",""))+1))*LEN(A633)+1,LEN(A633)+1)))</f>
+        <f t="array" aca="1" ref="B642" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A631,";",REPT(" ",LEN(A631)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A631)-LEN(SUBSTITUTE(A631,";",""))+1))*LEN(A631)+1,LEN(A631)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="643">
       <c r="B643">
-        <f t="array" aca="1" ref="B643" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A634,";",REPT(" ",LEN(A634)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A634)-LEN(SUBSTITUTE(A634,";",""))+1))*LEN(A634)+1,LEN(A634)+1)))</f>
+        <f t="array" aca="1" ref="B643" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A632,";",REPT(" ",LEN(A632)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A632)-LEN(SUBSTITUTE(A632,";",""))+1))*LEN(A632)+1,LEN(A632)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="644">
       <c r="B644">
-        <f t="array" aca="1" ref="B644" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A635,";",REPT(" ",LEN(A635)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A635)-LEN(SUBSTITUTE(A635,";",""))+1))*LEN(A635)+1,LEN(A635)+1)))</f>
+        <f t="array" aca="1" ref="B644" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A633,";",REPT(" ",LEN(A633)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A633)-LEN(SUBSTITUTE(A633,";",""))+1))*LEN(A633)+1,LEN(A633)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="645">
       <c r="B645">
-        <f t="array" aca="1" ref="B645" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A636,";",REPT(" ",LEN(A636)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A636)-LEN(SUBSTITUTE(A636,";",""))+1))*LEN(A636)+1,LEN(A636)+1)))</f>
+        <f t="array" aca="1" ref="B645" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A634,";",REPT(" ",LEN(A634)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A634)-LEN(SUBSTITUTE(A634,";",""))+1))*LEN(A634)+1,LEN(A634)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="646">
       <c r="B646">
-        <f t="array" aca="1" ref="B646" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A637,";",REPT(" ",LEN(A637)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A637)-LEN(SUBSTITUTE(A637,";",""))+1))*LEN(A637)+1,LEN(A637)+1)))</f>
+        <f t="array" aca="1" ref="B646" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A635,";",REPT(" ",LEN(A635)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A635)-LEN(SUBSTITUTE(A635,";",""))+1))*LEN(A635)+1,LEN(A635)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="647">
       <c r="B647">
-        <f t="array" aca="1" ref="B647" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A638,";",REPT(" ",LEN(A638)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A638)-LEN(SUBSTITUTE(A638,";",""))+1))*LEN(A638)+1,LEN(A638)+1)))</f>
+        <f t="array" aca="1" ref="B647" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A636,";",REPT(" ",LEN(A636)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A636)-LEN(SUBSTITUTE(A636,";",""))+1))*LEN(A636)+1,LEN(A636)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="648">
       <c r="B648">
-        <f t="array" aca="1" ref="B648" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A639,";",REPT(" ",LEN(A639)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A639)-LEN(SUBSTITUTE(A639,";",""))+1))*LEN(A639)+1,LEN(A639)+1)))</f>
+        <f t="array" aca="1" ref="B648" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A637,";",REPT(" ",LEN(A637)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A637)-LEN(SUBSTITUTE(A637,";",""))+1))*LEN(A637)+1,LEN(A637)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="649">
       <c r="B649">
-        <f t="array" aca="1" ref="B649" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A640,";",REPT(" ",LEN(A640)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A640)-LEN(SUBSTITUTE(A640,";",""))+1))*LEN(A640)+1,LEN(A640)+1)))</f>
+        <f t="array" aca="1" ref="B649" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A638,";",REPT(" ",LEN(A638)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A638)-LEN(SUBSTITUTE(A638,";",""))+1))*LEN(A638)+1,LEN(A638)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="650">
       <c r="B650">
-        <f t="array" aca="1" ref="B650" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A641,";",REPT(" ",LEN(A641)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A641)-LEN(SUBSTITUTE(A641,";",""))+1))*LEN(A641)+1,LEN(A641)+1)))</f>
+        <f t="array" aca="1" ref="B650" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A639,";",REPT(" ",LEN(A639)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A639)-LEN(SUBSTITUTE(A639,";",""))+1))*LEN(A639)+1,LEN(A639)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="651">
       <c r="B651">
-        <f t="array" aca="1" ref="B651" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A642,";",REPT(" ",LEN(A642)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A642)-LEN(SUBSTITUTE(A642,";",""))+1))*LEN(A642)+1,LEN(A642)+1)))</f>
+        <f t="array" aca="1" ref="B651" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A640,";",REPT(" ",LEN(A640)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A640)-LEN(SUBSTITUTE(A640,";",""))+1))*LEN(A640)+1,LEN(A640)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="652">
       <c r="B652">
-        <f t="array" aca="1" ref="B652" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A643,";",REPT(" ",LEN(A643)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A643)-LEN(SUBSTITUTE(A643,";",""))+1))*LEN(A643)+1,LEN(A643)+1)))</f>
+        <f t="array" aca="1" ref="B652" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A641,";",REPT(" ",LEN(A641)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A641)-LEN(SUBSTITUTE(A641,";",""))+1))*LEN(A641)+1,LEN(A641)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="653">
       <c r="B653">
-        <f t="array" aca="1" ref="B653" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A644,";",REPT(" ",LEN(A644)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A644)-LEN(SUBSTITUTE(A644,";",""))+1))*LEN(A644)+1,LEN(A644)+1)))</f>
+        <f t="array" aca="1" ref="B653" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A642,";",REPT(" ",LEN(A642)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A642)-LEN(SUBSTITUTE(A642,";",""))+1))*LEN(A642)+1,LEN(A642)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="654">
       <c r="B654">
-        <f t="array" aca="1" ref="B654" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A645,";",REPT(" ",LEN(A645)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A645)-LEN(SUBSTITUTE(A645,";",""))+1))*LEN(A645)+1,LEN(A645)+1)))</f>
+        <f t="array" aca="1" ref="B654" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A643,";",REPT(" ",LEN(A643)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A643)-LEN(SUBSTITUTE(A643,";",""))+1))*LEN(A643)+1,LEN(A643)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="655">
       <c r="B655">
-        <f t="array" aca="1" ref="B655" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A646,";",REPT(" ",LEN(A646)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A646)-LEN(SUBSTITUTE(A646,";",""))+1))*LEN(A646)+1,LEN(A646)+1)))</f>
+        <f t="array" aca="1" ref="B655" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A644,";",REPT(" ",LEN(A644)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A644)-LEN(SUBSTITUTE(A644,";",""))+1))*LEN(A644)+1,LEN(A644)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="656">
       <c r="B656">
-        <f t="array" aca="1" ref="B656" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A647,";",REPT(" ",LEN(A647)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A647)-LEN(SUBSTITUTE(A647,";",""))+1))*LEN(A647)+1,LEN(A647)+1)))</f>
+        <f t="array" aca="1" ref="B656" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A645,";",REPT(" ",LEN(A645)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A645)-LEN(SUBSTITUTE(A645,";",""))+1))*LEN(A645)+1,LEN(A645)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="657">
       <c r="B657">
-        <f t="array" aca="1" ref="B657" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A648,";",REPT(" ",LEN(A648)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A648)-LEN(SUBSTITUTE(A648,";",""))+1))*LEN(A648)+1,LEN(A648)+1)))</f>
+        <f t="array" aca="1" ref="B657" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A646,";",REPT(" ",LEN(A646)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A646)-LEN(SUBSTITUTE(A646,";",""))+1))*LEN(A646)+1,LEN(A646)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="658">
       <c r="B658">
-        <f t="array" aca="1" ref="B658" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A649,";",REPT(" ",LEN(A649)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A649)-LEN(SUBSTITUTE(A649,";",""))+1))*LEN(A649)+1,LEN(A649)+1)))</f>
+        <f t="array" aca="1" ref="B658" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A647,";",REPT(" ",LEN(A647)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A647)-LEN(SUBSTITUTE(A647,";",""))+1))*LEN(A647)+1,LEN(A647)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="659">
       <c r="B659">
-        <f t="array" aca="1" ref="B659" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A650,";",REPT(" ",LEN(A650)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A650)-LEN(SUBSTITUTE(A650,";",""))+1))*LEN(A650)+1,LEN(A650)+1)))</f>
+        <f t="array" aca="1" ref="B659" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A648,";",REPT(" ",LEN(A648)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A648)-LEN(SUBSTITUTE(A648,";",""))+1))*LEN(A648)+1,LEN(A648)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="660">
       <c r="B660">
-        <f t="array" aca="1" ref="B660" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A651,";",REPT(" ",LEN(A651)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A651)-LEN(SUBSTITUTE(A651,";",""))+1))*LEN(A651)+1,LEN(A651)+1)))</f>
+        <f t="array" aca="1" ref="B660" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A649,";",REPT(" ",LEN(A649)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A649)-LEN(SUBSTITUTE(A649,";",""))+1))*LEN(A649)+1,LEN(A649)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="661">
       <c r="B661">
-        <f t="array" aca="1" ref="B661" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A652,";",REPT(" ",LEN(A652)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A652)-LEN(SUBSTITUTE(A652,";",""))+1))*LEN(A652)+1,LEN(A652)+1)))</f>
+        <f t="array" aca="1" ref="B661" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A650,";",REPT(" ",LEN(A650)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A650)-LEN(SUBSTITUTE(A650,";",""))+1))*LEN(A650)+1,LEN(A650)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="662">
       <c r="B662">
-        <f t="array" aca="1" ref="B662" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A653,";",REPT(" ",LEN(A653)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A653)-LEN(SUBSTITUTE(A653,";",""))+1))*LEN(A653)+1,LEN(A653)+1)))</f>
+        <f t="array" aca="1" ref="B662" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A651,";",REPT(" ",LEN(A651)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A651)-LEN(SUBSTITUTE(A651,";",""))+1))*LEN(A651)+1,LEN(A651)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="663">
       <c r="B663">
-        <f t="array" aca="1" ref="B663" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A654,";",REPT(" ",LEN(A654)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A654)-LEN(SUBSTITUTE(A654,";",""))+1))*LEN(A654)+1,LEN(A654)+1)))</f>
+        <f t="array" aca="1" ref="B663" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A652,";",REPT(" ",LEN(A652)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A652)-LEN(SUBSTITUTE(A652,";",""))+1))*LEN(A652)+1,LEN(A652)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="664">
       <c r="B664">
-        <f t="array" aca="1" ref="B664" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A655,";",REPT(" ",LEN(A655)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A655)-LEN(SUBSTITUTE(A655,";",""))+1))*LEN(A655)+1,LEN(A655)+1)))</f>
+        <f t="array" aca="1" ref="B664" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A653,";",REPT(" ",LEN(A653)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A653)-LEN(SUBSTITUTE(A653,";",""))+1))*LEN(A653)+1,LEN(A653)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="665">
       <c r="B665">
-        <f t="array" aca="1" ref="B665" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A656,";",REPT(" ",LEN(A656)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A656)-LEN(SUBSTITUTE(A656,";",""))+1))*LEN(A656)+1,LEN(A656)+1)))</f>
+        <f t="array" aca="1" ref="B665" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A654,";",REPT(" ",LEN(A654)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A654)-LEN(SUBSTITUTE(A654,";",""))+1))*LEN(A654)+1,LEN(A654)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="666">
       <c r="B666">
-        <f t="array" aca="1" ref="B666" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A657,";",REPT(" ",LEN(A657)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A657)-LEN(SUBSTITUTE(A657,";",""))+1))*LEN(A657)+1,LEN(A657)+1)))</f>
+        <f t="array" aca="1" ref="B666" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A655,";",REPT(" ",LEN(A655)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A655)-LEN(SUBSTITUTE(A655,";",""))+1))*LEN(A655)+1,LEN(A655)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="667">
       <c r="B667">
-        <f t="array" aca="1" ref="B667" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A658,";",REPT(" ",LEN(A658)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A658)-LEN(SUBSTITUTE(A658,";",""))+1))*LEN(A658)+1,LEN(A658)+1)))</f>
+        <f t="array" aca="1" ref="B667" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A656,";",REPT(" ",LEN(A656)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A656)-LEN(SUBSTITUTE(A656,";",""))+1))*LEN(A656)+1,LEN(A656)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="668">
       <c r="B668">
-        <f t="array" aca="1" ref="B668" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A659,";",REPT(" ",LEN(A659)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A659)-LEN(SUBSTITUTE(A659,";",""))+1))*LEN(A659)+1,LEN(A659)+1)))</f>
+        <f t="array" aca="1" ref="B668" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A657,";",REPT(" ",LEN(A657)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A657)-LEN(SUBSTITUTE(A657,";",""))+1))*LEN(A657)+1,LEN(A657)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="669">
       <c r="B669">
-        <f t="array" aca="1" ref="B669" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A660,";",REPT(" ",LEN(A660)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A660)-LEN(SUBSTITUTE(A660,";",""))+1))*LEN(A660)+1,LEN(A660)+1)))</f>
+        <f t="array" aca="1" ref="B669" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A658,";",REPT(" ",LEN(A658)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A658)-LEN(SUBSTITUTE(A658,";",""))+1))*LEN(A658)+1,LEN(A658)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="670">
       <c r="B670">
-        <f t="array" aca="1" ref="B670" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A661,";",REPT(" ",LEN(A661)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A661)-LEN(SUBSTITUTE(A661,";",""))+1))*LEN(A661)+1,LEN(A661)+1)))</f>
+        <f t="array" aca="1" ref="B670" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A659,";",REPT(" ",LEN(A659)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A659)-LEN(SUBSTITUTE(A659,";",""))+1))*LEN(A659)+1,LEN(A659)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="671">
       <c r="B671">
-        <f t="array" aca="1" ref="B671" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A662,";",REPT(" ",LEN(A662)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A662)-LEN(SUBSTITUTE(A662,";",""))+1))*LEN(A662)+1,LEN(A662)+1)))</f>
+        <f t="array" aca="1" ref="B671" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A660,";",REPT(" ",LEN(A660)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A660)-LEN(SUBSTITUTE(A660,";",""))+1))*LEN(A660)+1,LEN(A660)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="672">
       <c r="B672">
-        <f t="array" aca="1" ref="B672" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A663,";",REPT(" ",LEN(A663)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A663)-LEN(SUBSTITUTE(A663,";",""))+1))*LEN(A663)+1,LEN(A663)+1)))</f>
+        <f t="array" aca="1" ref="B672" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A661,";",REPT(" ",LEN(A661)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A661)-LEN(SUBSTITUTE(A661,";",""))+1))*LEN(A661)+1,LEN(A661)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="673">
       <c r="B673">
-        <f t="array" aca="1" ref="B673" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A664,";",REPT(" ",LEN(A664)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A664)-LEN(SUBSTITUTE(A664,";",""))+1))*LEN(A664)+1,LEN(A664)+1)))</f>
+        <f t="array" aca="1" ref="B673" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A662,";",REPT(" ",LEN(A662)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A662)-LEN(SUBSTITUTE(A662,";",""))+1))*LEN(A662)+1,LEN(A662)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="674">
       <c r="B674">
-        <f t="array" aca="1" ref="B674" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A665,";",REPT(" ",LEN(A665)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A665)-LEN(SUBSTITUTE(A665,";",""))+1))*LEN(A665)+1,LEN(A665)+1)))</f>
+        <f t="array" aca="1" ref="B674" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A663,";",REPT(" ",LEN(A663)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A663)-LEN(SUBSTITUTE(A663,";",""))+1))*LEN(A663)+1,LEN(A663)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="675">
       <c r="B675">
-        <f t="array" aca="1" ref="B675" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A666,";",REPT(" ",LEN(A666)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A666)-LEN(SUBSTITUTE(A666,";",""))+1))*LEN(A666)+1,LEN(A666)+1)))</f>
+        <f t="array" aca="1" ref="B675" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A664,";",REPT(" ",LEN(A664)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A664)-LEN(SUBSTITUTE(A664,";",""))+1))*LEN(A664)+1,LEN(A664)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="676">
       <c r="B676">
-        <f t="array" aca="1" ref="B676" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A667,";",REPT(" ",LEN(A667)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A667)-LEN(SUBSTITUTE(A667,";",""))+1))*LEN(A667)+1,LEN(A667)+1)))</f>
+        <f t="array" aca="1" ref="B676" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A665,";",REPT(" ",LEN(A665)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A665)-LEN(SUBSTITUTE(A665,";",""))+1))*LEN(A665)+1,LEN(A665)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="677">
       <c r="B677">
-        <f t="array" aca="1" ref="B677" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A668,";",REPT(" ",LEN(A668)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A668)-LEN(SUBSTITUTE(A668,";",""))+1))*LEN(A668)+1,LEN(A668)+1)))</f>
+        <f t="array" aca="1" ref="B677" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A666,";",REPT(" ",LEN(A666)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A666)-LEN(SUBSTITUTE(A666,";",""))+1))*LEN(A666)+1,LEN(A666)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="678">
       <c r="B678">
-        <f t="array" aca="1" ref="B678" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A669,";",REPT(" ",LEN(A669)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A669)-LEN(SUBSTITUTE(A669,";",""))+1))*LEN(A669)+1,LEN(A669)+1)))</f>
+        <f t="array" aca="1" ref="B678" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A667,";",REPT(" ",LEN(A667)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A667)-LEN(SUBSTITUTE(A667,";",""))+1))*LEN(A667)+1,LEN(A667)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="679">
       <c r="B679">
-        <f t="array" aca="1" ref="B679" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A670,";",REPT(" ",LEN(A670)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A670)-LEN(SUBSTITUTE(A670,";",""))+1))*LEN(A670)+1,LEN(A670)+1)))</f>
+        <f t="array" aca="1" ref="B679" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A668,";",REPT(" ",LEN(A668)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A668)-LEN(SUBSTITUTE(A668,";",""))+1))*LEN(A668)+1,LEN(A668)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="680">
       <c r="B680">
-        <f t="array" aca="1" ref="B680" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A671,";",REPT(" ",LEN(A671)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A671)-LEN(SUBSTITUTE(A671,";",""))+1))*LEN(A671)+1,LEN(A671)+1)))</f>
+        <f t="array" aca="1" ref="B680" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A669,";",REPT(" ",LEN(A669)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A669)-LEN(SUBSTITUTE(A669,";",""))+1))*LEN(A669)+1,LEN(A669)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="681">
       <c r="B681">
-        <f t="array" aca="1" ref="B681" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A672,";",REPT(" ",LEN(A672)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A672)-LEN(SUBSTITUTE(A672,";",""))+1))*LEN(A672)+1,LEN(A672)+1)))</f>
+        <f t="array" aca="1" ref="B681" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A670,";",REPT(" ",LEN(A670)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A670)-LEN(SUBSTITUTE(A670,";",""))+1))*LEN(A670)+1,LEN(A670)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="682">
       <c r="B682">
-        <f t="array" aca="1" ref="B682" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A673,";",REPT(" ",LEN(A673)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A673)-LEN(SUBSTITUTE(A673,";",""))+1))*LEN(A673)+1,LEN(A673)+1)))</f>
+        <f t="array" aca="1" ref="B682" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A671,";",REPT(" ",LEN(A671)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A671)-LEN(SUBSTITUTE(A671,";",""))+1))*LEN(A671)+1,LEN(A671)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="683">
       <c r="B683">
-        <f t="array" aca="1" ref="B683" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A674,";",REPT(" ",LEN(A674)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A674)-LEN(SUBSTITUTE(A674,";",""))+1))*LEN(A674)+1,LEN(A674)+1)))</f>
+        <f t="array" aca="1" ref="B683" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A672,";",REPT(" ",LEN(A672)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A672)-LEN(SUBSTITUTE(A672,";",""))+1))*LEN(A672)+1,LEN(A672)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="684">
       <c r="B684">
-        <f t="array" aca="1" ref="B684" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A675,";",REPT(" ",LEN(A675)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A675)-LEN(SUBSTITUTE(A675,";",""))+1))*LEN(A675)+1,LEN(A675)+1)))</f>
+        <f t="array" aca="1" ref="B684" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A673,";",REPT(" ",LEN(A673)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A673)-LEN(SUBSTITUTE(A673,";",""))+1))*LEN(A673)+1,LEN(A673)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="685">
       <c r="B685">
-        <f t="array" aca="1" ref="B685" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A676,";",REPT(" ",LEN(A676)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A676)-LEN(SUBSTITUTE(A676,";",""))+1))*LEN(A676)+1,LEN(A676)+1)))</f>
+        <f t="array" aca="1" ref="B685" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A674,";",REPT(" ",LEN(A674)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A674)-LEN(SUBSTITUTE(A674,";",""))+1))*LEN(A674)+1,LEN(A674)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="686">
       <c r="B686">
-        <f t="array" aca="1" ref="B686" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A677,";",REPT(" ",LEN(A677)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A677)-LEN(SUBSTITUTE(A677,";",""))+1))*LEN(A677)+1,LEN(A677)+1)))</f>
+        <f t="array" aca="1" ref="B686" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A675,";",REPT(" ",LEN(A675)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A675)-LEN(SUBSTITUTE(A675,";",""))+1))*LEN(A675)+1,LEN(A675)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="687">
       <c r="B687">
-        <f t="array" aca="1" ref="B687" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A678,";",REPT(" ",LEN(A678)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A678)-LEN(SUBSTITUTE(A678,";",""))+1))*LEN(A678)+1,LEN(A678)+1)))</f>
+        <f t="array" aca="1" ref="B687" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A676,";",REPT(" ",LEN(A676)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A676)-LEN(SUBSTITUTE(A676,";",""))+1))*LEN(A676)+1,LEN(A676)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="688">
       <c r="B688">
-        <f t="array" aca="1" ref="B688" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A679,";",REPT(" ",LEN(A679)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A679)-LEN(SUBSTITUTE(A679,";",""))+1))*LEN(A679)+1,LEN(A679)+1)))</f>
+        <f t="array" aca="1" ref="B688" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A677,";",REPT(" ",LEN(A677)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A677)-LEN(SUBSTITUTE(A677,";",""))+1))*LEN(A677)+1,LEN(A677)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="689">
       <c r="B689">
-        <f t="array" aca="1" ref="B689" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A680,";",REPT(" ",LEN(A680)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A680)-LEN(SUBSTITUTE(A680,";",""))+1))*LEN(A680)+1,LEN(A680)+1)))</f>
+        <f t="array" aca="1" ref="B689" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A678,";",REPT(" ",LEN(A678)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A678)-LEN(SUBSTITUTE(A678,";",""))+1))*LEN(A678)+1,LEN(A678)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="690">
       <c r="B690">
-        <f t="array" aca="1" ref="B690" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A681,";",REPT(" ",LEN(A681)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A681)-LEN(SUBSTITUTE(A681,";",""))+1))*LEN(A681)+1,LEN(A681)+1)))</f>
+        <f t="array" aca="1" ref="B690" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A679,";",REPT(" ",LEN(A679)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A679)-LEN(SUBSTITUTE(A679,";",""))+1))*LEN(A679)+1,LEN(A679)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="691">
       <c r="B691">
-        <f t="array" aca="1" ref="B691" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A682,";",REPT(" ",LEN(A682)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A682)-LEN(SUBSTITUTE(A682,";",""))+1))*LEN(A682)+1,LEN(A682)+1)))</f>
+        <f t="array" aca="1" ref="B691" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A680,";",REPT(" ",LEN(A680)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A680)-LEN(SUBSTITUTE(A680,";",""))+1))*LEN(A680)+1,LEN(A680)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="692">
       <c r="B692">
-        <f t="array" aca="1" ref="B692" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A683,";",REPT(" ",LEN(A683)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A683)-LEN(SUBSTITUTE(A683,";",""))+1))*LEN(A683)+1,LEN(A683)+1)))</f>
+        <f t="array" aca="1" ref="B692" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A681,";",REPT(" ",LEN(A681)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A681)-LEN(SUBSTITUTE(A681,";",""))+1))*LEN(A681)+1,LEN(A681)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="693">
       <c r="B693">
-        <f t="array" aca="1" ref="B693" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A684,";",REPT(" ",LEN(A684)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A684)-LEN(SUBSTITUTE(A684,";",""))+1))*LEN(A684)+1,LEN(A684)+1)))</f>
+        <f t="array" aca="1" ref="B693" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A682,";",REPT(" ",LEN(A682)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A682)-LEN(SUBSTITUTE(A682,";",""))+1))*LEN(A682)+1,LEN(A682)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="694">
       <c r="B694">
-        <f t="array" aca="1" ref="B694" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A685,";",REPT(" ",LEN(A685)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A685)-LEN(SUBSTITUTE(A685,";",""))+1))*LEN(A685)+1,LEN(A685)+1)))</f>
+        <f t="array" aca="1" ref="B694" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A683,";",REPT(" ",LEN(A683)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A683)-LEN(SUBSTITUTE(A683,";",""))+1))*LEN(A683)+1,LEN(A683)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="695">
       <c r="B695">
-        <f t="array" aca="1" ref="B695" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A686,";",REPT(" ",LEN(A686)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A686)-LEN(SUBSTITUTE(A686,";",""))+1))*LEN(A686)+1,LEN(A686)+1)))</f>
+        <f t="array" aca="1" ref="B695" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A684,";",REPT(" ",LEN(A684)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A684)-LEN(SUBSTITUTE(A684,";",""))+1))*LEN(A684)+1,LEN(A684)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="696">
       <c r="B696">
-        <f t="array" aca="1" ref="B696" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A687,";",REPT(" ",LEN(A687)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A687)-LEN(SUBSTITUTE(A687,";",""))+1))*LEN(A687)+1,LEN(A687)+1)))</f>
+        <f t="array" aca="1" ref="B696" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A685,";",REPT(" ",LEN(A685)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A685)-LEN(SUBSTITUTE(A685,";",""))+1))*LEN(A685)+1,LEN(A685)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="697">
       <c r="B697">
-        <f t="array" aca="1" ref="B697" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A688,";",REPT(" ",LEN(A688)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A688)-LEN(SUBSTITUTE(A688,";",""))+1))*LEN(A688)+1,LEN(A688)+1)))</f>
+        <f t="array" aca="1" ref="B697" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A686,";",REPT(" ",LEN(A686)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A686)-LEN(SUBSTITUTE(A686,";",""))+1))*LEN(A686)+1,LEN(A686)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="698">
       <c r="B698">
-        <f t="array" aca="1" ref="B698" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A689,";",REPT(" ",LEN(A689)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A689)-LEN(SUBSTITUTE(A689,";",""))+1))*LEN(A689)+1,LEN(A689)+1)))</f>
+        <f t="array" aca="1" ref="B698" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A687,";",REPT(" ",LEN(A687)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A687)-LEN(SUBSTITUTE(A687,";",""))+1))*LEN(A687)+1,LEN(A687)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="699">
       <c r="B699">
-        <f t="array" aca="1" ref="B699" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A690,";",REPT(" ",LEN(A690)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A690)-LEN(SUBSTITUTE(A690,";",""))+1))*LEN(A690)+1,LEN(A690)+1)))</f>
+        <f t="array" aca="1" ref="B699" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A688,";",REPT(" ",LEN(A688)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A688)-LEN(SUBSTITUTE(A688,";",""))+1))*LEN(A688)+1,LEN(A688)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="700">
       <c r="B700">
-        <f t="array" aca="1" ref="B700" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A691,";",REPT(" ",LEN(A691)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A691)-LEN(SUBSTITUTE(A691,";",""))+1))*LEN(A691)+1,LEN(A691)+1)))</f>
+        <f t="array" aca="1" ref="B700" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A689,";",REPT(" ",LEN(A689)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A689)-LEN(SUBSTITUTE(A689,";",""))+1))*LEN(A689)+1,LEN(A689)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="701">
       <c r="B701">
-        <f t="array" aca="1" ref="B701" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A692,";",REPT(" ",LEN(A692)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A692)-LEN(SUBSTITUTE(A692,";",""))+1))*LEN(A692)+1,LEN(A692)+1)))</f>
+        <f t="array" aca="1" ref="B701" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A690,";",REPT(" ",LEN(A690)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A690)-LEN(SUBSTITUTE(A690,";",""))+1))*LEN(A690)+1,LEN(A690)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="702">
       <c r="B702">
-        <f t="array" aca="1" ref="B702" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A693,";",REPT(" ",LEN(A693)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A693)-LEN(SUBSTITUTE(A693,";",""))+1))*LEN(A693)+1,LEN(A693)+1)))</f>
+        <f t="array" aca="1" ref="B702" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A691,";",REPT(" ",LEN(A691)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A691)-LEN(SUBSTITUTE(A691,";",""))+1))*LEN(A691)+1,LEN(A691)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="703">
       <c r="B703">
-        <f t="array" aca="1" ref="B703" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A694,";",REPT(" ",LEN(A694)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A694)-LEN(SUBSTITUTE(A694,";",""))+1))*LEN(A694)+1,LEN(A694)+1)))</f>
+        <f t="array" aca="1" ref="B703" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A692,";",REPT(" ",LEN(A692)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A692)-LEN(SUBSTITUTE(A692,";",""))+1))*LEN(A692)+1,LEN(A692)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="704">
       <c r="B704">
-        <f t="array" aca="1" ref="B704" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A695,";",REPT(" ",LEN(A695)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A695)-LEN(SUBSTITUTE(A695,";",""))+1))*LEN(A695)+1,LEN(A695)+1)))</f>
+        <f t="array" aca="1" ref="B704" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A693,";",REPT(" ",LEN(A693)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A693)-LEN(SUBSTITUTE(A693,";",""))+1))*LEN(A693)+1,LEN(A693)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="705">
       <c r="B705">
-        <f t="array" aca="1" ref="B705" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A696,";",REPT(" ",LEN(A696)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A696)-LEN(SUBSTITUTE(A696,";",""))+1))*LEN(A696)+1,LEN(A696)+1)))</f>
+        <f t="array" aca="1" ref="B705" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A694,";",REPT(" ",LEN(A694)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A694)-LEN(SUBSTITUTE(A694,";",""))+1))*LEN(A694)+1,LEN(A694)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="706">
       <c r="B706">
-        <f t="array" aca="1" ref="B706" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A697,";",REPT(" ",LEN(A697)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A697)-LEN(SUBSTITUTE(A697,";",""))+1))*LEN(A697)+1,LEN(A697)+1)))</f>
+        <f t="array" aca="1" ref="B706" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A695,";",REPT(" ",LEN(A695)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A695)-LEN(SUBSTITUTE(A695,";",""))+1))*LEN(A695)+1,LEN(A695)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="707">
       <c r="B707">
-        <f t="array" aca="1" ref="B707" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A698,";",REPT(" ",LEN(A698)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A698)-LEN(SUBSTITUTE(A698,";",""))+1))*LEN(A698)+1,LEN(A698)+1)))</f>
+        <f t="array" aca="1" ref="B707" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A696,";",REPT(" ",LEN(A696)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A696)-LEN(SUBSTITUTE(A696,";",""))+1))*LEN(A696)+1,LEN(A696)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="708">
       <c r="B708">
-        <f t="array" aca="1" ref="B708" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A699,";",REPT(" ",LEN(A699)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A699)-LEN(SUBSTITUTE(A699,";",""))+1))*LEN(A699)+1,LEN(A699)+1)))</f>
+        <f t="array" aca="1" ref="B708" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A697,";",REPT(" ",LEN(A697)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A697)-LEN(SUBSTITUTE(A697,";",""))+1))*LEN(A697)+1,LEN(A697)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="709">
       <c r="B709">
-        <f t="array" aca="1" ref="B709" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A700,";",REPT(" ",LEN(A700)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A700)-LEN(SUBSTITUTE(A700,";",""))+1))*LEN(A700)+1,LEN(A700)+1)))</f>
+        <f t="array" aca="1" ref="B709" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A698,";",REPT(" ",LEN(A698)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A698)-LEN(SUBSTITUTE(A698,";",""))+1))*LEN(A698)+1,LEN(A698)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="710">
       <c r="B710">
-        <f t="array" aca="1" ref="B710" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A701,";",REPT(" ",LEN(A701)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A701)-LEN(SUBSTITUTE(A701,";",""))+1))*LEN(A701)+1,LEN(A701)+1)))</f>
+        <f t="array" aca="1" ref="B710" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A699,";",REPT(" ",LEN(A699)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A699)-LEN(SUBSTITUTE(A699,";",""))+1))*LEN(A699)+1,LEN(A699)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="711">
       <c r="B711">
-        <f t="array" aca="1" ref="B711" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A702,";",REPT(" ",LEN(A702)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A702)-LEN(SUBSTITUTE(A702,";",""))+1))*LEN(A702)+1,LEN(A702)+1)))</f>
+        <f t="array" aca="1" ref="B711" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A700,";",REPT(" ",LEN(A700)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A700)-LEN(SUBSTITUTE(A700,";",""))+1))*LEN(A700)+1,LEN(A700)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="712">
       <c r="B712">
-        <f t="array" aca="1" ref="B712" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A703,";",REPT(" ",LEN(A703)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A703)-LEN(SUBSTITUTE(A703,";",""))+1))*LEN(A703)+1,LEN(A703)+1)))</f>
+        <f t="array" aca="1" ref="B712" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A701,";",REPT(" ",LEN(A701)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A701)-LEN(SUBSTITUTE(A701,";",""))+1))*LEN(A701)+1,LEN(A701)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="713">
       <c r="B713">
-        <f t="array" aca="1" ref="B713" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A704,";",REPT(" ",LEN(A704)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A704)-LEN(SUBSTITUTE(A704,";",""))+1))*LEN(A704)+1,LEN(A704)+1)))</f>
+        <f t="array" aca="1" ref="B713" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A702,";",REPT(" ",LEN(A702)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A702)-LEN(SUBSTITUTE(A702,";",""))+1))*LEN(A702)+1,LEN(A702)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="714">
       <c r="B714">
-        <f t="array" aca="1" ref="B714" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A705,";",REPT(" ",LEN(A705)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A705)-LEN(SUBSTITUTE(A705,";",""))+1))*LEN(A705)+1,LEN(A705)+1)))</f>
+        <f t="array" aca="1" ref="B714" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A703,";",REPT(" ",LEN(A703)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A703)-LEN(SUBSTITUTE(A703,";",""))+1))*LEN(A703)+1,LEN(A703)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="715">
       <c r="B715">
-        <f t="array" aca="1" ref="B715" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A706,";",REPT(" ",LEN(A706)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A706)-LEN(SUBSTITUTE(A706,";",""))+1))*LEN(A706)+1,LEN(A706)+1)))</f>
+        <f t="array" aca="1" ref="B715" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A704,";",REPT(" ",LEN(A704)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A704)-LEN(SUBSTITUTE(A704,";",""))+1))*LEN(A704)+1,LEN(A704)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="716">
       <c r="B716">
-        <f t="array" aca="1" ref="B716" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A707,";",REPT(" ",LEN(A707)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A707)-LEN(SUBSTITUTE(A707,";",""))+1))*LEN(A707)+1,LEN(A707)+1)))</f>
+        <f t="array" aca="1" ref="B716" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A705,";",REPT(" ",LEN(A705)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A705)-LEN(SUBSTITUTE(A705,";",""))+1))*LEN(A705)+1,LEN(A705)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="717">
       <c r="B717">
-        <f t="array" aca="1" ref="B717" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A708,";",REPT(" ",LEN(A708)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A708)-LEN(SUBSTITUTE(A708,";",""))+1))*LEN(A708)+1,LEN(A708)+1)))</f>
+        <f t="array" aca="1" ref="B717" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A706,";",REPT(" ",LEN(A706)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A706)-LEN(SUBSTITUTE(A706,";",""))+1))*LEN(A706)+1,LEN(A706)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="718">
       <c r="B718">
-        <f t="array" aca="1" ref="B718" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A709,";",REPT(" ",LEN(A709)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A709)-LEN(SUBSTITUTE(A709,";",""))+1))*LEN(A709)+1,LEN(A709)+1)))</f>
+        <f t="array" aca="1" ref="B718" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A707,";",REPT(" ",LEN(A707)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A707)-LEN(SUBSTITUTE(A707,";",""))+1))*LEN(A707)+1,LEN(A707)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="719">
       <c r="B719">
-        <f t="array" aca="1" ref="B719" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A710,";",REPT(" ",LEN(A710)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A710)-LEN(SUBSTITUTE(A710,";",""))+1))*LEN(A710)+1,LEN(A710)+1)))</f>
+        <f t="array" aca="1" ref="B719" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A708,";",REPT(" ",LEN(A708)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A708)-LEN(SUBSTITUTE(A708,";",""))+1))*LEN(A708)+1,LEN(A708)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="720">
       <c r="B720">
-        <f t="array" aca="1" ref="B720" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A711,";",REPT(" ",LEN(A711)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A711)-LEN(SUBSTITUTE(A711,";",""))+1))*LEN(A711)+1,LEN(A711)+1)))</f>
+        <f t="array" aca="1" ref="B720" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A709,";",REPT(" ",LEN(A709)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A709)-LEN(SUBSTITUTE(A709,";",""))+1))*LEN(A709)+1,LEN(A709)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="721">
       <c r="B721">
-        <f t="array" aca="1" ref="B721" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A712,";",REPT(" ",LEN(A712)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A712)-LEN(SUBSTITUTE(A712,";",""))+1))*LEN(A712)+1,LEN(A712)+1)))</f>
+        <f t="array" aca="1" ref="B721" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A710,";",REPT(" ",LEN(A710)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A710)-LEN(SUBSTITUTE(A710,";",""))+1))*LEN(A710)+1,LEN(A710)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="722">
       <c r="B722">
-        <f t="array" aca="1" ref="B722" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A713,";",REPT(" ",LEN(A713)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A713)-LEN(SUBSTITUTE(A713,";",""))+1))*LEN(A713)+1,LEN(A713)+1)))</f>
+        <f t="array" aca="1" ref="B722" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A711,";",REPT(" ",LEN(A711)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A711)-LEN(SUBSTITUTE(A711,";",""))+1))*LEN(A711)+1,LEN(A711)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="723">
       <c r="B723">
-        <f t="array" aca="1" ref="B723" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A714,";",REPT(" ",LEN(A714)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A714)-LEN(SUBSTITUTE(A714,";",""))+1))*LEN(A714)+1,LEN(A714)+1)))</f>
+        <f t="array" aca="1" ref="B723" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A712,";",REPT(" ",LEN(A712)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A712)-LEN(SUBSTITUTE(A712,";",""))+1))*LEN(A712)+1,LEN(A712)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="724">
       <c r="B724">
-        <f t="array" aca="1" ref="B724" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A715,";",REPT(" ",LEN(A715)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A715)-LEN(SUBSTITUTE(A715,";",""))+1))*LEN(A715)+1,LEN(A715)+1)))</f>
+        <f t="array" aca="1" ref="B724" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A713,";",REPT(" ",LEN(A713)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A713)-LEN(SUBSTITUTE(A713,";",""))+1))*LEN(A713)+1,LEN(A713)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="725">
       <c r="B725">
-        <f t="array" aca="1" ref="B725" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A716,";",REPT(" ",LEN(A716)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A716)-LEN(SUBSTITUTE(A716,";",""))+1))*LEN(A716)+1,LEN(A716)+1)))</f>
+        <f t="array" aca="1" ref="B725" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A714,";",REPT(" ",LEN(A714)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A714)-LEN(SUBSTITUTE(A714,";",""))+1))*LEN(A714)+1,LEN(A714)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="726">
       <c r="B726">
-        <f t="array" aca="1" ref="B726" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A717,";",REPT(" ",LEN(A717)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A717)-LEN(SUBSTITUTE(A717,";",""))+1))*LEN(A717)+1,LEN(A717)+1)))</f>
+        <f t="array" aca="1" ref="B726" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A715,";",REPT(" ",LEN(A715)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A715)-LEN(SUBSTITUTE(A715,";",""))+1))*LEN(A715)+1,LEN(A715)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="727">
       <c r="B727">
-        <f t="array" aca="1" ref="B727" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A718,";",REPT(" ",LEN(A718)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A718)-LEN(SUBSTITUTE(A718,";",""))+1))*LEN(A718)+1,LEN(A718)+1)))</f>
+        <f t="array" aca="1" ref="B727" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A716,";",REPT(" ",LEN(A716)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A716)-LEN(SUBSTITUTE(A716,";",""))+1))*LEN(A716)+1,LEN(A716)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="728">
       <c r="B728">
-        <f t="array" aca="1" ref="B728" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A719,";",REPT(" ",LEN(A719)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A719)-LEN(SUBSTITUTE(A719,";",""))+1))*LEN(A719)+1,LEN(A719)+1)))</f>
+        <f t="array" aca="1" ref="B728" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A717,";",REPT(" ",LEN(A717)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A717)-LEN(SUBSTITUTE(A717,";",""))+1))*LEN(A717)+1,LEN(A717)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="729">
       <c r="B729">
-        <f t="array" aca="1" ref="B729" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A720,";",REPT(" ",LEN(A720)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A720)-LEN(SUBSTITUTE(A720,";",""))+1))*LEN(A720)+1,LEN(A720)+1)))</f>
+        <f t="array" aca="1" ref="B729" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A718,";",REPT(" ",LEN(A718)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A718)-LEN(SUBSTITUTE(A718,";",""))+1))*LEN(A718)+1,LEN(A718)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="730">
       <c r="B730">
-        <f t="array" aca="1" ref="B730" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A721,";",REPT(" ",LEN(A721)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A721)-LEN(SUBSTITUTE(A721,";",""))+1))*LEN(A721)+1,LEN(A721)+1)))</f>
+        <f t="array" aca="1" ref="B730" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A719,";",REPT(" ",LEN(A719)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A719)-LEN(SUBSTITUTE(A719,";",""))+1))*LEN(A719)+1,LEN(A719)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="731">
       <c r="B731">
-        <f t="array" aca="1" ref="B731" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A722,";",REPT(" ",LEN(A722)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A722)-LEN(SUBSTITUTE(A722,";",""))+1))*LEN(A722)+1,LEN(A722)+1)))</f>
+        <f t="array" aca="1" ref="B731" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A720,";",REPT(" ",LEN(A720)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A720)-LEN(SUBSTITUTE(A720,";",""))+1))*LEN(A720)+1,LEN(A720)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="732">
       <c r="B732">
-        <f t="array" aca="1" ref="B732" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A723,";",REPT(" ",LEN(A723)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A723)-LEN(SUBSTITUTE(A723,";",""))+1))*LEN(A723)+1,LEN(A723)+1)))</f>
+        <f t="array" aca="1" ref="B732" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A721,";",REPT(" ",LEN(A721)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A721)-LEN(SUBSTITUTE(A721,";",""))+1))*LEN(A721)+1,LEN(A721)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="733">
       <c r="B733">
-        <f t="array" aca="1" ref="B733" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A724,";",REPT(" ",LEN(A724)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A724)-LEN(SUBSTITUTE(A724,";",""))+1))*LEN(A724)+1,LEN(A724)+1)))</f>
+        <f t="array" aca="1" ref="B733" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A722,";",REPT(" ",LEN(A722)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A722)-LEN(SUBSTITUTE(A722,";",""))+1))*LEN(A722)+1,LEN(A722)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="734">
       <c r="B734">
-        <f t="array" aca="1" ref="B734" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A725,";",REPT(" ",LEN(A725)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A725)-LEN(SUBSTITUTE(A725,";",""))+1))*LEN(A725)+1,LEN(A725)+1)))</f>
+        <f t="array" aca="1" ref="B734" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A723,";",REPT(" ",LEN(A723)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A723)-LEN(SUBSTITUTE(A723,";",""))+1))*LEN(A723)+1,LEN(A723)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="735">
       <c r="B735">
-        <f t="array" aca="1" ref="B735" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A726,";",REPT(" ",LEN(A726)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A726)-LEN(SUBSTITUTE(A726,";",""))+1))*LEN(A726)+1,LEN(A726)+1)))</f>
+        <f t="array" aca="1" ref="B735" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A724,";",REPT(" ",LEN(A724)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A724)-LEN(SUBSTITUTE(A724,";",""))+1))*LEN(A724)+1,LEN(A724)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="736">
       <c r="B736">
-        <f t="array" aca="1" ref="B736" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A727,";",REPT(" ",LEN(A727)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A727)-LEN(SUBSTITUTE(A727,";",""))+1))*LEN(A727)+1,LEN(A727)+1)))</f>
+        <f t="array" aca="1" ref="B736" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A725,";",REPT(" ",LEN(A725)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A725)-LEN(SUBSTITUTE(A725,";",""))+1))*LEN(A725)+1,LEN(A725)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="737">
       <c r="B737">
-        <f t="array" aca="1" ref="B737" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A728,";",REPT(" ",LEN(A728)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A728)-LEN(SUBSTITUTE(A728,";",""))+1))*LEN(A728)+1,LEN(A728)+1)))</f>
+        <f t="array" aca="1" ref="B737" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A726,";",REPT(" ",LEN(A726)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A726)-LEN(SUBSTITUTE(A726,";",""))+1))*LEN(A726)+1,LEN(A726)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="738">
       <c r="B738">
-        <f t="array" aca="1" ref="B738" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A729,";",REPT(" ",LEN(A729)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A729)-LEN(SUBSTITUTE(A729,";",""))+1))*LEN(A729)+1,LEN(A729)+1)))</f>
+        <f t="array" aca="1" ref="B738" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A727,";",REPT(" ",LEN(A727)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A727)-LEN(SUBSTITUTE(A727,";",""))+1))*LEN(A727)+1,LEN(A727)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="739">
       <c r="B739">
-        <f t="array" aca="1" ref="B739" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A730,";",REPT(" ",LEN(A730)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A730)-LEN(SUBSTITUTE(A730,";",""))+1))*LEN(A730)+1,LEN(A730)+1)))</f>
+        <f t="array" aca="1" ref="B739" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A728,";",REPT(" ",LEN(A728)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A728)-LEN(SUBSTITUTE(A728,";",""))+1))*LEN(A728)+1,LEN(A728)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="740">
       <c r="B740">
-        <f t="array" aca="1" ref="B740" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A731,";",REPT(" ",LEN(A731)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A731)-LEN(SUBSTITUTE(A731,";",""))+1))*LEN(A731)+1,LEN(A731)+1)))</f>
+        <f t="array" aca="1" ref="B740" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A729,";",REPT(" ",LEN(A729)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A729)-LEN(SUBSTITUTE(A729,";",""))+1))*LEN(A729)+1,LEN(A729)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="741">
       <c r="B741">
-        <f t="array" aca="1" ref="B741" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A732,";",REPT(" ",LEN(A732)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A732)-LEN(SUBSTITUTE(A732,";",""))+1))*LEN(A732)+1,LEN(A732)+1)))</f>
+        <f t="array" aca="1" ref="B741" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A730,";",REPT(" ",LEN(A730)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A730)-LEN(SUBSTITUTE(A730,";",""))+1))*LEN(A730)+1,LEN(A730)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="742">
       <c r="B742">
-        <f t="array" aca="1" ref="B742" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A733,";",REPT(" ",LEN(A733)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A733)-LEN(SUBSTITUTE(A733,";",""))+1))*LEN(A733)+1,LEN(A733)+1)))</f>
+        <f t="array" aca="1" ref="B742" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A731,";",REPT(" ",LEN(A731)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A731)-LEN(SUBSTITUTE(A731,";",""))+1))*LEN(A731)+1,LEN(A731)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="743">
       <c r="B743">
-        <f t="array" aca="1" ref="B743" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A734,";",REPT(" ",LEN(A734)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A734)-LEN(SUBSTITUTE(A734,";",""))+1))*LEN(A734)+1,LEN(A734)+1)))</f>
+        <f t="array" aca="1" ref="B743" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A732,";",REPT(" ",LEN(A732)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A732)-LEN(SUBSTITUTE(A732,";",""))+1))*LEN(A732)+1,LEN(A732)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="744">
       <c r="B744">
-        <f t="array" aca="1" ref="B744" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A735,";",REPT(" ",LEN(A735)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A735)-LEN(SUBSTITUTE(A735,";",""))+1))*LEN(A735)+1,LEN(A735)+1)))</f>
+        <f t="array" aca="1" ref="B744" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A733,";",REPT(" ",LEN(A733)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A733)-LEN(SUBSTITUTE(A733,";",""))+1))*LEN(A733)+1,LEN(A733)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="745">
       <c r="B745">
-        <f t="array" aca="1" ref="B745" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A736,";",REPT(" ",LEN(A736)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A736)-LEN(SUBSTITUTE(A736,";",""))+1))*LEN(A736)+1,LEN(A736)+1)))</f>
+        <f t="array" aca="1" ref="B745" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A734,";",REPT(" ",LEN(A734)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A734)-LEN(SUBSTITUTE(A734,";",""))+1))*LEN(A734)+1,LEN(A734)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="746">
       <c r="B746">
-        <f t="array" aca="1" ref="B746" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A737,";",REPT(" ",LEN(A737)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A737)-LEN(SUBSTITUTE(A737,";",""))+1))*LEN(A737)+1,LEN(A737)+1)))</f>
+        <f t="array" aca="1" ref="B746" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A735,";",REPT(" ",LEN(A735)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A735)-LEN(SUBSTITUTE(A735,";",""))+1))*LEN(A735)+1,LEN(A735)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="747">
       <c r="B747">
-        <f t="array" aca="1" ref="B747" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A738,";",REPT(" ",LEN(A738)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A738)-LEN(SUBSTITUTE(A738,";",""))+1))*LEN(A738)+1,LEN(A738)+1)))</f>
+        <f t="array" aca="1" ref="B747" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A736,";",REPT(" ",LEN(A736)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A736)-LEN(SUBSTITUTE(A736,";",""))+1))*LEN(A736)+1,LEN(A736)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="748">
       <c r="B748">
-        <f t="array" aca="1" ref="B748" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A739,";",REPT(" ",LEN(A739)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A739)-LEN(SUBSTITUTE(A739,";",""))+1))*LEN(A739)+1,LEN(A739)+1)))</f>
+        <f t="array" aca="1" ref="B748" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A737,";",REPT(" ",LEN(A737)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A737)-LEN(SUBSTITUTE(A737,";",""))+1))*LEN(A737)+1,LEN(A737)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="749">
       <c r="B749">
-        <f t="array" aca="1" ref="B749" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A740,";",REPT(" ",LEN(A740)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A740)-LEN(SUBSTITUTE(A740,";",""))+1))*LEN(A740)+1,LEN(A740)+1)))</f>
+        <f t="array" aca="1" ref="B749" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A738,";",REPT(" ",LEN(A738)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A738)-LEN(SUBSTITUTE(A738,";",""))+1))*LEN(A738)+1,LEN(A738)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="750">
       <c r="B750">
-        <f t="array" aca="1" ref="B750" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A741,";",REPT(" ",LEN(A741)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A741)-LEN(SUBSTITUTE(A741,";",""))+1))*LEN(A741)+1,LEN(A741)+1)))</f>
+        <f t="array" aca="1" ref="B750" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A739,";",REPT(" ",LEN(A739)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A739)-LEN(SUBSTITUTE(A739,";",""))+1))*LEN(A739)+1,LEN(A739)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="751">
       <c r="B751">
-        <f t="array" aca="1" ref="B751" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A742,";",REPT(" ",LEN(A742)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A742)-LEN(SUBSTITUTE(A742,";",""))+1))*LEN(A742)+1,LEN(A742)+1)))</f>
+        <f t="array" aca="1" ref="B751" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A740,";",REPT(" ",LEN(A740)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A740)-LEN(SUBSTITUTE(A740,";",""))+1))*LEN(A740)+1,LEN(A740)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="752">
       <c r="B752">
-        <f t="array" aca="1" ref="B752" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A743,";",REPT(" ",LEN(A743)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A743)-LEN(SUBSTITUTE(A743,";",""))+1))*LEN(A743)+1,LEN(A743)+1)))</f>
+        <f t="array" aca="1" ref="B752" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A741,";",REPT(" ",LEN(A741)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A741)-LEN(SUBSTITUTE(A741,";",""))+1))*LEN(A741)+1,LEN(A741)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="753">
       <c r="B753">
-        <f t="array" aca="1" ref="B753" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A744,";",REPT(" ",LEN(A744)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A744)-LEN(SUBSTITUTE(A744,";",""))+1))*LEN(A744)+1,LEN(A744)+1)))</f>
+        <f t="array" aca="1" ref="B753" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A742,";",REPT(" ",LEN(A742)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A742)-LEN(SUBSTITUTE(A742,";",""))+1))*LEN(A742)+1,LEN(A742)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="754">
       <c r="B754">
-        <f t="array" aca="1" ref="B754" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A745,";",REPT(" ",LEN(A745)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A745)-LEN(SUBSTITUTE(A745,";",""))+1))*LEN(A745)+1,LEN(A745)+1)))</f>
+        <f t="array" aca="1" ref="B754" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A743,";",REPT(" ",LEN(A743)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A743)-LEN(SUBSTITUTE(A743,";",""))+1))*LEN(A743)+1,LEN(A743)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="755">
       <c r="B755">
-        <f t="array" aca="1" ref="B755" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A746,";",REPT(" ",LEN(A746)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A746)-LEN(SUBSTITUTE(A746,";",""))+1))*LEN(A746)+1,LEN(A746)+1)))</f>
+        <f t="array" aca="1" ref="B755" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A744,";",REPT(" ",LEN(A744)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A744)-LEN(SUBSTITUTE(A744,";",""))+1))*LEN(A744)+1,LEN(A744)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="756">
       <c r="B756">
-        <f t="array" aca="1" ref="B756" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A747,";",REPT(" ",LEN(A747)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A747)-LEN(SUBSTITUTE(A747,";",""))+1))*LEN(A747)+1,LEN(A747)+1)))</f>
+        <f t="array" aca="1" ref="B756" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A745,";",REPT(" ",LEN(A745)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A745)-LEN(SUBSTITUTE(A745,";",""))+1))*LEN(A745)+1,LEN(A745)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="757">
       <c r="B757">
-        <f t="array" aca="1" ref="B757" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A748,";",REPT(" ",LEN(A748)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A748)-LEN(SUBSTITUTE(A748,";",""))+1))*LEN(A748)+1,LEN(A748)+1)))</f>
+        <f t="array" aca="1" ref="B757" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A746,";",REPT(" ",LEN(A746)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A746)-LEN(SUBSTITUTE(A746,";",""))+1))*LEN(A746)+1,LEN(A746)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="758">
       <c r="B758">
-        <f t="array" aca="1" ref="B758" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A749,";",REPT(" ",LEN(A749)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A749)-LEN(SUBSTITUTE(A749,";",""))+1))*LEN(A749)+1,LEN(A749)+1)))</f>
+        <f t="array" aca="1" ref="B758" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A747,";",REPT(" ",LEN(A747)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A747)-LEN(SUBSTITUTE(A747,";",""))+1))*LEN(A747)+1,LEN(A747)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="759">
       <c r="B759">
-        <f t="array" aca="1" ref="B759" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A750,";",REPT(" ",LEN(A750)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A750)-LEN(SUBSTITUTE(A750,";",""))+1))*LEN(A750)+1,LEN(A750)+1)))</f>
+        <f t="array" aca="1" ref="B759" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A748,";",REPT(" ",LEN(A748)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A748)-LEN(SUBSTITUTE(A748,";",""))+1))*LEN(A748)+1,LEN(A748)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="760">
       <c r="B760">
-        <f t="array" aca="1" ref="B760" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A751,";",REPT(" ",LEN(A751)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A751)-LEN(SUBSTITUTE(A751,";",""))+1))*LEN(A751)+1,LEN(A751)+1)))</f>
+        <f t="array" aca="1" ref="B760" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A749,";",REPT(" ",LEN(A749)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A749)-LEN(SUBSTITUTE(A749,";",""))+1))*LEN(A749)+1,LEN(A749)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="761">
       <c r="B761">
-        <f t="array" aca="1" ref="B761" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A752,";",REPT(" ",LEN(A752)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A752)-LEN(SUBSTITUTE(A752,";",""))+1))*LEN(A752)+1,LEN(A752)+1)))</f>
+        <f t="array" aca="1" ref="B761" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A750,";",REPT(" ",LEN(A750)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A750)-LEN(SUBSTITUTE(A750,";",""))+1))*LEN(A750)+1,LEN(A750)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="762">
       <c r="B762">
-        <f t="array" aca="1" ref="B762" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A753,";",REPT(" ",LEN(A753)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A753)-LEN(SUBSTITUTE(A753,";",""))+1))*LEN(A753)+1,LEN(A753)+1)))</f>
+        <f t="array" aca="1" ref="B762" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A751,";",REPT(" ",LEN(A751)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A751)-LEN(SUBSTITUTE(A751,";",""))+1))*LEN(A751)+1,LEN(A751)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="763">
       <c r="B763">
-        <f t="array" aca="1" ref="B763" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A754,";",REPT(" ",LEN(A754)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A754)-LEN(SUBSTITUTE(A754,";",""))+1))*LEN(A754)+1,LEN(A754)+1)))</f>
+        <f t="array" aca="1" ref="B763" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A752,";",REPT(" ",LEN(A752)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A752)-LEN(SUBSTITUTE(A752,";",""))+1))*LEN(A752)+1,LEN(A752)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="764">
       <c r="B764">
-        <f t="array" aca="1" ref="B764" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A755,";",REPT(" ",LEN(A755)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A755)-LEN(SUBSTITUTE(A755,";",""))+1))*LEN(A755)+1,LEN(A755)+1)))</f>
+        <f t="array" aca="1" ref="B764" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A753,";",REPT(" ",LEN(A753)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A753)-LEN(SUBSTITUTE(A753,";",""))+1))*LEN(A753)+1,LEN(A753)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="765">
       <c r="B765">
-        <f t="array" aca="1" ref="B765" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A756,";",REPT(" ",LEN(A756)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A756)-LEN(SUBSTITUTE(A756,";",""))+1))*LEN(A756)+1,LEN(A756)+1)))</f>
+        <f t="array" aca="1" ref="B765" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A754,";",REPT(" ",LEN(A754)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A754)-LEN(SUBSTITUTE(A754,";",""))+1))*LEN(A754)+1,LEN(A754)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="766">
       <c r="B766">
-        <f t="array" aca="1" ref="B766" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A757,";",REPT(" ",LEN(A757)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A757)-LEN(SUBSTITUTE(A757,";",""))+1))*LEN(A757)+1,LEN(A757)+1)))</f>
+        <f t="array" aca="1" ref="B766" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A755,";",REPT(" ",LEN(A755)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A755)-LEN(SUBSTITUTE(A755,";",""))+1))*LEN(A755)+1,LEN(A755)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="767">
       <c r="B767">
-        <f t="array" aca="1" ref="B767" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A758,";",REPT(" ",LEN(A758)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A758)-LEN(SUBSTITUTE(A758,";",""))+1))*LEN(A758)+1,LEN(A758)+1)))</f>
+        <f t="array" aca="1" ref="B767" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A756,";",REPT(" ",LEN(A756)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A756)-LEN(SUBSTITUTE(A756,";",""))+1))*LEN(A756)+1,LEN(A756)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="768">
       <c r="B768">
-        <f t="array" aca="1" ref="B768" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A759,";",REPT(" ",LEN(A759)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A759)-LEN(SUBSTITUTE(A759,";",""))+1))*LEN(A759)+1,LEN(A759)+1)))</f>
+        <f t="array" aca="1" ref="B768" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A757,";",REPT(" ",LEN(A757)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A757)-LEN(SUBSTITUTE(A757,";",""))+1))*LEN(A757)+1,LEN(A757)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="769">
       <c r="B769">
-        <f t="array" aca="1" ref="B769" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A760,";",REPT(" ",LEN(A760)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A760)-LEN(SUBSTITUTE(A760,";",""))+1))*LEN(A760)+1,LEN(A760)+1)))</f>
+        <f t="array" aca="1" ref="B769" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A758,";",REPT(" ",LEN(A758)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A758)-LEN(SUBSTITUTE(A758,";",""))+1))*LEN(A758)+1,LEN(A758)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="770">
       <c r="B770">
-        <f t="array" aca="1" ref="B770" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A761,";",REPT(" ",LEN(A761)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A761)-LEN(SUBSTITUTE(A761,";",""))+1))*LEN(A761)+1,LEN(A761)+1)))</f>
+        <f t="array" aca="1" ref="B770" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A759,";",REPT(" ",LEN(A759)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A759)-LEN(SUBSTITUTE(A759,";",""))+1))*LEN(A759)+1,LEN(A759)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="771">
       <c r="B771">
-        <f t="array" aca="1" ref="B771" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A762,";",REPT(" ",LEN(A762)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A762)-LEN(SUBSTITUTE(A762,";",""))+1))*LEN(A762)+1,LEN(A762)+1)))</f>
+        <f t="array" aca="1" ref="B771" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A760,";",REPT(" ",LEN(A760)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A760)-LEN(SUBSTITUTE(A760,";",""))+1))*LEN(A760)+1,LEN(A760)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="772">
       <c r="B772">
-        <f t="array" aca="1" ref="B772" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A763,";",REPT(" ",LEN(A763)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A763)-LEN(SUBSTITUTE(A763,";",""))+1))*LEN(A763)+1,LEN(A763)+1)))</f>
+        <f t="array" aca="1" ref="B772" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A761,";",REPT(" ",LEN(A761)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A761)-LEN(SUBSTITUTE(A761,";",""))+1))*LEN(A761)+1,LEN(A761)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="773">
       <c r="B773">
-        <f t="array" aca="1" ref="B773" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A764,";",REPT(" ",LEN(A764)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A764)-LEN(SUBSTITUTE(A764,";",""))+1))*LEN(A764)+1,LEN(A764)+1)))</f>
+        <f t="array" aca="1" ref="B773" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A762,";",REPT(" ",LEN(A762)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A762)-LEN(SUBSTITUTE(A762,";",""))+1))*LEN(A762)+1,LEN(A762)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="774">
       <c r="B774">
-        <f t="array" aca="1" ref="B774" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A765,";",REPT(" ",LEN(A765)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A765)-LEN(SUBSTITUTE(A765,";",""))+1))*LEN(A765)+1,LEN(A765)+1)))</f>
+        <f t="array" aca="1" ref="B774" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A763,";",REPT(" ",LEN(A763)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A763)-LEN(SUBSTITUTE(A763,";",""))+1))*LEN(A763)+1,LEN(A763)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="775">
       <c r="B775">
-        <f t="array" aca="1" ref="B775" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A766,";",REPT(" ",LEN(A766)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A766)-LEN(SUBSTITUTE(A766,";",""))+1))*LEN(A766)+1,LEN(A766)+1)))</f>
+        <f t="array" aca="1" ref="B775" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A764,";",REPT(" ",LEN(A764)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A764)-LEN(SUBSTITUTE(A764,";",""))+1))*LEN(A764)+1,LEN(A764)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="776">
       <c r="B776">
-        <f t="array" aca="1" ref="B776" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A767,";",REPT(" ",LEN(A767)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A767)-LEN(SUBSTITUTE(A767,";",""))+1))*LEN(A767)+1,LEN(A767)+1)))</f>
+        <f t="array" aca="1" ref="B776" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A765,";",REPT(" ",LEN(A765)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A765)-LEN(SUBSTITUTE(A765,";",""))+1))*LEN(A765)+1,LEN(A765)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="777">
       <c r="B777">
-        <f t="array" aca="1" ref="B777" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A768,";",REPT(" ",LEN(A768)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A768)-LEN(SUBSTITUTE(A768,";",""))+1))*LEN(A768)+1,LEN(A768)+1)))</f>
+        <f t="array" aca="1" ref="B777" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A766,";",REPT(" ",LEN(A766)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A766)-LEN(SUBSTITUTE(A766,";",""))+1))*LEN(A766)+1,LEN(A766)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="778">
       <c r="B778">
-        <f t="array" aca="1" ref="B778" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A769,";",REPT(" ",LEN(A769)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A769)-LEN(SUBSTITUTE(A769,";",""))+1))*LEN(A769)+1,LEN(A769)+1)))</f>
+        <f t="array" aca="1" ref="B778" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A767,";",REPT(" ",LEN(A767)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A767)-LEN(SUBSTITUTE(A767,";",""))+1))*LEN(A767)+1,LEN(A767)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="779">
       <c r="B779">
-        <f t="array" aca="1" ref="B779" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A770,";",REPT(" ",LEN(A770)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A770)-LEN(SUBSTITUTE(A770,";",""))+1))*LEN(A770)+1,LEN(A770)+1)))</f>
+        <f t="array" aca="1" ref="B779" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A768,";",REPT(" ",LEN(A768)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A768)-LEN(SUBSTITUTE(A768,";",""))+1))*LEN(A768)+1,LEN(A768)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="780">
       <c r="B780">
-        <f t="array" aca="1" ref="B780" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A771,";",REPT(" ",LEN(A771)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A771)-LEN(SUBSTITUTE(A771,";",""))+1))*LEN(A771)+1,LEN(A771)+1)))</f>
+        <f t="array" aca="1" ref="B780" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A769,";",REPT(" ",LEN(A769)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A769)-LEN(SUBSTITUTE(A769,";",""))+1))*LEN(A769)+1,LEN(A769)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="781">
       <c r="B781">
-        <f t="array" aca="1" ref="B781" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A772,";",REPT(" ",LEN(A772)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A772)-LEN(SUBSTITUTE(A772,";",""))+1))*LEN(A772)+1,LEN(A772)+1)))</f>
+        <f t="array" aca="1" ref="B781" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A770,";",REPT(" ",LEN(A770)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A770)-LEN(SUBSTITUTE(A770,";",""))+1))*LEN(A770)+1,LEN(A770)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="782">
       <c r="B782">
-        <f t="array" aca="1" ref="B782" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A773,";",REPT(" ",LEN(A773)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A773)-LEN(SUBSTITUTE(A773,";",""))+1))*LEN(A773)+1,LEN(A773)+1)))</f>
+        <f t="array" aca="1" ref="B782" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A771,";",REPT(" ",LEN(A771)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A771)-LEN(SUBSTITUTE(A771,";",""))+1))*LEN(A771)+1,LEN(A771)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="783">
       <c r="B783">
-        <f t="array" aca="1" ref="B783" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A774,";",REPT(" ",LEN(A774)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A774)-LEN(SUBSTITUTE(A774,";",""))+1))*LEN(A774)+1,LEN(A774)+1)))</f>
+        <f t="array" aca="1" ref="B783" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A772,";",REPT(" ",LEN(A772)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A772)-LEN(SUBSTITUTE(A772,";",""))+1))*LEN(A772)+1,LEN(A772)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="784">
       <c r="B784">
-        <f t="array" aca="1" ref="B784" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A775,";",REPT(" ",LEN(A775)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A775)-LEN(SUBSTITUTE(A775,";",""))+1))*LEN(A775)+1,LEN(A775)+1)))</f>
+        <f t="array" aca="1" ref="B784" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A773,";",REPT(" ",LEN(A773)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A773)-LEN(SUBSTITUTE(A773,";",""))+1))*LEN(A773)+1,LEN(A773)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="785">
       <c r="B785">
-        <f t="array" aca="1" ref="B785" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A776,";",REPT(" ",LEN(A776)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A776)-LEN(SUBSTITUTE(A776,";",""))+1))*LEN(A776)+1,LEN(A776)+1)))</f>
+        <f t="array" aca="1" ref="B785" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A774,";",REPT(" ",LEN(A774)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A774)-LEN(SUBSTITUTE(A774,";",""))+1))*LEN(A774)+1,LEN(A774)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="786">
       <c r="B786">
-        <f t="array" aca="1" ref="B786" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A777,";",REPT(" ",LEN(A777)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A777)-LEN(SUBSTITUTE(A777,";",""))+1))*LEN(A777)+1,LEN(A777)+1)))</f>
+        <f t="array" aca="1" ref="B786" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A775,";",REPT(" ",LEN(A775)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A775)-LEN(SUBSTITUTE(A775,";",""))+1))*LEN(A775)+1,LEN(A775)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="787">
       <c r="B787">
-        <f t="array" aca="1" ref="B787" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A778,";",REPT(" ",LEN(A778)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A778)-LEN(SUBSTITUTE(A778,";",""))+1))*LEN(A778)+1,LEN(A778)+1)))</f>
+        <f t="array" aca="1" ref="B787" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A776,";",REPT(" ",LEN(A776)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A776)-LEN(SUBSTITUTE(A776,";",""))+1))*LEN(A776)+1,LEN(A776)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="788">
       <c r="B788">
-        <f t="array" aca="1" ref="B788" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A779,";",REPT(" ",LEN(A779)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A779)-LEN(SUBSTITUTE(A779,";",""))+1))*LEN(A779)+1,LEN(A779)+1)))</f>
+        <f t="array" aca="1" ref="B788" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A777,";",REPT(" ",LEN(A777)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A777)-LEN(SUBSTITUTE(A777,";",""))+1))*LEN(A777)+1,LEN(A777)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="789">
       <c r="B789">
-        <f t="array" aca="1" ref="B789" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A780,";",REPT(" ",LEN(A780)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A780)-LEN(SUBSTITUTE(A780,";",""))+1))*LEN(A780)+1,LEN(A780)+1)))</f>
+        <f t="array" aca="1" ref="B789" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A778,";",REPT(" ",LEN(A778)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A778)-LEN(SUBSTITUTE(A778,";",""))+1))*LEN(A778)+1,LEN(A778)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="790">
       <c r="B790">
-        <f t="array" aca="1" ref="B790" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A781,";",REPT(" ",LEN(A781)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A781)-LEN(SUBSTITUTE(A781,";",""))+1))*LEN(A781)+1,LEN(A781)+1)))</f>
+        <f t="array" aca="1" ref="B790" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A779,";",REPT(" ",LEN(A779)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A779)-LEN(SUBSTITUTE(A779,";",""))+1))*LEN(A779)+1,LEN(A779)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="791">
       <c r="B791">
-        <f t="array" aca="1" ref="B791" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A782,";",REPT(" ",LEN(A782)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A782)-LEN(SUBSTITUTE(A782,";",""))+1))*LEN(A782)+1,LEN(A782)+1)))</f>
+        <f t="array" aca="1" ref="B791" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A780,";",REPT(" ",LEN(A780)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A780)-LEN(SUBSTITUTE(A780,";",""))+1))*LEN(A780)+1,LEN(A780)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="792">
       <c r="B792">
-        <f t="array" aca="1" ref="B792" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A783,";",REPT(" ",LEN(A783)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A783)-LEN(SUBSTITUTE(A783,";",""))+1))*LEN(A783)+1,LEN(A783)+1)))</f>
+        <f t="array" aca="1" ref="B792" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A781,";",REPT(" ",LEN(A781)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A781)-LEN(SUBSTITUTE(A781,";",""))+1))*LEN(A781)+1,LEN(A781)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="793">
       <c r="B793">
-        <f t="array" aca="1" ref="B793" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A784,";",REPT(" ",LEN(A784)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A784)-LEN(SUBSTITUTE(A784,";",""))+1))*LEN(A784)+1,LEN(A784)+1)))</f>
+        <f t="array" aca="1" ref="B793" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A782,";",REPT(" ",LEN(A782)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A782)-LEN(SUBSTITUTE(A782,";",""))+1))*LEN(A782)+1,LEN(A782)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="794">
       <c r="B794">
-        <f t="array" aca="1" ref="B794" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A785,";",REPT(" ",LEN(A785)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A785)-LEN(SUBSTITUTE(A785,";",""))+1))*LEN(A785)+1,LEN(A785)+1)))</f>
+        <f t="array" aca="1" ref="B794" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A783,";",REPT(" ",LEN(A783)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A783)-LEN(SUBSTITUTE(A783,";",""))+1))*LEN(A783)+1,LEN(A783)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="795">
       <c r="B795">
-        <f t="array" aca="1" ref="B795" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A786,";",REPT(" ",LEN(A786)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A786)-LEN(SUBSTITUTE(A786,";",""))+1))*LEN(A786)+1,LEN(A786)+1)))</f>
+        <f t="array" aca="1" ref="B795" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A784,";",REPT(" ",LEN(A784)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A784)-LEN(SUBSTITUTE(A784,";",""))+1))*LEN(A784)+1,LEN(A784)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="796">
       <c r="B796">
-        <f t="array" aca="1" ref="B796" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A787,";",REPT(" ",LEN(A787)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A787)-LEN(SUBSTITUTE(A787,";",""))+1))*LEN(A787)+1,LEN(A787)+1)))</f>
+        <f t="array" aca="1" ref="B796" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A785,";",REPT(" ",LEN(A785)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A785)-LEN(SUBSTITUTE(A785,";",""))+1))*LEN(A785)+1,LEN(A785)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="797">
       <c r="B797">
-        <f t="array" aca="1" ref="B797" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A788,";",REPT(" ",LEN(A788)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A788)-LEN(SUBSTITUTE(A788,";",""))+1))*LEN(A788)+1,LEN(A788)+1)))</f>
+        <f t="array" aca="1" ref="B797" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A786,";",REPT(" ",LEN(A786)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A786)-LEN(SUBSTITUTE(A786,";",""))+1))*LEN(A786)+1,LEN(A786)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="798">
       <c r="B798">
-        <f t="array" aca="1" ref="B798" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A789,";",REPT(" ",LEN(A789)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A789)-LEN(SUBSTITUTE(A789,";",""))+1))*LEN(A789)+1,LEN(A789)+1)))</f>
+        <f t="array" aca="1" ref="B798" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A787,";",REPT(" ",LEN(A787)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A787)-LEN(SUBSTITUTE(A787,";",""))+1))*LEN(A787)+1,LEN(A787)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="799">
       <c r="B799">
-        <f t="array" aca="1" ref="B799" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A790,";",REPT(" ",LEN(A790)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A790)-LEN(SUBSTITUTE(A790,";",""))+1))*LEN(A790)+1,LEN(A790)+1)))</f>
+        <f t="array" aca="1" ref="B799" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A788,";",REPT(" ",LEN(A788)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A788)-LEN(SUBSTITUTE(A788,";",""))+1))*LEN(A788)+1,LEN(A788)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="800">
       <c r="B800">
-        <f t="array" aca="1" ref="B800" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A791,";",REPT(" ",LEN(A791)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A791)-LEN(SUBSTITUTE(A791,";",""))+1))*LEN(A791)+1,LEN(A791)+1)))</f>
+        <f t="array" aca="1" ref="B800" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A789,";",REPT(" ",LEN(A789)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A789)-LEN(SUBSTITUTE(A789,";",""))+1))*LEN(A789)+1,LEN(A789)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="801">
       <c r="B801">
-        <f t="array" aca="1" ref="B801" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A792,";",REPT(" ",LEN(A792)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A792)-LEN(SUBSTITUTE(A792,";",""))+1))*LEN(A792)+1,LEN(A792)+1)))</f>
+        <f t="array" aca="1" ref="B801" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A790,";",REPT(" ",LEN(A790)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A790)-LEN(SUBSTITUTE(A790,";",""))+1))*LEN(A790)+1,LEN(A790)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="802">
       <c r="B802">
-        <f t="array" aca="1" ref="B802" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A793,";",REPT(" ",LEN(A793)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A793)-LEN(SUBSTITUTE(A793,";",""))+1))*LEN(A793)+1,LEN(A793)+1)))</f>
+        <f t="array" aca="1" ref="B802" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A791,";",REPT(" ",LEN(A791)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A791)-LEN(SUBSTITUTE(A791,";",""))+1))*LEN(A791)+1,LEN(A791)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="803">
       <c r="B803">
-        <f t="array" aca="1" ref="B803" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A794,";",REPT(" ",LEN(A794)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A794)-LEN(SUBSTITUTE(A794,";",""))+1))*LEN(A794)+1,LEN(A794)+1)))</f>
+        <f t="array" aca="1" ref="B803" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A792,";",REPT(" ",LEN(A792)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A792)-LEN(SUBSTITUTE(A792,";",""))+1))*LEN(A792)+1,LEN(A792)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="804">
       <c r="B804">
-        <f t="array" aca="1" ref="B804" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A795,";",REPT(" ",LEN(A795)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A795)-LEN(SUBSTITUTE(A795,";",""))+1))*LEN(A795)+1,LEN(A795)+1)))</f>
+        <f t="array" aca="1" ref="B804" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A793,";",REPT(" ",LEN(A793)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A793)-LEN(SUBSTITUTE(A793,";",""))+1))*LEN(A793)+1,LEN(A793)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="805">
       <c r="B805">
-        <f t="array" aca="1" ref="B805" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A796,";",REPT(" ",LEN(A796)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A796)-LEN(SUBSTITUTE(A796,";",""))+1))*LEN(A796)+1,LEN(A796)+1)))</f>
+        <f t="array" aca="1" ref="B805" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A794,";",REPT(" ",LEN(A794)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A794)-LEN(SUBSTITUTE(A794,";",""))+1))*LEN(A794)+1,LEN(A794)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="806">
       <c r="B806">
-        <f t="array" aca="1" ref="B806" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A797,";",REPT(" ",LEN(A797)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A797)-LEN(SUBSTITUTE(A797,";",""))+1))*LEN(A797)+1,LEN(A797)+1)))</f>
+        <f t="array" aca="1" ref="B806" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A795,";",REPT(" ",LEN(A795)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A795)-LEN(SUBSTITUTE(A795,";",""))+1))*LEN(A795)+1,LEN(A795)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="807">
       <c r="B807">
-        <f t="array" aca="1" ref="B807" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A798,";",REPT(" ",LEN(A798)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A798)-LEN(SUBSTITUTE(A798,";",""))+1))*LEN(A798)+1,LEN(A798)+1)))</f>
+        <f t="array" aca="1" ref="B807" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A796,";",REPT(" ",LEN(A796)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A796)-LEN(SUBSTITUTE(A796,";",""))+1))*LEN(A796)+1,LEN(A796)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="808">
       <c r="B808">
-        <f t="array" aca="1" ref="B808" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A799,";",REPT(" ",LEN(A799)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A799)-LEN(SUBSTITUTE(A799,";",""))+1))*LEN(A799)+1,LEN(A799)+1)))</f>
+        <f t="array" aca="1" ref="B808" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A797,";",REPT(" ",LEN(A797)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A797)-LEN(SUBSTITUTE(A797,";",""))+1))*LEN(A797)+1,LEN(A797)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="809">
       <c r="B809">
-        <f t="array" aca="1" ref="B809" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A800,";",REPT(" ",LEN(A800)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A800)-LEN(SUBSTITUTE(A800,";",""))+1))*LEN(A800)+1,LEN(A800)+1)))</f>
+        <f t="array" aca="1" ref="B809" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A798,";",REPT(" ",LEN(A798)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A798)-LEN(SUBSTITUTE(A798,";",""))+1))*LEN(A798)+1,LEN(A798)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="810">
       <c r="B810">
-        <f t="array" aca="1" ref="B810" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A801,";",REPT(" ",LEN(A801)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A801)-LEN(SUBSTITUTE(A801,";",""))+1))*LEN(A801)+1,LEN(A801)+1)))</f>
+        <f t="array" aca="1" ref="B810" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A799,";",REPT(" ",LEN(A799)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A799)-LEN(SUBSTITUTE(A799,";",""))+1))*LEN(A799)+1,LEN(A799)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="811">
       <c r="B811">
-        <f t="array" aca="1" ref="B811" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A802,";",REPT(" ",LEN(A802)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A802)-LEN(SUBSTITUTE(A802,";",""))+1))*LEN(A802)+1,LEN(A802)+1)))</f>
+        <f t="array" aca="1" ref="B811" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A800,";",REPT(" ",LEN(A800)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A800)-LEN(SUBSTITUTE(A800,";",""))+1))*LEN(A800)+1,LEN(A800)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="812">
       <c r="B812">
-        <f t="array" aca="1" ref="B812" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A803,";",REPT(" ",LEN(A803)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A803)-LEN(SUBSTITUTE(A803,";",""))+1))*LEN(A803)+1,LEN(A803)+1)))</f>
+        <f t="array" aca="1" ref="B812" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A801,";",REPT(" ",LEN(A801)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A801)-LEN(SUBSTITUTE(A801,";",""))+1))*LEN(A801)+1,LEN(A801)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="813">
       <c r="B813">
-        <f t="array" aca="1" ref="B813" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A804,";",REPT(" ",LEN(A804)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A804)-LEN(SUBSTITUTE(A804,";",""))+1))*LEN(A804)+1,LEN(A804)+1)))</f>
+        <f t="array" aca="1" ref="B813" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A802,";",REPT(" ",LEN(A802)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A802)-LEN(SUBSTITUTE(A802,";",""))+1))*LEN(A802)+1,LEN(A802)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="814">
       <c r="B814">
-        <f t="array" aca="1" ref="B814" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A805,";",REPT(" ",LEN(A805)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A805)-LEN(SUBSTITUTE(A805,";",""))+1))*LEN(A805)+1,LEN(A805)+1)))</f>
+        <f t="array" aca="1" ref="B814" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A803,";",REPT(" ",LEN(A803)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A803)-LEN(SUBSTITUTE(A803,";",""))+1))*LEN(A803)+1,LEN(A803)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="815">
       <c r="B815">
-        <f t="array" aca="1" ref="B815" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A806,";",REPT(" ",LEN(A806)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A806)-LEN(SUBSTITUTE(A806,";",""))+1))*LEN(A806)+1,LEN(A806)+1)))</f>
+        <f t="array" aca="1" ref="B815" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A804,";",REPT(" ",LEN(A804)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A804)-LEN(SUBSTITUTE(A804,";",""))+1))*LEN(A804)+1,LEN(A804)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="816">
       <c r="B816">
-        <f t="array" aca="1" ref="B816" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A807,";",REPT(" ",LEN(A807)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A807)-LEN(SUBSTITUTE(A807,";",""))+1))*LEN(A807)+1,LEN(A807)+1)))</f>
+        <f t="array" aca="1" ref="B816" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A805,";",REPT(" ",LEN(A805)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A805)-LEN(SUBSTITUTE(A805,";",""))+1))*LEN(A805)+1,LEN(A805)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="817">
       <c r="B817">
-        <f t="array" aca="1" ref="B817" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A808,";",REPT(" ",LEN(A808)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A808)-LEN(SUBSTITUTE(A808,";",""))+1))*LEN(A808)+1,LEN(A808)+1)))</f>
+        <f t="array" aca="1" ref="B817" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A806,";",REPT(" ",LEN(A806)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A806)-LEN(SUBSTITUTE(A806,";",""))+1))*LEN(A806)+1,LEN(A806)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="818">
       <c r="B818">
-        <f t="array" aca="1" ref="B818" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A809,";",REPT(" ",LEN(A809)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A809)-LEN(SUBSTITUTE(A809,";",""))+1))*LEN(A809)+1,LEN(A809)+1)))</f>
+        <f t="array" aca="1" ref="B818" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A807,";",REPT(" ",LEN(A807)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A807)-LEN(SUBSTITUTE(A807,";",""))+1))*LEN(A807)+1,LEN(A807)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="819">
       <c r="B819">
-        <f t="array" aca="1" ref="B819" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A810,";",REPT(" ",LEN(A810)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A810)-LEN(SUBSTITUTE(A810,";",""))+1))*LEN(A810)+1,LEN(A810)+1)))</f>
+        <f t="array" aca="1" ref="B819" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A808,";",REPT(" ",LEN(A808)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A808)-LEN(SUBSTITUTE(A808,";",""))+1))*LEN(A808)+1,LEN(A808)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="820">
       <c r="B820">
-        <f t="array" aca="1" ref="B820" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A811,";",REPT(" ",LEN(A811)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A811)-LEN(SUBSTITUTE(A811,";",""))+1))*LEN(A811)+1,LEN(A811)+1)))</f>
+        <f t="array" aca="1" ref="B820" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A809,";",REPT(" ",LEN(A809)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A809)-LEN(SUBSTITUTE(A809,";",""))+1))*LEN(A809)+1,LEN(A809)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="821">
       <c r="B821">
-        <f t="array" aca="1" ref="B821" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A812,";",REPT(" ",LEN(A812)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A812)-LEN(SUBSTITUTE(A812,";",""))+1))*LEN(A812)+1,LEN(A812)+1)))</f>
+        <f t="array" aca="1" ref="B821" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A810,";",REPT(" ",LEN(A810)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A810)-LEN(SUBSTITUTE(A810,";",""))+1))*LEN(A810)+1,LEN(A810)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="822">
       <c r="B822">
-        <f t="array" aca="1" ref="B822" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A813,";",REPT(" ",LEN(A813)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A813)-LEN(SUBSTITUTE(A813,";",""))+1))*LEN(A813)+1,LEN(A813)+1)))</f>
+        <f t="array" aca="1" ref="B822" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A811,";",REPT(" ",LEN(A811)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A811)-LEN(SUBSTITUTE(A811,";",""))+1))*LEN(A811)+1,LEN(A811)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="823">
       <c r="B823">
-        <f t="array" aca="1" ref="B823" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A814,";",REPT(" ",LEN(A814)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A814)-LEN(SUBSTITUTE(A814,";",""))+1))*LEN(A814)+1,LEN(A814)+1)))</f>
+        <f t="array" aca="1" ref="B823" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A812,";",REPT(" ",LEN(A812)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A812)-LEN(SUBSTITUTE(A812,";",""))+1))*LEN(A812)+1,LEN(A812)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="824">
       <c r="B824">
-        <f t="array" aca="1" ref="B824" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A815,";",REPT(" ",LEN(A815)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A815)-LEN(SUBSTITUTE(A815,";",""))+1))*LEN(A815)+1,LEN(A815)+1)))</f>
+        <f t="array" aca="1" ref="B824" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A813,";",REPT(" ",LEN(A813)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A813)-LEN(SUBSTITUTE(A813,";",""))+1))*LEN(A813)+1,LEN(A813)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="825">
       <c r="B825">
-        <f t="array" aca="1" ref="B825" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A816,";",REPT(" ",LEN(A816)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A816)-LEN(SUBSTITUTE(A816,";",""))+1))*LEN(A816)+1,LEN(A816)+1)))</f>
+        <f t="array" aca="1" ref="B825" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A814,";",REPT(" ",LEN(A814)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A814)-LEN(SUBSTITUTE(A814,";",""))+1))*LEN(A814)+1,LEN(A814)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="826">
       <c r="B826">
-        <f t="array" aca="1" ref="B826" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A817,";",REPT(" ",LEN(A817)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A817)-LEN(SUBSTITUTE(A817,";",""))+1))*LEN(A817)+1,LEN(A817)+1)))</f>
+        <f t="array" aca="1" ref="B826" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A815,";",REPT(" ",LEN(A815)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A815)-LEN(SUBSTITUTE(A815,";",""))+1))*LEN(A815)+1,LEN(A815)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="827">
       <c r="B827">
-        <f t="array" aca="1" ref="B827" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A818,";",REPT(" ",LEN(A818)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A818)-LEN(SUBSTITUTE(A818,";",""))+1))*LEN(A818)+1,LEN(A818)+1)))</f>
+        <f t="array" aca="1" ref="B827" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A816,";",REPT(" ",LEN(A816)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A816)-LEN(SUBSTITUTE(A816,";",""))+1))*LEN(A816)+1,LEN(A816)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="828">
       <c r="B828">
-        <f t="array" aca="1" ref="B828" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A819,";",REPT(" ",LEN(A819)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A819)-LEN(SUBSTITUTE(A819,";",""))+1))*LEN(A819)+1,LEN(A819)+1)))</f>
+        <f t="array" aca="1" ref="B828" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A817,";",REPT(" ",LEN(A817)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A817)-LEN(SUBSTITUTE(A817,";",""))+1))*LEN(A817)+1,LEN(A817)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="829">
       <c r="B829">
-        <f t="array" aca="1" ref="B829" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A820,";",REPT(" ",LEN(A820)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A820)-LEN(SUBSTITUTE(A820,";",""))+1))*LEN(A820)+1,LEN(A820)+1)))</f>
+        <f t="array" aca="1" ref="B829" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A818,";",REPT(" ",LEN(A818)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A818)-LEN(SUBSTITUTE(A818,";",""))+1))*LEN(A818)+1,LEN(A818)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="830">
       <c r="B830">
-        <f t="array" aca="1" ref="B830" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A821,";",REPT(" ",LEN(A821)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A821)-LEN(SUBSTITUTE(A821,";",""))+1))*LEN(A821)+1,LEN(A821)+1)))</f>
+        <f t="array" aca="1" ref="B830" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A819,";",REPT(" ",LEN(A819)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A819)-LEN(SUBSTITUTE(A819,";",""))+1))*LEN(A819)+1,LEN(A819)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="831">
       <c r="B831">
-        <f t="array" aca="1" ref="B831" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A822,";",REPT(" ",LEN(A822)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A822)-LEN(SUBSTITUTE(A822,";",""))+1))*LEN(A822)+1,LEN(A822)+1)))</f>
+        <f t="array" aca="1" ref="B831" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A820,";",REPT(" ",LEN(A820)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A820)-LEN(SUBSTITUTE(A820,";",""))+1))*LEN(A820)+1,LEN(A820)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="832">
       <c r="B832">
-        <f t="array" aca="1" ref="B832" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A823,";",REPT(" ",LEN(A823)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A823)-LEN(SUBSTITUTE(A823,";",""))+1))*LEN(A823)+1,LEN(A823)+1)))</f>
+        <f t="array" aca="1" ref="B832" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A821,";",REPT(" ",LEN(A821)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A821)-LEN(SUBSTITUTE(A821,";",""))+1))*LEN(A821)+1,LEN(A821)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="833">
       <c r="B833">
-        <f t="array" aca="1" ref="B833" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A824,";",REPT(" ",LEN(A824)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A824)-LEN(SUBSTITUTE(A824,";",""))+1))*LEN(A824)+1,LEN(A824)+1)))</f>
+        <f t="array" aca="1" ref="B833" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A822,";",REPT(" ",LEN(A822)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A822)-LEN(SUBSTITUTE(A822,";",""))+1))*LEN(A822)+1,LEN(A822)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="834">
       <c r="B834">
-        <f t="array" aca="1" ref="B834" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A825,";",REPT(" ",LEN(A825)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A825)-LEN(SUBSTITUTE(A825,";",""))+1))*LEN(A825)+1,LEN(A825)+1)))</f>
+        <f t="array" aca="1" ref="B834" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A823,";",REPT(" ",LEN(A823)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A823)-LEN(SUBSTITUTE(A823,";",""))+1))*LEN(A823)+1,LEN(A823)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="835">
       <c r="B835">
-        <f t="array" aca="1" ref="B835" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A826,";",REPT(" ",LEN(A826)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A826)-LEN(SUBSTITUTE(A826,";",""))+1))*LEN(A826)+1,LEN(A826)+1)))</f>
+        <f t="array" aca="1" ref="B835" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A824,";",REPT(" ",LEN(A824)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A824)-LEN(SUBSTITUTE(A824,";",""))+1))*LEN(A824)+1,LEN(A824)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="836">
       <c r="B836">
-        <f t="array" aca="1" ref="B836" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A827,";",REPT(" ",LEN(A827)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A827)-LEN(SUBSTITUTE(A827,";",""))+1))*LEN(A827)+1,LEN(A827)+1)))</f>
+        <f t="array" aca="1" ref="B836" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A825,";",REPT(" ",LEN(A825)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A825)-LEN(SUBSTITUTE(A825,";",""))+1))*LEN(A825)+1,LEN(A825)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="837">
       <c r="B837">
-        <f t="array" aca="1" ref="B837" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A828,";",REPT(" ",LEN(A828)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A828)-LEN(SUBSTITUTE(A828,";",""))+1))*LEN(A828)+1,LEN(A828)+1)))</f>
+        <f t="array" aca="1" ref="B837" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A826,";",REPT(" ",LEN(A826)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A826)-LEN(SUBSTITUTE(A826,";",""))+1))*LEN(A826)+1,LEN(A826)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="838">
       <c r="B838">
-        <f t="array" aca="1" ref="B838" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A829,";",REPT(" ",LEN(A829)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A829)-LEN(SUBSTITUTE(A829,";",""))+1))*LEN(A829)+1,LEN(A829)+1)))</f>
+        <f t="array" aca="1" ref="B838" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A827,";",REPT(" ",LEN(A827)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A827)-LEN(SUBSTITUTE(A827,";",""))+1))*LEN(A827)+1,LEN(A827)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="839">
       <c r="B839">
-        <f t="array" aca="1" ref="B839" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A830,";",REPT(" ",LEN(A830)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A830)-LEN(SUBSTITUTE(A830,";",""))+1))*LEN(A830)+1,LEN(A830)+1)))</f>
+        <f t="array" aca="1" ref="B839" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A828,";",REPT(" ",LEN(A828)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A828)-LEN(SUBSTITUTE(A828,";",""))+1))*LEN(A828)+1,LEN(A828)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="840">
       <c r="B840">
-        <f t="array" aca="1" ref="B840" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A831,";",REPT(" ",LEN(A831)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A831)-LEN(SUBSTITUTE(A831,";",""))+1))*LEN(A831)+1,LEN(A831)+1)))</f>
+        <f t="array" aca="1" ref="B840" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A829,";",REPT(" ",LEN(A829)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A829)-LEN(SUBSTITUTE(A829,";",""))+1))*LEN(A829)+1,LEN(A829)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="841">
       <c r="B841">
-        <f t="array" aca="1" ref="B841" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A832,";",REPT(" ",LEN(A832)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A832)-LEN(SUBSTITUTE(A832,";",""))+1))*LEN(A832)+1,LEN(A832)+1)))</f>
+        <f t="array" aca="1" ref="B841" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A830,";",REPT(" ",LEN(A830)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A830)-LEN(SUBSTITUTE(A830,";",""))+1))*LEN(A830)+1,LEN(A830)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="842">
       <c r="B842">
-        <f t="array" aca="1" ref="B842" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A833,";",REPT(" ",LEN(A833)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A833)-LEN(SUBSTITUTE(A833,";",""))+1))*LEN(A833)+1,LEN(A833)+1)))</f>
+        <f t="array" aca="1" ref="B842" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A831,";",REPT(" ",LEN(A831)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A831)-LEN(SUBSTITUTE(A831,";",""))+1))*LEN(A831)+1,LEN(A831)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="843">
       <c r="B843">
-        <f t="array" aca="1" ref="B843" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A834,";",REPT(" ",LEN(A834)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A834)-LEN(SUBSTITUTE(A834,";",""))+1))*LEN(A834)+1,LEN(A834)+1)))</f>
+        <f t="array" aca="1" ref="B843" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A832,";",REPT(" ",LEN(A832)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A832)-LEN(SUBSTITUTE(A832,";",""))+1))*LEN(A832)+1,LEN(A832)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="844">
       <c r="B844">
-        <f t="array" aca="1" ref="B844" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A835,";",REPT(" ",LEN(A835)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A835)-LEN(SUBSTITUTE(A835,";",""))+1))*LEN(A835)+1,LEN(A835)+1)))</f>
+        <f t="array" aca="1" ref="B844" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A833,";",REPT(" ",LEN(A833)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A833)-LEN(SUBSTITUTE(A833,";",""))+1))*LEN(A833)+1,LEN(A833)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="845">
       <c r="B845">
-        <f t="array" aca="1" ref="B845" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A836,";",REPT(" ",LEN(A836)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A836)-LEN(SUBSTITUTE(A836,";",""))+1))*LEN(A836)+1,LEN(A836)+1)))</f>
+        <f t="array" aca="1" ref="B845" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A834,";",REPT(" ",LEN(A834)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A834)-LEN(SUBSTITUTE(A834,";",""))+1))*LEN(A834)+1,LEN(A834)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="846">
       <c r="B846">
-        <f t="array" aca="1" ref="B846" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A837,";",REPT(" ",LEN(A837)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A837)-LEN(SUBSTITUTE(A837,";",""))+1))*LEN(A837)+1,LEN(A837)+1)))</f>
+        <f t="array" aca="1" ref="B846" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A835,";",REPT(" ",LEN(A835)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A835)-LEN(SUBSTITUTE(A835,";",""))+1))*LEN(A835)+1,LEN(A835)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="847">
       <c r="B847">
-        <f t="array" aca="1" ref="B847" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A838,";",REPT(" ",LEN(A838)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A838)-LEN(SUBSTITUTE(A838,";",""))+1))*LEN(A838)+1,LEN(A838)+1)))</f>
+        <f t="array" aca="1" ref="B847" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A836,";",REPT(" ",LEN(A836)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A836)-LEN(SUBSTITUTE(A836,";",""))+1))*LEN(A836)+1,LEN(A836)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="848">
       <c r="B848">
-        <f t="array" aca="1" ref="B848" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A839,";",REPT(" ",LEN(A839)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A839)-LEN(SUBSTITUTE(A839,";",""))+1))*LEN(A839)+1,LEN(A839)+1)))</f>
+        <f t="array" aca="1" ref="B848" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A837,";",REPT(" ",LEN(A837)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A837)-LEN(SUBSTITUTE(A837,";",""))+1))*LEN(A837)+1,LEN(A837)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="849">
       <c r="B849">
-        <f t="array" aca="1" ref="B849" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A840,";",REPT(" ",LEN(A840)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A840)-LEN(SUBSTITUTE(A840,";",""))+1))*LEN(A840)+1,LEN(A840)+1)))</f>
+        <f t="array" aca="1" ref="B849" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A838,";",REPT(" ",LEN(A838)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A838)-LEN(SUBSTITUTE(A838,";",""))+1))*LEN(A838)+1,LEN(A838)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="850">
       <c r="B850">
-        <f t="array" aca="1" ref="B850" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A841,";",REPT(" ",LEN(A841)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A841)-LEN(SUBSTITUTE(A841,";",""))+1))*LEN(A841)+1,LEN(A841)+1)))</f>
+        <f t="array" aca="1" ref="B850" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A839,";",REPT(" ",LEN(A839)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A839)-LEN(SUBSTITUTE(A839,";",""))+1))*LEN(A839)+1,LEN(A839)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="851">
       <c r="B851">
-        <f t="array" aca="1" ref="B851" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A842,";",REPT(" ",LEN(A842)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A842)-LEN(SUBSTITUTE(A842,";",""))+1))*LEN(A842)+1,LEN(A842)+1)))</f>
+        <f t="array" aca="1" ref="B851" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A840,";",REPT(" ",LEN(A840)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A840)-LEN(SUBSTITUTE(A840,";",""))+1))*LEN(A840)+1,LEN(A840)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="852">
       <c r="B852">
-        <f t="array" aca="1" ref="B852" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A843,";",REPT(" ",LEN(A843)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A843)-LEN(SUBSTITUTE(A843,";",""))+1))*LEN(A843)+1,LEN(A843)+1)))</f>
+        <f t="array" aca="1" ref="B852" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A841,";",REPT(" ",LEN(A841)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A841)-LEN(SUBSTITUTE(A841,";",""))+1))*LEN(A841)+1,LEN(A841)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="853">
       <c r="B853">
-        <f t="array" aca="1" ref="B853" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A844,";",REPT(" ",LEN(A844)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A844)-LEN(SUBSTITUTE(A844,";",""))+1))*LEN(A844)+1,LEN(A844)+1)))</f>
+        <f t="array" aca="1" ref="B853" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A842,";",REPT(" ",LEN(A842)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A842)-LEN(SUBSTITUTE(A842,";",""))+1))*LEN(A842)+1,LEN(A842)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="854">
       <c r="B854">
-        <f t="array" aca="1" ref="B854" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A845,";",REPT(" ",LEN(A845)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A845)-LEN(SUBSTITUTE(A845,";",""))+1))*LEN(A845)+1,LEN(A845)+1)))</f>
+        <f t="array" aca="1" ref="B854" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A843,";",REPT(" ",LEN(A843)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A843)-LEN(SUBSTITUTE(A843,";",""))+1))*LEN(A843)+1,LEN(A843)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="855">
       <c r="B855">
-        <f t="array" aca="1" ref="B855" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A846,";",REPT(" ",LEN(A846)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A846)-LEN(SUBSTITUTE(A846,";",""))+1))*LEN(A846)+1,LEN(A846)+1)))</f>
+        <f t="array" aca="1" ref="B855" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A844,";",REPT(" ",LEN(A844)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A844)-LEN(SUBSTITUTE(A844,";",""))+1))*LEN(A844)+1,LEN(A844)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="856">
       <c r="B856">
-        <f t="array" aca="1" ref="B856" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A847,";",REPT(" ",LEN(A847)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A847)-LEN(SUBSTITUTE(A847,";",""))+1))*LEN(A847)+1,LEN(A847)+1)))</f>
+        <f t="array" aca="1" ref="B856" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A845,";",REPT(" ",LEN(A845)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A845)-LEN(SUBSTITUTE(A845,";",""))+1))*LEN(A845)+1,LEN(A845)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="857">
       <c r="B857">
-        <f t="array" aca="1" ref="B857" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A848,";",REPT(" ",LEN(A848)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A848)-LEN(SUBSTITUTE(A848,";",""))+1))*LEN(A848)+1,LEN(A848)+1)))</f>
+        <f t="array" aca="1" ref="B857" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A846,";",REPT(" ",LEN(A846)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A846)-LEN(SUBSTITUTE(A846,";",""))+1))*LEN(A846)+1,LEN(A846)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="858">
       <c r="B858">
-        <f t="array" aca="1" ref="B858" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A849,";",REPT(" ",LEN(A849)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A849)-LEN(SUBSTITUTE(A849,";",""))+1))*LEN(A849)+1,LEN(A849)+1)))</f>
+        <f t="array" aca="1" ref="B858" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A847,";",REPT(" ",LEN(A847)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A847)-LEN(SUBSTITUTE(A847,";",""))+1))*LEN(A847)+1,LEN(A847)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="859">
       <c r="B859">
-        <f t="array" aca="1" ref="B859" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A850,";",REPT(" ",LEN(A850)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A850)-LEN(SUBSTITUTE(A850,";",""))+1))*LEN(A850)+1,LEN(A850)+1)))</f>
+        <f t="array" aca="1" ref="B859" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A848,";",REPT(" ",LEN(A848)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A848)-LEN(SUBSTITUTE(A848,";",""))+1))*LEN(A848)+1,LEN(A848)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="860">
       <c r="B860">
-        <f t="array" aca="1" ref="B860" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A851,";",REPT(" ",LEN(A851)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A851)-LEN(SUBSTITUTE(A851,";",""))+1))*LEN(A851)+1,LEN(A851)+1)))</f>
+        <f t="array" aca="1" ref="B860" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A849,";",REPT(" ",LEN(A849)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A849)-LEN(SUBSTITUTE(A849,";",""))+1))*LEN(A849)+1,LEN(A849)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="861">
       <c r="B861">
-        <f t="array" aca="1" ref="B861" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A852,";",REPT(" ",LEN(A852)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A852)-LEN(SUBSTITUTE(A852,";",""))+1))*LEN(A852)+1,LEN(A852)+1)))</f>
+        <f t="array" aca="1" ref="B861" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A850,";",REPT(" ",LEN(A850)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A850)-LEN(SUBSTITUTE(A850,";",""))+1))*LEN(A850)+1,LEN(A850)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="862">
       <c r="B862">
-        <f t="array" aca="1" ref="B862" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A853,";",REPT(" ",LEN(A853)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A853)-LEN(SUBSTITUTE(A853,";",""))+1))*LEN(A853)+1,LEN(A853)+1)))</f>
+        <f t="array" aca="1" ref="B862" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A851,";",REPT(" ",LEN(A851)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A851)-LEN(SUBSTITUTE(A851,";",""))+1))*LEN(A851)+1,LEN(A851)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="863">
       <c r="B863">
-        <f t="array" aca="1" ref="B863" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A854,";",REPT(" ",LEN(A854)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A854)-LEN(SUBSTITUTE(A854,";",""))+1))*LEN(A854)+1,LEN(A854)+1)))</f>
+        <f t="array" aca="1" ref="B863" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A852,";",REPT(" ",LEN(A852)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A852)-LEN(SUBSTITUTE(A852,";",""))+1))*LEN(A852)+1,LEN(A852)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="864">
       <c r="B864">
-        <f t="array" aca="1" ref="B864" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A855,";",REPT(" ",LEN(A855)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A855)-LEN(SUBSTITUTE(A855,";",""))+1))*LEN(A855)+1,LEN(A855)+1)))</f>
+        <f t="array" aca="1" ref="B864" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A853,";",REPT(" ",LEN(A853)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A853)-LEN(SUBSTITUTE(A853,";",""))+1))*LEN(A853)+1,LEN(A853)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="865">
       <c r="B865">
-        <f t="array" aca="1" ref="B865" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A856,";",REPT(" ",LEN(A856)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A856)-LEN(SUBSTITUTE(A856,";",""))+1))*LEN(A856)+1,LEN(A856)+1)))</f>
+        <f t="array" aca="1" ref="B865" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A854,";",REPT(" ",LEN(A854)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A854)-LEN(SUBSTITUTE(A854,";",""))+1))*LEN(A854)+1,LEN(A854)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="866">
       <c r="B866">
-        <f t="array" aca="1" ref="B866" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A857,";",REPT(" ",LEN(A857)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A857)-LEN(SUBSTITUTE(A857,";",""))+1))*LEN(A857)+1,LEN(A857)+1)))</f>
+        <f t="array" aca="1" ref="B866" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A855,";",REPT(" ",LEN(A855)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A855)-LEN(SUBSTITUTE(A855,";",""))+1))*LEN(A855)+1,LEN(A855)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="867">
       <c r="B867">
-        <f t="array" aca="1" ref="B867" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A858,";",REPT(" ",LEN(A858)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A858)-LEN(SUBSTITUTE(A858,";",""))+1))*LEN(A858)+1,LEN(A858)+1)))</f>
+        <f t="array" aca="1" ref="B867" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A856,";",REPT(" ",LEN(A856)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A856)-LEN(SUBSTITUTE(A856,";",""))+1))*LEN(A856)+1,LEN(A856)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="868">
       <c r="B868">
-        <f t="array" aca="1" ref="B868" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A859,";",REPT(" ",LEN(A859)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A859)-LEN(SUBSTITUTE(A859,";",""))+1))*LEN(A859)+1,LEN(A859)+1)))</f>
+        <f t="array" aca="1" ref="B868" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A857,";",REPT(" ",LEN(A857)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A857)-LEN(SUBSTITUTE(A857,";",""))+1))*LEN(A857)+1,LEN(A857)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="869">
       <c r="B869">
-        <f t="array" aca="1" ref="B869" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A860,";",REPT(" ",LEN(A860)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A860)-LEN(SUBSTITUTE(A860,";",""))+1))*LEN(A860)+1,LEN(A860)+1)))</f>
+        <f t="array" aca="1" ref="B869" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A858,";",REPT(" ",LEN(A858)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A858)-LEN(SUBSTITUTE(A858,";",""))+1))*LEN(A858)+1,LEN(A858)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="870">
       <c r="B870">
-        <f t="array" aca="1" ref="B870" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A861,";",REPT(" ",LEN(A861)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A861)-LEN(SUBSTITUTE(A861,";",""))+1))*LEN(A861)+1,LEN(A861)+1)))</f>
+        <f t="array" aca="1" ref="B870" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A859,";",REPT(" ",LEN(A859)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A859)-LEN(SUBSTITUTE(A859,";",""))+1))*LEN(A859)+1,LEN(A859)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="871">
       <c r="B871">
-        <f t="array" aca="1" ref="B871" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A862,";",REPT(" ",LEN(A862)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A862)-LEN(SUBSTITUTE(A862,";",""))+1))*LEN(A862)+1,LEN(A862)+1)))</f>
+        <f t="array" aca="1" ref="B871" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A860,";",REPT(" ",LEN(A860)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A860)-LEN(SUBSTITUTE(A860,";",""))+1))*LEN(A860)+1,LEN(A860)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="872">
       <c r="B872">
-        <f t="array" aca="1" ref="B872" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A863,";",REPT(" ",LEN(A863)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A863)-LEN(SUBSTITUTE(A863,";",""))+1))*LEN(A863)+1,LEN(A863)+1)))</f>
+        <f t="array" aca="1" ref="B872" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A861,";",REPT(" ",LEN(A861)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A861)-LEN(SUBSTITUTE(A861,";",""))+1))*LEN(A861)+1,LEN(A861)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="873">
       <c r="B873">
-        <f t="array" aca="1" ref="B873" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A864,";",REPT(" ",LEN(A864)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A864)-LEN(SUBSTITUTE(A864,";",""))+1))*LEN(A864)+1,LEN(A864)+1)))</f>
+        <f t="array" aca="1" ref="B873" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A862,";",REPT(" ",LEN(A862)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A862)-LEN(SUBSTITUTE(A862,";",""))+1))*LEN(A862)+1,LEN(A862)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="874">
       <c r="B874">
-        <f t="array" aca="1" ref="B874" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A865,";",REPT(" ",LEN(A865)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A865)-LEN(SUBSTITUTE(A865,";",""))+1))*LEN(A865)+1,LEN(A865)+1)))</f>
+        <f t="array" aca="1" ref="B874" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A863,";",REPT(" ",LEN(A863)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A863)-LEN(SUBSTITUTE(A863,";",""))+1))*LEN(A863)+1,LEN(A863)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="875">
       <c r="B875">
-        <f t="array" aca="1" ref="B875" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A866,";",REPT(" ",LEN(A866)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A866)-LEN(SUBSTITUTE(A866,";",""))+1))*LEN(A866)+1,LEN(A866)+1)))</f>
+        <f t="array" aca="1" ref="B875" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A864,";",REPT(" ",LEN(A864)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A864)-LEN(SUBSTITUTE(A864,";",""))+1))*LEN(A864)+1,LEN(A864)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="876">
       <c r="B876">
-        <f t="array" aca="1" ref="B876" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A867,";",REPT(" ",LEN(A867)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A867)-LEN(SUBSTITUTE(A867,";",""))+1))*LEN(A867)+1,LEN(A867)+1)))</f>
+        <f t="array" aca="1" ref="B876" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A865,";",REPT(" ",LEN(A865)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A865)-LEN(SUBSTITUTE(A865,";",""))+1))*LEN(A865)+1,LEN(A865)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="877">
       <c r="B877">
-        <f t="array" aca="1" ref="B877" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A868,";",REPT(" ",LEN(A868)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A868)-LEN(SUBSTITUTE(A868,";",""))+1))*LEN(A868)+1,LEN(A868)+1)))</f>
+        <f t="array" aca="1" ref="B877" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A866,";",REPT(" ",LEN(A866)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A866)-LEN(SUBSTITUTE(A866,";",""))+1))*LEN(A866)+1,LEN(A866)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="878">
       <c r="B878">
-        <f t="array" aca="1" ref="B878" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A869,";",REPT(" ",LEN(A869)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A869)-LEN(SUBSTITUTE(A869,";",""))+1))*LEN(A869)+1,LEN(A869)+1)))</f>
+        <f t="array" aca="1" ref="B878" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A867,";",REPT(" ",LEN(A867)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A867)-LEN(SUBSTITUTE(A867,";",""))+1))*LEN(A867)+1,LEN(A867)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="879">
       <c r="B879">
-        <f t="array" aca="1" ref="B879" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A870,";",REPT(" ",LEN(A870)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A870)-LEN(SUBSTITUTE(A870,";",""))+1))*LEN(A870)+1,LEN(A870)+1)))</f>
+        <f t="array" aca="1" ref="B879" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A868,";",REPT(" ",LEN(A868)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A868)-LEN(SUBSTITUTE(A868,";",""))+1))*LEN(A868)+1,LEN(A868)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="880">
       <c r="B880">
-        <f t="array" aca="1" ref="B880" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A871,";",REPT(" ",LEN(A871)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A871)-LEN(SUBSTITUTE(A871,";",""))+1))*LEN(A871)+1,LEN(A871)+1)))</f>
+        <f t="array" aca="1" ref="B880" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A869,";",REPT(" ",LEN(A869)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A869)-LEN(SUBSTITUTE(A869,";",""))+1))*LEN(A869)+1,LEN(A869)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="881">
       <c r="B881">
-        <f t="array" aca="1" ref="B881" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A872,";",REPT(" ",LEN(A872)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A872)-LEN(SUBSTITUTE(A872,";",""))+1))*LEN(A872)+1,LEN(A872)+1)))</f>
+        <f t="array" aca="1" ref="B881" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A870,";",REPT(" ",LEN(A870)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A870)-LEN(SUBSTITUTE(A870,";",""))+1))*LEN(A870)+1,LEN(A870)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="882">
       <c r="B882">
-        <f t="array" aca="1" ref="B882" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A873,";",REPT(" ",LEN(A873)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A873)-LEN(SUBSTITUTE(A873,";",""))+1))*LEN(A873)+1,LEN(A873)+1)))</f>
+        <f t="array" aca="1" ref="B882" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A871,";",REPT(" ",LEN(A871)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A871)-LEN(SUBSTITUTE(A871,";",""))+1))*LEN(A871)+1,LEN(A871)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="883">
       <c r="B883">
-        <f t="array" aca="1" ref="B883" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A874,";",REPT(" ",LEN(A874)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A874)-LEN(SUBSTITUTE(A874,";",""))+1))*LEN(A874)+1,LEN(A874)+1)))</f>
+        <f t="array" aca="1" ref="B883" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A872,";",REPT(" ",LEN(A872)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A872)-LEN(SUBSTITUTE(A872,";",""))+1))*LEN(A872)+1,LEN(A872)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="884">
       <c r="B884">
-        <f t="array" aca="1" ref="B884" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A875,";",REPT(" ",LEN(A875)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A875)-LEN(SUBSTITUTE(A875,";",""))+1))*LEN(A875)+1,LEN(A875)+1)))</f>
+        <f t="array" aca="1" ref="B884" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A873,";",REPT(" ",LEN(A873)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A873)-LEN(SUBSTITUTE(A873,";",""))+1))*LEN(A873)+1,LEN(A873)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="885">
       <c r="B885">
-        <f t="array" aca="1" ref="B885" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A876,";",REPT(" ",LEN(A876)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A876)-LEN(SUBSTITUTE(A876,";",""))+1))*LEN(A876)+1,LEN(A876)+1)))</f>
+        <f t="array" aca="1" ref="B885" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A874,";",REPT(" ",LEN(A874)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A874)-LEN(SUBSTITUTE(A874,";",""))+1))*LEN(A874)+1,LEN(A874)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="886">
       <c r="B886">
-        <f t="array" aca="1" ref="B886" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A877,";",REPT(" ",LEN(A877)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A877)-LEN(SUBSTITUTE(A877,";",""))+1))*LEN(A877)+1,LEN(A877)+1)))</f>
+        <f t="array" aca="1" ref="B886" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A875,";",REPT(" ",LEN(A875)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A875)-LEN(SUBSTITUTE(A875,";",""))+1))*LEN(A875)+1,LEN(A875)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="887">
       <c r="B887">
-        <f t="array" aca="1" ref="B887" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A878,";",REPT(" ",LEN(A878)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A878)-LEN(SUBSTITUTE(A878,";",""))+1))*LEN(A878)+1,LEN(A878)+1)))</f>
+        <f t="array" aca="1" ref="B887" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A876,";",REPT(" ",LEN(A876)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A876)-LEN(SUBSTITUTE(A876,";",""))+1))*LEN(A876)+1,LEN(A876)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="888">
       <c r="B888">
-        <f t="array" aca="1" ref="B888" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A879,";",REPT(" ",LEN(A879)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A879)-LEN(SUBSTITUTE(A879,";",""))+1))*LEN(A879)+1,LEN(A879)+1)))</f>
+        <f t="array" aca="1" ref="B888" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A877,";",REPT(" ",LEN(A877)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A877)-LEN(SUBSTITUTE(A877,";",""))+1))*LEN(A877)+1,LEN(A877)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="889">
       <c r="B889">
-        <f t="array" aca="1" ref="B889" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A880,";",REPT(" ",LEN(A880)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A880)-LEN(SUBSTITUTE(A880,";",""))+1))*LEN(A880)+1,LEN(A880)+1)))</f>
+        <f t="array" aca="1" ref="B889" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A878,";",REPT(" ",LEN(A878)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A878)-LEN(SUBSTITUTE(A878,";",""))+1))*LEN(A878)+1,LEN(A878)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="890">
       <c r="B890">
-        <f t="array" aca="1" ref="B890" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A881,";",REPT(" ",LEN(A881)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A881)-LEN(SUBSTITUTE(A881,";",""))+1))*LEN(A881)+1,LEN(A881)+1)))</f>
+        <f t="array" aca="1" ref="B890" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A879,";",REPT(" ",LEN(A879)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A879)-LEN(SUBSTITUTE(A879,";",""))+1))*LEN(A879)+1,LEN(A879)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="891">
       <c r="B891">
-        <f t="array" aca="1" ref="B891" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A882,";",REPT(" ",LEN(A882)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A882)-LEN(SUBSTITUTE(A882,";",""))+1))*LEN(A882)+1,LEN(A882)+1)))</f>
+        <f t="array" aca="1" ref="B891" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A880,";",REPT(" ",LEN(A880)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A880)-LEN(SUBSTITUTE(A880,";",""))+1))*LEN(A880)+1,LEN(A880)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="892">
       <c r="B892">
-        <f t="array" aca="1" ref="B892" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A883,";",REPT(" ",LEN(A883)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A883)-LEN(SUBSTITUTE(A883,";",""))+1))*LEN(A883)+1,LEN(A883)+1)))</f>
+        <f t="array" aca="1" ref="B892" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A881,";",REPT(" ",LEN(A881)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A881)-LEN(SUBSTITUTE(A881,";",""))+1))*LEN(A881)+1,LEN(A881)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="893">
       <c r="B893">
-        <f t="array" aca="1" ref="B893" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A884,";",REPT(" ",LEN(A884)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A884)-LEN(SUBSTITUTE(A884,";",""))+1))*LEN(A884)+1,LEN(A884)+1)))</f>
+        <f t="array" aca="1" ref="B893" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A882,";",REPT(" ",LEN(A882)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A882)-LEN(SUBSTITUTE(A882,";",""))+1))*LEN(A882)+1,LEN(A882)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="894">
       <c r="B894">
-        <f t="array" aca="1" ref="B894" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A885,";",REPT(" ",LEN(A885)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A885)-LEN(SUBSTITUTE(A885,";",""))+1))*LEN(A885)+1,LEN(A885)+1)))</f>
+        <f t="array" aca="1" ref="B894" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A883,";",REPT(" ",LEN(A883)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A883)-LEN(SUBSTITUTE(A883,";",""))+1))*LEN(A883)+1,LEN(A883)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="895">
       <c r="B895">
-        <f t="array" aca="1" ref="B895" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A886,";",REPT(" ",LEN(A886)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A886)-LEN(SUBSTITUTE(A886,";",""))+1))*LEN(A886)+1,LEN(A886)+1)))</f>
+        <f t="array" aca="1" ref="B895" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A884,";",REPT(" ",LEN(A884)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A884)-LEN(SUBSTITUTE(A884,";",""))+1))*LEN(A884)+1,LEN(A884)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="896">
       <c r="B896">
-        <f t="array" aca="1" ref="B896" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A887,";",REPT(" ",LEN(A887)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A887)-LEN(SUBSTITUTE(A887,";",""))+1))*LEN(A887)+1,LEN(A887)+1)))</f>
+        <f t="array" aca="1" ref="B896" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A885,";",REPT(" ",LEN(A885)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A885)-LEN(SUBSTITUTE(A885,";",""))+1))*LEN(A885)+1,LEN(A885)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="897">
       <c r="B897">
-        <f t="array" aca="1" ref="B897" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A888,";",REPT(" ",LEN(A888)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A888)-LEN(SUBSTITUTE(A888,";",""))+1))*LEN(A888)+1,LEN(A888)+1)))</f>
+        <f t="array" aca="1" ref="B897" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A886,";",REPT(" ",LEN(A886)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A886)-LEN(SUBSTITUTE(A886,";",""))+1))*LEN(A886)+1,LEN(A886)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="898">
       <c r="B898">
-        <f t="array" aca="1" ref="B898" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A889,";",REPT(" ",LEN(A889)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A889)-LEN(SUBSTITUTE(A889,";",""))+1))*LEN(A889)+1,LEN(A889)+1)))</f>
+        <f t="array" aca="1" ref="B898" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A887,";",REPT(" ",LEN(A887)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A887)-LEN(SUBSTITUTE(A887,";",""))+1))*LEN(A887)+1,LEN(A887)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="899">
       <c r="B899">
-        <f t="array" aca="1" ref="B899" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A890,";",REPT(" ",LEN(A890)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A890)-LEN(SUBSTITUTE(A890,";",""))+1))*LEN(A890)+1,LEN(A890)+1)))</f>
+        <f t="array" aca="1" ref="B899" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A888,";",REPT(" ",LEN(A888)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A888)-LEN(SUBSTITUTE(A888,";",""))+1))*LEN(A888)+1,LEN(A888)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="900">
       <c r="B900">
-        <f t="array" aca="1" ref="B900" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A891,";",REPT(" ",LEN(A891)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A891)-LEN(SUBSTITUTE(A891,";",""))+1))*LEN(A891)+1,LEN(A891)+1)))</f>
+        <f t="array" aca="1" ref="B900" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A889,";",REPT(" ",LEN(A889)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A889)-LEN(SUBSTITUTE(A889,";",""))+1))*LEN(A889)+1,LEN(A889)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="901">
       <c r="B901">
-        <f t="array" aca="1" ref="B901" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A892,";",REPT(" ",LEN(A892)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A892)-LEN(SUBSTITUTE(A892,";",""))+1))*LEN(A892)+1,LEN(A892)+1)))</f>
+        <f t="array" aca="1" ref="B901" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A890,";",REPT(" ",LEN(A890)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A890)-LEN(SUBSTITUTE(A890,";",""))+1))*LEN(A890)+1,LEN(A890)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="902">
       <c r="B902">
-        <f t="array" aca="1" ref="B902" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A893,";",REPT(" ",LEN(A893)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A893)-LEN(SUBSTITUTE(A893,";",""))+1))*LEN(A893)+1,LEN(A893)+1)))</f>
+        <f t="array" aca="1" ref="B902" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A891,";",REPT(" ",LEN(A891)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A891)-LEN(SUBSTITUTE(A891,";",""))+1))*LEN(A891)+1,LEN(A891)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="903">
       <c r="B903">
-        <f t="array" aca="1" ref="B903" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A894,";",REPT(" ",LEN(A894)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A894)-LEN(SUBSTITUTE(A894,";",""))+1))*LEN(A894)+1,LEN(A894)+1)))</f>
+        <f t="array" aca="1" ref="B903" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A892,";",REPT(" ",LEN(A892)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A892)-LEN(SUBSTITUTE(A892,";",""))+1))*LEN(A892)+1,LEN(A892)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="904">
       <c r="B904">
-        <f t="array" aca="1" ref="B904" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A895,";",REPT(" ",LEN(A895)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A895)-LEN(SUBSTITUTE(A895,";",""))+1))*LEN(A895)+1,LEN(A895)+1)))</f>
+        <f t="array" aca="1" ref="B904" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A893,";",REPT(" ",LEN(A893)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A893)-LEN(SUBSTITUTE(A893,";",""))+1))*LEN(A893)+1,LEN(A893)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="905">
       <c r="B905">
-        <f t="array" aca="1" ref="B905" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A896,";",REPT(" ",LEN(A896)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A896)-LEN(SUBSTITUTE(A896,";",""))+1))*LEN(A896)+1,LEN(A896)+1)))</f>
+        <f t="array" aca="1" ref="B905" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A894,";",REPT(" ",LEN(A894)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A894)-LEN(SUBSTITUTE(A894,";",""))+1))*LEN(A894)+1,LEN(A894)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="906">
       <c r="B906">
-        <f t="array" aca="1" ref="B906" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A897,";",REPT(" ",LEN(A897)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A897)-LEN(SUBSTITUTE(A897,";",""))+1))*LEN(A897)+1,LEN(A897)+1)))</f>
+        <f t="array" aca="1" ref="B906" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A895,";",REPT(" ",LEN(A895)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A895)-LEN(SUBSTITUTE(A895,";",""))+1))*LEN(A895)+1,LEN(A895)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="907">
       <c r="B907">
-        <f t="array" aca="1" ref="B907" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A898,";",REPT(" ",LEN(A898)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A898)-LEN(SUBSTITUTE(A898,";",""))+1))*LEN(A898)+1,LEN(A898)+1)))</f>
+        <f t="array" aca="1" ref="B907" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A896,";",REPT(" ",LEN(A896)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A896)-LEN(SUBSTITUTE(A896,";",""))+1))*LEN(A896)+1,LEN(A896)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="908">
       <c r="B908">
-        <f t="array" aca="1" ref="B908" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A899,";",REPT(" ",LEN(A899)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A899)-LEN(SUBSTITUTE(A899,";",""))+1))*LEN(A899)+1,LEN(A899)+1)))</f>
+        <f t="array" aca="1" ref="B908" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A897,";",REPT(" ",LEN(A897)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A897)-LEN(SUBSTITUTE(A897,";",""))+1))*LEN(A897)+1,LEN(A897)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="909">
       <c r="B909">
-        <f t="array" aca="1" ref="B909" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A900,";",REPT(" ",LEN(A900)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A900)-LEN(SUBSTITUTE(A900,";",""))+1))*LEN(A900)+1,LEN(A900)+1)))</f>
+        <f t="array" aca="1" ref="B909" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A898,";",REPT(" ",LEN(A898)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A898)-LEN(SUBSTITUTE(A898,";",""))+1))*LEN(A898)+1,LEN(A898)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="910">
       <c r="B910">
-        <f t="array" aca="1" ref="B910" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A901,";",REPT(" ",LEN(A901)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A901)-LEN(SUBSTITUTE(A901,";",""))+1))*LEN(A901)+1,LEN(A901)+1)))</f>
+        <f t="array" aca="1" ref="B910" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A899,";",REPT(" ",LEN(A899)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A899)-LEN(SUBSTITUTE(A899,";",""))+1))*LEN(A899)+1,LEN(A899)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="911">
       <c r="B911">
-        <f t="array" aca="1" ref="B911" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A902,";",REPT(" ",LEN(A902)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A902)-LEN(SUBSTITUTE(A902,";",""))+1))*LEN(A902)+1,LEN(A902)+1)))</f>
+        <f t="array" aca="1" ref="B911" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A900,";",REPT(" ",LEN(A900)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A900)-LEN(SUBSTITUTE(A900,";",""))+1))*LEN(A900)+1,LEN(A900)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="912">
       <c r="B912">
-        <f t="array" aca="1" ref="B912" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A903,";",REPT(" ",LEN(A903)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A903)-LEN(SUBSTITUTE(A903,";",""))+1))*LEN(A903)+1,LEN(A903)+1)))</f>
+        <f t="array" aca="1" ref="B912" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A901,";",REPT(" ",LEN(A901)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A901)-LEN(SUBSTITUTE(A901,";",""))+1))*LEN(A901)+1,LEN(A901)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="913">
       <c r="B913">
-        <f t="array" aca="1" ref="B913" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A904,";",REPT(" ",LEN(A904)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A904)-LEN(SUBSTITUTE(A904,";",""))+1))*LEN(A904)+1,LEN(A904)+1)))</f>
+        <f t="array" aca="1" ref="B913" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A902,";",REPT(" ",LEN(A902)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A902)-LEN(SUBSTITUTE(A902,";",""))+1))*LEN(A902)+1,LEN(A902)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="914">
       <c r="B914">
-        <f t="array" aca="1" ref="B914" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A905,";",REPT(" ",LEN(A905)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A905)-LEN(SUBSTITUTE(A905,";",""))+1))*LEN(A905)+1,LEN(A905)+1)))</f>
+        <f t="array" aca="1" ref="B914" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A903,";",REPT(" ",LEN(A903)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A903)-LEN(SUBSTITUTE(A903,";",""))+1))*LEN(A903)+1,LEN(A903)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="915">
       <c r="B915">
-        <f t="array" aca="1" ref="B915" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A906,";",REPT(" ",LEN(A906)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A906)-LEN(SUBSTITUTE(A906,";",""))+1))*LEN(A906)+1,LEN(A906)+1)))</f>
+        <f t="array" aca="1" ref="B915" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A904,";",REPT(" ",LEN(A904)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A904)-LEN(SUBSTITUTE(A904,";",""))+1))*LEN(A904)+1,LEN(A904)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="916">
       <c r="B916">
-        <f t="array" aca="1" ref="B916" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A907,";",REPT(" ",LEN(A907)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A907)-LEN(SUBSTITUTE(A907,";",""))+1))*LEN(A907)+1,LEN(A907)+1)))</f>
+        <f t="array" aca="1" ref="B916" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A905,";",REPT(" ",LEN(A905)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A905)-LEN(SUBSTITUTE(A905,";",""))+1))*LEN(A905)+1,LEN(A905)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="917">
       <c r="B917">
-        <f t="array" aca="1" ref="B917" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A908,";",REPT(" ",LEN(A908)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A908)-LEN(SUBSTITUTE(A908,";",""))+1))*LEN(A908)+1,LEN(A908)+1)))</f>
+        <f t="array" aca="1" ref="B917" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A906,";",REPT(" ",LEN(A906)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A906)-LEN(SUBSTITUTE(A906,";",""))+1))*LEN(A906)+1,LEN(A906)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="918">
       <c r="B918">
-        <f t="array" aca="1" ref="B918" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A909,";",REPT(" ",LEN(A909)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A909)-LEN(SUBSTITUTE(A909,";",""))+1))*LEN(A909)+1,LEN(A909)+1)))</f>
+        <f t="array" aca="1" ref="B918" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A907,";",REPT(" ",LEN(A907)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A907)-LEN(SUBSTITUTE(A907,";",""))+1))*LEN(A907)+1,LEN(A907)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="919">
       <c r="B919">
-        <f t="array" aca="1" ref="B919" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A910,";",REPT(" ",LEN(A910)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A910)-LEN(SUBSTITUTE(A910,";",""))+1))*LEN(A910)+1,LEN(A910)+1)))</f>
+        <f t="array" aca="1" ref="B919" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A908,";",REPT(" ",LEN(A908)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A908)-LEN(SUBSTITUTE(A908,";",""))+1))*LEN(A908)+1,LEN(A908)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="920">
       <c r="B920">
-        <f t="array" aca="1" ref="B920" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A911,";",REPT(" ",LEN(A911)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A911)-LEN(SUBSTITUTE(A911,";",""))+1))*LEN(A911)+1,LEN(A911)+1)))</f>
+        <f t="array" aca="1" ref="B920" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A909,";",REPT(" ",LEN(A909)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A909)-LEN(SUBSTITUTE(A909,";",""))+1))*LEN(A909)+1,LEN(A909)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="921">
       <c r="B921">
-        <f t="array" aca="1" ref="B921" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A912,";",REPT(" ",LEN(A912)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A912)-LEN(SUBSTITUTE(A912,";",""))+1))*LEN(A912)+1,LEN(A912)+1)))</f>
+        <f t="array" aca="1" ref="B921" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A910,";",REPT(" ",LEN(A910)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A910)-LEN(SUBSTITUTE(A910,";",""))+1))*LEN(A910)+1,LEN(A910)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="922">
       <c r="B922">
-        <f t="array" aca="1" ref="B922" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A913,";",REPT(" ",LEN(A913)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A913)-LEN(SUBSTITUTE(A913,";",""))+1))*LEN(A913)+1,LEN(A913)+1)))</f>
+        <f t="array" aca="1" ref="B922" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A911,";",REPT(" ",LEN(A911)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A911)-LEN(SUBSTITUTE(A911,";",""))+1))*LEN(A911)+1,LEN(A911)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="923">
       <c r="B923">
-        <f t="array" aca="1" ref="B923" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A914,";",REPT(" ",LEN(A914)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A914)-LEN(SUBSTITUTE(A914,";",""))+1))*LEN(A914)+1,LEN(A914)+1)))</f>
+        <f t="array" aca="1" ref="B923" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A912,";",REPT(" ",LEN(A912)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A912)-LEN(SUBSTITUTE(A912,";",""))+1))*LEN(A912)+1,LEN(A912)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="924">
       <c r="B924">
-        <f t="array" aca="1" ref="B924" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A915,";",REPT(" ",LEN(A915)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A915)-LEN(SUBSTITUTE(A915,";",""))+1))*LEN(A915)+1,LEN(A915)+1)))</f>
+        <f t="array" aca="1" ref="B924" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A913,";",REPT(" ",LEN(A913)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A913)-LEN(SUBSTITUTE(A913,";",""))+1))*LEN(A913)+1,LEN(A913)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="925">
       <c r="B925">
-        <f t="array" aca="1" ref="B925" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A916,";",REPT(" ",LEN(A916)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A916)-LEN(SUBSTITUTE(A916,";",""))+1))*LEN(A916)+1,LEN(A916)+1)))</f>
+        <f t="array" aca="1" ref="B925" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A914,";",REPT(" ",LEN(A914)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A914)-LEN(SUBSTITUTE(A914,";",""))+1))*LEN(A914)+1,LEN(A914)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="926">
       <c r="B926">
-        <f t="array" aca="1" ref="B926" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A917,";",REPT(" ",LEN(A917)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A917)-LEN(SUBSTITUTE(A917,";",""))+1))*LEN(A917)+1,LEN(A917)+1)))</f>
+        <f t="array" aca="1" ref="B926" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A915,";",REPT(" ",LEN(A915)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A915)-LEN(SUBSTITUTE(A915,";",""))+1))*LEN(A915)+1,LEN(A915)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="927">
       <c r="B927">
-        <f t="array" aca="1" ref="B927" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A918,";",REPT(" ",LEN(A918)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A918)-LEN(SUBSTITUTE(A918,";",""))+1))*LEN(A918)+1,LEN(A918)+1)))</f>
+        <f t="array" aca="1" ref="B927" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A916,";",REPT(" ",LEN(A916)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A916)-LEN(SUBSTITUTE(A916,";",""))+1))*LEN(A916)+1,LEN(A916)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="928">
       <c r="B928">
-        <f t="array" aca="1" ref="B928" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A919,";",REPT(" ",LEN(A919)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A919)-LEN(SUBSTITUTE(A919,";",""))+1))*LEN(A919)+1,LEN(A919)+1)))</f>
+        <f t="array" aca="1" ref="B928" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A917,";",REPT(" ",LEN(A917)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A917)-LEN(SUBSTITUTE(A917,";",""))+1))*LEN(A917)+1,LEN(A917)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="929">
       <c r="B929">
-        <f t="array" aca="1" ref="B929" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A920,";",REPT(" ",LEN(A920)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A920)-LEN(SUBSTITUTE(A920,";",""))+1))*LEN(A920)+1,LEN(A920)+1)))</f>
+        <f t="array" aca="1" ref="B929" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A918,";",REPT(" ",LEN(A918)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A918)-LEN(SUBSTITUTE(A918,";",""))+1))*LEN(A918)+1,LEN(A918)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="930">
       <c r="B930">
-        <f t="array" aca="1" ref="B930" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A921,";",REPT(" ",LEN(A921)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A921)-LEN(SUBSTITUTE(A921,";",""))+1))*LEN(A921)+1,LEN(A921)+1)))</f>
+        <f t="array" aca="1" ref="B930" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A919,";",REPT(" ",LEN(A919)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A919)-LEN(SUBSTITUTE(A919,";",""))+1))*LEN(A919)+1,LEN(A919)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="931">
       <c r="B931">
-        <f t="array" aca="1" ref="B931" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A922,";",REPT(" ",LEN(A922)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A922)-LEN(SUBSTITUTE(A922,";",""))+1))*LEN(A922)+1,LEN(A922)+1)))</f>
+        <f t="array" aca="1" ref="B931" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A920,";",REPT(" ",LEN(A920)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A920)-LEN(SUBSTITUTE(A920,";",""))+1))*LEN(A920)+1,LEN(A920)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="932">
       <c r="B932">
-        <f t="array" aca="1" ref="B932" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A923,";",REPT(" ",LEN(A923)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A923)-LEN(SUBSTITUTE(A923,";",""))+1))*LEN(A923)+1,LEN(A923)+1)))</f>
+        <f t="array" aca="1" ref="B932" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A921,";",REPT(" ",LEN(A921)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A921)-LEN(SUBSTITUTE(A921,";",""))+1))*LEN(A921)+1,LEN(A921)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="933">
       <c r="B933">
-        <f t="array" aca="1" ref="B933" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A924,";",REPT(" ",LEN(A924)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A924)-LEN(SUBSTITUTE(A924,";",""))+1))*LEN(A924)+1,LEN(A924)+1)))</f>
+        <f t="array" aca="1" ref="B933" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A922,";",REPT(" ",LEN(A922)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A922)-LEN(SUBSTITUTE(A922,";",""))+1))*LEN(A922)+1,LEN(A922)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="934">
       <c r="B934">
-        <f t="array" aca="1" ref="B934" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A925,";",REPT(" ",LEN(A925)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A925)-LEN(SUBSTITUTE(A925,";",""))+1))*LEN(A925)+1,LEN(A925)+1)))</f>
+        <f t="array" aca="1" ref="B934" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A923,";",REPT(" ",LEN(A923)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A923)-LEN(SUBSTITUTE(A923,";",""))+1))*LEN(A923)+1,LEN(A923)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="935">
       <c r="B935">
-        <f t="array" aca="1" ref="B935" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A926,";",REPT(" ",LEN(A926)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A926)-LEN(SUBSTITUTE(A926,";",""))+1))*LEN(A926)+1,LEN(A926)+1)))</f>
+        <f t="array" aca="1" ref="B935" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A924,";",REPT(" ",LEN(A924)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A924)-LEN(SUBSTITUTE(A924,";",""))+1))*LEN(A924)+1,LEN(A924)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="936">
       <c r="B936">
-        <f t="array" aca="1" ref="B936" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A927,";",REPT(" ",LEN(A927)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A927)-LEN(SUBSTITUTE(A927,";",""))+1))*LEN(A927)+1,LEN(A927)+1)))</f>
+        <f t="array" aca="1" ref="B936" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A925,";",REPT(" ",LEN(A925)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A925)-LEN(SUBSTITUTE(A925,";",""))+1))*LEN(A925)+1,LEN(A925)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="937">
       <c r="B937">
-        <f t="array" aca="1" ref="B937" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A928,";",REPT(" ",LEN(A928)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A928)-LEN(SUBSTITUTE(A928,";",""))+1))*LEN(A928)+1,LEN(A928)+1)))</f>
+        <f t="array" aca="1" ref="B937" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A926,";",REPT(" ",LEN(A926)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A926)-LEN(SUBSTITUTE(A926,";",""))+1))*LEN(A926)+1,LEN(A926)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="938">
       <c r="B938">
-        <f t="array" aca="1" ref="B938" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A929,";",REPT(" ",LEN(A929)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A929)-LEN(SUBSTITUTE(A929,";",""))+1))*LEN(A929)+1,LEN(A929)+1)))</f>
+        <f t="array" aca="1" ref="B938" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A927,";",REPT(" ",LEN(A927)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A927)-LEN(SUBSTITUTE(A927,";",""))+1))*LEN(A927)+1,LEN(A927)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="939">
       <c r="B939">
-        <f t="array" aca="1" ref="B939" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A930,";",REPT(" ",LEN(A930)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A930)-LEN(SUBSTITUTE(A930,";",""))+1))*LEN(A930)+1,LEN(A930)+1)))</f>
+        <f t="array" aca="1" ref="B939" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A928,";",REPT(" ",LEN(A928)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A928)-LEN(SUBSTITUTE(A928,";",""))+1))*LEN(A928)+1,LEN(A928)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="940">
       <c r="B940">
-        <f t="array" aca="1" ref="B940" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A931,";",REPT(" ",LEN(A931)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A931)-LEN(SUBSTITUTE(A931,";",""))+1))*LEN(A931)+1,LEN(A931)+1)))</f>
+        <f t="array" aca="1" ref="B940" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A929,";",REPT(" ",LEN(A929)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A929)-LEN(SUBSTITUTE(A929,";",""))+1))*LEN(A929)+1,LEN(A929)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="941">
       <c r="B941">
-        <f t="array" aca="1" ref="B941" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A932,";",REPT(" ",LEN(A932)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A932)-LEN(SUBSTITUTE(A932,";",""))+1))*LEN(A932)+1,LEN(A932)+1)))</f>
+        <f t="array" aca="1" ref="B941" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A930,";",REPT(" ",LEN(A930)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A930)-LEN(SUBSTITUTE(A930,";",""))+1))*LEN(A930)+1,LEN(A930)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="942">
       <c r="B942">
-        <f t="array" aca="1" ref="B942" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A933,";",REPT(" ",LEN(A933)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A933)-LEN(SUBSTITUTE(A933,";",""))+1))*LEN(A933)+1,LEN(A933)+1)))</f>
+        <f t="array" aca="1" ref="B942" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A931,";",REPT(" ",LEN(A931)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A931)-LEN(SUBSTITUTE(A931,";",""))+1))*LEN(A931)+1,LEN(A931)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="943">
       <c r="B943">
-        <f t="array" aca="1" ref="B943" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A934,";",REPT(" ",LEN(A934)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A934)-LEN(SUBSTITUTE(A934,";",""))+1))*LEN(A934)+1,LEN(A934)+1)))</f>
+        <f t="array" aca="1" ref="B943" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A932,";",REPT(" ",LEN(A932)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A932)-LEN(SUBSTITUTE(A932,";",""))+1))*LEN(A932)+1,LEN(A932)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="944">
       <c r="B944">
-        <f t="array" aca="1" ref="B944" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A935,";",REPT(" ",LEN(A935)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A935)-LEN(SUBSTITUTE(A935,";",""))+1))*LEN(A935)+1,LEN(A935)+1)))</f>
+        <f t="array" aca="1" ref="B944" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A933,";",REPT(" ",LEN(A933)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A933)-LEN(SUBSTITUTE(A933,";",""))+1))*LEN(A933)+1,LEN(A933)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="945">
       <c r="B945">
-        <f t="array" aca="1" ref="B945" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A936,";",REPT(" ",LEN(A936)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A936)-LEN(SUBSTITUTE(A936,";",""))+1))*LEN(A936)+1,LEN(A936)+1)))</f>
+        <f t="array" aca="1" ref="B945" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A934,";",REPT(" ",LEN(A934)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A934)-LEN(SUBSTITUTE(A934,";",""))+1))*LEN(A934)+1,LEN(A934)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="946">
       <c r="B946">
-        <f t="array" aca="1" ref="B946" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A937,";",REPT(" ",LEN(A937)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A937)-LEN(SUBSTITUTE(A937,";",""))+1))*LEN(A937)+1,LEN(A937)+1)))</f>
+        <f t="array" aca="1" ref="B946" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A935,";",REPT(" ",LEN(A935)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A935)-LEN(SUBSTITUTE(A935,";",""))+1))*LEN(A935)+1,LEN(A935)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="947">
       <c r="B947">
-        <f t="array" aca="1" ref="B947" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A938,";",REPT(" ",LEN(A938)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A938)-LEN(SUBSTITUTE(A938,";",""))+1))*LEN(A938)+1,LEN(A938)+1)))</f>
+        <f t="array" aca="1" ref="B947" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A936,";",REPT(" ",LEN(A936)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A936)-LEN(SUBSTITUTE(A936,";",""))+1))*LEN(A936)+1,LEN(A936)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="948">
       <c r="B948">
-        <f t="array" aca="1" ref="B948" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A939,";",REPT(" ",LEN(A939)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A939)-LEN(SUBSTITUTE(A939,";",""))+1))*LEN(A939)+1,LEN(A939)+1)))</f>
+        <f t="array" aca="1" ref="B948" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A937,";",REPT(" ",LEN(A937)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A937)-LEN(SUBSTITUTE(A937,";",""))+1))*LEN(A937)+1,LEN(A937)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="949">
       <c r="B949">
-        <f t="array" aca="1" ref="B949" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A940,";",REPT(" ",LEN(A940)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A940)-LEN(SUBSTITUTE(A940,";",""))+1))*LEN(A940)+1,LEN(A940)+1)))</f>
+        <f t="array" aca="1" ref="B949" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A938,";",REPT(" ",LEN(A938)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A938)-LEN(SUBSTITUTE(A938,";",""))+1))*LEN(A938)+1,LEN(A938)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="950">
       <c r="B950">
-        <f t="array" aca="1" ref="B950" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A941,";",REPT(" ",LEN(A941)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A941)-LEN(SUBSTITUTE(A941,";",""))+1))*LEN(A941)+1,LEN(A941)+1)))</f>
+        <f t="array" aca="1" ref="B950" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A939,";",REPT(" ",LEN(A939)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A939)-LEN(SUBSTITUTE(A939,";",""))+1))*LEN(A939)+1,LEN(A939)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="951">
       <c r="B951">
-        <f t="array" aca="1" ref="B951" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A942,";",REPT(" ",LEN(A942)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A942)-LEN(SUBSTITUTE(A942,";",""))+1))*LEN(A942)+1,LEN(A942)+1)))</f>
+        <f t="array" aca="1" ref="B951" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A940,";",REPT(" ",LEN(A940)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A940)-LEN(SUBSTITUTE(A940,";",""))+1))*LEN(A940)+1,LEN(A940)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="952">
       <c r="B952">
-        <f t="array" aca="1" ref="B952" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A943,";",REPT(" ",LEN(A943)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A943)-LEN(SUBSTITUTE(A943,";",""))+1))*LEN(A943)+1,LEN(A943)+1)))</f>
+        <f t="array" aca="1" ref="B952" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A941,";",REPT(" ",LEN(A941)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A941)-LEN(SUBSTITUTE(A941,";",""))+1))*LEN(A941)+1,LEN(A941)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="953">
       <c r="B953">
-        <f t="array" aca="1" ref="B953" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A944,";",REPT(" ",LEN(A944)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A944)-LEN(SUBSTITUTE(A944,";",""))+1))*LEN(A944)+1,LEN(A944)+1)))</f>
+        <f t="array" aca="1" ref="B953" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A942,";",REPT(" ",LEN(A942)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A942)-LEN(SUBSTITUTE(A942,";",""))+1))*LEN(A942)+1,LEN(A942)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="954">
       <c r="B954">
-        <f t="array" aca="1" ref="B954" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A945,";",REPT(" ",LEN(A945)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A945)-LEN(SUBSTITUTE(A945,";",""))+1))*LEN(A945)+1,LEN(A945)+1)))</f>
+        <f t="array" aca="1" ref="B954" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A943,";",REPT(" ",LEN(A943)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A943)-LEN(SUBSTITUTE(A943,";",""))+1))*LEN(A943)+1,LEN(A943)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="955">
       <c r="B955">
-        <f t="array" aca="1" ref="B955" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A946,";",REPT(" ",LEN(A946)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A946)-LEN(SUBSTITUTE(A946,";",""))+1))*LEN(A946)+1,LEN(A946)+1)))</f>
+        <f t="array" aca="1" ref="B955" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A944,";",REPT(" ",LEN(A944)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A944)-LEN(SUBSTITUTE(A944,";",""))+1))*LEN(A944)+1,LEN(A944)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="956">
       <c r="B956">
-        <f t="array" aca="1" ref="B956" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A947,";",REPT(" ",LEN(A947)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A947)-LEN(SUBSTITUTE(A947,";",""))+1))*LEN(A947)+1,LEN(A947)+1)))</f>
+        <f t="array" aca="1" ref="B956" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A945,";",REPT(" ",LEN(A945)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A945)-LEN(SUBSTITUTE(A945,";",""))+1))*LEN(A945)+1,LEN(A945)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="957">
       <c r="B957">
-        <f t="array" aca="1" ref="B957" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A948,";",REPT(" ",LEN(A948)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A948)-LEN(SUBSTITUTE(A948,";",""))+1))*LEN(A948)+1,LEN(A948)+1)))</f>
+        <f t="array" aca="1" ref="B957" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A946,";",REPT(" ",LEN(A946)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A946)-LEN(SUBSTITUTE(A946,";",""))+1))*LEN(A946)+1,LEN(A946)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="958">
       <c r="B958">
-        <f t="array" aca="1" ref="B958" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A949,";",REPT(" ",LEN(A949)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A949)-LEN(SUBSTITUTE(A949,";",""))+1))*LEN(A949)+1,LEN(A949)+1)))</f>
+        <f t="array" aca="1" ref="B958" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A947,";",REPT(" ",LEN(A947)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A947)-LEN(SUBSTITUTE(A947,";",""))+1))*LEN(A947)+1,LEN(A947)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="959">
       <c r="B959">
-        <f t="array" aca="1" ref="B959" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A950,";",REPT(" ",LEN(A950)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A950)-LEN(SUBSTITUTE(A950,";",""))+1))*LEN(A950)+1,LEN(A950)+1)))</f>
+        <f t="array" aca="1" ref="B959" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A948,";",REPT(" ",LEN(A948)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A948)-LEN(SUBSTITUTE(A948,";",""))+1))*LEN(A948)+1,LEN(A948)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="960">
       <c r="B960">
-        <f t="array" aca="1" ref="B960" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A951,";",REPT(" ",LEN(A951)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A951)-LEN(SUBSTITUTE(A951,";",""))+1))*LEN(A951)+1,LEN(A951)+1)))</f>
+        <f t="array" aca="1" ref="B960" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A949,";",REPT(" ",LEN(A949)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A949)-LEN(SUBSTITUTE(A949,";",""))+1))*LEN(A949)+1,LEN(A949)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="961">
       <c r="B961">
-        <f t="array" aca="1" ref="B961" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A952,";",REPT(" ",LEN(A952)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A952)-LEN(SUBSTITUTE(A952,";",""))+1))*LEN(A952)+1,LEN(A952)+1)))</f>
+        <f t="array" aca="1" ref="B961" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A950,";",REPT(" ",LEN(A950)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A950)-LEN(SUBSTITUTE(A950,";",""))+1))*LEN(A950)+1,LEN(A950)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="962">
       <c r="B962">
-        <f t="array" aca="1" ref="B962" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A953,";",REPT(" ",LEN(A953)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A953)-LEN(SUBSTITUTE(A953,";",""))+1))*LEN(A953)+1,LEN(A953)+1)))</f>
+        <f t="array" aca="1" ref="B962" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A951,";",REPT(" ",LEN(A951)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A951)-LEN(SUBSTITUTE(A951,";",""))+1))*LEN(A951)+1,LEN(A951)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="963">
       <c r="B963">
-        <f t="array" aca="1" ref="B963" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A954,";",REPT(" ",LEN(A954)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A954)-LEN(SUBSTITUTE(A954,";",""))+1))*LEN(A954)+1,LEN(A954)+1)))</f>
+        <f t="array" aca="1" ref="B963" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A952,";",REPT(" ",LEN(A952)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A952)-LEN(SUBSTITUTE(A952,";",""))+1))*LEN(A952)+1,LEN(A952)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="964">
       <c r="B964">
-        <f t="array" aca="1" ref="B964" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A955,";",REPT(" ",LEN(A955)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A955)-LEN(SUBSTITUTE(A955,";",""))+1))*LEN(A955)+1,LEN(A955)+1)))</f>
+        <f t="array" aca="1" ref="B964" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A953,";",REPT(" ",LEN(A953)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A953)-LEN(SUBSTITUTE(A953,";",""))+1))*LEN(A953)+1,LEN(A953)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="965">
       <c r="B965">
-        <f t="array" aca="1" ref="B965" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A956,";",REPT(" ",LEN(A956)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A956)-LEN(SUBSTITUTE(A956,";",""))+1))*LEN(A956)+1,LEN(A956)+1)))</f>
+        <f t="array" aca="1" ref="B965" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A954,";",REPT(" ",LEN(A954)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A954)-LEN(SUBSTITUTE(A954,";",""))+1))*LEN(A954)+1,LEN(A954)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="966">
       <c r="B966">
-        <f t="array" aca="1" ref="B966" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A957,";",REPT(" ",LEN(A957)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A957)-LEN(SUBSTITUTE(A957,";",""))+1))*LEN(A957)+1,LEN(A957)+1)))</f>
+        <f t="array" aca="1" ref="B966" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A955,";",REPT(" ",LEN(A955)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A955)-LEN(SUBSTITUTE(A955,";",""))+1))*LEN(A955)+1,LEN(A955)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="967">
       <c r="B967">
-        <f t="array" aca="1" ref="B967" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A958,";",REPT(" ",LEN(A958)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A958)-LEN(SUBSTITUTE(A958,";",""))+1))*LEN(A958)+1,LEN(A958)+1)))</f>
+        <f t="array" aca="1" ref="B967" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A956,";",REPT(" ",LEN(A956)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A956)-LEN(SUBSTITUTE(A956,";",""))+1))*LEN(A956)+1,LEN(A956)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="968">
       <c r="B968">
-        <f t="array" aca="1" ref="B968" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A959,";",REPT(" ",LEN(A959)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A959)-LEN(SUBSTITUTE(A959,";",""))+1))*LEN(A959)+1,LEN(A959)+1)))</f>
+        <f t="array" aca="1" ref="B968" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A957,";",REPT(" ",LEN(A957)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A957)-LEN(SUBSTITUTE(A957,";",""))+1))*LEN(A957)+1,LEN(A957)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="969">
       <c r="B969">
-        <f t="array" aca="1" ref="B969" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A960,";",REPT(" ",LEN(A960)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A960)-LEN(SUBSTITUTE(A960,";",""))+1))*LEN(A960)+1,LEN(A960)+1)))</f>
+        <f t="array" aca="1" ref="B969" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A958,";",REPT(" ",LEN(A958)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A958)-LEN(SUBSTITUTE(A958,";",""))+1))*LEN(A958)+1,LEN(A958)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="970">
       <c r="B970">
-        <f t="array" aca="1" ref="B970" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A961,";",REPT(" ",LEN(A961)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A961)-LEN(SUBSTITUTE(A961,";",""))+1))*LEN(A961)+1,LEN(A961)+1)))</f>
+        <f t="array" aca="1" ref="B970" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A959,";",REPT(" ",LEN(A959)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A959)-LEN(SUBSTITUTE(A959,";",""))+1))*LEN(A959)+1,LEN(A959)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="971">
       <c r="B971">
-        <f t="array" aca="1" ref="B971" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A962,";",REPT(" ",LEN(A962)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A962)-LEN(SUBSTITUTE(A962,";",""))+1))*LEN(A962)+1,LEN(A962)+1)))</f>
+        <f t="array" aca="1" ref="B971" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A960,";",REPT(" ",LEN(A960)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A960)-LEN(SUBSTITUTE(A960,";",""))+1))*LEN(A960)+1,LEN(A960)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="972">
       <c r="B972">
-        <f t="array" aca="1" ref="B972" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A963,";",REPT(" ",LEN(A963)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A963)-LEN(SUBSTITUTE(A963,";",""))+1))*LEN(A963)+1,LEN(A963)+1)))</f>
+        <f t="array" aca="1" ref="B972" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A961,";",REPT(" ",LEN(A961)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A961)-LEN(SUBSTITUTE(A961,";",""))+1))*LEN(A961)+1,LEN(A961)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="973">
       <c r="B973">
-        <f t="array" aca="1" ref="B973" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A964,";",REPT(" ",LEN(A964)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A964)-LEN(SUBSTITUTE(A964,";",""))+1))*LEN(A964)+1,LEN(A964)+1)))</f>
+        <f t="array" aca="1" ref="B973" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A962,";",REPT(" ",LEN(A962)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A962)-LEN(SUBSTITUTE(A962,";",""))+1))*LEN(A962)+1,LEN(A962)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="974">
       <c r="B974">
-        <f t="array" aca="1" ref="B974" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A965,";",REPT(" ",LEN(A965)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A965)-LEN(SUBSTITUTE(A965,";",""))+1))*LEN(A965)+1,LEN(A965)+1)))</f>
+        <f t="array" aca="1" ref="B974" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A963,";",REPT(" ",LEN(A963)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A963)-LEN(SUBSTITUTE(A963,";",""))+1))*LEN(A963)+1,LEN(A963)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="975">
       <c r="B975">
-        <f t="array" aca="1" ref="B975" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A966,";",REPT(" ",LEN(A966)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A966)-LEN(SUBSTITUTE(A966,";",""))+1))*LEN(A966)+1,LEN(A966)+1)))</f>
+        <f t="array" aca="1" ref="B975" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A964,";",REPT(" ",LEN(A964)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A964)-LEN(SUBSTITUTE(A964,";",""))+1))*LEN(A964)+1,LEN(A964)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="976">
       <c r="B976">
-        <f t="array" aca="1" ref="B976" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A967,";",REPT(" ",LEN(A967)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A967)-LEN(SUBSTITUTE(A967,";",""))+1))*LEN(A967)+1,LEN(A967)+1)))</f>
+        <f t="array" aca="1" ref="B976" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A965,";",REPT(" ",LEN(A965)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A965)-LEN(SUBSTITUTE(A965,";",""))+1))*LEN(A965)+1,LEN(A965)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="977">
       <c r="B977">
-        <f t="array" aca="1" ref="B977" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A968,";",REPT(" ",LEN(A968)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A968)-LEN(SUBSTITUTE(A968,";",""))+1))*LEN(A968)+1,LEN(A968)+1)))</f>
+        <f t="array" aca="1" ref="B977" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A966,";",REPT(" ",LEN(A966)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A966)-LEN(SUBSTITUTE(A966,";",""))+1))*LEN(A966)+1,LEN(A966)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="978">
       <c r="B978">
-        <f t="array" aca="1" ref="B978" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A969,";",REPT(" ",LEN(A969)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A969)-LEN(SUBSTITUTE(A969,";",""))+1))*LEN(A969)+1,LEN(A969)+1)))</f>
+        <f t="array" aca="1" ref="B978" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A967,";",REPT(" ",LEN(A967)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A967)-LEN(SUBSTITUTE(A967,";",""))+1))*LEN(A967)+1,LEN(A967)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="979">
       <c r="B979">
-        <f t="array" aca="1" ref="B979" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A970,";",REPT(" ",LEN(A970)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A970)-LEN(SUBSTITUTE(A970,";",""))+1))*LEN(A970)+1,LEN(A970)+1)))</f>
+        <f t="array" aca="1" ref="B979" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A968,";",REPT(" ",LEN(A968)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A968)-LEN(SUBSTITUTE(A968,";",""))+1))*LEN(A968)+1,LEN(A968)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="980">
       <c r="B980">
-        <f t="array" aca="1" ref="B980" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A971,";",REPT(" ",LEN(A971)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A971)-LEN(SUBSTITUTE(A971,";",""))+1))*LEN(A971)+1,LEN(A971)+1)))</f>
+        <f t="array" aca="1" ref="B980" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A969,";",REPT(" ",LEN(A969)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A969)-LEN(SUBSTITUTE(A969,";",""))+1))*LEN(A969)+1,LEN(A969)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="981">
       <c r="B981">
-        <f t="array" aca="1" ref="B981" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A972,";",REPT(" ",LEN(A972)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A972)-LEN(SUBSTITUTE(A972,";",""))+1))*LEN(A972)+1,LEN(A972)+1)))</f>
+        <f t="array" aca="1" ref="B981" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A970,";",REPT(" ",LEN(A970)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A970)-LEN(SUBSTITUTE(A970,";",""))+1))*LEN(A970)+1,LEN(A970)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="982">
       <c r="B982">
-        <f t="array" aca="1" ref="B982" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A973,";",REPT(" ",LEN(A973)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A973)-LEN(SUBSTITUTE(A973,";",""))+1))*LEN(A973)+1,LEN(A973)+1)))</f>
+        <f t="array" aca="1" ref="B982" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A971,";",REPT(" ",LEN(A971)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A971)-LEN(SUBSTITUTE(A971,";",""))+1))*LEN(A971)+1,LEN(A971)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="983">
       <c r="B983">
-        <f t="array" aca="1" ref="B983" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A974,";",REPT(" ",LEN(A974)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A974)-LEN(SUBSTITUTE(A974,";",""))+1))*LEN(A974)+1,LEN(A974)+1)))</f>
+        <f t="array" aca="1" ref="B983" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A972,";",REPT(" ",LEN(A972)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A972)-LEN(SUBSTITUTE(A972,";",""))+1))*LEN(A972)+1,LEN(A972)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="984">
       <c r="B984">
-        <f t="array" aca="1" ref="B984" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A975,";",REPT(" ",LEN(A975)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A975)-LEN(SUBSTITUTE(A975,";",""))+1))*LEN(A975)+1,LEN(A975)+1)))</f>
+        <f t="array" aca="1" ref="B984" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A973,";",REPT(" ",LEN(A973)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A973)-LEN(SUBSTITUTE(A973,";",""))+1))*LEN(A973)+1,LEN(A973)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="985">
       <c r="B985">
-        <f t="array" aca="1" ref="B985" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A976,";",REPT(" ",LEN(A976)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A976)-LEN(SUBSTITUTE(A976,";",""))+1))*LEN(A976)+1,LEN(A976)+1)))</f>
+        <f t="array" aca="1" ref="B985" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A974,";",REPT(" ",LEN(A974)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A974)-LEN(SUBSTITUTE(A974,";",""))+1))*LEN(A974)+1,LEN(A974)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="986">
       <c r="B986">
-        <f t="array" aca="1" ref="B986" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A977,";",REPT(" ",LEN(A977)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A977)-LEN(SUBSTITUTE(A977,";",""))+1))*LEN(A977)+1,LEN(A977)+1)))</f>
+        <f t="array" aca="1" ref="B986" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A975,";",REPT(" ",LEN(A975)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A975)-LEN(SUBSTITUTE(A975,";",""))+1))*LEN(A975)+1,LEN(A975)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="987">
       <c r="B987">
-        <f t="array" aca="1" ref="B987" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A978,";",REPT(" ",LEN(A978)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A978)-LEN(SUBSTITUTE(A978,";",""))+1))*LEN(A978)+1,LEN(A978)+1)))</f>
+        <f t="array" aca="1" ref="B987" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A976,";",REPT(" ",LEN(A976)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A976)-LEN(SUBSTITUTE(A976,";",""))+1))*LEN(A976)+1,LEN(A976)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="988">
       <c r="B988">
-        <f t="array" aca="1" ref="B988" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A979,";",REPT(" ",LEN(A979)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A979)-LEN(SUBSTITUTE(A979,";",""))+1))*LEN(A979)+1,LEN(A979)+1)))</f>
+        <f t="array" aca="1" ref="B988" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A977,";",REPT(" ",LEN(A977)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A977)-LEN(SUBSTITUTE(A977,";",""))+1))*LEN(A977)+1,LEN(A977)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="989">
       <c r="B989">
-        <f t="array" aca="1" ref="B989" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A980,";",REPT(" ",LEN(A980)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A980)-LEN(SUBSTITUTE(A980,";",""))+1))*LEN(A980)+1,LEN(A980)+1)))</f>
+        <f t="array" aca="1" ref="B989" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A978,";",REPT(" ",LEN(A978)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A978)-LEN(SUBSTITUTE(A978,";",""))+1))*LEN(A978)+1,LEN(A978)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="990">
       <c r="B990">
-        <f t="array" aca="1" ref="B990" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A981,";",REPT(" ",LEN(A981)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A981)-LEN(SUBSTITUTE(A981,";",""))+1))*LEN(A981)+1,LEN(A981)+1)))</f>
+        <f t="array" aca="1" ref="B990" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A979,";",REPT(" ",LEN(A979)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A979)-LEN(SUBSTITUTE(A979,";",""))+1))*LEN(A979)+1,LEN(A979)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="991">
       <c r="B991">
-        <f t="array" aca="1" ref="B991" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A982,";",REPT(" ",LEN(A982)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A982)-LEN(SUBSTITUTE(A982,";",""))+1))*LEN(A982)+1,LEN(A982)+1)))</f>
+        <f t="array" aca="1" ref="B991" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A980,";",REPT(" ",LEN(A980)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A980)-LEN(SUBSTITUTE(A980,";",""))+1))*LEN(A980)+1,LEN(A980)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="992">
       <c r="B992">
-        <f t="array" aca="1" ref="B992" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A983,";",REPT(" ",LEN(A983)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A983)-LEN(SUBSTITUTE(A983,";",""))+1))*LEN(A983)+1,LEN(A983)+1)))</f>
+        <f t="array" aca="1" ref="B992" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A981,";",REPT(" ",LEN(A981)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A981)-LEN(SUBSTITUTE(A981,";",""))+1))*LEN(A981)+1,LEN(A981)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="993">
       <c r="B993">
-        <f t="array" aca="1" ref="B993" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A984,";",REPT(" ",LEN(A984)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A984)-LEN(SUBSTITUTE(A984,";",""))+1))*LEN(A984)+1,LEN(A984)+1)))</f>
+        <f t="array" aca="1" ref="B993" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A982,";",REPT(" ",LEN(A982)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A982)-LEN(SUBSTITUTE(A982,";",""))+1))*LEN(A982)+1,LEN(A982)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="994">
       <c r="B994">
-        <f t="array" aca="1" ref="B994" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A985,";",REPT(" ",LEN(A985)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A985)-LEN(SUBSTITUTE(A985,";",""))+1))*LEN(A985)+1,LEN(A985)+1)))</f>
+        <f t="array" aca="1" ref="B994" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A983,";",REPT(" ",LEN(A983)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A983)-LEN(SUBSTITUTE(A983,";",""))+1))*LEN(A983)+1,LEN(A983)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="995">
       <c r="B995">
-        <f t="array" aca="1" ref="B995" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A986,";",REPT(" ",LEN(A986)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A986)-LEN(SUBSTITUTE(A986,";",""))+1))*LEN(A986)+1,LEN(A986)+1)))</f>
+        <f t="array" aca="1" ref="B995" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A984,";",REPT(" ",LEN(A984)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A984)-LEN(SUBSTITUTE(A984,";",""))+1))*LEN(A984)+1,LEN(A984)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="996">
       <c r="B996">
-        <f t="array" aca="1" ref="B996" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A987,";",REPT(" ",LEN(A987)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A987)-LEN(SUBSTITUTE(A987,";",""))+1))*LEN(A987)+1,LEN(A987)+1)))</f>
+        <f t="array" aca="1" ref="B996" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A985,";",REPT(" ",LEN(A985)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A985)-LEN(SUBSTITUTE(A985,";",""))+1))*LEN(A985)+1,LEN(A985)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="997">
       <c r="B997">
-        <f t="array" aca="1" ref="B997" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A988,";",REPT(" ",LEN(A988)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A988)-LEN(SUBSTITUTE(A988,";",""))+1))*LEN(A988)+1,LEN(A988)+1)))</f>
+        <f t="array" aca="1" ref="B997" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A986,";",REPT(" ",LEN(A986)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A986)-LEN(SUBSTITUTE(A986,";",""))+1))*LEN(A986)+1,LEN(A986)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="998">
       <c r="B998">
-        <f t="array" aca="1" ref="B998" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A989,";",REPT(" ",LEN(A989)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A989)-LEN(SUBSTITUTE(A989,";",""))+1))*LEN(A989)+1,LEN(A989)+1)))</f>
+        <f t="array" aca="1" ref="B998" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A987,";",REPT(" ",LEN(A987)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A987)-LEN(SUBSTITUTE(A987,";",""))+1))*LEN(A987)+1,LEN(A987)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="999">
       <c r="B999">
-        <f t="array" aca="1" ref="B999" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A990,";",REPT(" ",LEN(A990)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A990)-LEN(SUBSTITUTE(A990,";",""))+1))*LEN(A990)+1,LEN(A990)+1)))</f>
+        <f t="array" aca="1" ref="B999" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A988,";",REPT(" ",LEN(A988)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A988)-LEN(SUBSTITUTE(A988,";",""))+1))*LEN(A988)+1,LEN(A988)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1000">
       <c r="B1000">
-        <f t="array" aca="1" ref="B1000" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A991,";",REPT(" ",LEN(A991)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A991)-LEN(SUBSTITUTE(A991,";",""))+1))*LEN(A991)+1,LEN(A991)+1)))</f>
+        <f t="array" aca="1" ref="B1000" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A989,";",REPT(" ",LEN(A989)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A989)-LEN(SUBSTITUTE(A989,";",""))+1))*LEN(A989)+1,LEN(A989)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1001">
       <c r="B1001">
-        <f t="array" aca="1" ref="B1001" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A992,";",REPT(" ",LEN(A992)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A992)-LEN(SUBSTITUTE(A992,";",""))+1))*LEN(A992)+1,LEN(A992)+1)))</f>
+        <f t="array" aca="1" ref="B1001" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A990,";",REPT(" ",LEN(A990)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A990)-LEN(SUBSTITUTE(A990,";",""))+1))*LEN(A990)+1,LEN(A990)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1002">
       <c r="B1002">
-        <f t="array" aca="1" ref="B1002" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A993,";",REPT(" ",LEN(A993)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A993)-LEN(SUBSTITUTE(A993,";",""))+1))*LEN(A993)+1,LEN(A993)+1)))</f>
+        <f t="array" aca="1" ref="B1002" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A991,";",REPT(" ",LEN(A991)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A991)-LEN(SUBSTITUTE(A991,";",""))+1))*LEN(A991)+1,LEN(A991)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1003">
       <c r="B1003">
-        <f t="array" aca="1" ref="B1003" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A994,";",REPT(" ",LEN(A994)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A994)-LEN(SUBSTITUTE(A994,";",""))+1))*LEN(A994)+1,LEN(A994)+1)))</f>
+        <f t="array" aca="1" ref="B1003" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A992,";",REPT(" ",LEN(A992)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A992)-LEN(SUBSTITUTE(A992,";",""))+1))*LEN(A992)+1,LEN(A992)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1004">
       <c r="B1004">
-        <f t="array" aca="1" ref="B1004" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A995,";",REPT(" ",LEN(A995)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A995)-LEN(SUBSTITUTE(A995,";",""))+1))*LEN(A995)+1,LEN(A995)+1)))</f>
+        <f t="array" aca="1" ref="B1004" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A993,";",REPT(" ",LEN(A993)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A993)-LEN(SUBSTITUTE(A993,";",""))+1))*LEN(A993)+1,LEN(A993)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1005">
       <c r="B1005">
-        <f t="array" aca="1" ref="B1005" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A996,";",REPT(" ",LEN(A996)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A996)-LEN(SUBSTITUTE(A996,";",""))+1))*LEN(A996)+1,LEN(A996)+1)))</f>
+        <f t="array" aca="1" ref="B1005" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A994,";",REPT(" ",LEN(A994)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A994)-LEN(SUBSTITUTE(A994,";",""))+1))*LEN(A994)+1,LEN(A994)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1006">
       <c r="B1006">
-        <f t="array" aca="1" ref="B1006" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A997,";",REPT(" ",LEN(A997)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A997)-LEN(SUBSTITUTE(A997,";",""))+1))*LEN(A997)+1,LEN(A997)+1)))</f>
+        <f t="array" aca="1" ref="B1006" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A995,";",REPT(" ",LEN(A995)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A995)-LEN(SUBSTITUTE(A995,";",""))+1))*LEN(A995)+1,LEN(A995)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1007">
       <c r="B1007">
-        <f t="array" aca="1" ref="B1007" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A998,";",REPT(" ",LEN(A998)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A998)-LEN(SUBSTITUTE(A998,";",""))+1))*LEN(A998)+1,LEN(A998)+1)))</f>
+        <f t="array" aca="1" ref="B1007" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A996,";",REPT(" ",LEN(A996)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A996)-LEN(SUBSTITUTE(A996,";",""))+1))*LEN(A996)+1,LEN(A996)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1008">
       <c r="B1008">
-        <f t="array" aca="1" ref="B1008" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A999,";",REPT(" ",LEN(A999)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A999)-LEN(SUBSTITUTE(A999,";",""))+1))*LEN(A999)+1,LEN(A999)+1)))</f>
+        <f t="array" aca="1" ref="B1008" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A997,";",REPT(" ",LEN(A997)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A997)-LEN(SUBSTITUTE(A997,";",""))+1))*LEN(A997)+1,LEN(A997)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1009">
       <c r="B1009">
-        <f t="array" aca="1" ref="B1009" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1000,";",REPT(" ",LEN(A1000)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1000)-LEN(SUBSTITUTE(A1000,";",""))+1))*LEN(A1000)+1,LEN(A1000)+1)))</f>
+        <f t="array" aca="1" ref="B1009" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A998,";",REPT(" ",LEN(A998)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A998)-LEN(SUBSTITUTE(A998,";",""))+1))*LEN(A998)+1,LEN(A998)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1010">
       <c r="B1010">
-        <f t="array" aca="1" ref="B1010" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1001,";",REPT(" ",LEN(A1001)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1001)-LEN(SUBSTITUTE(A1001,";",""))+1))*LEN(A1001)+1,LEN(A1001)+1)))</f>
+        <f t="array" aca="1" ref="B1010" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A999,";",REPT(" ",LEN(A999)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A999)-LEN(SUBSTITUTE(A999,";",""))+1))*LEN(A999)+1,LEN(A999)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1011">
       <c r="B1011">
-        <f t="array" aca="1" ref="B1011" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1002,";",REPT(" ",LEN(A1002)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1002)-LEN(SUBSTITUTE(A1002,";",""))+1))*LEN(A1002)+1,LEN(A1002)+1)))</f>
+        <f t="array" aca="1" ref="B1011" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1000,";",REPT(" ",LEN(A1000)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1000)-LEN(SUBSTITUTE(A1000,";",""))+1))*LEN(A1000)+1,LEN(A1000)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1012">
       <c r="B1012">
-        <f t="array" aca="1" ref="B1012" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1003,";",REPT(" ",LEN(A1003)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1003)-LEN(SUBSTITUTE(A1003,";",""))+1))*LEN(A1003)+1,LEN(A1003)+1)))</f>
+        <f t="array" aca="1" ref="B1012" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1001,";",REPT(" ",LEN(A1001)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1001)-LEN(SUBSTITUTE(A1001,";",""))+1))*LEN(A1001)+1,LEN(A1001)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1013">
       <c r="B1013">
-        <f t="array" aca="1" ref="B1013" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1004,";",REPT(" ",LEN(A1004)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1004)-LEN(SUBSTITUTE(A1004,";",""))+1))*LEN(A1004)+1,LEN(A1004)+1)))</f>
+        <f t="array" aca="1" ref="B1013" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1002,";",REPT(" ",LEN(A1002)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1002)-LEN(SUBSTITUTE(A1002,";",""))+1))*LEN(A1002)+1,LEN(A1002)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1014">
       <c r="B1014">
-        <f t="array" aca="1" ref="B1014" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1005,";",REPT(" ",LEN(A1005)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1005)-LEN(SUBSTITUTE(A1005,";",""))+1))*LEN(A1005)+1,LEN(A1005)+1)))</f>
+        <f t="array" aca="1" ref="B1014" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1003,";",REPT(" ",LEN(A1003)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1003)-LEN(SUBSTITUTE(A1003,";",""))+1))*LEN(A1003)+1,LEN(A1003)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1015">
       <c r="B1015">
-        <f t="array" aca="1" ref="B1015" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1006,";",REPT(" ",LEN(A1006)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1006)-LEN(SUBSTITUTE(A1006,";",""))+1))*LEN(A1006)+1,LEN(A1006)+1)))</f>
+        <f t="array" aca="1" ref="B1015" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1004,";",REPT(" ",LEN(A1004)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1004)-LEN(SUBSTITUTE(A1004,";",""))+1))*LEN(A1004)+1,LEN(A1004)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1016">
       <c r="B1016">
-        <f t="array" aca="1" ref="B1016" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1007,";",REPT(" ",LEN(A1007)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1007)-LEN(SUBSTITUTE(A1007,";",""))+1))*LEN(A1007)+1,LEN(A1007)+1)))</f>
+        <f t="array" aca="1" ref="B1016" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1005,";",REPT(" ",LEN(A1005)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1005)-LEN(SUBSTITUTE(A1005,";",""))+1))*LEN(A1005)+1,LEN(A1005)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1017">
       <c r="B1017">
-        <f t="array" aca="1" ref="B1017" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1008,";",REPT(" ",LEN(A1008)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1008)-LEN(SUBSTITUTE(A1008,";",""))+1))*LEN(A1008)+1,LEN(A1008)+1)))</f>
+        <f t="array" aca="1" ref="B1017" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1006,";",REPT(" ",LEN(A1006)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1006)-LEN(SUBSTITUTE(A1006,";",""))+1))*LEN(A1006)+1,LEN(A1006)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1018">
       <c r="B1018">
-        <f t="array" aca="1" ref="B1018" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1009,";",REPT(" ",LEN(A1009)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1009)-LEN(SUBSTITUTE(A1009,";",""))+1))*LEN(A1009)+1,LEN(A1009)+1)))</f>
+        <f t="array" aca="1" ref="B1018" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1007,";",REPT(" ",LEN(A1007)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1007)-LEN(SUBSTITUTE(A1007,";",""))+1))*LEN(A1007)+1,LEN(A1007)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1019">
       <c r="B1019">
-        <f t="array" aca="1" ref="B1019" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1010,";",REPT(" ",LEN(A1010)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1010)-LEN(SUBSTITUTE(A1010,";",""))+1))*LEN(A1010)+1,LEN(A1010)+1)))</f>
+        <f t="array" aca="1" ref="B1019" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1008,";",REPT(" ",LEN(A1008)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1008)-LEN(SUBSTITUTE(A1008,";",""))+1))*LEN(A1008)+1,LEN(A1008)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1020">
       <c r="B1020">
-        <f t="array" aca="1" ref="B1020" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1011,";",REPT(" ",LEN(A1011)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1011)-LEN(SUBSTITUTE(A1011,";",""))+1))*LEN(A1011)+1,LEN(A1011)+1)))</f>
+        <f t="array" aca="1" ref="B1020" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1009,";",REPT(" ",LEN(A1009)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1009)-LEN(SUBSTITUTE(A1009,";",""))+1))*LEN(A1009)+1,LEN(A1009)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1021">
       <c r="B1021">
-        <f t="array" aca="1" ref="B1021" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1012,";",REPT(" ",LEN(A1012)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1012)-LEN(SUBSTITUTE(A1012,";",""))+1))*LEN(A1012)+1,LEN(A1012)+1)))</f>
+        <f t="array" aca="1" ref="B1021" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1010,";",REPT(" ",LEN(A1010)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1010)-LEN(SUBSTITUTE(A1010,";",""))+1))*LEN(A1010)+1,LEN(A1010)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1022">
       <c r="B1022">
-        <f t="array" aca="1" ref="B1022" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1013,";",REPT(" ",LEN(A1013)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1013)-LEN(SUBSTITUTE(A1013,";",""))+1))*LEN(A1013)+1,LEN(A1013)+1)))</f>
+        <f t="array" aca="1" ref="B1022" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1011,";",REPT(" ",LEN(A1011)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1011)-LEN(SUBSTITUTE(A1011,";",""))+1))*LEN(A1011)+1,LEN(A1011)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1023">
       <c r="B1023">
-        <f t="array" aca="1" ref="B1023" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1014,";",REPT(" ",LEN(A1014)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1014)-LEN(SUBSTITUTE(A1014,";",""))+1))*LEN(A1014)+1,LEN(A1014)+1)))</f>
+        <f t="array" aca="1" ref="B1023" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1012,";",REPT(" ",LEN(A1012)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1012)-LEN(SUBSTITUTE(A1012,";",""))+1))*LEN(A1012)+1,LEN(A1012)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1024">
       <c r="B1024">
-        <f t="array" aca="1" ref="B1024" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1015,";",REPT(" ",LEN(A1015)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1015)-LEN(SUBSTITUTE(A1015,";",""))+1))*LEN(A1015)+1,LEN(A1015)+1)))</f>
+        <f t="array" aca="1" ref="B1024" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1013,";",REPT(" ",LEN(A1013)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1013)-LEN(SUBSTITUTE(A1013,";",""))+1))*LEN(A1013)+1,LEN(A1013)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1025">
       <c r="B1025">
-        <f t="array" aca="1" ref="B1025" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1016,";",REPT(" ",LEN(A1016)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1016)-LEN(SUBSTITUTE(A1016,";",""))+1))*LEN(A1016)+1,LEN(A1016)+1)))</f>
+        <f t="array" aca="1" ref="B1025" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1014,";",REPT(" ",LEN(A1014)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1014)-LEN(SUBSTITUTE(A1014,";",""))+1))*LEN(A1014)+1,LEN(A1014)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1026">
       <c r="B1026">
-        <f t="array" aca="1" ref="B1026" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1017,";",REPT(" ",LEN(A1017)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1017)-LEN(SUBSTITUTE(A1017,";",""))+1))*LEN(A1017)+1,LEN(A1017)+1)))</f>
+        <f t="array" aca="1" ref="B1026" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1015,";",REPT(" ",LEN(A1015)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1015)-LEN(SUBSTITUTE(A1015,";",""))+1))*LEN(A1015)+1,LEN(A1015)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1027">
       <c r="B1027">
-        <f t="array" aca="1" ref="B1027" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1018,";",REPT(" ",LEN(A1018)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1018)-LEN(SUBSTITUTE(A1018,";",""))+1))*LEN(A1018)+1,LEN(A1018)+1)))</f>
+        <f t="array" aca="1" ref="B1027" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1016,";",REPT(" ",LEN(A1016)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1016)-LEN(SUBSTITUTE(A1016,";",""))+1))*LEN(A1016)+1,LEN(A1016)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1028">
       <c r="B1028">
-        <f t="array" aca="1" ref="B1028" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1019,";",REPT(" ",LEN(A1019)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1019)-LEN(SUBSTITUTE(A1019,";",""))+1))*LEN(A1019)+1,LEN(A1019)+1)))</f>
+        <f t="array" aca="1" ref="B1028" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1017,";",REPT(" ",LEN(A1017)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1017)-LEN(SUBSTITUTE(A1017,";",""))+1))*LEN(A1017)+1,LEN(A1017)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1029">
       <c r="B1029">
-        <f t="array" aca="1" ref="B1029" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1020,";",REPT(" ",LEN(A1020)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1020)-LEN(SUBSTITUTE(A1020,";",""))+1))*LEN(A1020)+1,LEN(A1020)+1)))</f>
+        <f t="array" aca="1" ref="B1029" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1018,";",REPT(" ",LEN(A1018)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1018)-LEN(SUBSTITUTE(A1018,";",""))+1))*LEN(A1018)+1,LEN(A1018)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1030">
       <c r="B1030">
-        <f t="array" aca="1" ref="B1030" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1021,";",REPT(" ",LEN(A1021)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1021)-LEN(SUBSTITUTE(A1021,";",""))+1))*LEN(A1021)+1,LEN(A1021)+1)))</f>
+        <f t="array" aca="1" ref="B1030" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1019,";",REPT(" ",LEN(A1019)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1019)-LEN(SUBSTITUTE(A1019,";",""))+1))*LEN(A1019)+1,LEN(A1019)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1031">
       <c r="B1031">
-        <f t="array" aca="1" ref="B1031" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1022,";",REPT(" ",LEN(A1022)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1022)-LEN(SUBSTITUTE(A1022,";",""))+1))*LEN(A1022)+1,LEN(A1022)+1)))</f>
+        <f t="array" aca="1" ref="B1031" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1020,";",REPT(" ",LEN(A1020)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1020)-LEN(SUBSTITUTE(A1020,";",""))+1))*LEN(A1020)+1,LEN(A1020)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1032">
       <c r="B1032">
-        <f t="array" aca="1" ref="B1032" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1023,";",REPT(" ",LEN(A1023)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1023)-LEN(SUBSTITUTE(A1023,";",""))+1))*LEN(A1023)+1,LEN(A1023)+1)))</f>
+        <f t="array" aca="1" ref="B1032" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1021,";",REPT(" ",LEN(A1021)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1021)-LEN(SUBSTITUTE(A1021,";",""))+1))*LEN(A1021)+1,LEN(A1021)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1033">
       <c r="B1033">
-        <f t="array" aca="1" ref="B1033" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1024,";",REPT(" ",LEN(A1024)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1024)-LEN(SUBSTITUTE(A1024,";",""))+1))*LEN(A1024)+1,LEN(A1024)+1)))</f>
+        <f t="array" aca="1" ref="B1033" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1022,";",REPT(" ",LEN(A1022)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1022)-LEN(SUBSTITUTE(A1022,";",""))+1))*LEN(A1022)+1,LEN(A1022)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1034">
       <c r="B1034">
-        <f t="array" aca="1" ref="B1034" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1025,";",REPT(" ",LEN(A1025)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1025)-LEN(SUBSTITUTE(A1025,";",""))+1))*LEN(A1025)+1,LEN(A1025)+1)))</f>
+        <f t="array" aca="1" ref="B1034" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1023,";",REPT(" ",LEN(A1023)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1023)-LEN(SUBSTITUTE(A1023,";",""))+1))*LEN(A1023)+1,LEN(A1023)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1035">
       <c r="B1035">
-        <f t="array" aca="1" ref="B1035" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1026,";",REPT(" ",LEN(A1026)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1026)-LEN(SUBSTITUTE(A1026,";",""))+1))*LEN(A1026)+1,LEN(A1026)+1)))</f>
+        <f t="array" aca="1" ref="B1035" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1024,";",REPT(" ",LEN(A1024)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1024)-LEN(SUBSTITUTE(A1024,";",""))+1))*LEN(A1024)+1,LEN(A1024)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1036">
       <c r="B1036">
-        <f t="array" aca="1" ref="B1036" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1027,";",REPT(" ",LEN(A1027)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1027)-LEN(SUBSTITUTE(A1027,";",""))+1))*LEN(A1027)+1,LEN(A1027)+1)))</f>
+        <f t="array" aca="1" ref="B1036" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1025,";",REPT(" ",LEN(A1025)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1025)-LEN(SUBSTITUTE(A1025,";",""))+1))*LEN(A1025)+1,LEN(A1025)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1037">
       <c r="B1037">
-        <f t="array" aca="1" ref="B1037" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1028,";",REPT(" ",LEN(A1028)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1028)-LEN(SUBSTITUTE(A1028,";",""))+1))*LEN(A1028)+1,LEN(A1028)+1)))</f>
+        <f t="array" aca="1" ref="B1037" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1026,";",REPT(" ",LEN(A1026)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1026)-LEN(SUBSTITUTE(A1026,";",""))+1))*LEN(A1026)+1,LEN(A1026)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1038">
       <c r="B1038">
-        <f t="array" aca="1" ref="B1038" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1029,";",REPT(" ",LEN(A1029)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1029)-LEN(SUBSTITUTE(A1029,";",""))+1))*LEN(A1029)+1,LEN(A1029)+1)))</f>
+        <f t="array" aca="1" ref="B1038" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1027,";",REPT(" ",LEN(A1027)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1027)-LEN(SUBSTITUTE(A1027,";",""))+1))*LEN(A1027)+1,LEN(A1027)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1039">
       <c r="B1039">
-        <f t="array" aca="1" ref="B1039" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1030,";",REPT(" ",LEN(A1030)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1030)-LEN(SUBSTITUTE(A1030,";",""))+1))*LEN(A1030)+1,LEN(A1030)+1)))</f>
+        <f t="array" aca="1" ref="B1039" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1028,";",REPT(" ",LEN(A1028)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1028)-LEN(SUBSTITUTE(A1028,";",""))+1))*LEN(A1028)+1,LEN(A1028)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1040">
       <c r="B1040">
-        <f t="array" aca="1" ref="B1040" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1031,";",REPT(" ",LEN(A1031)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1031)-LEN(SUBSTITUTE(A1031,";",""))+1))*LEN(A1031)+1,LEN(A1031)+1)))</f>
+        <f t="array" aca="1" ref="B1040" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1029,";",REPT(" ",LEN(A1029)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1029)-LEN(SUBSTITUTE(A1029,";",""))+1))*LEN(A1029)+1,LEN(A1029)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1041">
       <c r="B1041">
-        <f t="array" aca="1" ref="B1041" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1032,";",REPT(" ",LEN(A1032)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1032)-LEN(SUBSTITUTE(A1032,";",""))+1))*LEN(A1032)+1,LEN(A1032)+1)))</f>
+        <f t="array" aca="1" ref="B1041" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1030,";",REPT(" ",LEN(A1030)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1030)-LEN(SUBSTITUTE(A1030,";",""))+1))*LEN(A1030)+1,LEN(A1030)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1042">
       <c r="B1042">
-        <f t="array" aca="1" ref="B1042" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1033,";",REPT(" ",LEN(A1033)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1033)-LEN(SUBSTITUTE(A1033,";",""))+1))*LEN(A1033)+1,LEN(A1033)+1)))</f>
+        <f t="array" aca="1" ref="B1042" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1031,";",REPT(" ",LEN(A1031)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1031)-LEN(SUBSTITUTE(A1031,";",""))+1))*LEN(A1031)+1,LEN(A1031)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1043">
       <c r="B1043">
-        <f t="array" aca="1" ref="B1043" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1034,";",REPT(" ",LEN(A1034)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1034)-LEN(SUBSTITUTE(A1034,";",""))+1))*LEN(A1034)+1,LEN(A1034)+1)))</f>
+        <f t="array" aca="1" ref="B1043" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1032,";",REPT(" ",LEN(A1032)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1032)-LEN(SUBSTITUTE(A1032,";",""))+1))*LEN(A1032)+1,LEN(A1032)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1044">
       <c r="B1044">
-        <f t="array" aca="1" ref="B1044" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1035,";",REPT(" ",LEN(A1035)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1035)-LEN(SUBSTITUTE(A1035,";",""))+1))*LEN(A1035)+1,LEN(A1035)+1)))</f>
+        <f t="array" aca="1" ref="B1044" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1033,";",REPT(" ",LEN(A1033)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1033)-LEN(SUBSTITUTE(A1033,";",""))+1))*LEN(A1033)+1,LEN(A1033)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1045">
       <c r="B1045">
-        <f t="array" aca="1" ref="B1045" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1036,";",REPT(" ",LEN(A1036)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1036)-LEN(SUBSTITUTE(A1036,";",""))+1))*LEN(A1036)+1,LEN(A1036)+1)))</f>
+        <f t="array" aca="1" ref="B1045" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1034,";",REPT(" ",LEN(A1034)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1034)-LEN(SUBSTITUTE(A1034,";",""))+1))*LEN(A1034)+1,LEN(A1034)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1046">
       <c r="B1046">
-        <f t="array" aca="1" ref="B1046" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1037,";",REPT(" ",LEN(A1037)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1037)-LEN(SUBSTITUTE(A1037,";",""))+1))*LEN(A1037)+1,LEN(A1037)+1)))</f>
+        <f t="array" aca="1" ref="B1046" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1035,";",REPT(" ",LEN(A1035)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1035)-LEN(SUBSTITUTE(A1035,";",""))+1))*LEN(A1035)+1,LEN(A1035)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1047">
       <c r="B1047">
-        <f t="array" aca="1" ref="B1047" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1038,";",REPT(" ",LEN(A1038)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1038)-LEN(SUBSTITUTE(A1038,";",""))+1))*LEN(A1038)+1,LEN(A1038)+1)))</f>
+        <f t="array" aca="1" ref="B1047" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1036,";",REPT(" ",LEN(A1036)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1036)-LEN(SUBSTITUTE(A1036,";",""))+1))*LEN(A1036)+1,LEN(A1036)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1048">
       <c r="B1048">
-        <f t="array" aca="1" ref="B1048" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1039,";",REPT(" ",LEN(A1039)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1039)-LEN(SUBSTITUTE(A1039,";",""))+1))*LEN(A1039)+1,LEN(A1039)+1)))</f>
+        <f t="array" aca="1" ref="B1048" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1037,";",REPT(" ",LEN(A1037)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1037)-LEN(SUBSTITUTE(A1037,";",""))+1))*LEN(A1037)+1,LEN(A1037)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1049">
       <c r="B1049">
-        <f t="array" aca="1" ref="B1049" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1040,";",REPT(" ",LEN(A1040)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1040)-LEN(SUBSTITUTE(A1040,";",""))+1))*LEN(A1040)+1,LEN(A1040)+1)))</f>
+        <f t="array" aca="1" ref="B1049" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1038,";",REPT(" ",LEN(A1038)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1038)-LEN(SUBSTITUTE(A1038,";",""))+1))*LEN(A1038)+1,LEN(A1038)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1050">
       <c r="B1050">
-        <f t="array" aca="1" ref="B1050" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1041,";",REPT(" ",LEN(A1041)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1041)-LEN(SUBSTITUTE(A1041,";",""))+1))*LEN(A1041)+1,LEN(A1041)+1)))</f>
+        <f t="array" aca="1" ref="B1050" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1039,";",REPT(" ",LEN(A1039)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1039)-LEN(SUBSTITUTE(A1039,";",""))+1))*LEN(A1039)+1,LEN(A1039)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1051">
       <c r="B1051">
-        <f t="array" aca="1" ref="B1051" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1042,";",REPT(" ",LEN(A1042)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1042)-LEN(SUBSTITUTE(A1042,";",""))+1))*LEN(A1042)+1,LEN(A1042)+1)))</f>
+        <f t="array" aca="1" ref="B1051" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1040,";",REPT(" ",LEN(A1040)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1040)-LEN(SUBSTITUTE(A1040,";",""))+1))*LEN(A1040)+1,LEN(A1040)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1052">
       <c r="B1052">
-        <f t="array" aca="1" ref="B1052" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1043,";",REPT(" ",LEN(A1043)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1043)-LEN(SUBSTITUTE(A1043,";",""))+1))*LEN(A1043)+1,LEN(A1043)+1)))</f>
+        <f t="array" aca="1" ref="B1052" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1041,";",REPT(" ",LEN(A1041)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1041)-LEN(SUBSTITUTE(A1041,";",""))+1))*LEN(A1041)+1,LEN(A1041)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1053">
       <c r="B1053">
-        <f t="array" aca="1" ref="B1053" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1044,";",REPT(" ",LEN(A1044)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1044)-LEN(SUBSTITUTE(A1044,";",""))+1))*LEN(A1044)+1,LEN(A1044)+1)))</f>
+        <f t="array" aca="1" ref="B1053" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1042,";",REPT(" ",LEN(A1042)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1042)-LEN(SUBSTITUTE(A1042,";",""))+1))*LEN(A1042)+1,LEN(A1042)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1054">
       <c r="B1054">
-        <f t="array" aca="1" ref="B1054" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1045,";",REPT(" ",LEN(A1045)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1045)-LEN(SUBSTITUTE(A1045,";",""))+1))*LEN(A1045)+1,LEN(A1045)+1)))</f>
+        <f t="array" aca="1" ref="B1054" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1043,";",REPT(" ",LEN(A1043)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1043)-LEN(SUBSTITUTE(A1043,";",""))+1))*LEN(A1043)+1,LEN(A1043)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1055">
       <c r="B1055">
-        <f t="array" aca="1" ref="B1055" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1046,";",REPT(" ",LEN(A1046)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1046)-LEN(SUBSTITUTE(A1046,";",""))+1))*LEN(A1046)+1,LEN(A1046)+1)))</f>
+        <f t="array" aca="1" ref="B1055" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1044,";",REPT(" ",LEN(A1044)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1044)-LEN(SUBSTITUTE(A1044,";",""))+1))*LEN(A1044)+1,LEN(A1044)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1056">
       <c r="B1056">
-        <f t="array" aca="1" ref="B1056" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1047,";",REPT(" ",LEN(A1047)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1047)-LEN(SUBSTITUTE(A1047,";",""))+1))*LEN(A1047)+1,LEN(A1047)+1)))</f>
+        <f t="array" aca="1" ref="B1056" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1045,";",REPT(" ",LEN(A1045)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1045)-LEN(SUBSTITUTE(A1045,";",""))+1))*LEN(A1045)+1,LEN(A1045)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1057">
       <c r="B1057">
-        <f t="array" aca="1" ref="B1057" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1048,";",REPT(" ",LEN(A1048)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1048)-LEN(SUBSTITUTE(A1048,";",""))+1))*LEN(A1048)+1,LEN(A1048)+1)))</f>
+        <f t="array" aca="1" ref="B1057" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1046,";",REPT(" ",LEN(A1046)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1046)-LEN(SUBSTITUTE(A1046,";",""))+1))*LEN(A1046)+1,LEN(A1046)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1058">
       <c r="B1058">
-        <f t="array" aca="1" ref="B1058" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1049,";",REPT(" ",LEN(A1049)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1049)-LEN(SUBSTITUTE(A1049,";",""))+1))*LEN(A1049)+1,LEN(A1049)+1)))</f>
+        <f t="array" aca="1" ref="B1058" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1047,";",REPT(" ",LEN(A1047)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1047)-LEN(SUBSTITUTE(A1047,";",""))+1))*LEN(A1047)+1,LEN(A1047)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1059">
       <c r="B1059">
-        <f t="array" aca="1" ref="B1059" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1050,";",REPT(" ",LEN(A1050)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1050)-LEN(SUBSTITUTE(A1050,";",""))+1))*LEN(A1050)+1,LEN(A1050)+1)))</f>
+        <f t="array" aca="1" ref="B1059" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1048,";",REPT(" ",LEN(A1048)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1048)-LEN(SUBSTITUTE(A1048,";",""))+1))*LEN(A1048)+1,LEN(A1048)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1060">
       <c r="B1060">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1051,";",REPT(" ",LEN(A1051)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1051)-LEN(SUBSTITUTE(A1051,";",""))+1))*LEN(A1051)+1,LEN(A1051)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1049,";",REPT(" ",LEN(A1049)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1049)-LEN(SUBSTITUTE(A1049,";",""))+1))*LEN(A1049)+1,LEN(A1049)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1061">
       <c r="B1061">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1052,";",REPT(" ",LEN(A1052)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1052)-LEN(SUBSTITUTE(A1052,";",""))+1))*LEN(A1052)+1,LEN(A1052)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1050,";",REPT(" ",LEN(A1050)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1050)-LEN(SUBSTITUTE(A1050,";",""))+1))*LEN(A1050)+1,LEN(A1050)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1062">
       <c r="B1062">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1053,";",REPT(" ",LEN(A1053)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1053)-LEN(SUBSTITUTE(A1053,";",""))+1))*LEN(A1053)+1,LEN(A1053)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1051,";",REPT(" ",LEN(A1051)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1051)-LEN(SUBSTITUTE(A1051,";",""))+1))*LEN(A1051)+1,LEN(A1051)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1063">
       <c r="B1063">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1054,";",REPT(" ",LEN(A1054)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1054)-LEN(SUBSTITUTE(A1054,";",""))+1))*LEN(A1054)+1,LEN(A1054)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1052,";",REPT(" ",LEN(A1052)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1052)-LEN(SUBSTITUTE(A1052,";",""))+1))*LEN(A1052)+1,LEN(A1052)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1064">
       <c r="B1064">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1055,";",REPT(" ",LEN(A1055)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1055)-LEN(SUBSTITUTE(A1055,";",""))+1))*LEN(A1055)+1,LEN(A1055)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1053,";",REPT(" ",LEN(A1053)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1053)-LEN(SUBSTITUTE(A1053,";",""))+1))*LEN(A1053)+1,LEN(A1053)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1065">
       <c r="B1065">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1056,";",REPT(" ",LEN(A1056)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1056)-LEN(SUBSTITUTE(A1056,";",""))+1))*LEN(A1056)+1,LEN(A1056)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1054,";",REPT(" ",LEN(A1054)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1054)-LEN(SUBSTITUTE(A1054,";",""))+1))*LEN(A1054)+1,LEN(A1054)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1066">
       <c r="B1066">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1057,";",REPT(" ",LEN(A1057)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1057)-LEN(SUBSTITUTE(A1057,";",""))+1))*LEN(A1057)+1,LEN(A1057)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1055,";",REPT(" ",LEN(A1055)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1055)-LEN(SUBSTITUTE(A1055,";",""))+1))*LEN(A1055)+1,LEN(A1055)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1067">
       <c r="B1067">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1058,";",REPT(" ",LEN(A1058)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1058)-LEN(SUBSTITUTE(A1058,";",""))+1))*LEN(A1058)+1,LEN(A1058)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1056,";",REPT(" ",LEN(A1056)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1056)-LEN(SUBSTITUTE(A1056,";",""))+1))*LEN(A1056)+1,LEN(A1056)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1068">
       <c r="B1068">
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1057,";",REPT(" ",LEN(A1057)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1057)-LEN(SUBSTITUTE(A1057,";",""))+1))*LEN(A1057)+1,LEN(A1057)+1)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="B1069">
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1058,";",REPT(" ",LEN(A1058)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1058)-LEN(SUBSTITUTE(A1058,";",""))+1))*LEN(A1058)+1,LEN(A1058)+1)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="B1070">
         <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1059,";",REPT(" ",LEN(A1059)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1059)-LEN(SUBSTITUTE(A1059,";",""))+1))*LEN(A1059)+1,LEN(A1059)+1)))</f>
         <v/>
       </c>

--- a/scouting.xlsx
+++ b/scouting.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1070"/>
+  <dimension ref="A1:O1071"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -528,76 +528,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>https://forms.office.com/Pages/ResponsePage.aspx?id=FavmrYQ8YES4y3A_6inbnMAlgLecWAlPiIfFTbMW9KJUM0RHQlNOTkU4QkJETUFKOE4xRkE5MkM0NC4u&amp;qrcode=true</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://forms.office.com/Pages/ResponsePage.aspx?id=FavmrYQ8YES4y3A_6inbnMAlgLecWAlPiIfFTbMW9KJUM0RHQlNOTkU4QkJETUFKOE4xRkE5MkM0NC4u&amp;qrcode=true</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>test2;34;Choose;test2;34;Pit;;No Climb;0;0;2;</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>test2</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>34</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Choose</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Pit</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>No Climb</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test1;wi2i;Choose;test1;wi2i;Match;;0;0;h;;No Attempt;No Climb;</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>test1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>wi2i</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -607,23 +560,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>test2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>wi2i</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Match</t>
+          <t>Pit</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>No Climb</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -633,23 +585,77 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test1;wi2i;Choose;test1;wi2i;Match;;0;0;h;;No Attempt;No Climb;</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>wi2i</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Choose</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>wi2i</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>h</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>No Attempt</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>No Climb</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-    </row>
-    <row r="4"/>
+    </row>
     <row r="5"/>
     <row r="6"/>
     <row r="7"/>
@@ -669,6284 +675,6285 @@
     <row r="21"/>
     <row r="22"/>
     <row r="23"/>
-    <row r="24">
-      <c r="B24">
-        <f t="array" aca="1" ref="B24" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
-        <v/>
-      </c>
-    </row>
+    <row r="24"/>
     <row r="25">
       <c r="B25">
-        <f t="array" aca="1" ref="B25" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
+        <f t="array" aca="1" ref="B25" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A13,";",REPT(" ",LEN(A13)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A13)-LEN(SUBSTITUTE(A13,";",""))+1))*LEN(A13)+1,LEN(A13)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="B26">
-        <f t="array" aca="1" ref="B26" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
+        <f t="array" aca="1" ref="B26" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A14,";",REPT(" ",LEN(A14)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A14)-LEN(SUBSTITUTE(A14,";",""))+1))*LEN(A14)+1,LEN(A14)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="B27">
-        <f t="array" aca="1" ref="B27" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
+        <f t="array" aca="1" ref="B27" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A15,";",REPT(" ",LEN(A15)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A15)-LEN(SUBSTITUTE(A15,";",""))+1))*LEN(A15)+1,LEN(A15)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="B28">
-        <f t="array" aca="1" ref="B28" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
+        <f t="array" aca="1" ref="B28" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A16,";",REPT(" ",LEN(A16)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A16)-LEN(SUBSTITUTE(A16,";",""))+1))*LEN(A16)+1,LEN(A16)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="B29">
-        <f t="array" aca="1" ref="B29" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
+        <f t="array" aca="1" ref="B29" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A17,";",REPT(" ",LEN(A17)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A17)-LEN(SUBSTITUTE(A17,";",""))+1))*LEN(A17)+1,LEN(A17)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="B30">
-        <f t="array" aca="1" ref="B30" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
+        <f t="array" aca="1" ref="B30" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A18,";",REPT(" ",LEN(A18)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A18)-LEN(SUBSTITUTE(A18,";",""))+1))*LEN(A18)+1,LEN(A18)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="B31">
-        <f t="array" aca="1" ref="B31" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A20,";",REPT(" ",LEN(A20)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A20)-LEN(SUBSTITUTE(A20,";",""))+1))*LEN(A20)+1,LEN(A20)+1)))</f>
+        <f t="array" aca="1" ref="B31" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A19,";",REPT(" ",LEN(A19)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A19)-LEN(SUBSTITUTE(A19,";",""))+1))*LEN(A19)+1,LEN(A19)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="B32">
-        <f t="array" aca="1" ref="B32" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A21,";",REPT(" ",LEN(A21)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A21)-LEN(SUBSTITUTE(A21,";",""))+1))*LEN(A21)+1,LEN(A21)+1)))</f>
+        <f t="array" aca="1" ref="B32" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A20,";",REPT(" ",LEN(A20)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A20)-LEN(SUBSTITUTE(A20,";",""))+1))*LEN(A20)+1,LEN(A20)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="B33">
-        <f t="array" aca="1" ref="B33" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A22,";",REPT(" ",LEN(A22)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A22)-LEN(SUBSTITUTE(A22,";",""))+1))*LEN(A22)+1,LEN(A22)+1)))</f>
+        <f t="array" aca="1" ref="B33" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A21,";",REPT(" ",LEN(A21)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A21)-LEN(SUBSTITUTE(A21,";",""))+1))*LEN(A21)+1,LEN(A21)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="B34">
-        <f t="array" aca="1" ref="B34" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A23,";",REPT(" ",LEN(A23)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A23)-LEN(SUBSTITUTE(A23,";",""))+1))*LEN(A23)+1,LEN(A23)+1)))</f>
+        <f t="array" aca="1" ref="B34" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A22,";",REPT(" ",LEN(A22)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A22)-LEN(SUBSTITUTE(A22,";",""))+1))*LEN(A22)+1,LEN(A22)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="B35">
-        <f t="array" aca="1" ref="B35" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A24,";",REPT(" ",LEN(A24)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A24)-LEN(SUBSTITUTE(A24,";",""))+1))*LEN(A24)+1,LEN(A24)+1)))</f>
+        <f t="array" aca="1" ref="B35" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A23,";",REPT(" ",LEN(A23)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A23)-LEN(SUBSTITUTE(A23,";",""))+1))*LEN(A23)+1,LEN(A23)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="B36">
-        <f t="array" aca="1" ref="B36" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A25,";",REPT(" ",LEN(A25)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A25)-LEN(SUBSTITUTE(A25,";",""))+1))*LEN(A25)+1,LEN(A25)+1)))</f>
+        <f t="array" aca="1" ref="B36" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A24,";",REPT(" ",LEN(A24)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A24)-LEN(SUBSTITUTE(A24,";",""))+1))*LEN(A24)+1,LEN(A24)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="B37">
-        <f t="array" aca="1" ref="B37" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A26,";",REPT(" ",LEN(A26)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A26)-LEN(SUBSTITUTE(A26,";",""))+1))*LEN(A26)+1,LEN(A26)+1)))</f>
+        <f t="array" aca="1" ref="B37" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A25,";",REPT(" ",LEN(A25)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A25)-LEN(SUBSTITUTE(A25,";",""))+1))*LEN(A25)+1,LEN(A25)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="38">
       <c r="B38">
-        <f t="array" aca="1" ref="B38" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A27,";",REPT(" ",LEN(A27)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A27)-LEN(SUBSTITUTE(A27,";",""))+1))*LEN(A27)+1,LEN(A27)+1)))</f>
+        <f t="array" aca="1" ref="B38" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A26,";",REPT(" ",LEN(A26)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A26)-LEN(SUBSTITUTE(A26,";",""))+1))*LEN(A26)+1,LEN(A26)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="39">
       <c r="B39">
-        <f t="array" aca="1" ref="B39" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A28,";",REPT(" ",LEN(A28)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A28)-LEN(SUBSTITUTE(A28,";",""))+1))*LEN(A28)+1,LEN(A28)+1)))</f>
+        <f t="array" aca="1" ref="B39" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A27,";",REPT(" ",LEN(A27)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A27)-LEN(SUBSTITUTE(A27,";",""))+1))*LEN(A27)+1,LEN(A27)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="40">
       <c r="B40">
-        <f t="array" aca="1" ref="B40" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A29,";",REPT(" ",LEN(A29)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A29)-LEN(SUBSTITUTE(A29,";",""))+1))*LEN(A29)+1,LEN(A29)+1)))</f>
+        <f t="array" aca="1" ref="B40" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A28,";",REPT(" ",LEN(A28)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A28)-LEN(SUBSTITUTE(A28,";",""))+1))*LEN(A28)+1,LEN(A28)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="B41">
-        <f t="array" aca="1" ref="B41" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A30,";",REPT(" ",LEN(A30)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A30)-LEN(SUBSTITUTE(A30,";",""))+1))*LEN(A30)+1,LEN(A30)+1)))</f>
+        <f t="array" aca="1" ref="B41" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A29,";",REPT(" ",LEN(A29)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A29)-LEN(SUBSTITUTE(A29,";",""))+1))*LEN(A29)+1,LEN(A29)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="42">
       <c r="B42">
-        <f t="array" aca="1" ref="B42" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A31,";",REPT(" ",LEN(A31)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A31)-LEN(SUBSTITUTE(A31,";",""))+1))*LEN(A31)+1,LEN(A31)+1)))</f>
+        <f t="array" aca="1" ref="B42" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A30,";",REPT(" ",LEN(A30)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A30)-LEN(SUBSTITUTE(A30,";",""))+1))*LEN(A30)+1,LEN(A30)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="43">
       <c r="B43">
-        <f t="array" aca="1" ref="B43" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A32,";",REPT(" ",LEN(A32)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A32)-LEN(SUBSTITUTE(A32,";",""))+1))*LEN(A32)+1,LEN(A32)+1)))</f>
+        <f t="array" aca="1" ref="B43" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A31,";",REPT(" ",LEN(A31)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A31)-LEN(SUBSTITUTE(A31,";",""))+1))*LEN(A31)+1,LEN(A31)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="44">
       <c r="B44">
-        <f t="array" aca="1" ref="B44" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A33,";",REPT(" ",LEN(A33)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A33)-LEN(SUBSTITUTE(A33,";",""))+1))*LEN(A33)+1,LEN(A33)+1)))</f>
+        <f t="array" aca="1" ref="B44" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A32,";",REPT(" ",LEN(A32)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A32)-LEN(SUBSTITUTE(A32,";",""))+1))*LEN(A32)+1,LEN(A32)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="B45">
-        <f t="array" aca="1" ref="B45" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A34,";",REPT(" ",LEN(A34)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A34)-LEN(SUBSTITUTE(A34,";",""))+1))*LEN(A34)+1,LEN(A34)+1)))</f>
+        <f t="array" aca="1" ref="B45" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A33,";",REPT(" ",LEN(A33)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A33)-LEN(SUBSTITUTE(A33,";",""))+1))*LEN(A33)+1,LEN(A33)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="B46">
-        <f t="array" aca="1" ref="B46" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A35,";",REPT(" ",LEN(A35)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A35)-LEN(SUBSTITUTE(A35,";",""))+1))*LEN(A35)+1,LEN(A35)+1)))</f>
+        <f t="array" aca="1" ref="B46" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A34,";",REPT(" ",LEN(A34)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A34)-LEN(SUBSTITUTE(A34,";",""))+1))*LEN(A34)+1,LEN(A34)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="B47">
-        <f t="array" aca="1" ref="B47" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A36,";",REPT(" ",LEN(A36)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A36)-LEN(SUBSTITUTE(A36,";",""))+1))*LEN(A36)+1,LEN(A36)+1)))</f>
+        <f t="array" aca="1" ref="B47" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A35,";",REPT(" ",LEN(A35)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A35)-LEN(SUBSTITUTE(A35,";",""))+1))*LEN(A35)+1,LEN(A35)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="B48">
-        <f t="array" aca="1" ref="B48" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A37,";",REPT(" ",LEN(A37)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A37)-LEN(SUBSTITUTE(A37,";",""))+1))*LEN(A37)+1,LEN(A37)+1)))</f>
+        <f t="array" aca="1" ref="B48" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A36,";",REPT(" ",LEN(A36)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A36)-LEN(SUBSTITUTE(A36,";",""))+1))*LEN(A36)+1,LEN(A36)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="B49">
-        <f t="array" aca="1" ref="B49" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A38,";",REPT(" ",LEN(A38)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A38)-LEN(SUBSTITUTE(A38,";",""))+1))*LEN(A38)+1,LEN(A38)+1)))</f>
+        <f t="array" aca="1" ref="B49" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A37,";",REPT(" ",LEN(A37)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A37)-LEN(SUBSTITUTE(A37,";",""))+1))*LEN(A37)+1,LEN(A37)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="B50">
-        <f t="array" aca="1" ref="B50" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A39,";",REPT(" ",LEN(A39)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A39)-LEN(SUBSTITUTE(A39,";",""))+1))*LEN(A39)+1,LEN(A39)+1)))</f>
+        <f t="array" aca="1" ref="B50" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A38,";",REPT(" ",LEN(A38)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A38)-LEN(SUBSTITUTE(A38,";",""))+1))*LEN(A38)+1,LEN(A38)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="B51">
-        <f t="array" aca="1" ref="B51" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A40,";",REPT(" ",LEN(A40)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A40)-LEN(SUBSTITUTE(A40,";",""))+1))*LEN(A40)+1,LEN(A40)+1)))</f>
+        <f t="array" aca="1" ref="B51" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A39,";",REPT(" ",LEN(A39)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A39)-LEN(SUBSTITUTE(A39,";",""))+1))*LEN(A39)+1,LEN(A39)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="B52">
-        <f t="array" aca="1" ref="B52" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A41,";",REPT(" ",LEN(A41)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A41)-LEN(SUBSTITUTE(A41,";",""))+1))*LEN(A41)+1,LEN(A41)+1)))</f>
+        <f t="array" aca="1" ref="B52" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A40,";",REPT(" ",LEN(A40)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A40)-LEN(SUBSTITUTE(A40,";",""))+1))*LEN(A40)+1,LEN(A40)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="53">
       <c r="B53">
-        <f t="array" aca="1" ref="B53" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A42,";",REPT(" ",LEN(A42)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A42)-LEN(SUBSTITUTE(A42,";",""))+1))*LEN(A42)+1,LEN(A42)+1)))</f>
+        <f t="array" aca="1" ref="B53" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A41,";",REPT(" ",LEN(A41)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A41)-LEN(SUBSTITUTE(A41,";",""))+1))*LEN(A41)+1,LEN(A41)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="B54">
-        <f t="array" aca="1" ref="B54" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A43,";",REPT(" ",LEN(A43)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A43)-LEN(SUBSTITUTE(A43,";",""))+1))*LEN(A43)+1,LEN(A43)+1)))</f>
+        <f t="array" aca="1" ref="B54" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A42,";",REPT(" ",LEN(A42)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A42)-LEN(SUBSTITUTE(A42,";",""))+1))*LEN(A42)+1,LEN(A42)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="55">
       <c r="B55">
-        <f t="array" aca="1" ref="B55" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A44,";",REPT(" ",LEN(A44)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A44)-LEN(SUBSTITUTE(A44,";",""))+1))*LEN(A44)+1,LEN(A44)+1)))</f>
+        <f t="array" aca="1" ref="B55" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A43,";",REPT(" ",LEN(A43)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A43)-LEN(SUBSTITUTE(A43,";",""))+1))*LEN(A43)+1,LEN(A43)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="56">
       <c r="B56">
-        <f t="array" aca="1" ref="B56" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A45,";",REPT(" ",LEN(A45)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A45)-LEN(SUBSTITUTE(A45,";",""))+1))*LEN(A45)+1,LEN(A45)+1)))</f>
+        <f t="array" aca="1" ref="B56" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A44,";",REPT(" ",LEN(A44)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A44)-LEN(SUBSTITUTE(A44,";",""))+1))*LEN(A44)+1,LEN(A44)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="57">
       <c r="B57">
-        <f t="array" aca="1" ref="B57" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A46,";",REPT(" ",LEN(A46)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A46)-LEN(SUBSTITUTE(A46,";",""))+1))*LEN(A46)+1,LEN(A46)+1)))</f>
+        <f t="array" aca="1" ref="B57" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A45,";",REPT(" ",LEN(A45)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A45)-LEN(SUBSTITUTE(A45,";",""))+1))*LEN(A45)+1,LEN(A45)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="58">
       <c r="B58">
-        <f t="array" aca="1" ref="B58" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A47,";",REPT(" ",LEN(A47)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A47)-LEN(SUBSTITUTE(A47,";",""))+1))*LEN(A47)+1,LEN(A47)+1)))</f>
+        <f t="array" aca="1" ref="B58" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A46,";",REPT(" ",LEN(A46)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A46)-LEN(SUBSTITUTE(A46,";",""))+1))*LEN(A46)+1,LEN(A46)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="59">
       <c r="B59">
-        <f t="array" aca="1" ref="B59" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A48,";",REPT(" ",LEN(A48)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A48)-LEN(SUBSTITUTE(A48,";",""))+1))*LEN(A48)+1,LEN(A48)+1)))</f>
+        <f t="array" aca="1" ref="B59" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A47,";",REPT(" ",LEN(A47)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A47)-LEN(SUBSTITUTE(A47,";",""))+1))*LEN(A47)+1,LEN(A47)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="B60">
-        <f t="array" aca="1" ref="B60" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A49,";",REPT(" ",LEN(A49)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A49)-LEN(SUBSTITUTE(A49,";",""))+1))*LEN(A49)+1,LEN(A49)+1)))</f>
+        <f t="array" aca="1" ref="B60" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A48,";",REPT(" ",LEN(A48)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A48)-LEN(SUBSTITUTE(A48,";",""))+1))*LEN(A48)+1,LEN(A48)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="61">
       <c r="B61">
-        <f t="array" aca="1" ref="B61" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A50,";",REPT(" ",LEN(A50)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A50)-LEN(SUBSTITUTE(A50,";",""))+1))*LEN(A50)+1,LEN(A50)+1)))</f>
+        <f t="array" aca="1" ref="B61" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A49,";",REPT(" ",LEN(A49)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A49)-LEN(SUBSTITUTE(A49,";",""))+1))*LEN(A49)+1,LEN(A49)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="B62">
-        <f t="array" aca="1" ref="B62" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A51,";",REPT(" ",LEN(A51)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A51)-LEN(SUBSTITUTE(A51,";",""))+1))*LEN(A51)+1,LEN(A51)+1)))</f>
+        <f t="array" aca="1" ref="B62" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A50,";",REPT(" ",LEN(A50)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A50)-LEN(SUBSTITUTE(A50,";",""))+1))*LEN(A50)+1,LEN(A50)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="B63">
-        <f t="array" aca="1" ref="B63" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A52,";",REPT(" ",LEN(A52)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A52)-LEN(SUBSTITUTE(A52,";",""))+1))*LEN(A52)+1,LEN(A52)+1)))</f>
+        <f t="array" aca="1" ref="B63" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A51,";",REPT(" ",LEN(A51)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A51)-LEN(SUBSTITUTE(A51,";",""))+1))*LEN(A51)+1,LEN(A51)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="B64">
-        <f t="array" aca="1" ref="B64" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A53,";",REPT(" ",LEN(A53)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A53)-LEN(SUBSTITUTE(A53,";",""))+1))*LEN(A53)+1,LEN(A53)+1)))</f>
+        <f t="array" aca="1" ref="B64" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A52,";",REPT(" ",LEN(A52)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A52)-LEN(SUBSTITUTE(A52,";",""))+1))*LEN(A52)+1,LEN(A52)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="B65">
-        <f t="array" aca="1" ref="B65" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A54,";",REPT(" ",LEN(A54)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A54)-LEN(SUBSTITUTE(A54,";",""))+1))*LEN(A54)+1,LEN(A54)+1)))</f>
+        <f t="array" aca="1" ref="B65" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A53,";",REPT(" ",LEN(A53)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A53)-LEN(SUBSTITUTE(A53,";",""))+1))*LEN(A53)+1,LEN(A53)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="B66">
-        <f t="array" aca="1" ref="B66" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A55,";",REPT(" ",LEN(A55)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A55)-LEN(SUBSTITUTE(A55,";",""))+1))*LEN(A55)+1,LEN(A55)+1)))</f>
+        <f t="array" aca="1" ref="B66" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A54,";",REPT(" ",LEN(A54)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A54)-LEN(SUBSTITUTE(A54,";",""))+1))*LEN(A54)+1,LEN(A54)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="B67">
-        <f t="array" aca="1" ref="B67" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A56,";",REPT(" ",LEN(A56)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A56)-LEN(SUBSTITUTE(A56,";",""))+1))*LEN(A56)+1,LEN(A56)+1)))</f>
+        <f t="array" aca="1" ref="B67" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A55,";",REPT(" ",LEN(A55)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A55)-LEN(SUBSTITUTE(A55,";",""))+1))*LEN(A55)+1,LEN(A55)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="B68">
-        <f t="array" aca="1" ref="B68" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A57,";",REPT(" ",LEN(A57)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A57)-LEN(SUBSTITUTE(A57,";",""))+1))*LEN(A57)+1,LEN(A57)+1)))</f>
+        <f t="array" aca="1" ref="B68" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A56,";",REPT(" ",LEN(A56)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A56)-LEN(SUBSTITUTE(A56,";",""))+1))*LEN(A56)+1,LEN(A56)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="B69">
-        <f t="array" aca="1" ref="B69" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A58,";",REPT(" ",LEN(A58)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A58)-LEN(SUBSTITUTE(A58,";",""))+1))*LEN(A58)+1,LEN(A58)+1)))</f>
+        <f t="array" aca="1" ref="B69" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A57,";",REPT(" ",LEN(A57)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A57)-LEN(SUBSTITUTE(A57,";",""))+1))*LEN(A57)+1,LEN(A57)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="B70">
-        <f t="array" aca="1" ref="B70" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A59,";",REPT(" ",LEN(A59)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A59)-LEN(SUBSTITUTE(A59,";",""))+1))*LEN(A59)+1,LEN(A59)+1)))</f>
+        <f t="array" aca="1" ref="B70" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A58,";",REPT(" ",LEN(A58)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A58)-LEN(SUBSTITUTE(A58,";",""))+1))*LEN(A58)+1,LEN(A58)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="B71">
-        <f t="array" aca="1" ref="B71" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A60,";",REPT(" ",LEN(A60)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A60)-LEN(SUBSTITUTE(A60,";",""))+1))*LEN(A60)+1,LEN(A60)+1)))</f>
+        <f t="array" aca="1" ref="B71" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A59,";",REPT(" ",LEN(A59)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A59)-LEN(SUBSTITUTE(A59,";",""))+1))*LEN(A59)+1,LEN(A59)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="72">
       <c r="B72">
-        <f t="array" aca="1" ref="B72" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A61,";",REPT(" ",LEN(A61)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A61)-LEN(SUBSTITUTE(A61,";",""))+1))*LEN(A61)+1,LEN(A61)+1)))</f>
+        <f t="array" aca="1" ref="B72" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A60,";",REPT(" ",LEN(A60)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A60)-LEN(SUBSTITUTE(A60,";",""))+1))*LEN(A60)+1,LEN(A60)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="73">
       <c r="B73">
-        <f t="array" aca="1" ref="B73" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A62,";",REPT(" ",LEN(A62)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A62)-LEN(SUBSTITUTE(A62,";",""))+1))*LEN(A62)+1,LEN(A62)+1)))</f>
+        <f t="array" aca="1" ref="B73" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A61,";",REPT(" ",LEN(A61)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A61)-LEN(SUBSTITUTE(A61,";",""))+1))*LEN(A61)+1,LEN(A61)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="74">
       <c r="B74">
-        <f t="array" aca="1" ref="B74" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A63,";",REPT(" ",LEN(A63)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A63)-LEN(SUBSTITUTE(A63,";",""))+1))*LEN(A63)+1,LEN(A63)+1)))</f>
+        <f t="array" aca="1" ref="B74" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A62,";",REPT(" ",LEN(A62)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A62)-LEN(SUBSTITUTE(A62,";",""))+1))*LEN(A62)+1,LEN(A62)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="75">
       <c r="B75">
-        <f t="array" aca="1" ref="B75" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A64,";",REPT(" ",LEN(A64)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A64)-LEN(SUBSTITUTE(A64,";",""))+1))*LEN(A64)+1,LEN(A64)+1)))</f>
+        <f t="array" aca="1" ref="B75" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A63,";",REPT(" ",LEN(A63)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A63)-LEN(SUBSTITUTE(A63,";",""))+1))*LEN(A63)+1,LEN(A63)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="76">
       <c r="B76">
-        <f t="array" aca="1" ref="B76" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A65,";",REPT(" ",LEN(A65)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A65)-LEN(SUBSTITUTE(A65,";",""))+1))*LEN(A65)+1,LEN(A65)+1)))</f>
+        <f t="array" aca="1" ref="B76" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A64,";",REPT(" ",LEN(A64)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A64)-LEN(SUBSTITUTE(A64,";",""))+1))*LEN(A64)+1,LEN(A64)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="77">
       <c r="B77">
-        <f t="array" aca="1" ref="B77" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A66,";",REPT(" ",LEN(A66)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A66)-LEN(SUBSTITUTE(A66,";",""))+1))*LEN(A66)+1,LEN(A66)+1)))</f>
+        <f t="array" aca="1" ref="B77" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A65,";",REPT(" ",LEN(A65)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A65)-LEN(SUBSTITUTE(A65,";",""))+1))*LEN(A65)+1,LEN(A65)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="78">
       <c r="B78">
-        <f t="array" aca="1" ref="B78" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A67,";",REPT(" ",LEN(A67)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A67)-LEN(SUBSTITUTE(A67,";",""))+1))*LEN(A67)+1,LEN(A67)+1)))</f>
+        <f t="array" aca="1" ref="B78" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A66,";",REPT(" ",LEN(A66)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A66)-LEN(SUBSTITUTE(A66,";",""))+1))*LEN(A66)+1,LEN(A66)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="B79">
-        <f t="array" aca="1" ref="B79" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A68,";",REPT(" ",LEN(A68)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A68)-LEN(SUBSTITUTE(A68,";",""))+1))*LEN(A68)+1,LEN(A68)+1)))</f>
+        <f t="array" aca="1" ref="B79" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A67,";",REPT(" ",LEN(A67)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A67)-LEN(SUBSTITUTE(A67,";",""))+1))*LEN(A67)+1,LEN(A67)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="80">
       <c r="B80">
-        <f t="array" aca="1" ref="B80" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A69,";",REPT(" ",LEN(A69)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A69)-LEN(SUBSTITUTE(A69,";",""))+1))*LEN(A69)+1,LEN(A69)+1)))</f>
+        <f t="array" aca="1" ref="B80" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A68,";",REPT(" ",LEN(A68)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A68)-LEN(SUBSTITUTE(A68,";",""))+1))*LEN(A68)+1,LEN(A68)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="81">
       <c r="B81">
-        <f t="array" aca="1" ref="B81" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A70,";",REPT(" ",LEN(A70)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A70)-LEN(SUBSTITUTE(A70,";",""))+1))*LEN(A70)+1,LEN(A70)+1)))</f>
+        <f t="array" aca="1" ref="B81" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A69,";",REPT(" ",LEN(A69)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A69)-LEN(SUBSTITUTE(A69,";",""))+1))*LEN(A69)+1,LEN(A69)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="B82">
-        <f t="array" aca="1" ref="B82" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A71,";",REPT(" ",LEN(A71)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A71)-LEN(SUBSTITUTE(A71,";",""))+1))*LEN(A71)+1,LEN(A71)+1)))</f>
+        <f t="array" aca="1" ref="B82" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A70,";",REPT(" ",LEN(A70)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A70)-LEN(SUBSTITUTE(A70,";",""))+1))*LEN(A70)+1,LEN(A70)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="B83">
-        <f t="array" aca="1" ref="B83" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A72,";",REPT(" ",LEN(A72)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A72)-LEN(SUBSTITUTE(A72,";",""))+1))*LEN(A72)+1,LEN(A72)+1)))</f>
+        <f t="array" aca="1" ref="B83" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A71,";",REPT(" ",LEN(A71)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A71)-LEN(SUBSTITUTE(A71,";",""))+1))*LEN(A71)+1,LEN(A71)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="B84">
-        <f t="array" aca="1" ref="B84" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A73,";",REPT(" ",LEN(A73)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A73)-LEN(SUBSTITUTE(A73,";",""))+1))*LEN(A73)+1,LEN(A73)+1)))</f>
+        <f t="array" aca="1" ref="B84" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A72,";",REPT(" ",LEN(A72)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A72)-LEN(SUBSTITUTE(A72,";",""))+1))*LEN(A72)+1,LEN(A72)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="B85">
-        <f t="array" aca="1" ref="B85" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A74,";",REPT(" ",LEN(A74)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A74)-LEN(SUBSTITUTE(A74,";",""))+1))*LEN(A74)+1,LEN(A74)+1)))</f>
+        <f t="array" aca="1" ref="B85" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A73,";",REPT(" ",LEN(A73)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A73)-LEN(SUBSTITUTE(A73,";",""))+1))*LEN(A73)+1,LEN(A73)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="86">
       <c r="B86">
-        <f t="array" aca="1" ref="B86" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A75,";",REPT(" ",LEN(A75)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A75)-LEN(SUBSTITUTE(A75,";",""))+1))*LEN(A75)+1,LEN(A75)+1)))</f>
+        <f t="array" aca="1" ref="B86" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A74,";",REPT(" ",LEN(A74)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A74)-LEN(SUBSTITUTE(A74,";",""))+1))*LEN(A74)+1,LEN(A74)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="87">
       <c r="B87">
-        <f t="array" aca="1" ref="B87" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A76,";",REPT(" ",LEN(A76)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A76)-LEN(SUBSTITUTE(A76,";",""))+1))*LEN(A76)+1,LEN(A76)+1)))</f>
+        <f t="array" aca="1" ref="B87" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A75,";",REPT(" ",LEN(A75)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A75)-LEN(SUBSTITUTE(A75,";",""))+1))*LEN(A75)+1,LEN(A75)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="88">
       <c r="B88">
-        <f t="array" aca="1" ref="B88" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A77,";",REPT(" ",LEN(A77)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A77)-LEN(SUBSTITUTE(A77,";",""))+1))*LEN(A77)+1,LEN(A77)+1)))</f>
+        <f t="array" aca="1" ref="B88" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A76,";",REPT(" ",LEN(A76)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A76)-LEN(SUBSTITUTE(A76,";",""))+1))*LEN(A76)+1,LEN(A76)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="89">
       <c r="B89">
-        <f t="array" aca="1" ref="B89" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A78,";",REPT(" ",LEN(A78)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A78)-LEN(SUBSTITUTE(A78,";",""))+1))*LEN(A78)+1,LEN(A78)+1)))</f>
+        <f t="array" aca="1" ref="B89" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A77,";",REPT(" ",LEN(A77)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A77)-LEN(SUBSTITUTE(A77,";",""))+1))*LEN(A77)+1,LEN(A77)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="90">
       <c r="B90">
-        <f t="array" aca="1" ref="B90" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A79,";",REPT(" ",LEN(A79)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A79)-LEN(SUBSTITUTE(A79,";",""))+1))*LEN(A79)+1,LEN(A79)+1)))</f>
+        <f t="array" aca="1" ref="B90" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A78,";",REPT(" ",LEN(A78)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A78)-LEN(SUBSTITUTE(A78,";",""))+1))*LEN(A78)+1,LEN(A78)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="91">
       <c r="B91">
-        <f t="array" aca="1" ref="B91" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A80,";",REPT(" ",LEN(A80)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A80)-LEN(SUBSTITUTE(A80,";",""))+1))*LEN(A80)+1,LEN(A80)+1)))</f>
+        <f t="array" aca="1" ref="B91" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A79,";",REPT(" ",LEN(A79)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A79)-LEN(SUBSTITUTE(A79,";",""))+1))*LEN(A79)+1,LEN(A79)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="92">
       <c r="B92">
-        <f t="array" aca="1" ref="B92" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A81,";",REPT(" ",LEN(A81)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A81)-LEN(SUBSTITUTE(A81,";",""))+1))*LEN(A81)+1,LEN(A81)+1)))</f>
+        <f t="array" aca="1" ref="B92" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A80,";",REPT(" ",LEN(A80)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A80)-LEN(SUBSTITUTE(A80,";",""))+1))*LEN(A80)+1,LEN(A80)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="93">
       <c r="B93">
-        <f t="array" aca="1" ref="B93" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A82,";",REPT(" ",LEN(A82)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A82)-LEN(SUBSTITUTE(A82,";",""))+1))*LEN(A82)+1,LEN(A82)+1)))</f>
+        <f t="array" aca="1" ref="B93" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A81,";",REPT(" ",LEN(A81)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A81)-LEN(SUBSTITUTE(A81,";",""))+1))*LEN(A81)+1,LEN(A81)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="B94">
-        <f t="array" aca="1" ref="B94" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A83,";",REPT(" ",LEN(A83)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A83)-LEN(SUBSTITUTE(A83,";",""))+1))*LEN(A83)+1,LEN(A83)+1)))</f>
+        <f t="array" aca="1" ref="B94" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A82,";",REPT(" ",LEN(A82)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A82)-LEN(SUBSTITUTE(A82,";",""))+1))*LEN(A82)+1,LEN(A82)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="B95">
-        <f t="array" aca="1" ref="B95" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A84,";",REPT(" ",LEN(A84)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A84)-LEN(SUBSTITUTE(A84,";",""))+1))*LEN(A84)+1,LEN(A84)+1)))</f>
+        <f t="array" aca="1" ref="B95" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A83,";",REPT(" ",LEN(A83)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A83)-LEN(SUBSTITUTE(A83,";",""))+1))*LEN(A83)+1,LEN(A83)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="96">
       <c r="B96">
-        <f t="array" aca="1" ref="B96" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A85,";",REPT(" ",LEN(A85)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A85)-LEN(SUBSTITUTE(A85,";",""))+1))*LEN(A85)+1,LEN(A85)+1)))</f>
+        <f t="array" aca="1" ref="B96" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A84,";",REPT(" ",LEN(A84)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A84)-LEN(SUBSTITUTE(A84,";",""))+1))*LEN(A84)+1,LEN(A84)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="97">
       <c r="B97">
-        <f t="array" aca="1" ref="B97" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A86,";",REPT(" ",LEN(A86)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A86)-LEN(SUBSTITUTE(A86,";",""))+1))*LEN(A86)+1,LEN(A86)+1)))</f>
+        <f t="array" aca="1" ref="B97" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A85,";",REPT(" ",LEN(A85)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A85)-LEN(SUBSTITUTE(A85,";",""))+1))*LEN(A85)+1,LEN(A85)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="98">
       <c r="B98">
-        <f t="array" aca="1" ref="B98" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A87,";",REPT(" ",LEN(A87)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A87)-LEN(SUBSTITUTE(A87,";",""))+1))*LEN(A87)+1,LEN(A87)+1)))</f>
+        <f t="array" aca="1" ref="B98" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A86,";",REPT(" ",LEN(A86)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A86)-LEN(SUBSTITUTE(A86,";",""))+1))*LEN(A86)+1,LEN(A86)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="99">
       <c r="B99">
-        <f t="array" aca="1" ref="B99" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A88,";",REPT(" ",LEN(A88)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A88)-LEN(SUBSTITUTE(A88,";",""))+1))*LEN(A88)+1,LEN(A88)+1)))</f>
+        <f t="array" aca="1" ref="B99" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A87,";",REPT(" ",LEN(A87)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A87)-LEN(SUBSTITUTE(A87,";",""))+1))*LEN(A87)+1,LEN(A87)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="100">
       <c r="B100">
-        <f t="array" aca="1" ref="B100" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A89,";",REPT(" ",LEN(A89)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A89)-LEN(SUBSTITUTE(A89,";",""))+1))*LEN(A89)+1,LEN(A89)+1)))</f>
+        <f t="array" aca="1" ref="B100" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A88,";",REPT(" ",LEN(A88)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A88)-LEN(SUBSTITUTE(A88,";",""))+1))*LEN(A88)+1,LEN(A88)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="101">
       <c r="B101">
-        <f t="array" aca="1" ref="B101" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A90,";",REPT(" ",LEN(A90)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A90)-LEN(SUBSTITUTE(A90,";",""))+1))*LEN(A90)+1,LEN(A90)+1)))</f>
+        <f t="array" aca="1" ref="B101" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A89,";",REPT(" ",LEN(A89)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A89)-LEN(SUBSTITUTE(A89,";",""))+1))*LEN(A89)+1,LEN(A89)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="102">
       <c r="B102">
-        <f t="array" aca="1" ref="B102" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A91,";",REPT(" ",LEN(A91)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A91)-LEN(SUBSTITUTE(A91,";",""))+1))*LEN(A91)+1,LEN(A91)+1)))</f>
+        <f t="array" aca="1" ref="B102" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A90,";",REPT(" ",LEN(A90)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A90)-LEN(SUBSTITUTE(A90,";",""))+1))*LEN(A90)+1,LEN(A90)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="103">
       <c r="B103">
-        <f t="array" aca="1" ref="B103" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A92,";",REPT(" ",LEN(A92)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A92)-LEN(SUBSTITUTE(A92,";",""))+1))*LEN(A92)+1,LEN(A92)+1)))</f>
+        <f t="array" aca="1" ref="B103" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A91,";",REPT(" ",LEN(A91)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A91)-LEN(SUBSTITUTE(A91,";",""))+1))*LEN(A91)+1,LEN(A91)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="104">
       <c r="B104">
-        <f t="array" aca="1" ref="B104" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A93,";",REPT(" ",LEN(A93)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A93)-LEN(SUBSTITUTE(A93,";",""))+1))*LEN(A93)+1,LEN(A93)+1)))</f>
+        <f t="array" aca="1" ref="B104" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A92,";",REPT(" ",LEN(A92)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A92)-LEN(SUBSTITUTE(A92,";",""))+1))*LEN(A92)+1,LEN(A92)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="105">
       <c r="B105">
-        <f t="array" aca="1" ref="B105" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A94,";",REPT(" ",LEN(A94)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A94)-LEN(SUBSTITUTE(A94,";",""))+1))*LEN(A94)+1,LEN(A94)+1)))</f>
+        <f t="array" aca="1" ref="B105" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A93,";",REPT(" ",LEN(A93)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A93)-LEN(SUBSTITUTE(A93,";",""))+1))*LEN(A93)+1,LEN(A93)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="106">
       <c r="B106">
-        <f t="array" aca="1" ref="B106" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A95,";",REPT(" ",LEN(A95)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A95)-LEN(SUBSTITUTE(A95,";",""))+1))*LEN(A95)+1,LEN(A95)+1)))</f>
+        <f t="array" aca="1" ref="B106" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A94,";",REPT(" ",LEN(A94)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A94)-LEN(SUBSTITUTE(A94,";",""))+1))*LEN(A94)+1,LEN(A94)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="107">
       <c r="B107">
-        <f t="array" aca="1" ref="B107" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A96,";",REPT(" ",LEN(A96)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A96)-LEN(SUBSTITUTE(A96,";",""))+1))*LEN(A96)+1,LEN(A96)+1)))</f>
+        <f t="array" aca="1" ref="B107" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A95,";",REPT(" ",LEN(A95)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A95)-LEN(SUBSTITUTE(A95,";",""))+1))*LEN(A95)+1,LEN(A95)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="108">
       <c r="B108">
-        <f t="array" aca="1" ref="B108" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A97,";",REPT(" ",LEN(A97)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A97)-LEN(SUBSTITUTE(A97,";",""))+1))*LEN(A97)+1,LEN(A97)+1)))</f>
+        <f t="array" aca="1" ref="B108" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A96,";",REPT(" ",LEN(A96)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A96)-LEN(SUBSTITUTE(A96,";",""))+1))*LEN(A96)+1,LEN(A96)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="109">
       <c r="B109">
-        <f t="array" aca="1" ref="B109" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A98,";",REPT(" ",LEN(A98)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A98)-LEN(SUBSTITUTE(A98,";",""))+1))*LEN(A98)+1,LEN(A98)+1)))</f>
+        <f t="array" aca="1" ref="B109" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A97,";",REPT(" ",LEN(A97)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A97)-LEN(SUBSTITUTE(A97,";",""))+1))*LEN(A97)+1,LEN(A97)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="110">
       <c r="B110">
-        <f t="array" aca="1" ref="B110" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A99,";",REPT(" ",LEN(A99)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A99)-LEN(SUBSTITUTE(A99,";",""))+1))*LEN(A99)+1,LEN(A99)+1)))</f>
+        <f t="array" aca="1" ref="B110" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A98,";",REPT(" ",LEN(A98)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A98)-LEN(SUBSTITUTE(A98,";",""))+1))*LEN(A98)+1,LEN(A98)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="111">
       <c r="B111">
-        <f t="array" aca="1" ref="B111" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A100,";",REPT(" ",LEN(A100)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A100)-LEN(SUBSTITUTE(A100,";",""))+1))*LEN(A100)+1,LEN(A100)+1)))</f>
+        <f t="array" aca="1" ref="B111" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A99,";",REPT(" ",LEN(A99)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A99)-LEN(SUBSTITUTE(A99,";",""))+1))*LEN(A99)+1,LEN(A99)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="112">
       <c r="B112">
-        <f t="array" aca="1" ref="B112" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A101,";",REPT(" ",LEN(A101)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A101)-LEN(SUBSTITUTE(A101,";",""))+1))*LEN(A101)+1,LEN(A101)+1)))</f>
+        <f t="array" aca="1" ref="B112" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A100,";",REPT(" ",LEN(A100)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A100)-LEN(SUBSTITUTE(A100,";",""))+1))*LEN(A100)+1,LEN(A100)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="113">
       <c r="B113">
-        <f t="array" aca="1" ref="B113" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A102,";",REPT(" ",LEN(A102)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A102)-LEN(SUBSTITUTE(A102,";",""))+1))*LEN(A102)+1,LEN(A102)+1)))</f>
+        <f t="array" aca="1" ref="B113" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A101,";",REPT(" ",LEN(A101)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A101)-LEN(SUBSTITUTE(A101,";",""))+1))*LEN(A101)+1,LEN(A101)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="114">
       <c r="B114">
-        <f t="array" aca="1" ref="B114" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A103,";",REPT(" ",LEN(A103)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A103)-LEN(SUBSTITUTE(A103,";",""))+1))*LEN(A103)+1,LEN(A103)+1)))</f>
+        <f t="array" aca="1" ref="B114" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A102,";",REPT(" ",LEN(A102)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A102)-LEN(SUBSTITUTE(A102,";",""))+1))*LEN(A102)+1,LEN(A102)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="115">
       <c r="B115">
-        <f t="array" aca="1" ref="B115" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A104,";",REPT(" ",LEN(A104)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A104)-LEN(SUBSTITUTE(A104,";",""))+1))*LEN(A104)+1,LEN(A104)+1)))</f>
+        <f t="array" aca="1" ref="B115" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A103,";",REPT(" ",LEN(A103)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A103)-LEN(SUBSTITUTE(A103,";",""))+1))*LEN(A103)+1,LEN(A103)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="116">
       <c r="B116">
-        <f t="array" aca="1" ref="B116" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A105,";",REPT(" ",LEN(A105)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A105)-LEN(SUBSTITUTE(A105,";",""))+1))*LEN(A105)+1,LEN(A105)+1)))</f>
+        <f t="array" aca="1" ref="B116" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A104,";",REPT(" ",LEN(A104)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A104)-LEN(SUBSTITUTE(A104,";",""))+1))*LEN(A104)+1,LEN(A104)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="117">
       <c r="B117">
-        <f t="array" aca="1" ref="B117" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A106,";",REPT(" ",LEN(A106)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A106)-LEN(SUBSTITUTE(A106,";",""))+1))*LEN(A106)+1,LEN(A106)+1)))</f>
+        <f t="array" aca="1" ref="B117" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A105,";",REPT(" ",LEN(A105)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A105)-LEN(SUBSTITUTE(A105,";",""))+1))*LEN(A105)+1,LEN(A105)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="118">
       <c r="B118">
-        <f t="array" aca="1" ref="B118" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A107,";",REPT(" ",LEN(A107)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A107)-LEN(SUBSTITUTE(A107,";",""))+1))*LEN(A107)+1,LEN(A107)+1)))</f>
+        <f t="array" aca="1" ref="B118" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A106,";",REPT(" ",LEN(A106)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A106)-LEN(SUBSTITUTE(A106,";",""))+1))*LEN(A106)+1,LEN(A106)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="119">
       <c r="B119">
-        <f t="array" aca="1" ref="B119" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A108,";",REPT(" ",LEN(A108)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A108)-LEN(SUBSTITUTE(A108,";",""))+1))*LEN(A108)+1,LEN(A108)+1)))</f>
+        <f t="array" aca="1" ref="B119" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A107,";",REPT(" ",LEN(A107)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A107)-LEN(SUBSTITUTE(A107,";",""))+1))*LEN(A107)+1,LEN(A107)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="120">
       <c r="B120">
-        <f t="array" aca="1" ref="B120" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A109,";",REPT(" ",LEN(A109)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A109)-LEN(SUBSTITUTE(A109,";",""))+1))*LEN(A109)+1,LEN(A109)+1)))</f>
+        <f t="array" aca="1" ref="B120" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A108,";",REPT(" ",LEN(A108)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A108)-LEN(SUBSTITUTE(A108,";",""))+1))*LEN(A108)+1,LEN(A108)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="121">
       <c r="B121">
-        <f t="array" aca="1" ref="B121" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A110,";",REPT(" ",LEN(A110)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A110)-LEN(SUBSTITUTE(A110,";",""))+1))*LEN(A110)+1,LEN(A110)+1)))</f>
+        <f t="array" aca="1" ref="B121" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A109,";",REPT(" ",LEN(A109)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A109)-LEN(SUBSTITUTE(A109,";",""))+1))*LEN(A109)+1,LEN(A109)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="122">
       <c r="B122">
-        <f t="array" aca="1" ref="B122" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A111,";",REPT(" ",LEN(A111)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A111)-LEN(SUBSTITUTE(A111,";",""))+1))*LEN(A111)+1,LEN(A111)+1)))</f>
+        <f t="array" aca="1" ref="B122" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A110,";",REPT(" ",LEN(A110)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A110)-LEN(SUBSTITUTE(A110,";",""))+1))*LEN(A110)+1,LEN(A110)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="123">
       <c r="B123">
-        <f t="array" aca="1" ref="B123" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A112,";",REPT(" ",LEN(A112)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A112)-LEN(SUBSTITUTE(A112,";",""))+1))*LEN(A112)+1,LEN(A112)+1)))</f>
+        <f t="array" aca="1" ref="B123" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A111,";",REPT(" ",LEN(A111)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A111)-LEN(SUBSTITUTE(A111,";",""))+1))*LEN(A111)+1,LEN(A111)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="124">
       <c r="B124">
-        <f t="array" aca="1" ref="B124" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A113,";",REPT(" ",LEN(A113)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A113)-LEN(SUBSTITUTE(A113,";",""))+1))*LEN(A113)+1,LEN(A113)+1)))</f>
+        <f t="array" aca="1" ref="B124" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A112,";",REPT(" ",LEN(A112)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A112)-LEN(SUBSTITUTE(A112,";",""))+1))*LEN(A112)+1,LEN(A112)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="125">
       <c r="B125">
-        <f t="array" aca="1" ref="B125" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A114,";",REPT(" ",LEN(A114)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A114)-LEN(SUBSTITUTE(A114,";",""))+1))*LEN(A114)+1,LEN(A114)+1)))</f>
+        <f t="array" aca="1" ref="B125" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A113,";",REPT(" ",LEN(A113)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A113)-LEN(SUBSTITUTE(A113,";",""))+1))*LEN(A113)+1,LEN(A113)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="126">
       <c r="B126">
-        <f t="array" aca="1" ref="B126" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A115,";",REPT(" ",LEN(A115)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A115)-LEN(SUBSTITUTE(A115,";",""))+1))*LEN(A115)+1,LEN(A115)+1)))</f>
+        <f t="array" aca="1" ref="B126" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A114,";",REPT(" ",LEN(A114)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A114)-LEN(SUBSTITUTE(A114,";",""))+1))*LEN(A114)+1,LEN(A114)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="127">
       <c r="B127">
-        <f t="array" aca="1" ref="B127" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A116,";",REPT(" ",LEN(A116)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A116)-LEN(SUBSTITUTE(A116,";",""))+1))*LEN(A116)+1,LEN(A116)+1)))</f>
+        <f t="array" aca="1" ref="B127" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A115,";",REPT(" ",LEN(A115)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A115)-LEN(SUBSTITUTE(A115,";",""))+1))*LEN(A115)+1,LEN(A115)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="128">
       <c r="B128">
-        <f t="array" aca="1" ref="B128" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A117,";",REPT(" ",LEN(A117)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A117)-LEN(SUBSTITUTE(A117,";",""))+1))*LEN(A117)+1,LEN(A117)+1)))</f>
+        <f t="array" aca="1" ref="B128" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A116,";",REPT(" ",LEN(A116)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A116)-LEN(SUBSTITUTE(A116,";",""))+1))*LEN(A116)+1,LEN(A116)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="129">
       <c r="B129">
-        <f t="array" aca="1" ref="B129" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A118,";",REPT(" ",LEN(A118)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A118)-LEN(SUBSTITUTE(A118,";",""))+1))*LEN(A118)+1,LEN(A118)+1)))</f>
+        <f t="array" aca="1" ref="B129" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A117,";",REPT(" ",LEN(A117)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A117)-LEN(SUBSTITUTE(A117,";",""))+1))*LEN(A117)+1,LEN(A117)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="130">
       <c r="B130">
-        <f t="array" aca="1" ref="B130" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A119,";",REPT(" ",LEN(A119)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A119)-LEN(SUBSTITUTE(A119,";",""))+1))*LEN(A119)+1,LEN(A119)+1)))</f>
+        <f t="array" aca="1" ref="B130" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A118,";",REPT(" ",LEN(A118)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A118)-LEN(SUBSTITUTE(A118,";",""))+1))*LEN(A118)+1,LEN(A118)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="131">
       <c r="B131">
-        <f t="array" aca="1" ref="B131" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A120,";",REPT(" ",LEN(A120)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A120)-LEN(SUBSTITUTE(A120,";",""))+1))*LEN(A120)+1,LEN(A120)+1)))</f>
+        <f t="array" aca="1" ref="B131" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A119,";",REPT(" ",LEN(A119)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A119)-LEN(SUBSTITUTE(A119,";",""))+1))*LEN(A119)+1,LEN(A119)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="132">
       <c r="B132">
-        <f t="array" aca="1" ref="B132" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A121,";",REPT(" ",LEN(A121)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A121)-LEN(SUBSTITUTE(A121,";",""))+1))*LEN(A121)+1,LEN(A121)+1)))</f>
+        <f t="array" aca="1" ref="B132" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A120,";",REPT(" ",LEN(A120)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A120)-LEN(SUBSTITUTE(A120,";",""))+1))*LEN(A120)+1,LEN(A120)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="133">
       <c r="B133">
-        <f t="array" aca="1" ref="B133" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A122,";",REPT(" ",LEN(A122)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A122)-LEN(SUBSTITUTE(A122,";",""))+1))*LEN(A122)+1,LEN(A122)+1)))</f>
+        <f t="array" aca="1" ref="B133" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A121,";",REPT(" ",LEN(A121)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A121)-LEN(SUBSTITUTE(A121,";",""))+1))*LEN(A121)+1,LEN(A121)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="134">
       <c r="B134">
-        <f t="array" aca="1" ref="B134" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A123,";",REPT(" ",LEN(A123)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A123)-LEN(SUBSTITUTE(A123,";",""))+1))*LEN(A123)+1,LEN(A123)+1)))</f>
+        <f t="array" aca="1" ref="B134" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A122,";",REPT(" ",LEN(A122)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A122)-LEN(SUBSTITUTE(A122,";",""))+1))*LEN(A122)+1,LEN(A122)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="135">
       <c r="B135">
-        <f t="array" aca="1" ref="B135" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A124,";",REPT(" ",LEN(A124)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A124)-LEN(SUBSTITUTE(A124,";",""))+1))*LEN(A124)+1,LEN(A124)+1)))</f>
+        <f t="array" aca="1" ref="B135" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A123,";",REPT(" ",LEN(A123)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A123)-LEN(SUBSTITUTE(A123,";",""))+1))*LEN(A123)+1,LEN(A123)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="136">
       <c r="B136">
-        <f t="array" aca="1" ref="B136" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A125,";",REPT(" ",LEN(A125)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A125)-LEN(SUBSTITUTE(A125,";",""))+1))*LEN(A125)+1,LEN(A125)+1)))</f>
+        <f t="array" aca="1" ref="B136" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A124,";",REPT(" ",LEN(A124)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A124)-LEN(SUBSTITUTE(A124,";",""))+1))*LEN(A124)+1,LEN(A124)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="137">
       <c r="B137">
-        <f t="array" aca="1" ref="B137" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A126,";",REPT(" ",LEN(A126)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A126)-LEN(SUBSTITUTE(A126,";",""))+1))*LEN(A126)+1,LEN(A126)+1)))</f>
+        <f t="array" aca="1" ref="B137" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A125,";",REPT(" ",LEN(A125)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A125)-LEN(SUBSTITUTE(A125,";",""))+1))*LEN(A125)+1,LEN(A125)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="138">
       <c r="B138">
-        <f t="array" aca="1" ref="B138" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A127,";",REPT(" ",LEN(A127)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A127)-LEN(SUBSTITUTE(A127,";",""))+1))*LEN(A127)+1,LEN(A127)+1)))</f>
+        <f t="array" aca="1" ref="B138" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A126,";",REPT(" ",LEN(A126)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A126)-LEN(SUBSTITUTE(A126,";",""))+1))*LEN(A126)+1,LEN(A126)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="139">
       <c r="B139">
-        <f t="array" aca="1" ref="B139" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A128,";",REPT(" ",LEN(A128)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A128)-LEN(SUBSTITUTE(A128,";",""))+1))*LEN(A128)+1,LEN(A128)+1)))</f>
+        <f t="array" aca="1" ref="B139" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A127,";",REPT(" ",LEN(A127)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A127)-LEN(SUBSTITUTE(A127,";",""))+1))*LEN(A127)+1,LEN(A127)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="140">
       <c r="B140">
-        <f t="array" aca="1" ref="B140" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A129,";",REPT(" ",LEN(A129)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A129)-LEN(SUBSTITUTE(A129,";",""))+1))*LEN(A129)+1,LEN(A129)+1)))</f>
+        <f t="array" aca="1" ref="B140" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A128,";",REPT(" ",LEN(A128)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A128)-LEN(SUBSTITUTE(A128,";",""))+1))*LEN(A128)+1,LEN(A128)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="141">
       <c r="B141">
-        <f t="array" aca="1" ref="B141" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A130,";",REPT(" ",LEN(A130)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A130)-LEN(SUBSTITUTE(A130,";",""))+1))*LEN(A130)+1,LEN(A130)+1)))</f>
+        <f t="array" aca="1" ref="B141" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A129,";",REPT(" ",LEN(A129)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A129)-LEN(SUBSTITUTE(A129,";",""))+1))*LEN(A129)+1,LEN(A129)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="142">
       <c r="B142">
-        <f t="array" aca="1" ref="B142" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A131,";",REPT(" ",LEN(A131)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A131)-LEN(SUBSTITUTE(A131,";",""))+1))*LEN(A131)+1,LEN(A131)+1)))</f>
+        <f t="array" aca="1" ref="B142" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A130,";",REPT(" ",LEN(A130)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A130)-LEN(SUBSTITUTE(A130,";",""))+1))*LEN(A130)+1,LEN(A130)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="143">
       <c r="B143">
-        <f t="array" aca="1" ref="B143" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A132,";",REPT(" ",LEN(A132)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A132)-LEN(SUBSTITUTE(A132,";",""))+1))*LEN(A132)+1,LEN(A132)+1)))</f>
+        <f t="array" aca="1" ref="B143" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A131,";",REPT(" ",LEN(A131)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A131)-LEN(SUBSTITUTE(A131,";",""))+1))*LEN(A131)+1,LEN(A131)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="144">
       <c r="B144">
-        <f t="array" aca="1" ref="B144" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A133,";",REPT(" ",LEN(A133)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A133)-LEN(SUBSTITUTE(A133,";",""))+1))*LEN(A133)+1,LEN(A133)+1)))</f>
+        <f t="array" aca="1" ref="B144" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A132,";",REPT(" ",LEN(A132)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A132)-LEN(SUBSTITUTE(A132,";",""))+1))*LEN(A132)+1,LEN(A132)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="145">
       <c r="B145">
-        <f t="array" aca="1" ref="B145" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A134,";",REPT(" ",LEN(A134)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A134)-LEN(SUBSTITUTE(A134,";",""))+1))*LEN(A134)+1,LEN(A134)+1)))</f>
+        <f t="array" aca="1" ref="B145" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A133,";",REPT(" ",LEN(A133)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A133)-LEN(SUBSTITUTE(A133,";",""))+1))*LEN(A133)+1,LEN(A133)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="146">
       <c r="B146">
-        <f t="array" aca="1" ref="B146" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A135,";",REPT(" ",LEN(A135)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A135)-LEN(SUBSTITUTE(A135,";",""))+1))*LEN(A135)+1,LEN(A135)+1)))</f>
+        <f t="array" aca="1" ref="B146" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A134,";",REPT(" ",LEN(A134)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A134)-LEN(SUBSTITUTE(A134,";",""))+1))*LEN(A134)+1,LEN(A134)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="147">
       <c r="B147">
-        <f t="array" aca="1" ref="B147" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A136,";",REPT(" ",LEN(A136)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A136)-LEN(SUBSTITUTE(A136,";",""))+1))*LEN(A136)+1,LEN(A136)+1)))</f>
+        <f t="array" aca="1" ref="B147" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A135,";",REPT(" ",LEN(A135)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A135)-LEN(SUBSTITUTE(A135,";",""))+1))*LEN(A135)+1,LEN(A135)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="148">
       <c r="B148">
-        <f t="array" aca="1" ref="B148" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A137,";",REPT(" ",LEN(A137)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A137)-LEN(SUBSTITUTE(A137,";",""))+1))*LEN(A137)+1,LEN(A137)+1)))</f>
+        <f t="array" aca="1" ref="B148" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A136,";",REPT(" ",LEN(A136)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A136)-LEN(SUBSTITUTE(A136,";",""))+1))*LEN(A136)+1,LEN(A136)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="149">
       <c r="B149">
-        <f t="array" aca="1" ref="B149" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A138,";",REPT(" ",LEN(A138)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A138)-LEN(SUBSTITUTE(A138,";",""))+1))*LEN(A138)+1,LEN(A138)+1)))</f>
+        <f t="array" aca="1" ref="B149" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A137,";",REPT(" ",LEN(A137)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A137)-LEN(SUBSTITUTE(A137,";",""))+1))*LEN(A137)+1,LEN(A137)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="150">
       <c r="B150">
-        <f t="array" aca="1" ref="B150" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A139,";",REPT(" ",LEN(A139)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A139)-LEN(SUBSTITUTE(A139,";",""))+1))*LEN(A139)+1,LEN(A139)+1)))</f>
+        <f t="array" aca="1" ref="B150" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A138,";",REPT(" ",LEN(A138)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A138)-LEN(SUBSTITUTE(A138,";",""))+1))*LEN(A138)+1,LEN(A138)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="151">
       <c r="B151">
-        <f t="array" aca="1" ref="B151" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A140,";",REPT(" ",LEN(A140)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A140)-LEN(SUBSTITUTE(A140,";",""))+1))*LEN(A140)+1,LEN(A140)+1)))</f>
+        <f t="array" aca="1" ref="B151" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A139,";",REPT(" ",LEN(A139)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A139)-LEN(SUBSTITUTE(A139,";",""))+1))*LEN(A139)+1,LEN(A139)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="152">
       <c r="B152">
-        <f t="array" aca="1" ref="B152" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A141,";",REPT(" ",LEN(A141)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A141)-LEN(SUBSTITUTE(A141,";",""))+1))*LEN(A141)+1,LEN(A141)+1)))</f>
+        <f t="array" aca="1" ref="B152" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A140,";",REPT(" ",LEN(A140)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A140)-LEN(SUBSTITUTE(A140,";",""))+1))*LEN(A140)+1,LEN(A140)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="153">
       <c r="B153">
-        <f t="array" aca="1" ref="B153" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A142,";",REPT(" ",LEN(A142)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A142)-LEN(SUBSTITUTE(A142,";",""))+1))*LEN(A142)+1,LEN(A142)+1)))</f>
+        <f t="array" aca="1" ref="B153" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A141,";",REPT(" ",LEN(A141)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A141)-LEN(SUBSTITUTE(A141,";",""))+1))*LEN(A141)+1,LEN(A141)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="154">
       <c r="B154">
-        <f t="array" aca="1" ref="B154" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A143,";",REPT(" ",LEN(A143)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A143)-LEN(SUBSTITUTE(A143,";",""))+1))*LEN(A143)+1,LEN(A143)+1)))</f>
+        <f t="array" aca="1" ref="B154" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A142,";",REPT(" ",LEN(A142)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A142)-LEN(SUBSTITUTE(A142,";",""))+1))*LEN(A142)+1,LEN(A142)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="155">
       <c r="B155">
-        <f t="array" aca="1" ref="B155" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A144,";",REPT(" ",LEN(A144)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A144)-LEN(SUBSTITUTE(A144,";",""))+1))*LEN(A144)+1,LEN(A144)+1)))</f>
+        <f t="array" aca="1" ref="B155" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A143,";",REPT(" ",LEN(A143)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A143)-LEN(SUBSTITUTE(A143,";",""))+1))*LEN(A143)+1,LEN(A143)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="156">
       <c r="B156">
-        <f t="array" aca="1" ref="B156" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A145,";",REPT(" ",LEN(A145)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A145)-LEN(SUBSTITUTE(A145,";",""))+1))*LEN(A145)+1,LEN(A145)+1)))</f>
+        <f t="array" aca="1" ref="B156" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A144,";",REPT(" ",LEN(A144)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A144)-LEN(SUBSTITUTE(A144,";",""))+1))*LEN(A144)+1,LEN(A144)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="157">
       <c r="B157">
-        <f t="array" aca="1" ref="B157" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A146,";",REPT(" ",LEN(A146)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A146)-LEN(SUBSTITUTE(A146,";",""))+1))*LEN(A146)+1,LEN(A146)+1)))</f>
+        <f t="array" aca="1" ref="B157" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A145,";",REPT(" ",LEN(A145)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A145)-LEN(SUBSTITUTE(A145,";",""))+1))*LEN(A145)+1,LEN(A145)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="158">
       <c r="B158">
-        <f t="array" aca="1" ref="B158" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A147,";",REPT(" ",LEN(A147)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A147)-LEN(SUBSTITUTE(A147,";",""))+1))*LEN(A147)+1,LEN(A147)+1)))</f>
+        <f t="array" aca="1" ref="B158" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A146,";",REPT(" ",LEN(A146)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A146)-LEN(SUBSTITUTE(A146,";",""))+1))*LEN(A146)+1,LEN(A146)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="159">
       <c r="B159">
-        <f t="array" aca="1" ref="B159" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A148,";",REPT(" ",LEN(A148)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A148)-LEN(SUBSTITUTE(A148,";",""))+1))*LEN(A148)+1,LEN(A148)+1)))</f>
+        <f t="array" aca="1" ref="B159" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A147,";",REPT(" ",LEN(A147)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A147)-LEN(SUBSTITUTE(A147,";",""))+1))*LEN(A147)+1,LEN(A147)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="160">
       <c r="B160">
-        <f t="array" aca="1" ref="B160" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A149,";",REPT(" ",LEN(A149)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A149)-LEN(SUBSTITUTE(A149,";",""))+1))*LEN(A149)+1,LEN(A149)+1)))</f>
+        <f t="array" aca="1" ref="B160" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A148,";",REPT(" ",LEN(A148)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A148)-LEN(SUBSTITUTE(A148,";",""))+1))*LEN(A148)+1,LEN(A148)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="161">
       <c r="B161">
-        <f t="array" aca="1" ref="B161" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A150,";",REPT(" ",LEN(A150)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A150)-LEN(SUBSTITUTE(A150,";",""))+1))*LEN(A150)+1,LEN(A150)+1)))</f>
+        <f t="array" aca="1" ref="B161" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A149,";",REPT(" ",LEN(A149)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A149)-LEN(SUBSTITUTE(A149,";",""))+1))*LEN(A149)+1,LEN(A149)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="162">
       <c r="B162">
-        <f t="array" aca="1" ref="B162" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A151,";",REPT(" ",LEN(A151)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A151)-LEN(SUBSTITUTE(A151,";",""))+1))*LEN(A151)+1,LEN(A151)+1)))</f>
+        <f t="array" aca="1" ref="B162" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A150,";",REPT(" ",LEN(A150)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A150)-LEN(SUBSTITUTE(A150,";",""))+1))*LEN(A150)+1,LEN(A150)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="163">
       <c r="B163">
-        <f t="array" aca="1" ref="B163" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A152,";",REPT(" ",LEN(A152)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A152)-LEN(SUBSTITUTE(A152,";",""))+1))*LEN(A152)+1,LEN(A152)+1)))</f>
+        <f t="array" aca="1" ref="B163" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A151,";",REPT(" ",LEN(A151)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A151)-LEN(SUBSTITUTE(A151,";",""))+1))*LEN(A151)+1,LEN(A151)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="164">
       <c r="B164">
-        <f t="array" aca="1" ref="B164" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A153,";",REPT(" ",LEN(A153)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A153)-LEN(SUBSTITUTE(A153,";",""))+1))*LEN(A153)+1,LEN(A153)+1)))</f>
+        <f t="array" aca="1" ref="B164" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A152,";",REPT(" ",LEN(A152)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A152)-LEN(SUBSTITUTE(A152,";",""))+1))*LEN(A152)+1,LEN(A152)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="165">
       <c r="B165">
-        <f t="array" aca="1" ref="B165" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A154,";",REPT(" ",LEN(A154)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A154)-LEN(SUBSTITUTE(A154,";",""))+1))*LEN(A154)+1,LEN(A154)+1)))</f>
+        <f t="array" aca="1" ref="B165" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A153,";",REPT(" ",LEN(A153)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A153)-LEN(SUBSTITUTE(A153,";",""))+1))*LEN(A153)+1,LEN(A153)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="166">
       <c r="B166">
-        <f t="array" aca="1" ref="B166" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A155,";",REPT(" ",LEN(A155)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A155)-LEN(SUBSTITUTE(A155,";",""))+1))*LEN(A155)+1,LEN(A155)+1)))</f>
+        <f t="array" aca="1" ref="B166" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A154,";",REPT(" ",LEN(A154)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A154)-LEN(SUBSTITUTE(A154,";",""))+1))*LEN(A154)+1,LEN(A154)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="167">
       <c r="B167">
-        <f t="array" aca="1" ref="B167" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A156,";",REPT(" ",LEN(A156)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A156)-LEN(SUBSTITUTE(A156,";",""))+1))*LEN(A156)+1,LEN(A156)+1)))</f>
+        <f t="array" aca="1" ref="B167" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A155,";",REPT(" ",LEN(A155)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A155)-LEN(SUBSTITUTE(A155,";",""))+1))*LEN(A155)+1,LEN(A155)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="168">
       <c r="B168">
-        <f t="array" aca="1" ref="B168" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A157,";",REPT(" ",LEN(A157)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A157)-LEN(SUBSTITUTE(A157,";",""))+1))*LEN(A157)+1,LEN(A157)+1)))</f>
+        <f t="array" aca="1" ref="B168" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A156,";",REPT(" ",LEN(A156)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A156)-LEN(SUBSTITUTE(A156,";",""))+1))*LEN(A156)+1,LEN(A156)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="169">
       <c r="B169">
-        <f t="array" aca="1" ref="B169" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A158,";",REPT(" ",LEN(A158)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A158)-LEN(SUBSTITUTE(A158,";",""))+1))*LEN(A158)+1,LEN(A158)+1)))</f>
+        <f t="array" aca="1" ref="B169" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A157,";",REPT(" ",LEN(A157)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A157)-LEN(SUBSTITUTE(A157,";",""))+1))*LEN(A157)+1,LEN(A157)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="170">
       <c r="B170">
-        <f t="array" aca="1" ref="B170" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A159,";",REPT(" ",LEN(A159)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A159)-LEN(SUBSTITUTE(A159,";",""))+1))*LEN(A159)+1,LEN(A159)+1)))</f>
+        <f t="array" aca="1" ref="B170" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A158,";",REPT(" ",LEN(A158)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A158)-LEN(SUBSTITUTE(A158,";",""))+1))*LEN(A158)+1,LEN(A158)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="171">
       <c r="B171">
-        <f t="array" aca="1" ref="B171" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A160,";",REPT(" ",LEN(A160)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A160)-LEN(SUBSTITUTE(A160,";",""))+1))*LEN(A160)+1,LEN(A160)+1)))</f>
+        <f t="array" aca="1" ref="B171" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A159,";",REPT(" ",LEN(A159)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A159)-LEN(SUBSTITUTE(A159,";",""))+1))*LEN(A159)+1,LEN(A159)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="172">
       <c r="B172">
-        <f t="array" aca="1" ref="B172" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A161,";",REPT(" ",LEN(A161)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A161)-LEN(SUBSTITUTE(A161,";",""))+1))*LEN(A161)+1,LEN(A161)+1)))</f>
+        <f t="array" aca="1" ref="B172" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A160,";",REPT(" ",LEN(A160)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A160)-LEN(SUBSTITUTE(A160,";",""))+1))*LEN(A160)+1,LEN(A160)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="173">
       <c r="B173">
-        <f t="array" aca="1" ref="B173" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A162,";",REPT(" ",LEN(A162)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A162)-LEN(SUBSTITUTE(A162,";",""))+1))*LEN(A162)+1,LEN(A162)+1)))</f>
+        <f t="array" aca="1" ref="B173" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A161,";",REPT(" ",LEN(A161)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A161)-LEN(SUBSTITUTE(A161,";",""))+1))*LEN(A161)+1,LEN(A161)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="174">
       <c r="B174">
-        <f t="array" aca="1" ref="B174" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A163,";",REPT(" ",LEN(A163)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A163)-LEN(SUBSTITUTE(A163,";",""))+1))*LEN(A163)+1,LEN(A163)+1)))</f>
+        <f t="array" aca="1" ref="B174" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A162,";",REPT(" ",LEN(A162)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A162)-LEN(SUBSTITUTE(A162,";",""))+1))*LEN(A162)+1,LEN(A162)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="175">
       <c r="B175">
-        <f t="array" aca="1" ref="B175" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A164,";",REPT(" ",LEN(A164)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A164)-LEN(SUBSTITUTE(A164,";",""))+1))*LEN(A164)+1,LEN(A164)+1)))</f>
+        <f t="array" aca="1" ref="B175" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A163,";",REPT(" ",LEN(A163)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A163)-LEN(SUBSTITUTE(A163,";",""))+1))*LEN(A163)+1,LEN(A163)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="176">
       <c r="B176">
-        <f t="array" aca="1" ref="B176" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A165,";",REPT(" ",LEN(A165)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A165)-LEN(SUBSTITUTE(A165,";",""))+1))*LEN(A165)+1,LEN(A165)+1)))</f>
+        <f t="array" aca="1" ref="B176" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A164,";",REPT(" ",LEN(A164)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A164)-LEN(SUBSTITUTE(A164,";",""))+1))*LEN(A164)+1,LEN(A164)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="177">
       <c r="B177">
-        <f t="array" aca="1" ref="B177" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A166,";",REPT(" ",LEN(A166)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A166)-LEN(SUBSTITUTE(A166,";",""))+1))*LEN(A166)+1,LEN(A166)+1)))</f>
+        <f t="array" aca="1" ref="B177" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A165,";",REPT(" ",LEN(A165)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A165)-LEN(SUBSTITUTE(A165,";",""))+1))*LEN(A165)+1,LEN(A165)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="178">
       <c r="B178">
-        <f t="array" aca="1" ref="B178" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A167,";",REPT(" ",LEN(A167)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A167)-LEN(SUBSTITUTE(A167,";",""))+1))*LEN(A167)+1,LEN(A167)+1)))</f>
+        <f t="array" aca="1" ref="B178" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A166,";",REPT(" ",LEN(A166)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A166)-LEN(SUBSTITUTE(A166,";",""))+1))*LEN(A166)+1,LEN(A166)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="179">
       <c r="B179">
-        <f t="array" aca="1" ref="B179" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A168,";",REPT(" ",LEN(A168)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A168)-LEN(SUBSTITUTE(A168,";",""))+1))*LEN(A168)+1,LEN(A168)+1)))</f>
+        <f t="array" aca="1" ref="B179" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A167,";",REPT(" ",LEN(A167)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A167)-LEN(SUBSTITUTE(A167,";",""))+1))*LEN(A167)+1,LEN(A167)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="180">
       <c r="B180">
-        <f t="array" aca="1" ref="B180" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A169,";",REPT(" ",LEN(A169)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A169)-LEN(SUBSTITUTE(A169,";",""))+1))*LEN(A169)+1,LEN(A169)+1)))</f>
+        <f t="array" aca="1" ref="B180" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A168,";",REPT(" ",LEN(A168)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A168)-LEN(SUBSTITUTE(A168,";",""))+1))*LEN(A168)+1,LEN(A168)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="181">
       <c r="B181">
-        <f t="array" aca="1" ref="B181" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A170,";",REPT(" ",LEN(A170)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A170)-LEN(SUBSTITUTE(A170,";",""))+1))*LEN(A170)+1,LEN(A170)+1)))</f>
+        <f t="array" aca="1" ref="B181" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A169,";",REPT(" ",LEN(A169)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A169)-LEN(SUBSTITUTE(A169,";",""))+1))*LEN(A169)+1,LEN(A169)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="182">
       <c r="B182">
-        <f t="array" aca="1" ref="B182" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A171,";",REPT(" ",LEN(A171)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A171)-LEN(SUBSTITUTE(A171,";",""))+1))*LEN(A171)+1,LEN(A171)+1)))</f>
+        <f t="array" aca="1" ref="B182" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A170,";",REPT(" ",LEN(A170)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A170)-LEN(SUBSTITUTE(A170,";",""))+1))*LEN(A170)+1,LEN(A170)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="183">
       <c r="B183">
-        <f t="array" aca="1" ref="B183" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A172,";",REPT(" ",LEN(A172)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A172)-LEN(SUBSTITUTE(A172,";",""))+1))*LEN(A172)+1,LEN(A172)+1)))</f>
+        <f t="array" aca="1" ref="B183" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A171,";",REPT(" ",LEN(A171)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A171)-LEN(SUBSTITUTE(A171,";",""))+1))*LEN(A171)+1,LEN(A171)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="184">
       <c r="B184">
-        <f t="array" aca="1" ref="B184" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A173,";",REPT(" ",LEN(A173)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A173)-LEN(SUBSTITUTE(A173,";",""))+1))*LEN(A173)+1,LEN(A173)+1)))</f>
+        <f t="array" aca="1" ref="B184" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A172,";",REPT(" ",LEN(A172)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A172)-LEN(SUBSTITUTE(A172,";",""))+1))*LEN(A172)+1,LEN(A172)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="185">
       <c r="B185">
-        <f t="array" aca="1" ref="B185" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A174,";",REPT(" ",LEN(A174)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A174)-LEN(SUBSTITUTE(A174,";",""))+1))*LEN(A174)+1,LEN(A174)+1)))</f>
+        <f t="array" aca="1" ref="B185" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A173,";",REPT(" ",LEN(A173)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A173)-LEN(SUBSTITUTE(A173,";",""))+1))*LEN(A173)+1,LEN(A173)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="186">
       <c r="B186">
-        <f t="array" aca="1" ref="B186" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A175,";",REPT(" ",LEN(A175)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A175)-LEN(SUBSTITUTE(A175,";",""))+1))*LEN(A175)+1,LEN(A175)+1)))</f>
+        <f t="array" aca="1" ref="B186" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A174,";",REPT(" ",LEN(A174)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A174)-LEN(SUBSTITUTE(A174,";",""))+1))*LEN(A174)+1,LEN(A174)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="187">
       <c r="B187">
-        <f t="array" aca="1" ref="B187" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A176,";",REPT(" ",LEN(A176)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A176)-LEN(SUBSTITUTE(A176,";",""))+1))*LEN(A176)+1,LEN(A176)+1)))</f>
+        <f t="array" aca="1" ref="B187" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A175,";",REPT(" ",LEN(A175)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A175)-LEN(SUBSTITUTE(A175,";",""))+1))*LEN(A175)+1,LEN(A175)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="188">
       <c r="B188">
-        <f t="array" aca="1" ref="B188" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A177,";",REPT(" ",LEN(A177)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A177)-LEN(SUBSTITUTE(A177,";",""))+1))*LEN(A177)+1,LEN(A177)+1)))</f>
+        <f t="array" aca="1" ref="B188" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A176,";",REPT(" ",LEN(A176)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A176)-LEN(SUBSTITUTE(A176,";",""))+1))*LEN(A176)+1,LEN(A176)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="189">
       <c r="B189">
-        <f t="array" aca="1" ref="B189" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A178,";",REPT(" ",LEN(A178)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A178)-LEN(SUBSTITUTE(A178,";",""))+1))*LEN(A178)+1,LEN(A178)+1)))</f>
+        <f t="array" aca="1" ref="B189" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A177,";",REPT(" ",LEN(A177)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A177)-LEN(SUBSTITUTE(A177,";",""))+1))*LEN(A177)+1,LEN(A177)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="190">
       <c r="B190">
-        <f t="array" aca="1" ref="B190" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A179,";",REPT(" ",LEN(A179)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A179)-LEN(SUBSTITUTE(A179,";",""))+1))*LEN(A179)+1,LEN(A179)+1)))</f>
+        <f t="array" aca="1" ref="B190" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A178,";",REPT(" ",LEN(A178)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A178)-LEN(SUBSTITUTE(A178,";",""))+1))*LEN(A178)+1,LEN(A178)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="191">
       <c r="B191">
-        <f t="array" aca="1" ref="B191" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A180,";",REPT(" ",LEN(A180)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A180)-LEN(SUBSTITUTE(A180,";",""))+1))*LEN(A180)+1,LEN(A180)+1)))</f>
+        <f t="array" aca="1" ref="B191" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A179,";",REPT(" ",LEN(A179)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A179)-LEN(SUBSTITUTE(A179,";",""))+1))*LEN(A179)+1,LEN(A179)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="192">
       <c r="B192">
-        <f t="array" aca="1" ref="B192" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A181,";",REPT(" ",LEN(A181)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A181)-LEN(SUBSTITUTE(A181,";",""))+1))*LEN(A181)+1,LEN(A181)+1)))</f>
+        <f t="array" aca="1" ref="B192" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A180,";",REPT(" ",LEN(A180)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A180)-LEN(SUBSTITUTE(A180,";",""))+1))*LEN(A180)+1,LEN(A180)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="193">
       <c r="B193">
-        <f t="array" aca="1" ref="B193" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A182,";",REPT(" ",LEN(A182)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A182)-LEN(SUBSTITUTE(A182,";",""))+1))*LEN(A182)+1,LEN(A182)+1)))</f>
+        <f t="array" aca="1" ref="B193" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A181,";",REPT(" ",LEN(A181)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A181)-LEN(SUBSTITUTE(A181,";",""))+1))*LEN(A181)+1,LEN(A181)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="194">
       <c r="B194">
-        <f t="array" aca="1" ref="B194" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A183,";",REPT(" ",LEN(A183)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A183)-LEN(SUBSTITUTE(A183,";",""))+1))*LEN(A183)+1,LEN(A183)+1)))</f>
+        <f t="array" aca="1" ref="B194" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A182,";",REPT(" ",LEN(A182)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A182)-LEN(SUBSTITUTE(A182,";",""))+1))*LEN(A182)+1,LEN(A182)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="195">
       <c r="B195">
-        <f t="array" aca="1" ref="B195" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A184,";",REPT(" ",LEN(A184)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A184)-LEN(SUBSTITUTE(A184,";",""))+1))*LEN(A184)+1,LEN(A184)+1)))</f>
+        <f t="array" aca="1" ref="B195" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A183,";",REPT(" ",LEN(A183)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A183)-LEN(SUBSTITUTE(A183,";",""))+1))*LEN(A183)+1,LEN(A183)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="196">
       <c r="B196">
-        <f t="array" aca="1" ref="B196" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A185,";",REPT(" ",LEN(A185)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A185)-LEN(SUBSTITUTE(A185,";",""))+1))*LEN(A185)+1,LEN(A185)+1)))</f>
+        <f t="array" aca="1" ref="B196" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A184,";",REPT(" ",LEN(A184)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A184)-LEN(SUBSTITUTE(A184,";",""))+1))*LEN(A184)+1,LEN(A184)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="197">
       <c r="B197">
-        <f t="array" aca="1" ref="B197" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A186,";",REPT(" ",LEN(A186)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A186)-LEN(SUBSTITUTE(A186,";",""))+1))*LEN(A186)+1,LEN(A186)+1)))</f>
+        <f t="array" aca="1" ref="B197" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A185,";",REPT(" ",LEN(A185)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A185)-LEN(SUBSTITUTE(A185,";",""))+1))*LEN(A185)+1,LEN(A185)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="198">
       <c r="B198">
-        <f t="array" aca="1" ref="B198" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A187,";",REPT(" ",LEN(A187)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A187)-LEN(SUBSTITUTE(A187,";",""))+1))*LEN(A187)+1,LEN(A187)+1)))</f>
+        <f t="array" aca="1" ref="B198" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A186,";",REPT(" ",LEN(A186)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A186)-LEN(SUBSTITUTE(A186,";",""))+1))*LEN(A186)+1,LEN(A186)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="199">
       <c r="B199">
-        <f t="array" aca="1" ref="B199" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A188,";",REPT(" ",LEN(A188)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A188)-LEN(SUBSTITUTE(A188,";",""))+1))*LEN(A188)+1,LEN(A188)+1)))</f>
+        <f t="array" aca="1" ref="B199" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A187,";",REPT(" ",LEN(A187)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A187)-LEN(SUBSTITUTE(A187,";",""))+1))*LEN(A187)+1,LEN(A187)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="200">
       <c r="B200">
-        <f t="array" aca="1" ref="B200" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A189,";",REPT(" ",LEN(A189)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A189)-LEN(SUBSTITUTE(A189,";",""))+1))*LEN(A189)+1,LEN(A189)+1)))</f>
+        <f t="array" aca="1" ref="B200" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A188,";",REPT(" ",LEN(A188)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A188)-LEN(SUBSTITUTE(A188,";",""))+1))*LEN(A188)+1,LEN(A188)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="201">
       <c r="B201">
-        <f t="array" aca="1" ref="B201" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A190,";",REPT(" ",LEN(A190)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A190)-LEN(SUBSTITUTE(A190,";",""))+1))*LEN(A190)+1,LEN(A190)+1)))</f>
+        <f t="array" aca="1" ref="B201" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A189,";",REPT(" ",LEN(A189)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A189)-LEN(SUBSTITUTE(A189,";",""))+1))*LEN(A189)+1,LEN(A189)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="202">
       <c r="B202">
-        <f t="array" aca="1" ref="B202" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A191,";",REPT(" ",LEN(A191)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A191)-LEN(SUBSTITUTE(A191,";",""))+1))*LEN(A191)+1,LEN(A191)+1)))</f>
+        <f t="array" aca="1" ref="B202" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A190,";",REPT(" ",LEN(A190)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A190)-LEN(SUBSTITUTE(A190,";",""))+1))*LEN(A190)+1,LEN(A190)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="203">
       <c r="B203">
-        <f t="array" aca="1" ref="B203" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A192,";",REPT(" ",LEN(A192)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A192)-LEN(SUBSTITUTE(A192,";",""))+1))*LEN(A192)+1,LEN(A192)+1)))</f>
+        <f t="array" aca="1" ref="B203" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A191,";",REPT(" ",LEN(A191)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A191)-LEN(SUBSTITUTE(A191,";",""))+1))*LEN(A191)+1,LEN(A191)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="204">
       <c r="B204">
-        <f t="array" aca="1" ref="B204" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A193,";",REPT(" ",LEN(A193)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A193)-LEN(SUBSTITUTE(A193,";",""))+1))*LEN(A193)+1,LEN(A193)+1)))</f>
+        <f t="array" aca="1" ref="B204" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A192,";",REPT(" ",LEN(A192)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A192)-LEN(SUBSTITUTE(A192,";",""))+1))*LEN(A192)+1,LEN(A192)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="205">
       <c r="B205">
-        <f t="array" aca="1" ref="B205" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A194,";",REPT(" ",LEN(A194)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A194)-LEN(SUBSTITUTE(A194,";",""))+1))*LEN(A194)+1,LEN(A194)+1)))</f>
+        <f t="array" aca="1" ref="B205" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A193,";",REPT(" ",LEN(A193)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A193)-LEN(SUBSTITUTE(A193,";",""))+1))*LEN(A193)+1,LEN(A193)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="206">
       <c r="B206">
-        <f t="array" aca="1" ref="B206" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A195,";",REPT(" ",LEN(A195)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A195)-LEN(SUBSTITUTE(A195,";",""))+1))*LEN(A195)+1,LEN(A195)+1)))</f>
+        <f t="array" aca="1" ref="B206" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A194,";",REPT(" ",LEN(A194)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A194)-LEN(SUBSTITUTE(A194,";",""))+1))*LEN(A194)+1,LEN(A194)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="207">
       <c r="B207">
-        <f t="array" aca="1" ref="B207" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A196,";",REPT(" ",LEN(A196)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A196)-LEN(SUBSTITUTE(A196,";",""))+1))*LEN(A196)+1,LEN(A196)+1)))</f>
+        <f t="array" aca="1" ref="B207" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A195,";",REPT(" ",LEN(A195)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A195)-LEN(SUBSTITUTE(A195,";",""))+1))*LEN(A195)+1,LEN(A195)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="208">
       <c r="B208">
-        <f t="array" aca="1" ref="B208" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A197,";",REPT(" ",LEN(A197)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A197)-LEN(SUBSTITUTE(A197,";",""))+1))*LEN(A197)+1,LEN(A197)+1)))</f>
+        <f t="array" aca="1" ref="B208" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A196,";",REPT(" ",LEN(A196)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A196)-LEN(SUBSTITUTE(A196,";",""))+1))*LEN(A196)+1,LEN(A196)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="209">
       <c r="B209">
-        <f t="array" aca="1" ref="B209" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A198,";",REPT(" ",LEN(A198)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A198)-LEN(SUBSTITUTE(A198,";",""))+1))*LEN(A198)+1,LEN(A198)+1)))</f>
+        <f t="array" aca="1" ref="B209" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A197,";",REPT(" ",LEN(A197)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A197)-LEN(SUBSTITUTE(A197,";",""))+1))*LEN(A197)+1,LEN(A197)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="210">
       <c r="B210">
-        <f t="array" aca="1" ref="B210" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A199,";",REPT(" ",LEN(A199)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A199)-LEN(SUBSTITUTE(A199,";",""))+1))*LEN(A199)+1,LEN(A199)+1)))</f>
+        <f t="array" aca="1" ref="B210" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A198,";",REPT(" ",LEN(A198)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A198)-LEN(SUBSTITUTE(A198,";",""))+1))*LEN(A198)+1,LEN(A198)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="211">
       <c r="B211">
-        <f t="array" aca="1" ref="B211" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A200,";",REPT(" ",LEN(A200)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A200)-LEN(SUBSTITUTE(A200,";",""))+1))*LEN(A200)+1,LEN(A200)+1)))</f>
+        <f t="array" aca="1" ref="B211" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A199,";",REPT(" ",LEN(A199)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A199)-LEN(SUBSTITUTE(A199,";",""))+1))*LEN(A199)+1,LEN(A199)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="212">
       <c r="B212">
-        <f t="array" aca="1" ref="B212" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A201,";",REPT(" ",LEN(A201)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A201)-LEN(SUBSTITUTE(A201,";",""))+1))*LEN(A201)+1,LEN(A201)+1)))</f>
+        <f t="array" aca="1" ref="B212" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A200,";",REPT(" ",LEN(A200)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A200)-LEN(SUBSTITUTE(A200,";",""))+1))*LEN(A200)+1,LEN(A200)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="213">
       <c r="B213">
-        <f t="array" aca="1" ref="B213" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A202,";",REPT(" ",LEN(A202)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A202)-LEN(SUBSTITUTE(A202,";",""))+1))*LEN(A202)+1,LEN(A202)+1)))</f>
+        <f t="array" aca="1" ref="B213" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A201,";",REPT(" ",LEN(A201)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A201)-LEN(SUBSTITUTE(A201,";",""))+1))*LEN(A201)+1,LEN(A201)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="214">
       <c r="B214">
-        <f t="array" aca="1" ref="B214" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A203,";",REPT(" ",LEN(A203)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A203)-LEN(SUBSTITUTE(A203,";",""))+1))*LEN(A203)+1,LEN(A203)+1)))</f>
+        <f t="array" aca="1" ref="B214" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A202,";",REPT(" ",LEN(A202)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A202)-LEN(SUBSTITUTE(A202,";",""))+1))*LEN(A202)+1,LEN(A202)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="215">
       <c r="B215">
-        <f t="array" aca="1" ref="B215" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A204,";",REPT(" ",LEN(A204)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A204)-LEN(SUBSTITUTE(A204,";",""))+1))*LEN(A204)+1,LEN(A204)+1)))</f>
+        <f t="array" aca="1" ref="B215" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A203,";",REPT(" ",LEN(A203)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A203)-LEN(SUBSTITUTE(A203,";",""))+1))*LEN(A203)+1,LEN(A203)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="216">
       <c r="B216">
-        <f t="array" aca="1" ref="B216" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A205,";",REPT(" ",LEN(A205)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A205)-LEN(SUBSTITUTE(A205,";",""))+1))*LEN(A205)+1,LEN(A205)+1)))</f>
+        <f t="array" aca="1" ref="B216" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A204,";",REPT(" ",LEN(A204)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A204)-LEN(SUBSTITUTE(A204,";",""))+1))*LEN(A204)+1,LEN(A204)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="217">
       <c r="B217">
-        <f t="array" aca="1" ref="B217" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A206,";",REPT(" ",LEN(A206)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A206)-LEN(SUBSTITUTE(A206,";",""))+1))*LEN(A206)+1,LEN(A206)+1)))</f>
+        <f t="array" aca="1" ref="B217" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A205,";",REPT(" ",LEN(A205)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A205)-LEN(SUBSTITUTE(A205,";",""))+1))*LEN(A205)+1,LEN(A205)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="218">
       <c r="B218">
-        <f t="array" aca="1" ref="B218" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A207,";",REPT(" ",LEN(A207)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A207)-LEN(SUBSTITUTE(A207,";",""))+1))*LEN(A207)+1,LEN(A207)+1)))</f>
+        <f t="array" aca="1" ref="B218" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A206,";",REPT(" ",LEN(A206)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A206)-LEN(SUBSTITUTE(A206,";",""))+1))*LEN(A206)+1,LEN(A206)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="219">
       <c r="B219">
-        <f t="array" aca="1" ref="B219" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A208,";",REPT(" ",LEN(A208)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A208)-LEN(SUBSTITUTE(A208,";",""))+1))*LEN(A208)+1,LEN(A208)+1)))</f>
+        <f t="array" aca="1" ref="B219" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A207,";",REPT(" ",LEN(A207)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A207)-LEN(SUBSTITUTE(A207,";",""))+1))*LEN(A207)+1,LEN(A207)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="220">
       <c r="B220">
-        <f t="array" aca="1" ref="B220" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A209,";",REPT(" ",LEN(A209)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A209)-LEN(SUBSTITUTE(A209,";",""))+1))*LEN(A209)+1,LEN(A209)+1)))</f>
+        <f t="array" aca="1" ref="B220" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A208,";",REPT(" ",LEN(A208)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A208)-LEN(SUBSTITUTE(A208,";",""))+1))*LEN(A208)+1,LEN(A208)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="221">
       <c r="B221">
-        <f t="array" aca="1" ref="B221" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A210,";",REPT(" ",LEN(A210)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A210)-LEN(SUBSTITUTE(A210,";",""))+1))*LEN(A210)+1,LEN(A210)+1)))</f>
+        <f t="array" aca="1" ref="B221" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A209,";",REPT(" ",LEN(A209)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A209)-LEN(SUBSTITUTE(A209,";",""))+1))*LEN(A209)+1,LEN(A209)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="222">
       <c r="B222">
-        <f t="array" aca="1" ref="B222" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A211,";",REPT(" ",LEN(A211)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A211)-LEN(SUBSTITUTE(A211,";",""))+1))*LEN(A211)+1,LEN(A211)+1)))</f>
+        <f t="array" aca="1" ref="B222" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A210,";",REPT(" ",LEN(A210)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A210)-LEN(SUBSTITUTE(A210,";",""))+1))*LEN(A210)+1,LEN(A210)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="223">
       <c r="B223">
-        <f t="array" aca="1" ref="B223" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A212,";",REPT(" ",LEN(A212)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A212)-LEN(SUBSTITUTE(A212,";",""))+1))*LEN(A212)+1,LEN(A212)+1)))</f>
+        <f t="array" aca="1" ref="B223" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A211,";",REPT(" ",LEN(A211)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A211)-LEN(SUBSTITUTE(A211,";",""))+1))*LEN(A211)+1,LEN(A211)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="224">
       <c r="B224">
-        <f t="array" aca="1" ref="B224" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A213,";",REPT(" ",LEN(A213)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A213)-LEN(SUBSTITUTE(A213,";",""))+1))*LEN(A213)+1,LEN(A213)+1)))</f>
+        <f t="array" aca="1" ref="B224" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A212,";",REPT(" ",LEN(A212)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A212)-LEN(SUBSTITUTE(A212,";",""))+1))*LEN(A212)+1,LEN(A212)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="225">
       <c r="B225">
-        <f t="array" aca="1" ref="B225" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A214,";",REPT(" ",LEN(A214)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A214)-LEN(SUBSTITUTE(A214,";",""))+1))*LEN(A214)+1,LEN(A214)+1)))</f>
+        <f t="array" aca="1" ref="B225" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A213,";",REPT(" ",LEN(A213)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A213)-LEN(SUBSTITUTE(A213,";",""))+1))*LEN(A213)+1,LEN(A213)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="226">
       <c r="B226">
-        <f t="array" aca="1" ref="B226" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A215,";",REPT(" ",LEN(A215)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A215)-LEN(SUBSTITUTE(A215,";",""))+1))*LEN(A215)+1,LEN(A215)+1)))</f>
+        <f t="array" aca="1" ref="B226" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A214,";",REPT(" ",LEN(A214)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A214)-LEN(SUBSTITUTE(A214,";",""))+1))*LEN(A214)+1,LEN(A214)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="227">
       <c r="B227">
-        <f t="array" aca="1" ref="B227" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A216,";",REPT(" ",LEN(A216)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A216)-LEN(SUBSTITUTE(A216,";",""))+1))*LEN(A216)+1,LEN(A216)+1)))</f>
+        <f t="array" aca="1" ref="B227" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A215,";",REPT(" ",LEN(A215)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A215)-LEN(SUBSTITUTE(A215,";",""))+1))*LEN(A215)+1,LEN(A215)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="228">
       <c r="B228">
-        <f t="array" aca="1" ref="B228" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A217,";",REPT(" ",LEN(A217)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A217)-LEN(SUBSTITUTE(A217,";",""))+1))*LEN(A217)+1,LEN(A217)+1)))</f>
+        <f t="array" aca="1" ref="B228" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A216,";",REPT(" ",LEN(A216)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A216)-LEN(SUBSTITUTE(A216,";",""))+1))*LEN(A216)+1,LEN(A216)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="229">
       <c r="B229">
-        <f t="array" aca="1" ref="B229" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A218,";",REPT(" ",LEN(A218)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A218)-LEN(SUBSTITUTE(A218,";",""))+1))*LEN(A218)+1,LEN(A218)+1)))</f>
+        <f t="array" aca="1" ref="B229" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A217,";",REPT(" ",LEN(A217)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A217)-LEN(SUBSTITUTE(A217,";",""))+1))*LEN(A217)+1,LEN(A217)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="230">
       <c r="B230">
-        <f t="array" aca="1" ref="B230" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A219,";",REPT(" ",LEN(A219)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A219)-LEN(SUBSTITUTE(A219,";",""))+1))*LEN(A219)+1,LEN(A219)+1)))</f>
+        <f t="array" aca="1" ref="B230" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A218,";",REPT(" ",LEN(A218)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A218)-LEN(SUBSTITUTE(A218,";",""))+1))*LEN(A218)+1,LEN(A218)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="231">
       <c r="B231">
-        <f t="array" aca="1" ref="B231" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A220,";",REPT(" ",LEN(A220)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A220)-LEN(SUBSTITUTE(A220,";",""))+1))*LEN(A220)+1,LEN(A220)+1)))</f>
+        <f t="array" aca="1" ref="B231" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A219,";",REPT(" ",LEN(A219)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A219)-LEN(SUBSTITUTE(A219,";",""))+1))*LEN(A219)+1,LEN(A219)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="232">
       <c r="B232">
-        <f t="array" aca="1" ref="B232" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A221,";",REPT(" ",LEN(A221)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A221)-LEN(SUBSTITUTE(A221,";",""))+1))*LEN(A221)+1,LEN(A221)+1)))</f>
+        <f t="array" aca="1" ref="B232" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A220,";",REPT(" ",LEN(A220)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A220)-LEN(SUBSTITUTE(A220,";",""))+1))*LEN(A220)+1,LEN(A220)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="233">
       <c r="B233">
-        <f t="array" aca="1" ref="B233" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A222,";",REPT(" ",LEN(A222)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A222)-LEN(SUBSTITUTE(A222,";",""))+1))*LEN(A222)+1,LEN(A222)+1)))</f>
+        <f t="array" aca="1" ref="B233" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A221,";",REPT(" ",LEN(A221)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A221)-LEN(SUBSTITUTE(A221,";",""))+1))*LEN(A221)+1,LEN(A221)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="234">
       <c r="B234">
-        <f t="array" aca="1" ref="B234" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A223,";",REPT(" ",LEN(A223)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A223)-LEN(SUBSTITUTE(A223,";",""))+1))*LEN(A223)+1,LEN(A223)+1)))</f>
+        <f t="array" aca="1" ref="B234" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A222,";",REPT(" ",LEN(A222)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A222)-LEN(SUBSTITUTE(A222,";",""))+1))*LEN(A222)+1,LEN(A222)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="235">
       <c r="B235">
-        <f t="array" aca="1" ref="B235" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A224,";",REPT(" ",LEN(A224)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A224)-LEN(SUBSTITUTE(A224,";",""))+1))*LEN(A224)+1,LEN(A224)+1)))</f>
+        <f t="array" aca="1" ref="B235" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A223,";",REPT(" ",LEN(A223)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A223)-LEN(SUBSTITUTE(A223,";",""))+1))*LEN(A223)+1,LEN(A223)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="236">
       <c r="B236">
-        <f t="array" aca="1" ref="B236" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A225,";",REPT(" ",LEN(A225)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A225)-LEN(SUBSTITUTE(A225,";",""))+1))*LEN(A225)+1,LEN(A225)+1)))</f>
+        <f t="array" aca="1" ref="B236" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A224,";",REPT(" ",LEN(A224)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A224)-LEN(SUBSTITUTE(A224,";",""))+1))*LEN(A224)+1,LEN(A224)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="237">
       <c r="B237">
-        <f t="array" aca="1" ref="B237" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A226,";",REPT(" ",LEN(A226)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A226)-LEN(SUBSTITUTE(A226,";",""))+1))*LEN(A226)+1,LEN(A226)+1)))</f>
+        <f t="array" aca="1" ref="B237" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A225,";",REPT(" ",LEN(A225)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A225)-LEN(SUBSTITUTE(A225,";",""))+1))*LEN(A225)+1,LEN(A225)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="238">
       <c r="B238">
-        <f t="array" aca="1" ref="B238" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A227,";",REPT(" ",LEN(A227)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A227)-LEN(SUBSTITUTE(A227,";",""))+1))*LEN(A227)+1,LEN(A227)+1)))</f>
+        <f t="array" aca="1" ref="B238" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A226,";",REPT(" ",LEN(A226)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A226)-LEN(SUBSTITUTE(A226,";",""))+1))*LEN(A226)+1,LEN(A226)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="239">
       <c r="B239">
-        <f t="array" aca="1" ref="B239" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A228,";",REPT(" ",LEN(A228)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A228)-LEN(SUBSTITUTE(A228,";",""))+1))*LEN(A228)+1,LEN(A228)+1)))</f>
+        <f t="array" aca="1" ref="B239" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A227,";",REPT(" ",LEN(A227)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A227)-LEN(SUBSTITUTE(A227,";",""))+1))*LEN(A227)+1,LEN(A227)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="240">
       <c r="B240">
-        <f t="array" aca="1" ref="B240" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A229,";",REPT(" ",LEN(A229)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A229)-LEN(SUBSTITUTE(A229,";",""))+1))*LEN(A229)+1,LEN(A229)+1)))</f>
+        <f t="array" aca="1" ref="B240" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A228,";",REPT(" ",LEN(A228)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A228)-LEN(SUBSTITUTE(A228,";",""))+1))*LEN(A228)+1,LEN(A228)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="241">
       <c r="B241">
-        <f t="array" aca="1" ref="B241" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A230,";",REPT(" ",LEN(A230)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A230)-LEN(SUBSTITUTE(A230,";",""))+1))*LEN(A230)+1,LEN(A230)+1)))</f>
+        <f t="array" aca="1" ref="B241" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A229,";",REPT(" ",LEN(A229)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A229)-LEN(SUBSTITUTE(A229,";",""))+1))*LEN(A229)+1,LEN(A229)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="242">
       <c r="B242">
-        <f t="array" aca="1" ref="B242" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A231,";",REPT(" ",LEN(A231)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A231)-LEN(SUBSTITUTE(A231,";",""))+1))*LEN(A231)+1,LEN(A231)+1)))</f>
+        <f t="array" aca="1" ref="B242" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A230,";",REPT(" ",LEN(A230)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A230)-LEN(SUBSTITUTE(A230,";",""))+1))*LEN(A230)+1,LEN(A230)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="243">
       <c r="B243">
-        <f t="array" aca="1" ref="B243" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A232,";",REPT(" ",LEN(A232)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A232)-LEN(SUBSTITUTE(A232,";",""))+1))*LEN(A232)+1,LEN(A232)+1)))</f>
+        <f t="array" aca="1" ref="B243" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A231,";",REPT(" ",LEN(A231)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A231)-LEN(SUBSTITUTE(A231,";",""))+1))*LEN(A231)+1,LEN(A231)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="244">
       <c r="B244">
-        <f t="array" aca="1" ref="B244" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A233,";",REPT(" ",LEN(A233)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A233)-LEN(SUBSTITUTE(A233,";",""))+1))*LEN(A233)+1,LEN(A233)+1)))</f>
+        <f t="array" aca="1" ref="B244" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A232,";",REPT(" ",LEN(A232)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A232)-LEN(SUBSTITUTE(A232,";",""))+1))*LEN(A232)+1,LEN(A232)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="245">
       <c r="B245">
-        <f t="array" aca="1" ref="B245" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A234,";",REPT(" ",LEN(A234)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A234)-LEN(SUBSTITUTE(A234,";",""))+1))*LEN(A234)+1,LEN(A234)+1)))</f>
+        <f t="array" aca="1" ref="B245" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A233,";",REPT(" ",LEN(A233)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A233)-LEN(SUBSTITUTE(A233,";",""))+1))*LEN(A233)+1,LEN(A233)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="246">
       <c r="B246">
-        <f t="array" aca="1" ref="B246" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A235,";",REPT(" ",LEN(A235)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A235)-LEN(SUBSTITUTE(A235,";",""))+1))*LEN(A235)+1,LEN(A235)+1)))</f>
+        <f t="array" aca="1" ref="B246" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A234,";",REPT(" ",LEN(A234)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A234)-LEN(SUBSTITUTE(A234,";",""))+1))*LEN(A234)+1,LEN(A234)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="247">
       <c r="B247">
-        <f t="array" aca="1" ref="B247" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A236,";",REPT(" ",LEN(A236)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A236)-LEN(SUBSTITUTE(A236,";",""))+1))*LEN(A236)+1,LEN(A236)+1)))</f>
+        <f t="array" aca="1" ref="B247" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A235,";",REPT(" ",LEN(A235)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A235)-LEN(SUBSTITUTE(A235,";",""))+1))*LEN(A235)+1,LEN(A235)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="248">
       <c r="B248">
-        <f t="array" aca="1" ref="B248" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A237,";",REPT(" ",LEN(A237)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A237)-LEN(SUBSTITUTE(A237,";",""))+1))*LEN(A237)+1,LEN(A237)+1)))</f>
+        <f t="array" aca="1" ref="B248" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A236,";",REPT(" ",LEN(A236)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A236)-LEN(SUBSTITUTE(A236,";",""))+1))*LEN(A236)+1,LEN(A236)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="249">
       <c r="B249">
-        <f t="array" aca="1" ref="B249" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A238,";",REPT(" ",LEN(A238)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A238)-LEN(SUBSTITUTE(A238,";",""))+1))*LEN(A238)+1,LEN(A238)+1)))</f>
+        <f t="array" aca="1" ref="B249" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A237,";",REPT(" ",LEN(A237)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A237)-LEN(SUBSTITUTE(A237,";",""))+1))*LEN(A237)+1,LEN(A237)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="250">
       <c r="B250">
-        <f t="array" aca="1" ref="B250" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A239,";",REPT(" ",LEN(A239)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A239)-LEN(SUBSTITUTE(A239,";",""))+1))*LEN(A239)+1,LEN(A239)+1)))</f>
+        <f t="array" aca="1" ref="B250" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A238,";",REPT(" ",LEN(A238)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A238)-LEN(SUBSTITUTE(A238,";",""))+1))*LEN(A238)+1,LEN(A238)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="251">
       <c r="B251">
-        <f t="array" aca="1" ref="B251" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A240,";",REPT(" ",LEN(A240)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A240)-LEN(SUBSTITUTE(A240,";",""))+1))*LEN(A240)+1,LEN(A240)+1)))</f>
+        <f t="array" aca="1" ref="B251" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A239,";",REPT(" ",LEN(A239)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A239)-LEN(SUBSTITUTE(A239,";",""))+1))*LEN(A239)+1,LEN(A239)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="252">
       <c r="B252">
-        <f t="array" aca="1" ref="B252" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A241,";",REPT(" ",LEN(A241)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A241)-LEN(SUBSTITUTE(A241,";",""))+1))*LEN(A241)+1,LEN(A241)+1)))</f>
+        <f t="array" aca="1" ref="B252" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A240,";",REPT(" ",LEN(A240)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A240)-LEN(SUBSTITUTE(A240,";",""))+1))*LEN(A240)+1,LEN(A240)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="253">
       <c r="B253">
-        <f t="array" aca="1" ref="B253" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A242,";",REPT(" ",LEN(A242)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A242)-LEN(SUBSTITUTE(A242,";",""))+1))*LEN(A242)+1,LEN(A242)+1)))</f>
+        <f t="array" aca="1" ref="B253" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A241,";",REPT(" ",LEN(A241)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A241)-LEN(SUBSTITUTE(A241,";",""))+1))*LEN(A241)+1,LEN(A241)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="254">
       <c r="B254">
-        <f t="array" aca="1" ref="B254" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A243,";",REPT(" ",LEN(A243)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A243)-LEN(SUBSTITUTE(A243,";",""))+1))*LEN(A243)+1,LEN(A243)+1)))</f>
+        <f t="array" aca="1" ref="B254" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A242,";",REPT(" ",LEN(A242)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A242)-LEN(SUBSTITUTE(A242,";",""))+1))*LEN(A242)+1,LEN(A242)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="255">
       <c r="B255">
-        <f t="array" aca="1" ref="B255" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A244,";",REPT(" ",LEN(A244)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A244)-LEN(SUBSTITUTE(A244,";",""))+1))*LEN(A244)+1,LEN(A244)+1)))</f>
+        <f t="array" aca="1" ref="B255" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A243,";",REPT(" ",LEN(A243)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A243)-LEN(SUBSTITUTE(A243,";",""))+1))*LEN(A243)+1,LEN(A243)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="256">
       <c r="B256">
-        <f t="array" aca="1" ref="B256" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A245,";",REPT(" ",LEN(A245)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A245)-LEN(SUBSTITUTE(A245,";",""))+1))*LEN(A245)+1,LEN(A245)+1)))</f>
+        <f t="array" aca="1" ref="B256" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A244,";",REPT(" ",LEN(A244)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A244)-LEN(SUBSTITUTE(A244,";",""))+1))*LEN(A244)+1,LEN(A244)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="257">
       <c r="B257">
-        <f t="array" aca="1" ref="B257" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A246,";",REPT(" ",LEN(A246)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A246)-LEN(SUBSTITUTE(A246,";",""))+1))*LEN(A246)+1,LEN(A246)+1)))</f>
+        <f t="array" aca="1" ref="B257" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A245,";",REPT(" ",LEN(A245)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A245)-LEN(SUBSTITUTE(A245,";",""))+1))*LEN(A245)+1,LEN(A245)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="258">
       <c r="B258">
-        <f t="array" aca="1" ref="B258" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A247,";",REPT(" ",LEN(A247)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A247)-LEN(SUBSTITUTE(A247,";",""))+1))*LEN(A247)+1,LEN(A247)+1)))</f>
+        <f t="array" aca="1" ref="B258" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A246,";",REPT(" ",LEN(A246)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A246)-LEN(SUBSTITUTE(A246,";",""))+1))*LEN(A246)+1,LEN(A246)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="259">
       <c r="B259">
-        <f t="array" aca="1" ref="B259" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A248,";",REPT(" ",LEN(A248)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A248)-LEN(SUBSTITUTE(A248,";",""))+1))*LEN(A248)+1,LEN(A248)+1)))</f>
+        <f t="array" aca="1" ref="B259" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A247,";",REPT(" ",LEN(A247)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A247)-LEN(SUBSTITUTE(A247,";",""))+1))*LEN(A247)+1,LEN(A247)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="260">
       <c r="B260">
-        <f t="array" aca="1" ref="B260" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A249,";",REPT(" ",LEN(A249)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A249)-LEN(SUBSTITUTE(A249,";",""))+1))*LEN(A249)+1,LEN(A249)+1)))</f>
+        <f t="array" aca="1" ref="B260" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A248,";",REPT(" ",LEN(A248)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A248)-LEN(SUBSTITUTE(A248,";",""))+1))*LEN(A248)+1,LEN(A248)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="261">
       <c r="B261">
-        <f t="array" aca="1" ref="B261" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A250,";",REPT(" ",LEN(A250)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A250)-LEN(SUBSTITUTE(A250,";",""))+1))*LEN(A250)+1,LEN(A250)+1)))</f>
+        <f t="array" aca="1" ref="B261" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A249,";",REPT(" ",LEN(A249)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A249)-LEN(SUBSTITUTE(A249,";",""))+1))*LEN(A249)+1,LEN(A249)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="262">
       <c r="B262">
-        <f t="array" aca="1" ref="B262" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A251,";",REPT(" ",LEN(A251)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A251)-LEN(SUBSTITUTE(A251,";",""))+1))*LEN(A251)+1,LEN(A251)+1)))</f>
+        <f t="array" aca="1" ref="B262" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A250,";",REPT(" ",LEN(A250)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A250)-LEN(SUBSTITUTE(A250,";",""))+1))*LEN(A250)+1,LEN(A250)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="263">
       <c r="B263">
-        <f t="array" aca="1" ref="B263" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A252,";",REPT(" ",LEN(A252)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A252)-LEN(SUBSTITUTE(A252,";",""))+1))*LEN(A252)+1,LEN(A252)+1)))</f>
+        <f t="array" aca="1" ref="B263" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A251,";",REPT(" ",LEN(A251)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A251)-LEN(SUBSTITUTE(A251,";",""))+1))*LEN(A251)+1,LEN(A251)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="264">
       <c r="B264">
-        <f t="array" aca="1" ref="B264" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A253,";",REPT(" ",LEN(A253)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A253)-LEN(SUBSTITUTE(A253,";",""))+1))*LEN(A253)+1,LEN(A253)+1)))</f>
+        <f t="array" aca="1" ref="B264" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A252,";",REPT(" ",LEN(A252)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A252)-LEN(SUBSTITUTE(A252,";",""))+1))*LEN(A252)+1,LEN(A252)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="265">
       <c r="B265">
-        <f t="array" aca="1" ref="B265" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A254,";",REPT(" ",LEN(A254)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A254)-LEN(SUBSTITUTE(A254,";",""))+1))*LEN(A254)+1,LEN(A254)+1)))</f>
+        <f t="array" aca="1" ref="B265" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A253,";",REPT(" ",LEN(A253)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A253)-LEN(SUBSTITUTE(A253,";",""))+1))*LEN(A253)+1,LEN(A253)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="266">
       <c r="B266">
-        <f t="array" aca="1" ref="B266" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A255,";",REPT(" ",LEN(A255)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A255)-LEN(SUBSTITUTE(A255,";",""))+1))*LEN(A255)+1,LEN(A255)+1)))</f>
+        <f t="array" aca="1" ref="B266" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A254,";",REPT(" ",LEN(A254)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A254)-LEN(SUBSTITUTE(A254,";",""))+1))*LEN(A254)+1,LEN(A254)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="267">
       <c r="B267">
-        <f t="array" aca="1" ref="B267" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A256,";",REPT(" ",LEN(A256)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A256)-LEN(SUBSTITUTE(A256,";",""))+1))*LEN(A256)+1,LEN(A256)+1)))</f>
+        <f t="array" aca="1" ref="B267" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A255,";",REPT(" ",LEN(A255)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A255)-LEN(SUBSTITUTE(A255,";",""))+1))*LEN(A255)+1,LEN(A255)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="268">
       <c r="B268">
-        <f t="array" aca="1" ref="B268" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A257,";",REPT(" ",LEN(A257)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A257)-LEN(SUBSTITUTE(A257,";",""))+1))*LEN(A257)+1,LEN(A257)+1)))</f>
+        <f t="array" aca="1" ref="B268" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A256,";",REPT(" ",LEN(A256)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A256)-LEN(SUBSTITUTE(A256,";",""))+1))*LEN(A256)+1,LEN(A256)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="269">
       <c r="B269">
-        <f t="array" aca="1" ref="B269" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A258,";",REPT(" ",LEN(A258)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A258)-LEN(SUBSTITUTE(A258,";",""))+1))*LEN(A258)+1,LEN(A258)+1)))</f>
+        <f t="array" aca="1" ref="B269" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A257,";",REPT(" ",LEN(A257)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A257)-LEN(SUBSTITUTE(A257,";",""))+1))*LEN(A257)+1,LEN(A257)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="270">
       <c r="B270">
-        <f t="array" aca="1" ref="B270" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A259,";",REPT(" ",LEN(A259)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A259)-LEN(SUBSTITUTE(A259,";",""))+1))*LEN(A259)+1,LEN(A259)+1)))</f>
+        <f t="array" aca="1" ref="B270" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A258,";",REPT(" ",LEN(A258)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A258)-LEN(SUBSTITUTE(A258,";",""))+1))*LEN(A258)+1,LEN(A258)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="271">
       <c r="B271">
-        <f t="array" aca="1" ref="B271" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A260,";",REPT(" ",LEN(A260)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A260)-LEN(SUBSTITUTE(A260,";",""))+1))*LEN(A260)+1,LEN(A260)+1)))</f>
+        <f t="array" aca="1" ref="B271" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A259,";",REPT(" ",LEN(A259)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A259)-LEN(SUBSTITUTE(A259,";",""))+1))*LEN(A259)+1,LEN(A259)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="272">
       <c r="B272">
-        <f t="array" aca="1" ref="B272" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A261,";",REPT(" ",LEN(A261)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A261)-LEN(SUBSTITUTE(A261,";",""))+1))*LEN(A261)+1,LEN(A261)+1)))</f>
+        <f t="array" aca="1" ref="B272" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A260,";",REPT(" ",LEN(A260)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A260)-LEN(SUBSTITUTE(A260,";",""))+1))*LEN(A260)+1,LEN(A260)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="273">
       <c r="B273">
-        <f t="array" aca="1" ref="B273" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A262,";",REPT(" ",LEN(A262)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A262)-LEN(SUBSTITUTE(A262,";",""))+1))*LEN(A262)+1,LEN(A262)+1)))</f>
+        <f t="array" aca="1" ref="B273" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A261,";",REPT(" ",LEN(A261)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A261)-LEN(SUBSTITUTE(A261,";",""))+1))*LEN(A261)+1,LEN(A261)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="274">
       <c r="B274">
-        <f t="array" aca="1" ref="B274" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A263,";",REPT(" ",LEN(A263)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A263)-LEN(SUBSTITUTE(A263,";",""))+1))*LEN(A263)+1,LEN(A263)+1)))</f>
+        <f t="array" aca="1" ref="B274" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A262,";",REPT(" ",LEN(A262)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A262)-LEN(SUBSTITUTE(A262,";",""))+1))*LEN(A262)+1,LEN(A262)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="275">
       <c r="B275">
-        <f t="array" aca="1" ref="B275" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A264,";",REPT(" ",LEN(A264)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A264)-LEN(SUBSTITUTE(A264,";",""))+1))*LEN(A264)+1,LEN(A264)+1)))</f>
+        <f t="array" aca="1" ref="B275" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A263,";",REPT(" ",LEN(A263)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A263)-LEN(SUBSTITUTE(A263,";",""))+1))*LEN(A263)+1,LEN(A263)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="276">
       <c r="B276">
-        <f t="array" aca="1" ref="B276" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A265,";",REPT(" ",LEN(A265)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A265)-LEN(SUBSTITUTE(A265,";",""))+1))*LEN(A265)+1,LEN(A265)+1)))</f>
+        <f t="array" aca="1" ref="B276" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A264,";",REPT(" ",LEN(A264)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A264)-LEN(SUBSTITUTE(A264,";",""))+1))*LEN(A264)+1,LEN(A264)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="277">
       <c r="B277">
-        <f t="array" aca="1" ref="B277" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A266,";",REPT(" ",LEN(A266)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A266)-LEN(SUBSTITUTE(A266,";",""))+1))*LEN(A266)+1,LEN(A266)+1)))</f>
+        <f t="array" aca="1" ref="B277" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A265,";",REPT(" ",LEN(A265)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A265)-LEN(SUBSTITUTE(A265,";",""))+1))*LEN(A265)+1,LEN(A265)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="278">
       <c r="B278">
-        <f t="array" aca="1" ref="B278" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A267,";",REPT(" ",LEN(A267)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A267)-LEN(SUBSTITUTE(A267,";",""))+1))*LEN(A267)+1,LEN(A267)+1)))</f>
+        <f t="array" aca="1" ref="B278" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A266,";",REPT(" ",LEN(A266)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A266)-LEN(SUBSTITUTE(A266,";",""))+1))*LEN(A266)+1,LEN(A266)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="279">
       <c r="B279">
-        <f t="array" aca="1" ref="B279" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A268,";",REPT(" ",LEN(A268)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A268)-LEN(SUBSTITUTE(A268,";",""))+1))*LEN(A268)+1,LEN(A268)+1)))</f>
+        <f t="array" aca="1" ref="B279" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A267,";",REPT(" ",LEN(A267)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A267)-LEN(SUBSTITUTE(A267,";",""))+1))*LEN(A267)+1,LEN(A267)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="280">
       <c r="B280">
-        <f t="array" aca="1" ref="B280" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A269,";",REPT(" ",LEN(A269)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A269)-LEN(SUBSTITUTE(A269,";",""))+1))*LEN(A269)+1,LEN(A269)+1)))</f>
+        <f t="array" aca="1" ref="B280" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A268,";",REPT(" ",LEN(A268)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A268)-LEN(SUBSTITUTE(A268,";",""))+1))*LEN(A268)+1,LEN(A268)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="281">
       <c r="B281">
-        <f t="array" aca="1" ref="B281" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A270,";",REPT(" ",LEN(A270)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A270)-LEN(SUBSTITUTE(A270,";",""))+1))*LEN(A270)+1,LEN(A270)+1)))</f>
+        <f t="array" aca="1" ref="B281" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A269,";",REPT(" ",LEN(A269)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A269)-LEN(SUBSTITUTE(A269,";",""))+1))*LEN(A269)+1,LEN(A269)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="282">
       <c r="B282">
-        <f t="array" aca="1" ref="B282" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A271,";",REPT(" ",LEN(A271)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A271)-LEN(SUBSTITUTE(A271,";",""))+1))*LEN(A271)+1,LEN(A271)+1)))</f>
+        <f t="array" aca="1" ref="B282" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A270,";",REPT(" ",LEN(A270)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A270)-LEN(SUBSTITUTE(A270,";",""))+1))*LEN(A270)+1,LEN(A270)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="283">
       <c r="B283">
-        <f t="array" aca="1" ref="B283" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A272,";",REPT(" ",LEN(A272)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A272)-LEN(SUBSTITUTE(A272,";",""))+1))*LEN(A272)+1,LEN(A272)+1)))</f>
+        <f t="array" aca="1" ref="B283" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A271,";",REPT(" ",LEN(A271)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A271)-LEN(SUBSTITUTE(A271,";",""))+1))*LEN(A271)+1,LEN(A271)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="284">
       <c r="B284">
-        <f t="array" aca="1" ref="B284" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A273,";",REPT(" ",LEN(A273)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A273)-LEN(SUBSTITUTE(A273,";",""))+1))*LEN(A273)+1,LEN(A273)+1)))</f>
+        <f t="array" aca="1" ref="B284" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A272,";",REPT(" ",LEN(A272)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A272)-LEN(SUBSTITUTE(A272,";",""))+1))*LEN(A272)+1,LEN(A272)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="285">
       <c r="B285">
-        <f t="array" aca="1" ref="B285" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A274,";",REPT(" ",LEN(A274)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A274)-LEN(SUBSTITUTE(A274,";",""))+1))*LEN(A274)+1,LEN(A274)+1)))</f>
+        <f t="array" aca="1" ref="B285" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A273,";",REPT(" ",LEN(A273)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A273)-LEN(SUBSTITUTE(A273,";",""))+1))*LEN(A273)+1,LEN(A273)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="286">
       <c r="B286">
-        <f t="array" aca="1" ref="B286" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A275,";",REPT(" ",LEN(A275)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A275)-LEN(SUBSTITUTE(A275,";",""))+1))*LEN(A275)+1,LEN(A275)+1)))</f>
+        <f t="array" aca="1" ref="B286" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A274,";",REPT(" ",LEN(A274)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A274)-LEN(SUBSTITUTE(A274,";",""))+1))*LEN(A274)+1,LEN(A274)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="287">
       <c r="B287">
-        <f t="array" aca="1" ref="B287" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A276,";",REPT(" ",LEN(A276)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A276)-LEN(SUBSTITUTE(A276,";",""))+1))*LEN(A276)+1,LEN(A276)+1)))</f>
+        <f t="array" aca="1" ref="B287" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A275,";",REPT(" ",LEN(A275)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A275)-LEN(SUBSTITUTE(A275,";",""))+1))*LEN(A275)+1,LEN(A275)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="288">
       <c r="B288">
-        <f t="array" aca="1" ref="B288" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A277,";",REPT(" ",LEN(A277)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A277)-LEN(SUBSTITUTE(A277,";",""))+1))*LEN(A277)+1,LEN(A277)+1)))</f>
+        <f t="array" aca="1" ref="B288" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A276,";",REPT(" ",LEN(A276)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A276)-LEN(SUBSTITUTE(A276,";",""))+1))*LEN(A276)+1,LEN(A276)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="289">
       <c r="B289">
-        <f t="array" aca="1" ref="B289" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A278,";",REPT(" ",LEN(A278)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A278)-LEN(SUBSTITUTE(A278,";",""))+1))*LEN(A278)+1,LEN(A278)+1)))</f>
+        <f t="array" aca="1" ref="B289" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A277,";",REPT(" ",LEN(A277)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A277)-LEN(SUBSTITUTE(A277,";",""))+1))*LEN(A277)+1,LEN(A277)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="290">
       <c r="B290">
-        <f t="array" aca="1" ref="B290" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A279,";",REPT(" ",LEN(A279)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A279)-LEN(SUBSTITUTE(A279,";",""))+1))*LEN(A279)+1,LEN(A279)+1)))</f>
+        <f t="array" aca="1" ref="B290" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A278,";",REPT(" ",LEN(A278)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A278)-LEN(SUBSTITUTE(A278,";",""))+1))*LEN(A278)+1,LEN(A278)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="291">
       <c r="B291">
-        <f t="array" aca="1" ref="B291" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A280,";",REPT(" ",LEN(A280)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A280)-LEN(SUBSTITUTE(A280,";",""))+1))*LEN(A280)+1,LEN(A280)+1)))</f>
+        <f t="array" aca="1" ref="B291" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A279,";",REPT(" ",LEN(A279)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A279)-LEN(SUBSTITUTE(A279,";",""))+1))*LEN(A279)+1,LEN(A279)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="292">
       <c r="B292">
-        <f t="array" aca="1" ref="B292" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A281,";",REPT(" ",LEN(A281)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A281)-LEN(SUBSTITUTE(A281,";",""))+1))*LEN(A281)+1,LEN(A281)+1)))</f>
+        <f t="array" aca="1" ref="B292" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A280,";",REPT(" ",LEN(A280)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A280)-LEN(SUBSTITUTE(A280,";",""))+1))*LEN(A280)+1,LEN(A280)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="293">
       <c r="B293">
-        <f t="array" aca="1" ref="B293" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A282,";",REPT(" ",LEN(A282)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A282)-LEN(SUBSTITUTE(A282,";",""))+1))*LEN(A282)+1,LEN(A282)+1)))</f>
+        <f t="array" aca="1" ref="B293" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A281,";",REPT(" ",LEN(A281)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A281)-LEN(SUBSTITUTE(A281,";",""))+1))*LEN(A281)+1,LEN(A281)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="294">
       <c r="B294">
-        <f t="array" aca="1" ref="B294" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A283,";",REPT(" ",LEN(A283)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A283)-LEN(SUBSTITUTE(A283,";",""))+1))*LEN(A283)+1,LEN(A283)+1)))</f>
+        <f t="array" aca="1" ref="B294" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A282,";",REPT(" ",LEN(A282)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A282)-LEN(SUBSTITUTE(A282,";",""))+1))*LEN(A282)+1,LEN(A282)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="295">
       <c r="B295">
-        <f t="array" aca="1" ref="B295" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A284,";",REPT(" ",LEN(A284)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A284)-LEN(SUBSTITUTE(A284,";",""))+1))*LEN(A284)+1,LEN(A284)+1)))</f>
+        <f t="array" aca="1" ref="B295" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A283,";",REPT(" ",LEN(A283)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A283)-LEN(SUBSTITUTE(A283,";",""))+1))*LEN(A283)+1,LEN(A283)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="296">
       <c r="B296">
-        <f t="array" aca="1" ref="B296" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A285,";",REPT(" ",LEN(A285)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A285)-LEN(SUBSTITUTE(A285,";",""))+1))*LEN(A285)+1,LEN(A285)+1)))</f>
+        <f t="array" aca="1" ref="B296" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A284,";",REPT(" ",LEN(A284)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A284)-LEN(SUBSTITUTE(A284,";",""))+1))*LEN(A284)+1,LEN(A284)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="297">
       <c r="B297">
-        <f t="array" aca="1" ref="B297" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A286,";",REPT(" ",LEN(A286)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A286)-LEN(SUBSTITUTE(A286,";",""))+1))*LEN(A286)+1,LEN(A286)+1)))</f>
+        <f t="array" aca="1" ref="B297" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A285,";",REPT(" ",LEN(A285)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A285)-LEN(SUBSTITUTE(A285,";",""))+1))*LEN(A285)+1,LEN(A285)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="298">
       <c r="B298">
-        <f t="array" aca="1" ref="B298" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A287,";",REPT(" ",LEN(A287)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A287)-LEN(SUBSTITUTE(A287,";",""))+1))*LEN(A287)+1,LEN(A287)+1)))</f>
+        <f t="array" aca="1" ref="B298" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A286,";",REPT(" ",LEN(A286)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A286)-LEN(SUBSTITUTE(A286,";",""))+1))*LEN(A286)+1,LEN(A286)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="299">
       <c r="B299">
-        <f t="array" aca="1" ref="B299" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A288,";",REPT(" ",LEN(A288)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A288)-LEN(SUBSTITUTE(A288,";",""))+1))*LEN(A288)+1,LEN(A288)+1)))</f>
+        <f t="array" aca="1" ref="B299" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A287,";",REPT(" ",LEN(A287)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A287)-LEN(SUBSTITUTE(A287,";",""))+1))*LEN(A287)+1,LEN(A287)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="300">
       <c r="B300">
-        <f t="array" aca="1" ref="B300" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A289,";",REPT(" ",LEN(A289)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A289)-LEN(SUBSTITUTE(A289,";",""))+1))*LEN(A289)+1,LEN(A289)+1)))</f>
+        <f t="array" aca="1" ref="B300" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A288,";",REPT(" ",LEN(A288)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A288)-LEN(SUBSTITUTE(A288,";",""))+1))*LEN(A288)+1,LEN(A288)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="301">
       <c r="B301">
-        <f t="array" aca="1" ref="B301" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A290,";",REPT(" ",LEN(A290)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A290)-LEN(SUBSTITUTE(A290,";",""))+1))*LEN(A290)+1,LEN(A290)+1)))</f>
+        <f t="array" aca="1" ref="B301" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A289,";",REPT(" ",LEN(A289)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A289)-LEN(SUBSTITUTE(A289,";",""))+1))*LEN(A289)+1,LEN(A289)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="302">
       <c r="B302">
-        <f t="array" aca="1" ref="B302" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A291,";",REPT(" ",LEN(A291)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A291)-LEN(SUBSTITUTE(A291,";",""))+1))*LEN(A291)+1,LEN(A291)+1)))</f>
+        <f t="array" aca="1" ref="B302" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A290,";",REPT(" ",LEN(A290)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A290)-LEN(SUBSTITUTE(A290,";",""))+1))*LEN(A290)+1,LEN(A290)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="303">
       <c r="B303">
-        <f t="array" aca="1" ref="B303" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A292,";",REPT(" ",LEN(A292)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A292)-LEN(SUBSTITUTE(A292,";",""))+1))*LEN(A292)+1,LEN(A292)+1)))</f>
+        <f t="array" aca="1" ref="B303" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A291,";",REPT(" ",LEN(A291)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A291)-LEN(SUBSTITUTE(A291,";",""))+1))*LEN(A291)+1,LEN(A291)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="304">
       <c r="B304">
-        <f t="array" aca="1" ref="B304" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A293,";",REPT(" ",LEN(A293)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A293)-LEN(SUBSTITUTE(A293,";",""))+1))*LEN(A293)+1,LEN(A293)+1)))</f>
+        <f t="array" aca="1" ref="B304" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A292,";",REPT(" ",LEN(A292)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A292)-LEN(SUBSTITUTE(A292,";",""))+1))*LEN(A292)+1,LEN(A292)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="305">
       <c r="B305">
-        <f t="array" aca="1" ref="B305" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A294,";",REPT(" ",LEN(A294)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A294)-LEN(SUBSTITUTE(A294,";",""))+1))*LEN(A294)+1,LEN(A294)+1)))</f>
+        <f t="array" aca="1" ref="B305" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A293,";",REPT(" ",LEN(A293)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A293)-LEN(SUBSTITUTE(A293,";",""))+1))*LEN(A293)+1,LEN(A293)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="306">
       <c r="B306">
-        <f t="array" aca="1" ref="B306" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A295,";",REPT(" ",LEN(A295)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A295)-LEN(SUBSTITUTE(A295,";",""))+1))*LEN(A295)+1,LEN(A295)+1)))</f>
+        <f t="array" aca="1" ref="B306" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A294,";",REPT(" ",LEN(A294)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A294)-LEN(SUBSTITUTE(A294,";",""))+1))*LEN(A294)+1,LEN(A294)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="307">
       <c r="B307">
-        <f t="array" aca="1" ref="B307" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A296,";",REPT(" ",LEN(A296)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A296)-LEN(SUBSTITUTE(A296,";",""))+1))*LEN(A296)+1,LEN(A296)+1)))</f>
+        <f t="array" aca="1" ref="B307" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A295,";",REPT(" ",LEN(A295)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A295)-LEN(SUBSTITUTE(A295,";",""))+1))*LEN(A295)+1,LEN(A295)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="308">
       <c r="B308">
-        <f t="array" aca="1" ref="B308" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A297,";",REPT(" ",LEN(A297)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A297)-LEN(SUBSTITUTE(A297,";",""))+1))*LEN(A297)+1,LEN(A297)+1)))</f>
+        <f t="array" aca="1" ref="B308" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A296,";",REPT(" ",LEN(A296)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A296)-LEN(SUBSTITUTE(A296,";",""))+1))*LEN(A296)+1,LEN(A296)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="309">
       <c r="B309">
-        <f t="array" aca="1" ref="B309" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A298,";",REPT(" ",LEN(A298)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A298)-LEN(SUBSTITUTE(A298,";",""))+1))*LEN(A298)+1,LEN(A298)+1)))</f>
+        <f t="array" aca="1" ref="B309" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A297,";",REPT(" ",LEN(A297)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A297)-LEN(SUBSTITUTE(A297,";",""))+1))*LEN(A297)+1,LEN(A297)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="310">
       <c r="B310">
-        <f t="array" aca="1" ref="B310" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A299,";",REPT(" ",LEN(A299)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A299)-LEN(SUBSTITUTE(A299,";",""))+1))*LEN(A299)+1,LEN(A299)+1)))</f>
+        <f t="array" aca="1" ref="B310" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A298,";",REPT(" ",LEN(A298)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A298)-LEN(SUBSTITUTE(A298,";",""))+1))*LEN(A298)+1,LEN(A298)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="311">
       <c r="B311">
-        <f t="array" aca="1" ref="B311" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A300,";",REPT(" ",LEN(A300)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A300)-LEN(SUBSTITUTE(A300,";",""))+1))*LEN(A300)+1,LEN(A300)+1)))</f>
+        <f t="array" aca="1" ref="B311" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A299,";",REPT(" ",LEN(A299)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A299)-LEN(SUBSTITUTE(A299,";",""))+1))*LEN(A299)+1,LEN(A299)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="312">
       <c r="B312">
-        <f t="array" aca="1" ref="B312" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A301,";",REPT(" ",LEN(A301)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A301)-LEN(SUBSTITUTE(A301,";",""))+1))*LEN(A301)+1,LEN(A301)+1)))</f>
+        <f t="array" aca="1" ref="B312" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A300,";",REPT(" ",LEN(A300)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A300)-LEN(SUBSTITUTE(A300,";",""))+1))*LEN(A300)+1,LEN(A300)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="313">
       <c r="B313">
-        <f t="array" aca="1" ref="B313" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A302,";",REPT(" ",LEN(A302)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A302)-LEN(SUBSTITUTE(A302,";",""))+1))*LEN(A302)+1,LEN(A302)+1)))</f>
+        <f t="array" aca="1" ref="B313" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A301,";",REPT(" ",LEN(A301)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A301)-LEN(SUBSTITUTE(A301,";",""))+1))*LEN(A301)+1,LEN(A301)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="314">
       <c r="B314">
-        <f t="array" aca="1" ref="B314" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A303,";",REPT(" ",LEN(A303)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A303)-LEN(SUBSTITUTE(A303,";",""))+1))*LEN(A303)+1,LEN(A303)+1)))</f>
+        <f t="array" aca="1" ref="B314" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A302,";",REPT(" ",LEN(A302)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A302)-LEN(SUBSTITUTE(A302,";",""))+1))*LEN(A302)+1,LEN(A302)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="315">
       <c r="B315">
-        <f t="array" aca="1" ref="B315" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A304,";",REPT(" ",LEN(A304)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A304)-LEN(SUBSTITUTE(A304,";",""))+1))*LEN(A304)+1,LEN(A304)+1)))</f>
+        <f t="array" aca="1" ref="B315" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A303,";",REPT(" ",LEN(A303)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A303)-LEN(SUBSTITUTE(A303,";",""))+1))*LEN(A303)+1,LEN(A303)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="316">
       <c r="B316">
-        <f t="array" aca="1" ref="B316" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A305,";",REPT(" ",LEN(A305)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A305)-LEN(SUBSTITUTE(A305,";",""))+1))*LEN(A305)+1,LEN(A305)+1)))</f>
+        <f t="array" aca="1" ref="B316" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A304,";",REPT(" ",LEN(A304)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A304)-LEN(SUBSTITUTE(A304,";",""))+1))*LEN(A304)+1,LEN(A304)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="317">
       <c r="B317">
-        <f t="array" aca="1" ref="B317" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A306,";",REPT(" ",LEN(A306)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A306)-LEN(SUBSTITUTE(A306,";",""))+1))*LEN(A306)+1,LEN(A306)+1)))</f>
+        <f t="array" aca="1" ref="B317" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A305,";",REPT(" ",LEN(A305)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A305)-LEN(SUBSTITUTE(A305,";",""))+1))*LEN(A305)+1,LEN(A305)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="318">
       <c r="B318">
-        <f t="array" aca="1" ref="B318" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A307,";",REPT(" ",LEN(A307)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A307)-LEN(SUBSTITUTE(A307,";",""))+1))*LEN(A307)+1,LEN(A307)+1)))</f>
+        <f t="array" aca="1" ref="B318" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A306,";",REPT(" ",LEN(A306)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A306)-LEN(SUBSTITUTE(A306,";",""))+1))*LEN(A306)+1,LEN(A306)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="319">
       <c r="B319">
-        <f t="array" aca="1" ref="B319" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A308,";",REPT(" ",LEN(A308)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A308)-LEN(SUBSTITUTE(A308,";",""))+1))*LEN(A308)+1,LEN(A308)+1)))</f>
+        <f t="array" aca="1" ref="B319" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A307,";",REPT(" ",LEN(A307)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A307)-LEN(SUBSTITUTE(A307,";",""))+1))*LEN(A307)+1,LEN(A307)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="320">
       <c r="B320">
-        <f t="array" aca="1" ref="B320" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A309,";",REPT(" ",LEN(A309)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A309)-LEN(SUBSTITUTE(A309,";",""))+1))*LEN(A309)+1,LEN(A309)+1)))</f>
+        <f t="array" aca="1" ref="B320" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A308,";",REPT(" ",LEN(A308)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A308)-LEN(SUBSTITUTE(A308,";",""))+1))*LEN(A308)+1,LEN(A308)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="321">
       <c r="B321">
-        <f t="array" aca="1" ref="B321" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A310,";",REPT(" ",LEN(A310)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A310)-LEN(SUBSTITUTE(A310,";",""))+1))*LEN(A310)+1,LEN(A310)+1)))</f>
+        <f t="array" aca="1" ref="B321" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A309,";",REPT(" ",LEN(A309)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A309)-LEN(SUBSTITUTE(A309,";",""))+1))*LEN(A309)+1,LEN(A309)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="322">
       <c r="B322">
-        <f t="array" aca="1" ref="B322" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A311,";",REPT(" ",LEN(A311)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A311)-LEN(SUBSTITUTE(A311,";",""))+1))*LEN(A311)+1,LEN(A311)+1)))</f>
+        <f t="array" aca="1" ref="B322" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A310,";",REPT(" ",LEN(A310)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A310)-LEN(SUBSTITUTE(A310,";",""))+1))*LEN(A310)+1,LEN(A310)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="323">
       <c r="B323">
-        <f t="array" aca="1" ref="B323" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A312,";",REPT(" ",LEN(A312)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A312)-LEN(SUBSTITUTE(A312,";",""))+1))*LEN(A312)+1,LEN(A312)+1)))</f>
+        <f t="array" aca="1" ref="B323" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A311,";",REPT(" ",LEN(A311)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A311)-LEN(SUBSTITUTE(A311,";",""))+1))*LEN(A311)+1,LEN(A311)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="324">
       <c r="B324">
-        <f t="array" aca="1" ref="B324" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A313,";",REPT(" ",LEN(A313)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A313)-LEN(SUBSTITUTE(A313,";",""))+1))*LEN(A313)+1,LEN(A313)+1)))</f>
+        <f t="array" aca="1" ref="B324" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A312,";",REPT(" ",LEN(A312)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A312)-LEN(SUBSTITUTE(A312,";",""))+1))*LEN(A312)+1,LEN(A312)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="325">
       <c r="B325">
-        <f t="array" aca="1" ref="B325" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A314,";",REPT(" ",LEN(A314)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A314)-LEN(SUBSTITUTE(A314,";",""))+1))*LEN(A314)+1,LEN(A314)+1)))</f>
+        <f t="array" aca="1" ref="B325" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A313,";",REPT(" ",LEN(A313)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A313)-LEN(SUBSTITUTE(A313,";",""))+1))*LEN(A313)+1,LEN(A313)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="326">
       <c r="B326">
-        <f t="array" aca="1" ref="B326" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A315,";",REPT(" ",LEN(A315)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A315)-LEN(SUBSTITUTE(A315,";",""))+1))*LEN(A315)+1,LEN(A315)+1)))</f>
+        <f t="array" aca="1" ref="B326" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A314,";",REPT(" ",LEN(A314)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A314)-LEN(SUBSTITUTE(A314,";",""))+1))*LEN(A314)+1,LEN(A314)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="327">
       <c r="B327">
-        <f t="array" aca="1" ref="B327" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A316,";",REPT(" ",LEN(A316)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A316)-LEN(SUBSTITUTE(A316,";",""))+1))*LEN(A316)+1,LEN(A316)+1)))</f>
+        <f t="array" aca="1" ref="B327" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A315,";",REPT(" ",LEN(A315)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A315)-LEN(SUBSTITUTE(A315,";",""))+1))*LEN(A315)+1,LEN(A315)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="328">
       <c r="B328">
-        <f t="array" aca="1" ref="B328" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A317,";",REPT(" ",LEN(A317)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A317)-LEN(SUBSTITUTE(A317,";",""))+1))*LEN(A317)+1,LEN(A317)+1)))</f>
+        <f t="array" aca="1" ref="B328" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A316,";",REPT(" ",LEN(A316)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A316)-LEN(SUBSTITUTE(A316,";",""))+1))*LEN(A316)+1,LEN(A316)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="329">
       <c r="B329">
-        <f t="array" aca="1" ref="B329" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A318,";",REPT(" ",LEN(A318)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A318)-LEN(SUBSTITUTE(A318,";",""))+1))*LEN(A318)+1,LEN(A318)+1)))</f>
+        <f t="array" aca="1" ref="B329" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A317,";",REPT(" ",LEN(A317)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A317)-LEN(SUBSTITUTE(A317,";",""))+1))*LEN(A317)+1,LEN(A317)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="330">
       <c r="B330">
-        <f t="array" aca="1" ref="B330" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A319,";",REPT(" ",LEN(A319)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A319)-LEN(SUBSTITUTE(A319,";",""))+1))*LEN(A319)+1,LEN(A319)+1)))</f>
+        <f t="array" aca="1" ref="B330" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A318,";",REPT(" ",LEN(A318)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A318)-LEN(SUBSTITUTE(A318,";",""))+1))*LEN(A318)+1,LEN(A318)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="331">
       <c r="B331">
-        <f t="array" aca="1" ref="B331" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A320,";",REPT(" ",LEN(A320)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A320)-LEN(SUBSTITUTE(A320,";",""))+1))*LEN(A320)+1,LEN(A320)+1)))</f>
+        <f t="array" aca="1" ref="B331" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A319,";",REPT(" ",LEN(A319)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A319)-LEN(SUBSTITUTE(A319,";",""))+1))*LEN(A319)+1,LEN(A319)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="332">
       <c r="B332">
-        <f t="array" aca="1" ref="B332" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A321,";",REPT(" ",LEN(A321)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A321)-LEN(SUBSTITUTE(A321,";",""))+1))*LEN(A321)+1,LEN(A321)+1)))</f>
+        <f t="array" aca="1" ref="B332" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A320,";",REPT(" ",LEN(A320)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A320)-LEN(SUBSTITUTE(A320,";",""))+1))*LEN(A320)+1,LEN(A320)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="333">
       <c r="B333">
-        <f t="array" aca="1" ref="B333" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A322,";",REPT(" ",LEN(A322)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A322)-LEN(SUBSTITUTE(A322,";",""))+1))*LEN(A322)+1,LEN(A322)+1)))</f>
+        <f t="array" aca="1" ref="B333" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A321,";",REPT(" ",LEN(A321)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A321)-LEN(SUBSTITUTE(A321,";",""))+1))*LEN(A321)+1,LEN(A321)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="334">
       <c r="B334">
-        <f t="array" aca="1" ref="B334" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A323,";",REPT(" ",LEN(A323)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A323)-LEN(SUBSTITUTE(A323,";",""))+1))*LEN(A323)+1,LEN(A323)+1)))</f>
+        <f t="array" aca="1" ref="B334" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A322,";",REPT(" ",LEN(A322)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A322)-LEN(SUBSTITUTE(A322,";",""))+1))*LEN(A322)+1,LEN(A322)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="335">
       <c r="B335">
-        <f t="array" aca="1" ref="B335" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A324,";",REPT(" ",LEN(A324)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A324)-LEN(SUBSTITUTE(A324,";",""))+1))*LEN(A324)+1,LEN(A324)+1)))</f>
+        <f t="array" aca="1" ref="B335" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A323,";",REPT(" ",LEN(A323)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A323)-LEN(SUBSTITUTE(A323,";",""))+1))*LEN(A323)+1,LEN(A323)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="336">
       <c r="B336">
-        <f t="array" aca="1" ref="B336" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A325,";",REPT(" ",LEN(A325)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A325)-LEN(SUBSTITUTE(A325,";",""))+1))*LEN(A325)+1,LEN(A325)+1)))</f>
+        <f t="array" aca="1" ref="B336" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A324,";",REPT(" ",LEN(A324)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A324)-LEN(SUBSTITUTE(A324,";",""))+1))*LEN(A324)+1,LEN(A324)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="337">
       <c r="B337">
-        <f t="array" aca="1" ref="B337" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A326,";",REPT(" ",LEN(A326)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A326)-LEN(SUBSTITUTE(A326,";",""))+1))*LEN(A326)+1,LEN(A326)+1)))</f>
+        <f t="array" aca="1" ref="B337" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A325,";",REPT(" ",LEN(A325)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A325)-LEN(SUBSTITUTE(A325,";",""))+1))*LEN(A325)+1,LEN(A325)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="338">
       <c r="B338">
-        <f t="array" aca="1" ref="B338" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A327,";",REPT(" ",LEN(A327)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A327)-LEN(SUBSTITUTE(A327,";",""))+1))*LEN(A327)+1,LEN(A327)+1)))</f>
+        <f t="array" aca="1" ref="B338" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A326,";",REPT(" ",LEN(A326)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A326)-LEN(SUBSTITUTE(A326,";",""))+1))*LEN(A326)+1,LEN(A326)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="339">
       <c r="B339">
-        <f t="array" aca="1" ref="B339" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A328,";",REPT(" ",LEN(A328)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A328)-LEN(SUBSTITUTE(A328,";",""))+1))*LEN(A328)+1,LEN(A328)+1)))</f>
+        <f t="array" aca="1" ref="B339" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A327,";",REPT(" ",LEN(A327)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A327)-LEN(SUBSTITUTE(A327,";",""))+1))*LEN(A327)+1,LEN(A327)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="340">
       <c r="B340">
-        <f t="array" aca="1" ref="B340" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A329,";",REPT(" ",LEN(A329)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A329)-LEN(SUBSTITUTE(A329,";",""))+1))*LEN(A329)+1,LEN(A329)+1)))</f>
+        <f t="array" aca="1" ref="B340" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A328,";",REPT(" ",LEN(A328)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A328)-LEN(SUBSTITUTE(A328,";",""))+1))*LEN(A328)+1,LEN(A328)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="341">
       <c r="B341">
-        <f t="array" aca="1" ref="B341" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A330,";",REPT(" ",LEN(A330)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A330)-LEN(SUBSTITUTE(A330,";",""))+1))*LEN(A330)+1,LEN(A330)+1)))</f>
+        <f t="array" aca="1" ref="B341" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A329,";",REPT(" ",LEN(A329)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A329)-LEN(SUBSTITUTE(A329,";",""))+1))*LEN(A329)+1,LEN(A329)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="342">
       <c r="B342">
-        <f t="array" aca="1" ref="B342" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A331,";",REPT(" ",LEN(A331)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A331)-LEN(SUBSTITUTE(A331,";",""))+1))*LEN(A331)+1,LEN(A331)+1)))</f>
+        <f t="array" aca="1" ref="B342" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A330,";",REPT(" ",LEN(A330)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A330)-LEN(SUBSTITUTE(A330,";",""))+1))*LEN(A330)+1,LEN(A330)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="343">
       <c r="B343">
-        <f t="array" aca="1" ref="B343" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A332,";",REPT(" ",LEN(A332)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A332)-LEN(SUBSTITUTE(A332,";",""))+1))*LEN(A332)+1,LEN(A332)+1)))</f>
+        <f t="array" aca="1" ref="B343" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A331,";",REPT(" ",LEN(A331)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A331)-LEN(SUBSTITUTE(A331,";",""))+1))*LEN(A331)+1,LEN(A331)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="344">
       <c r="B344">
-        <f t="array" aca="1" ref="B344" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A333,";",REPT(" ",LEN(A333)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A333)-LEN(SUBSTITUTE(A333,";",""))+1))*LEN(A333)+1,LEN(A333)+1)))</f>
+        <f t="array" aca="1" ref="B344" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A332,";",REPT(" ",LEN(A332)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A332)-LEN(SUBSTITUTE(A332,";",""))+1))*LEN(A332)+1,LEN(A332)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="345">
       <c r="B345">
-        <f t="array" aca="1" ref="B345" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A334,";",REPT(" ",LEN(A334)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A334)-LEN(SUBSTITUTE(A334,";",""))+1))*LEN(A334)+1,LEN(A334)+1)))</f>
+        <f t="array" aca="1" ref="B345" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A333,";",REPT(" ",LEN(A333)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A333)-LEN(SUBSTITUTE(A333,";",""))+1))*LEN(A333)+1,LEN(A333)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="346">
       <c r="B346">
-        <f t="array" aca="1" ref="B346" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A335,";",REPT(" ",LEN(A335)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A335)-LEN(SUBSTITUTE(A335,";",""))+1))*LEN(A335)+1,LEN(A335)+1)))</f>
+        <f t="array" aca="1" ref="B346" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A334,";",REPT(" ",LEN(A334)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A334)-LEN(SUBSTITUTE(A334,";",""))+1))*LEN(A334)+1,LEN(A334)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="347">
       <c r="B347">
-        <f t="array" aca="1" ref="B347" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A336,";",REPT(" ",LEN(A336)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A336)-LEN(SUBSTITUTE(A336,";",""))+1))*LEN(A336)+1,LEN(A336)+1)))</f>
+        <f t="array" aca="1" ref="B347" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A335,";",REPT(" ",LEN(A335)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A335)-LEN(SUBSTITUTE(A335,";",""))+1))*LEN(A335)+1,LEN(A335)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="348">
       <c r="B348">
-        <f t="array" aca="1" ref="B348" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A337,";",REPT(" ",LEN(A337)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A337)-LEN(SUBSTITUTE(A337,";",""))+1))*LEN(A337)+1,LEN(A337)+1)))</f>
+        <f t="array" aca="1" ref="B348" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A336,";",REPT(" ",LEN(A336)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A336)-LEN(SUBSTITUTE(A336,";",""))+1))*LEN(A336)+1,LEN(A336)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="349">
       <c r="B349">
-        <f t="array" aca="1" ref="B349" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A338,";",REPT(" ",LEN(A338)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A338)-LEN(SUBSTITUTE(A338,";",""))+1))*LEN(A338)+1,LEN(A338)+1)))</f>
+        <f t="array" aca="1" ref="B349" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A337,";",REPT(" ",LEN(A337)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A337)-LEN(SUBSTITUTE(A337,";",""))+1))*LEN(A337)+1,LEN(A337)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="350">
       <c r="B350">
-        <f t="array" aca="1" ref="B350" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A339,";",REPT(" ",LEN(A339)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A339)-LEN(SUBSTITUTE(A339,";",""))+1))*LEN(A339)+1,LEN(A339)+1)))</f>
+        <f t="array" aca="1" ref="B350" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A338,";",REPT(" ",LEN(A338)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A338)-LEN(SUBSTITUTE(A338,";",""))+1))*LEN(A338)+1,LEN(A338)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="351">
       <c r="B351">
-        <f t="array" aca="1" ref="B351" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A340,";",REPT(" ",LEN(A340)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A340)-LEN(SUBSTITUTE(A340,";",""))+1))*LEN(A340)+1,LEN(A340)+1)))</f>
+        <f t="array" aca="1" ref="B351" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A339,";",REPT(" ",LEN(A339)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A339)-LEN(SUBSTITUTE(A339,";",""))+1))*LEN(A339)+1,LEN(A339)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="352">
       <c r="B352">
-        <f t="array" aca="1" ref="B352" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A341,";",REPT(" ",LEN(A341)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A341)-LEN(SUBSTITUTE(A341,";",""))+1))*LEN(A341)+1,LEN(A341)+1)))</f>
+        <f t="array" aca="1" ref="B352" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A340,";",REPT(" ",LEN(A340)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A340)-LEN(SUBSTITUTE(A340,";",""))+1))*LEN(A340)+1,LEN(A340)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="353">
       <c r="B353">
-        <f t="array" aca="1" ref="B353" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A342,";",REPT(" ",LEN(A342)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A342)-LEN(SUBSTITUTE(A342,";",""))+1))*LEN(A342)+1,LEN(A342)+1)))</f>
+        <f t="array" aca="1" ref="B353" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A341,";",REPT(" ",LEN(A341)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A341)-LEN(SUBSTITUTE(A341,";",""))+1))*LEN(A341)+1,LEN(A341)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="354">
       <c r="B354">
-        <f t="array" aca="1" ref="B354" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A343,";",REPT(" ",LEN(A343)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A343)-LEN(SUBSTITUTE(A343,";",""))+1))*LEN(A343)+1,LEN(A343)+1)))</f>
+        <f t="array" aca="1" ref="B354" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A342,";",REPT(" ",LEN(A342)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A342)-LEN(SUBSTITUTE(A342,";",""))+1))*LEN(A342)+1,LEN(A342)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="355">
       <c r="B355">
-        <f t="array" aca="1" ref="B355" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A344,";",REPT(" ",LEN(A344)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A344)-LEN(SUBSTITUTE(A344,";",""))+1))*LEN(A344)+1,LEN(A344)+1)))</f>
+        <f t="array" aca="1" ref="B355" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A343,";",REPT(" ",LEN(A343)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A343)-LEN(SUBSTITUTE(A343,";",""))+1))*LEN(A343)+1,LEN(A343)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="356">
       <c r="B356">
-        <f t="array" aca="1" ref="B356" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A345,";",REPT(" ",LEN(A345)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A345)-LEN(SUBSTITUTE(A345,";",""))+1))*LEN(A345)+1,LEN(A345)+1)))</f>
+        <f t="array" aca="1" ref="B356" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A344,";",REPT(" ",LEN(A344)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A344)-LEN(SUBSTITUTE(A344,";",""))+1))*LEN(A344)+1,LEN(A344)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="357">
       <c r="B357">
-        <f t="array" aca="1" ref="B357" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A346,";",REPT(" ",LEN(A346)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A346)-LEN(SUBSTITUTE(A346,";",""))+1))*LEN(A346)+1,LEN(A346)+1)))</f>
+        <f t="array" aca="1" ref="B357" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A345,";",REPT(" ",LEN(A345)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A345)-LEN(SUBSTITUTE(A345,";",""))+1))*LEN(A345)+1,LEN(A345)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="358">
       <c r="B358">
-        <f t="array" aca="1" ref="B358" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A347,";",REPT(" ",LEN(A347)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A347)-LEN(SUBSTITUTE(A347,";",""))+1))*LEN(A347)+1,LEN(A347)+1)))</f>
+        <f t="array" aca="1" ref="B358" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A346,";",REPT(" ",LEN(A346)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A346)-LEN(SUBSTITUTE(A346,";",""))+1))*LEN(A346)+1,LEN(A346)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="359">
       <c r="B359">
-        <f t="array" aca="1" ref="B359" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A348,";",REPT(" ",LEN(A348)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A348)-LEN(SUBSTITUTE(A348,";",""))+1))*LEN(A348)+1,LEN(A348)+1)))</f>
+        <f t="array" aca="1" ref="B359" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A347,";",REPT(" ",LEN(A347)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A347)-LEN(SUBSTITUTE(A347,";",""))+1))*LEN(A347)+1,LEN(A347)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="360">
       <c r="B360">
-        <f t="array" aca="1" ref="B360" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A349,";",REPT(" ",LEN(A349)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A349)-LEN(SUBSTITUTE(A349,";",""))+1))*LEN(A349)+1,LEN(A349)+1)))</f>
+        <f t="array" aca="1" ref="B360" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A348,";",REPT(" ",LEN(A348)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A348)-LEN(SUBSTITUTE(A348,";",""))+1))*LEN(A348)+1,LEN(A348)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="361">
       <c r="B361">
-        <f t="array" aca="1" ref="B361" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A350,";",REPT(" ",LEN(A350)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A350)-LEN(SUBSTITUTE(A350,";",""))+1))*LEN(A350)+1,LEN(A350)+1)))</f>
+        <f t="array" aca="1" ref="B361" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A349,";",REPT(" ",LEN(A349)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A349)-LEN(SUBSTITUTE(A349,";",""))+1))*LEN(A349)+1,LEN(A349)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="362">
       <c r="B362">
-        <f t="array" aca="1" ref="B362" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A351,";",REPT(" ",LEN(A351)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A351)-LEN(SUBSTITUTE(A351,";",""))+1))*LEN(A351)+1,LEN(A351)+1)))</f>
+        <f t="array" aca="1" ref="B362" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A350,";",REPT(" ",LEN(A350)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A350)-LEN(SUBSTITUTE(A350,";",""))+1))*LEN(A350)+1,LEN(A350)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="363">
       <c r="B363">
-        <f t="array" aca="1" ref="B363" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A352,";",REPT(" ",LEN(A352)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A352)-LEN(SUBSTITUTE(A352,";",""))+1))*LEN(A352)+1,LEN(A352)+1)))</f>
+        <f t="array" aca="1" ref="B363" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A351,";",REPT(" ",LEN(A351)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A351)-LEN(SUBSTITUTE(A351,";",""))+1))*LEN(A351)+1,LEN(A351)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="364">
       <c r="B364">
-        <f t="array" aca="1" ref="B364" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A353,";",REPT(" ",LEN(A353)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A353)-LEN(SUBSTITUTE(A353,";",""))+1))*LEN(A353)+1,LEN(A353)+1)))</f>
+        <f t="array" aca="1" ref="B364" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A352,";",REPT(" ",LEN(A352)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A352)-LEN(SUBSTITUTE(A352,";",""))+1))*LEN(A352)+1,LEN(A352)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="365">
       <c r="B365">
-        <f t="array" aca="1" ref="B365" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A354,";",REPT(" ",LEN(A354)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A354)-LEN(SUBSTITUTE(A354,";",""))+1))*LEN(A354)+1,LEN(A354)+1)))</f>
+        <f t="array" aca="1" ref="B365" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A353,";",REPT(" ",LEN(A353)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A353)-LEN(SUBSTITUTE(A353,";",""))+1))*LEN(A353)+1,LEN(A353)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="366">
       <c r="B366">
-        <f t="array" aca="1" ref="B366" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A355,";",REPT(" ",LEN(A355)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A355)-LEN(SUBSTITUTE(A355,";",""))+1))*LEN(A355)+1,LEN(A355)+1)))</f>
+        <f t="array" aca="1" ref="B366" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A354,";",REPT(" ",LEN(A354)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A354)-LEN(SUBSTITUTE(A354,";",""))+1))*LEN(A354)+1,LEN(A354)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="367">
       <c r="B367">
-        <f t="array" aca="1" ref="B367" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A356,";",REPT(" ",LEN(A356)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A356)-LEN(SUBSTITUTE(A356,";",""))+1))*LEN(A356)+1,LEN(A356)+1)))</f>
+        <f t="array" aca="1" ref="B367" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A355,";",REPT(" ",LEN(A355)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A355)-LEN(SUBSTITUTE(A355,";",""))+1))*LEN(A355)+1,LEN(A355)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="368">
       <c r="B368">
-        <f t="array" aca="1" ref="B368" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A357,";",REPT(" ",LEN(A357)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A357)-LEN(SUBSTITUTE(A357,";",""))+1))*LEN(A357)+1,LEN(A357)+1)))</f>
+        <f t="array" aca="1" ref="B368" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A356,";",REPT(" ",LEN(A356)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A356)-LEN(SUBSTITUTE(A356,";",""))+1))*LEN(A356)+1,LEN(A356)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="369">
       <c r="B369">
-        <f t="array" aca="1" ref="B369" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A358,";",REPT(" ",LEN(A358)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A358)-LEN(SUBSTITUTE(A358,";",""))+1))*LEN(A358)+1,LEN(A358)+1)))</f>
+        <f t="array" aca="1" ref="B369" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A357,";",REPT(" ",LEN(A357)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A357)-LEN(SUBSTITUTE(A357,";",""))+1))*LEN(A357)+1,LEN(A357)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="370">
       <c r="B370">
-        <f t="array" aca="1" ref="B370" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A359,";",REPT(" ",LEN(A359)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A359)-LEN(SUBSTITUTE(A359,";",""))+1))*LEN(A359)+1,LEN(A359)+1)))</f>
+        <f t="array" aca="1" ref="B370" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A358,";",REPT(" ",LEN(A358)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A358)-LEN(SUBSTITUTE(A358,";",""))+1))*LEN(A358)+1,LEN(A358)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="371">
       <c r="B371">
-        <f t="array" aca="1" ref="B371" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A360,";",REPT(" ",LEN(A360)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A360)-LEN(SUBSTITUTE(A360,";",""))+1))*LEN(A360)+1,LEN(A360)+1)))</f>
+        <f t="array" aca="1" ref="B371" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A359,";",REPT(" ",LEN(A359)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A359)-LEN(SUBSTITUTE(A359,";",""))+1))*LEN(A359)+1,LEN(A359)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="372">
       <c r="B372">
-        <f t="array" aca="1" ref="B372" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A361,";",REPT(" ",LEN(A361)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A361)-LEN(SUBSTITUTE(A361,";",""))+1))*LEN(A361)+1,LEN(A361)+1)))</f>
+        <f t="array" aca="1" ref="B372" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A360,";",REPT(" ",LEN(A360)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A360)-LEN(SUBSTITUTE(A360,";",""))+1))*LEN(A360)+1,LEN(A360)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="373">
       <c r="B373">
-        <f t="array" aca="1" ref="B373" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A362,";",REPT(" ",LEN(A362)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A362)-LEN(SUBSTITUTE(A362,";",""))+1))*LEN(A362)+1,LEN(A362)+1)))</f>
+        <f t="array" aca="1" ref="B373" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A361,";",REPT(" ",LEN(A361)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A361)-LEN(SUBSTITUTE(A361,";",""))+1))*LEN(A361)+1,LEN(A361)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="374">
       <c r="B374">
-        <f t="array" aca="1" ref="B374" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A363,";",REPT(" ",LEN(A363)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A363)-LEN(SUBSTITUTE(A363,";",""))+1))*LEN(A363)+1,LEN(A363)+1)))</f>
+        <f t="array" aca="1" ref="B374" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A362,";",REPT(" ",LEN(A362)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A362)-LEN(SUBSTITUTE(A362,";",""))+1))*LEN(A362)+1,LEN(A362)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="375">
       <c r="B375">
-        <f t="array" aca="1" ref="B375" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A364,";",REPT(" ",LEN(A364)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A364)-LEN(SUBSTITUTE(A364,";",""))+1))*LEN(A364)+1,LEN(A364)+1)))</f>
+        <f t="array" aca="1" ref="B375" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A363,";",REPT(" ",LEN(A363)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A363)-LEN(SUBSTITUTE(A363,";",""))+1))*LEN(A363)+1,LEN(A363)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="376">
       <c r="B376">
-        <f t="array" aca="1" ref="B376" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A365,";",REPT(" ",LEN(A365)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A365)-LEN(SUBSTITUTE(A365,";",""))+1))*LEN(A365)+1,LEN(A365)+1)))</f>
+        <f t="array" aca="1" ref="B376" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A364,";",REPT(" ",LEN(A364)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A364)-LEN(SUBSTITUTE(A364,";",""))+1))*LEN(A364)+1,LEN(A364)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="377">
       <c r="B377">
-        <f t="array" aca="1" ref="B377" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A366,";",REPT(" ",LEN(A366)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A366)-LEN(SUBSTITUTE(A366,";",""))+1))*LEN(A366)+1,LEN(A366)+1)))</f>
+        <f t="array" aca="1" ref="B377" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A365,";",REPT(" ",LEN(A365)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A365)-LEN(SUBSTITUTE(A365,";",""))+1))*LEN(A365)+1,LEN(A365)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="378">
       <c r="B378">
-        <f t="array" aca="1" ref="B378" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A367,";",REPT(" ",LEN(A367)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A367)-LEN(SUBSTITUTE(A367,";",""))+1))*LEN(A367)+1,LEN(A367)+1)))</f>
+        <f t="array" aca="1" ref="B378" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A366,";",REPT(" ",LEN(A366)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A366)-LEN(SUBSTITUTE(A366,";",""))+1))*LEN(A366)+1,LEN(A366)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="379">
       <c r="B379">
-        <f t="array" aca="1" ref="B379" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A368,";",REPT(" ",LEN(A368)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A368)-LEN(SUBSTITUTE(A368,";",""))+1))*LEN(A368)+1,LEN(A368)+1)))</f>
+        <f t="array" aca="1" ref="B379" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A367,";",REPT(" ",LEN(A367)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A367)-LEN(SUBSTITUTE(A367,";",""))+1))*LEN(A367)+1,LEN(A367)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="380">
       <c r="B380">
-        <f t="array" aca="1" ref="B380" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A369,";",REPT(" ",LEN(A369)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A369)-LEN(SUBSTITUTE(A369,";",""))+1))*LEN(A369)+1,LEN(A369)+1)))</f>
+        <f t="array" aca="1" ref="B380" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A368,";",REPT(" ",LEN(A368)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A368)-LEN(SUBSTITUTE(A368,";",""))+1))*LEN(A368)+1,LEN(A368)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="381">
       <c r="B381">
-        <f t="array" aca="1" ref="B381" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A370,";",REPT(" ",LEN(A370)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A370)-LEN(SUBSTITUTE(A370,";",""))+1))*LEN(A370)+1,LEN(A370)+1)))</f>
+        <f t="array" aca="1" ref="B381" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A369,";",REPT(" ",LEN(A369)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A369)-LEN(SUBSTITUTE(A369,";",""))+1))*LEN(A369)+1,LEN(A369)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="382">
       <c r="B382">
-        <f t="array" aca="1" ref="B382" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A371,";",REPT(" ",LEN(A371)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A371)-LEN(SUBSTITUTE(A371,";",""))+1))*LEN(A371)+1,LEN(A371)+1)))</f>
+        <f t="array" aca="1" ref="B382" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A370,";",REPT(" ",LEN(A370)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A370)-LEN(SUBSTITUTE(A370,";",""))+1))*LEN(A370)+1,LEN(A370)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="383">
       <c r="B383">
-        <f t="array" aca="1" ref="B383" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A372,";",REPT(" ",LEN(A372)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A372)-LEN(SUBSTITUTE(A372,";",""))+1))*LEN(A372)+1,LEN(A372)+1)))</f>
+        <f t="array" aca="1" ref="B383" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A371,";",REPT(" ",LEN(A371)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A371)-LEN(SUBSTITUTE(A371,";",""))+1))*LEN(A371)+1,LEN(A371)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="384">
       <c r="B384">
-        <f t="array" aca="1" ref="B384" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A373,";",REPT(" ",LEN(A373)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A373)-LEN(SUBSTITUTE(A373,";",""))+1))*LEN(A373)+1,LEN(A373)+1)))</f>
+        <f t="array" aca="1" ref="B384" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A372,";",REPT(" ",LEN(A372)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A372)-LEN(SUBSTITUTE(A372,";",""))+1))*LEN(A372)+1,LEN(A372)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="385">
       <c r="B385">
-        <f t="array" aca="1" ref="B385" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A374,";",REPT(" ",LEN(A374)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A374)-LEN(SUBSTITUTE(A374,";",""))+1))*LEN(A374)+1,LEN(A374)+1)))</f>
+        <f t="array" aca="1" ref="B385" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A373,";",REPT(" ",LEN(A373)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A373)-LEN(SUBSTITUTE(A373,";",""))+1))*LEN(A373)+1,LEN(A373)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="386">
       <c r="B386">
-        <f t="array" aca="1" ref="B386" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A375,";",REPT(" ",LEN(A375)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A375)-LEN(SUBSTITUTE(A375,";",""))+1))*LEN(A375)+1,LEN(A375)+1)))</f>
+        <f t="array" aca="1" ref="B386" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A374,";",REPT(" ",LEN(A374)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A374)-LEN(SUBSTITUTE(A374,";",""))+1))*LEN(A374)+1,LEN(A374)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="387">
       <c r="B387">
-        <f t="array" aca="1" ref="B387" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A376,";",REPT(" ",LEN(A376)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A376)-LEN(SUBSTITUTE(A376,";",""))+1))*LEN(A376)+1,LEN(A376)+1)))</f>
+        <f t="array" aca="1" ref="B387" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A375,";",REPT(" ",LEN(A375)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A375)-LEN(SUBSTITUTE(A375,";",""))+1))*LEN(A375)+1,LEN(A375)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="388">
       <c r="B388">
-        <f t="array" aca="1" ref="B388" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A377,";",REPT(" ",LEN(A377)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A377)-LEN(SUBSTITUTE(A377,";",""))+1))*LEN(A377)+1,LEN(A377)+1)))</f>
+        <f t="array" aca="1" ref="B388" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A376,";",REPT(" ",LEN(A376)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A376)-LEN(SUBSTITUTE(A376,";",""))+1))*LEN(A376)+1,LEN(A376)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="389">
       <c r="B389">
-        <f t="array" aca="1" ref="B389" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A378,";",REPT(" ",LEN(A378)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A378)-LEN(SUBSTITUTE(A378,";",""))+1))*LEN(A378)+1,LEN(A378)+1)))</f>
+        <f t="array" aca="1" ref="B389" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A377,";",REPT(" ",LEN(A377)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A377)-LEN(SUBSTITUTE(A377,";",""))+1))*LEN(A377)+1,LEN(A377)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="390">
       <c r="B390">
-        <f t="array" aca="1" ref="B390" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A379,";",REPT(" ",LEN(A379)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A379)-LEN(SUBSTITUTE(A379,";",""))+1))*LEN(A379)+1,LEN(A379)+1)))</f>
+        <f t="array" aca="1" ref="B390" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A378,";",REPT(" ",LEN(A378)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A378)-LEN(SUBSTITUTE(A378,";",""))+1))*LEN(A378)+1,LEN(A378)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="391">
       <c r="B391">
-        <f t="array" aca="1" ref="B391" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A380,";",REPT(" ",LEN(A380)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A380)-LEN(SUBSTITUTE(A380,";",""))+1))*LEN(A380)+1,LEN(A380)+1)))</f>
+        <f t="array" aca="1" ref="B391" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A379,";",REPT(" ",LEN(A379)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A379)-LEN(SUBSTITUTE(A379,";",""))+1))*LEN(A379)+1,LEN(A379)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="392">
       <c r="B392">
-        <f t="array" aca="1" ref="B392" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A381,";",REPT(" ",LEN(A381)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A381)-LEN(SUBSTITUTE(A381,";",""))+1))*LEN(A381)+1,LEN(A381)+1)))</f>
+        <f t="array" aca="1" ref="B392" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A380,";",REPT(" ",LEN(A380)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A380)-LEN(SUBSTITUTE(A380,";",""))+1))*LEN(A380)+1,LEN(A380)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="393">
       <c r="B393">
-        <f t="array" aca="1" ref="B393" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A382,";",REPT(" ",LEN(A382)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A382)-LEN(SUBSTITUTE(A382,";",""))+1))*LEN(A382)+1,LEN(A382)+1)))</f>
+        <f t="array" aca="1" ref="B393" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A381,";",REPT(" ",LEN(A381)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A381)-LEN(SUBSTITUTE(A381,";",""))+1))*LEN(A381)+1,LEN(A381)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="394">
       <c r="B394">
-        <f t="array" aca="1" ref="B394" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A383,";",REPT(" ",LEN(A383)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A383)-LEN(SUBSTITUTE(A383,";",""))+1))*LEN(A383)+1,LEN(A383)+1)))</f>
+        <f t="array" aca="1" ref="B394" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A382,";",REPT(" ",LEN(A382)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A382)-LEN(SUBSTITUTE(A382,";",""))+1))*LEN(A382)+1,LEN(A382)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="395">
       <c r="B395">
-        <f t="array" aca="1" ref="B395" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A384,";",REPT(" ",LEN(A384)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A384)-LEN(SUBSTITUTE(A384,";",""))+1))*LEN(A384)+1,LEN(A384)+1)))</f>
+        <f t="array" aca="1" ref="B395" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A383,";",REPT(" ",LEN(A383)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A383)-LEN(SUBSTITUTE(A383,";",""))+1))*LEN(A383)+1,LEN(A383)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="396">
       <c r="B396">
-        <f t="array" aca="1" ref="B396" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A385,";",REPT(" ",LEN(A385)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A385)-LEN(SUBSTITUTE(A385,";",""))+1))*LEN(A385)+1,LEN(A385)+1)))</f>
+        <f t="array" aca="1" ref="B396" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A384,";",REPT(" ",LEN(A384)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A384)-LEN(SUBSTITUTE(A384,";",""))+1))*LEN(A384)+1,LEN(A384)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="397">
       <c r="B397">
-        <f t="array" aca="1" ref="B397" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A386,";",REPT(" ",LEN(A386)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A386)-LEN(SUBSTITUTE(A386,";",""))+1))*LEN(A386)+1,LEN(A386)+1)))</f>
+        <f t="array" aca="1" ref="B397" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A385,";",REPT(" ",LEN(A385)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A385)-LEN(SUBSTITUTE(A385,";",""))+1))*LEN(A385)+1,LEN(A385)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="398">
       <c r="B398">
-        <f t="array" aca="1" ref="B398" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A387,";",REPT(" ",LEN(A387)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A387)-LEN(SUBSTITUTE(A387,";",""))+1))*LEN(A387)+1,LEN(A387)+1)))</f>
+        <f t="array" aca="1" ref="B398" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A386,";",REPT(" ",LEN(A386)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A386)-LEN(SUBSTITUTE(A386,";",""))+1))*LEN(A386)+1,LEN(A386)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="399">
       <c r="B399">
-        <f t="array" aca="1" ref="B399" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A388,";",REPT(" ",LEN(A388)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A388)-LEN(SUBSTITUTE(A388,";",""))+1))*LEN(A388)+1,LEN(A388)+1)))</f>
+        <f t="array" aca="1" ref="B399" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A387,";",REPT(" ",LEN(A387)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A387)-LEN(SUBSTITUTE(A387,";",""))+1))*LEN(A387)+1,LEN(A387)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="400">
       <c r="B400">
-        <f t="array" aca="1" ref="B400" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A389,";",REPT(" ",LEN(A389)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A389)-LEN(SUBSTITUTE(A389,";",""))+1))*LEN(A389)+1,LEN(A389)+1)))</f>
+        <f t="array" aca="1" ref="B400" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A388,";",REPT(" ",LEN(A388)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A388)-LEN(SUBSTITUTE(A388,";",""))+1))*LEN(A388)+1,LEN(A388)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="401">
       <c r="B401">
-        <f t="array" aca="1" ref="B401" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A390,";",REPT(" ",LEN(A390)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A390)-LEN(SUBSTITUTE(A390,";",""))+1))*LEN(A390)+1,LEN(A390)+1)))</f>
+        <f t="array" aca="1" ref="B401" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A389,";",REPT(" ",LEN(A389)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A389)-LEN(SUBSTITUTE(A389,";",""))+1))*LEN(A389)+1,LEN(A389)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="402">
       <c r="B402">
-        <f t="array" aca="1" ref="B402" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A391,";",REPT(" ",LEN(A391)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A391)-LEN(SUBSTITUTE(A391,";",""))+1))*LEN(A391)+1,LEN(A391)+1)))</f>
+        <f t="array" aca="1" ref="B402" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A390,";",REPT(" ",LEN(A390)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A390)-LEN(SUBSTITUTE(A390,";",""))+1))*LEN(A390)+1,LEN(A390)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="403">
       <c r="B403">
-        <f t="array" aca="1" ref="B403" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A392,";",REPT(" ",LEN(A392)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A392)-LEN(SUBSTITUTE(A392,";",""))+1))*LEN(A392)+1,LEN(A392)+1)))</f>
+        <f t="array" aca="1" ref="B403" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A391,";",REPT(" ",LEN(A391)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A391)-LEN(SUBSTITUTE(A391,";",""))+1))*LEN(A391)+1,LEN(A391)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="404">
       <c r="B404">
-        <f t="array" aca="1" ref="B404" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A393,";",REPT(" ",LEN(A393)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A393)-LEN(SUBSTITUTE(A393,";",""))+1))*LEN(A393)+1,LEN(A393)+1)))</f>
+        <f t="array" aca="1" ref="B404" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A392,";",REPT(" ",LEN(A392)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A392)-LEN(SUBSTITUTE(A392,";",""))+1))*LEN(A392)+1,LEN(A392)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="405">
       <c r="B405">
-        <f t="array" aca="1" ref="B405" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A394,";",REPT(" ",LEN(A394)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A394)-LEN(SUBSTITUTE(A394,";",""))+1))*LEN(A394)+1,LEN(A394)+1)))</f>
+        <f t="array" aca="1" ref="B405" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A393,";",REPT(" ",LEN(A393)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A393)-LEN(SUBSTITUTE(A393,";",""))+1))*LEN(A393)+1,LEN(A393)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="406">
       <c r="B406">
-        <f t="array" aca="1" ref="B406" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A395,";",REPT(" ",LEN(A395)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A395)-LEN(SUBSTITUTE(A395,";",""))+1))*LEN(A395)+1,LEN(A395)+1)))</f>
+        <f t="array" aca="1" ref="B406" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A394,";",REPT(" ",LEN(A394)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A394)-LEN(SUBSTITUTE(A394,";",""))+1))*LEN(A394)+1,LEN(A394)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="407">
       <c r="B407">
-        <f t="array" aca="1" ref="B407" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A396,";",REPT(" ",LEN(A396)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A396)-LEN(SUBSTITUTE(A396,";",""))+1))*LEN(A396)+1,LEN(A396)+1)))</f>
+        <f t="array" aca="1" ref="B407" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A395,";",REPT(" ",LEN(A395)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A395)-LEN(SUBSTITUTE(A395,";",""))+1))*LEN(A395)+1,LEN(A395)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="408">
       <c r="B408">
-        <f t="array" aca="1" ref="B408" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A397,";",REPT(" ",LEN(A397)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A397)-LEN(SUBSTITUTE(A397,";",""))+1))*LEN(A397)+1,LEN(A397)+1)))</f>
+        <f t="array" aca="1" ref="B408" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A396,";",REPT(" ",LEN(A396)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A396)-LEN(SUBSTITUTE(A396,";",""))+1))*LEN(A396)+1,LEN(A396)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="409">
       <c r="B409">
-        <f t="array" aca="1" ref="B409" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A398,";",REPT(" ",LEN(A398)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A398)-LEN(SUBSTITUTE(A398,";",""))+1))*LEN(A398)+1,LEN(A398)+1)))</f>
+        <f t="array" aca="1" ref="B409" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A397,";",REPT(" ",LEN(A397)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A397)-LEN(SUBSTITUTE(A397,";",""))+1))*LEN(A397)+1,LEN(A397)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="410">
       <c r="B410">
-        <f t="array" aca="1" ref="B410" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A399,";",REPT(" ",LEN(A399)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A399)-LEN(SUBSTITUTE(A399,";",""))+1))*LEN(A399)+1,LEN(A399)+1)))</f>
+        <f t="array" aca="1" ref="B410" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A398,";",REPT(" ",LEN(A398)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A398)-LEN(SUBSTITUTE(A398,";",""))+1))*LEN(A398)+1,LEN(A398)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="411">
       <c r="B411">
-        <f t="array" aca="1" ref="B411" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A400,";",REPT(" ",LEN(A400)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A400)-LEN(SUBSTITUTE(A400,";",""))+1))*LEN(A400)+1,LEN(A400)+1)))</f>
+        <f t="array" aca="1" ref="B411" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A399,";",REPT(" ",LEN(A399)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A399)-LEN(SUBSTITUTE(A399,";",""))+1))*LEN(A399)+1,LEN(A399)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="412">
       <c r="B412">
-        <f t="array" aca="1" ref="B412" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A401,";",REPT(" ",LEN(A401)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A401)-LEN(SUBSTITUTE(A401,";",""))+1))*LEN(A401)+1,LEN(A401)+1)))</f>
+        <f t="array" aca="1" ref="B412" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A400,";",REPT(" ",LEN(A400)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A400)-LEN(SUBSTITUTE(A400,";",""))+1))*LEN(A400)+1,LEN(A400)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="413">
       <c r="B413">
-        <f t="array" aca="1" ref="B413" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A402,";",REPT(" ",LEN(A402)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A402)-LEN(SUBSTITUTE(A402,";",""))+1))*LEN(A402)+1,LEN(A402)+1)))</f>
+        <f t="array" aca="1" ref="B413" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A401,";",REPT(" ",LEN(A401)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A401)-LEN(SUBSTITUTE(A401,";",""))+1))*LEN(A401)+1,LEN(A401)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="414">
       <c r="B414">
-        <f t="array" aca="1" ref="B414" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A403,";",REPT(" ",LEN(A403)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A403)-LEN(SUBSTITUTE(A403,";",""))+1))*LEN(A403)+1,LEN(A403)+1)))</f>
+        <f t="array" aca="1" ref="B414" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A402,";",REPT(" ",LEN(A402)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A402)-LEN(SUBSTITUTE(A402,";",""))+1))*LEN(A402)+1,LEN(A402)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="415">
       <c r="B415">
-        <f t="array" aca="1" ref="B415" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A404,";",REPT(" ",LEN(A404)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A404)-LEN(SUBSTITUTE(A404,";",""))+1))*LEN(A404)+1,LEN(A404)+1)))</f>
+        <f t="array" aca="1" ref="B415" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A403,";",REPT(" ",LEN(A403)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A403)-LEN(SUBSTITUTE(A403,";",""))+1))*LEN(A403)+1,LEN(A403)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="416">
       <c r="B416">
-        <f t="array" aca="1" ref="B416" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A405,";",REPT(" ",LEN(A405)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A405)-LEN(SUBSTITUTE(A405,";",""))+1))*LEN(A405)+1,LEN(A405)+1)))</f>
+        <f t="array" aca="1" ref="B416" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A404,";",REPT(" ",LEN(A404)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A404)-LEN(SUBSTITUTE(A404,";",""))+1))*LEN(A404)+1,LEN(A404)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="417">
       <c r="B417">
-        <f t="array" aca="1" ref="B417" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A406,";",REPT(" ",LEN(A406)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A406)-LEN(SUBSTITUTE(A406,";",""))+1))*LEN(A406)+1,LEN(A406)+1)))</f>
+        <f t="array" aca="1" ref="B417" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A405,";",REPT(" ",LEN(A405)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A405)-LEN(SUBSTITUTE(A405,";",""))+1))*LEN(A405)+1,LEN(A405)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="418">
       <c r="B418">
-        <f t="array" aca="1" ref="B418" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A407,";",REPT(" ",LEN(A407)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A407)-LEN(SUBSTITUTE(A407,";",""))+1))*LEN(A407)+1,LEN(A407)+1)))</f>
+        <f t="array" aca="1" ref="B418" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A406,";",REPT(" ",LEN(A406)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A406)-LEN(SUBSTITUTE(A406,";",""))+1))*LEN(A406)+1,LEN(A406)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="419">
       <c r="B419">
-        <f t="array" aca="1" ref="B419" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A408,";",REPT(" ",LEN(A408)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A408)-LEN(SUBSTITUTE(A408,";",""))+1))*LEN(A408)+1,LEN(A408)+1)))</f>
+        <f t="array" aca="1" ref="B419" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A407,";",REPT(" ",LEN(A407)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A407)-LEN(SUBSTITUTE(A407,";",""))+1))*LEN(A407)+1,LEN(A407)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="420">
       <c r="B420">
-        <f t="array" aca="1" ref="B420" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A409,";",REPT(" ",LEN(A409)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A409)-LEN(SUBSTITUTE(A409,";",""))+1))*LEN(A409)+1,LEN(A409)+1)))</f>
+        <f t="array" aca="1" ref="B420" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A408,";",REPT(" ",LEN(A408)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A408)-LEN(SUBSTITUTE(A408,";",""))+1))*LEN(A408)+1,LEN(A408)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="421">
       <c r="B421">
-        <f t="array" aca="1" ref="B421" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A410,";",REPT(" ",LEN(A410)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A410)-LEN(SUBSTITUTE(A410,";",""))+1))*LEN(A410)+1,LEN(A410)+1)))</f>
+        <f t="array" aca="1" ref="B421" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A409,";",REPT(" ",LEN(A409)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A409)-LEN(SUBSTITUTE(A409,";",""))+1))*LEN(A409)+1,LEN(A409)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="422">
       <c r="B422">
-        <f t="array" aca="1" ref="B422" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A411,";",REPT(" ",LEN(A411)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A411)-LEN(SUBSTITUTE(A411,";",""))+1))*LEN(A411)+1,LEN(A411)+1)))</f>
+        <f t="array" aca="1" ref="B422" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A410,";",REPT(" ",LEN(A410)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A410)-LEN(SUBSTITUTE(A410,";",""))+1))*LEN(A410)+1,LEN(A410)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="423">
       <c r="B423">
-        <f t="array" aca="1" ref="B423" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A412,";",REPT(" ",LEN(A412)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A412)-LEN(SUBSTITUTE(A412,";",""))+1))*LEN(A412)+1,LEN(A412)+1)))</f>
+        <f t="array" aca="1" ref="B423" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A411,";",REPT(" ",LEN(A411)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A411)-LEN(SUBSTITUTE(A411,";",""))+1))*LEN(A411)+1,LEN(A411)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="424">
       <c r="B424">
-        <f t="array" aca="1" ref="B424" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A413,";",REPT(" ",LEN(A413)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A413)-LEN(SUBSTITUTE(A413,";",""))+1))*LEN(A413)+1,LEN(A413)+1)))</f>
+        <f t="array" aca="1" ref="B424" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A412,";",REPT(" ",LEN(A412)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A412)-LEN(SUBSTITUTE(A412,";",""))+1))*LEN(A412)+1,LEN(A412)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="425">
       <c r="B425">
-        <f t="array" aca="1" ref="B425" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A414,";",REPT(" ",LEN(A414)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A414)-LEN(SUBSTITUTE(A414,";",""))+1))*LEN(A414)+1,LEN(A414)+1)))</f>
+        <f t="array" aca="1" ref="B425" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A413,";",REPT(" ",LEN(A413)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A413)-LEN(SUBSTITUTE(A413,";",""))+1))*LEN(A413)+1,LEN(A413)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="426">
       <c r="B426">
-        <f t="array" aca="1" ref="B426" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A415,";",REPT(" ",LEN(A415)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A415)-LEN(SUBSTITUTE(A415,";",""))+1))*LEN(A415)+1,LEN(A415)+1)))</f>
+        <f t="array" aca="1" ref="B426" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A414,";",REPT(" ",LEN(A414)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A414)-LEN(SUBSTITUTE(A414,";",""))+1))*LEN(A414)+1,LEN(A414)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="427">
       <c r="B427">
-        <f t="array" aca="1" ref="B427" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A416,";",REPT(" ",LEN(A416)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A416)-LEN(SUBSTITUTE(A416,";",""))+1))*LEN(A416)+1,LEN(A416)+1)))</f>
+        <f t="array" aca="1" ref="B427" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A415,";",REPT(" ",LEN(A415)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A415)-LEN(SUBSTITUTE(A415,";",""))+1))*LEN(A415)+1,LEN(A415)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="428">
       <c r="B428">
-        <f t="array" aca="1" ref="B428" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A417,";",REPT(" ",LEN(A417)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A417)-LEN(SUBSTITUTE(A417,";",""))+1))*LEN(A417)+1,LEN(A417)+1)))</f>
+        <f t="array" aca="1" ref="B428" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A416,";",REPT(" ",LEN(A416)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A416)-LEN(SUBSTITUTE(A416,";",""))+1))*LEN(A416)+1,LEN(A416)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="429">
       <c r="B429">
-        <f t="array" aca="1" ref="B429" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A418,";",REPT(" ",LEN(A418)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A418)-LEN(SUBSTITUTE(A418,";",""))+1))*LEN(A418)+1,LEN(A418)+1)))</f>
+        <f t="array" aca="1" ref="B429" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A417,";",REPT(" ",LEN(A417)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A417)-LEN(SUBSTITUTE(A417,";",""))+1))*LEN(A417)+1,LEN(A417)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="430">
       <c r="B430">
-        <f t="array" aca="1" ref="B430" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A419,";",REPT(" ",LEN(A419)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A419)-LEN(SUBSTITUTE(A419,";",""))+1))*LEN(A419)+1,LEN(A419)+1)))</f>
+        <f t="array" aca="1" ref="B430" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A418,";",REPT(" ",LEN(A418)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A418)-LEN(SUBSTITUTE(A418,";",""))+1))*LEN(A418)+1,LEN(A418)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="431">
       <c r="B431">
-        <f t="array" aca="1" ref="B431" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A420,";",REPT(" ",LEN(A420)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A420)-LEN(SUBSTITUTE(A420,";",""))+1))*LEN(A420)+1,LEN(A420)+1)))</f>
+        <f t="array" aca="1" ref="B431" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A419,";",REPT(" ",LEN(A419)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A419)-LEN(SUBSTITUTE(A419,";",""))+1))*LEN(A419)+1,LEN(A419)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="432">
       <c r="B432">
-        <f t="array" aca="1" ref="B432" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A421,";",REPT(" ",LEN(A421)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A421)-LEN(SUBSTITUTE(A421,";",""))+1))*LEN(A421)+1,LEN(A421)+1)))</f>
+        <f t="array" aca="1" ref="B432" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A420,";",REPT(" ",LEN(A420)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A420)-LEN(SUBSTITUTE(A420,";",""))+1))*LEN(A420)+1,LEN(A420)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="433">
       <c r="B433">
-        <f t="array" aca="1" ref="B433" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A422,";",REPT(" ",LEN(A422)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A422)-LEN(SUBSTITUTE(A422,";",""))+1))*LEN(A422)+1,LEN(A422)+1)))</f>
+        <f t="array" aca="1" ref="B433" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A421,";",REPT(" ",LEN(A421)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A421)-LEN(SUBSTITUTE(A421,";",""))+1))*LEN(A421)+1,LEN(A421)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="434">
       <c r="B434">
-        <f t="array" aca="1" ref="B434" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A423,";",REPT(" ",LEN(A423)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A423)-LEN(SUBSTITUTE(A423,";",""))+1))*LEN(A423)+1,LEN(A423)+1)))</f>
+        <f t="array" aca="1" ref="B434" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A422,";",REPT(" ",LEN(A422)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A422)-LEN(SUBSTITUTE(A422,";",""))+1))*LEN(A422)+1,LEN(A422)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="435">
       <c r="B435">
-        <f t="array" aca="1" ref="B435" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A424,";",REPT(" ",LEN(A424)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A424)-LEN(SUBSTITUTE(A424,";",""))+1))*LEN(A424)+1,LEN(A424)+1)))</f>
+        <f t="array" aca="1" ref="B435" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A423,";",REPT(" ",LEN(A423)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A423)-LEN(SUBSTITUTE(A423,";",""))+1))*LEN(A423)+1,LEN(A423)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="436">
       <c r="B436">
-        <f t="array" aca="1" ref="B436" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A425,";",REPT(" ",LEN(A425)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A425)-LEN(SUBSTITUTE(A425,";",""))+1))*LEN(A425)+1,LEN(A425)+1)))</f>
+        <f t="array" aca="1" ref="B436" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A424,";",REPT(" ",LEN(A424)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A424)-LEN(SUBSTITUTE(A424,";",""))+1))*LEN(A424)+1,LEN(A424)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="437">
       <c r="B437">
-        <f t="array" aca="1" ref="B437" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A426,";",REPT(" ",LEN(A426)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A426)-LEN(SUBSTITUTE(A426,";",""))+1))*LEN(A426)+1,LEN(A426)+1)))</f>
+        <f t="array" aca="1" ref="B437" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A425,";",REPT(" ",LEN(A425)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A425)-LEN(SUBSTITUTE(A425,";",""))+1))*LEN(A425)+1,LEN(A425)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="438">
       <c r="B438">
-        <f t="array" aca="1" ref="B438" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A427,";",REPT(" ",LEN(A427)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A427)-LEN(SUBSTITUTE(A427,";",""))+1))*LEN(A427)+1,LEN(A427)+1)))</f>
+        <f t="array" aca="1" ref="B438" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A426,";",REPT(" ",LEN(A426)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A426)-LEN(SUBSTITUTE(A426,";",""))+1))*LEN(A426)+1,LEN(A426)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="439">
       <c r="B439">
-        <f t="array" aca="1" ref="B439" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A428,";",REPT(" ",LEN(A428)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A428)-LEN(SUBSTITUTE(A428,";",""))+1))*LEN(A428)+1,LEN(A428)+1)))</f>
+        <f t="array" aca="1" ref="B439" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A427,";",REPT(" ",LEN(A427)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A427)-LEN(SUBSTITUTE(A427,";",""))+1))*LEN(A427)+1,LEN(A427)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="440">
       <c r="B440">
-        <f t="array" aca="1" ref="B440" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A429,";",REPT(" ",LEN(A429)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A429)-LEN(SUBSTITUTE(A429,";",""))+1))*LEN(A429)+1,LEN(A429)+1)))</f>
+        <f t="array" aca="1" ref="B440" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A428,";",REPT(" ",LEN(A428)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A428)-LEN(SUBSTITUTE(A428,";",""))+1))*LEN(A428)+1,LEN(A428)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="441">
       <c r="B441">
-        <f t="array" aca="1" ref="B441" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A430,";",REPT(" ",LEN(A430)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A430)-LEN(SUBSTITUTE(A430,";",""))+1))*LEN(A430)+1,LEN(A430)+1)))</f>
+        <f t="array" aca="1" ref="B441" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A429,";",REPT(" ",LEN(A429)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A429)-LEN(SUBSTITUTE(A429,";",""))+1))*LEN(A429)+1,LEN(A429)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="442">
       <c r="B442">
-        <f t="array" aca="1" ref="B442" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A431,";",REPT(" ",LEN(A431)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A431)-LEN(SUBSTITUTE(A431,";",""))+1))*LEN(A431)+1,LEN(A431)+1)))</f>
+        <f t="array" aca="1" ref="B442" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A430,";",REPT(" ",LEN(A430)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A430)-LEN(SUBSTITUTE(A430,";",""))+1))*LEN(A430)+1,LEN(A430)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="443">
       <c r="B443">
-        <f t="array" aca="1" ref="B443" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A432,";",REPT(" ",LEN(A432)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A432)-LEN(SUBSTITUTE(A432,";",""))+1))*LEN(A432)+1,LEN(A432)+1)))</f>
+        <f t="array" aca="1" ref="B443" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A431,";",REPT(" ",LEN(A431)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A431)-LEN(SUBSTITUTE(A431,";",""))+1))*LEN(A431)+1,LEN(A431)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="444">
       <c r="B444">
-        <f t="array" aca="1" ref="B444" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A433,";",REPT(" ",LEN(A433)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A433)-LEN(SUBSTITUTE(A433,";",""))+1))*LEN(A433)+1,LEN(A433)+1)))</f>
+        <f t="array" aca="1" ref="B444" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A432,";",REPT(" ",LEN(A432)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A432)-LEN(SUBSTITUTE(A432,";",""))+1))*LEN(A432)+1,LEN(A432)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="445">
       <c r="B445">
-        <f t="array" aca="1" ref="B445" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A434,";",REPT(" ",LEN(A434)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A434)-LEN(SUBSTITUTE(A434,";",""))+1))*LEN(A434)+1,LEN(A434)+1)))</f>
+        <f t="array" aca="1" ref="B445" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A433,";",REPT(" ",LEN(A433)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A433)-LEN(SUBSTITUTE(A433,";",""))+1))*LEN(A433)+1,LEN(A433)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="446">
       <c r="B446">
-        <f t="array" aca="1" ref="B446" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A435,";",REPT(" ",LEN(A435)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A435)-LEN(SUBSTITUTE(A435,";",""))+1))*LEN(A435)+1,LEN(A435)+1)))</f>
+        <f t="array" aca="1" ref="B446" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A434,";",REPT(" ",LEN(A434)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A434)-LEN(SUBSTITUTE(A434,";",""))+1))*LEN(A434)+1,LEN(A434)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="447">
       <c r="B447">
-        <f t="array" aca="1" ref="B447" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A436,";",REPT(" ",LEN(A436)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A436)-LEN(SUBSTITUTE(A436,";",""))+1))*LEN(A436)+1,LEN(A436)+1)))</f>
+        <f t="array" aca="1" ref="B447" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A435,";",REPT(" ",LEN(A435)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A435)-LEN(SUBSTITUTE(A435,";",""))+1))*LEN(A435)+1,LEN(A435)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="448">
       <c r="B448">
-        <f t="array" aca="1" ref="B448" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A437,";",REPT(" ",LEN(A437)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A437)-LEN(SUBSTITUTE(A437,";",""))+1))*LEN(A437)+1,LEN(A437)+1)))</f>
+        <f t="array" aca="1" ref="B448" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A436,";",REPT(" ",LEN(A436)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A436)-LEN(SUBSTITUTE(A436,";",""))+1))*LEN(A436)+1,LEN(A436)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="449">
       <c r="B449">
-        <f t="array" aca="1" ref="B449" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A438,";",REPT(" ",LEN(A438)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A438)-LEN(SUBSTITUTE(A438,";",""))+1))*LEN(A438)+1,LEN(A438)+1)))</f>
+        <f t="array" aca="1" ref="B449" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A437,";",REPT(" ",LEN(A437)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A437)-LEN(SUBSTITUTE(A437,";",""))+1))*LEN(A437)+1,LEN(A437)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="450">
       <c r="B450">
-        <f t="array" aca="1" ref="B450" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A439,";",REPT(" ",LEN(A439)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A439)-LEN(SUBSTITUTE(A439,";",""))+1))*LEN(A439)+1,LEN(A439)+1)))</f>
+        <f t="array" aca="1" ref="B450" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A438,";",REPT(" ",LEN(A438)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A438)-LEN(SUBSTITUTE(A438,";",""))+1))*LEN(A438)+1,LEN(A438)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="451">
       <c r="B451">
-        <f t="array" aca="1" ref="B451" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A440,";",REPT(" ",LEN(A440)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A440)-LEN(SUBSTITUTE(A440,";",""))+1))*LEN(A440)+1,LEN(A440)+1)))</f>
+        <f t="array" aca="1" ref="B451" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A439,";",REPT(" ",LEN(A439)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A439)-LEN(SUBSTITUTE(A439,";",""))+1))*LEN(A439)+1,LEN(A439)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="452">
       <c r="B452">
-        <f t="array" aca="1" ref="B452" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A441,";",REPT(" ",LEN(A441)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A441)-LEN(SUBSTITUTE(A441,";",""))+1))*LEN(A441)+1,LEN(A441)+1)))</f>
+        <f t="array" aca="1" ref="B452" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A440,";",REPT(" ",LEN(A440)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A440)-LEN(SUBSTITUTE(A440,";",""))+1))*LEN(A440)+1,LEN(A440)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="453">
       <c r="B453">
-        <f t="array" aca="1" ref="B453" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A442,";",REPT(" ",LEN(A442)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A442)-LEN(SUBSTITUTE(A442,";",""))+1))*LEN(A442)+1,LEN(A442)+1)))</f>
+        <f t="array" aca="1" ref="B453" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A441,";",REPT(" ",LEN(A441)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A441)-LEN(SUBSTITUTE(A441,";",""))+1))*LEN(A441)+1,LEN(A441)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="454">
       <c r="B454">
-        <f t="array" aca="1" ref="B454" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A443,";",REPT(" ",LEN(A443)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A443)-LEN(SUBSTITUTE(A443,";",""))+1))*LEN(A443)+1,LEN(A443)+1)))</f>
+        <f t="array" aca="1" ref="B454" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A442,";",REPT(" ",LEN(A442)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A442)-LEN(SUBSTITUTE(A442,";",""))+1))*LEN(A442)+1,LEN(A442)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="455">
       <c r="B455">
-        <f t="array" aca="1" ref="B455" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A444,";",REPT(" ",LEN(A444)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A444)-LEN(SUBSTITUTE(A444,";",""))+1))*LEN(A444)+1,LEN(A444)+1)))</f>
+        <f t="array" aca="1" ref="B455" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A443,";",REPT(" ",LEN(A443)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A443)-LEN(SUBSTITUTE(A443,";",""))+1))*LEN(A443)+1,LEN(A443)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="456">
       <c r="B456">
-        <f t="array" aca="1" ref="B456" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A445,";",REPT(" ",LEN(A445)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A445)-LEN(SUBSTITUTE(A445,";",""))+1))*LEN(A445)+1,LEN(A445)+1)))</f>
+        <f t="array" aca="1" ref="B456" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A444,";",REPT(" ",LEN(A444)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A444)-LEN(SUBSTITUTE(A444,";",""))+1))*LEN(A444)+1,LEN(A444)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="457">
       <c r="B457">
-        <f t="array" aca="1" ref="B457" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A446,";",REPT(" ",LEN(A446)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A446)-LEN(SUBSTITUTE(A446,";",""))+1))*LEN(A446)+1,LEN(A446)+1)))</f>
+        <f t="array" aca="1" ref="B457" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A445,";",REPT(" ",LEN(A445)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A445)-LEN(SUBSTITUTE(A445,";",""))+1))*LEN(A445)+1,LEN(A445)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="458">
       <c r="B458">
-        <f t="array" aca="1" ref="B458" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A447,";",REPT(" ",LEN(A447)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A447)-LEN(SUBSTITUTE(A447,";",""))+1))*LEN(A447)+1,LEN(A447)+1)))</f>
+        <f t="array" aca="1" ref="B458" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A446,";",REPT(" ",LEN(A446)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A446)-LEN(SUBSTITUTE(A446,";",""))+1))*LEN(A446)+1,LEN(A446)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="459">
       <c r="B459">
-        <f t="array" aca="1" ref="B459" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A448,";",REPT(" ",LEN(A448)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A448)-LEN(SUBSTITUTE(A448,";",""))+1))*LEN(A448)+1,LEN(A448)+1)))</f>
+        <f t="array" aca="1" ref="B459" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A447,";",REPT(" ",LEN(A447)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A447)-LEN(SUBSTITUTE(A447,";",""))+1))*LEN(A447)+1,LEN(A447)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="460">
       <c r="B460">
-        <f t="array" aca="1" ref="B460" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A449,";",REPT(" ",LEN(A449)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A449)-LEN(SUBSTITUTE(A449,";",""))+1))*LEN(A449)+1,LEN(A449)+1)))</f>
+        <f t="array" aca="1" ref="B460" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A448,";",REPT(" ",LEN(A448)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A448)-LEN(SUBSTITUTE(A448,";",""))+1))*LEN(A448)+1,LEN(A448)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="461">
       <c r="B461">
-        <f t="array" aca="1" ref="B461" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A450,";",REPT(" ",LEN(A450)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A450)-LEN(SUBSTITUTE(A450,";",""))+1))*LEN(A450)+1,LEN(A450)+1)))</f>
+        <f t="array" aca="1" ref="B461" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A449,";",REPT(" ",LEN(A449)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A449)-LEN(SUBSTITUTE(A449,";",""))+1))*LEN(A449)+1,LEN(A449)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="462">
       <c r="B462">
-        <f t="array" aca="1" ref="B462" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A451,";",REPT(" ",LEN(A451)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A451)-LEN(SUBSTITUTE(A451,";",""))+1))*LEN(A451)+1,LEN(A451)+1)))</f>
+        <f t="array" aca="1" ref="B462" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A450,";",REPT(" ",LEN(A450)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A450)-LEN(SUBSTITUTE(A450,";",""))+1))*LEN(A450)+1,LEN(A450)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="463">
       <c r="B463">
-        <f t="array" aca="1" ref="B463" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A452,";",REPT(" ",LEN(A452)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A452)-LEN(SUBSTITUTE(A452,";",""))+1))*LEN(A452)+1,LEN(A452)+1)))</f>
+        <f t="array" aca="1" ref="B463" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A451,";",REPT(" ",LEN(A451)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A451)-LEN(SUBSTITUTE(A451,";",""))+1))*LEN(A451)+1,LEN(A451)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="464">
       <c r="B464">
-        <f t="array" aca="1" ref="B464" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A453,";",REPT(" ",LEN(A453)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A453)-LEN(SUBSTITUTE(A453,";",""))+1))*LEN(A453)+1,LEN(A453)+1)))</f>
+        <f t="array" aca="1" ref="B464" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A452,";",REPT(" ",LEN(A452)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A452)-LEN(SUBSTITUTE(A452,";",""))+1))*LEN(A452)+1,LEN(A452)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="465">
       <c r="B465">
-        <f t="array" aca="1" ref="B465" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A454,";",REPT(" ",LEN(A454)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A454)-LEN(SUBSTITUTE(A454,";",""))+1))*LEN(A454)+1,LEN(A454)+1)))</f>
+        <f t="array" aca="1" ref="B465" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A453,";",REPT(" ",LEN(A453)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A453)-LEN(SUBSTITUTE(A453,";",""))+1))*LEN(A453)+1,LEN(A453)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="466">
       <c r="B466">
-        <f t="array" aca="1" ref="B466" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A455,";",REPT(" ",LEN(A455)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A455)-LEN(SUBSTITUTE(A455,";",""))+1))*LEN(A455)+1,LEN(A455)+1)))</f>
+        <f t="array" aca="1" ref="B466" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A454,";",REPT(" ",LEN(A454)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A454)-LEN(SUBSTITUTE(A454,";",""))+1))*LEN(A454)+1,LEN(A454)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="467">
       <c r="B467">
-        <f t="array" aca="1" ref="B467" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A456,";",REPT(" ",LEN(A456)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A456)-LEN(SUBSTITUTE(A456,";",""))+1))*LEN(A456)+1,LEN(A456)+1)))</f>
+        <f t="array" aca="1" ref="B467" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A455,";",REPT(" ",LEN(A455)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A455)-LEN(SUBSTITUTE(A455,";",""))+1))*LEN(A455)+1,LEN(A455)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="468">
       <c r="B468">
-        <f t="array" aca="1" ref="B468" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A457,";",REPT(" ",LEN(A457)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A457)-LEN(SUBSTITUTE(A457,";",""))+1))*LEN(A457)+1,LEN(A457)+1)))</f>
+        <f t="array" aca="1" ref="B468" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A456,";",REPT(" ",LEN(A456)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A456)-LEN(SUBSTITUTE(A456,";",""))+1))*LEN(A456)+1,LEN(A456)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="469">
       <c r="B469">
-        <f t="array" aca="1" ref="B469" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A458,";",REPT(" ",LEN(A458)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A458)-LEN(SUBSTITUTE(A458,";",""))+1))*LEN(A458)+1,LEN(A458)+1)))</f>
+        <f t="array" aca="1" ref="B469" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A457,";",REPT(" ",LEN(A457)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A457)-LEN(SUBSTITUTE(A457,";",""))+1))*LEN(A457)+1,LEN(A457)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="470">
       <c r="B470">
-        <f t="array" aca="1" ref="B470" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A459,";",REPT(" ",LEN(A459)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A459)-LEN(SUBSTITUTE(A459,";",""))+1))*LEN(A459)+1,LEN(A459)+1)))</f>
+        <f t="array" aca="1" ref="B470" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A458,";",REPT(" ",LEN(A458)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A458)-LEN(SUBSTITUTE(A458,";",""))+1))*LEN(A458)+1,LEN(A458)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="471">
       <c r="B471">
-        <f t="array" aca="1" ref="B471" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A460,";",REPT(" ",LEN(A460)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A460)-LEN(SUBSTITUTE(A460,";",""))+1))*LEN(A460)+1,LEN(A460)+1)))</f>
+        <f t="array" aca="1" ref="B471" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A459,";",REPT(" ",LEN(A459)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A459)-LEN(SUBSTITUTE(A459,";",""))+1))*LEN(A459)+1,LEN(A459)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="472">
       <c r="B472">
-        <f t="array" aca="1" ref="B472" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A461,";",REPT(" ",LEN(A461)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A461)-LEN(SUBSTITUTE(A461,";",""))+1))*LEN(A461)+1,LEN(A461)+1)))</f>
+        <f t="array" aca="1" ref="B472" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A460,";",REPT(" ",LEN(A460)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A460)-LEN(SUBSTITUTE(A460,";",""))+1))*LEN(A460)+1,LEN(A460)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="473">
       <c r="B473">
-        <f t="array" aca="1" ref="B473" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A462,";",REPT(" ",LEN(A462)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A462)-LEN(SUBSTITUTE(A462,";",""))+1))*LEN(A462)+1,LEN(A462)+1)))</f>
+        <f t="array" aca="1" ref="B473" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A461,";",REPT(" ",LEN(A461)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A461)-LEN(SUBSTITUTE(A461,";",""))+1))*LEN(A461)+1,LEN(A461)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="474">
       <c r="B474">
-        <f t="array" aca="1" ref="B474" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A463,";",REPT(" ",LEN(A463)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A463)-LEN(SUBSTITUTE(A463,";",""))+1))*LEN(A463)+1,LEN(A463)+1)))</f>
+        <f t="array" aca="1" ref="B474" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A462,";",REPT(" ",LEN(A462)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A462)-LEN(SUBSTITUTE(A462,";",""))+1))*LEN(A462)+1,LEN(A462)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="475">
       <c r="B475">
-        <f t="array" aca="1" ref="B475" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A464,";",REPT(" ",LEN(A464)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A464)-LEN(SUBSTITUTE(A464,";",""))+1))*LEN(A464)+1,LEN(A464)+1)))</f>
+        <f t="array" aca="1" ref="B475" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A463,";",REPT(" ",LEN(A463)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A463)-LEN(SUBSTITUTE(A463,";",""))+1))*LEN(A463)+1,LEN(A463)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="476">
       <c r="B476">
-        <f t="array" aca="1" ref="B476" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A465,";",REPT(" ",LEN(A465)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A465)-LEN(SUBSTITUTE(A465,";",""))+1))*LEN(A465)+1,LEN(A465)+1)))</f>
+        <f t="array" aca="1" ref="B476" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A464,";",REPT(" ",LEN(A464)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A464)-LEN(SUBSTITUTE(A464,";",""))+1))*LEN(A464)+1,LEN(A464)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="477">
       <c r="B477">
-        <f t="array" aca="1" ref="B477" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A466,";",REPT(" ",LEN(A466)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A466)-LEN(SUBSTITUTE(A466,";",""))+1))*LEN(A466)+1,LEN(A466)+1)))</f>
+        <f t="array" aca="1" ref="B477" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A465,";",REPT(" ",LEN(A465)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A465)-LEN(SUBSTITUTE(A465,";",""))+1))*LEN(A465)+1,LEN(A465)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="478">
       <c r="B478">
-        <f t="array" aca="1" ref="B478" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A467,";",REPT(" ",LEN(A467)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A467)-LEN(SUBSTITUTE(A467,";",""))+1))*LEN(A467)+1,LEN(A467)+1)))</f>
+        <f t="array" aca="1" ref="B478" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A466,";",REPT(" ",LEN(A466)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A466)-LEN(SUBSTITUTE(A466,";",""))+1))*LEN(A466)+1,LEN(A466)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="479">
       <c r="B479">
-        <f t="array" aca="1" ref="B479" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A468,";",REPT(" ",LEN(A468)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A468)-LEN(SUBSTITUTE(A468,";",""))+1))*LEN(A468)+1,LEN(A468)+1)))</f>
+        <f t="array" aca="1" ref="B479" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A467,";",REPT(" ",LEN(A467)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A467)-LEN(SUBSTITUTE(A467,";",""))+1))*LEN(A467)+1,LEN(A467)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="480">
       <c r="B480">
-        <f t="array" aca="1" ref="B480" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A469,";",REPT(" ",LEN(A469)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A469)-LEN(SUBSTITUTE(A469,";",""))+1))*LEN(A469)+1,LEN(A469)+1)))</f>
+        <f t="array" aca="1" ref="B480" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A468,";",REPT(" ",LEN(A468)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A468)-LEN(SUBSTITUTE(A468,";",""))+1))*LEN(A468)+1,LEN(A468)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="481">
       <c r="B481">
-        <f t="array" aca="1" ref="B481" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A470,";",REPT(" ",LEN(A470)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A470)-LEN(SUBSTITUTE(A470,";",""))+1))*LEN(A470)+1,LEN(A470)+1)))</f>
+        <f t="array" aca="1" ref="B481" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A469,";",REPT(" ",LEN(A469)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A469)-LEN(SUBSTITUTE(A469,";",""))+1))*LEN(A469)+1,LEN(A469)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="482">
       <c r="B482">
-        <f t="array" aca="1" ref="B482" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A471,";",REPT(" ",LEN(A471)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A471)-LEN(SUBSTITUTE(A471,";",""))+1))*LEN(A471)+1,LEN(A471)+1)))</f>
+        <f t="array" aca="1" ref="B482" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A470,";",REPT(" ",LEN(A470)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A470)-LEN(SUBSTITUTE(A470,";",""))+1))*LEN(A470)+1,LEN(A470)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="483">
       <c r="B483">
-        <f t="array" aca="1" ref="B483" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A472,";",REPT(" ",LEN(A472)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A472)-LEN(SUBSTITUTE(A472,";",""))+1))*LEN(A472)+1,LEN(A472)+1)))</f>
+        <f t="array" aca="1" ref="B483" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A471,";",REPT(" ",LEN(A471)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A471)-LEN(SUBSTITUTE(A471,";",""))+1))*LEN(A471)+1,LEN(A471)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="484">
       <c r="B484">
-        <f t="array" aca="1" ref="B484" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A473,";",REPT(" ",LEN(A473)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A473)-LEN(SUBSTITUTE(A473,";",""))+1))*LEN(A473)+1,LEN(A473)+1)))</f>
+        <f t="array" aca="1" ref="B484" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A472,";",REPT(" ",LEN(A472)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A472)-LEN(SUBSTITUTE(A472,";",""))+1))*LEN(A472)+1,LEN(A472)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="485">
       <c r="B485">
-        <f t="array" aca="1" ref="B485" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A474,";",REPT(" ",LEN(A474)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A474)-LEN(SUBSTITUTE(A474,";",""))+1))*LEN(A474)+1,LEN(A474)+1)))</f>
+        <f t="array" aca="1" ref="B485" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A473,";",REPT(" ",LEN(A473)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A473)-LEN(SUBSTITUTE(A473,";",""))+1))*LEN(A473)+1,LEN(A473)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="486">
       <c r="B486">
-        <f t="array" aca="1" ref="B486" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A475,";",REPT(" ",LEN(A475)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A475)-LEN(SUBSTITUTE(A475,";",""))+1))*LEN(A475)+1,LEN(A475)+1)))</f>
+        <f t="array" aca="1" ref="B486" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A474,";",REPT(" ",LEN(A474)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A474)-LEN(SUBSTITUTE(A474,";",""))+1))*LEN(A474)+1,LEN(A474)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="487">
       <c r="B487">
-        <f t="array" aca="1" ref="B487" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A476,";",REPT(" ",LEN(A476)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A476)-LEN(SUBSTITUTE(A476,";",""))+1))*LEN(A476)+1,LEN(A476)+1)))</f>
+        <f t="array" aca="1" ref="B487" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A475,";",REPT(" ",LEN(A475)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A475)-LEN(SUBSTITUTE(A475,";",""))+1))*LEN(A475)+1,LEN(A475)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="488">
       <c r="B488">
-        <f t="array" aca="1" ref="B488" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A477,";",REPT(" ",LEN(A477)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A477)-LEN(SUBSTITUTE(A477,";",""))+1))*LEN(A477)+1,LEN(A477)+1)))</f>
+        <f t="array" aca="1" ref="B488" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A476,";",REPT(" ",LEN(A476)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A476)-LEN(SUBSTITUTE(A476,";",""))+1))*LEN(A476)+1,LEN(A476)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="489">
       <c r="B489">
-        <f t="array" aca="1" ref="B489" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A478,";",REPT(" ",LEN(A478)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A478)-LEN(SUBSTITUTE(A478,";",""))+1))*LEN(A478)+1,LEN(A478)+1)))</f>
+        <f t="array" aca="1" ref="B489" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A477,";",REPT(" ",LEN(A477)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A477)-LEN(SUBSTITUTE(A477,";",""))+1))*LEN(A477)+1,LEN(A477)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="490">
       <c r="B490">
-        <f t="array" aca="1" ref="B490" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A479,";",REPT(" ",LEN(A479)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A479)-LEN(SUBSTITUTE(A479,";",""))+1))*LEN(A479)+1,LEN(A479)+1)))</f>
+        <f t="array" aca="1" ref="B490" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A478,";",REPT(" ",LEN(A478)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A478)-LEN(SUBSTITUTE(A478,";",""))+1))*LEN(A478)+1,LEN(A478)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="491">
       <c r="B491">
-        <f t="array" aca="1" ref="B491" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A480,";",REPT(" ",LEN(A480)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A480)-LEN(SUBSTITUTE(A480,";",""))+1))*LEN(A480)+1,LEN(A480)+1)))</f>
+        <f t="array" aca="1" ref="B491" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A479,";",REPT(" ",LEN(A479)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A479)-LEN(SUBSTITUTE(A479,";",""))+1))*LEN(A479)+1,LEN(A479)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="492">
       <c r="B492">
-        <f t="array" aca="1" ref="B492" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A481,";",REPT(" ",LEN(A481)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A481)-LEN(SUBSTITUTE(A481,";",""))+1))*LEN(A481)+1,LEN(A481)+1)))</f>
+        <f t="array" aca="1" ref="B492" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A480,";",REPT(" ",LEN(A480)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A480)-LEN(SUBSTITUTE(A480,";",""))+1))*LEN(A480)+1,LEN(A480)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="493">
       <c r="B493">
-        <f t="array" aca="1" ref="B493" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A482,";",REPT(" ",LEN(A482)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A482)-LEN(SUBSTITUTE(A482,";",""))+1))*LEN(A482)+1,LEN(A482)+1)))</f>
+        <f t="array" aca="1" ref="B493" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A481,";",REPT(" ",LEN(A481)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A481)-LEN(SUBSTITUTE(A481,";",""))+1))*LEN(A481)+1,LEN(A481)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="494">
       <c r="B494">
-        <f t="array" aca="1" ref="B494" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A483,";",REPT(" ",LEN(A483)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A483)-LEN(SUBSTITUTE(A483,";",""))+1))*LEN(A483)+1,LEN(A483)+1)))</f>
+        <f t="array" aca="1" ref="B494" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A482,";",REPT(" ",LEN(A482)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A482)-LEN(SUBSTITUTE(A482,";",""))+1))*LEN(A482)+1,LEN(A482)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="495">
       <c r="B495">
-        <f t="array" aca="1" ref="B495" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A484,";",REPT(" ",LEN(A484)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A484)-LEN(SUBSTITUTE(A484,";",""))+1))*LEN(A484)+1,LEN(A484)+1)))</f>
+        <f t="array" aca="1" ref="B495" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A483,";",REPT(" ",LEN(A483)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A483)-LEN(SUBSTITUTE(A483,";",""))+1))*LEN(A483)+1,LEN(A483)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="496">
       <c r="B496">
-        <f t="array" aca="1" ref="B496" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A485,";",REPT(" ",LEN(A485)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A485)-LEN(SUBSTITUTE(A485,";",""))+1))*LEN(A485)+1,LEN(A485)+1)))</f>
+        <f t="array" aca="1" ref="B496" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A484,";",REPT(" ",LEN(A484)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A484)-LEN(SUBSTITUTE(A484,";",""))+1))*LEN(A484)+1,LEN(A484)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="497">
       <c r="B497">
-        <f t="array" aca="1" ref="B497" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A486,";",REPT(" ",LEN(A486)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A486)-LEN(SUBSTITUTE(A486,";",""))+1))*LEN(A486)+1,LEN(A486)+1)))</f>
+        <f t="array" aca="1" ref="B497" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A485,";",REPT(" ",LEN(A485)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A485)-LEN(SUBSTITUTE(A485,";",""))+1))*LEN(A485)+1,LEN(A485)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="498">
       <c r="B498">
-        <f t="array" aca="1" ref="B498" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A487,";",REPT(" ",LEN(A487)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A487)-LEN(SUBSTITUTE(A487,";",""))+1))*LEN(A487)+1,LEN(A487)+1)))</f>
+        <f t="array" aca="1" ref="B498" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A486,";",REPT(" ",LEN(A486)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A486)-LEN(SUBSTITUTE(A486,";",""))+1))*LEN(A486)+1,LEN(A486)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="499">
       <c r="B499">
-        <f t="array" aca="1" ref="B499" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A488,";",REPT(" ",LEN(A488)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A488)-LEN(SUBSTITUTE(A488,";",""))+1))*LEN(A488)+1,LEN(A488)+1)))</f>
+        <f t="array" aca="1" ref="B499" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A487,";",REPT(" ",LEN(A487)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A487)-LEN(SUBSTITUTE(A487,";",""))+1))*LEN(A487)+1,LEN(A487)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="500">
       <c r="B500">
-        <f t="array" aca="1" ref="B500" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A489,";",REPT(" ",LEN(A489)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A489)-LEN(SUBSTITUTE(A489,";",""))+1))*LEN(A489)+1,LEN(A489)+1)))</f>
+        <f t="array" aca="1" ref="B500" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A488,";",REPT(" ",LEN(A488)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A488)-LEN(SUBSTITUTE(A488,";",""))+1))*LEN(A488)+1,LEN(A488)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="501">
       <c r="B501">
-        <f t="array" aca="1" ref="B501" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A490,";",REPT(" ",LEN(A490)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A490)-LEN(SUBSTITUTE(A490,";",""))+1))*LEN(A490)+1,LEN(A490)+1)))</f>
+        <f t="array" aca="1" ref="B501" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A489,";",REPT(" ",LEN(A489)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A489)-LEN(SUBSTITUTE(A489,";",""))+1))*LEN(A489)+1,LEN(A489)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="502">
       <c r="B502">
-        <f t="array" aca="1" ref="B502" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A491,";",REPT(" ",LEN(A491)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A491)-LEN(SUBSTITUTE(A491,";",""))+1))*LEN(A491)+1,LEN(A491)+1)))</f>
+        <f t="array" aca="1" ref="B502" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A490,";",REPT(" ",LEN(A490)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A490)-LEN(SUBSTITUTE(A490,";",""))+1))*LEN(A490)+1,LEN(A490)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="503">
       <c r="B503">
-        <f t="array" aca="1" ref="B503" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A492,";",REPT(" ",LEN(A492)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A492)-LEN(SUBSTITUTE(A492,";",""))+1))*LEN(A492)+1,LEN(A492)+1)))</f>
+        <f t="array" aca="1" ref="B503" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A491,";",REPT(" ",LEN(A491)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A491)-LEN(SUBSTITUTE(A491,";",""))+1))*LEN(A491)+1,LEN(A491)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="504">
       <c r="B504">
-        <f t="array" aca="1" ref="B504" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A493,";",REPT(" ",LEN(A493)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A493)-LEN(SUBSTITUTE(A493,";",""))+1))*LEN(A493)+1,LEN(A493)+1)))</f>
+        <f t="array" aca="1" ref="B504" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A492,";",REPT(" ",LEN(A492)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A492)-LEN(SUBSTITUTE(A492,";",""))+1))*LEN(A492)+1,LEN(A492)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="505">
       <c r="B505">
-        <f t="array" aca="1" ref="B505" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A494,";",REPT(" ",LEN(A494)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A494)-LEN(SUBSTITUTE(A494,";",""))+1))*LEN(A494)+1,LEN(A494)+1)))</f>
+        <f t="array" aca="1" ref="B505" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A493,";",REPT(" ",LEN(A493)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A493)-LEN(SUBSTITUTE(A493,";",""))+1))*LEN(A493)+1,LEN(A493)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="506">
       <c r="B506">
-        <f t="array" aca="1" ref="B506" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A495,";",REPT(" ",LEN(A495)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A495)-LEN(SUBSTITUTE(A495,";",""))+1))*LEN(A495)+1,LEN(A495)+1)))</f>
+        <f t="array" aca="1" ref="B506" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A494,";",REPT(" ",LEN(A494)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A494)-LEN(SUBSTITUTE(A494,";",""))+1))*LEN(A494)+1,LEN(A494)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="507">
       <c r="B507">
-        <f t="array" aca="1" ref="B507" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A496,";",REPT(" ",LEN(A496)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A496)-LEN(SUBSTITUTE(A496,";",""))+1))*LEN(A496)+1,LEN(A496)+1)))</f>
+        <f t="array" aca="1" ref="B507" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A495,";",REPT(" ",LEN(A495)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A495)-LEN(SUBSTITUTE(A495,";",""))+1))*LEN(A495)+1,LEN(A495)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="508">
       <c r="B508">
-        <f t="array" aca="1" ref="B508" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A497,";",REPT(" ",LEN(A497)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A497)-LEN(SUBSTITUTE(A497,";",""))+1))*LEN(A497)+1,LEN(A497)+1)))</f>
+        <f t="array" aca="1" ref="B508" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A496,";",REPT(" ",LEN(A496)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A496)-LEN(SUBSTITUTE(A496,";",""))+1))*LEN(A496)+1,LEN(A496)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="509">
       <c r="B509">
-        <f t="array" aca="1" ref="B509" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A498,";",REPT(" ",LEN(A498)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A498)-LEN(SUBSTITUTE(A498,";",""))+1))*LEN(A498)+1,LEN(A498)+1)))</f>
+        <f t="array" aca="1" ref="B509" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A497,";",REPT(" ",LEN(A497)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A497)-LEN(SUBSTITUTE(A497,";",""))+1))*LEN(A497)+1,LEN(A497)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="510">
       <c r="B510">
-        <f t="array" aca="1" ref="B510" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A499,";",REPT(" ",LEN(A499)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A499)-LEN(SUBSTITUTE(A499,";",""))+1))*LEN(A499)+1,LEN(A499)+1)))</f>
+        <f t="array" aca="1" ref="B510" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A498,";",REPT(" ",LEN(A498)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A498)-LEN(SUBSTITUTE(A498,";",""))+1))*LEN(A498)+1,LEN(A498)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="511">
       <c r="B511">
-        <f t="array" aca="1" ref="B511" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A500,";",REPT(" ",LEN(A500)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A500)-LEN(SUBSTITUTE(A500,";",""))+1))*LEN(A500)+1,LEN(A500)+1)))</f>
+        <f t="array" aca="1" ref="B511" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A499,";",REPT(" ",LEN(A499)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A499)-LEN(SUBSTITUTE(A499,";",""))+1))*LEN(A499)+1,LEN(A499)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="512">
       <c r="B512">
-        <f t="array" aca="1" ref="B512" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A501,";",REPT(" ",LEN(A501)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A501)-LEN(SUBSTITUTE(A501,";",""))+1))*LEN(A501)+1,LEN(A501)+1)))</f>
+        <f t="array" aca="1" ref="B512" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A500,";",REPT(" ",LEN(A500)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A500)-LEN(SUBSTITUTE(A500,";",""))+1))*LEN(A500)+1,LEN(A500)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="513">
       <c r="B513">
-        <f t="array" aca="1" ref="B513" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A502,";",REPT(" ",LEN(A502)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A502)-LEN(SUBSTITUTE(A502,";",""))+1))*LEN(A502)+1,LEN(A502)+1)))</f>
+        <f t="array" aca="1" ref="B513" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A501,";",REPT(" ",LEN(A501)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A501)-LEN(SUBSTITUTE(A501,";",""))+1))*LEN(A501)+1,LEN(A501)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="514">
       <c r="B514">
-        <f t="array" aca="1" ref="B514" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A503,";",REPT(" ",LEN(A503)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A503)-LEN(SUBSTITUTE(A503,";",""))+1))*LEN(A503)+1,LEN(A503)+1)))</f>
+        <f t="array" aca="1" ref="B514" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A502,";",REPT(" ",LEN(A502)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A502)-LEN(SUBSTITUTE(A502,";",""))+1))*LEN(A502)+1,LEN(A502)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="515">
       <c r="B515">
-        <f t="array" aca="1" ref="B515" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A504,";",REPT(" ",LEN(A504)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A504)-LEN(SUBSTITUTE(A504,";",""))+1))*LEN(A504)+1,LEN(A504)+1)))</f>
+        <f t="array" aca="1" ref="B515" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A503,";",REPT(" ",LEN(A503)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A503)-LEN(SUBSTITUTE(A503,";",""))+1))*LEN(A503)+1,LEN(A503)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="516">
       <c r="B516">
-        <f t="array" aca="1" ref="B516" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A505,";",REPT(" ",LEN(A505)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A505)-LEN(SUBSTITUTE(A505,";",""))+1))*LEN(A505)+1,LEN(A505)+1)))</f>
+        <f t="array" aca="1" ref="B516" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A504,";",REPT(" ",LEN(A504)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A504)-LEN(SUBSTITUTE(A504,";",""))+1))*LEN(A504)+1,LEN(A504)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="517">
       <c r="B517">
-        <f t="array" aca="1" ref="B517" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A506,";",REPT(" ",LEN(A506)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A506)-LEN(SUBSTITUTE(A506,";",""))+1))*LEN(A506)+1,LEN(A506)+1)))</f>
+        <f t="array" aca="1" ref="B517" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A505,";",REPT(" ",LEN(A505)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A505)-LEN(SUBSTITUTE(A505,";",""))+1))*LEN(A505)+1,LEN(A505)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="518">
       <c r="B518">
-        <f t="array" aca="1" ref="B518" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A507,";",REPT(" ",LEN(A507)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A507)-LEN(SUBSTITUTE(A507,";",""))+1))*LEN(A507)+1,LEN(A507)+1)))</f>
+        <f t="array" aca="1" ref="B518" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A506,";",REPT(" ",LEN(A506)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A506)-LEN(SUBSTITUTE(A506,";",""))+1))*LEN(A506)+1,LEN(A506)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="519">
       <c r="B519">
-        <f t="array" aca="1" ref="B519" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A508,";",REPT(" ",LEN(A508)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A508)-LEN(SUBSTITUTE(A508,";",""))+1))*LEN(A508)+1,LEN(A508)+1)))</f>
+        <f t="array" aca="1" ref="B519" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A507,";",REPT(" ",LEN(A507)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A507)-LEN(SUBSTITUTE(A507,";",""))+1))*LEN(A507)+1,LEN(A507)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="520">
       <c r="B520">
-        <f t="array" aca="1" ref="B520" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A509,";",REPT(" ",LEN(A509)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A509)-LEN(SUBSTITUTE(A509,";",""))+1))*LEN(A509)+1,LEN(A509)+1)))</f>
+        <f t="array" aca="1" ref="B520" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A508,";",REPT(" ",LEN(A508)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A508)-LEN(SUBSTITUTE(A508,";",""))+1))*LEN(A508)+1,LEN(A508)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="521">
       <c r="B521">
-        <f t="array" aca="1" ref="B521" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A510,";",REPT(" ",LEN(A510)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A510)-LEN(SUBSTITUTE(A510,";",""))+1))*LEN(A510)+1,LEN(A510)+1)))</f>
+        <f t="array" aca="1" ref="B521" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A509,";",REPT(" ",LEN(A509)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A509)-LEN(SUBSTITUTE(A509,";",""))+1))*LEN(A509)+1,LEN(A509)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="522">
       <c r="B522">
-        <f t="array" aca="1" ref="B522" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A511,";",REPT(" ",LEN(A511)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A511)-LEN(SUBSTITUTE(A511,";",""))+1))*LEN(A511)+1,LEN(A511)+1)))</f>
+        <f t="array" aca="1" ref="B522" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A510,";",REPT(" ",LEN(A510)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A510)-LEN(SUBSTITUTE(A510,";",""))+1))*LEN(A510)+1,LEN(A510)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="523">
       <c r="B523">
-        <f t="array" aca="1" ref="B523" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A512,";",REPT(" ",LEN(A512)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A512)-LEN(SUBSTITUTE(A512,";",""))+1))*LEN(A512)+1,LEN(A512)+1)))</f>
+        <f t="array" aca="1" ref="B523" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A511,";",REPT(" ",LEN(A511)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A511)-LEN(SUBSTITUTE(A511,";",""))+1))*LEN(A511)+1,LEN(A511)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="524">
       <c r="B524">
-        <f t="array" aca="1" ref="B524" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A513,";",REPT(" ",LEN(A513)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A513)-LEN(SUBSTITUTE(A513,";",""))+1))*LEN(A513)+1,LEN(A513)+1)))</f>
+        <f t="array" aca="1" ref="B524" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A512,";",REPT(" ",LEN(A512)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A512)-LEN(SUBSTITUTE(A512,";",""))+1))*LEN(A512)+1,LEN(A512)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="525">
       <c r="B525">
-        <f t="array" aca="1" ref="B525" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A514,";",REPT(" ",LEN(A514)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A514)-LEN(SUBSTITUTE(A514,";",""))+1))*LEN(A514)+1,LEN(A514)+1)))</f>
+        <f t="array" aca="1" ref="B525" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A513,";",REPT(" ",LEN(A513)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A513)-LEN(SUBSTITUTE(A513,";",""))+1))*LEN(A513)+1,LEN(A513)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="526">
       <c r="B526">
-        <f t="array" aca="1" ref="B526" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A515,";",REPT(" ",LEN(A515)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A515)-LEN(SUBSTITUTE(A515,";",""))+1))*LEN(A515)+1,LEN(A515)+1)))</f>
+        <f t="array" aca="1" ref="B526" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A514,";",REPT(" ",LEN(A514)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A514)-LEN(SUBSTITUTE(A514,";",""))+1))*LEN(A514)+1,LEN(A514)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="527">
       <c r="B527">
-        <f t="array" aca="1" ref="B527" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A516,";",REPT(" ",LEN(A516)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A516)-LEN(SUBSTITUTE(A516,";",""))+1))*LEN(A516)+1,LEN(A516)+1)))</f>
+        <f t="array" aca="1" ref="B527" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A515,";",REPT(" ",LEN(A515)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A515)-LEN(SUBSTITUTE(A515,";",""))+1))*LEN(A515)+1,LEN(A515)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="528">
       <c r="B528">
-        <f t="array" aca="1" ref="B528" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A517,";",REPT(" ",LEN(A517)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A517)-LEN(SUBSTITUTE(A517,";",""))+1))*LEN(A517)+1,LEN(A517)+1)))</f>
+        <f t="array" aca="1" ref="B528" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A516,";",REPT(" ",LEN(A516)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A516)-LEN(SUBSTITUTE(A516,";",""))+1))*LEN(A516)+1,LEN(A516)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="529">
       <c r="B529">
-        <f t="array" aca="1" ref="B529" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A518,";",REPT(" ",LEN(A518)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A518)-LEN(SUBSTITUTE(A518,";",""))+1))*LEN(A518)+1,LEN(A518)+1)))</f>
+        <f t="array" aca="1" ref="B529" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A517,";",REPT(" ",LEN(A517)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A517)-LEN(SUBSTITUTE(A517,";",""))+1))*LEN(A517)+1,LEN(A517)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="530">
       <c r="B530">
-        <f t="array" aca="1" ref="B530" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A519,";",REPT(" ",LEN(A519)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A519)-LEN(SUBSTITUTE(A519,";",""))+1))*LEN(A519)+1,LEN(A519)+1)))</f>
+        <f t="array" aca="1" ref="B530" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A518,";",REPT(" ",LEN(A518)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A518)-LEN(SUBSTITUTE(A518,";",""))+1))*LEN(A518)+1,LEN(A518)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="531">
       <c r="B531">
-        <f t="array" aca="1" ref="B531" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A520,";",REPT(" ",LEN(A520)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A520)-LEN(SUBSTITUTE(A520,";",""))+1))*LEN(A520)+1,LEN(A520)+1)))</f>
+        <f t="array" aca="1" ref="B531" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A519,";",REPT(" ",LEN(A519)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A519)-LEN(SUBSTITUTE(A519,";",""))+1))*LEN(A519)+1,LEN(A519)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="532">
       <c r="B532">
-        <f t="array" aca="1" ref="B532" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A521,";",REPT(" ",LEN(A521)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A521)-LEN(SUBSTITUTE(A521,";",""))+1))*LEN(A521)+1,LEN(A521)+1)))</f>
+        <f t="array" aca="1" ref="B532" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A520,";",REPT(" ",LEN(A520)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A520)-LEN(SUBSTITUTE(A520,";",""))+1))*LEN(A520)+1,LEN(A520)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="533">
       <c r="B533">
-        <f t="array" aca="1" ref="B533" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A522,";",REPT(" ",LEN(A522)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A522)-LEN(SUBSTITUTE(A522,";",""))+1))*LEN(A522)+1,LEN(A522)+1)))</f>
+        <f t="array" aca="1" ref="B533" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A521,";",REPT(" ",LEN(A521)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A521)-LEN(SUBSTITUTE(A521,";",""))+1))*LEN(A521)+1,LEN(A521)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="534">
       <c r="B534">
-        <f t="array" aca="1" ref="B534" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A523,";",REPT(" ",LEN(A523)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A523)-LEN(SUBSTITUTE(A523,";",""))+1))*LEN(A523)+1,LEN(A523)+1)))</f>
+        <f t="array" aca="1" ref="B534" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A522,";",REPT(" ",LEN(A522)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A522)-LEN(SUBSTITUTE(A522,";",""))+1))*LEN(A522)+1,LEN(A522)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="535">
       <c r="B535">
-        <f t="array" aca="1" ref="B535" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A524,";",REPT(" ",LEN(A524)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A524)-LEN(SUBSTITUTE(A524,";",""))+1))*LEN(A524)+1,LEN(A524)+1)))</f>
+        <f t="array" aca="1" ref="B535" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A523,";",REPT(" ",LEN(A523)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A523)-LEN(SUBSTITUTE(A523,";",""))+1))*LEN(A523)+1,LEN(A523)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="536">
       <c r="B536">
-        <f t="array" aca="1" ref="B536" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A525,";",REPT(" ",LEN(A525)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A525)-LEN(SUBSTITUTE(A525,";",""))+1))*LEN(A525)+1,LEN(A525)+1)))</f>
+        <f t="array" aca="1" ref="B536" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A524,";",REPT(" ",LEN(A524)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A524)-LEN(SUBSTITUTE(A524,";",""))+1))*LEN(A524)+1,LEN(A524)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="537">
       <c r="B537">
-        <f t="array" aca="1" ref="B537" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A526,";",REPT(" ",LEN(A526)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A526)-LEN(SUBSTITUTE(A526,";",""))+1))*LEN(A526)+1,LEN(A526)+1)))</f>
+        <f t="array" aca="1" ref="B537" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A525,";",REPT(" ",LEN(A525)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A525)-LEN(SUBSTITUTE(A525,";",""))+1))*LEN(A525)+1,LEN(A525)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="538">
       <c r="B538">
-        <f t="array" aca="1" ref="B538" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A527,";",REPT(" ",LEN(A527)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A527)-LEN(SUBSTITUTE(A527,";",""))+1))*LEN(A527)+1,LEN(A527)+1)))</f>
+        <f t="array" aca="1" ref="B538" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A526,";",REPT(" ",LEN(A526)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A526)-LEN(SUBSTITUTE(A526,";",""))+1))*LEN(A526)+1,LEN(A526)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="539">
       <c r="B539">
-        <f t="array" aca="1" ref="B539" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A528,";",REPT(" ",LEN(A528)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A528)-LEN(SUBSTITUTE(A528,";",""))+1))*LEN(A528)+1,LEN(A528)+1)))</f>
+        <f t="array" aca="1" ref="B539" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A527,";",REPT(" ",LEN(A527)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A527)-LEN(SUBSTITUTE(A527,";",""))+1))*LEN(A527)+1,LEN(A527)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="540">
       <c r="B540">
-        <f t="array" aca="1" ref="B540" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A529,";",REPT(" ",LEN(A529)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A529)-LEN(SUBSTITUTE(A529,";",""))+1))*LEN(A529)+1,LEN(A529)+1)))</f>
+        <f t="array" aca="1" ref="B540" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A528,";",REPT(" ",LEN(A528)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A528)-LEN(SUBSTITUTE(A528,";",""))+1))*LEN(A528)+1,LEN(A528)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="541">
       <c r="B541">
-        <f t="array" aca="1" ref="B541" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A530,";",REPT(" ",LEN(A530)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A530)-LEN(SUBSTITUTE(A530,";",""))+1))*LEN(A530)+1,LEN(A530)+1)))</f>
+        <f t="array" aca="1" ref="B541" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A529,";",REPT(" ",LEN(A529)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A529)-LEN(SUBSTITUTE(A529,";",""))+1))*LEN(A529)+1,LEN(A529)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="542">
       <c r="B542">
-        <f t="array" aca="1" ref="B542" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A531,";",REPT(" ",LEN(A531)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A531)-LEN(SUBSTITUTE(A531,";",""))+1))*LEN(A531)+1,LEN(A531)+1)))</f>
+        <f t="array" aca="1" ref="B542" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A530,";",REPT(" ",LEN(A530)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A530)-LEN(SUBSTITUTE(A530,";",""))+1))*LEN(A530)+1,LEN(A530)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="543">
       <c r="B543">
-        <f t="array" aca="1" ref="B543" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A532,";",REPT(" ",LEN(A532)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A532)-LEN(SUBSTITUTE(A532,";",""))+1))*LEN(A532)+1,LEN(A532)+1)))</f>
+        <f t="array" aca="1" ref="B543" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A531,";",REPT(" ",LEN(A531)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A531)-LEN(SUBSTITUTE(A531,";",""))+1))*LEN(A531)+1,LEN(A531)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="544">
       <c r="B544">
-        <f t="array" aca="1" ref="B544" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A533,";",REPT(" ",LEN(A533)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A533)-LEN(SUBSTITUTE(A533,";",""))+1))*LEN(A533)+1,LEN(A533)+1)))</f>
+        <f t="array" aca="1" ref="B544" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A532,";",REPT(" ",LEN(A532)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A532)-LEN(SUBSTITUTE(A532,";",""))+1))*LEN(A532)+1,LEN(A532)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="545">
       <c r="B545">
-        <f t="array" aca="1" ref="B545" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A534,";",REPT(" ",LEN(A534)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A534)-LEN(SUBSTITUTE(A534,";",""))+1))*LEN(A534)+1,LEN(A534)+1)))</f>
+        <f t="array" aca="1" ref="B545" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A533,";",REPT(" ",LEN(A533)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A533)-LEN(SUBSTITUTE(A533,";",""))+1))*LEN(A533)+1,LEN(A533)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="546">
       <c r="B546">
-        <f t="array" aca="1" ref="B546" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A535,";",REPT(" ",LEN(A535)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A535)-LEN(SUBSTITUTE(A535,";",""))+1))*LEN(A535)+1,LEN(A535)+1)))</f>
+        <f t="array" aca="1" ref="B546" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A534,";",REPT(" ",LEN(A534)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A534)-LEN(SUBSTITUTE(A534,";",""))+1))*LEN(A534)+1,LEN(A534)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="547">
       <c r="B547">
-        <f t="array" aca="1" ref="B547" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A536,";",REPT(" ",LEN(A536)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A536)-LEN(SUBSTITUTE(A536,";",""))+1))*LEN(A536)+1,LEN(A536)+1)))</f>
+        <f t="array" aca="1" ref="B547" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A535,";",REPT(" ",LEN(A535)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A535)-LEN(SUBSTITUTE(A535,";",""))+1))*LEN(A535)+1,LEN(A535)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="548">
       <c r="B548">
-        <f t="array" aca="1" ref="B548" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A537,";",REPT(" ",LEN(A537)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A537)-LEN(SUBSTITUTE(A537,";",""))+1))*LEN(A537)+1,LEN(A537)+1)))</f>
+        <f t="array" aca="1" ref="B548" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A536,";",REPT(" ",LEN(A536)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A536)-LEN(SUBSTITUTE(A536,";",""))+1))*LEN(A536)+1,LEN(A536)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="549">
       <c r="B549">
-        <f t="array" aca="1" ref="B549" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A538,";",REPT(" ",LEN(A538)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A538)-LEN(SUBSTITUTE(A538,";",""))+1))*LEN(A538)+1,LEN(A538)+1)))</f>
+        <f t="array" aca="1" ref="B549" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A537,";",REPT(" ",LEN(A537)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A537)-LEN(SUBSTITUTE(A537,";",""))+1))*LEN(A537)+1,LEN(A537)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="550">
       <c r="B550">
-        <f t="array" aca="1" ref="B550" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A539,";",REPT(" ",LEN(A539)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A539)-LEN(SUBSTITUTE(A539,";",""))+1))*LEN(A539)+1,LEN(A539)+1)))</f>
+        <f t="array" aca="1" ref="B550" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A538,";",REPT(" ",LEN(A538)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A538)-LEN(SUBSTITUTE(A538,";",""))+1))*LEN(A538)+1,LEN(A538)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="551">
       <c r="B551">
-        <f t="array" aca="1" ref="B551" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A540,";",REPT(" ",LEN(A540)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A540)-LEN(SUBSTITUTE(A540,";",""))+1))*LEN(A540)+1,LEN(A540)+1)))</f>
+        <f t="array" aca="1" ref="B551" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A539,";",REPT(" ",LEN(A539)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A539)-LEN(SUBSTITUTE(A539,";",""))+1))*LEN(A539)+1,LEN(A539)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="552">
       <c r="B552">
-        <f t="array" aca="1" ref="B552" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A541,";",REPT(" ",LEN(A541)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A541)-LEN(SUBSTITUTE(A541,";",""))+1))*LEN(A541)+1,LEN(A541)+1)))</f>
+        <f t="array" aca="1" ref="B552" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A540,";",REPT(" ",LEN(A540)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A540)-LEN(SUBSTITUTE(A540,";",""))+1))*LEN(A540)+1,LEN(A540)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="553">
       <c r="B553">
-        <f t="array" aca="1" ref="B553" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A542,";",REPT(" ",LEN(A542)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A542)-LEN(SUBSTITUTE(A542,";",""))+1))*LEN(A542)+1,LEN(A542)+1)))</f>
+        <f t="array" aca="1" ref="B553" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A541,";",REPT(" ",LEN(A541)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A541)-LEN(SUBSTITUTE(A541,";",""))+1))*LEN(A541)+1,LEN(A541)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="554">
       <c r="B554">
-        <f t="array" aca="1" ref="B554" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A543,";",REPT(" ",LEN(A543)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A543)-LEN(SUBSTITUTE(A543,";",""))+1))*LEN(A543)+1,LEN(A543)+1)))</f>
+        <f t="array" aca="1" ref="B554" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A542,";",REPT(" ",LEN(A542)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A542)-LEN(SUBSTITUTE(A542,";",""))+1))*LEN(A542)+1,LEN(A542)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="555">
       <c r="B555">
-        <f t="array" aca="1" ref="B555" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A544,";",REPT(" ",LEN(A544)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A544)-LEN(SUBSTITUTE(A544,";",""))+1))*LEN(A544)+1,LEN(A544)+1)))</f>
+        <f t="array" aca="1" ref="B555" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A543,";",REPT(" ",LEN(A543)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A543)-LEN(SUBSTITUTE(A543,";",""))+1))*LEN(A543)+1,LEN(A543)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="556">
       <c r="B556">
-        <f t="array" aca="1" ref="B556" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A545,";",REPT(" ",LEN(A545)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A545)-LEN(SUBSTITUTE(A545,";",""))+1))*LEN(A545)+1,LEN(A545)+1)))</f>
+        <f t="array" aca="1" ref="B556" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A544,";",REPT(" ",LEN(A544)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A544)-LEN(SUBSTITUTE(A544,";",""))+1))*LEN(A544)+1,LEN(A544)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="557">
       <c r="B557">
-        <f t="array" aca="1" ref="B557" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A546,";",REPT(" ",LEN(A546)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A546)-LEN(SUBSTITUTE(A546,";",""))+1))*LEN(A546)+1,LEN(A546)+1)))</f>
+        <f t="array" aca="1" ref="B557" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A545,";",REPT(" ",LEN(A545)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A545)-LEN(SUBSTITUTE(A545,";",""))+1))*LEN(A545)+1,LEN(A545)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="558">
       <c r="B558">
-        <f t="array" aca="1" ref="B558" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A547,";",REPT(" ",LEN(A547)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A547)-LEN(SUBSTITUTE(A547,";",""))+1))*LEN(A547)+1,LEN(A547)+1)))</f>
+        <f t="array" aca="1" ref="B558" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A546,";",REPT(" ",LEN(A546)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A546)-LEN(SUBSTITUTE(A546,";",""))+1))*LEN(A546)+1,LEN(A546)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="559">
       <c r="B559">
-        <f t="array" aca="1" ref="B559" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A548,";",REPT(" ",LEN(A548)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A548)-LEN(SUBSTITUTE(A548,";",""))+1))*LEN(A548)+1,LEN(A548)+1)))</f>
+        <f t="array" aca="1" ref="B559" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A547,";",REPT(" ",LEN(A547)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A547)-LEN(SUBSTITUTE(A547,";",""))+1))*LEN(A547)+1,LEN(A547)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="560">
       <c r="B560">
-        <f t="array" aca="1" ref="B560" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A549,";",REPT(" ",LEN(A549)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A549)-LEN(SUBSTITUTE(A549,";",""))+1))*LEN(A549)+1,LEN(A549)+1)))</f>
+        <f t="array" aca="1" ref="B560" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A548,";",REPT(" ",LEN(A548)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A548)-LEN(SUBSTITUTE(A548,";",""))+1))*LEN(A548)+1,LEN(A548)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="561">
       <c r="B561">
-        <f t="array" aca="1" ref="B561" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A550,";",REPT(" ",LEN(A550)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A550)-LEN(SUBSTITUTE(A550,";",""))+1))*LEN(A550)+1,LEN(A550)+1)))</f>
+        <f t="array" aca="1" ref="B561" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A549,";",REPT(" ",LEN(A549)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A549)-LEN(SUBSTITUTE(A549,";",""))+1))*LEN(A549)+1,LEN(A549)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="562">
       <c r="B562">
-        <f t="array" aca="1" ref="B562" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A551,";",REPT(" ",LEN(A551)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A551)-LEN(SUBSTITUTE(A551,";",""))+1))*LEN(A551)+1,LEN(A551)+1)))</f>
+        <f t="array" aca="1" ref="B562" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A550,";",REPT(" ",LEN(A550)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A550)-LEN(SUBSTITUTE(A550,";",""))+1))*LEN(A550)+1,LEN(A550)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="563">
       <c r="B563">
-        <f t="array" aca="1" ref="B563" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A552,";",REPT(" ",LEN(A552)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A552)-LEN(SUBSTITUTE(A552,";",""))+1))*LEN(A552)+1,LEN(A552)+1)))</f>
+        <f t="array" aca="1" ref="B563" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A551,";",REPT(" ",LEN(A551)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A551)-LEN(SUBSTITUTE(A551,";",""))+1))*LEN(A551)+1,LEN(A551)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="564">
       <c r="B564">
-        <f t="array" aca="1" ref="B564" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A553,";",REPT(" ",LEN(A553)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A553)-LEN(SUBSTITUTE(A553,";",""))+1))*LEN(A553)+1,LEN(A553)+1)))</f>
+        <f t="array" aca="1" ref="B564" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A552,";",REPT(" ",LEN(A552)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A552)-LEN(SUBSTITUTE(A552,";",""))+1))*LEN(A552)+1,LEN(A552)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="565">
       <c r="B565">
-        <f t="array" aca="1" ref="B565" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A554,";",REPT(" ",LEN(A554)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A554)-LEN(SUBSTITUTE(A554,";",""))+1))*LEN(A554)+1,LEN(A554)+1)))</f>
+        <f t="array" aca="1" ref="B565" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A553,";",REPT(" ",LEN(A553)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A553)-LEN(SUBSTITUTE(A553,";",""))+1))*LEN(A553)+1,LEN(A553)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="566">
       <c r="B566">
-        <f t="array" aca="1" ref="B566" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A555,";",REPT(" ",LEN(A555)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A555)-LEN(SUBSTITUTE(A555,";",""))+1))*LEN(A555)+1,LEN(A555)+1)))</f>
+        <f t="array" aca="1" ref="B566" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A554,";",REPT(" ",LEN(A554)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A554)-LEN(SUBSTITUTE(A554,";",""))+1))*LEN(A554)+1,LEN(A554)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="567">
       <c r="B567">
-        <f t="array" aca="1" ref="B567" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A556,";",REPT(" ",LEN(A556)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A556)-LEN(SUBSTITUTE(A556,";",""))+1))*LEN(A556)+1,LEN(A556)+1)))</f>
+        <f t="array" aca="1" ref="B567" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A555,";",REPT(" ",LEN(A555)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A555)-LEN(SUBSTITUTE(A555,";",""))+1))*LEN(A555)+1,LEN(A555)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="568">
       <c r="B568">
-        <f t="array" aca="1" ref="B568" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A557,";",REPT(" ",LEN(A557)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A557)-LEN(SUBSTITUTE(A557,";",""))+1))*LEN(A557)+1,LEN(A557)+1)))</f>
+        <f t="array" aca="1" ref="B568" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A556,";",REPT(" ",LEN(A556)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A556)-LEN(SUBSTITUTE(A556,";",""))+1))*LEN(A556)+1,LEN(A556)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="569">
       <c r="B569">
-        <f t="array" aca="1" ref="B569" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A558,";",REPT(" ",LEN(A558)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A558)-LEN(SUBSTITUTE(A558,";",""))+1))*LEN(A558)+1,LEN(A558)+1)))</f>
+        <f t="array" aca="1" ref="B569" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A557,";",REPT(" ",LEN(A557)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A557)-LEN(SUBSTITUTE(A557,";",""))+1))*LEN(A557)+1,LEN(A557)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="570">
       <c r="B570">
-        <f t="array" aca="1" ref="B570" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A559,";",REPT(" ",LEN(A559)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A559)-LEN(SUBSTITUTE(A559,";",""))+1))*LEN(A559)+1,LEN(A559)+1)))</f>
+        <f t="array" aca="1" ref="B570" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A558,";",REPT(" ",LEN(A558)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A558)-LEN(SUBSTITUTE(A558,";",""))+1))*LEN(A558)+1,LEN(A558)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="571">
       <c r="B571">
-        <f t="array" aca="1" ref="B571" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A560,";",REPT(" ",LEN(A560)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A560)-LEN(SUBSTITUTE(A560,";",""))+1))*LEN(A560)+1,LEN(A560)+1)))</f>
+        <f t="array" aca="1" ref="B571" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A559,";",REPT(" ",LEN(A559)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A559)-LEN(SUBSTITUTE(A559,";",""))+1))*LEN(A559)+1,LEN(A559)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="572">
       <c r="B572">
-        <f t="array" aca="1" ref="B572" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A561,";",REPT(" ",LEN(A561)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A561)-LEN(SUBSTITUTE(A561,";",""))+1))*LEN(A561)+1,LEN(A561)+1)))</f>
+        <f t="array" aca="1" ref="B572" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A560,";",REPT(" ",LEN(A560)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A560)-LEN(SUBSTITUTE(A560,";",""))+1))*LEN(A560)+1,LEN(A560)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="573">
       <c r="B573">
-        <f t="array" aca="1" ref="B573" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A562,";",REPT(" ",LEN(A562)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A562)-LEN(SUBSTITUTE(A562,";",""))+1))*LEN(A562)+1,LEN(A562)+1)))</f>
+        <f t="array" aca="1" ref="B573" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A561,";",REPT(" ",LEN(A561)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A561)-LEN(SUBSTITUTE(A561,";",""))+1))*LEN(A561)+1,LEN(A561)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="574">
       <c r="B574">
-        <f t="array" aca="1" ref="B574" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A563,";",REPT(" ",LEN(A563)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A563)-LEN(SUBSTITUTE(A563,";",""))+1))*LEN(A563)+1,LEN(A563)+1)))</f>
+        <f t="array" aca="1" ref="B574" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A562,";",REPT(" ",LEN(A562)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A562)-LEN(SUBSTITUTE(A562,";",""))+1))*LEN(A562)+1,LEN(A562)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="575">
       <c r="B575">
-        <f t="array" aca="1" ref="B575" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A564,";",REPT(" ",LEN(A564)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A564)-LEN(SUBSTITUTE(A564,";",""))+1))*LEN(A564)+1,LEN(A564)+1)))</f>
+        <f t="array" aca="1" ref="B575" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A563,";",REPT(" ",LEN(A563)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A563)-LEN(SUBSTITUTE(A563,";",""))+1))*LEN(A563)+1,LEN(A563)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="576">
       <c r="B576">
-        <f t="array" aca="1" ref="B576" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A565,";",REPT(" ",LEN(A565)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A565)-LEN(SUBSTITUTE(A565,";",""))+1))*LEN(A565)+1,LEN(A565)+1)))</f>
+        <f t="array" aca="1" ref="B576" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A564,";",REPT(" ",LEN(A564)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A564)-LEN(SUBSTITUTE(A564,";",""))+1))*LEN(A564)+1,LEN(A564)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="577">
       <c r="B577">
-        <f t="array" aca="1" ref="B577" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A566,";",REPT(" ",LEN(A566)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A566)-LEN(SUBSTITUTE(A566,";",""))+1))*LEN(A566)+1,LEN(A566)+1)))</f>
+        <f t="array" aca="1" ref="B577" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A565,";",REPT(" ",LEN(A565)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A565)-LEN(SUBSTITUTE(A565,";",""))+1))*LEN(A565)+1,LEN(A565)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="578">
       <c r="B578">
-        <f t="array" aca="1" ref="B578" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A567,";",REPT(" ",LEN(A567)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A567)-LEN(SUBSTITUTE(A567,";",""))+1))*LEN(A567)+1,LEN(A567)+1)))</f>
+        <f t="array" aca="1" ref="B578" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A566,";",REPT(" ",LEN(A566)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A566)-LEN(SUBSTITUTE(A566,";",""))+1))*LEN(A566)+1,LEN(A566)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="579">
       <c r="B579">
-        <f t="array" aca="1" ref="B579" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A568,";",REPT(" ",LEN(A568)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A568)-LEN(SUBSTITUTE(A568,";",""))+1))*LEN(A568)+1,LEN(A568)+1)))</f>
+        <f t="array" aca="1" ref="B579" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A567,";",REPT(" ",LEN(A567)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A567)-LEN(SUBSTITUTE(A567,";",""))+1))*LEN(A567)+1,LEN(A567)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="580">
       <c r="B580">
-        <f t="array" aca="1" ref="B580" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A569,";",REPT(" ",LEN(A569)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A569)-LEN(SUBSTITUTE(A569,";",""))+1))*LEN(A569)+1,LEN(A569)+1)))</f>
+        <f t="array" aca="1" ref="B580" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A568,";",REPT(" ",LEN(A568)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A568)-LEN(SUBSTITUTE(A568,";",""))+1))*LEN(A568)+1,LEN(A568)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="581">
       <c r="B581">
-        <f t="array" aca="1" ref="B581" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A570,";",REPT(" ",LEN(A570)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A570)-LEN(SUBSTITUTE(A570,";",""))+1))*LEN(A570)+1,LEN(A570)+1)))</f>
+        <f t="array" aca="1" ref="B581" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A569,";",REPT(" ",LEN(A569)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A569)-LEN(SUBSTITUTE(A569,";",""))+1))*LEN(A569)+1,LEN(A569)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="582">
       <c r="B582">
-        <f t="array" aca="1" ref="B582" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A571,";",REPT(" ",LEN(A571)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A571)-LEN(SUBSTITUTE(A571,";",""))+1))*LEN(A571)+1,LEN(A571)+1)))</f>
+        <f t="array" aca="1" ref="B582" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A570,";",REPT(" ",LEN(A570)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A570)-LEN(SUBSTITUTE(A570,";",""))+1))*LEN(A570)+1,LEN(A570)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="583">
       <c r="B583">
-        <f t="array" aca="1" ref="B583" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A572,";",REPT(" ",LEN(A572)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A572)-LEN(SUBSTITUTE(A572,";",""))+1))*LEN(A572)+1,LEN(A572)+1)))</f>
+        <f t="array" aca="1" ref="B583" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A571,";",REPT(" ",LEN(A571)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A571)-LEN(SUBSTITUTE(A571,";",""))+1))*LEN(A571)+1,LEN(A571)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="584">
       <c r="B584">
-        <f t="array" aca="1" ref="B584" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A573,";",REPT(" ",LEN(A573)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A573)-LEN(SUBSTITUTE(A573,";",""))+1))*LEN(A573)+1,LEN(A573)+1)))</f>
+        <f t="array" aca="1" ref="B584" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A572,";",REPT(" ",LEN(A572)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A572)-LEN(SUBSTITUTE(A572,";",""))+1))*LEN(A572)+1,LEN(A572)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="585">
       <c r="B585">
-        <f t="array" aca="1" ref="B585" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A574,";",REPT(" ",LEN(A574)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A574)-LEN(SUBSTITUTE(A574,";",""))+1))*LEN(A574)+1,LEN(A574)+1)))</f>
+        <f t="array" aca="1" ref="B585" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A573,";",REPT(" ",LEN(A573)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A573)-LEN(SUBSTITUTE(A573,";",""))+1))*LEN(A573)+1,LEN(A573)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="586">
       <c r="B586">
-        <f t="array" aca="1" ref="B586" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A575,";",REPT(" ",LEN(A575)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A575)-LEN(SUBSTITUTE(A575,";",""))+1))*LEN(A575)+1,LEN(A575)+1)))</f>
+        <f t="array" aca="1" ref="B586" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A574,";",REPT(" ",LEN(A574)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A574)-LEN(SUBSTITUTE(A574,";",""))+1))*LEN(A574)+1,LEN(A574)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="587">
       <c r="B587">
-        <f t="array" aca="1" ref="B587" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A576,";",REPT(" ",LEN(A576)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A576)-LEN(SUBSTITUTE(A576,";",""))+1))*LEN(A576)+1,LEN(A576)+1)))</f>
+        <f t="array" aca="1" ref="B587" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A575,";",REPT(" ",LEN(A575)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A575)-LEN(SUBSTITUTE(A575,";",""))+1))*LEN(A575)+1,LEN(A575)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="588">
       <c r="B588">
-        <f t="array" aca="1" ref="B588" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A577,";",REPT(" ",LEN(A577)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A577)-LEN(SUBSTITUTE(A577,";",""))+1))*LEN(A577)+1,LEN(A577)+1)))</f>
+        <f t="array" aca="1" ref="B588" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A576,";",REPT(" ",LEN(A576)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A576)-LEN(SUBSTITUTE(A576,";",""))+1))*LEN(A576)+1,LEN(A576)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="589">
       <c r="B589">
-        <f t="array" aca="1" ref="B589" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A578,";",REPT(" ",LEN(A578)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A578)-LEN(SUBSTITUTE(A578,";",""))+1))*LEN(A578)+1,LEN(A578)+1)))</f>
+        <f t="array" aca="1" ref="B589" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A577,";",REPT(" ",LEN(A577)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A577)-LEN(SUBSTITUTE(A577,";",""))+1))*LEN(A577)+1,LEN(A577)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="590">
       <c r="B590">
-        <f t="array" aca="1" ref="B590" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A579,";",REPT(" ",LEN(A579)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A579)-LEN(SUBSTITUTE(A579,";",""))+1))*LEN(A579)+1,LEN(A579)+1)))</f>
+        <f t="array" aca="1" ref="B590" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A578,";",REPT(" ",LEN(A578)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A578)-LEN(SUBSTITUTE(A578,";",""))+1))*LEN(A578)+1,LEN(A578)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="591">
       <c r="B591">
-        <f t="array" aca="1" ref="B591" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A580,";",REPT(" ",LEN(A580)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A580)-LEN(SUBSTITUTE(A580,";",""))+1))*LEN(A580)+1,LEN(A580)+1)))</f>
+        <f t="array" aca="1" ref="B591" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A579,";",REPT(" ",LEN(A579)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A579)-LEN(SUBSTITUTE(A579,";",""))+1))*LEN(A579)+1,LEN(A579)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="592">
       <c r="B592">
-        <f t="array" aca="1" ref="B592" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A581,";",REPT(" ",LEN(A581)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A581)-LEN(SUBSTITUTE(A581,";",""))+1))*LEN(A581)+1,LEN(A581)+1)))</f>
+        <f t="array" aca="1" ref="B592" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A580,";",REPT(" ",LEN(A580)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A580)-LEN(SUBSTITUTE(A580,";",""))+1))*LEN(A580)+1,LEN(A580)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="593">
       <c r="B593">
-        <f t="array" aca="1" ref="B593" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A582,";",REPT(" ",LEN(A582)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A582)-LEN(SUBSTITUTE(A582,";",""))+1))*LEN(A582)+1,LEN(A582)+1)))</f>
+        <f t="array" aca="1" ref="B593" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A581,";",REPT(" ",LEN(A581)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A581)-LEN(SUBSTITUTE(A581,";",""))+1))*LEN(A581)+1,LEN(A581)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="594">
       <c r="B594">
-        <f t="array" aca="1" ref="B594" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A583,";",REPT(" ",LEN(A583)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A583)-LEN(SUBSTITUTE(A583,";",""))+1))*LEN(A583)+1,LEN(A583)+1)))</f>
+        <f t="array" aca="1" ref="B594" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A582,";",REPT(" ",LEN(A582)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A582)-LEN(SUBSTITUTE(A582,";",""))+1))*LEN(A582)+1,LEN(A582)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="595">
       <c r="B595">
-        <f t="array" aca="1" ref="B595" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A584,";",REPT(" ",LEN(A584)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A584)-LEN(SUBSTITUTE(A584,";",""))+1))*LEN(A584)+1,LEN(A584)+1)))</f>
+        <f t="array" aca="1" ref="B595" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A583,";",REPT(" ",LEN(A583)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A583)-LEN(SUBSTITUTE(A583,";",""))+1))*LEN(A583)+1,LEN(A583)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="596">
       <c r="B596">
-        <f t="array" aca="1" ref="B596" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A585,";",REPT(" ",LEN(A585)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A585)-LEN(SUBSTITUTE(A585,";",""))+1))*LEN(A585)+1,LEN(A585)+1)))</f>
+        <f t="array" aca="1" ref="B596" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A584,";",REPT(" ",LEN(A584)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A584)-LEN(SUBSTITUTE(A584,";",""))+1))*LEN(A584)+1,LEN(A584)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="597">
       <c r="B597">
-        <f t="array" aca="1" ref="B597" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A586,";",REPT(" ",LEN(A586)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A586)-LEN(SUBSTITUTE(A586,";",""))+1))*LEN(A586)+1,LEN(A586)+1)))</f>
+        <f t="array" aca="1" ref="B597" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A585,";",REPT(" ",LEN(A585)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A585)-LEN(SUBSTITUTE(A585,";",""))+1))*LEN(A585)+1,LEN(A585)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="598">
       <c r="B598">
-        <f t="array" aca="1" ref="B598" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A587,";",REPT(" ",LEN(A587)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A587)-LEN(SUBSTITUTE(A587,";",""))+1))*LEN(A587)+1,LEN(A587)+1)))</f>
+        <f t="array" aca="1" ref="B598" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A586,";",REPT(" ",LEN(A586)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A586)-LEN(SUBSTITUTE(A586,";",""))+1))*LEN(A586)+1,LEN(A586)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="599">
       <c r="B599">
-        <f t="array" aca="1" ref="B599" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A588,";",REPT(" ",LEN(A588)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A588)-LEN(SUBSTITUTE(A588,";",""))+1))*LEN(A588)+1,LEN(A588)+1)))</f>
+        <f t="array" aca="1" ref="B599" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A587,";",REPT(" ",LEN(A587)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A587)-LEN(SUBSTITUTE(A587,";",""))+1))*LEN(A587)+1,LEN(A587)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="600">
       <c r="B600">
-        <f t="array" aca="1" ref="B600" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A589,";",REPT(" ",LEN(A589)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A589)-LEN(SUBSTITUTE(A589,";",""))+1))*LEN(A589)+1,LEN(A589)+1)))</f>
+        <f t="array" aca="1" ref="B600" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A588,";",REPT(" ",LEN(A588)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A588)-LEN(SUBSTITUTE(A588,";",""))+1))*LEN(A588)+1,LEN(A588)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="601">
       <c r="B601">
-        <f t="array" aca="1" ref="B601" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A590,";",REPT(" ",LEN(A590)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A590)-LEN(SUBSTITUTE(A590,";",""))+1))*LEN(A590)+1,LEN(A590)+1)))</f>
+        <f t="array" aca="1" ref="B601" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A589,";",REPT(" ",LEN(A589)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A589)-LEN(SUBSTITUTE(A589,";",""))+1))*LEN(A589)+1,LEN(A589)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="602">
       <c r="B602">
-        <f t="array" aca="1" ref="B602" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A591,";",REPT(" ",LEN(A591)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A591)-LEN(SUBSTITUTE(A591,";",""))+1))*LEN(A591)+1,LEN(A591)+1)))</f>
+        <f t="array" aca="1" ref="B602" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A590,";",REPT(" ",LEN(A590)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A590)-LEN(SUBSTITUTE(A590,";",""))+1))*LEN(A590)+1,LEN(A590)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="603">
       <c r="B603">
-        <f t="array" aca="1" ref="B603" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A592,";",REPT(" ",LEN(A592)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A592)-LEN(SUBSTITUTE(A592,";",""))+1))*LEN(A592)+1,LEN(A592)+1)))</f>
+        <f t="array" aca="1" ref="B603" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A591,";",REPT(" ",LEN(A591)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A591)-LEN(SUBSTITUTE(A591,";",""))+1))*LEN(A591)+1,LEN(A591)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="604">
       <c r="B604">
-        <f t="array" aca="1" ref="B604" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A593,";",REPT(" ",LEN(A593)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A593)-LEN(SUBSTITUTE(A593,";",""))+1))*LEN(A593)+1,LEN(A593)+1)))</f>
+        <f t="array" aca="1" ref="B604" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A592,";",REPT(" ",LEN(A592)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A592)-LEN(SUBSTITUTE(A592,";",""))+1))*LEN(A592)+1,LEN(A592)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="605">
       <c r="B605">
-        <f t="array" aca="1" ref="B605" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A594,";",REPT(" ",LEN(A594)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A594)-LEN(SUBSTITUTE(A594,";",""))+1))*LEN(A594)+1,LEN(A594)+1)))</f>
+        <f t="array" aca="1" ref="B605" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A593,";",REPT(" ",LEN(A593)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A593)-LEN(SUBSTITUTE(A593,";",""))+1))*LEN(A593)+1,LEN(A593)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="606">
       <c r="B606">
-        <f t="array" aca="1" ref="B606" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A595,";",REPT(" ",LEN(A595)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A595)-LEN(SUBSTITUTE(A595,";",""))+1))*LEN(A595)+1,LEN(A595)+1)))</f>
+        <f t="array" aca="1" ref="B606" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A594,";",REPT(" ",LEN(A594)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A594)-LEN(SUBSTITUTE(A594,";",""))+1))*LEN(A594)+1,LEN(A594)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="607">
       <c r="B607">
-        <f t="array" aca="1" ref="B607" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A596,";",REPT(" ",LEN(A596)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A596)-LEN(SUBSTITUTE(A596,";",""))+1))*LEN(A596)+1,LEN(A596)+1)))</f>
+        <f t="array" aca="1" ref="B607" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A595,";",REPT(" ",LEN(A595)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A595)-LEN(SUBSTITUTE(A595,";",""))+1))*LEN(A595)+1,LEN(A595)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="608">
       <c r="B608">
-        <f t="array" aca="1" ref="B608" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A597,";",REPT(" ",LEN(A597)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A597)-LEN(SUBSTITUTE(A597,";",""))+1))*LEN(A597)+1,LEN(A597)+1)))</f>
+        <f t="array" aca="1" ref="B608" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A596,";",REPT(" ",LEN(A596)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A596)-LEN(SUBSTITUTE(A596,";",""))+1))*LEN(A596)+1,LEN(A596)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="609">
       <c r="B609">
-        <f t="array" aca="1" ref="B609" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A598,";",REPT(" ",LEN(A598)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A598)-LEN(SUBSTITUTE(A598,";",""))+1))*LEN(A598)+1,LEN(A598)+1)))</f>
+        <f t="array" aca="1" ref="B609" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A597,";",REPT(" ",LEN(A597)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A597)-LEN(SUBSTITUTE(A597,";",""))+1))*LEN(A597)+1,LEN(A597)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="610">
       <c r="B610">
-        <f t="array" aca="1" ref="B610" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A599,";",REPT(" ",LEN(A599)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A599)-LEN(SUBSTITUTE(A599,";",""))+1))*LEN(A599)+1,LEN(A599)+1)))</f>
+        <f t="array" aca="1" ref="B610" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A598,";",REPT(" ",LEN(A598)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A598)-LEN(SUBSTITUTE(A598,";",""))+1))*LEN(A598)+1,LEN(A598)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="611">
       <c r="B611">
-        <f t="array" aca="1" ref="B611" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A600,";",REPT(" ",LEN(A600)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A600)-LEN(SUBSTITUTE(A600,";",""))+1))*LEN(A600)+1,LEN(A600)+1)))</f>
+        <f t="array" aca="1" ref="B611" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A599,";",REPT(" ",LEN(A599)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A599)-LEN(SUBSTITUTE(A599,";",""))+1))*LEN(A599)+1,LEN(A599)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="612">
       <c r="B612">
-        <f t="array" aca="1" ref="B612" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A601,";",REPT(" ",LEN(A601)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A601)-LEN(SUBSTITUTE(A601,";",""))+1))*LEN(A601)+1,LEN(A601)+1)))</f>
+        <f t="array" aca="1" ref="B612" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A600,";",REPT(" ",LEN(A600)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A600)-LEN(SUBSTITUTE(A600,";",""))+1))*LEN(A600)+1,LEN(A600)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="613">
       <c r="B613">
-        <f t="array" aca="1" ref="B613" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A602,";",REPT(" ",LEN(A602)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A602)-LEN(SUBSTITUTE(A602,";",""))+1))*LEN(A602)+1,LEN(A602)+1)))</f>
+        <f t="array" aca="1" ref="B613" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A601,";",REPT(" ",LEN(A601)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A601)-LEN(SUBSTITUTE(A601,";",""))+1))*LEN(A601)+1,LEN(A601)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="614">
       <c r="B614">
-        <f t="array" aca="1" ref="B614" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A603,";",REPT(" ",LEN(A603)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A603)-LEN(SUBSTITUTE(A603,";",""))+1))*LEN(A603)+1,LEN(A603)+1)))</f>
+        <f t="array" aca="1" ref="B614" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A602,";",REPT(" ",LEN(A602)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A602)-LEN(SUBSTITUTE(A602,";",""))+1))*LEN(A602)+1,LEN(A602)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="615">
       <c r="B615">
-        <f t="array" aca="1" ref="B615" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A604,";",REPT(" ",LEN(A604)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A604)-LEN(SUBSTITUTE(A604,";",""))+1))*LEN(A604)+1,LEN(A604)+1)))</f>
+        <f t="array" aca="1" ref="B615" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A603,";",REPT(" ",LEN(A603)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A603)-LEN(SUBSTITUTE(A603,";",""))+1))*LEN(A603)+1,LEN(A603)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="616">
       <c r="B616">
-        <f t="array" aca="1" ref="B616" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A605,";",REPT(" ",LEN(A605)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A605)-LEN(SUBSTITUTE(A605,";",""))+1))*LEN(A605)+1,LEN(A605)+1)))</f>
+        <f t="array" aca="1" ref="B616" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A604,";",REPT(" ",LEN(A604)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A604)-LEN(SUBSTITUTE(A604,";",""))+1))*LEN(A604)+1,LEN(A604)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="617">
       <c r="B617">
-        <f t="array" aca="1" ref="B617" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A606,";",REPT(" ",LEN(A606)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A606)-LEN(SUBSTITUTE(A606,";",""))+1))*LEN(A606)+1,LEN(A606)+1)))</f>
+        <f t="array" aca="1" ref="B617" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A605,";",REPT(" ",LEN(A605)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A605)-LEN(SUBSTITUTE(A605,";",""))+1))*LEN(A605)+1,LEN(A605)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="618">
       <c r="B618">
-        <f t="array" aca="1" ref="B618" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A607,";",REPT(" ",LEN(A607)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A607)-LEN(SUBSTITUTE(A607,";",""))+1))*LEN(A607)+1,LEN(A607)+1)))</f>
+        <f t="array" aca="1" ref="B618" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A606,";",REPT(" ",LEN(A606)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A606)-LEN(SUBSTITUTE(A606,";",""))+1))*LEN(A606)+1,LEN(A606)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="619">
       <c r="B619">
-        <f t="array" aca="1" ref="B619" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A608,";",REPT(" ",LEN(A608)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A608)-LEN(SUBSTITUTE(A608,";",""))+1))*LEN(A608)+1,LEN(A608)+1)))</f>
+        <f t="array" aca="1" ref="B619" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A607,";",REPT(" ",LEN(A607)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A607)-LEN(SUBSTITUTE(A607,";",""))+1))*LEN(A607)+1,LEN(A607)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="620">
       <c r="B620">
-        <f t="array" aca="1" ref="B620" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A609,";",REPT(" ",LEN(A609)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A609)-LEN(SUBSTITUTE(A609,";",""))+1))*LEN(A609)+1,LEN(A609)+1)))</f>
+        <f t="array" aca="1" ref="B620" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A608,";",REPT(" ",LEN(A608)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A608)-LEN(SUBSTITUTE(A608,";",""))+1))*LEN(A608)+1,LEN(A608)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="621">
       <c r="B621">
-        <f t="array" aca="1" ref="B621" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A610,";",REPT(" ",LEN(A610)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A610)-LEN(SUBSTITUTE(A610,";",""))+1))*LEN(A610)+1,LEN(A610)+1)))</f>
+        <f t="array" aca="1" ref="B621" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A609,";",REPT(" ",LEN(A609)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A609)-LEN(SUBSTITUTE(A609,";",""))+1))*LEN(A609)+1,LEN(A609)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="622">
       <c r="B622">
-        <f t="array" aca="1" ref="B622" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A611,";",REPT(" ",LEN(A611)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A611)-LEN(SUBSTITUTE(A611,";",""))+1))*LEN(A611)+1,LEN(A611)+1)))</f>
+        <f t="array" aca="1" ref="B622" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A610,";",REPT(" ",LEN(A610)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A610)-LEN(SUBSTITUTE(A610,";",""))+1))*LEN(A610)+1,LEN(A610)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="623">
       <c r="B623">
-        <f t="array" aca="1" ref="B623" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A612,";",REPT(" ",LEN(A612)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A612)-LEN(SUBSTITUTE(A612,";",""))+1))*LEN(A612)+1,LEN(A612)+1)))</f>
+        <f t="array" aca="1" ref="B623" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A611,";",REPT(" ",LEN(A611)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A611)-LEN(SUBSTITUTE(A611,";",""))+1))*LEN(A611)+1,LEN(A611)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="624">
       <c r="B624">
-        <f t="array" aca="1" ref="B624" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A613,";",REPT(" ",LEN(A613)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A613)-LEN(SUBSTITUTE(A613,";",""))+1))*LEN(A613)+1,LEN(A613)+1)))</f>
+        <f t="array" aca="1" ref="B624" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A612,";",REPT(" ",LEN(A612)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A612)-LEN(SUBSTITUTE(A612,";",""))+1))*LEN(A612)+1,LEN(A612)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="625">
       <c r="B625">
-        <f t="array" aca="1" ref="B625" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A614,";",REPT(" ",LEN(A614)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A614)-LEN(SUBSTITUTE(A614,";",""))+1))*LEN(A614)+1,LEN(A614)+1)))</f>
+        <f t="array" aca="1" ref="B625" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A613,";",REPT(" ",LEN(A613)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A613)-LEN(SUBSTITUTE(A613,";",""))+1))*LEN(A613)+1,LEN(A613)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="626">
       <c r="B626">
-        <f t="array" aca="1" ref="B626" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A615,";",REPT(" ",LEN(A615)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A615)-LEN(SUBSTITUTE(A615,";",""))+1))*LEN(A615)+1,LEN(A615)+1)))</f>
+        <f t="array" aca="1" ref="B626" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A614,";",REPT(" ",LEN(A614)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A614)-LEN(SUBSTITUTE(A614,";",""))+1))*LEN(A614)+1,LEN(A614)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="627">
       <c r="B627">
-        <f t="array" aca="1" ref="B627" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A616,";",REPT(" ",LEN(A616)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A616)-LEN(SUBSTITUTE(A616,";",""))+1))*LEN(A616)+1,LEN(A616)+1)))</f>
+        <f t="array" aca="1" ref="B627" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A615,";",REPT(" ",LEN(A615)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A615)-LEN(SUBSTITUTE(A615,";",""))+1))*LEN(A615)+1,LEN(A615)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="628">
       <c r="B628">
-        <f t="array" aca="1" ref="B628" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A617,";",REPT(" ",LEN(A617)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A617)-LEN(SUBSTITUTE(A617,";",""))+1))*LEN(A617)+1,LEN(A617)+1)))</f>
+        <f t="array" aca="1" ref="B628" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A616,";",REPT(" ",LEN(A616)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A616)-LEN(SUBSTITUTE(A616,";",""))+1))*LEN(A616)+1,LEN(A616)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="629">
       <c r="B629">
-        <f t="array" aca="1" ref="B629" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A618,";",REPT(" ",LEN(A618)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A618)-LEN(SUBSTITUTE(A618,";",""))+1))*LEN(A618)+1,LEN(A618)+1)))</f>
+        <f t="array" aca="1" ref="B629" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A617,";",REPT(" ",LEN(A617)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A617)-LEN(SUBSTITUTE(A617,";",""))+1))*LEN(A617)+1,LEN(A617)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="630">
       <c r="B630">
-        <f t="array" aca="1" ref="B630" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A619,";",REPT(" ",LEN(A619)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A619)-LEN(SUBSTITUTE(A619,";",""))+1))*LEN(A619)+1,LEN(A619)+1)))</f>
+        <f t="array" aca="1" ref="B630" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A618,";",REPT(" ",LEN(A618)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A618)-LEN(SUBSTITUTE(A618,";",""))+1))*LEN(A618)+1,LEN(A618)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="631">
       <c r="B631">
-        <f t="array" aca="1" ref="B631" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A620,";",REPT(" ",LEN(A620)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A620)-LEN(SUBSTITUTE(A620,";",""))+1))*LEN(A620)+1,LEN(A620)+1)))</f>
+        <f t="array" aca="1" ref="B631" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A619,";",REPT(" ",LEN(A619)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A619)-LEN(SUBSTITUTE(A619,";",""))+1))*LEN(A619)+1,LEN(A619)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="632">
       <c r="B632">
-        <f t="array" aca="1" ref="B632" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A621,";",REPT(" ",LEN(A621)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A621)-LEN(SUBSTITUTE(A621,";",""))+1))*LEN(A621)+1,LEN(A621)+1)))</f>
+        <f t="array" aca="1" ref="B632" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A620,";",REPT(" ",LEN(A620)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A620)-LEN(SUBSTITUTE(A620,";",""))+1))*LEN(A620)+1,LEN(A620)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="633">
       <c r="B633">
-        <f t="array" aca="1" ref="B633" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A622,";",REPT(" ",LEN(A622)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A622)-LEN(SUBSTITUTE(A622,";",""))+1))*LEN(A622)+1,LEN(A622)+1)))</f>
+        <f t="array" aca="1" ref="B633" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A621,";",REPT(" ",LEN(A621)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A621)-LEN(SUBSTITUTE(A621,";",""))+1))*LEN(A621)+1,LEN(A621)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="634">
       <c r="B634">
-        <f t="array" aca="1" ref="B634" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A623,";",REPT(" ",LEN(A623)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A623)-LEN(SUBSTITUTE(A623,";",""))+1))*LEN(A623)+1,LEN(A623)+1)))</f>
+        <f t="array" aca="1" ref="B634" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A622,";",REPT(" ",LEN(A622)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A622)-LEN(SUBSTITUTE(A622,";",""))+1))*LEN(A622)+1,LEN(A622)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="635">
       <c r="B635">
-        <f t="array" aca="1" ref="B635" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A624,";",REPT(" ",LEN(A624)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A624)-LEN(SUBSTITUTE(A624,";",""))+1))*LEN(A624)+1,LEN(A624)+1)))</f>
+        <f t="array" aca="1" ref="B635" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A623,";",REPT(" ",LEN(A623)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A623)-LEN(SUBSTITUTE(A623,";",""))+1))*LEN(A623)+1,LEN(A623)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="636">
       <c r="B636">
-        <f t="array" aca="1" ref="B636" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A625,";",REPT(" ",LEN(A625)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A625)-LEN(SUBSTITUTE(A625,";",""))+1))*LEN(A625)+1,LEN(A625)+1)))</f>
+        <f t="array" aca="1" ref="B636" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A624,";",REPT(" ",LEN(A624)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A624)-LEN(SUBSTITUTE(A624,";",""))+1))*LEN(A624)+1,LEN(A624)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="637">
       <c r="B637">
-        <f t="array" aca="1" ref="B637" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A626,";",REPT(" ",LEN(A626)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A626)-LEN(SUBSTITUTE(A626,";",""))+1))*LEN(A626)+1,LEN(A626)+1)))</f>
+        <f t="array" aca="1" ref="B637" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A625,";",REPT(" ",LEN(A625)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A625)-LEN(SUBSTITUTE(A625,";",""))+1))*LEN(A625)+1,LEN(A625)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="638">
       <c r="B638">
-        <f t="array" aca="1" ref="B638" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A627,";",REPT(" ",LEN(A627)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A627)-LEN(SUBSTITUTE(A627,";",""))+1))*LEN(A627)+1,LEN(A627)+1)))</f>
+        <f t="array" aca="1" ref="B638" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A626,";",REPT(" ",LEN(A626)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A626)-LEN(SUBSTITUTE(A626,";",""))+1))*LEN(A626)+1,LEN(A626)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="639">
       <c r="B639">
-        <f t="array" aca="1" ref="B639" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A628,";",REPT(" ",LEN(A628)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A628)-LEN(SUBSTITUTE(A628,";",""))+1))*LEN(A628)+1,LEN(A628)+1)))</f>
+        <f t="array" aca="1" ref="B639" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A627,";",REPT(" ",LEN(A627)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A627)-LEN(SUBSTITUTE(A627,";",""))+1))*LEN(A627)+1,LEN(A627)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="640">
       <c r="B640">
-        <f t="array" aca="1" ref="B640" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A629,";",REPT(" ",LEN(A629)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A629)-LEN(SUBSTITUTE(A629,";",""))+1))*LEN(A629)+1,LEN(A629)+1)))</f>
+        <f t="array" aca="1" ref="B640" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A628,";",REPT(" ",LEN(A628)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A628)-LEN(SUBSTITUTE(A628,";",""))+1))*LEN(A628)+1,LEN(A628)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="641">
       <c r="B641">
-        <f t="array" aca="1" ref="B641" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A630,";",REPT(" ",LEN(A630)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A630)-LEN(SUBSTITUTE(A630,";",""))+1))*LEN(A630)+1,LEN(A630)+1)))</f>
+        <f t="array" aca="1" ref="B641" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A629,";",REPT(" ",LEN(A629)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A629)-LEN(SUBSTITUTE(A629,";",""))+1))*LEN(A629)+1,LEN(A629)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="642">
       <c r="B642">
-        <f t="array" aca="1" ref="B642" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A631,";",REPT(" ",LEN(A631)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A631)-LEN(SUBSTITUTE(A631,";",""))+1))*LEN(A631)+1,LEN(A631)+1)))</f>
+        <f t="array" aca="1" ref="B642" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A630,";",REPT(" ",LEN(A630)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A630)-LEN(SUBSTITUTE(A630,";",""))+1))*LEN(A630)+1,LEN(A630)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="643">
       <c r="B643">
-        <f t="array" aca="1" ref="B643" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A632,";",REPT(" ",LEN(A632)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A632)-LEN(SUBSTITUTE(A632,";",""))+1))*LEN(A632)+1,LEN(A632)+1)))</f>
+        <f t="array" aca="1" ref="B643" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A631,";",REPT(" ",LEN(A631)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A631)-LEN(SUBSTITUTE(A631,";",""))+1))*LEN(A631)+1,LEN(A631)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="644">
       <c r="B644">
-        <f t="array" aca="1" ref="B644" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A633,";",REPT(" ",LEN(A633)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A633)-LEN(SUBSTITUTE(A633,";",""))+1))*LEN(A633)+1,LEN(A633)+1)))</f>
+        <f t="array" aca="1" ref="B644" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A632,";",REPT(" ",LEN(A632)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A632)-LEN(SUBSTITUTE(A632,";",""))+1))*LEN(A632)+1,LEN(A632)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="645">
       <c r="B645">
-        <f t="array" aca="1" ref="B645" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A634,";",REPT(" ",LEN(A634)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A634)-LEN(SUBSTITUTE(A634,";",""))+1))*LEN(A634)+1,LEN(A634)+1)))</f>
+        <f t="array" aca="1" ref="B645" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A633,";",REPT(" ",LEN(A633)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A633)-LEN(SUBSTITUTE(A633,";",""))+1))*LEN(A633)+1,LEN(A633)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="646">
       <c r="B646">
-        <f t="array" aca="1" ref="B646" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A635,";",REPT(" ",LEN(A635)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A635)-LEN(SUBSTITUTE(A635,";",""))+1))*LEN(A635)+1,LEN(A635)+1)))</f>
+        <f t="array" aca="1" ref="B646" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A634,";",REPT(" ",LEN(A634)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A634)-LEN(SUBSTITUTE(A634,";",""))+1))*LEN(A634)+1,LEN(A634)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="647">
       <c r="B647">
-        <f t="array" aca="1" ref="B647" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A636,";",REPT(" ",LEN(A636)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A636)-LEN(SUBSTITUTE(A636,";",""))+1))*LEN(A636)+1,LEN(A636)+1)))</f>
+        <f t="array" aca="1" ref="B647" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A635,";",REPT(" ",LEN(A635)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A635)-LEN(SUBSTITUTE(A635,";",""))+1))*LEN(A635)+1,LEN(A635)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="648">
       <c r="B648">
-        <f t="array" aca="1" ref="B648" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A637,";",REPT(" ",LEN(A637)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A637)-LEN(SUBSTITUTE(A637,";",""))+1))*LEN(A637)+1,LEN(A637)+1)))</f>
+        <f t="array" aca="1" ref="B648" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A636,";",REPT(" ",LEN(A636)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A636)-LEN(SUBSTITUTE(A636,";",""))+1))*LEN(A636)+1,LEN(A636)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="649">
       <c r="B649">
-        <f t="array" aca="1" ref="B649" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A638,";",REPT(" ",LEN(A638)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A638)-LEN(SUBSTITUTE(A638,";",""))+1))*LEN(A638)+1,LEN(A638)+1)))</f>
+        <f t="array" aca="1" ref="B649" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A637,";",REPT(" ",LEN(A637)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A637)-LEN(SUBSTITUTE(A637,";",""))+1))*LEN(A637)+1,LEN(A637)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="650">
       <c r="B650">
-        <f t="array" aca="1" ref="B650" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A639,";",REPT(" ",LEN(A639)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A639)-LEN(SUBSTITUTE(A639,";",""))+1))*LEN(A639)+1,LEN(A639)+1)))</f>
+        <f t="array" aca="1" ref="B650" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A638,";",REPT(" ",LEN(A638)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A638)-LEN(SUBSTITUTE(A638,";",""))+1))*LEN(A638)+1,LEN(A638)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="651">
       <c r="B651">
-        <f t="array" aca="1" ref="B651" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A640,";",REPT(" ",LEN(A640)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A640)-LEN(SUBSTITUTE(A640,";",""))+1))*LEN(A640)+1,LEN(A640)+1)))</f>
+        <f t="array" aca="1" ref="B651" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A639,";",REPT(" ",LEN(A639)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A639)-LEN(SUBSTITUTE(A639,";",""))+1))*LEN(A639)+1,LEN(A639)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="652">
       <c r="B652">
-        <f t="array" aca="1" ref="B652" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A641,";",REPT(" ",LEN(A641)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A641)-LEN(SUBSTITUTE(A641,";",""))+1))*LEN(A641)+1,LEN(A641)+1)))</f>
+        <f t="array" aca="1" ref="B652" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A640,";",REPT(" ",LEN(A640)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A640)-LEN(SUBSTITUTE(A640,";",""))+1))*LEN(A640)+1,LEN(A640)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="653">
       <c r="B653">
-        <f t="array" aca="1" ref="B653" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A642,";",REPT(" ",LEN(A642)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A642)-LEN(SUBSTITUTE(A642,";",""))+1))*LEN(A642)+1,LEN(A642)+1)))</f>
+        <f t="array" aca="1" ref="B653" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A641,";",REPT(" ",LEN(A641)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A641)-LEN(SUBSTITUTE(A641,";",""))+1))*LEN(A641)+1,LEN(A641)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="654">
       <c r="B654">
-        <f t="array" aca="1" ref="B654" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A643,";",REPT(" ",LEN(A643)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A643)-LEN(SUBSTITUTE(A643,";",""))+1))*LEN(A643)+1,LEN(A643)+1)))</f>
+        <f t="array" aca="1" ref="B654" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A642,";",REPT(" ",LEN(A642)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A642)-LEN(SUBSTITUTE(A642,";",""))+1))*LEN(A642)+1,LEN(A642)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="655">
       <c r="B655">
-        <f t="array" aca="1" ref="B655" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A644,";",REPT(" ",LEN(A644)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A644)-LEN(SUBSTITUTE(A644,";",""))+1))*LEN(A644)+1,LEN(A644)+1)))</f>
+        <f t="array" aca="1" ref="B655" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A643,";",REPT(" ",LEN(A643)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A643)-LEN(SUBSTITUTE(A643,";",""))+1))*LEN(A643)+1,LEN(A643)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="656">
       <c r="B656">
-        <f t="array" aca="1" ref="B656" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A645,";",REPT(" ",LEN(A645)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A645)-LEN(SUBSTITUTE(A645,";",""))+1))*LEN(A645)+1,LEN(A645)+1)))</f>
+        <f t="array" aca="1" ref="B656" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A644,";",REPT(" ",LEN(A644)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A644)-LEN(SUBSTITUTE(A644,";",""))+1))*LEN(A644)+1,LEN(A644)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="657">
       <c r="B657">
-        <f t="array" aca="1" ref="B657" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A646,";",REPT(" ",LEN(A646)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A646)-LEN(SUBSTITUTE(A646,";",""))+1))*LEN(A646)+1,LEN(A646)+1)))</f>
+        <f t="array" aca="1" ref="B657" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A645,";",REPT(" ",LEN(A645)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A645)-LEN(SUBSTITUTE(A645,";",""))+1))*LEN(A645)+1,LEN(A645)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="658">
       <c r="B658">
-        <f t="array" aca="1" ref="B658" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A647,";",REPT(" ",LEN(A647)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A647)-LEN(SUBSTITUTE(A647,";",""))+1))*LEN(A647)+1,LEN(A647)+1)))</f>
+        <f t="array" aca="1" ref="B658" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A646,";",REPT(" ",LEN(A646)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A646)-LEN(SUBSTITUTE(A646,";",""))+1))*LEN(A646)+1,LEN(A646)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="659">
       <c r="B659">
-        <f t="array" aca="1" ref="B659" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A648,";",REPT(" ",LEN(A648)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A648)-LEN(SUBSTITUTE(A648,";",""))+1))*LEN(A648)+1,LEN(A648)+1)))</f>
+        <f t="array" aca="1" ref="B659" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A647,";",REPT(" ",LEN(A647)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A647)-LEN(SUBSTITUTE(A647,";",""))+1))*LEN(A647)+1,LEN(A647)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="660">
       <c r="B660">
-        <f t="array" aca="1" ref="B660" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A649,";",REPT(" ",LEN(A649)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A649)-LEN(SUBSTITUTE(A649,";",""))+1))*LEN(A649)+1,LEN(A649)+1)))</f>
+        <f t="array" aca="1" ref="B660" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A648,";",REPT(" ",LEN(A648)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A648)-LEN(SUBSTITUTE(A648,";",""))+1))*LEN(A648)+1,LEN(A648)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="661">
       <c r="B661">
-        <f t="array" aca="1" ref="B661" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A650,";",REPT(" ",LEN(A650)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A650)-LEN(SUBSTITUTE(A650,";",""))+1))*LEN(A650)+1,LEN(A650)+1)))</f>
+        <f t="array" aca="1" ref="B661" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A649,";",REPT(" ",LEN(A649)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A649)-LEN(SUBSTITUTE(A649,";",""))+1))*LEN(A649)+1,LEN(A649)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="662">
       <c r="B662">
-        <f t="array" aca="1" ref="B662" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A651,";",REPT(" ",LEN(A651)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A651)-LEN(SUBSTITUTE(A651,";",""))+1))*LEN(A651)+1,LEN(A651)+1)))</f>
+        <f t="array" aca="1" ref="B662" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A650,";",REPT(" ",LEN(A650)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A650)-LEN(SUBSTITUTE(A650,";",""))+1))*LEN(A650)+1,LEN(A650)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="663">
       <c r="B663">
-        <f t="array" aca="1" ref="B663" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A652,";",REPT(" ",LEN(A652)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A652)-LEN(SUBSTITUTE(A652,";",""))+1))*LEN(A652)+1,LEN(A652)+1)))</f>
+        <f t="array" aca="1" ref="B663" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A651,";",REPT(" ",LEN(A651)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A651)-LEN(SUBSTITUTE(A651,";",""))+1))*LEN(A651)+1,LEN(A651)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="664">
       <c r="B664">
-        <f t="array" aca="1" ref="B664" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A653,";",REPT(" ",LEN(A653)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A653)-LEN(SUBSTITUTE(A653,";",""))+1))*LEN(A653)+1,LEN(A653)+1)))</f>
+        <f t="array" aca="1" ref="B664" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A652,";",REPT(" ",LEN(A652)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A652)-LEN(SUBSTITUTE(A652,";",""))+1))*LEN(A652)+1,LEN(A652)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="665">
       <c r="B665">
-        <f t="array" aca="1" ref="B665" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A654,";",REPT(" ",LEN(A654)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A654)-LEN(SUBSTITUTE(A654,";",""))+1))*LEN(A654)+1,LEN(A654)+1)))</f>
+        <f t="array" aca="1" ref="B665" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A653,";",REPT(" ",LEN(A653)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A653)-LEN(SUBSTITUTE(A653,";",""))+1))*LEN(A653)+1,LEN(A653)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="666">
       <c r="B666">
-        <f t="array" aca="1" ref="B666" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A655,";",REPT(" ",LEN(A655)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A655)-LEN(SUBSTITUTE(A655,";",""))+1))*LEN(A655)+1,LEN(A655)+1)))</f>
+        <f t="array" aca="1" ref="B666" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A654,";",REPT(" ",LEN(A654)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A654)-LEN(SUBSTITUTE(A654,";",""))+1))*LEN(A654)+1,LEN(A654)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="667">
       <c r="B667">
-        <f t="array" aca="1" ref="B667" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A656,";",REPT(" ",LEN(A656)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A656)-LEN(SUBSTITUTE(A656,";",""))+1))*LEN(A656)+1,LEN(A656)+1)))</f>
+        <f t="array" aca="1" ref="B667" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A655,";",REPT(" ",LEN(A655)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A655)-LEN(SUBSTITUTE(A655,";",""))+1))*LEN(A655)+1,LEN(A655)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="668">
       <c r="B668">
-        <f t="array" aca="1" ref="B668" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A657,";",REPT(" ",LEN(A657)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A657)-LEN(SUBSTITUTE(A657,";",""))+1))*LEN(A657)+1,LEN(A657)+1)))</f>
+        <f t="array" aca="1" ref="B668" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A656,";",REPT(" ",LEN(A656)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A656)-LEN(SUBSTITUTE(A656,";",""))+1))*LEN(A656)+1,LEN(A656)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="669">
       <c r="B669">
-        <f t="array" aca="1" ref="B669" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A658,";",REPT(" ",LEN(A658)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A658)-LEN(SUBSTITUTE(A658,";",""))+1))*LEN(A658)+1,LEN(A658)+1)))</f>
+        <f t="array" aca="1" ref="B669" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A657,";",REPT(" ",LEN(A657)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A657)-LEN(SUBSTITUTE(A657,";",""))+1))*LEN(A657)+1,LEN(A657)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="670">
       <c r="B670">
-        <f t="array" aca="1" ref="B670" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A659,";",REPT(" ",LEN(A659)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A659)-LEN(SUBSTITUTE(A659,";",""))+1))*LEN(A659)+1,LEN(A659)+1)))</f>
+        <f t="array" aca="1" ref="B670" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A658,";",REPT(" ",LEN(A658)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A658)-LEN(SUBSTITUTE(A658,";",""))+1))*LEN(A658)+1,LEN(A658)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="671">
       <c r="B671">
-        <f t="array" aca="1" ref="B671" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A660,";",REPT(" ",LEN(A660)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A660)-LEN(SUBSTITUTE(A660,";",""))+1))*LEN(A660)+1,LEN(A660)+1)))</f>
+        <f t="array" aca="1" ref="B671" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A659,";",REPT(" ",LEN(A659)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A659)-LEN(SUBSTITUTE(A659,";",""))+1))*LEN(A659)+1,LEN(A659)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="672">
       <c r="B672">
-        <f t="array" aca="1" ref="B672" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A661,";",REPT(" ",LEN(A661)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A661)-LEN(SUBSTITUTE(A661,";",""))+1))*LEN(A661)+1,LEN(A661)+1)))</f>
+        <f t="array" aca="1" ref="B672" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A660,";",REPT(" ",LEN(A660)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A660)-LEN(SUBSTITUTE(A660,";",""))+1))*LEN(A660)+1,LEN(A660)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="673">
       <c r="B673">
-        <f t="array" aca="1" ref="B673" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A662,";",REPT(" ",LEN(A662)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A662)-LEN(SUBSTITUTE(A662,";",""))+1))*LEN(A662)+1,LEN(A662)+1)))</f>
+        <f t="array" aca="1" ref="B673" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A661,";",REPT(" ",LEN(A661)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A661)-LEN(SUBSTITUTE(A661,";",""))+1))*LEN(A661)+1,LEN(A661)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="674">
       <c r="B674">
-        <f t="array" aca="1" ref="B674" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A663,";",REPT(" ",LEN(A663)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A663)-LEN(SUBSTITUTE(A663,";",""))+1))*LEN(A663)+1,LEN(A663)+1)))</f>
+        <f t="array" aca="1" ref="B674" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A662,";",REPT(" ",LEN(A662)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A662)-LEN(SUBSTITUTE(A662,";",""))+1))*LEN(A662)+1,LEN(A662)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="675">
       <c r="B675">
-        <f t="array" aca="1" ref="B675" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A664,";",REPT(" ",LEN(A664)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A664)-LEN(SUBSTITUTE(A664,";",""))+1))*LEN(A664)+1,LEN(A664)+1)))</f>
+        <f t="array" aca="1" ref="B675" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A663,";",REPT(" ",LEN(A663)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A663)-LEN(SUBSTITUTE(A663,";",""))+1))*LEN(A663)+1,LEN(A663)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="676">
       <c r="B676">
-        <f t="array" aca="1" ref="B676" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A665,";",REPT(" ",LEN(A665)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A665)-LEN(SUBSTITUTE(A665,";",""))+1))*LEN(A665)+1,LEN(A665)+1)))</f>
+        <f t="array" aca="1" ref="B676" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A664,";",REPT(" ",LEN(A664)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A664)-LEN(SUBSTITUTE(A664,";",""))+1))*LEN(A664)+1,LEN(A664)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="677">
       <c r="B677">
-        <f t="array" aca="1" ref="B677" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A666,";",REPT(" ",LEN(A666)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A666)-LEN(SUBSTITUTE(A666,";",""))+1))*LEN(A666)+1,LEN(A666)+1)))</f>
+        <f t="array" aca="1" ref="B677" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A665,";",REPT(" ",LEN(A665)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A665)-LEN(SUBSTITUTE(A665,";",""))+1))*LEN(A665)+1,LEN(A665)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="678">
       <c r="B678">
-        <f t="array" aca="1" ref="B678" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A667,";",REPT(" ",LEN(A667)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A667)-LEN(SUBSTITUTE(A667,";",""))+1))*LEN(A667)+1,LEN(A667)+1)))</f>
+        <f t="array" aca="1" ref="B678" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A666,";",REPT(" ",LEN(A666)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A666)-LEN(SUBSTITUTE(A666,";",""))+1))*LEN(A666)+1,LEN(A666)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="679">
       <c r="B679">
-        <f t="array" aca="1" ref="B679" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A668,";",REPT(" ",LEN(A668)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A668)-LEN(SUBSTITUTE(A668,";",""))+1))*LEN(A668)+1,LEN(A668)+1)))</f>
+        <f t="array" aca="1" ref="B679" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A667,";",REPT(" ",LEN(A667)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A667)-LEN(SUBSTITUTE(A667,";",""))+1))*LEN(A667)+1,LEN(A667)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="680">
       <c r="B680">
-        <f t="array" aca="1" ref="B680" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A669,";",REPT(" ",LEN(A669)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A669)-LEN(SUBSTITUTE(A669,";",""))+1))*LEN(A669)+1,LEN(A669)+1)))</f>
+        <f t="array" aca="1" ref="B680" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A668,";",REPT(" ",LEN(A668)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A668)-LEN(SUBSTITUTE(A668,";",""))+1))*LEN(A668)+1,LEN(A668)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="681">
       <c r="B681">
-        <f t="array" aca="1" ref="B681" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A670,";",REPT(" ",LEN(A670)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A670)-LEN(SUBSTITUTE(A670,";",""))+1))*LEN(A670)+1,LEN(A670)+1)))</f>
+        <f t="array" aca="1" ref="B681" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A669,";",REPT(" ",LEN(A669)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A669)-LEN(SUBSTITUTE(A669,";",""))+1))*LEN(A669)+1,LEN(A669)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="682">
       <c r="B682">
-        <f t="array" aca="1" ref="B682" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A671,";",REPT(" ",LEN(A671)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A671)-LEN(SUBSTITUTE(A671,";",""))+1))*LEN(A671)+1,LEN(A671)+1)))</f>
+        <f t="array" aca="1" ref="B682" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A670,";",REPT(" ",LEN(A670)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A670)-LEN(SUBSTITUTE(A670,";",""))+1))*LEN(A670)+1,LEN(A670)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="683">
       <c r="B683">
-        <f t="array" aca="1" ref="B683" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A672,";",REPT(" ",LEN(A672)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A672)-LEN(SUBSTITUTE(A672,";",""))+1))*LEN(A672)+1,LEN(A672)+1)))</f>
+        <f t="array" aca="1" ref="B683" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A671,";",REPT(" ",LEN(A671)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A671)-LEN(SUBSTITUTE(A671,";",""))+1))*LEN(A671)+1,LEN(A671)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="684">
       <c r="B684">
-        <f t="array" aca="1" ref="B684" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A673,";",REPT(" ",LEN(A673)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A673)-LEN(SUBSTITUTE(A673,";",""))+1))*LEN(A673)+1,LEN(A673)+1)))</f>
+        <f t="array" aca="1" ref="B684" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A672,";",REPT(" ",LEN(A672)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A672)-LEN(SUBSTITUTE(A672,";",""))+1))*LEN(A672)+1,LEN(A672)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="685">
       <c r="B685">
-        <f t="array" aca="1" ref="B685" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A674,";",REPT(" ",LEN(A674)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A674)-LEN(SUBSTITUTE(A674,";",""))+1))*LEN(A674)+1,LEN(A674)+1)))</f>
+        <f t="array" aca="1" ref="B685" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A673,";",REPT(" ",LEN(A673)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A673)-LEN(SUBSTITUTE(A673,";",""))+1))*LEN(A673)+1,LEN(A673)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="686">
       <c r="B686">
-        <f t="array" aca="1" ref="B686" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A675,";",REPT(" ",LEN(A675)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A675)-LEN(SUBSTITUTE(A675,";",""))+1))*LEN(A675)+1,LEN(A675)+1)))</f>
+        <f t="array" aca="1" ref="B686" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A674,";",REPT(" ",LEN(A674)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A674)-LEN(SUBSTITUTE(A674,";",""))+1))*LEN(A674)+1,LEN(A674)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="687">
       <c r="B687">
-        <f t="array" aca="1" ref="B687" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A676,";",REPT(" ",LEN(A676)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A676)-LEN(SUBSTITUTE(A676,";",""))+1))*LEN(A676)+1,LEN(A676)+1)))</f>
+        <f t="array" aca="1" ref="B687" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A675,";",REPT(" ",LEN(A675)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A675)-LEN(SUBSTITUTE(A675,";",""))+1))*LEN(A675)+1,LEN(A675)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="688">
       <c r="B688">
-        <f t="array" aca="1" ref="B688" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A677,";",REPT(" ",LEN(A677)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A677)-LEN(SUBSTITUTE(A677,";",""))+1))*LEN(A677)+1,LEN(A677)+1)))</f>
+        <f t="array" aca="1" ref="B688" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A676,";",REPT(" ",LEN(A676)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A676)-LEN(SUBSTITUTE(A676,";",""))+1))*LEN(A676)+1,LEN(A676)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="689">
       <c r="B689">
-        <f t="array" aca="1" ref="B689" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A678,";",REPT(" ",LEN(A678)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A678)-LEN(SUBSTITUTE(A678,";",""))+1))*LEN(A678)+1,LEN(A678)+1)))</f>
+        <f t="array" aca="1" ref="B689" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A677,";",REPT(" ",LEN(A677)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A677)-LEN(SUBSTITUTE(A677,";",""))+1))*LEN(A677)+1,LEN(A677)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="690">
       <c r="B690">
-        <f t="array" aca="1" ref="B690" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A679,";",REPT(" ",LEN(A679)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A679)-LEN(SUBSTITUTE(A679,";",""))+1))*LEN(A679)+1,LEN(A679)+1)))</f>
+        <f t="array" aca="1" ref="B690" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A678,";",REPT(" ",LEN(A678)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A678)-LEN(SUBSTITUTE(A678,";",""))+1))*LEN(A678)+1,LEN(A678)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="691">
       <c r="B691">
-        <f t="array" aca="1" ref="B691" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A680,";",REPT(" ",LEN(A680)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A680)-LEN(SUBSTITUTE(A680,";",""))+1))*LEN(A680)+1,LEN(A680)+1)))</f>
+        <f t="array" aca="1" ref="B691" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A679,";",REPT(" ",LEN(A679)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A679)-LEN(SUBSTITUTE(A679,";",""))+1))*LEN(A679)+1,LEN(A679)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="692">
       <c r="B692">
-        <f t="array" aca="1" ref="B692" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A681,";",REPT(" ",LEN(A681)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A681)-LEN(SUBSTITUTE(A681,";",""))+1))*LEN(A681)+1,LEN(A681)+1)))</f>
+        <f t="array" aca="1" ref="B692" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A680,";",REPT(" ",LEN(A680)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A680)-LEN(SUBSTITUTE(A680,";",""))+1))*LEN(A680)+1,LEN(A680)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="693">
       <c r="B693">
-        <f t="array" aca="1" ref="B693" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A682,";",REPT(" ",LEN(A682)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A682)-LEN(SUBSTITUTE(A682,";",""))+1))*LEN(A682)+1,LEN(A682)+1)))</f>
+        <f t="array" aca="1" ref="B693" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A681,";",REPT(" ",LEN(A681)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A681)-LEN(SUBSTITUTE(A681,";",""))+1))*LEN(A681)+1,LEN(A681)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="694">
       <c r="B694">
-        <f t="array" aca="1" ref="B694" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A683,";",REPT(" ",LEN(A683)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A683)-LEN(SUBSTITUTE(A683,";",""))+1))*LEN(A683)+1,LEN(A683)+1)))</f>
+        <f t="array" aca="1" ref="B694" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A682,";",REPT(" ",LEN(A682)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A682)-LEN(SUBSTITUTE(A682,";",""))+1))*LEN(A682)+1,LEN(A682)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="695">
       <c r="B695">
-        <f t="array" aca="1" ref="B695" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A684,";",REPT(" ",LEN(A684)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A684)-LEN(SUBSTITUTE(A684,";",""))+1))*LEN(A684)+1,LEN(A684)+1)))</f>
+        <f t="array" aca="1" ref="B695" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A683,";",REPT(" ",LEN(A683)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A683)-LEN(SUBSTITUTE(A683,";",""))+1))*LEN(A683)+1,LEN(A683)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="696">
       <c r="B696">
-        <f t="array" aca="1" ref="B696" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A685,";",REPT(" ",LEN(A685)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A685)-LEN(SUBSTITUTE(A685,";",""))+1))*LEN(A685)+1,LEN(A685)+1)))</f>
+        <f t="array" aca="1" ref="B696" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A684,";",REPT(" ",LEN(A684)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A684)-LEN(SUBSTITUTE(A684,";",""))+1))*LEN(A684)+1,LEN(A684)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="697">
       <c r="B697">
-        <f t="array" aca="1" ref="B697" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A686,";",REPT(" ",LEN(A686)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A686)-LEN(SUBSTITUTE(A686,";",""))+1))*LEN(A686)+1,LEN(A686)+1)))</f>
+        <f t="array" aca="1" ref="B697" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A685,";",REPT(" ",LEN(A685)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A685)-LEN(SUBSTITUTE(A685,";",""))+1))*LEN(A685)+1,LEN(A685)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="698">
       <c r="B698">
-        <f t="array" aca="1" ref="B698" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A687,";",REPT(" ",LEN(A687)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A687)-LEN(SUBSTITUTE(A687,";",""))+1))*LEN(A687)+1,LEN(A687)+1)))</f>
+        <f t="array" aca="1" ref="B698" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A686,";",REPT(" ",LEN(A686)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A686)-LEN(SUBSTITUTE(A686,";",""))+1))*LEN(A686)+1,LEN(A686)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="699">
       <c r="B699">
-        <f t="array" aca="1" ref="B699" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A688,";",REPT(" ",LEN(A688)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A688)-LEN(SUBSTITUTE(A688,";",""))+1))*LEN(A688)+1,LEN(A688)+1)))</f>
+        <f t="array" aca="1" ref="B699" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A687,";",REPT(" ",LEN(A687)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A687)-LEN(SUBSTITUTE(A687,";",""))+1))*LEN(A687)+1,LEN(A687)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="700">
       <c r="B700">
-        <f t="array" aca="1" ref="B700" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A689,";",REPT(" ",LEN(A689)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A689)-LEN(SUBSTITUTE(A689,";",""))+1))*LEN(A689)+1,LEN(A689)+1)))</f>
+        <f t="array" aca="1" ref="B700" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A688,";",REPT(" ",LEN(A688)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A688)-LEN(SUBSTITUTE(A688,";",""))+1))*LEN(A688)+1,LEN(A688)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="701">
       <c r="B701">
-        <f t="array" aca="1" ref="B701" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A690,";",REPT(" ",LEN(A690)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A690)-LEN(SUBSTITUTE(A690,";",""))+1))*LEN(A690)+1,LEN(A690)+1)))</f>
+        <f t="array" aca="1" ref="B701" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A689,";",REPT(" ",LEN(A689)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A689)-LEN(SUBSTITUTE(A689,";",""))+1))*LEN(A689)+1,LEN(A689)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="702">
       <c r="B702">
-        <f t="array" aca="1" ref="B702" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A691,";",REPT(" ",LEN(A691)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A691)-LEN(SUBSTITUTE(A691,";",""))+1))*LEN(A691)+1,LEN(A691)+1)))</f>
+        <f t="array" aca="1" ref="B702" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A690,";",REPT(" ",LEN(A690)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A690)-LEN(SUBSTITUTE(A690,";",""))+1))*LEN(A690)+1,LEN(A690)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="703">
       <c r="B703">
-        <f t="array" aca="1" ref="B703" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A692,";",REPT(" ",LEN(A692)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A692)-LEN(SUBSTITUTE(A692,";",""))+1))*LEN(A692)+1,LEN(A692)+1)))</f>
+        <f t="array" aca="1" ref="B703" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A691,";",REPT(" ",LEN(A691)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A691)-LEN(SUBSTITUTE(A691,";",""))+1))*LEN(A691)+1,LEN(A691)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="704">
       <c r="B704">
-        <f t="array" aca="1" ref="B704" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A693,";",REPT(" ",LEN(A693)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A693)-LEN(SUBSTITUTE(A693,";",""))+1))*LEN(A693)+1,LEN(A693)+1)))</f>
+        <f t="array" aca="1" ref="B704" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A692,";",REPT(" ",LEN(A692)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A692)-LEN(SUBSTITUTE(A692,";",""))+1))*LEN(A692)+1,LEN(A692)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="705">
       <c r="B705">
-        <f t="array" aca="1" ref="B705" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A694,";",REPT(" ",LEN(A694)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A694)-LEN(SUBSTITUTE(A694,";",""))+1))*LEN(A694)+1,LEN(A694)+1)))</f>
+        <f t="array" aca="1" ref="B705" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A693,";",REPT(" ",LEN(A693)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A693)-LEN(SUBSTITUTE(A693,";",""))+1))*LEN(A693)+1,LEN(A693)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="706">
       <c r="B706">
-        <f t="array" aca="1" ref="B706" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A695,";",REPT(" ",LEN(A695)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A695)-LEN(SUBSTITUTE(A695,";",""))+1))*LEN(A695)+1,LEN(A695)+1)))</f>
+        <f t="array" aca="1" ref="B706" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A694,";",REPT(" ",LEN(A694)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A694)-LEN(SUBSTITUTE(A694,";",""))+1))*LEN(A694)+1,LEN(A694)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="707">
       <c r="B707">
-        <f t="array" aca="1" ref="B707" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A696,";",REPT(" ",LEN(A696)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A696)-LEN(SUBSTITUTE(A696,";",""))+1))*LEN(A696)+1,LEN(A696)+1)))</f>
+        <f t="array" aca="1" ref="B707" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A695,";",REPT(" ",LEN(A695)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A695)-LEN(SUBSTITUTE(A695,";",""))+1))*LEN(A695)+1,LEN(A695)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="708">
       <c r="B708">
-        <f t="array" aca="1" ref="B708" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A697,";",REPT(" ",LEN(A697)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A697)-LEN(SUBSTITUTE(A697,";",""))+1))*LEN(A697)+1,LEN(A697)+1)))</f>
+        <f t="array" aca="1" ref="B708" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A696,";",REPT(" ",LEN(A696)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A696)-LEN(SUBSTITUTE(A696,";",""))+1))*LEN(A696)+1,LEN(A696)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="709">
       <c r="B709">
-        <f t="array" aca="1" ref="B709" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A698,";",REPT(" ",LEN(A698)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A698)-LEN(SUBSTITUTE(A698,";",""))+1))*LEN(A698)+1,LEN(A698)+1)))</f>
+        <f t="array" aca="1" ref="B709" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A697,";",REPT(" ",LEN(A697)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A697)-LEN(SUBSTITUTE(A697,";",""))+1))*LEN(A697)+1,LEN(A697)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="710">
       <c r="B710">
-        <f t="array" aca="1" ref="B710" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A699,";",REPT(" ",LEN(A699)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A699)-LEN(SUBSTITUTE(A699,";",""))+1))*LEN(A699)+1,LEN(A699)+1)))</f>
+        <f t="array" aca="1" ref="B710" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A698,";",REPT(" ",LEN(A698)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A698)-LEN(SUBSTITUTE(A698,";",""))+1))*LEN(A698)+1,LEN(A698)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="711">
       <c r="B711">
-        <f t="array" aca="1" ref="B711" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A700,";",REPT(" ",LEN(A700)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A700)-LEN(SUBSTITUTE(A700,";",""))+1))*LEN(A700)+1,LEN(A700)+1)))</f>
+        <f t="array" aca="1" ref="B711" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A699,";",REPT(" ",LEN(A699)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A699)-LEN(SUBSTITUTE(A699,";",""))+1))*LEN(A699)+1,LEN(A699)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="712">
       <c r="B712">
-        <f t="array" aca="1" ref="B712" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A701,";",REPT(" ",LEN(A701)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A701)-LEN(SUBSTITUTE(A701,";",""))+1))*LEN(A701)+1,LEN(A701)+1)))</f>
+        <f t="array" aca="1" ref="B712" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A700,";",REPT(" ",LEN(A700)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A700)-LEN(SUBSTITUTE(A700,";",""))+1))*LEN(A700)+1,LEN(A700)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="713">
       <c r="B713">
-        <f t="array" aca="1" ref="B713" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A702,";",REPT(" ",LEN(A702)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A702)-LEN(SUBSTITUTE(A702,";",""))+1))*LEN(A702)+1,LEN(A702)+1)))</f>
+        <f t="array" aca="1" ref="B713" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A701,";",REPT(" ",LEN(A701)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A701)-LEN(SUBSTITUTE(A701,";",""))+1))*LEN(A701)+1,LEN(A701)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="714">
       <c r="B714">
-        <f t="array" aca="1" ref="B714" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A703,";",REPT(" ",LEN(A703)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A703)-LEN(SUBSTITUTE(A703,";",""))+1))*LEN(A703)+1,LEN(A703)+1)))</f>
+        <f t="array" aca="1" ref="B714" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A702,";",REPT(" ",LEN(A702)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A702)-LEN(SUBSTITUTE(A702,";",""))+1))*LEN(A702)+1,LEN(A702)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="715">
       <c r="B715">
-        <f t="array" aca="1" ref="B715" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A704,";",REPT(" ",LEN(A704)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A704)-LEN(SUBSTITUTE(A704,";",""))+1))*LEN(A704)+1,LEN(A704)+1)))</f>
+        <f t="array" aca="1" ref="B715" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A703,";",REPT(" ",LEN(A703)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A703)-LEN(SUBSTITUTE(A703,";",""))+1))*LEN(A703)+1,LEN(A703)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="716">
       <c r="B716">
-        <f t="array" aca="1" ref="B716" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A705,";",REPT(" ",LEN(A705)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A705)-LEN(SUBSTITUTE(A705,";",""))+1))*LEN(A705)+1,LEN(A705)+1)))</f>
+        <f t="array" aca="1" ref="B716" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A704,";",REPT(" ",LEN(A704)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A704)-LEN(SUBSTITUTE(A704,";",""))+1))*LEN(A704)+1,LEN(A704)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="717">
       <c r="B717">
-        <f t="array" aca="1" ref="B717" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A706,";",REPT(" ",LEN(A706)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A706)-LEN(SUBSTITUTE(A706,";",""))+1))*LEN(A706)+1,LEN(A706)+1)))</f>
+        <f t="array" aca="1" ref="B717" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A705,";",REPT(" ",LEN(A705)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A705)-LEN(SUBSTITUTE(A705,";",""))+1))*LEN(A705)+1,LEN(A705)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="718">
       <c r="B718">
-        <f t="array" aca="1" ref="B718" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A707,";",REPT(" ",LEN(A707)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A707)-LEN(SUBSTITUTE(A707,";",""))+1))*LEN(A707)+1,LEN(A707)+1)))</f>
+        <f t="array" aca="1" ref="B718" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A706,";",REPT(" ",LEN(A706)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A706)-LEN(SUBSTITUTE(A706,";",""))+1))*LEN(A706)+1,LEN(A706)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="719">
       <c r="B719">
-        <f t="array" aca="1" ref="B719" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A708,";",REPT(" ",LEN(A708)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A708)-LEN(SUBSTITUTE(A708,";",""))+1))*LEN(A708)+1,LEN(A708)+1)))</f>
+        <f t="array" aca="1" ref="B719" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A707,";",REPT(" ",LEN(A707)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A707)-LEN(SUBSTITUTE(A707,";",""))+1))*LEN(A707)+1,LEN(A707)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="720">
       <c r="B720">
-        <f t="array" aca="1" ref="B720" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A709,";",REPT(" ",LEN(A709)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A709)-LEN(SUBSTITUTE(A709,";",""))+1))*LEN(A709)+1,LEN(A709)+1)))</f>
+        <f t="array" aca="1" ref="B720" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A708,";",REPT(" ",LEN(A708)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A708)-LEN(SUBSTITUTE(A708,";",""))+1))*LEN(A708)+1,LEN(A708)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="721">
       <c r="B721">
-        <f t="array" aca="1" ref="B721" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A710,";",REPT(" ",LEN(A710)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A710)-LEN(SUBSTITUTE(A710,";",""))+1))*LEN(A710)+1,LEN(A710)+1)))</f>
+        <f t="array" aca="1" ref="B721" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A709,";",REPT(" ",LEN(A709)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A709)-LEN(SUBSTITUTE(A709,";",""))+1))*LEN(A709)+1,LEN(A709)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="722">
       <c r="B722">
-        <f t="array" aca="1" ref="B722" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A711,";",REPT(" ",LEN(A711)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A711)-LEN(SUBSTITUTE(A711,";",""))+1))*LEN(A711)+1,LEN(A711)+1)))</f>
+        <f t="array" aca="1" ref="B722" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A710,";",REPT(" ",LEN(A710)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A710)-LEN(SUBSTITUTE(A710,";",""))+1))*LEN(A710)+1,LEN(A710)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="723">
       <c r="B723">
-        <f t="array" aca="1" ref="B723" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A712,";",REPT(" ",LEN(A712)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A712)-LEN(SUBSTITUTE(A712,";",""))+1))*LEN(A712)+1,LEN(A712)+1)))</f>
+        <f t="array" aca="1" ref="B723" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A711,";",REPT(" ",LEN(A711)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A711)-LEN(SUBSTITUTE(A711,";",""))+1))*LEN(A711)+1,LEN(A711)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="724">
       <c r="B724">
-        <f t="array" aca="1" ref="B724" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A713,";",REPT(" ",LEN(A713)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A713)-LEN(SUBSTITUTE(A713,";",""))+1))*LEN(A713)+1,LEN(A713)+1)))</f>
+        <f t="array" aca="1" ref="B724" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A712,";",REPT(" ",LEN(A712)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A712)-LEN(SUBSTITUTE(A712,";",""))+1))*LEN(A712)+1,LEN(A712)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="725">
       <c r="B725">
-        <f t="array" aca="1" ref="B725" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A714,";",REPT(" ",LEN(A714)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A714)-LEN(SUBSTITUTE(A714,";",""))+1))*LEN(A714)+1,LEN(A714)+1)))</f>
+        <f t="array" aca="1" ref="B725" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A713,";",REPT(" ",LEN(A713)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A713)-LEN(SUBSTITUTE(A713,";",""))+1))*LEN(A713)+1,LEN(A713)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="726">
       <c r="B726">
-        <f t="array" aca="1" ref="B726" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A715,";",REPT(" ",LEN(A715)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A715)-LEN(SUBSTITUTE(A715,";",""))+1))*LEN(A715)+1,LEN(A715)+1)))</f>
+        <f t="array" aca="1" ref="B726" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A714,";",REPT(" ",LEN(A714)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A714)-LEN(SUBSTITUTE(A714,";",""))+1))*LEN(A714)+1,LEN(A714)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="727">
       <c r="B727">
-        <f t="array" aca="1" ref="B727" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A716,";",REPT(" ",LEN(A716)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A716)-LEN(SUBSTITUTE(A716,";",""))+1))*LEN(A716)+1,LEN(A716)+1)))</f>
+        <f t="array" aca="1" ref="B727" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A715,";",REPT(" ",LEN(A715)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A715)-LEN(SUBSTITUTE(A715,";",""))+1))*LEN(A715)+1,LEN(A715)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="728">
       <c r="B728">
-        <f t="array" aca="1" ref="B728" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A717,";",REPT(" ",LEN(A717)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A717)-LEN(SUBSTITUTE(A717,";",""))+1))*LEN(A717)+1,LEN(A717)+1)))</f>
+        <f t="array" aca="1" ref="B728" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A716,";",REPT(" ",LEN(A716)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A716)-LEN(SUBSTITUTE(A716,";",""))+1))*LEN(A716)+1,LEN(A716)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="729">
       <c r="B729">
-        <f t="array" aca="1" ref="B729" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A718,";",REPT(" ",LEN(A718)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A718)-LEN(SUBSTITUTE(A718,";",""))+1))*LEN(A718)+1,LEN(A718)+1)))</f>
+        <f t="array" aca="1" ref="B729" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A717,";",REPT(" ",LEN(A717)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A717)-LEN(SUBSTITUTE(A717,";",""))+1))*LEN(A717)+1,LEN(A717)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="730">
       <c r="B730">
-        <f t="array" aca="1" ref="B730" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A719,";",REPT(" ",LEN(A719)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A719)-LEN(SUBSTITUTE(A719,";",""))+1))*LEN(A719)+1,LEN(A719)+1)))</f>
+        <f t="array" aca="1" ref="B730" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A718,";",REPT(" ",LEN(A718)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A718)-LEN(SUBSTITUTE(A718,";",""))+1))*LEN(A718)+1,LEN(A718)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="731">
       <c r="B731">
-        <f t="array" aca="1" ref="B731" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A720,";",REPT(" ",LEN(A720)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A720)-LEN(SUBSTITUTE(A720,";",""))+1))*LEN(A720)+1,LEN(A720)+1)))</f>
+        <f t="array" aca="1" ref="B731" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A719,";",REPT(" ",LEN(A719)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A719)-LEN(SUBSTITUTE(A719,";",""))+1))*LEN(A719)+1,LEN(A719)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="732">
       <c r="B732">
-        <f t="array" aca="1" ref="B732" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A721,";",REPT(" ",LEN(A721)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A721)-LEN(SUBSTITUTE(A721,";",""))+1))*LEN(A721)+1,LEN(A721)+1)))</f>
+        <f t="array" aca="1" ref="B732" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A720,";",REPT(" ",LEN(A720)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A720)-LEN(SUBSTITUTE(A720,";",""))+1))*LEN(A720)+1,LEN(A720)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="733">
       <c r="B733">
-        <f t="array" aca="1" ref="B733" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A722,";",REPT(" ",LEN(A722)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A722)-LEN(SUBSTITUTE(A722,";",""))+1))*LEN(A722)+1,LEN(A722)+1)))</f>
+        <f t="array" aca="1" ref="B733" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A721,";",REPT(" ",LEN(A721)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A721)-LEN(SUBSTITUTE(A721,";",""))+1))*LEN(A721)+1,LEN(A721)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="734">
       <c r="B734">
-        <f t="array" aca="1" ref="B734" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A723,";",REPT(" ",LEN(A723)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A723)-LEN(SUBSTITUTE(A723,";",""))+1))*LEN(A723)+1,LEN(A723)+1)))</f>
+        <f t="array" aca="1" ref="B734" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A722,";",REPT(" ",LEN(A722)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A722)-LEN(SUBSTITUTE(A722,";",""))+1))*LEN(A722)+1,LEN(A722)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="735">
       <c r="B735">
-        <f t="array" aca="1" ref="B735" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A724,";",REPT(" ",LEN(A724)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A724)-LEN(SUBSTITUTE(A724,";",""))+1))*LEN(A724)+1,LEN(A724)+1)))</f>
+        <f t="array" aca="1" ref="B735" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A723,";",REPT(" ",LEN(A723)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A723)-LEN(SUBSTITUTE(A723,";",""))+1))*LEN(A723)+1,LEN(A723)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="736">
       <c r="B736">
-        <f t="array" aca="1" ref="B736" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A725,";",REPT(" ",LEN(A725)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A725)-LEN(SUBSTITUTE(A725,";",""))+1))*LEN(A725)+1,LEN(A725)+1)))</f>
+        <f t="array" aca="1" ref="B736" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A724,";",REPT(" ",LEN(A724)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A724)-LEN(SUBSTITUTE(A724,";",""))+1))*LEN(A724)+1,LEN(A724)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="737">
       <c r="B737">
-        <f t="array" aca="1" ref="B737" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A726,";",REPT(" ",LEN(A726)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A726)-LEN(SUBSTITUTE(A726,";",""))+1))*LEN(A726)+1,LEN(A726)+1)))</f>
+        <f t="array" aca="1" ref="B737" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A725,";",REPT(" ",LEN(A725)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A725)-LEN(SUBSTITUTE(A725,";",""))+1))*LEN(A725)+1,LEN(A725)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="738">
       <c r="B738">
-        <f t="array" aca="1" ref="B738" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A727,";",REPT(" ",LEN(A727)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A727)-LEN(SUBSTITUTE(A727,";",""))+1))*LEN(A727)+1,LEN(A727)+1)))</f>
+        <f t="array" aca="1" ref="B738" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A726,";",REPT(" ",LEN(A726)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A726)-LEN(SUBSTITUTE(A726,";",""))+1))*LEN(A726)+1,LEN(A726)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="739">
       <c r="B739">
-        <f t="array" aca="1" ref="B739" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A728,";",REPT(" ",LEN(A728)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A728)-LEN(SUBSTITUTE(A728,";",""))+1))*LEN(A728)+1,LEN(A728)+1)))</f>
+        <f t="array" aca="1" ref="B739" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A727,";",REPT(" ",LEN(A727)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A727)-LEN(SUBSTITUTE(A727,";",""))+1))*LEN(A727)+1,LEN(A727)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="740">
       <c r="B740">
-        <f t="array" aca="1" ref="B740" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A729,";",REPT(" ",LEN(A729)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A729)-LEN(SUBSTITUTE(A729,";",""))+1))*LEN(A729)+1,LEN(A729)+1)))</f>
+        <f t="array" aca="1" ref="B740" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A728,";",REPT(" ",LEN(A728)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A728)-LEN(SUBSTITUTE(A728,";",""))+1))*LEN(A728)+1,LEN(A728)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="741">
       <c r="B741">
-        <f t="array" aca="1" ref="B741" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A730,";",REPT(" ",LEN(A730)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A730)-LEN(SUBSTITUTE(A730,";",""))+1))*LEN(A730)+1,LEN(A730)+1)))</f>
+        <f t="array" aca="1" ref="B741" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A729,";",REPT(" ",LEN(A729)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A729)-LEN(SUBSTITUTE(A729,";",""))+1))*LEN(A729)+1,LEN(A729)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="742">
       <c r="B742">
-        <f t="array" aca="1" ref="B742" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A731,";",REPT(" ",LEN(A731)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A731)-LEN(SUBSTITUTE(A731,";",""))+1))*LEN(A731)+1,LEN(A731)+1)))</f>
+        <f t="array" aca="1" ref="B742" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A730,";",REPT(" ",LEN(A730)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A730)-LEN(SUBSTITUTE(A730,";",""))+1))*LEN(A730)+1,LEN(A730)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="743">
       <c r="B743">
-        <f t="array" aca="1" ref="B743" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A732,";",REPT(" ",LEN(A732)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A732)-LEN(SUBSTITUTE(A732,";",""))+1))*LEN(A732)+1,LEN(A732)+1)))</f>
+        <f t="array" aca="1" ref="B743" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A731,";",REPT(" ",LEN(A731)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A731)-LEN(SUBSTITUTE(A731,";",""))+1))*LEN(A731)+1,LEN(A731)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="744">
       <c r="B744">
-        <f t="array" aca="1" ref="B744" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A733,";",REPT(" ",LEN(A733)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A733)-LEN(SUBSTITUTE(A733,";",""))+1))*LEN(A733)+1,LEN(A733)+1)))</f>
+        <f t="array" aca="1" ref="B744" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A732,";",REPT(" ",LEN(A732)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A732)-LEN(SUBSTITUTE(A732,";",""))+1))*LEN(A732)+1,LEN(A732)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="745">
       <c r="B745">
-        <f t="array" aca="1" ref="B745" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A734,";",REPT(" ",LEN(A734)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A734)-LEN(SUBSTITUTE(A734,";",""))+1))*LEN(A734)+1,LEN(A734)+1)))</f>
+        <f t="array" aca="1" ref="B745" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A733,";",REPT(" ",LEN(A733)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A733)-LEN(SUBSTITUTE(A733,";",""))+1))*LEN(A733)+1,LEN(A733)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="746">
       <c r="B746">
-        <f t="array" aca="1" ref="B746" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A735,";",REPT(" ",LEN(A735)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A735)-LEN(SUBSTITUTE(A735,";",""))+1))*LEN(A735)+1,LEN(A735)+1)))</f>
+        <f t="array" aca="1" ref="B746" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A734,";",REPT(" ",LEN(A734)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A734)-LEN(SUBSTITUTE(A734,";",""))+1))*LEN(A734)+1,LEN(A734)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="747">
       <c r="B747">
-        <f t="array" aca="1" ref="B747" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A736,";",REPT(" ",LEN(A736)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A736)-LEN(SUBSTITUTE(A736,";",""))+1))*LEN(A736)+1,LEN(A736)+1)))</f>
+        <f t="array" aca="1" ref="B747" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A735,";",REPT(" ",LEN(A735)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A735)-LEN(SUBSTITUTE(A735,";",""))+1))*LEN(A735)+1,LEN(A735)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="748">
       <c r="B748">
-        <f t="array" aca="1" ref="B748" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A737,";",REPT(" ",LEN(A737)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A737)-LEN(SUBSTITUTE(A737,";",""))+1))*LEN(A737)+1,LEN(A737)+1)))</f>
+        <f t="array" aca="1" ref="B748" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A736,";",REPT(" ",LEN(A736)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A736)-LEN(SUBSTITUTE(A736,";",""))+1))*LEN(A736)+1,LEN(A736)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="749">
       <c r="B749">
-        <f t="array" aca="1" ref="B749" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A738,";",REPT(" ",LEN(A738)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A738)-LEN(SUBSTITUTE(A738,";",""))+1))*LEN(A738)+1,LEN(A738)+1)))</f>
+        <f t="array" aca="1" ref="B749" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A737,";",REPT(" ",LEN(A737)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A737)-LEN(SUBSTITUTE(A737,";",""))+1))*LEN(A737)+1,LEN(A737)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="750">
       <c r="B750">
-        <f t="array" aca="1" ref="B750" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A739,";",REPT(" ",LEN(A739)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A739)-LEN(SUBSTITUTE(A739,";",""))+1))*LEN(A739)+1,LEN(A739)+1)))</f>
+        <f t="array" aca="1" ref="B750" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A738,";",REPT(" ",LEN(A738)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A738)-LEN(SUBSTITUTE(A738,";",""))+1))*LEN(A738)+1,LEN(A738)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="751">
       <c r="B751">
-        <f t="array" aca="1" ref="B751" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A740,";",REPT(" ",LEN(A740)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A740)-LEN(SUBSTITUTE(A740,";",""))+1))*LEN(A740)+1,LEN(A740)+1)))</f>
+        <f t="array" aca="1" ref="B751" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A739,";",REPT(" ",LEN(A739)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A739)-LEN(SUBSTITUTE(A739,";",""))+1))*LEN(A739)+1,LEN(A739)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="752">
       <c r="B752">
-        <f t="array" aca="1" ref="B752" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A741,";",REPT(" ",LEN(A741)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A741)-LEN(SUBSTITUTE(A741,";",""))+1))*LEN(A741)+1,LEN(A741)+1)))</f>
+        <f t="array" aca="1" ref="B752" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A740,";",REPT(" ",LEN(A740)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A740)-LEN(SUBSTITUTE(A740,";",""))+1))*LEN(A740)+1,LEN(A740)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="753">
       <c r="B753">
-        <f t="array" aca="1" ref="B753" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A742,";",REPT(" ",LEN(A742)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A742)-LEN(SUBSTITUTE(A742,";",""))+1))*LEN(A742)+1,LEN(A742)+1)))</f>
+        <f t="array" aca="1" ref="B753" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A741,";",REPT(" ",LEN(A741)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A741)-LEN(SUBSTITUTE(A741,";",""))+1))*LEN(A741)+1,LEN(A741)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="754">
       <c r="B754">
-        <f t="array" aca="1" ref="B754" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A743,";",REPT(" ",LEN(A743)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A743)-LEN(SUBSTITUTE(A743,";",""))+1))*LEN(A743)+1,LEN(A743)+1)))</f>
+        <f t="array" aca="1" ref="B754" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A742,";",REPT(" ",LEN(A742)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A742)-LEN(SUBSTITUTE(A742,";",""))+1))*LEN(A742)+1,LEN(A742)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="755">
       <c r="B755">
-        <f t="array" aca="1" ref="B755" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A744,";",REPT(" ",LEN(A744)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A744)-LEN(SUBSTITUTE(A744,";",""))+1))*LEN(A744)+1,LEN(A744)+1)))</f>
+        <f t="array" aca="1" ref="B755" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A743,";",REPT(" ",LEN(A743)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A743)-LEN(SUBSTITUTE(A743,";",""))+1))*LEN(A743)+1,LEN(A743)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="756">
       <c r="B756">
-        <f t="array" aca="1" ref="B756" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A745,";",REPT(" ",LEN(A745)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A745)-LEN(SUBSTITUTE(A745,";",""))+1))*LEN(A745)+1,LEN(A745)+1)))</f>
+        <f t="array" aca="1" ref="B756" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A744,";",REPT(" ",LEN(A744)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A744)-LEN(SUBSTITUTE(A744,";",""))+1))*LEN(A744)+1,LEN(A744)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="757">
       <c r="B757">
-        <f t="array" aca="1" ref="B757" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A746,";",REPT(" ",LEN(A746)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A746)-LEN(SUBSTITUTE(A746,";",""))+1))*LEN(A746)+1,LEN(A746)+1)))</f>
+        <f t="array" aca="1" ref="B757" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A745,";",REPT(" ",LEN(A745)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A745)-LEN(SUBSTITUTE(A745,";",""))+1))*LEN(A745)+1,LEN(A745)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="758">
       <c r="B758">
-        <f t="array" aca="1" ref="B758" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A747,";",REPT(" ",LEN(A747)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A747)-LEN(SUBSTITUTE(A747,";",""))+1))*LEN(A747)+1,LEN(A747)+1)))</f>
+        <f t="array" aca="1" ref="B758" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A746,";",REPT(" ",LEN(A746)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A746)-LEN(SUBSTITUTE(A746,";",""))+1))*LEN(A746)+1,LEN(A746)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="759">
       <c r="B759">
-        <f t="array" aca="1" ref="B759" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A748,";",REPT(" ",LEN(A748)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A748)-LEN(SUBSTITUTE(A748,";",""))+1))*LEN(A748)+1,LEN(A748)+1)))</f>
+        <f t="array" aca="1" ref="B759" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A747,";",REPT(" ",LEN(A747)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A747)-LEN(SUBSTITUTE(A747,";",""))+1))*LEN(A747)+1,LEN(A747)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="760">
       <c r="B760">
-        <f t="array" aca="1" ref="B760" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A749,";",REPT(" ",LEN(A749)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A749)-LEN(SUBSTITUTE(A749,";",""))+1))*LEN(A749)+1,LEN(A749)+1)))</f>
+        <f t="array" aca="1" ref="B760" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A748,";",REPT(" ",LEN(A748)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A748)-LEN(SUBSTITUTE(A748,";",""))+1))*LEN(A748)+1,LEN(A748)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="761">
       <c r="B761">
-        <f t="array" aca="1" ref="B761" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A750,";",REPT(" ",LEN(A750)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A750)-LEN(SUBSTITUTE(A750,";",""))+1))*LEN(A750)+1,LEN(A750)+1)))</f>
+        <f t="array" aca="1" ref="B761" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A749,";",REPT(" ",LEN(A749)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A749)-LEN(SUBSTITUTE(A749,";",""))+1))*LEN(A749)+1,LEN(A749)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="762">
       <c r="B762">
-        <f t="array" aca="1" ref="B762" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A751,";",REPT(" ",LEN(A751)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A751)-LEN(SUBSTITUTE(A751,";",""))+1))*LEN(A751)+1,LEN(A751)+1)))</f>
+        <f t="array" aca="1" ref="B762" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A750,";",REPT(" ",LEN(A750)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A750)-LEN(SUBSTITUTE(A750,";",""))+1))*LEN(A750)+1,LEN(A750)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="763">
       <c r="B763">
-        <f t="array" aca="1" ref="B763" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A752,";",REPT(" ",LEN(A752)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A752)-LEN(SUBSTITUTE(A752,";",""))+1))*LEN(A752)+1,LEN(A752)+1)))</f>
+        <f t="array" aca="1" ref="B763" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A751,";",REPT(" ",LEN(A751)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A751)-LEN(SUBSTITUTE(A751,";",""))+1))*LEN(A751)+1,LEN(A751)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="764">
       <c r="B764">
-        <f t="array" aca="1" ref="B764" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A753,";",REPT(" ",LEN(A753)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A753)-LEN(SUBSTITUTE(A753,";",""))+1))*LEN(A753)+1,LEN(A753)+1)))</f>
+        <f t="array" aca="1" ref="B764" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A752,";",REPT(" ",LEN(A752)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A752)-LEN(SUBSTITUTE(A752,";",""))+1))*LEN(A752)+1,LEN(A752)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="765">
       <c r="B765">
-        <f t="array" aca="1" ref="B765" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A754,";",REPT(" ",LEN(A754)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A754)-LEN(SUBSTITUTE(A754,";",""))+1))*LEN(A754)+1,LEN(A754)+1)))</f>
+        <f t="array" aca="1" ref="B765" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A753,";",REPT(" ",LEN(A753)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A753)-LEN(SUBSTITUTE(A753,";",""))+1))*LEN(A753)+1,LEN(A753)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="766">
       <c r="B766">
-        <f t="array" aca="1" ref="B766" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A755,";",REPT(" ",LEN(A755)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A755)-LEN(SUBSTITUTE(A755,";",""))+1))*LEN(A755)+1,LEN(A755)+1)))</f>
+        <f t="array" aca="1" ref="B766" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A754,";",REPT(" ",LEN(A754)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A754)-LEN(SUBSTITUTE(A754,";",""))+1))*LEN(A754)+1,LEN(A754)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="767">
       <c r="B767">
-        <f t="array" aca="1" ref="B767" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A756,";",REPT(" ",LEN(A756)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A756)-LEN(SUBSTITUTE(A756,";",""))+1))*LEN(A756)+1,LEN(A756)+1)))</f>
+        <f t="array" aca="1" ref="B767" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A755,";",REPT(" ",LEN(A755)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A755)-LEN(SUBSTITUTE(A755,";",""))+1))*LEN(A755)+1,LEN(A755)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="768">
       <c r="B768">
-        <f t="array" aca="1" ref="B768" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A757,";",REPT(" ",LEN(A757)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A757)-LEN(SUBSTITUTE(A757,";",""))+1))*LEN(A757)+1,LEN(A757)+1)))</f>
+        <f t="array" aca="1" ref="B768" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A756,";",REPT(" ",LEN(A756)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A756)-LEN(SUBSTITUTE(A756,";",""))+1))*LEN(A756)+1,LEN(A756)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="769">
       <c r="B769">
-        <f t="array" aca="1" ref="B769" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A758,";",REPT(" ",LEN(A758)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A758)-LEN(SUBSTITUTE(A758,";",""))+1))*LEN(A758)+1,LEN(A758)+1)))</f>
+        <f t="array" aca="1" ref="B769" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A757,";",REPT(" ",LEN(A757)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A757)-LEN(SUBSTITUTE(A757,";",""))+1))*LEN(A757)+1,LEN(A757)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="770">
       <c r="B770">
-        <f t="array" aca="1" ref="B770" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A759,";",REPT(" ",LEN(A759)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A759)-LEN(SUBSTITUTE(A759,";",""))+1))*LEN(A759)+1,LEN(A759)+1)))</f>
+        <f t="array" aca="1" ref="B770" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A758,";",REPT(" ",LEN(A758)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A758)-LEN(SUBSTITUTE(A758,";",""))+1))*LEN(A758)+1,LEN(A758)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="771">
       <c r="B771">
-        <f t="array" aca="1" ref="B771" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A760,";",REPT(" ",LEN(A760)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A760)-LEN(SUBSTITUTE(A760,";",""))+1))*LEN(A760)+1,LEN(A760)+1)))</f>
+        <f t="array" aca="1" ref="B771" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A759,";",REPT(" ",LEN(A759)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A759)-LEN(SUBSTITUTE(A759,";",""))+1))*LEN(A759)+1,LEN(A759)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="772">
       <c r="B772">
-        <f t="array" aca="1" ref="B772" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A761,";",REPT(" ",LEN(A761)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A761)-LEN(SUBSTITUTE(A761,";",""))+1))*LEN(A761)+1,LEN(A761)+1)))</f>
+        <f t="array" aca="1" ref="B772" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A760,";",REPT(" ",LEN(A760)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A760)-LEN(SUBSTITUTE(A760,";",""))+1))*LEN(A760)+1,LEN(A760)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="773">
       <c r="B773">
-        <f t="array" aca="1" ref="B773" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A762,";",REPT(" ",LEN(A762)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A762)-LEN(SUBSTITUTE(A762,";",""))+1))*LEN(A762)+1,LEN(A762)+1)))</f>
+        <f t="array" aca="1" ref="B773" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A761,";",REPT(" ",LEN(A761)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A761)-LEN(SUBSTITUTE(A761,";",""))+1))*LEN(A761)+1,LEN(A761)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="774">
       <c r="B774">
-        <f t="array" aca="1" ref="B774" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A763,";",REPT(" ",LEN(A763)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A763)-LEN(SUBSTITUTE(A763,";",""))+1))*LEN(A763)+1,LEN(A763)+1)))</f>
+        <f t="array" aca="1" ref="B774" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A762,";",REPT(" ",LEN(A762)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A762)-LEN(SUBSTITUTE(A762,";",""))+1))*LEN(A762)+1,LEN(A762)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="775">
       <c r="B775">
-        <f t="array" aca="1" ref="B775" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A764,";",REPT(" ",LEN(A764)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A764)-LEN(SUBSTITUTE(A764,";",""))+1))*LEN(A764)+1,LEN(A764)+1)))</f>
+        <f t="array" aca="1" ref="B775" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A763,";",REPT(" ",LEN(A763)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A763)-LEN(SUBSTITUTE(A763,";",""))+1))*LEN(A763)+1,LEN(A763)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="776">
       <c r="B776">
-        <f t="array" aca="1" ref="B776" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A765,";",REPT(" ",LEN(A765)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A765)-LEN(SUBSTITUTE(A765,";",""))+1))*LEN(A765)+1,LEN(A765)+1)))</f>
+        <f t="array" aca="1" ref="B776" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A764,";",REPT(" ",LEN(A764)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A764)-LEN(SUBSTITUTE(A764,";",""))+1))*LEN(A764)+1,LEN(A764)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="777">
       <c r="B777">
-        <f t="array" aca="1" ref="B777" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A766,";",REPT(" ",LEN(A766)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A766)-LEN(SUBSTITUTE(A766,";",""))+1))*LEN(A766)+1,LEN(A766)+1)))</f>
+        <f t="array" aca="1" ref="B777" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A765,";",REPT(" ",LEN(A765)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A765)-LEN(SUBSTITUTE(A765,";",""))+1))*LEN(A765)+1,LEN(A765)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="778">
       <c r="B778">
-        <f t="array" aca="1" ref="B778" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A767,";",REPT(" ",LEN(A767)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A767)-LEN(SUBSTITUTE(A767,";",""))+1))*LEN(A767)+1,LEN(A767)+1)))</f>
+        <f t="array" aca="1" ref="B778" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A766,";",REPT(" ",LEN(A766)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A766)-LEN(SUBSTITUTE(A766,";",""))+1))*LEN(A766)+1,LEN(A766)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="779">
       <c r="B779">
-        <f t="array" aca="1" ref="B779" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A768,";",REPT(" ",LEN(A768)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A768)-LEN(SUBSTITUTE(A768,";",""))+1))*LEN(A768)+1,LEN(A768)+1)))</f>
+        <f t="array" aca="1" ref="B779" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A767,";",REPT(" ",LEN(A767)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A767)-LEN(SUBSTITUTE(A767,";",""))+1))*LEN(A767)+1,LEN(A767)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="780">
       <c r="B780">
-        <f t="array" aca="1" ref="B780" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A769,";",REPT(" ",LEN(A769)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A769)-LEN(SUBSTITUTE(A769,";",""))+1))*LEN(A769)+1,LEN(A769)+1)))</f>
+        <f t="array" aca="1" ref="B780" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A768,";",REPT(" ",LEN(A768)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A768)-LEN(SUBSTITUTE(A768,";",""))+1))*LEN(A768)+1,LEN(A768)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="781">
       <c r="B781">
-        <f t="array" aca="1" ref="B781" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A770,";",REPT(" ",LEN(A770)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A770)-LEN(SUBSTITUTE(A770,";",""))+1))*LEN(A770)+1,LEN(A770)+1)))</f>
+        <f t="array" aca="1" ref="B781" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A769,";",REPT(" ",LEN(A769)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A769)-LEN(SUBSTITUTE(A769,";",""))+1))*LEN(A769)+1,LEN(A769)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="782">
       <c r="B782">
-        <f t="array" aca="1" ref="B782" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A771,";",REPT(" ",LEN(A771)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A771)-LEN(SUBSTITUTE(A771,";",""))+1))*LEN(A771)+1,LEN(A771)+1)))</f>
+        <f t="array" aca="1" ref="B782" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A770,";",REPT(" ",LEN(A770)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A770)-LEN(SUBSTITUTE(A770,";",""))+1))*LEN(A770)+1,LEN(A770)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="783">
       <c r="B783">
-        <f t="array" aca="1" ref="B783" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A772,";",REPT(" ",LEN(A772)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A772)-LEN(SUBSTITUTE(A772,";",""))+1))*LEN(A772)+1,LEN(A772)+1)))</f>
+        <f t="array" aca="1" ref="B783" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A771,";",REPT(" ",LEN(A771)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A771)-LEN(SUBSTITUTE(A771,";",""))+1))*LEN(A771)+1,LEN(A771)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="784">
       <c r="B784">
-        <f t="array" aca="1" ref="B784" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A773,";",REPT(" ",LEN(A773)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A773)-LEN(SUBSTITUTE(A773,";",""))+1))*LEN(A773)+1,LEN(A773)+1)))</f>
+        <f t="array" aca="1" ref="B784" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A772,";",REPT(" ",LEN(A772)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A772)-LEN(SUBSTITUTE(A772,";",""))+1))*LEN(A772)+1,LEN(A772)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="785">
       <c r="B785">
-        <f t="array" aca="1" ref="B785" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A774,";",REPT(" ",LEN(A774)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A774)-LEN(SUBSTITUTE(A774,";",""))+1))*LEN(A774)+1,LEN(A774)+1)))</f>
+        <f t="array" aca="1" ref="B785" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A773,";",REPT(" ",LEN(A773)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A773)-LEN(SUBSTITUTE(A773,";",""))+1))*LEN(A773)+1,LEN(A773)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="786">
       <c r="B786">
-        <f t="array" aca="1" ref="B786" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A775,";",REPT(" ",LEN(A775)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A775)-LEN(SUBSTITUTE(A775,";",""))+1))*LEN(A775)+1,LEN(A775)+1)))</f>
+        <f t="array" aca="1" ref="B786" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A774,";",REPT(" ",LEN(A774)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A774)-LEN(SUBSTITUTE(A774,";",""))+1))*LEN(A774)+1,LEN(A774)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="787">
       <c r="B787">
-        <f t="array" aca="1" ref="B787" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A776,";",REPT(" ",LEN(A776)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A776)-LEN(SUBSTITUTE(A776,";",""))+1))*LEN(A776)+1,LEN(A776)+1)))</f>
+        <f t="array" aca="1" ref="B787" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A775,";",REPT(" ",LEN(A775)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A775)-LEN(SUBSTITUTE(A775,";",""))+1))*LEN(A775)+1,LEN(A775)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="788">
       <c r="B788">
-        <f t="array" aca="1" ref="B788" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A777,";",REPT(" ",LEN(A777)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A777)-LEN(SUBSTITUTE(A777,";",""))+1))*LEN(A777)+1,LEN(A777)+1)))</f>
+        <f t="array" aca="1" ref="B788" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A776,";",REPT(" ",LEN(A776)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A776)-LEN(SUBSTITUTE(A776,";",""))+1))*LEN(A776)+1,LEN(A776)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="789">
       <c r="B789">
-        <f t="array" aca="1" ref="B789" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A778,";",REPT(" ",LEN(A778)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A778)-LEN(SUBSTITUTE(A778,";",""))+1))*LEN(A778)+1,LEN(A778)+1)))</f>
+        <f t="array" aca="1" ref="B789" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A777,";",REPT(" ",LEN(A777)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A777)-LEN(SUBSTITUTE(A777,";",""))+1))*LEN(A777)+1,LEN(A777)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="790">
       <c r="B790">
-        <f t="array" aca="1" ref="B790" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A779,";",REPT(" ",LEN(A779)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A779)-LEN(SUBSTITUTE(A779,";",""))+1))*LEN(A779)+1,LEN(A779)+1)))</f>
+        <f t="array" aca="1" ref="B790" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A778,";",REPT(" ",LEN(A778)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A778)-LEN(SUBSTITUTE(A778,";",""))+1))*LEN(A778)+1,LEN(A778)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="791">
       <c r="B791">
-        <f t="array" aca="1" ref="B791" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A780,";",REPT(" ",LEN(A780)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A780)-LEN(SUBSTITUTE(A780,";",""))+1))*LEN(A780)+1,LEN(A780)+1)))</f>
+        <f t="array" aca="1" ref="B791" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A779,";",REPT(" ",LEN(A779)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A779)-LEN(SUBSTITUTE(A779,";",""))+1))*LEN(A779)+1,LEN(A779)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="792">
       <c r="B792">
-        <f t="array" aca="1" ref="B792" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A781,";",REPT(" ",LEN(A781)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A781)-LEN(SUBSTITUTE(A781,";",""))+1))*LEN(A781)+1,LEN(A781)+1)))</f>
+        <f t="array" aca="1" ref="B792" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A780,";",REPT(" ",LEN(A780)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A780)-LEN(SUBSTITUTE(A780,";",""))+1))*LEN(A780)+1,LEN(A780)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="793">
       <c r="B793">
-        <f t="array" aca="1" ref="B793" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A782,";",REPT(" ",LEN(A782)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A782)-LEN(SUBSTITUTE(A782,";",""))+1))*LEN(A782)+1,LEN(A782)+1)))</f>
+        <f t="array" aca="1" ref="B793" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A781,";",REPT(" ",LEN(A781)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A781)-LEN(SUBSTITUTE(A781,";",""))+1))*LEN(A781)+1,LEN(A781)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="794">
       <c r="B794">
-        <f t="array" aca="1" ref="B794" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A783,";",REPT(" ",LEN(A783)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A783)-LEN(SUBSTITUTE(A783,";",""))+1))*LEN(A783)+1,LEN(A783)+1)))</f>
+        <f t="array" aca="1" ref="B794" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A782,";",REPT(" ",LEN(A782)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A782)-LEN(SUBSTITUTE(A782,";",""))+1))*LEN(A782)+1,LEN(A782)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="795">
       <c r="B795">
-        <f t="array" aca="1" ref="B795" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A784,";",REPT(" ",LEN(A784)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A784)-LEN(SUBSTITUTE(A784,";",""))+1))*LEN(A784)+1,LEN(A784)+1)))</f>
+        <f t="array" aca="1" ref="B795" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A783,";",REPT(" ",LEN(A783)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A783)-LEN(SUBSTITUTE(A783,";",""))+1))*LEN(A783)+1,LEN(A783)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="796">
       <c r="B796">
-        <f t="array" aca="1" ref="B796" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A785,";",REPT(" ",LEN(A785)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A785)-LEN(SUBSTITUTE(A785,";",""))+1))*LEN(A785)+1,LEN(A785)+1)))</f>
+        <f t="array" aca="1" ref="B796" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A784,";",REPT(" ",LEN(A784)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A784)-LEN(SUBSTITUTE(A784,";",""))+1))*LEN(A784)+1,LEN(A784)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="797">
       <c r="B797">
-        <f t="array" aca="1" ref="B797" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A786,";",REPT(" ",LEN(A786)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A786)-LEN(SUBSTITUTE(A786,";",""))+1))*LEN(A786)+1,LEN(A786)+1)))</f>
+        <f t="array" aca="1" ref="B797" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A785,";",REPT(" ",LEN(A785)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A785)-LEN(SUBSTITUTE(A785,";",""))+1))*LEN(A785)+1,LEN(A785)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="798">
       <c r="B798">
-        <f t="array" aca="1" ref="B798" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A787,";",REPT(" ",LEN(A787)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A787)-LEN(SUBSTITUTE(A787,";",""))+1))*LEN(A787)+1,LEN(A787)+1)))</f>
+        <f t="array" aca="1" ref="B798" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A786,";",REPT(" ",LEN(A786)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A786)-LEN(SUBSTITUTE(A786,";",""))+1))*LEN(A786)+1,LEN(A786)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="799">
       <c r="B799">
-        <f t="array" aca="1" ref="B799" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A788,";",REPT(" ",LEN(A788)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A788)-LEN(SUBSTITUTE(A788,";",""))+1))*LEN(A788)+1,LEN(A788)+1)))</f>
+        <f t="array" aca="1" ref="B799" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A787,";",REPT(" ",LEN(A787)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A787)-LEN(SUBSTITUTE(A787,";",""))+1))*LEN(A787)+1,LEN(A787)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="800">
       <c r="B800">
-        <f t="array" aca="1" ref="B800" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A789,";",REPT(" ",LEN(A789)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A789)-LEN(SUBSTITUTE(A789,";",""))+1))*LEN(A789)+1,LEN(A789)+1)))</f>
+        <f t="array" aca="1" ref="B800" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A788,";",REPT(" ",LEN(A788)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A788)-LEN(SUBSTITUTE(A788,";",""))+1))*LEN(A788)+1,LEN(A788)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="801">
       <c r="B801">
-        <f t="array" aca="1" ref="B801" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A790,";",REPT(" ",LEN(A790)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A790)-LEN(SUBSTITUTE(A790,";",""))+1))*LEN(A790)+1,LEN(A790)+1)))</f>
+        <f t="array" aca="1" ref="B801" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A789,";",REPT(" ",LEN(A789)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A789)-LEN(SUBSTITUTE(A789,";",""))+1))*LEN(A789)+1,LEN(A789)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="802">
       <c r="B802">
-        <f t="array" aca="1" ref="B802" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A791,";",REPT(" ",LEN(A791)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A791)-LEN(SUBSTITUTE(A791,";",""))+1))*LEN(A791)+1,LEN(A791)+1)))</f>
+        <f t="array" aca="1" ref="B802" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A790,";",REPT(" ",LEN(A790)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A790)-LEN(SUBSTITUTE(A790,";",""))+1))*LEN(A790)+1,LEN(A790)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="803">
       <c r="B803">
-        <f t="array" aca="1" ref="B803" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A792,";",REPT(" ",LEN(A792)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A792)-LEN(SUBSTITUTE(A792,";",""))+1))*LEN(A792)+1,LEN(A792)+1)))</f>
+        <f t="array" aca="1" ref="B803" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A791,";",REPT(" ",LEN(A791)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A791)-LEN(SUBSTITUTE(A791,";",""))+1))*LEN(A791)+1,LEN(A791)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="804">
       <c r="B804">
-        <f t="array" aca="1" ref="B804" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A793,";",REPT(" ",LEN(A793)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A793)-LEN(SUBSTITUTE(A793,";",""))+1))*LEN(A793)+1,LEN(A793)+1)))</f>
+        <f t="array" aca="1" ref="B804" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A792,";",REPT(" ",LEN(A792)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A792)-LEN(SUBSTITUTE(A792,";",""))+1))*LEN(A792)+1,LEN(A792)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="805">
       <c r="B805">
-        <f t="array" aca="1" ref="B805" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A794,";",REPT(" ",LEN(A794)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A794)-LEN(SUBSTITUTE(A794,";",""))+1))*LEN(A794)+1,LEN(A794)+1)))</f>
+        <f t="array" aca="1" ref="B805" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A793,";",REPT(" ",LEN(A793)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A793)-LEN(SUBSTITUTE(A793,";",""))+1))*LEN(A793)+1,LEN(A793)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="806">
       <c r="B806">
-        <f t="array" aca="1" ref="B806" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A795,";",REPT(" ",LEN(A795)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A795)-LEN(SUBSTITUTE(A795,";",""))+1))*LEN(A795)+1,LEN(A795)+1)))</f>
+        <f t="array" aca="1" ref="B806" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A794,";",REPT(" ",LEN(A794)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A794)-LEN(SUBSTITUTE(A794,";",""))+1))*LEN(A794)+1,LEN(A794)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="807">
       <c r="B807">
-        <f t="array" aca="1" ref="B807" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A796,";",REPT(" ",LEN(A796)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A796)-LEN(SUBSTITUTE(A796,";",""))+1))*LEN(A796)+1,LEN(A796)+1)))</f>
+        <f t="array" aca="1" ref="B807" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A795,";",REPT(" ",LEN(A795)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A795)-LEN(SUBSTITUTE(A795,";",""))+1))*LEN(A795)+1,LEN(A795)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="808">
       <c r="B808">
-        <f t="array" aca="1" ref="B808" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A797,";",REPT(" ",LEN(A797)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A797)-LEN(SUBSTITUTE(A797,";",""))+1))*LEN(A797)+1,LEN(A797)+1)))</f>
+        <f t="array" aca="1" ref="B808" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A796,";",REPT(" ",LEN(A796)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A796)-LEN(SUBSTITUTE(A796,";",""))+1))*LEN(A796)+1,LEN(A796)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="809">
       <c r="B809">
-        <f t="array" aca="1" ref="B809" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A798,";",REPT(" ",LEN(A798)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A798)-LEN(SUBSTITUTE(A798,";",""))+1))*LEN(A798)+1,LEN(A798)+1)))</f>
+        <f t="array" aca="1" ref="B809" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A797,";",REPT(" ",LEN(A797)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A797)-LEN(SUBSTITUTE(A797,";",""))+1))*LEN(A797)+1,LEN(A797)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="810">
       <c r="B810">
-        <f t="array" aca="1" ref="B810" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A799,";",REPT(" ",LEN(A799)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A799)-LEN(SUBSTITUTE(A799,";",""))+1))*LEN(A799)+1,LEN(A799)+1)))</f>
+        <f t="array" aca="1" ref="B810" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A798,";",REPT(" ",LEN(A798)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A798)-LEN(SUBSTITUTE(A798,";",""))+1))*LEN(A798)+1,LEN(A798)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="811">
       <c r="B811">
-        <f t="array" aca="1" ref="B811" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A800,";",REPT(" ",LEN(A800)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A800)-LEN(SUBSTITUTE(A800,";",""))+1))*LEN(A800)+1,LEN(A800)+1)))</f>
+        <f t="array" aca="1" ref="B811" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A799,";",REPT(" ",LEN(A799)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A799)-LEN(SUBSTITUTE(A799,";",""))+1))*LEN(A799)+1,LEN(A799)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="812">
       <c r="B812">
-        <f t="array" aca="1" ref="B812" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A801,";",REPT(" ",LEN(A801)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A801)-LEN(SUBSTITUTE(A801,";",""))+1))*LEN(A801)+1,LEN(A801)+1)))</f>
+        <f t="array" aca="1" ref="B812" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A800,";",REPT(" ",LEN(A800)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A800)-LEN(SUBSTITUTE(A800,";",""))+1))*LEN(A800)+1,LEN(A800)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="813">
       <c r="B813">
-        <f t="array" aca="1" ref="B813" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A802,";",REPT(" ",LEN(A802)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A802)-LEN(SUBSTITUTE(A802,";",""))+1))*LEN(A802)+1,LEN(A802)+1)))</f>
+        <f t="array" aca="1" ref="B813" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A801,";",REPT(" ",LEN(A801)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A801)-LEN(SUBSTITUTE(A801,";",""))+1))*LEN(A801)+1,LEN(A801)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="814">
       <c r="B814">
-        <f t="array" aca="1" ref="B814" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A803,";",REPT(" ",LEN(A803)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A803)-LEN(SUBSTITUTE(A803,";",""))+1))*LEN(A803)+1,LEN(A803)+1)))</f>
+        <f t="array" aca="1" ref="B814" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A802,";",REPT(" ",LEN(A802)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A802)-LEN(SUBSTITUTE(A802,";",""))+1))*LEN(A802)+1,LEN(A802)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="815">
       <c r="B815">
-        <f t="array" aca="1" ref="B815" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A804,";",REPT(" ",LEN(A804)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A804)-LEN(SUBSTITUTE(A804,";",""))+1))*LEN(A804)+1,LEN(A804)+1)))</f>
+        <f t="array" aca="1" ref="B815" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A803,";",REPT(" ",LEN(A803)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A803)-LEN(SUBSTITUTE(A803,";",""))+1))*LEN(A803)+1,LEN(A803)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="816">
       <c r="B816">
-        <f t="array" aca="1" ref="B816" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A805,";",REPT(" ",LEN(A805)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A805)-LEN(SUBSTITUTE(A805,";",""))+1))*LEN(A805)+1,LEN(A805)+1)))</f>
+        <f t="array" aca="1" ref="B816" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A804,";",REPT(" ",LEN(A804)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A804)-LEN(SUBSTITUTE(A804,";",""))+1))*LEN(A804)+1,LEN(A804)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="817">
       <c r="B817">
-        <f t="array" aca="1" ref="B817" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A806,";",REPT(" ",LEN(A806)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A806)-LEN(SUBSTITUTE(A806,";",""))+1))*LEN(A806)+1,LEN(A806)+1)))</f>
+        <f t="array" aca="1" ref="B817" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A805,";",REPT(" ",LEN(A805)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A805)-LEN(SUBSTITUTE(A805,";",""))+1))*LEN(A805)+1,LEN(A805)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="818">
       <c r="B818">
-        <f t="array" aca="1" ref="B818" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A807,";",REPT(" ",LEN(A807)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A807)-LEN(SUBSTITUTE(A807,";",""))+1))*LEN(A807)+1,LEN(A807)+1)))</f>
+        <f t="array" aca="1" ref="B818" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A806,";",REPT(" ",LEN(A806)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A806)-LEN(SUBSTITUTE(A806,";",""))+1))*LEN(A806)+1,LEN(A806)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="819">
       <c r="B819">
-        <f t="array" aca="1" ref="B819" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A808,";",REPT(" ",LEN(A808)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A808)-LEN(SUBSTITUTE(A808,";",""))+1))*LEN(A808)+1,LEN(A808)+1)))</f>
+        <f t="array" aca="1" ref="B819" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A807,";",REPT(" ",LEN(A807)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A807)-LEN(SUBSTITUTE(A807,";",""))+1))*LEN(A807)+1,LEN(A807)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="820">
       <c r="B820">
-        <f t="array" aca="1" ref="B820" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A809,";",REPT(" ",LEN(A809)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A809)-LEN(SUBSTITUTE(A809,";",""))+1))*LEN(A809)+1,LEN(A809)+1)))</f>
+        <f t="array" aca="1" ref="B820" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A808,";",REPT(" ",LEN(A808)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A808)-LEN(SUBSTITUTE(A808,";",""))+1))*LEN(A808)+1,LEN(A808)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="821">
       <c r="B821">
-        <f t="array" aca="1" ref="B821" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A810,";",REPT(" ",LEN(A810)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A810)-LEN(SUBSTITUTE(A810,";",""))+1))*LEN(A810)+1,LEN(A810)+1)))</f>
+        <f t="array" aca="1" ref="B821" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A809,";",REPT(" ",LEN(A809)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A809)-LEN(SUBSTITUTE(A809,";",""))+1))*LEN(A809)+1,LEN(A809)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="822">
       <c r="B822">
-        <f t="array" aca="1" ref="B822" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A811,";",REPT(" ",LEN(A811)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A811)-LEN(SUBSTITUTE(A811,";",""))+1))*LEN(A811)+1,LEN(A811)+1)))</f>
+        <f t="array" aca="1" ref="B822" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A810,";",REPT(" ",LEN(A810)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A810)-LEN(SUBSTITUTE(A810,";",""))+1))*LEN(A810)+1,LEN(A810)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="823">
       <c r="B823">
-        <f t="array" aca="1" ref="B823" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A812,";",REPT(" ",LEN(A812)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A812)-LEN(SUBSTITUTE(A812,";",""))+1))*LEN(A812)+1,LEN(A812)+1)))</f>
+        <f t="array" aca="1" ref="B823" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A811,";",REPT(" ",LEN(A811)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A811)-LEN(SUBSTITUTE(A811,";",""))+1))*LEN(A811)+1,LEN(A811)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="824">
       <c r="B824">
-        <f t="array" aca="1" ref="B824" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A813,";",REPT(" ",LEN(A813)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A813)-LEN(SUBSTITUTE(A813,";",""))+1))*LEN(A813)+1,LEN(A813)+1)))</f>
+        <f t="array" aca="1" ref="B824" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A812,";",REPT(" ",LEN(A812)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A812)-LEN(SUBSTITUTE(A812,";",""))+1))*LEN(A812)+1,LEN(A812)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="825">
       <c r="B825">
-        <f t="array" aca="1" ref="B825" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A814,";",REPT(" ",LEN(A814)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A814)-LEN(SUBSTITUTE(A814,";",""))+1))*LEN(A814)+1,LEN(A814)+1)))</f>
+        <f t="array" aca="1" ref="B825" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A813,";",REPT(" ",LEN(A813)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A813)-LEN(SUBSTITUTE(A813,";",""))+1))*LEN(A813)+1,LEN(A813)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="826">
       <c r="B826">
-        <f t="array" aca="1" ref="B826" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A815,";",REPT(" ",LEN(A815)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A815)-LEN(SUBSTITUTE(A815,";",""))+1))*LEN(A815)+1,LEN(A815)+1)))</f>
+        <f t="array" aca="1" ref="B826" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A814,";",REPT(" ",LEN(A814)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A814)-LEN(SUBSTITUTE(A814,";",""))+1))*LEN(A814)+1,LEN(A814)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="827">
       <c r="B827">
-        <f t="array" aca="1" ref="B827" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A816,";",REPT(" ",LEN(A816)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A816)-LEN(SUBSTITUTE(A816,";",""))+1))*LEN(A816)+1,LEN(A816)+1)))</f>
+        <f t="array" aca="1" ref="B827" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A815,";",REPT(" ",LEN(A815)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A815)-LEN(SUBSTITUTE(A815,";",""))+1))*LEN(A815)+1,LEN(A815)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="828">
       <c r="B828">
-        <f t="array" aca="1" ref="B828" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A817,";",REPT(" ",LEN(A817)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A817)-LEN(SUBSTITUTE(A817,";",""))+1))*LEN(A817)+1,LEN(A817)+1)))</f>
+        <f t="array" aca="1" ref="B828" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A816,";",REPT(" ",LEN(A816)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A816)-LEN(SUBSTITUTE(A816,";",""))+1))*LEN(A816)+1,LEN(A816)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="829">
       <c r="B829">
-        <f t="array" aca="1" ref="B829" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A818,";",REPT(" ",LEN(A818)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A818)-LEN(SUBSTITUTE(A818,";",""))+1))*LEN(A818)+1,LEN(A818)+1)))</f>
+        <f t="array" aca="1" ref="B829" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A817,";",REPT(" ",LEN(A817)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A817)-LEN(SUBSTITUTE(A817,";",""))+1))*LEN(A817)+1,LEN(A817)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="830">
       <c r="B830">
-        <f t="array" aca="1" ref="B830" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A819,";",REPT(" ",LEN(A819)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A819)-LEN(SUBSTITUTE(A819,";",""))+1))*LEN(A819)+1,LEN(A819)+1)))</f>
+        <f t="array" aca="1" ref="B830" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A818,";",REPT(" ",LEN(A818)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A818)-LEN(SUBSTITUTE(A818,";",""))+1))*LEN(A818)+1,LEN(A818)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="831">
       <c r="B831">
-        <f t="array" aca="1" ref="B831" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A820,";",REPT(" ",LEN(A820)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A820)-LEN(SUBSTITUTE(A820,";",""))+1))*LEN(A820)+1,LEN(A820)+1)))</f>
+        <f t="array" aca="1" ref="B831" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A819,";",REPT(" ",LEN(A819)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A819)-LEN(SUBSTITUTE(A819,";",""))+1))*LEN(A819)+1,LEN(A819)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="832">
       <c r="B832">
-        <f t="array" aca="1" ref="B832" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A821,";",REPT(" ",LEN(A821)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A821)-LEN(SUBSTITUTE(A821,";",""))+1))*LEN(A821)+1,LEN(A821)+1)))</f>
+        <f t="array" aca="1" ref="B832" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A820,";",REPT(" ",LEN(A820)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A820)-LEN(SUBSTITUTE(A820,";",""))+1))*LEN(A820)+1,LEN(A820)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="833">
       <c r="B833">
-        <f t="array" aca="1" ref="B833" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A822,";",REPT(" ",LEN(A822)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A822)-LEN(SUBSTITUTE(A822,";",""))+1))*LEN(A822)+1,LEN(A822)+1)))</f>
+        <f t="array" aca="1" ref="B833" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A821,";",REPT(" ",LEN(A821)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A821)-LEN(SUBSTITUTE(A821,";",""))+1))*LEN(A821)+1,LEN(A821)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="834">
       <c r="B834">
-        <f t="array" aca="1" ref="B834" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A823,";",REPT(" ",LEN(A823)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A823)-LEN(SUBSTITUTE(A823,";",""))+1))*LEN(A823)+1,LEN(A823)+1)))</f>
+        <f t="array" aca="1" ref="B834" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A822,";",REPT(" ",LEN(A822)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A822)-LEN(SUBSTITUTE(A822,";",""))+1))*LEN(A822)+1,LEN(A822)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="835">
       <c r="B835">
-        <f t="array" aca="1" ref="B835" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A824,";",REPT(" ",LEN(A824)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A824)-LEN(SUBSTITUTE(A824,";",""))+1))*LEN(A824)+1,LEN(A824)+1)))</f>
+        <f t="array" aca="1" ref="B835" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A823,";",REPT(" ",LEN(A823)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A823)-LEN(SUBSTITUTE(A823,";",""))+1))*LEN(A823)+1,LEN(A823)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="836">
       <c r="B836">
-        <f t="array" aca="1" ref="B836" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A825,";",REPT(" ",LEN(A825)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A825)-LEN(SUBSTITUTE(A825,";",""))+1))*LEN(A825)+1,LEN(A825)+1)))</f>
+        <f t="array" aca="1" ref="B836" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A824,";",REPT(" ",LEN(A824)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A824)-LEN(SUBSTITUTE(A824,";",""))+1))*LEN(A824)+1,LEN(A824)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="837">
       <c r="B837">
-        <f t="array" aca="1" ref="B837" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A826,";",REPT(" ",LEN(A826)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A826)-LEN(SUBSTITUTE(A826,";",""))+1))*LEN(A826)+1,LEN(A826)+1)))</f>
+        <f t="array" aca="1" ref="B837" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A825,";",REPT(" ",LEN(A825)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A825)-LEN(SUBSTITUTE(A825,";",""))+1))*LEN(A825)+1,LEN(A825)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="838">
       <c r="B838">
-        <f t="array" aca="1" ref="B838" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A827,";",REPT(" ",LEN(A827)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A827)-LEN(SUBSTITUTE(A827,";",""))+1))*LEN(A827)+1,LEN(A827)+1)))</f>
+        <f t="array" aca="1" ref="B838" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A826,";",REPT(" ",LEN(A826)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A826)-LEN(SUBSTITUTE(A826,";",""))+1))*LEN(A826)+1,LEN(A826)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="839">
       <c r="B839">
-        <f t="array" aca="1" ref="B839" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A828,";",REPT(" ",LEN(A828)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A828)-LEN(SUBSTITUTE(A828,";",""))+1))*LEN(A828)+1,LEN(A828)+1)))</f>
+        <f t="array" aca="1" ref="B839" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A827,";",REPT(" ",LEN(A827)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A827)-LEN(SUBSTITUTE(A827,";",""))+1))*LEN(A827)+1,LEN(A827)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="840">
       <c r="B840">
-        <f t="array" aca="1" ref="B840" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A829,";",REPT(" ",LEN(A829)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A829)-LEN(SUBSTITUTE(A829,";",""))+1))*LEN(A829)+1,LEN(A829)+1)))</f>
+        <f t="array" aca="1" ref="B840" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A828,";",REPT(" ",LEN(A828)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A828)-LEN(SUBSTITUTE(A828,";",""))+1))*LEN(A828)+1,LEN(A828)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="841">
       <c r="B841">
-        <f t="array" aca="1" ref="B841" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A830,";",REPT(" ",LEN(A830)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A830)-LEN(SUBSTITUTE(A830,";",""))+1))*LEN(A830)+1,LEN(A830)+1)))</f>
+        <f t="array" aca="1" ref="B841" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A829,";",REPT(" ",LEN(A829)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A829)-LEN(SUBSTITUTE(A829,";",""))+1))*LEN(A829)+1,LEN(A829)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="842">
       <c r="B842">
-        <f t="array" aca="1" ref="B842" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A831,";",REPT(" ",LEN(A831)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A831)-LEN(SUBSTITUTE(A831,";",""))+1))*LEN(A831)+1,LEN(A831)+1)))</f>
+        <f t="array" aca="1" ref="B842" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A830,";",REPT(" ",LEN(A830)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A830)-LEN(SUBSTITUTE(A830,";",""))+1))*LEN(A830)+1,LEN(A830)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="843">
       <c r="B843">
-        <f t="array" aca="1" ref="B843" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A832,";",REPT(" ",LEN(A832)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A832)-LEN(SUBSTITUTE(A832,";",""))+1))*LEN(A832)+1,LEN(A832)+1)))</f>
+        <f t="array" aca="1" ref="B843" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A831,";",REPT(" ",LEN(A831)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A831)-LEN(SUBSTITUTE(A831,";",""))+1))*LEN(A831)+1,LEN(A831)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="844">
       <c r="B844">
-        <f t="array" aca="1" ref="B844" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A833,";",REPT(" ",LEN(A833)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A833)-LEN(SUBSTITUTE(A833,";",""))+1))*LEN(A833)+1,LEN(A833)+1)))</f>
+        <f t="array" aca="1" ref="B844" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A832,";",REPT(" ",LEN(A832)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A832)-LEN(SUBSTITUTE(A832,";",""))+1))*LEN(A832)+1,LEN(A832)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="845">
       <c r="B845">
-        <f t="array" aca="1" ref="B845" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A834,";",REPT(" ",LEN(A834)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A834)-LEN(SUBSTITUTE(A834,";",""))+1))*LEN(A834)+1,LEN(A834)+1)))</f>
+        <f t="array" aca="1" ref="B845" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A833,";",REPT(" ",LEN(A833)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A833)-LEN(SUBSTITUTE(A833,";",""))+1))*LEN(A833)+1,LEN(A833)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="846">
       <c r="B846">
-        <f t="array" aca="1" ref="B846" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A835,";",REPT(" ",LEN(A835)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A835)-LEN(SUBSTITUTE(A835,";",""))+1))*LEN(A835)+1,LEN(A835)+1)))</f>
+        <f t="array" aca="1" ref="B846" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A834,";",REPT(" ",LEN(A834)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A834)-LEN(SUBSTITUTE(A834,";",""))+1))*LEN(A834)+1,LEN(A834)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="847">
       <c r="B847">
-        <f t="array" aca="1" ref="B847" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A836,";",REPT(" ",LEN(A836)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A836)-LEN(SUBSTITUTE(A836,";",""))+1))*LEN(A836)+1,LEN(A836)+1)))</f>
+        <f t="array" aca="1" ref="B847" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A835,";",REPT(" ",LEN(A835)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A835)-LEN(SUBSTITUTE(A835,";",""))+1))*LEN(A835)+1,LEN(A835)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="848">
       <c r="B848">
-        <f t="array" aca="1" ref="B848" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A837,";",REPT(" ",LEN(A837)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A837)-LEN(SUBSTITUTE(A837,";",""))+1))*LEN(A837)+1,LEN(A837)+1)))</f>
+        <f t="array" aca="1" ref="B848" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A836,";",REPT(" ",LEN(A836)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A836)-LEN(SUBSTITUTE(A836,";",""))+1))*LEN(A836)+1,LEN(A836)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="849">
       <c r="B849">
-        <f t="array" aca="1" ref="B849" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A838,";",REPT(" ",LEN(A838)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A838)-LEN(SUBSTITUTE(A838,";",""))+1))*LEN(A838)+1,LEN(A838)+1)))</f>
+        <f t="array" aca="1" ref="B849" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A837,";",REPT(" ",LEN(A837)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A837)-LEN(SUBSTITUTE(A837,";",""))+1))*LEN(A837)+1,LEN(A837)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="850">
       <c r="B850">
-        <f t="array" aca="1" ref="B850" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A839,";",REPT(" ",LEN(A839)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A839)-LEN(SUBSTITUTE(A839,";",""))+1))*LEN(A839)+1,LEN(A839)+1)))</f>
+        <f t="array" aca="1" ref="B850" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A838,";",REPT(" ",LEN(A838)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A838)-LEN(SUBSTITUTE(A838,";",""))+1))*LEN(A838)+1,LEN(A838)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="851">
       <c r="B851">
-        <f t="array" aca="1" ref="B851" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A840,";",REPT(" ",LEN(A840)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A840)-LEN(SUBSTITUTE(A840,";",""))+1))*LEN(A840)+1,LEN(A840)+1)))</f>
+        <f t="array" aca="1" ref="B851" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A839,";",REPT(" ",LEN(A839)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A839)-LEN(SUBSTITUTE(A839,";",""))+1))*LEN(A839)+1,LEN(A839)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="852">
       <c r="B852">
-        <f t="array" aca="1" ref="B852" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A841,";",REPT(" ",LEN(A841)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A841)-LEN(SUBSTITUTE(A841,";",""))+1))*LEN(A841)+1,LEN(A841)+1)))</f>
+        <f t="array" aca="1" ref="B852" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A840,";",REPT(" ",LEN(A840)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A840)-LEN(SUBSTITUTE(A840,";",""))+1))*LEN(A840)+1,LEN(A840)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="853">
       <c r="B853">
-        <f t="array" aca="1" ref="B853" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A842,";",REPT(" ",LEN(A842)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A842)-LEN(SUBSTITUTE(A842,";",""))+1))*LEN(A842)+1,LEN(A842)+1)))</f>
+        <f t="array" aca="1" ref="B853" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A841,";",REPT(" ",LEN(A841)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A841)-LEN(SUBSTITUTE(A841,";",""))+1))*LEN(A841)+1,LEN(A841)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="854">
       <c r="B854">
-        <f t="array" aca="1" ref="B854" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A843,";",REPT(" ",LEN(A843)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A843)-LEN(SUBSTITUTE(A843,";",""))+1))*LEN(A843)+1,LEN(A843)+1)))</f>
+        <f t="array" aca="1" ref="B854" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A842,";",REPT(" ",LEN(A842)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A842)-LEN(SUBSTITUTE(A842,";",""))+1))*LEN(A842)+1,LEN(A842)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="855">
       <c r="B855">
-        <f t="array" aca="1" ref="B855" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A844,";",REPT(" ",LEN(A844)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A844)-LEN(SUBSTITUTE(A844,";",""))+1))*LEN(A844)+1,LEN(A844)+1)))</f>
+        <f t="array" aca="1" ref="B855" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A843,";",REPT(" ",LEN(A843)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A843)-LEN(SUBSTITUTE(A843,";",""))+1))*LEN(A843)+1,LEN(A843)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="856">
       <c r="B856">
-        <f t="array" aca="1" ref="B856" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A845,";",REPT(" ",LEN(A845)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A845)-LEN(SUBSTITUTE(A845,";",""))+1))*LEN(A845)+1,LEN(A845)+1)))</f>
+        <f t="array" aca="1" ref="B856" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A844,";",REPT(" ",LEN(A844)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A844)-LEN(SUBSTITUTE(A844,";",""))+1))*LEN(A844)+1,LEN(A844)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="857">
       <c r="B857">
-        <f t="array" aca="1" ref="B857" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A846,";",REPT(" ",LEN(A846)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A846)-LEN(SUBSTITUTE(A846,";",""))+1))*LEN(A846)+1,LEN(A846)+1)))</f>
+        <f t="array" aca="1" ref="B857" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A845,";",REPT(" ",LEN(A845)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A845)-LEN(SUBSTITUTE(A845,";",""))+1))*LEN(A845)+1,LEN(A845)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="858">
       <c r="B858">
-        <f t="array" aca="1" ref="B858" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A847,";",REPT(" ",LEN(A847)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A847)-LEN(SUBSTITUTE(A847,";",""))+1))*LEN(A847)+1,LEN(A847)+1)))</f>
+        <f t="array" aca="1" ref="B858" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A846,";",REPT(" ",LEN(A846)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A846)-LEN(SUBSTITUTE(A846,";",""))+1))*LEN(A846)+1,LEN(A846)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="859">
       <c r="B859">
-        <f t="array" aca="1" ref="B859" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A848,";",REPT(" ",LEN(A848)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A848)-LEN(SUBSTITUTE(A848,";",""))+1))*LEN(A848)+1,LEN(A848)+1)))</f>
+        <f t="array" aca="1" ref="B859" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A847,";",REPT(" ",LEN(A847)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A847)-LEN(SUBSTITUTE(A847,";",""))+1))*LEN(A847)+1,LEN(A847)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="860">
       <c r="B860">
-        <f t="array" aca="1" ref="B860" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A849,";",REPT(" ",LEN(A849)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A849)-LEN(SUBSTITUTE(A849,";",""))+1))*LEN(A849)+1,LEN(A849)+1)))</f>
+        <f t="array" aca="1" ref="B860" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A848,";",REPT(" ",LEN(A848)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A848)-LEN(SUBSTITUTE(A848,";",""))+1))*LEN(A848)+1,LEN(A848)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="861">
       <c r="B861">
-        <f t="array" aca="1" ref="B861" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A850,";",REPT(" ",LEN(A850)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A850)-LEN(SUBSTITUTE(A850,";",""))+1))*LEN(A850)+1,LEN(A850)+1)))</f>
+        <f t="array" aca="1" ref="B861" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A849,";",REPT(" ",LEN(A849)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A849)-LEN(SUBSTITUTE(A849,";",""))+1))*LEN(A849)+1,LEN(A849)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="862">
       <c r="B862">
-        <f t="array" aca="1" ref="B862" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A851,";",REPT(" ",LEN(A851)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A851)-LEN(SUBSTITUTE(A851,";",""))+1))*LEN(A851)+1,LEN(A851)+1)))</f>
+        <f t="array" aca="1" ref="B862" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A850,";",REPT(" ",LEN(A850)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A850)-LEN(SUBSTITUTE(A850,";",""))+1))*LEN(A850)+1,LEN(A850)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="863">
       <c r="B863">
-        <f t="array" aca="1" ref="B863" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A852,";",REPT(" ",LEN(A852)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A852)-LEN(SUBSTITUTE(A852,";",""))+1))*LEN(A852)+1,LEN(A852)+1)))</f>
+        <f t="array" aca="1" ref="B863" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A851,";",REPT(" ",LEN(A851)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A851)-LEN(SUBSTITUTE(A851,";",""))+1))*LEN(A851)+1,LEN(A851)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="864">
       <c r="B864">
-        <f t="array" aca="1" ref="B864" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A853,";",REPT(" ",LEN(A853)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A853)-LEN(SUBSTITUTE(A853,";",""))+1))*LEN(A853)+1,LEN(A853)+1)))</f>
+        <f t="array" aca="1" ref="B864" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A852,";",REPT(" ",LEN(A852)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A852)-LEN(SUBSTITUTE(A852,";",""))+1))*LEN(A852)+1,LEN(A852)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="865">
       <c r="B865">
-        <f t="array" aca="1" ref="B865" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A854,";",REPT(" ",LEN(A854)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A854)-LEN(SUBSTITUTE(A854,";",""))+1))*LEN(A854)+1,LEN(A854)+1)))</f>
+        <f t="array" aca="1" ref="B865" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A853,";",REPT(" ",LEN(A853)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A853)-LEN(SUBSTITUTE(A853,";",""))+1))*LEN(A853)+1,LEN(A853)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="866">
       <c r="B866">
-        <f t="array" aca="1" ref="B866" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A855,";",REPT(" ",LEN(A855)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A855)-LEN(SUBSTITUTE(A855,";",""))+1))*LEN(A855)+1,LEN(A855)+1)))</f>
+        <f t="array" aca="1" ref="B866" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A854,";",REPT(" ",LEN(A854)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A854)-LEN(SUBSTITUTE(A854,";",""))+1))*LEN(A854)+1,LEN(A854)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="867">
       <c r="B867">
-        <f t="array" aca="1" ref="B867" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A856,";",REPT(" ",LEN(A856)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A856)-LEN(SUBSTITUTE(A856,";",""))+1))*LEN(A856)+1,LEN(A856)+1)))</f>
+        <f t="array" aca="1" ref="B867" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A855,";",REPT(" ",LEN(A855)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A855)-LEN(SUBSTITUTE(A855,";",""))+1))*LEN(A855)+1,LEN(A855)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="868">
       <c r="B868">
-        <f t="array" aca="1" ref="B868" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A857,";",REPT(" ",LEN(A857)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A857)-LEN(SUBSTITUTE(A857,";",""))+1))*LEN(A857)+1,LEN(A857)+1)))</f>
+        <f t="array" aca="1" ref="B868" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A856,";",REPT(" ",LEN(A856)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A856)-LEN(SUBSTITUTE(A856,";",""))+1))*LEN(A856)+1,LEN(A856)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="869">
       <c r="B869">
-        <f t="array" aca="1" ref="B869" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A858,";",REPT(" ",LEN(A858)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A858)-LEN(SUBSTITUTE(A858,";",""))+1))*LEN(A858)+1,LEN(A858)+1)))</f>
+        <f t="array" aca="1" ref="B869" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A857,";",REPT(" ",LEN(A857)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A857)-LEN(SUBSTITUTE(A857,";",""))+1))*LEN(A857)+1,LEN(A857)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="870">
       <c r="B870">
-        <f t="array" aca="1" ref="B870" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A859,";",REPT(" ",LEN(A859)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A859)-LEN(SUBSTITUTE(A859,";",""))+1))*LEN(A859)+1,LEN(A859)+1)))</f>
+        <f t="array" aca="1" ref="B870" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A858,";",REPT(" ",LEN(A858)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A858)-LEN(SUBSTITUTE(A858,";",""))+1))*LEN(A858)+1,LEN(A858)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="871">
       <c r="B871">
-        <f t="array" aca="1" ref="B871" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A860,";",REPT(" ",LEN(A860)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A860)-LEN(SUBSTITUTE(A860,";",""))+1))*LEN(A860)+1,LEN(A860)+1)))</f>
+        <f t="array" aca="1" ref="B871" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A859,";",REPT(" ",LEN(A859)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A859)-LEN(SUBSTITUTE(A859,";",""))+1))*LEN(A859)+1,LEN(A859)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="872">
       <c r="B872">
-        <f t="array" aca="1" ref="B872" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A861,";",REPT(" ",LEN(A861)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A861)-LEN(SUBSTITUTE(A861,";",""))+1))*LEN(A861)+1,LEN(A861)+1)))</f>
+        <f t="array" aca="1" ref="B872" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A860,";",REPT(" ",LEN(A860)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A860)-LEN(SUBSTITUTE(A860,";",""))+1))*LEN(A860)+1,LEN(A860)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="873">
       <c r="B873">
-        <f t="array" aca="1" ref="B873" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A862,";",REPT(" ",LEN(A862)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A862)-LEN(SUBSTITUTE(A862,";",""))+1))*LEN(A862)+1,LEN(A862)+1)))</f>
+        <f t="array" aca="1" ref="B873" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A861,";",REPT(" ",LEN(A861)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A861)-LEN(SUBSTITUTE(A861,";",""))+1))*LEN(A861)+1,LEN(A861)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="874">
       <c r="B874">
-        <f t="array" aca="1" ref="B874" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A863,";",REPT(" ",LEN(A863)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A863)-LEN(SUBSTITUTE(A863,";",""))+1))*LEN(A863)+1,LEN(A863)+1)))</f>
+        <f t="array" aca="1" ref="B874" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A862,";",REPT(" ",LEN(A862)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A862)-LEN(SUBSTITUTE(A862,";",""))+1))*LEN(A862)+1,LEN(A862)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="875">
       <c r="B875">
-        <f t="array" aca="1" ref="B875" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A864,";",REPT(" ",LEN(A864)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A864)-LEN(SUBSTITUTE(A864,";",""))+1))*LEN(A864)+1,LEN(A864)+1)))</f>
+        <f t="array" aca="1" ref="B875" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A863,";",REPT(" ",LEN(A863)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A863)-LEN(SUBSTITUTE(A863,";",""))+1))*LEN(A863)+1,LEN(A863)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="876">
       <c r="B876">
-        <f t="array" aca="1" ref="B876" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A865,";",REPT(" ",LEN(A865)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A865)-LEN(SUBSTITUTE(A865,";",""))+1))*LEN(A865)+1,LEN(A865)+1)))</f>
+        <f t="array" aca="1" ref="B876" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A864,";",REPT(" ",LEN(A864)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A864)-LEN(SUBSTITUTE(A864,";",""))+1))*LEN(A864)+1,LEN(A864)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="877">
       <c r="B877">
-        <f t="array" aca="1" ref="B877" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A866,";",REPT(" ",LEN(A866)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A866)-LEN(SUBSTITUTE(A866,";",""))+1))*LEN(A866)+1,LEN(A866)+1)))</f>
+        <f t="array" aca="1" ref="B877" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A865,";",REPT(" ",LEN(A865)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A865)-LEN(SUBSTITUTE(A865,";",""))+1))*LEN(A865)+1,LEN(A865)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="878">
       <c r="B878">
-        <f t="array" aca="1" ref="B878" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A867,";",REPT(" ",LEN(A867)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A867)-LEN(SUBSTITUTE(A867,";",""))+1))*LEN(A867)+1,LEN(A867)+1)))</f>
+        <f t="array" aca="1" ref="B878" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A866,";",REPT(" ",LEN(A866)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A866)-LEN(SUBSTITUTE(A866,";",""))+1))*LEN(A866)+1,LEN(A866)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="879">
       <c r="B879">
-        <f t="array" aca="1" ref="B879" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A868,";",REPT(" ",LEN(A868)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A868)-LEN(SUBSTITUTE(A868,";",""))+1))*LEN(A868)+1,LEN(A868)+1)))</f>
+        <f t="array" aca="1" ref="B879" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A867,";",REPT(" ",LEN(A867)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A867)-LEN(SUBSTITUTE(A867,";",""))+1))*LEN(A867)+1,LEN(A867)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="880">
       <c r="B880">
-        <f t="array" aca="1" ref="B880" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A869,";",REPT(" ",LEN(A869)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A869)-LEN(SUBSTITUTE(A869,";",""))+1))*LEN(A869)+1,LEN(A869)+1)))</f>
+        <f t="array" aca="1" ref="B880" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A868,";",REPT(" ",LEN(A868)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A868)-LEN(SUBSTITUTE(A868,";",""))+1))*LEN(A868)+1,LEN(A868)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="881">
       <c r="B881">
-        <f t="array" aca="1" ref="B881" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A870,";",REPT(" ",LEN(A870)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A870)-LEN(SUBSTITUTE(A870,";",""))+1))*LEN(A870)+1,LEN(A870)+1)))</f>
+        <f t="array" aca="1" ref="B881" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A869,";",REPT(" ",LEN(A869)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A869)-LEN(SUBSTITUTE(A869,";",""))+1))*LEN(A869)+1,LEN(A869)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="882">
       <c r="B882">
-        <f t="array" aca="1" ref="B882" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A871,";",REPT(" ",LEN(A871)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A871)-LEN(SUBSTITUTE(A871,";",""))+1))*LEN(A871)+1,LEN(A871)+1)))</f>
+        <f t="array" aca="1" ref="B882" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A870,";",REPT(" ",LEN(A870)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A870)-LEN(SUBSTITUTE(A870,";",""))+1))*LEN(A870)+1,LEN(A870)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="883">
       <c r="B883">
-        <f t="array" aca="1" ref="B883" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A872,";",REPT(" ",LEN(A872)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A872)-LEN(SUBSTITUTE(A872,";",""))+1))*LEN(A872)+1,LEN(A872)+1)))</f>
+        <f t="array" aca="1" ref="B883" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A871,";",REPT(" ",LEN(A871)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A871)-LEN(SUBSTITUTE(A871,";",""))+1))*LEN(A871)+1,LEN(A871)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="884">
       <c r="B884">
-        <f t="array" aca="1" ref="B884" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A873,";",REPT(" ",LEN(A873)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A873)-LEN(SUBSTITUTE(A873,";",""))+1))*LEN(A873)+1,LEN(A873)+1)))</f>
+        <f t="array" aca="1" ref="B884" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A872,";",REPT(" ",LEN(A872)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A872)-LEN(SUBSTITUTE(A872,";",""))+1))*LEN(A872)+1,LEN(A872)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="885">
       <c r="B885">
-        <f t="array" aca="1" ref="B885" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A874,";",REPT(" ",LEN(A874)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A874)-LEN(SUBSTITUTE(A874,";",""))+1))*LEN(A874)+1,LEN(A874)+1)))</f>
+        <f t="array" aca="1" ref="B885" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A873,";",REPT(" ",LEN(A873)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A873)-LEN(SUBSTITUTE(A873,";",""))+1))*LEN(A873)+1,LEN(A873)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="886">
       <c r="B886">
-        <f t="array" aca="1" ref="B886" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A875,";",REPT(" ",LEN(A875)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A875)-LEN(SUBSTITUTE(A875,";",""))+1))*LEN(A875)+1,LEN(A875)+1)))</f>
+        <f t="array" aca="1" ref="B886" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A874,";",REPT(" ",LEN(A874)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A874)-LEN(SUBSTITUTE(A874,";",""))+1))*LEN(A874)+1,LEN(A874)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="887">
       <c r="B887">
-        <f t="array" aca="1" ref="B887" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A876,";",REPT(" ",LEN(A876)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A876)-LEN(SUBSTITUTE(A876,";",""))+1))*LEN(A876)+1,LEN(A876)+1)))</f>
+        <f t="array" aca="1" ref="B887" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A875,";",REPT(" ",LEN(A875)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A875)-LEN(SUBSTITUTE(A875,";",""))+1))*LEN(A875)+1,LEN(A875)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="888">
       <c r="B888">
-        <f t="array" aca="1" ref="B888" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A877,";",REPT(" ",LEN(A877)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A877)-LEN(SUBSTITUTE(A877,";",""))+1))*LEN(A877)+1,LEN(A877)+1)))</f>
+        <f t="array" aca="1" ref="B888" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A876,";",REPT(" ",LEN(A876)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A876)-LEN(SUBSTITUTE(A876,";",""))+1))*LEN(A876)+1,LEN(A876)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="889">
       <c r="B889">
-        <f t="array" aca="1" ref="B889" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A878,";",REPT(" ",LEN(A878)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A878)-LEN(SUBSTITUTE(A878,";",""))+1))*LEN(A878)+1,LEN(A878)+1)))</f>
+        <f t="array" aca="1" ref="B889" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A877,";",REPT(" ",LEN(A877)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A877)-LEN(SUBSTITUTE(A877,";",""))+1))*LEN(A877)+1,LEN(A877)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="890">
       <c r="B890">
-        <f t="array" aca="1" ref="B890" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A879,";",REPT(" ",LEN(A879)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A879)-LEN(SUBSTITUTE(A879,";",""))+1))*LEN(A879)+1,LEN(A879)+1)))</f>
+        <f t="array" aca="1" ref="B890" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A878,";",REPT(" ",LEN(A878)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A878)-LEN(SUBSTITUTE(A878,";",""))+1))*LEN(A878)+1,LEN(A878)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="891">
       <c r="B891">
-        <f t="array" aca="1" ref="B891" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A880,";",REPT(" ",LEN(A880)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A880)-LEN(SUBSTITUTE(A880,";",""))+1))*LEN(A880)+1,LEN(A880)+1)))</f>
+        <f t="array" aca="1" ref="B891" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A879,";",REPT(" ",LEN(A879)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A879)-LEN(SUBSTITUTE(A879,";",""))+1))*LEN(A879)+1,LEN(A879)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="892">
       <c r="B892">
-        <f t="array" aca="1" ref="B892" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A881,";",REPT(" ",LEN(A881)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A881)-LEN(SUBSTITUTE(A881,";",""))+1))*LEN(A881)+1,LEN(A881)+1)))</f>
+        <f t="array" aca="1" ref="B892" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A880,";",REPT(" ",LEN(A880)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A880)-LEN(SUBSTITUTE(A880,";",""))+1))*LEN(A880)+1,LEN(A880)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="893">
       <c r="B893">
-        <f t="array" aca="1" ref="B893" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A882,";",REPT(" ",LEN(A882)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A882)-LEN(SUBSTITUTE(A882,";",""))+1))*LEN(A882)+1,LEN(A882)+1)))</f>
+        <f t="array" aca="1" ref="B893" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A881,";",REPT(" ",LEN(A881)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A881)-LEN(SUBSTITUTE(A881,";",""))+1))*LEN(A881)+1,LEN(A881)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="894">
       <c r="B894">
-        <f t="array" aca="1" ref="B894" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A883,";",REPT(" ",LEN(A883)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A883)-LEN(SUBSTITUTE(A883,";",""))+1))*LEN(A883)+1,LEN(A883)+1)))</f>
+        <f t="array" aca="1" ref="B894" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A882,";",REPT(" ",LEN(A882)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A882)-LEN(SUBSTITUTE(A882,";",""))+1))*LEN(A882)+1,LEN(A882)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="895">
       <c r="B895">
-        <f t="array" aca="1" ref="B895" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A884,";",REPT(" ",LEN(A884)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A884)-LEN(SUBSTITUTE(A884,";",""))+1))*LEN(A884)+1,LEN(A884)+1)))</f>
+        <f t="array" aca="1" ref="B895" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A883,";",REPT(" ",LEN(A883)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A883)-LEN(SUBSTITUTE(A883,";",""))+1))*LEN(A883)+1,LEN(A883)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="896">
       <c r="B896">
-        <f t="array" aca="1" ref="B896" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A885,";",REPT(" ",LEN(A885)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A885)-LEN(SUBSTITUTE(A885,";",""))+1))*LEN(A885)+1,LEN(A885)+1)))</f>
+        <f t="array" aca="1" ref="B896" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A884,";",REPT(" ",LEN(A884)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A884)-LEN(SUBSTITUTE(A884,";",""))+1))*LEN(A884)+1,LEN(A884)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="897">
       <c r="B897">
-        <f t="array" aca="1" ref="B897" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A886,";",REPT(" ",LEN(A886)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A886)-LEN(SUBSTITUTE(A886,";",""))+1))*LEN(A886)+1,LEN(A886)+1)))</f>
+        <f t="array" aca="1" ref="B897" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A885,";",REPT(" ",LEN(A885)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A885)-LEN(SUBSTITUTE(A885,";",""))+1))*LEN(A885)+1,LEN(A885)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="898">
       <c r="B898">
-        <f t="array" aca="1" ref="B898" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A887,";",REPT(" ",LEN(A887)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A887)-LEN(SUBSTITUTE(A887,";",""))+1))*LEN(A887)+1,LEN(A887)+1)))</f>
+        <f t="array" aca="1" ref="B898" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A886,";",REPT(" ",LEN(A886)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A886)-LEN(SUBSTITUTE(A886,";",""))+1))*LEN(A886)+1,LEN(A886)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="899">
       <c r="B899">
-        <f t="array" aca="1" ref="B899" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A888,";",REPT(" ",LEN(A888)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A888)-LEN(SUBSTITUTE(A888,";",""))+1))*LEN(A888)+1,LEN(A888)+1)))</f>
+        <f t="array" aca="1" ref="B899" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A887,";",REPT(" ",LEN(A887)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A887)-LEN(SUBSTITUTE(A887,";",""))+1))*LEN(A887)+1,LEN(A887)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="900">
       <c r="B900">
-        <f t="array" aca="1" ref="B900" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A889,";",REPT(" ",LEN(A889)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A889)-LEN(SUBSTITUTE(A889,";",""))+1))*LEN(A889)+1,LEN(A889)+1)))</f>
+        <f t="array" aca="1" ref="B900" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A888,";",REPT(" ",LEN(A888)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A888)-LEN(SUBSTITUTE(A888,";",""))+1))*LEN(A888)+1,LEN(A888)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="901">
       <c r="B901">
-        <f t="array" aca="1" ref="B901" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A890,";",REPT(" ",LEN(A890)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A890)-LEN(SUBSTITUTE(A890,";",""))+1))*LEN(A890)+1,LEN(A890)+1)))</f>
+        <f t="array" aca="1" ref="B901" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A889,";",REPT(" ",LEN(A889)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A889)-LEN(SUBSTITUTE(A889,";",""))+1))*LEN(A889)+1,LEN(A889)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="902">
       <c r="B902">
-        <f t="array" aca="1" ref="B902" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A891,";",REPT(" ",LEN(A891)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A891)-LEN(SUBSTITUTE(A891,";",""))+1))*LEN(A891)+1,LEN(A891)+1)))</f>
+        <f t="array" aca="1" ref="B902" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A890,";",REPT(" ",LEN(A890)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A890)-LEN(SUBSTITUTE(A890,";",""))+1))*LEN(A890)+1,LEN(A890)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="903">
       <c r="B903">
-        <f t="array" aca="1" ref="B903" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A892,";",REPT(" ",LEN(A892)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A892)-LEN(SUBSTITUTE(A892,";",""))+1))*LEN(A892)+1,LEN(A892)+1)))</f>
+        <f t="array" aca="1" ref="B903" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A891,";",REPT(" ",LEN(A891)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A891)-LEN(SUBSTITUTE(A891,";",""))+1))*LEN(A891)+1,LEN(A891)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="904">
       <c r="B904">
-        <f t="array" aca="1" ref="B904" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A893,";",REPT(" ",LEN(A893)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A893)-LEN(SUBSTITUTE(A893,";",""))+1))*LEN(A893)+1,LEN(A893)+1)))</f>
+        <f t="array" aca="1" ref="B904" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A892,";",REPT(" ",LEN(A892)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A892)-LEN(SUBSTITUTE(A892,";",""))+1))*LEN(A892)+1,LEN(A892)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="905">
       <c r="B905">
-        <f t="array" aca="1" ref="B905" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A894,";",REPT(" ",LEN(A894)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A894)-LEN(SUBSTITUTE(A894,";",""))+1))*LEN(A894)+1,LEN(A894)+1)))</f>
+        <f t="array" aca="1" ref="B905" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A893,";",REPT(" ",LEN(A893)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A893)-LEN(SUBSTITUTE(A893,";",""))+1))*LEN(A893)+1,LEN(A893)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="906">
       <c r="B906">
-        <f t="array" aca="1" ref="B906" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A895,";",REPT(" ",LEN(A895)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A895)-LEN(SUBSTITUTE(A895,";",""))+1))*LEN(A895)+1,LEN(A895)+1)))</f>
+        <f t="array" aca="1" ref="B906" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A894,";",REPT(" ",LEN(A894)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A894)-LEN(SUBSTITUTE(A894,";",""))+1))*LEN(A894)+1,LEN(A894)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="907">
       <c r="B907">
-        <f t="array" aca="1" ref="B907" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A896,";",REPT(" ",LEN(A896)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A896)-LEN(SUBSTITUTE(A896,";",""))+1))*LEN(A896)+1,LEN(A896)+1)))</f>
+        <f t="array" aca="1" ref="B907" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A895,";",REPT(" ",LEN(A895)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A895)-LEN(SUBSTITUTE(A895,";",""))+1))*LEN(A895)+1,LEN(A895)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="908">
       <c r="B908">
-        <f t="array" aca="1" ref="B908" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A897,";",REPT(" ",LEN(A897)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A897)-LEN(SUBSTITUTE(A897,";",""))+1))*LEN(A897)+1,LEN(A897)+1)))</f>
+        <f t="array" aca="1" ref="B908" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A896,";",REPT(" ",LEN(A896)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A896)-LEN(SUBSTITUTE(A896,";",""))+1))*LEN(A896)+1,LEN(A896)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="909">
       <c r="B909">
-        <f t="array" aca="1" ref="B909" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A898,";",REPT(" ",LEN(A898)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A898)-LEN(SUBSTITUTE(A898,";",""))+1))*LEN(A898)+1,LEN(A898)+1)))</f>
+        <f t="array" aca="1" ref="B909" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A897,";",REPT(" ",LEN(A897)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A897)-LEN(SUBSTITUTE(A897,";",""))+1))*LEN(A897)+1,LEN(A897)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="910">
       <c r="B910">
-        <f t="array" aca="1" ref="B910" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A899,";",REPT(" ",LEN(A899)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A899)-LEN(SUBSTITUTE(A899,";",""))+1))*LEN(A899)+1,LEN(A899)+1)))</f>
+        <f t="array" aca="1" ref="B910" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A898,";",REPT(" ",LEN(A898)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A898)-LEN(SUBSTITUTE(A898,";",""))+1))*LEN(A898)+1,LEN(A898)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="911">
       <c r="B911">
-        <f t="array" aca="1" ref="B911" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A900,";",REPT(" ",LEN(A900)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A900)-LEN(SUBSTITUTE(A900,";",""))+1))*LEN(A900)+1,LEN(A900)+1)))</f>
+        <f t="array" aca="1" ref="B911" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A899,";",REPT(" ",LEN(A899)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A899)-LEN(SUBSTITUTE(A899,";",""))+1))*LEN(A899)+1,LEN(A899)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="912">
       <c r="B912">
-        <f t="array" aca="1" ref="B912" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A901,";",REPT(" ",LEN(A901)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A901)-LEN(SUBSTITUTE(A901,";",""))+1))*LEN(A901)+1,LEN(A901)+1)))</f>
+        <f t="array" aca="1" ref="B912" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A900,";",REPT(" ",LEN(A900)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A900)-LEN(SUBSTITUTE(A900,";",""))+1))*LEN(A900)+1,LEN(A900)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="913">
       <c r="B913">
-        <f t="array" aca="1" ref="B913" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A902,";",REPT(" ",LEN(A902)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A902)-LEN(SUBSTITUTE(A902,";",""))+1))*LEN(A902)+1,LEN(A902)+1)))</f>
+        <f t="array" aca="1" ref="B913" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A901,";",REPT(" ",LEN(A901)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A901)-LEN(SUBSTITUTE(A901,";",""))+1))*LEN(A901)+1,LEN(A901)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="914">
       <c r="B914">
-        <f t="array" aca="1" ref="B914" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A903,";",REPT(" ",LEN(A903)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A903)-LEN(SUBSTITUTE(A903,";",""))+1))*LEN(A903)+1,LEN(A903)+1)))</f>
+        <f t="array" aca="1" ref="B914" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A902,";",REPT(" ",LEN(A902)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A902)-LEN(SUBSTITUTE(A902,";",""))+1))*LEN(A902)+1,LEN(A902)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="915">
       <c r="B915">
-        <f t="array" aca="1" ref="B915" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A904,";",REPT(" ",LEN(A904)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A904)-LEN(SUBSTITUTE(A904,";",""))+1))*LEN(A904)+1,LEN(A904)+1)))</f>
+        <f t="array" aca="1" ref="B915" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A903,";",REPT(" ",LEN(A903)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A903)-LEN(SUBSTITUTE(A903,";",""))+1))*LEN(A903)+1,LEN(A903)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="916">
       <c r="B916">
-        <f t="array" aca="1" ref="B916" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A905,";",REPT(" ",LEN(A905)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A905)-LEN(SUBSTITUTE(A905,";",""))+1))*LEN(A905)+1,LEN(A905)+1)))</f>
+        <f t="array" aca="1" ref="B916" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A904,";",REPT(" ",LEN(A904)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A904)-LEN(SUBSTITUTE(A904,";",""))+1))*LEN(A904)+1,LEN(A904)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="917">
       <c r="B917">
-        <f t="array" aca="1" ref="B917" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A906,";",REPT(" ",LEN(A906)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A906)-LEN(SUBSTITUTE(A906,";",""))+1))*LEN(A906)+1,LEN(A906)+1)))</f>
+        <f t="array" aca="1" ref="B917" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A905,";",REPT(" ",LEN(A905)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A905)-LEN(SUBSTITUTE(A905,";",""))+1))*LEN(A905)+1,LEN(A905)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="918">
       <c r="B918">
-        <f t="array" aca="1" ref="B918" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A907,";",REPT(" ",LEN(A907)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A907)-LEN(SUBSTITUTE(A907,";",""))+1))*LEN(A907)+1,LEN(A907)+1)))</f>
+        <f t="array" aca="1" ref="B918" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A906,";",REPT(" ",LEN(A906)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A906)-LEN(SUBSTITUTE(A906,";",""))+1))*LEN(A906)+1,LEN(A906)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="919">
       <c r="B919">
-        <f t="array" aca="1" ref="B919" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A908,";",REPT(" ",LEN(A908)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A908)-LEN(SUBSTITUTE(A908,";",""))+1))*LEN(A908)+1,LEN(A908)+1)))</f>
+        <f t="array" aca="1" ref="B919" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A907,";",REPT(" ",LEN(A907)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A907)-LEN(SUBSTITUTE(A907,";",""))+1))*LEN(A907)+1,LEN(A907)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="920">
       <c r="B920">
-        <f t="array" aca="1" ref="B920" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A909,";",REPT(" ",LEN(A909)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A909)-LEN(SUBSTITUTE(A909,";",""))+1))*LEN(A909)+1,LEN(A909)+1)))</f>
+        <f t="array" aca="1" ref="B920" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A908,";",REPT(" ",LEN(A908)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A908)-LEN(SUBSTITUTE(A908,";",""))+1))*LEN(A908)+1,LEN(A908)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="921">
       <c r="B921">
-        <f t="array" aca="1" ref="B921" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A910,";",REPT(" ",LEN(A910)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A910)-LEN(SUBSTITUTE(A910,";",""))+1))*LEN(A910)+1,LEN(A910)+1)))</f>
+        <f t="array" aca="1" ref="B921" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A909,";",REPT(" ",LEN(A909)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A909)-LEN(SUBSTITUTE(A909,";",""))+1))*LEN(A909)+1,LEN(A909)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="922">
       <c r="B922">
-        <f t="array" aca="1" ref="B922" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A911,";",REPT(" ",LEN(A911)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A911)-LEN(SUBSTITUTE(A911,";",""))+1))*LEN(A911)+1,LEN(A911)+1)))</f>
+        <f t="array" aca="1" ref="B922" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A910,";",REPT(" ",LEN(A910)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A910)-LEN(SUBSTITUTE(A910,";",""))+1))*LEN(A910)+1,LEN(A910)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="923">
       <c r="B923">
-        <f t="array" aca="1" ref="B923" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A912,";",REPT(" ",LEN(A912)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A912)-LEN(SUBSTITUTE(A912,";",""))+1))*LEN(A912)+1,LEN(A912)+1)))</f>
+        <f t="array" aca="1" ref="B923" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A911,";",REPT(" ",LEN(A911)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A911)-LEN(SUBSTITUTE(A911,";",""))+1))*LEN(A911)+1,LEN(A911)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="924">
       <c r="B924">
-        <f t="array" aca="1" ref="B924" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A913,";",REPT(" ",LEN(A913)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A913)-LEN(SUBSTITUTE(A913,";",""))+1))*LEN(A913)+1,LEN(A913)+1)))</f>
+        <f t="array" aca="1" ref="B924" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A912,";",REPT(" ",LEN(A912)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A912)-LEN(SUBSTITUTE(A912,";",""))+1))*LEN(A912)+1,LEN(A912)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="925">
       <c r="B925">
-        <f t="array" aca="1" ref="B925" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A914,";",REPT(" ",LEN(A914)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A914)-LEN(SUBSTITUTE(A914,";",""))+1))*LEN(A914)+1,LEN(A914)+1)))</f>
+        <f t="array" aca="1" ref="B925" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A913,";",REPT(" ",LEN(A913)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A913)-LEN(SUBSTITUTE(A913,";",""))+1))*LEN(A913)+1,LEN(A913)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="926">
       <c r="B926">
-        <f t="array" aca="1" ref="B926" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A915,";",REPT(" ",LEN(A915)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A915)-LEN(SUBSTITUTE(A915,";",""))+1))*LEN(A915)+1,LEN(A915)+1)))</f>
+        <f t="array" aca="1" ref="B926" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A914,";",REPT(" ",LEN(A914)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A914)-LEN(SUBSTITUTE(A914,";",""))+1))*LEN(A914)+1,LEN(A914)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="927">
       <c r="B927">
-        <f t="array" aca="1" ref="B927" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A916,";",REPT(" ",LEN(A916)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A916)-LEN(SUBSTITUTE(A916,";",""))+1))*LEN(A916)+1,LEN(A916)+1)))</f>
+        <f t="array" aca="1" ref="B927" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A915,";",REPT(" ",LEN(A915)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A915)-LEN(SUBSTITUTE(A915,";",""))+1))*LEN(A915)+1,LEN(A915)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="928">
       <c r="B928">
-        <f t="array" aca="1" ref="B928" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A917,";",REPT(" ",LEN(A917)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A917)-LEN(SUBSTITUTE(A917,";",""))+1))*LEN(A917)+1,LEN(A917)+1)))</f>
+        <f t="array" aca="1" ref="B928" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A916,";",REPT(" ",LEN(A916)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A916)-LEN(SUBSTITUTE(A916,";",""))+1))*LEN(A916)+1,LEN(A916)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="929">
       <c r="B929">
-        <f t="array" aca="1" ref="B929" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A918,";",REPT(" ",LEN(A918)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A918)-LEN(SUBSTITUTE(A918,";",""))+1))*LEN(A918)+1,LEN(A918)+1)))</f>
+        <f t="array" aca="1" ref="B929" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A917,";",REPT(" ",LEN(A917)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A917)-LEN(SUBSTITUTE(A917,";",""))+1))*LEN(A917)+1,LEN(A917)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="930">
       <c r="B930">
-        <f t="array" aca="1" ref="B930" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A919,";",REPT(" ",LEN(A919)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A919)-LEN(SUBSTITUTE(A919,";",""))+1))*LEN(A919)+1,LEN(A919)+1)))</f>
+        <f t="array" aca="1" ref="B930" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A918,";",REPT(" ",LEN(A918)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A918)-LEN(SUBSTITUTE(A918,";",""))+1))*LEN(A918)+1,LEN(A918)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="931">
       <c r="B931">
-        <f t="array" aca="1" ref="B931" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A920,";",REPT(" ",LEN(A920)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A920)-LEN(SUBSTITUTE(A920,";",""))+1))*LEN(A920)+1,LEN(A920)+1)))</f>
+        <f t="array" aca="1" ref="B931" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A919,";",REPT(" ",LEN(A919)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A919)-LEN(SUBSTITUTE(A919,";",""))+1))*LEN(A919)+1,LEN(A919)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="932">
       <c r="B932">
-        <f t="array" aca="1" ref="B932" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A921,";",REPT(" ",LEN(A921)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A921)-LEN(SUBSTITUTE(A921,";",""))+1))*LEN(A921)+1,LEN(A921)+1)))</f>
+        <f t="array" aca="1" ref="B932" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A920,";",REPT(" ",LEN(A920)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A920)-LEN(SUBSTITUTE(A920,";",""))+1))*LEN(A920)+1,LEN(A920)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="933">
       <c r="B933">
-        <f t="array" aca="1" ref="B933" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A922,";",REPT(" ",LEN(A922)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A922)-LEN(SUBSTITUTE(A922,";",""))+1))*LEN(A922)+1,LEN(A922)+1)))</f>
+        <f t="array" aca="1" ref="B933" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A921,";",REPT(" ",LEN(A921)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A921)-LEN(SUBSTITUTE(A921,";",""))+1))*LEN(A921)+1,LEN(A921)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="934">
       <c r="B934">
-        <f t="array" aca="1" ref="B934" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A923,";",REPT(" ",LEN(A923)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A923)-LEN(SUBSTITUTE(A923,";",""))+1))*LEN(A923)+1,LEN(A923)+1)))</f>
+        <f t="array" aca="1" ref="B934" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A922,";",REPT(" ",LEN(A922)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A922)-LEN(SUBSTITUTE(A922,";",""))+1))*LEN(A922)+1,LEN(A922)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="935">
       <c r="B935">
-        <f t="array" aca="1" ref="B935" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A924,";",REPT(" ",LEN(A924)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A924)-LEN(SUBSTITUTE(A924,";",""))+1))*LEN(A924)+1,LEN(A924)+1)))</f>
+        <f t="array" aca="1" ref="B935" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A923,";",REPT(" ",LEN(A923)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A923)-LEN(SUBSTITUTE(A923,";",""))+1))*LEN(A923)+1,LEN(A923)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="936">
       <c r="B936">
-        <f t="array" aca="1" ref="B936" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A925,";",REPT(" ",LEN(A925)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A925)-LEN(SUBSTITUTE(A925,";",""))+1))*LEN(A925)+1,LEN(A925)+1)))</f>
+        <f t="array" aca="1" ref="B936" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A924,";",REPT(" ",LEN(A924)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A924)-LEN(SUBSTITUTE(A924,";",""))+1))*LEN(A924)+1,LEN(A924)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="937">
       <c r="B937">
-        <f t="array" aca="1" ref="B937" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A926,";",REPT(" ",LEN(A926)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A926)-LEN(SUBSTITUTE(A926,";",""))+1))*LEN(A926)+1,LEN(A926)+1)))</f>
+        <f t="array" aca="1" ref="B937" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A925,";",REPT(" ",LEN(A925)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A925)-LEN(SUBSTITUTE(A925,";",""))+1))*LEN(A925)+1,LEN(A925)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="938">
       <c r="B938">
-        <f t="array" aca="1" ref="B938" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A927,";",REPT(" ",LEN(A927)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A927)-LEN(SUBSTITUTE(A927,";",""))+1))*LEN(A927)+1,LEN(A927)+1)))</f>
+        <f t="array" aca="1" ref="B938" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A926,";",REPT(" ",LEN(A926)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A926)-LEN(SUBSTITUTE(A926,";",""))+1))*LEN(A926)+1,LEN(A926)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="939">
       <c r="B939">
-        <f t="array" aca="1" ref="B939" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A928,";",REPT(" ",LEN(A928)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A928)-LEN(SUBSTITUTE(A928,";",""))+1))*LEN(A928)+1,LEN(A928)+1)))</f>
+        <f t="array" aca="1" ref="B939" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A927,";",REPT(" ",LEN(A927)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A927)-LEN(SUBSTITUTE(A927,";",""))+1))*LEN(A927)+1,LEN(A927)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="940">
       <c r="B940">
-        <f t="array" aca="1" ref="B940" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A929,";",REPT(" ",LEN(A929)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A929)-LEN(SUBSTITUTE(A929,";",""))+1))*LEN(A929)+1,LEN(A929)+1)))</f>
+        <f t="array" aca="1" ref="B940" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A928,";",REPT(" ",LEN(A928)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A928)-LEN(SUBSTITUTE(A928,";",""))+1))*LEN(A928)+1,LEN(A928)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="941">
       <c r="B941">
-        <f t="array" aca="1" ref="B941" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A930,";",REPT(" ",LEN(A930)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A930)-LEN(SUBSTITUTE(A930,";",""))+1))*LEN(A930)+1,LEN(A930)+1)))</f>
+        <f t="array" aca="1" ref="B941" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A929,";",REPT(" ",LEN(A929)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A929)-LEN(SUBSTITUTE(A929,";",""))+1))*LEN(A929)+1,LEN(A929)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="942">
       <c r="B942">
-        <f t="array" aca="1" ref="B942" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A931,";",REPT(" ",LEN(A931)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A931)-LEN(SUBSTITUTE(A931,";",""))+1))*LEN(A931)+1,LEN(A931)+1)))</f>
+        <f t="array" aca="1" ref="B942" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A930,";",REPT(" ",LEN(A930)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A930)-LEN(SUBSTITUTE(A930,";",""))+1))*LEN(A930)+1,LEN(A930)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="943">
       <c r="B943">
-        <f t="array" aca="1" ref="B943" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A932,";",REPT(" ",LEN(A932)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A932)-LEN(SUBSTITUTE(A932,";",""))+1))*LEN(A932)+1,LEN(A932)+1)))</f>
+        <f t="array" aca="1" ref="B943" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A931,";",REPT(" ",LEN(A931)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A931)-LEN(SUBSTITUTE(A931,";",""))+1))*LEN(A931)+1,LEN(A931)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="944">
       <c r="B944">
-        <f t="array" aca="1" ref="B944" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A933,";",REPT(" ",LEN(A933)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A933)-LEN(SUBSTITUTE(A933,";",""))+1))*LEN(A933)+1,LEN(A933)+1)))</f>
+        <f t="array" aca="1" ref="B944" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A932,";",REPT(" ",LEN(A932)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A932)-LEN(SUBSTITUTE(A932,";",""))+1))*LEN(A932)+1,LEN(A932)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="945">
       <c r="B945">
-        <f t="array" aca="1" ref="B945" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A934,";",REPT(" ",LEN(A934)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A934)-LEN(SUBSTITUTE(A934,";",""))+1))*LEN(A934)+1,LEN(A934)+1)))</f>
+        <f t="array" aca="1" ref="B945" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A933,";",REPT(" ",LEN(A933)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A933)-LEN(SUBSTITUTE(A933,";",""))+1))*LEN(A933)+1,LEN(A933)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="946">
       <c r="B946">
-        <f t="array" aca="1" ref="B946" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A935,";",REPT(" ",LEN(A935)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A935)-LEN(SUBSTITUTE(A935,";",""))+1))*LEN(A935)+1,LEN(A935)+1)))</f>
+        <f t="array" aca="1" ref="B946" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A934,";",REPT(" ",LEN(A934)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A934)-LEN(SUBSTITUTE(A934,";",""))+1))*LEN(A934)+1,LEN(A934)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="947">
       <c r="B947">
-        <f t="array" aca="1" ref="B947" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A936,";",REPT(" ",LEN(A936)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A936)-LEN(SUBSTITUTE(A936,";",""))+1))*LEN(A936)+1,LEN(A936)+1)))</f>
+        <f t="array" aca="1" ref="B947" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A935,";",REPT(" ",LEN(A935)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A935)-LEN(SUBSTITUTE(A935,";",""))+1))*LEN(A935)+1,LEN(A935)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="948">
       <c r="B948">
-        <f t="array" aca="1" ref="B948" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A937,";",REPT(" ",LEN(A937)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A937)-LEN(SUBSTITUTE(A937,";",""))+1))*LEN(A937)+1,LEN(A937)+1)))</f>
+        <f t="array" aca="1" ref="B948" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A936,";",REPT(" ",LEN(A936)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A936)-LEN(SUBSTITUTE(A936,";",""))+1))*LEN(A936)+1,LEN(A936)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="949">
       <c r="B949">
-        <f t="array" aca="1" ref="B949" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A938,";",REPT(" ",LEN(A938)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A938)-LEN(SUBSTITUTE(A938,";",""))+1))*LEN(A938)+1,LEN(A938)+1)))</f>
+        <f t="array" aca="1" ref="B949" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A937,";",REPT(" ",LEN(A937)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A937)-LEN(SUBSTITUTE(A937,";",""))+1))*LEN(A937)+1,LEN(A937)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="950">
       <c r="B950">
-        <f t="array" aca="1" ref="B950" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A939,";",REPT(" ",LEN(A939)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A939)-LEN(SUBSTITUTE(A939,";",""))+1))*LEN(A939)+1,LEN(A939)+1)))</f>
+        <f t="array" aca="1" ref="B950" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A938,";",REPT(" ",LEN(A938)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A938)-LEN(SUBSTITUTE(A938,";",""))+1))*LEN(A938)+1,LEN(A938)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="951">
       <c r="B951">
-        <f t="array" aca="1" ref="B951" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A940,";",REPT(" ",LEN(A940)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A940)-LEN(SUBSTITUTE(A940,";",""))+1))*LEN(A940)+1,LEN(A940)+1)))</f>
+        <f t="array" aca="1" ref="B951" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A939,";",REPT(" ",LEN(A939)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A939)-LEN(SUBSTITUTE(A939,";",""))+1))*LEN(A939)+1,LEN(A939)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="952">
       <c r="B952">
-        <f t="array" aca="1" ref="B952" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A941,";",REPT(" ",LEN(A941)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A941)-LEN(SUBSTITUTE(A941,";",""))+1))*LEN(A941)+1,LEN(A941)+1)))</f>
+        <f t="array" aca="1" ref="B952" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A940,";",REPT(" ",LEN(A940)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A940)-LEN(SUBSTITUTE(A940,";",""))+1))*LEN(A940)+1,LEN(A940)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="953">
       <c r="B953">
-        <f t="array" aca="1" ref="B953" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A942,";",REPT(" ",LEN(A942)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A942)-LEN(SUBSTITUTE(A942,";",""))+1))*LEN(A942)+1,LEN(A942)+1)))</f>
+        <f t="array" aca="1" ref="B953" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A941,";",REPT(" ",LEN(A941)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A941)-LEN(SUBSTITUTE(A941,";",""))+1))*LEN(A941)+1,LEN(A941)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="954">
       <c r="B954">
-        <f t="array" aca="1" ref="B954" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A943,";",REPT(" ",LEN(A943)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A943)-LEN(SUBSTITUTE(A943,";",""))+1))*LEN(A943)+1,LEN(A943)+1)))</f>
+        <f t="array" aca="1" ref="B954" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A942,";",REPT(" ",LEN(A942)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A942)-LEN(SUBSTITUTE(A942,";",""))+1))*LEN(A942)+1,LEN(A942)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="955">
       <c r="B955">
-        <f t="array" aca="1" ref="B955" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A944,";",REPT(" ",LEN(A944)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A944)-LEN(SUBSTITUTE(A944,";",""))+1))*LEN(A944)+1,LEN(A944)+1)))</f>
+        <f t="array" aca="1" ref="B955" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A943,";",REPT(" ",LEN(A943)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A943)-LEN(SUBSTITUTE(A943,";",""))+1))*LEN(A943)+1,LEN(A943)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="956">
       <c r="B956">
-        <f t="array" aca="1" ref="B956" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A945,";",REPT(" ",LEN(A945)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A945)-LEN(SUBSTITUTE(A945,";",""))+1))*LEN(A945)+1,LEN(A945)+1)))</f>
+        <f t="array" aca="1" ref="B956" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A944,";",REPT(" ",LEN(A944)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A944)-LEN(SUBSTITUTE(A944,";",""))+1))*LEN(A944)+1,LEN(A944)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="957">
       <c r="B957">
-        <f t="array" aca="1" ref="B957" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A946,";",REPT(" ",LEN(A946)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A946)-LEN(SUBSTITUTE(A946,";",""))+1))*LEN(A946)+1,LEN(A946)+1)))</f>
+        <f t="array" aca="1" ref="B957" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A945,";",REPT(" ",LEN(A945)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A945)-LEN(SUBSTITUTE(A945,";",""))+1))*LEN(A945)+1,LEN(A945)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="958">
       <c r="B958">
-        <f t="array" aca="1" ref="B958" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A947,";",REPT(" ",LEN(A947)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A947)-LEN(SUBSTITUTE(A947,";",""))+1))*LEN(A947)+1,LEN(A947)+1)))</f>
+        <f t="array" aca="1" ref="B958" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A946,";",REPT(" ",LEN(A946)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A946)-LEN(SUBSTITUTE(A946,";",""))+1))*LEN(A946)+1,LEN(A946)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="959">
       <c r="B959">
-        <f t="array" aca="1" ref="B959" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A948,";",REPT(" ",LEN(A948)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A948)-LEN(SUBSTITUTE(A948,";",""))+1))*LEN(A948)+1,LEN(A948)+1)))</f>
+        <f t="array" aca="1" ref="B959" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A947,";",REPT(" ",LEN(A947)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A947)-LEN(SUBSTITUTE(A947,";",""))+1))*LEN(A947)+1,LEN(A947)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="960">
       <c r="B960">
-        <f t="array" aca="1" ref="B960" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A949,";",REPT(" ",LEN(A949)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A949)-LEN(SUBSTITUTE(A949,";",""))+1))*LEN(A949)+1,LEN(A949)+1)))</f>
+        <f t="array" aca="1" ref="B960" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A948,";",REPT(" ",LEN(A948)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A948)-LEN(SUBSTITUTE(A948,";",""))+1))*LEN(A948)+1,LEN(A948)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="961">
       <c r="B961">
-        <f t="array" aca="1" ref="B961" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A950,";",REPT(" ",LEN(A950)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A950)-LEN(SUBSTITUTE(A950,";",""))+1))*LEN(A950)+1,LEN(A950)+1)))</f>
+        <f t="array" aca="1" ref="B961" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A949,";",REPT(" ",LEN(A949)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A949)-LEN(SUBSTITUTE(A949,";",""))+1))*LEN(A949)+1,LEN(A949)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="962">
       <c r="B962">
-        <f t="array" aca="1" ref="B962" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A951,";",REPT(" ",LEN(A951)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A951)-LEN(SUBSTITUTE(A951,";",""))+1))*LEN(A951)+1,LEN(A951)+1)))</f>
+        <f t="array" aca="1" ref="B962" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A950,";",REPT(" ",LEN(A950)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A950)-LEN(SUBSTITUTE(A950,";",""))+1))*LEN(A950)+1,LEN(A950)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="963">
       <c r="B963">
-        <f t="array" aca="1" ref="B963" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A952,";",REPT(" ",LEN(A952)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A952)-LEN(SUBSTITUTE(A952,";",""))+1))*LEN(A952)+1,LEN(A952)+1)))</f>
+        <f t="array" aca="1" ref="B963" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A951,";",REPT(" ",LEN(A951)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A951)-LEN(SUBSTITUTE(A951,";",""))+1))*LEN(A951)+1,LEN(A951)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="964">
       <c r="B964">
-        <f t="array" aca="1" ref="B964" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A953,";",REPT(" ",LEN(A953)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A953)-LEN(SUBSTITUTE(A953,";",""))+1))*LEN(A953)+1,LEN(A953)+1)))</f>
+        <f t="array" aca="1" ref="B964" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A952,";",REPT(" ",LEN(A952)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A952)-LEN(SUBSTITUTE(A952,";",""))+1))*LEN(A952)+1,LEN(A952)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="965">
       <c r="B965">
-        <f t="array" aca="1" ref="B965" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A954,";",REPT(" ",LEN(A954)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A954)-LEN(SUBSTITUTE(A954,";",""))+1))*LEN(A954)+1,LEN(A954)+1)))</f>
+        <f t="array" aca="1" ref="B965" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A953,";",REPT(" ",LEN(A953)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A953)-LEN(SUBSTITUTE(A953,";",""))+1))*LEN(A953)+1,LEN(A953)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="966">
       <c r="B966">
-        <f t="array" aca="1" ref="B966" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A955,";",REPT(" ",LEN(A955)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A955)-LEN(SUBSTITUTE(A955,";",""))+1))*LEN(A955)+1,LEN(A955)+1)))</f>
+        <f t="array" aca="1" ref="B966" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A954,";",REPT(" ",LEN(A954)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A954)-LEN(SUBSTITUTE(A954,";",""))+1))*LEN(A954)+1,LEN(A954)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="967">
       <c r="B967">
-        <f t="array" aca="1" ref="B967" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A956,";",REPT(" ",LEN(A956)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A956)-LEN(SUBSTITUTE(A956,";",""))+1))*LEN(A956)+1,LEN(A956)+1)))</f>
+        <f t="array" aca="1" ref="B967" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A955,";",REPT(" ",LEN(A955)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A955)-LEN(SUBSTITUTE(A955,";",""))+1))*LEN(A955)+1,LEN(A955)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="968">
       <c r="B968">
-        <f t="array" aca="1" ref="B968" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A957,";",REPT(" ",LEN(A957)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A957)-LEN(SUBSTITUTE(A957,";",""))+1))*LEN(A957)+1,LEN(A957)+1)))</f>
+        <f t="array" aca="1" ref="B968" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A956,";",REPT(" ",LEN(A956)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A956)-LEN(SUBSTITUTE(A956,";",""))+1))*LEN(A956)+1,LEN(A956)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="969">
       <c r="B969">
-        <f t="array" aca="1" ref="B969" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A958,";",REPT(" ",LEN(A958)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A958)-LEN(SUBSTITUTE(A958,";",""))+1))*LEN(A958)+1,LEN(A958)+1)))</f>
+        <f t="array" aca="1" ref="B969" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A957,";",REPT(" ",LEN(A957)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A957)-LEN(SUBSTITUTE(A957,";",""))+1))*LEN(A957)+1,LEN(A957)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="970">
       <c r="B970">
-        <f t="array" aca="1" ref="B970" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A959,";",REPT(" ",LEN(A959)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A959)-LEN(SUBSTITUTE(A959,";",""))+1))*LEN(A959)+1,LEN(A959)+1)))</f>
+        <f t="array" aca="1" ref="B970" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A958,";",REPT(" ",LEN(A958)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A958)-LEN(SUBSTITUTE(A958,";",""))+1))*LEN(A958)+1,LEN(A958)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="971">
       <c r="B971">
-        <f t="array" aca="1" ref="B971" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A960,";",REPT(" ",LEN(A960)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A960)-LEN(SUBSTITUTE(A960,";",""))+1))*LEN(A960)+1,LEN(A960)+1)))</f>
+        <f t="array" aca="1" ref="B971" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A959,";",REPT(" ",LEN(A959)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A959)-LEN(SUBSTITUTE(A959,";",""))+1))*LEN(A959)+1,LEN(A959)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="972">
       <c r="B972">
-        <f t="array" aca="1" ref="B972" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A961,";",REPT(" ",LEN(A961)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A961)-LEN(SUBSTITUTE(A961,";",""))+1))*LEN(A961)+1,LEN(A961)+1)))</f>
+        <f t="array" aca="1" ref="B972" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A960,";",REPT(" ",LEN(A960)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A960)-LEN(SUBSTITUTE(A960,";",""))+1))*LEN(A960)+1,LEN(A960)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="973">
       <c r="B973">
-        <f t="array" aca="1" ref="B973" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A962,";",REPT(" ",LEN(A962)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A962)-LEN(SUBSTITUTE(A962,";",""))+1))*LEN(A962)+1,LEN(A962)+1)))</f>
+        <f t="array" aca="1" ref="B973" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A961,";",REPT(" ",LEN(A961)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A961)-LEN(SUBSTITUTE(A961,";",""))+1))*LEN(A961)+1,LEN(A961)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="974">
       <c r="B974">
-        <f t="array" aca="1" ref="B974" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A963,";",REPT(" ",LEN(A963)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A963)-LEN(SUBSTITUTE(A963,";",""))+1))*LEN(A963)+1,LEN(A963)+1)))</f>
+        <f t="array" aca="1" ref="B974" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A962,";",REPT(" ",LEN(A962)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A962)-LEN(SUBSTITUTE(A962,";",""))+1))*LEN(A962)+1,LEN(A962)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="975">
       <c r="B975">
-        <f t="array" aca="1" ref="B975" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A964,";",REPT(" ",LEN(A964)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A964)-LEN(SUBSTITUTE(A964,";",""))+1))*LEN(A964)+1,LEN(A964)+1)))</f>
+        <f t="array" aca="1" ref="B975" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A963,";",REPT(" ",LEN(A963)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A963)-LEN(SUBSTITUTE(A963,";",""))+1))*LEN(A963)+1,LEN(A963)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="976">
       <c r="B976">
-        <f t="array" aca="1" ref="B976" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A965,";",REPT(" ",LEN(A965)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A965)-LEN(SUBSTITUTE(A965,";",""))+1))*LEN(A965)+1,LEN(A965)+1)))</f>
+        <f t="array" aca="1" ref="B976" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A964,";",REPT(" ",LEN(A964)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A964)-LEN(SUBSTITUTE(A964,";",""))+1))*LEN(A964)+1,LEN(A964)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="977">
       <c r="B977">
-        <f t="array" aca="1" ref="B977" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A966,";",REPT(" ",LEN(A966)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A966)-LEN(SUBSTITUTE(A966,";",""))+1))*LEN(A966)+1,LEN(A966)+1)))</f>
+        <f t="array" aca="1" ref="B977" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A965,";",REPT(" ",LEN(A965)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A965)-LEN(SUBSTITUTE(A965,";",""))+1))*LEN(A965)+1,LEN(A965)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="978">
       <c r="B978">
-        <f t="array" aca="1" ref="B978" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A967,";",REPT(" ",LEN(A967)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A967)-LEN(SUBSTITUTE(A967,";",""))+1))*LEN(A967)+1,LEN(A967)+1)))</f>
+        <f t="array" aca="1" ref="B978" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A966,";",REPT(" ",LEN(A966)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A966)-LEN(SUBSTITUTE(A966,";",""))+1))*LEN(A966)+1,LEN(A966)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="979">
       <c r="B979">
-        <f t="array" aca="1" ref="B979" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A968,";",REPT(" ",LEN(A968)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A968)-LEN(SUBSTITUTE(A968,";",""))+1))*LEN(A968)+1,LEN(A968)+1)))</f>
+        <f t="array" aca="1" ref="B979" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A967,";",REPT(" ",LEN(A967)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A967)-LEN(SUBSTITUTE(A967,";",""))+1))*LEN(A967)+1,LEN(A967)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="980">
       <c r="B980">
-        <f t="array" aca="1" ref="B980" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A969,";",REPT(" ",LEN(A969)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A969)-LEN(SUBSTITUTE(A969,";",""))+1))*LEN(A969)+1,LEN(A969)+1)))</f>
+        <f t="array" aca="1" ref="B980" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A968,";",REPT(" ",LEN(A968)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A968)-LEN(SUBSTITUTE(A968,";",""))+1))*LEN(A968)+1,LEN(A968)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="981">
       <c r="B981">
-        <f t="array" aca="1" ref="B981" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A970,";",REPT(" ",LEN(A970)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A970)-LEN(SUBSTITUTE(A970,";",""))+1))*LEN(A970)+1,LEN(A970)+1)))</f>
+        <f t="array" aca="1" ref="B981" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A969,";",REPT(" ",LEN(A969)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A969)-LEN(SUBSTITUTE(A969,";",""))+1))*LEN(A969)+1,LEN(A969)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="982">
       <c r="B982">
-        <f t="array" aca="1" ref="B982" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A971,";",REPT(" ",LEN(A971)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A971)-LEN(SUBSTITUTE(A971,";",""))+1))*LEN(A971)+1,LEN(A971)+1)))</f>
+        <f t="array" aca="1" ref="B982" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A970,";",REPT(" ",LEN(A970)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A970)-LEN(SUBSTITUTE(A970,";",""))+1))*LEN(A970)+1,LEN(A970)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="983">
       <c r="B983">
-        <f t="array" aca="1" ref="B983" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A972,";",REPT(" ",LEN(A972)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A972)-LEN(SUBSTITUTE(A972,";",""))+1))*LEN(A972)+1,LEN(A972)+1)))</f>
+        <f t="array" aca="1" ref="B983" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A971,";",REPT(" ",LEN(A971)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A971)-LEN(SUBSTITUTE(A971,";",""))+1))*LEN(A971)+1,LEN(A971)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="984">
       <c r="B984">
-        <f t="array" aca="1" ref="B984" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A973,";",REPT(" ",LEN(A973)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A973)-LEN(SUBSTITUTE(A973,";",""))+1))*LEN(A973)+1,LEN(A973)+1)))</f>
+        <f t="array" aca="1" ref="B984" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A972,";",REPT(" ",LEN(A972)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A972)-LEN(SUBSTITUTE(A972,";",""))+1))*LEN(A972)+1,LEN(A972)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="985">
       <c r="B985">
-        <f t="array" aca="1" ref="B985" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A974,";",REPT(" ",LEN(A974)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A974)-LEN(SUBSTITUTE(A974,";",""))+1))*LEN(A974)+1,LEN(A974)+1)))</f>
+        <f t="array" aca="1" ref="B985" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A973,";",REPT(" ",LEN(A973)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A973)-LEN(SUBSTITUTE(A973,";",""))+1))*LEN(A973)+1,LEN(A973)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="986">
       <c r="B986">
-        <f t="array" aca="1" ref="B986" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A975,";",REPT(" ",LEN(A975)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A975)-LEN(SUBSTITUTE(A975,";",""))+1))*LEN(A975)+1,LEN(A975)+1)))</f>
+        <f t="array" aca="1" ref="B986" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A974,";",REPT(" ",LEN(A974)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A974)-LEN(SUBSTITUTE(A974,";",""))+1))*LEN(A974)+1,LEN(A974)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="987">
       <c r="B987">
-        <f t="array" aca="1" ref="B987" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A976,";",REPT(" ",LEN(A976)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A976)-LEN(SUBSTITUTE(A976,";",""))+1))*LEN(A976)+1,LEN(A976)+1)))</f>
+        <f t="array" aca="1" ref="B987" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A975,";",REPT(" ",LEN(A975)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A975)-LEN(SUBSTITUTE(A975,";",""))+1))*LEN(A975)+1,LEN(A975)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="988">
       <c r="B988">
-        <f t="array" aca="1" ref="B988" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A977,";",REPT(" ",LEN(A977)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A977)-LEN(SUBSTITUTE(A977,";",""))+1))*LEN(A977)+1,LEN(A977)+1)))</f>
+        <f t="array" aca="1" ref="B988" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A976,";",REPT(" ",LEN(A976)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A976)-LEN(SUBSTITUTE(A976,";",""))+1))*LEN(A976)+1,LEN(A976)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="989">
       <c r="B989">
-        <f t="array" aca="1" ref="B989" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A978,";",REPT(" ",LEN(A978)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A978)-LEN(SUBSTITUTE(A978,";",""))+1))*LEN(A978)+1,LEN(A978)+1)))</f>
+        <f t="array" aca="1" ref="B989" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A977,";",REPT(" ",LEN(A977)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A977)-LEN(SUBSTITUTE(A977,";",""))+1))*LEN(A977)+1,LEN(A977)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="990">
       <c r="B990">
-        <f t="array" aca="1" ref="B990" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A979,";",REPT(" ",LEN(A979)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A979)-LEN(SUBSTITUTE(A979,";",""))+1))*LEN(A979)+1,LEN(A979)+1)))</f>
+        <f t="array" aca="1" ref="B990" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A978,";",REPT(" ",LEN(A978)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A978)-LEN(SUBSTITUTE(A978,";",""))+1))*LEN(A978)+1,LEN(A978)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="991">
       <c r="B991">
-        <f t="array" aca="1" ref="B991" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A980,";",REPT(" ",LEN(A980)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A980)-LEN(SUBSTITUTE(A980,";",""))+1))*LEN(A980)+1,LEN(A980)+1)))</f>
+        <f t="array" aca="1" ref="B991" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A979,";",REPT(" ",LEN(A979)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A979)-LEN(SUBSTITUTE(A979,";",""))+1))*LEN(A979)+1,LEN(A979)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="992">
       <c r="B992">
-        <f t="array" aca="1" ref="B992" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A981,";",REPT(" ",LEN(A981)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A981)-LEN(SUBSTITUTE(A981,";",""))+1))*LEN(A981)+1,LEN(A981)+1)))</f>
+        <f t="array" aca="1" ref="B992" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A980,";",REPT(" ",LEN(A980)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A980)-LEN(SUBSTITUTE(A980,";",""))+1))*LEN(A980)+1,LEN(A980)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="993">
       <c r="B993">
-        <f t="array" aca="1" ref="B993" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A982,";",REPT(" ",LEN(A982)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A982)-LEN(SUBSTITUTE(A982,";",""))+1))*LEN(A982)+1,LEN(A982)+1)))</f>
+        <f t="array" aca="1" ref="B993" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A981,";",REPT(" ",LEN(A981)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A981)-LEN(SUBSTITUTE(A981,";",""))+1))*LEN(A981)+1,LEN(A981)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="994">
       <c r="B994">
-        <f t="array" aca="1" ref="B994" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A983,";",REPT(" ",LEN(A983)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A983)-LEN(SUBSTITUTE(A983,";",""))+1))*LEN(A983)+1,LEN(A983)+1)))</f>
+        <f t="array" aca="1" ref="B994" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A982,";",REPT(" ",LEN(A982)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A982)-LEN(SUBSTITUTE(A982,";",""))+1))*LEN(A982)+1,LEN(A982)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="995">
       <c r="B995">
-        <f t="array" aca="1" ref="B995" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A984,";",REPT(" ",LEN(A984)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A984)-LEN(SUBSTITUTE(A984,";",""))+1))*LEN(A984)+1,LEN(A984)+1)))</f>
+        <f t="array" aca="1" ref="B995" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A983,";",REPT(" ",LEN(A983)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A983)-LEN(SUBSTITUTE(A983,";",""))+1))*LEN(A983)+1,LEN(A983)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="996">
       <c r="B996">
-        <f t="array" aca="1" ref="B996" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A985,";",REPT(" ",LEN(A985)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A985)-LEN(SUBSTITUTE(A985,";",""))+1))*LEN(A985)+1,LEN(A985)+1)))</f>
+        <f t="array" aca="1" ref="B996" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A984,";",REPT(" ",LEN(A984)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A984)-LEN(SUBSTITUTE(A984,";",""))+1))*LEN(A984)+1,LEN(A984)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="997">
       <c r="B997">
-        <f t="array" aca="1" ref="B997" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A986,";",REPT(" ",LEN(A986)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A986)-LEN(SUBSTITUTE(A986,";",""))+1))*LEN(A986)+1,LEN(A986)+1)))</f>
+        <f t="array" aca="1" ref="B997" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A985,";",REPT(" ",LEN(A985)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A985)-LEN(SUBSTITUTE(A985,";",""))+1))*LEN(A985)+1,LEN(A985)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="998">
       <c r="B998">
-        <f t="array" aca="1" ref="B998" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A987,";",REPT(" ",LEN(A987)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A987)-LEN(SUBSTITUTE(A987,";",""))+1))*LEN(A987)+1,LEN(A987)+1)))</f>
+        <f t="array" aca="1" ref="B998" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A986,";",REPT(" ",LEN(A986)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A986)-LEN(SUBSTITUTE(A986,";",""))+1))*LEN(A986)+1,LEN(A986)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="999">
       <c r="B999">
-        <f t="array" aca="1" ref="B999" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A988,";",REPT(" ",LEN(A988)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A988)-LEN(SUBSTITUTE(A988,";",""))+1))*LEN(A988)+1,LEN(A988)+1)))</f>
+        <f t="array" aca="1" ref="B999" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A987,";",REPT(" ",LEN(A987)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A987)-LEN(SUBSTITUTE(A987,";",""))+1))*LEN(A987)+1,LEN(A987)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1000">
       <c r="B1000">
-        <f t="array" aca="1" ref="B1000" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A989,";",REPT(" ",LEN(A989)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A989)-LEN(SUBSTITUTE(A989,";",""))+1))*LEN(A989)+1,LEN(A989)+1)))</f>
+        <f t="array" aca="1" ref="B1000" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A988,";",REPT(" ",LEN(A988)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A988)-LEN(SUBSTITUTE(A988,";",""))+1))*LEN(A988)+1,LEN(A988)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1001">
       <c r="B1001">
-        <f t="array" aca="1" ref="B1001" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A990,";",REPT(" ",LEN(A990)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A990)-LEN(SUBSTITUTE(A990,";",""))+1))*LEN(A990)+1,LEN(A990)+1)))</f>
+        <f t="array" aca="1" ref="B1001" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A989,";",REPT(" ",LEN(A989)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A989)-LEN(SUBSTITUTE(A989,";",""))+1))*LEN(A989)+1,LEN(A989)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1002">
       <c r="B1002">
-        <f t="array" aca="1" ref="B1002" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A991,";",REPT(" ",LEN(A991)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A991)-LEN(SUBSTITUTE(A991,";",""))+1))*LEN(A991)+1,LEN(A991)+1)))</f>
+        <f t="array" aca="1" ref="B1002" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A990,";",REPT(" ",LEN(A990)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A990)-LEN(SUBSTITUTE(A990,";",""))+1))*LEN(A990)+1,LEN(A990)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1003">
       <c r="B1003">
-        <f t="array" aca="1" ref="B1003" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A992,";",REPT(" ",LEN(A992)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A992)-LEN(SUBSTITUTE(A992,";",""))+1))*LEN(A992)+1,LEN(A992)+1)))</f>
+        <f t="array" aca="1" ref="B1003" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A991,";",REPT(" ",LEN(A991)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A991)-LEN(SUBSTITUTE(A991,";",""))+1))*LEN(A991)+1,LEN(A991)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1004">
       <c r="B1004">
-        <f t="array" aca="1" ref="B1004" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A993,";",REPT(" ",LEN(A993)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A993)-LEN(SUBSTITUTE(A993,";",""))+1))*LEN(A993)+1,LEN(A993)+1)))</f>
+        <f t="array" aca="1" ref="B1004" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A992,";",REPT(" ",LEN(A992)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A992)-LEN(SUBSTITUTE(A992,";",""))+1))*LEN(A992)+1,LEN(A992)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1005">
       <c r="B1005">
-        <f t="array" aca="1" ref="B1005" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A994,";",REPT(" ",LEN(A994)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A994)-LEN(SUBSTITUTE(A994,";",""))+1))*LEN(A994)+1,LEN(A994)+1)))</f>
+        <f t="array" aca="1" ref="B1005" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A993,";",REPT(" ",LEN(A993)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A993)-LEN(SUBSTITUTE(A993,";",""))+1))*LEN(A993)+1,LEN(A993)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1006">
       <c r="B1006">
-        <f t="array" aca="1" ref="B1006" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A995,";",REPT(" ",LEN(A995)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A995)-LEN(SUBSTITUTE(A995,";",""))+1))*LEN(A995)+1,LEN(A995)+1)))</f>
+        <f t="array" aca="1" ref="B1006" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A994,";",REPT(" ",LEN(A994)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A994)-LEN(SUBSTITUTE(A994,";",""))+1))*LEN(A994)+1,LEN(A994)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1007">
       <c r="B1007">
-        <f t="array" aca="1" ref="B1007" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A996,";",REPT(" ",LEN(A996)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A996)-LEN(SUBSTITUTE(A996,";",""))+1))*LEN(A996)+1,LEN(A996)+1)))</f>
+        <f t="array" aca="1" ref="B1007" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A995,";",REPT(" ",LEN(A995)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A995)-LEN(SUBSTITUTE(A995,";",""))+1))*LEN(A995)+1,LEN(A995)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1008">
       <c r="B1008">
-        <f t="array" aca="1" ref="B1008" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A997,";",REPT(" ",LEN(A997)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A997)-LEN(SUBSTITUTE(A997,";",""))+1))*LEN(A997)+1,LEN(A997)+1)))</f>
+        <f t="array" aca="1" ref="B1008" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A996,";",REPT(" ",LEN(A996)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A996)-LEN(SUBSTITUTE(A996,";",""))+1))*LEN(A996)+1,LEN(A996)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1009">
       <c r="B1009">
-        <f t="array" aca="1" ref="B1009" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A998,";",REPT(" ",LEN(A998)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A998)-LEN(SUBSTITUTE(A998,";",""))+1))*LEN(A998)+1,LEN(A998)+1)))</f>
+        <f t="array" aca="1" ref="B1009" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A997,";",REPT(" ",LEN(A997)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A997)-LEN(SUBSTITUTE(A997,";",""))+1))*LEN(A997)+1,LEN(A997)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1010">
       <c r="B1010">
-        <f t="array" aca="1" ref="B1010" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A999,";",REPT(" ",LEN(A999)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A999)-LEN(SUBSTITUTE(A999,";",""))+1))*LEN(A999)+1,LEN(A999)+1)))</f>
+        <f t="array" aca="1" ref="B1010" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A998,";",REPT(" ",LEN(A998)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A998)-LEN(SUBSTITUTE(A998,";",""))+1))*LEN(A998)+1,LEN(A998)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1011">
       <c r="B1011">
-        <f t="array" aca="1" ref="B1011" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1000,";",REPT(" ",LEN(A1000)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1000)-LEN(SUBSTITUTE(A1000,";",""))+1))*LEN(A1000)+1,LEN(A1000)+1)))</f>
+        <f t="array" aca="1" ref="B1011" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A999,";",REPT(" ",LEN(A999)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A999)-LEN(SUBSTITUTE(A999,";",""))+1))*LEN(A999)+1,LEN(A999)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1012">
       <c r="B1012">
-        <f t="array" aca="1" ref="B1012" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1001,";",REPT(" ",LEN(A1001)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1001)-LEN(SUBSTITUTE(A1001,";",""))+1))*LEN(A1001)+1,LEN(A1001)+1)))</f>
+        <f t="array" aca="1" ref="B1012" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1000,";",REPT(" ",LEN(A1000)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1000)-LEN(SUBSTITUTE(A1000,";",""))+1))*LEN(A1000)+1,LEN(A1000)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1013">
       <c r="B1013">
-        <f t="array" aca="1" ref="B1013" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1002,";",REPT(" ",LEN(A1002)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1002)-LEN(SUBSTITUTE(A1002,";",""))+1))*LEN(A1002)+1,LEN(A1002)+1)))</f>
+        <f t="array" aca="1" ref="B1013" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1001,";",REPT(" ",LEN(A1001)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1001)-LEN(SUBSTITUTE(A1001,";",""))+1))*LEN(A1001)+1,LEN(A1001)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1014">
       <c r="B1014">
-        <f t="array" aca="1" ref="B1014" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1003,";",REPT(" ",LEN(A1003)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1003)-LEN(SUBSTITUTE(A1003,";",""))+1))*LEN(A1003)+1,LEN(A1003)+1)))</f>
+        <f t="array" aca="1" ref="B1014" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1002,";",REPT(" ",LEN(A1002)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1002)-LEN(SUBSTITUTE(A1002,";",""))+1))*LEN(A1002)+1,LEN(A1002)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1015">
       <c r="B1015">
-        <f t="array" aca="1" ref="B1015" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1004,";",REPT(" ",LEN(A1004)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1004)-LEN(SUBSTITUTE(A1004,";",""))+1))*LEN(A1004)+1,LEN(A1004)+1)))</f>
+        <f t="array" aca="1" ref="B1015" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1003,";",REPT(" ",LEN(A1003)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1003)-LEN(SUBSTITUTE(A1003,";",""))+1))*LEN(A1003)+1,LEN(A1003)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1016">
       <c r="B1016">
-        <f t="array" aca="1" ref="B1016" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1005,";",REPT(" ",LEN(A1005)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1005)-LEN(SUBSTITUTE(A1005,";",""))+1))*LEN(A1005)+1,LEN(A1005)+1)))</f>
+        <f t="array" aca="1" ref="B1016" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1004,";",REPT(" ",LEN(A1004)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1004)-LEN(SUBSTITUTE(A1004,";",""))+1))*LEN(A1004)+1,LEN(A1004)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1017">
       <c r="B1017">
-        <f t="array" aca="1" ref="B1017" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1006,";",REPT(" ",LEN(A1006)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1006)-LEN(SUBSTITUTE(A1006,";",""))+1))*LEN(A1006)+1,LEN(A1006)+1)))</f>
+        <f t="array" aca="1" ref="B1017" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1005,";",REPT(" ",LEN(A1005)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1005)-LEN(SUBSTITUTE(A1005,";",""))+1))*LEN(A1005)+1,LEN(A1005)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1018">
       <c r="B1018">
-        <f t="array" aca="1" ref="B1018" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1007,";",REPT(" ",LEN(A1007)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1007)-LEN(SUBSTITUTE(A1007,";",""))+1))*LEN(A1007)+1,LEN(A1007)+1)))</f>
+        <f t="array" aca="1" ref="B1018" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1006,";",REPT(" ",LEN(A1006)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1006)-LEN(SUBSTITUTE(A1006,";",""))+1))*LEN(A1006)+1,LEN(A1006)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1019">
       <c r="B1019">
-        <f t="array" aca="1" ref="B1019" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1008,";",REPT(" ",LEN(A1008)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1008)-LEN(SUBSTITUTE(A1008,";",""))+1))*LEN(A1008)+1,LEN(A1008)+1)))</f>
+        <f t="array" aca="1" ref="B1019" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1007,";",REPT(" ",LEN(A1007)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1007)-LEN(SUBSTITUTE(A1007,";",""))+1))*LEN(A1007)+1,LEN(A1007)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1020">
       <c r="B1020">
-        <f t="array" aca="1" ref="B1020" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1009,";",REPT(" ",LEN(A1009)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1009)-LEN(SUBSTITUTE(A1009,";",""))+1))*LEN(A1009)+1,LEN(A1009)+1)))</f>
+        <f t="array" aca="1" ref="B1020" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1008,";",REPT(" ",LEN(A1008)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1008)-LEN(SUBSTITUTE(A1008,";",""))+1))*LEN(A1008)+1,LEN(A1008)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1021">
       <c r="B1021">
-        <f t="array" aca="1" ref="B1021" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1010,";",REPT(" ",LEN(A1010)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1010)-LEN(SUBSTITUTE(A1010,";",""))+1))*LEN(A1010)+1,LEN(A1010)+1)))</f>
+        <f t="array" aca="1" ref="B1021" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1009,";",REPT(" ",LEN(A1009)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1009)-LEN(SUBSTITUTE(A1009,";",""))+1))*LEN(A1009)+1,LEN(A1009)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1022">
       <c r="B1022">
-        <f t="array" aca="1" ref="B1022" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1011,";",REPT(" ",LEN(A1011)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1011)-LEN(SUBSTITUTE(A1011,";",""))+1))*LEN(A1011)+1,LEN(A1011)+1)))</f>
+        <f t="array" aca="1" ref="B1022" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1010,";",REPT(" ",LEN(A1010)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1010)-LEN(SUBSTITUTE(A1010,";",""))+1))*LEN(A1010)+1,LEN(A1010)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1023">
       <c r="B1023">
-        <f t="array" aca="1" ref="B1023" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1012,";",REPT(" ",LEN(A1012)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1012)-LEN(SUBSTITUTE(A1012,";",""))+1))*LEN(A1012)+1,LEN(A1012)+1)))</f>
+        <f t="array" aca="1" ref="B1023" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1011,";",REPT(" ",LEN(A1011)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1011)-LEN(SUBSTITUTE(A1011,";",""))+1))*LEN(A1011)+1,LEN(A1011)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1024">
       <c r="B1024">
-        <f t="array" aca="1" ref="B1024" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1013,";",REPT(" ",LEN(A1013)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1013)-LEN(SUBSTITUTE(A1013,";",""))+1))*LEN(A1013)+1,LEN(A1013)+1)))</f>
+        <f t="array" aca="1" ref="B1024" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1012,";",REPT(" ",LEN(A1012)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1012)-LEN(SUBSTITUTE(A1012,";",""))+1))*LEN(A1012)+1,LEN(A1012)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1025">
       <c r="B1025">
-        <f t="array" aca="1" ref="B1025" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1014,";",REPT(" ",LEN(A1014)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1014)-LEN(SUBSTITUTE(A1014,";",""))+1))*LEN(A1014)+1,LEN(A1014)+1)))</f>
+        <f t="array" aca="1" ref="B1025" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1013,";",REPT(" ",LEN(A1013)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1013)-LEN(SUBSTITUTE(A1013,";",""))+1))*LEN(A1013)+1,LEN(A1013)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1026">
       <c r="B1026">
-        <f t="array" aca="1" ref="B1026" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1015,";",REPT(" ",LEN(A1015)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1015)-LEN(SUBSTITUTE(A1015,";",""))+1))*LEN(A1015)+1,LEN(A1015)+1)))</f>
+        <f t="array" aca="1" ref="B1026" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1014,";",REPT(" ",LEN(A1014)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1014)-LEN(SUBSTITUTE(A1014,";",""))+1))*LEN(A1014)+1,LEN(A1014)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1027">
       <c r="B1027">
-        <f t="array" aca="1" ref="B1027" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1016,";",REPT(" ",LEN(A1016)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1016)-LEN(SUBSTITUTE(A1016,";",""))+1))*LEN(A1016)+1,LEN(A1016)+1)))</f>
+        <f t="array" aca="1" ref="B1027" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1015,";",REPT(" ",LEN(A1015)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1015)-LEN(SUBSTITUTE(A1015,";",""))+1))*LEN(A1015)+1,LEN(A1015)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1028">
       <c r="B1028">
-        <f t="array" aca="1" ref="B1028" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1017,";",REPT(" ",LEN(A1017)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1017)-LEN(SUBSTITUTE(A1017,";",""))+1))*LEN(A1017)+1,LEN(A1017)+1)))</f>
+        <f t="array" aca="1" ref="B1028" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1016,";",REPT(" ",LEN(A1016)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1016)-LEN(SUBSTITUTE(A1016,";",""))+1))*LEN(A1016)+1,LEN(A1016)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1029">
       <c r="B1029">
-        <f t="array" aca="1" ref="B1029" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1018,";",REPT(" ",LEN(A1018)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1018)-LEN(SUBSTITUTE(A1018,";",""))+1))*LEN(A1018)+1,LEN(A1018)+1)))</f>
+        <f t="array" aca="1" ref="B1029" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1017,";",REPT(" ",LEN(A1017)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1017)-LEN(SUBSTITUTE(A1017,";",""))+1))*LEN(A1017)+1,LEN(A1017)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1030">
       <c r="B1030">
-        <f t="array" aca="1" ref="B1030" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1019,";",REPT(" ",LEN(A1019)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1019)-LEN(SUBSTITUTE(A1019,";",""))+1))*LEN(A1019)+1,LEN(A1019)+1)))</f>
+        <f t="array" aca="1" ref="B1030" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1018,";",REPT(" ",LEN(A1018)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1018)-LEN(SUBSTITUTE(A1018,";",""))+1))*LEN(A1018)+1,LEN(A1018)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1031">
       <c r="B1031">
-        <f t="array" aca="1" ref="B1031" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1020,";",REPT(" ",LEN(A1020)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1020)-LEN(SUBSTITUTE(A1020,";",""))+1))*LEN(A1020)+1,LEN(A1020)+1)))</f>
+        <f t="array" aca="1" ref="B1031" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1019,";",REPT(" ",LEN(A1019)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1019)-LEN(SUBSTITUTE(A1019,";",""))+1))*LEN(A1019)+1,LEN(A1019)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1032">
       <c r="B1032">
-        <f t="array" aca="1" ref="B1032" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1021,";",REPT(" ",LEN(A1021)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1021)-LEN(SUBSTITUTE(A1021,";",""))+1))*LEN(A1021)+1,LEN(A1021)+1)))</f>
+        <f t="array" aca="1" ref="B1032" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1020,";",REPT(" ",LEN(A1020)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1020)-LEN(SUBSTITUTE(A1020,";",""))+1))*LEN(A1020)+1,LEN(A1020)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1033">
       <c r="B1033">
-        <f t="array" aca="1" ref="B1033" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1022,";",REPT(" ",LEN(A1022)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1022)-LEN(SUBSTITUTE(A1022,";",""))+1))*LEN(A1022)+1,LEN(A1022)+1)))</f>
+        <f t="array" aca="1" ref="B1033" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1021,";",REPT(" ",LEN(A1021)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1021)-LEN(SUBSTITUTE(A1021,";",""))+1))*LEN(A1021)+1,LEN(A1021)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1034">
       <c r="B1034">
-        <f t="array" aca="1" ref="B1034" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1023,";",REPT(" ",LEN(A1023)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1023)-LEN(SUBSTITUTE(A1023,";",""))+1))*LEN(A1023)+1,LEN(A1023)+1)))</f>
+        <f t="array" aca="1" ref="B1034" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1022,";",REPT(" ",LEN(A1022)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1022)-LEN(SUBSTITUTE(A1022,";",""))+1))*LEN(A1022)+1,LEN(A1022)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1035">
       <c r="B1035">
-        <f t="array" aca="1" ref="B1035" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1024,";",REPT(" ",LEN(A1024)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1024)-LEN(SUBSTITUTE(A1024,";",""))+1))*LEN(A1024)+1,LEN(A1024)+1)))</f>
+        <f t="array" aca="1" ref="B1035" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1023,";",REPT(" ",LEN(A1023)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1023)-LEN(SUBSTITUTE(A1023,";",""))+1))*LEN(A1023)+1,LEN(A1023)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1036">
       <c r="B1036">
-        <f t="array" aca="1" ref="B1036" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1025,";",REPT(" ",LEN(A1025)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1025)-LEN(SUBSTITUTE(A1025,";",""))+1))*LEN(A1025)+1,LEN(A1025)+1)))</f>
+        <f t="array" aca="1" ref="B1036" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1024,";",REPT(" ",LEN(A1024)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1024)-LEN(SUBSTITUTE(A1024,";",""))+1))*LEN(A1024)+1,LEN(A1024)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1037">
       <c r="B1037">
-        <f t="array" aca="1" ref="B1037" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1026,";",REPT(" ",LEN(A1026)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1026)-LEN(SUBSTITUTE(A1026,";",""))+1))*LEN(A1026)+1,LEN(A1026)+1)))</f>
+        <f t="array" aca="1" ref="B1037" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1025,";",REPT(" ",LEN(A1025)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1025)-LEN(SUBSTITUTE(A1025,";",""))+1))*LEN(A1025)+1,LEN(A1025)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1038">
       <c r="B1038">
-        <f t="array" aca="1" ref="B1038" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1027,";",REPT(" ",LEN(A1027)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1027)-LEN(SUBSTITUTE(A1027,";",""))+1))*LEN(A1027)+1,LEN(A1027)+1)))</f>
+        <f t="array" aca="1" ref="B1038" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1026,";",REPT(" ",LEN(A1026)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1026)-LEN(SUBSTITUTE(A1026,";",""))+1))*LEN(A1026)+1,LEN(A1026)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1039">
       <c r="B1039">
-        <f t="array" aca="1" ref="B1039" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1028,";",REPT(" ",LEN(A1028)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1028)-LEN(SUBSTITUTE(A1028,";",""))+1))*LEN(A1028)+1,LEN(A1028)+1)))</f>
+        <f t="array" aca="1" ref="B1039" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1027,";",REPT(" ",LEN(A1027)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1027)-LEN(SUBSTITUTE(A1027,";",""))+1))*LEN(A1027)+1,LEN(A1027)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1040">
       <c r="B1040">
-        <f t="array" aca="1" ref="B1040" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1029,";",REPT(" ",LEN(A1029)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1029)-LEN(SUBSTITUTE(A1029,";",""))+1))*LEN(A1029)+1,LEN(A1029)+1)))</f>
+        <f t="array" aca="1" ref="B1040" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1028,";",REPT(" ",LEN(A1028)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1028)-LEN(SUBSTITUTE(A1028,";",""))+1))*LEN(A1028)+1,LEN(A1028)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1041">
       <c r="B1041">
-        <f t="array" aca="1" ref="B1041" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1030,";",REPT(" ",LEN(A1030)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1030)-LEN(SUBSTITUTE(A1030,";",""))+1))*LEN(A1030)+1,LEN(A1030)+1)))</f>
+        <f t="array" aca="1" ref="B1041" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1029,";",REPT(" ",LEN(A1029)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1029)-LEN(SUBSTITUTE(A1029,";",""))+1))*LEN(A1029)+1,LEN(A1029)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1042">
       <c r="B1042">
-        <f t="array" aca="1" ref="B1042" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1031,";",REPT(" ",LEN(A1031)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1031)-LEN(SUBSTITUTE(A1031,";",""))+1))*LEN(A1031)+1,LEN(A1031)+1)))</f>
+        <f t="array" aca="1" ref="B1042" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1030,";",REPT(" ",LEN(A1030)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1030)-LEN(SUBSTITUTE(A1030,";",""))+1))*LEN(A1030)+1,LEN(A1030)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1043">
       <c r="B1043">
-        <f t="array" aca="1" ref="B1043" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1032,";",REPT(" ",LEN(A1032)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1032)-LEN(SUBSTITUTE(A1032,";",""))+1))*LEN(A1032)+1,LEN(A1032)+1)))</f>
+        <f t="array" aca="1" ref="B1043" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1031,";",REPT(" ",LEN(A1031)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1031)-LEN(SUBSTITUTE(A1031,";",""))+1))*LEN(A1031)+1,LEN(A1031)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1044">
       <c r="B1044">
-        <f t="array" aca="1" ref="B1044" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1033,";",REPT(" ",LEN(A1033)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1033)-LEN(SUBSTITUTE(A1033,";",""))+1))*LEN(A1033)+1,LEN(A1033)+1)))</f>
+        <f t="array" aca="1" ref="B1044" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1032,";",REPT(" ",LEN(A1032)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1032)-LEN(SUBSTITUTE(A1032,";",""))+1))*LEN(A1032)+1,LEN(A1032)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1045">
       <c r="B1045">
-        <f t="array" aca="1" ref="B1045" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1034,";",REPT(" ",LEN(A1034)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1034)-LEN(SUBSTITUTE(A1034,";",""))+1))*LEN(A1034)+1,LEN(A1034)+1)))</f>
+        <f t="array" aca="1" ref="B1045" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1033,";",REPT(" ",LEN(A1033)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1033)-LEN(SUBSTITUTE(A1033,";",""))+1))*LEN(A1033)+1,LEN(A1033)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1046">
       <c r="B1046">
-        <f t="array" aca="1" ref="B1046" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1035,";",REPT(" ",LEN(A1035)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1035)-LEN(SUBSTITUTE(A1035,";",""))+1))*LEN(A1035)+1,LEN(A1035)+1)))</f>
+        <f t="array" aca="1" ref="B1046" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1034,";",REPT(" ",LEN(A1034)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1034)-LEN(SUBSTITUTE(A1034,";",""))+1))*LEN(A1034)+1,LEN(A1034)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1047">
       <c r="B1047">
-        <f t="array" aca="1" ref="B1047" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1036,";",REPT(" ",LEN(A1036)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1036)-LEN(SUBSTITUTE(A1036,";",""))+1))*LEN(A1036)+1,LEN(A1036)+1)))</f>
+        <f t="array" aca="1" ref="B1047" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1035,";",REPT(" ",LEN(A1035)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1035)-LEN(SUBSTITUTE(A1035,";",""))+1))*LEN(A1035)+1,LEN(A1035)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1048">
       <c r="B1048">
-        <f t="array" aca="1" ref="B1048" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1037,";",REPT(" ",LEN(A1037)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1037)-LEN(SUBSTITUTE(A1037,";",""))+1))*LEN(A1037)+1,LEN(A1037)+1)))</f>
+        <f t="array" aca="1" ref="B1048" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1036,";",REPT(" ",LEN(A1036)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1036)-LEN(SUBSTITUTE(A1036,";",""))+1))*LEN(A1036)+1,LEN(A1036)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1049">
       <c r="B1049">
-        <f t="array" aca="1" ref="B1049" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1038,";",REPT(" ",LEN(A1038)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1038)-LEN(SUBSTITUTE(A1038,";",""))+1))*LEN(A1038)+1,LEN(A1038)+1)))</f>
+        <f t="array" aca="1" ref="B1049" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1037,";",REPT(" ",LEN(A1037)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1037)-LEN(SUBSTITUTE(A1037,";",""))+1))*LEN(A1037)+1,LEN(A1037)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1050">
       <c r="B1050">
-        <f t="array" aca="1" ref="B1050" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1039,";",REPT(" ",LEN(A1039)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1039)-LEN(SUBSTITUTE(A1039,";",""))+1))*LEN(A1039)+1,LEN(A1039)+1)))</f>
+        <f t="array" aca="1" ref="B1050" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1038,";",REPT(" ",LEN(A1038)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1038)-LEN(SUBSTITUTE(A1038,";",""))+1))*LEN(A1038)+1,LEN(A1038)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1051">
       <c r="B1051">
-        <f t="array" aca="1" ref="B1051" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1040,";",REPT(" ",LEN(A1040)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1040)-LEN(SUBSTITUTE(A1040,";",""))+1))*LEN(A1040)+1,LEN(A1040)+1)))</f>
+        <f t="array" aca="1" ref="B1051" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1039,";",REPT(" ",LEN(A1039)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1039)-LEN(SUBSTITUTE(A1039,";",""))+1))*LEN(A1039)+1,LEN(A1039)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1052">
       <c r="B1052">
-        <f t="array" aca="1" ref="B1052" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1041,";",REPT(" ",LEN(A1041)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1041)-LEN(SUBSTITUTE(A1041,";",""))+1))*LEN(A1041)+1,LEN(A1041)+1)))</f>
+        <f t="array" aca="1" ref="B1052" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1040,";",REPT(" ",LEN(A1040)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1040)-LEN(SUBSTITUTE(A1040,";",""))+1))*LEN(A1040)+1,LEN(A1040)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1053">
       <c r="B1053">
-        <f t="array" aca="1" ref="B1053" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1042,";",REPT(" ",LEN(A1042)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1042)-LEN(SUBSTITUTE(A1042,";",""))+1))*LEN(A1042)+1,LEN(A1042)+1)))</f>
+        <f t="array" aca="1" ref="B1053" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1041,";",REPT(" ",LEN(A1041)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1041)-LEN(SUBSTITUTE(A1041,";",""))+1))*LEN(A1041)+1,LEN(A1041)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1054">
       <c r="B1054">
-        <f t="array" aca="1" ref="B1054" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1043,";",REPT(" ",LEN(A1043)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1043)-LEN(SUBSTITUTE(A1043,";",""))+1))*LEN(A1043)+1,LEN(A1043)+1)))</f>
+        <f t="array" aca="1" ref="B1054" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1042,";",REPT(" ",LEN(A1042)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1042)-LEN(SUBSTITUTE(A1042,";",""))+1))*LEN(A1042)+1,LEN(A1042)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1055">
       <c r="B1055">
-        <f t="array" aca="1" ref="B1055" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1044,";",REPT(" ",LEN(A1044)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1044)-LEN(SUBSTITUTE(A1044,";",""))+1))*LEN(A1044)+1,LEN(A1044)+1)))</f>
+        <f t="array" aca="1" ref="B1055" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1043,";",REPT(" ",LEN(A1043)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1043)-LEN(SUBSTITUTE(A1043,";",""))+1))*LEN(A1043)+1,LEN(A1043)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1056">
       <c r="B1056">
-        <f t="array" aca="1" ref="B1056" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1045,";",REPT(" ",LEN(A1045)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1045)-LEN(SUBSTITUTE(A1045,";",""))+1))*LEN(A1045)+1,LEN(A1045)+1)))</f>
+        <f t="array" aca="1" ref="B1056" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1044,";",REPT(" ",LEN(A1044)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1044)-LEN(SUBSTITUTE(A1044,";",""))+1))*LEN(A1044)+1,LEN(A1044)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1057">
       <c r="B1057">
-        <f t="array" aca="1" ref="B1057" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1046,";",REPT(" ",LEN(A1046)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1046)-LEN(SUBSTITUTE(A1046,";",""))+1))*LEN(A1046)+1,LEN(A1046)+1)))</f>
+        <f t="array" aca="1" ref="B1057" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1045,";",REPT(" ",LEN(A1045)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1045)-LEN(SUBSTITUTE(A1045,";",""))+1))*LEN(A1045)+1,LEN(A1045)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1058">
       <c r="B1058">
-        <f t="array" aca="1" ref="B1058" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1047,";",REPT(" ",LEN(A1047)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1047)-LEN(SUBSTITUTE(A1047,";",""))+1))*LEN(A1047)+1,LEN(A1047)+1)))</f>
+        <f t="array" aca="1" ref="B1058" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1046,";",REPT(" ",LEN(A1046)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1046)-LEN(SUBSTITUTE(A1046,";",""))+1))*LEN(A1046)+1,LEN(A1046)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1059">
       <c r="B1059">
-        <f t="array" aca="1" ref="B1059" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1048,";",REPT(" ",LEN(A1048)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1048)-LEN(SUBSTITUTE(A1048,";",""))+1))*LEN(A1048)+1,LEN(A1048)+1)))</f>
+        <f t="array" aca="1" ref="B1059" ca="1">TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1047,";",REPT(" ",LEN(A1047)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1047)-LEN(SUBSTITUTE(A1047,";",""))+1))*LEN(A1047)+1,LEN(A1047)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1060">
       <c r="B1060">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1049,";",REPT(" ",LEN(A1049)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1049)-LEN(SUBSTITUTE(A1049,";",""))+1))*LEN(A1049)+1,LEN(A1049)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1048,";",REPT(" ",LEN(A1048)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1048)-LEN(SUBSTITUTE(A1048,";",""))+1))*LEN(A1048)+1,LEN(A1048)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1061">
       <c r="B1061">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1050,";",REPT(" ",LEN(A1050)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1050)-LEN(SUBSTITUTE(A1050,";",""))+1))*LEN(A1050)+1,LEN(A1050)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1049,";",REPT(" ",LEN(A1049)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1049)-LEN(SUBSTITUTE(A1049,";",""))+1))*LEN(A1049)+1,LEN(A1049)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1062">
       <c r="B1062">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1051,";",REPT(" ",LEN(A1051)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1051)-LEN(SUBSTITUTE(A1051,";",""))+1))*LEN(A1051)+1,LEN(A1051)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1050,";",REPT(" ",LEN(A1050)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1050)-LEN(SUBSTITUTE(A1050,";",""))+1))*LEN(A1050)+1,LEN(A1050)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1063">
       <c r="B1063">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1052,";",REPT(" ",LEN(A1052)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1052)-LEN(SUBSTITUTE(A1052,";",""))+1))*LEN(A1052)+1,LEN(A1052)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1051,";",REPT(" ",LEN(A1051)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1051)-LEN(SUBSTITUTE(A1051,";",""))+1))*LEN(A1051)+1,LEN(A1051)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1064">
       <c r="B1064">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1053,";",REPT(" ",LEN(A1053)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1053)-LEN(SUBSTITUTE(A1053,";",""))+1))*LEN(A1053)+1,LEN(A1053)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1052,";",REPT(" ",LEN(A1052)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1052)-LEN(SUBSTITUTE(A1052,";",""))+1))*LEN(A1052)+1,LEN(A1052)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1065">
       <c r="B1065">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1054,";",REPT(" ",LEN(A1054)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1054)-LEN(SUBSTITUTE(A1054,";",""))+1))*LEN(A1054)+1,LEN(A1054)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1053,";",REPT(" ",LEN(A1053)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1053)-LEN(SUBSTITUTE(A1053,";",""))+1))*LEN(A1053)+1,LEN(A1053)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1066">
       <c r="B1066">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1055,";",REPT(" ",LEN(A1055)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1055)-LEN(SUBSTITUTE(A1055,";",""))+1))*LEN(A1055)+1,LEN(A1055)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1054,";",REPT(" ",LEN(A1054)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1054)-LEN(SUBSTITUTE(A1054,";",""))+1))*LEN(A1054)+1,LEN(A1054)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1067">
       <c r="B1067">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1056,";",REPT(" ",LEN(A1056)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1056)-LEN(SUBSTITUTE(A1056,";",""))+1))*LEN(A1056)+1,LEN(A1056)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1055,";",REPT(" ",LEN(A1055)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1055)-LEN(SUBSTITUTE(A1055,";",""))+1))*LEN(A1055)+1,LEN(A1055)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1068">
       <c r="B1068">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1057,";",REPT(" ",LEN(A1057)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1057)-LEN(SUBSTITUTE(A1057,";",""))+1))*LEN(A1057)+1,LEN(A1057)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1056,";",REPT(" ",LEN(A1056)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1056)-LEN(SUBSTITUTE(A1056,";",""))+1))*LEN(A1056)+1,LEN(A1056)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1069">
       <c r="B1069">
-        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1058,";",REPT(" ",LEN(A1058)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1058)-LEN(SUBSTITUTE(A1058,";",""))+1))*LEN(A1058)+1,LEN(A1058)+1)))</f>
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1057,";",REPT(" ",LEN(A1057)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1057)-LEN(SUBSTITUTE(A1057,";",""))+1))*LEN(A1057)+1,LEN(A1057)+1)))</f>
         <v/>
       </c>
     </row>
     <row r="1070">
       <c r="B1070">
+        <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1058,";",REPT(" ",LEN(A1058)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1058)-LEN(SUBSTITUTE(A1058,";",""))+1))*LEN(A1058)+1,LEN(A1058)+1)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="B1071">
         <f>TRANSPOSE(TRIM(MID(SUBSTITUTE(";"&amp;A1059,";",REPT(" ",LEN(A1059)+1)),ROW(INDIRECT("A1:A"&amp;LEN(A1059)-LEN(SUBSTITUTE(A1059,";",""))+1))*LEN(A1059)+1,LEN(A1059)+1)))</f>
         <v/>
       </c>
